--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,7 +458,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,13 +614,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23628,7 +23628,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="BT26" sqref="BT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23638,8 +23638,8 @@
     <col min="74" max="77" width="8.36328125" style="17" customWidth="1"/>
     <col min="78" max="78" width="9.81640625" style="17" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="8.36328125" style="17" customWidth="1"/>
-    <col min="82" max="87" width="8.36328125" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="3"/>
+    <col min="82" max="88" width="10.6328125" style="3" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -23804,6 +23804,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24066,6 +24067,9 @@
       </c>
       <c r="CI10" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24331,9 +24335,11 @@
         <v>124223.62504618784</v>
       </c>
       <c r="CI12" s="15">
-        <v>125907.19518862481</v>
-      </c>
-      <c r="CJ12" s="11"/>
+        <v>125648.83545341165</v>
+      </c>
+      <c r="CJ12" s="15">
+        <v>146545.46194987057</v>
+      </c>
       <c r="CK12" s="11"/>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
@@ -24658,9 +24664,11 @@
         <v>150497.27820358379</v>
       </c>
       <c r="CI13" s="15">
-        <v>152390.56479208975</v>
-      </c>
-      <c r="CJ13" s="11"/>
+        <v>152339.95580364246</v>
+      </c>
+      <c r="CJ13" s="15">
+        <v>153691.98538859515</v>
+      </c>
       <c r="CK13" s="11"/>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
@@ -25137,9 +25145,11 @@
         <v>274720.90324977163</v>
       </c>
       <c r="CI15" s="16">
-        <v>278297.75998071453</v>
-      </c>
-      <c r="CJ15" s="11"/>
+        <v>277988.79125705408</v>
+      </c>
+      <c r="CJ15" s="16">
+        <v>300237.44733846572</v>
+      </c>
       <c r="CK15" s="11"/>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
@@ -25292,6 +25302,7 @@
       <c r="CG16" s="9"/>
       <c r="CH16" s="9"/>
       <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -25766,6 +25777,7 @@
       <c r="CI28" s="27">
         <v>0</v>
       </c>
+      <c r="CJ28" s="27"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -26028,6 +26040,9 @@
       </c>
       <c r="CI29" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ29" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26293,9 +26308,11 @@
         <v>112701.96329946625</v>
       </c>
       <c r="CI31" s="15">
-        <v>115970.34379420444</v>
-      </c>
-      <c r="CJ31" s="11"/>
+        <v>115990.73807519808</v>
+      </c>
+      <c r="CJ31" s="15">
+        <v>136446.87897782956</v>
+      </c>
       <c r="CK31" s="11"/>
       <c r="CL31" s="11"/>
       <c r="CM31" s="11"/>
@@ -26622,7 +26639,9 @@
       <c r="CI32" s="15">
         <v>142174.68768102225</v>
       </c>
-      <c r="CJ32" s="11"/>
+      <c r="CJ32" s="15">
+        <v>142412.64218816737</v>
+      </c>
       <c r="CK32" s="11"/>
       <c r="CL32" s="11"/>
       <c r="CM32" s="11"/>
@@ -27099,9 +27118,11 @@
         <v>253908.56051923794</v>
       </c>
       <c r="CI34" s="16">
-        <v>258145.03147522669</v>
-      </c>
-      <c r="CJ34" s="11"/>
+        <v>258165.42575622033</v>
+      </c>
+      <c r="CJ34" s="16">
+        <v>278859.52116599691</v>
+      </c>
       <c r="CK34" s="11"/>
       <c r="CL34" s="11"/>
       <c r="CM34" s="11"/>
@@ -27254,6 +27275,7 @@
       <c r="CG35" s="9"/>
       <c r="CH35" s="9"/>
       <c r="CI35" s="9"/>
+      <c r="CJ35" s="9"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -27726,6 +27748,7 @@
       <c r="CG47" s="25"/>
       <c r="CH47" s="25"/>
       <c r="CI47" s="25"/>
+      <c r="CJ47" s="25"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -27977,10 +28000,13 @@
       <c r="CE48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="26"/>
+      <c r="CF48" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CG48" s="26"/>
       <c r="CH48" s="26"/>
       <c r="CI48" s="26"/>
+      <c r="CJ48" s="26"/>
     </row>
     <row r="49" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -28233,9 +28259,11 @@
         <v>-19.626357117969491</v>
       </c>
       <c r="CE50" s="12">
-        <v>51.437484676695789</v>
-      </c>
-      <c r="CF50" s="11"/>
+        <v>51.126737158384373</v>
+      </c>
+      <c r="CF50" s="12">
+        <v>14.150072783504555</v>
+      </c>
       <c r="CG50" s="11"/>
       <c r="CH50" s="11"/>
       <c r="CI50" s="11"/>
@@ -28548,9 +28576,11 @@
         <v>3.131342628273444</v>
       </c>
       <c r="CE51" s="12">
-        <v>2.6812348640086583</v>
-      </c>
-      <c r="CF51" s="11"/>
+        <v>2.647134370739451</v>
+      </c>
+      <c r="CF51" s="12">
+        <v>2.2540727974499788</v>
+      </c>
       <c r="CG51" s="11"/>
       <c r="CH51" s="11"/>
       <c r="CI51" s="11"/>
@@ -29012,9 +29042,11 @@
         <v>-8.5743056467361072</v>
       </c>
       <c r="CE53" s="12">
-        <v>20.187667242244572</v>
-      </c>
-      <c r="CF53" s="11"/>
+        <v>20.054233792582082</v>
+      </c>
+      <c r="CF53" s="12">
+        <v>7.7341365757121565</v>
+      </c>
       <c r="CG53" s="11"/>
       <c r="CH53" s="11"/>
       <c r="CI53" s="11"/>
@@ -29167,6 +29199,7 @@
       <c r="CG54" s="9"/>
       <c r="CH54" s="9"/>
       <c r="CI54" s="9"/>
+      <c r="CJ54" s="9"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -29627,10 +29660,11 @@
       <c r="CE66" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="CF66" s="25"/>
+      <c r="CF66" s="27"/>
       <c r="CG66" s="25"/>
       <c r="CH66" s="25"/>
       <c r="CI66" s="25"/>
+      <c r="CJ66" s="25"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -29882,10 +29916,13 @@
       <c r="CE67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="26"/>
+      <c r="CF67" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CG67" s="26"/>
       <c r="CH67" s="26"/>
       <c r="CI67" s="26"/>
+      <c r="CJ67" s="26"/>
     </row>
     <row r="68" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -30138,9 +30175,11 @@
         <v>-23.781009501966622</v>
       </c>
       <c r="CE69" s="12">
-        <v>44.16623488118978</v>
-      </c>
-      <c r="CF69" s="11"/>
+        <v>44.191587627484836</v>
+      </c>
+      <c r="CF69" s="12">
+        <v>8.3972258663073944</v>
+      </c>
       <c r="CG69" s="11"/>
       <c r="CH69" s="11"/>
       <c r="CI69" s="11"/>
@@ -30455,7 +30494,9 @@
       <c r="CE70" s="12">
         <v>0.99791244246299016</v>
       </c>
-      <c r="CF70" s="11"/>
+      <c r="CF70" s="12">
+        <v>1.3120680694887596</v>
+      </c>
       <c r="CG70" s="11"/>
       <c r="CH70" s="11"/>
       <c r="CI70" s="11"/>
@@ -30916,9 +30957,11 @@
         <v>-11.693810925870636</v>
       </c>
       <c r="CE72" s="12">
-        <v>16.695749936695137</v>
-      </c>
-      <c r="CF72" s="11"/>
+        <v>16.704969273210637</v>
+      </c>
+      <c r="CF72" s="12">
+        <v>4.6593120082341528</v>
+      </c>
       <c r="CG72" s="11"/>
       <c r="CH72" s="11"/>
       <c r="CI72" s="11"/>
@@ -31071,6 +31114,7 @@
       <c r="CG73" s="9"/>
       <c r="CH73" s="9"/>
       <c r="CI73" s="9"/>
+      <c r="CJ73" s="9"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -31536,6 +31580,7 @@
       <c r="CI84" s="27">
         <v>0</v>
       </c>
+      <c r="CJ84" s="27"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -31798,6 +31843,9 @@
       </c>
       <c r="CI85" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ85" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32063,9 +32111,11 @@
         <v>110.22312425570331</v>
       </c>
       <c r="CI87" s="12">
-        <v>108.56844178374934</v>
-      </c>
-      <c r="CJ87" s="11"/>
+        <v>108.32661084711101</v>
+      </c>
+      <c r="CJ87" s="12">
+        <v>107.40110953632136</v>
+      </c>
       <c r="CK87" s="11"/>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
@@ -32390,9 +32440,11 @@
         <v>106.57949498588385</v>
       </c>
       <c r="CI88" s="12">
-        <v>107.1854401635736</v>
-      </c>
-      <c r="CJ88" s="11"/>
+        <v>107.14984382130427</v>
+      </c>
+      <c r="CJ88" s="12">
+        <v>107.92018392968552</v>
+      </c>
       <c r="CK88" s="11"/>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
@@ -32869,9 +32921,11 @@
         <v>108.19678654708326</v>
       </c>
       <c r="CI90" s="12">
-        <v>107.80674661461451</v>
-      </c>
-      <c r="CJ90" s="11"/>
+        <v>107.67855162741758</v>
+      </c>
+      <c r="CJ90" s="12">
+        <v>107.66619912530911</v>
+      </c>
       <c r="CK90" s="11"/>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
@@ -33024,6 +33078,7 @@
       <c r="CG91" s="9"/>
       <c r="CH91" s="9"/>
       <c r="CI91" s="9"/>
+      <c r="CJ91" s="9"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
@@ -33194,6 +33249,7 @@
       <c r="CI103" s="27">
         <v>0</v>
       </c>
+      <c r="CJ103" s="27"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -33456,6 +33512,9 @@
       </c>
       <c r="CI104" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ104" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33721,9 +33780,11 @@
         <v>45.218119035247128</v>
       </c>
       <c r="CI106" s="12">
-        <v>45.241900329111495</v>
-      </c>
-      <c r="CJ106" s="11"/>
+        <v>45.199245223245406</v>
+      </c>
+      <c r="CJ106" s="12">
+        <v>48.809854749619539</v>
+      </c>
       <c r="CK106" s="11"/>
       <c r="CL106" s="11"/>
       <c r="CM106" s="11"/>
@@ -34048,9 +34109,11 @@
         <v>54.781880964752872</v>
       </c>
       <c r="CI107" s="12">
-        <v>54.758099670888512</v>
-      </c>
-      <c r="CJ107" s="11"/>
+        <v>54.800754776754616</v>
+      </c>
+      <c r="CJ107" s="12">
+        <v>51.190145250380461</v>
+      </c>
       <c r="CK107" s="11"/>
       <c r="CL107" s="11"/>
       <c r="CM107" s="11"/>
@@ -34529,7 +34592,9 @@
       <c r="CI109" s="12">
         <v>100</v>
       </c>
-      <c r="CJ109" s="11"/>
+      <c r="CJ109" s="12">
+        <v>100</v>
+      </c>
       <c r="CK109" s="11"/>
       <c r="CL109" s="11"/>
       <c r="CM109" s="11"/>
@@ -34682,6 +34747,7 @@
       <c r="CG110" s="9"/>
       <c r="CH110" s="9"/>
       <c r="CI110" s="9"/>
+      <c r="CJ110" s="9"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -35156,6 +35222,7 @@
       <c r="CI122" s="27">
         <v>0</v>
       </c>
+      <c r="CJ122" s="27"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -35418,6 +35485,9 @@
       </c>
       <c r="CI123" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ123" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35683,9 +35753,11 @@
         <v>44.38683086107573</v>
       </c>
       <c r="CI125" s="12">
-        <v>44.924491915055015</v>
-      </c>
-      <c r="CJ125" s="11"/>
+        <v>44.928842712162961</v>
+      </c>
+      <c r="CJ125" s="12">
+        <v>48.930328219493255</v>
+      </c>
       <c r="CK125" s="11"/>
       <c r="CL125" s="11"/>
       <c r="CM125" s="11"/>
@@ -36010,9 +36082,11 @@
         <v>55.613169138924277</v>
       </c>
       <c r="CI126" s="12">
-        <v>55.075508084944978</v>
-      </c>
-      <c r="CJ126" s="11"/>
+        <v>55.071157287837039</v>
+      </c>
+      <c r="CJ126" s="12">
+        <v>51.069671780506752</v>
+      </c>
       <c r="CK126" s="11"/>
       <c r="CL126" s="11"/>
       <c r="CM126" s="11"/>
@@ -36491,7 +36565,9 @@
       <c r="CI128" s="12">
         <v>100</v>
       </c>
-      <c r="CJ128" s="11"/>
+      <c r="CJ128" s="12">
+        <v>100</v>
+      </c>
       <c r="CK128" s="11"/>
       <c r="CL128" s="11"/>
       <c r="CM128" s="11"/>
@@ -36644,6 +36720,7 @@
       <c r="CG129" s="9"/>
       <c r="CH129" s="9"/>
       <c r="CI129" s="9"/>
+      <c r="CJ129" s="9"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
@@ -36738,7 +36815,7 @@
       <c r="CG131" s="3"/>
       <c r="CH131" s="3"/>
       <c r="CI131" s="3"/>
-      <c r="CJ131" s="13"/>
+      <c r="CJ131" s="3"/>
       <c r="CK131" s="13"/>
       <c r="CL131" s="13"/>
       <c r="CM131" s="13"/>
@@ -36891,7 +36968,7 @@
       <c r="CG132" s="3"/>
       <c r="CH132" s="3"/>
       <c r="CI132" s="3"/>
-      <c r="CJ132" s="13"/>
+      <c r="CJ132" s="3"/>
       <c r="CK132" s="13"/>
       <c r="CL132" s="13"/>
       <c r="CM132" s="13"/>
@@ -37061,6 +37138,11 @@
     <mergeCell ref="AD66:AG66"/>
     <mergeCell ref="AH66:AK66"/>
     <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -37070,11 +37152,6 @@
     <mergeCell ref="Z122:AC122"/>
     <mergeCell ref="AD122:AG122"/>
     <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
     <mergeCell ref="BN122:BQ122"/>
@@ -37086,13 +37163,13 @@
     <mergeCell ref="AX122:BA122"/>
     <mergeCell ref="BB122:BE122"/>
     <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH28:CI28"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH28:CJ28"/>
+    <mergeCell ref="CD66:CF66"/>
+    <mergeCell ref="CH84:CJ84"/>
+    <mergeCell ref="CH103:CJ103"/>
+    <mergeCell ref="CH122:CJ122"/>
     <mergeCell ref="CD47:CE47"/>
-    <mergeCell ref="CD66:CE66"/>
-    <mergeCell ref="CH84:CI84"/>
-    <mergeCell ref="CH103:CI103"/>
-    <mergeCell ref="CH122:CI122"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
     <mergeCell ref="BB47:BE47"/>

--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CI$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CK$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,16 +611,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -23626,9 +23623,9 @@
   <dimension ref="A1:EU132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="BT26" sqref="BT26"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23638,8 +23635,8 @@
     <col min="74" max="77" width="8.36328125" style="17" customWidth="1"/>
     <col min="78" max="78" width="9.81640625" style="17" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="8.36328125" style="17" customWidth="1"/>
-    <col min="82" max="88" width="10.6328125" style="3" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="3"/>
+    <col min="82" max="89" width="9.7265625" style="3" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -23654,7 +23651,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -23664,7 +23661,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -23805,6 +23802,7 @@
       </c>
       <c r="CI9" s="27"/>
       <c r="CJ9" s="27"/>
+      <c r="CK9" s="27"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24070,6 +24068,9 @@
       </c>
       <c r="CJ10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24338,9 +24339,11 @@
         <v>125648.83545341165</v>
       </c>
       <c r="CJ12" s="15">
-        <v>146545.46194987057</v>
-      </c>
-      <c r="CK12" s="11"/>
+        <v>144056.10576122248</v>
+      </c>
+      <c r="CK12" s="15">
+        <v>134739.2241593081</v>
+      </c>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
@@ -24667,9 +24670,11 @@
         <v>152339.95580364246</v>
       </c>
       <c r="CJ13" s="15">
-        <v>153691.98538859515</v>
-      </c>
-      <c r="CK13" s="11"/>
+        <v>153661.84228916172</v>
+      </c>
+      <c r="CK13" s="15">
+        <v>149442.52654159575</v>
+      </c>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
@@ -25148,9 +25153,11 @@
         <v>277988.79125705408</v>
       </c>
       <c r="CJ15" s="16">
-        <v>300237.44733846572</v>
-      </c>
-      <c r="CK15" s="11"/>
+        <v>297717.94805038418</v>
+      </c>
+      <c r="CK15" s="16">
+        <v>284181.75070090382</v>
+      </c>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
@@ -25303,6 +25310,7 @@
       <c r="CH16" s="9"/>
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -25625,7 +25633,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.25">
@@ -25635,7 +25643,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.25">
@@ -25774,10 +25782,9 @@
       <c r="CH28" s="27">
         <v>2021</v>
       </c>
-      <c r="CI28" s="27">
-        <v>0</v>
-      </c>
+      <c r="CI28" s="27"/>
       <c r="CJ28" s="27"/>
+      <c r="CK28" s="27"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -26043,6 +26050,9 @@
       </c>
       <c r="CJ29" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26311,9 +26321,11 @@
         <v>115990.73807519808</v>
       </c>
       <c r="CJ31" s="15">
-        <v>136446.87897782956</v>
-      </c>
-      <c r="CK31" s="11"/>
+        <v>134238.28213043147</v>
+      </c>
+      <c r="CK31" s="15">
+        <v>122427.31071349166</v>
+      </c>
       <c r="CL31" s="11"/>
       <c r="CM31" s="11"/>
       <c r="CN31" s="11"/>
@@ -26642,7 +26654,9 @@
       <c r="CJ32" s="15">
         <v>142412.64218816737</v>
       </c>
-      <c r="CK32" s="11"/>
+      <c r="CK32" s="15">
+        <v>138878.98166428643</v>
+      </c>
       <c r="CL32" s="11"/>
       <c r="CM32" s="11"/>
       <c r="CN32" s="11"/>
@@ -27121,9 +27135,11 @@
         <v>258165.42575622033</v>
       </c>
       <c r="CJ34" s="16">
-        <v>278859.52116599691</v>
-      </c>
-      <c r="CK34" s="11"/>
+        <v>276650.92431859882</v>
+      </c>
+      <c r="CK34" s="16">
+        <v>261306.2923777781</v>
+      </c>
       <c r="CL34" s="11"/>
       <c r="CM34" s="11"/>
       <c r="CN34" s="11"/>
@@ -27276,6 +27292,7 @@
       <c r="CH35" s="9"/>
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
+      <c r="CK35" s="9"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -27598,7 +27615,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.25">
@@ -27608,7 +27625,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.25">
@@ -27741,14 +27758,13 @@
       <c r="CD47" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="CF47" s="25"/>
-      <c r="CG47" s="25"/>
+      <c r="CE47" s="27"/>
+      <c r="CF47" s="27"/>
+      <c r="CG47" s="27"/>
       <c r="CH47" s="25"/>
       <c r="CI47" s="25"/>
       <c r="CJ47" s="25"/>
+      <c r="CK47" s="25"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -28003,10 +28019,13 @@
       <c r="CF48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="26"/>
+      <c r="CG48" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CH48" s="26"/>
       <c r="CI48" s="26"/>
       <c r="CJ48" s="26"/>
+      <c r="CK48" s="26"/>
     </row>
     <row r="49" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -28262,9 +28281,11 @@
         <v>51.126737158384373</v>
       </c>
       <c r="CF50" s="12">
-        <v>14.150072783504555</v>
-      </c>
-      <c r="CG50" s="11"/>
+        <v>12.21101451218496</v>
+      </c>
+      <c r="CG50" s="12">
+        <v>11.307334495642991</v>
+      </c>
       <c r="CH50" s="11"/>
       <c r="CI50" s="11"/>
       <c r="CJ50" s="11"/>
@@ -28579,9 +28600,11 @@
         <v>2.647134370739451</v>
       </c>
       <c r="CF51" s="12">
-        <v>2.2540727974499788</v>
-      </c>
-      <c r="CG51" s="11"/>
+        <v>2.2340180452388552</v>
+      </c>
+      <c r="CG51" s="12">
+        <v>2.1871714775203372</v>
+      </c>
       <c r="CH51" s="11"/>
       <c r="CI51" s="11"/>
       <c r="CJ51" s="11"/>
@@ -29045,9 +29068,11 @@
         <v>20.054233792582082</v>
       </c>
       <c r="CF53" s="12">
-        <v>7.7341365757121565</v>
-      </c>
-      <c r="CG53" s="11"/>
+        <v>6.8300652054989968</v>
+      </c>
+      <c r="CG53" s="12">
+        <v>6.3174686812229766</v>
+      </c>
       <c r="CH53" s="11"/>
       <c r="CI53" s="11"/>
       <c r="CJ53" s="11"/>
@@ -29200,6 +29225,7 @@
       <c r="CH54" s="9"/>
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
+      <c r="CK54" s="9"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -29514,7 +29540,7 @@
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.25">
@@ -29524,7 +29550,7 @@
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.25">
@@ -29657,14 +29683,13 @@
       <c r="CD66" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="CE66" s="27"/>
       <c r="CF66" s="27"/>
-      <c r="CG66" s="25"/>
+      <c r="CG66" s="27"/>
       <c r="CH66" s="25"/>
       <c r="CI66" s="25"/>
       <c r="CJ66" s="25"/>
+      <c r="CK66" s="25"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -29919,10 +29944,13 @@
       <c r="CF67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="26"/>
+      <c r="CG67" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CH67" s="26"/>
       <c r="CI67" s="26"/>
       <c r="CJ67" s="26"/>
+      <c r="CK67" s="26"/>
     </row>
     <row r="68" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -30178,9 +30206,11 @@
         <v>44.191587627484836</v>
       </c>
       <c r="CF69" s="12">
-        <v>8.3972258663073944</v>
-      </c>
-      <c r="CG69" s="11"/>
+        <v>6.6426546140479417</v>
+      </c>
+      <c r="CG69" s="12">
+        <v>6.4112094291162407</v>
+      </c>
       <c r="CH69" s="11"/>
       <c r="CI69" s="11"/>
       <c r="CJ69" s="11"/>
@@ -30497,7 +30527,9 @@
       <c r="CF70" s="12">
         <v>1.3120680694887596</v>
       </c>
-      <c r="CG70" s="11"/>
+      <c r="CG70" s="12">
+        <v>0.91516374912978904</v>
+      </c>
       <c r="CH70" s="11"/>
       <c r="CI70" s="11"/>
       <c r="CJ70" s="11"/>
@@ -30960,9 +30992,11 @@
         <v>16.704969273210637</v>
       </c>
       <c r="CF72" s="12">
-        <v>4.6593120082341528</v>
-      </c>
-      <c r="CG72" s="11"/>
+        <v>3.8303992080337821</v>
+      </c>
+      <c r="CG72" s="12">
+        <v>3.417734804983624</v>
+      </c>
       <c r="CH72" s="11"/>
       <c r="CI72" s="11"/>
       <c r="CJ72" s="11"/>
@@ -31115,6 +31149,7 @@
       <c r="CH73" s="9"/>
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
+      <c r="CK73" s="9"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -31428,7 +31463,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.25">
@@ -31438,7 +31473,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.25">
@@ -31577,10 +31612,9 @@
       <c r="CH84" s="27">
         <v>2021</v>
       </c>
-      <c r="CI84" s="27">
-        <v>0</v>
-      </c>
+      <c r="CI84" s="27"/>
       <c r="CJ84" s="27"/>
+      <c r="CK84" s="27"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -31846,6 +31880,9 @@
       </c>
       <c r="CJ85" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK85" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32114,9 +32151,11 @@
         <v>108.32661084711101</v>
       </c>
       <c r="CJ87" s="12">
-        <v>107.40110953632136</v>
-      </c>
-      <c r="CK87" s="11"/>
+        <v>107.31372859885946</v>
+      </c>
+      <c r="CK87" s="12">
+        <v>110.05650893911177</v>
+      </c>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
@@ -32443,9 +32482,11 @@
         <v>107.14984382130427</v>
       </c>
       <c r="CJ88" s="12">
-        <v>107.92018392968552</v>
-      </c>
-      <c r="CK88" s="11"/>
+        <v>107.89901790188752</v>
+      </c>
+      <c r="CK88" s="12">
+        <v>107.60629488401973</v>
+      </c>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
@@ -32924,9 +32965,11 @@
         <v>107.67855162741758</v>
       </c>
       <c r="CJ90" s="12">
-        <v>107.66619912530911</v>
-      </c>
-      <c r="CK90" s="11"/>
+        <v>107.6150201860609</v>
+      </c>
+      <c r="CK90" s="12">
+        <v>108.75426998522255</v>
+      </c>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
@@ -33079,6 +33122,7 @@
       <c r="CH91" s="9"/>
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
+      <c r="CK91" s="9"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
@@ -33097,7 +33141,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.25">
@@ -33107,7 +33151,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.25">
@@ -33246,10 +33290,9 @@
       <c r="CH103" s="27">
         <v>2021</v>
       </c>
-      <c r="CI103" s="27">
-        <v>0</v>
-      </c>
+      <c r="CI103" s="27"/>
       <c r="CJ103" s="27"/>
+      <c r="CK103" s="27"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -33515,6 +33558,9 @@
       </c>
       <c r="CJ104" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK104" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33783,9 +33829,11 @@
         <v>45.199245223245406</v>
       </c>
       <c r="CJ106" s="12">
-        <v>48.809854749619539</v>
-      </c>
-      <c r="CK106" s="11"/>
+        <v>48.386772347646037</v>
+      </c>
+      <c r="CK106" s="12">
+        <v>47.413045991513613</v>
+      </c>
       <c r="CL106" s="11"/>
       <c r="CM106" s="11"/>
       <c r="CN106" s="11"/>
@@ -34112,9 +34160,11 @@
         <v>54.800754776754616</v>
       </c>
       <c r="CJ107" s="12">
-        <v>51.190145250380461</v>
-      </c>
-      <c r="CK107" s="11"/>
+        <v>51.613227652353977</v>
+      </c>
+      <c r="CK107" s="12">
+        <v>52.586954008486394</v>
+      </c>
       <c r="CL107" s="11"/>
       <c r="CM107" s="11"/>
       <c r="CN107" s="11"/>
@@ -34595,7 +34645,9 @@
       <c r="CJ109" s="12">
         <v>100</v>
       </c>
-      <c r="CK109" s="11"/>
+      <c r="CK109" s="12">
+        <v>100</v>
+      </c>
       <c r="CL109" s="11"/>
       <c r="CM109" s="11"/>
       <c r="CN109" s="11"/>
@@ -34748,6 +34800,7 @@
       <c r="CH110" s="9"/>
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
+      <c r="CK110" s="9"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -35070,7 +35123,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.25">
@@ -35080,7 +35133,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.25">
@@ -35219,10 +35272,9 @@
       <c r="CH122" s="27">
         <v>2021</v>
       </c>
-      <c r="CI122" s="27">
-        <v>0</v>
-      </c>
+      <c r="CI122" s="27"/>
       <c r="CJ122" s="27"/>
+      <c r="CK122" s="27"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -35488,6 +35540,9 @@
       </c>
       <c r="CJ123" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK123" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35756,9 +35811,11 @@
         <v>44.928842712162961</v>
       </c>
       <c r="CJ125" s="12">
-        <v>48.930328219493255</v>
-      </c>
-      <c r="CK125" s="11"/>
+        <v>48.522621950772511</v>
+      </c>
+      <c r="CK125" s="12">
+        <v>46.852033144496552</v>
+      </c>
       <c r="CL125" s="11"/>
       <c r="CM125" s="11"/>
       <c r="CN125" s="11"/>
@@ -36085,9 +36142,11 @@
         <v>55.071157287837039</v>
       </c>
       <c r="CJ126" s="12">
-        <v>51.069671780506752</v>
-      </c>
-      <c r="CK126" s="11"/>
+        <v>51.477378049227497</v>
+      </c>
+      <c r="CK126" s="12">
+        <v>53.147966855503448</v>
+      </c>
       <c r="CL126" s="11"/>
       <c r="CM126" s="11"/>
       <c r="CN126" s="11"/>
@@ -36568,7 +36627,9 @@
       <c r="CJ128" s="12">
         <v>100</v>
       </c>
-      <c r="CK128" s="11"/>
+      <c r="CK128" s="12">
+        <v>100</v>
+      </c>
       <c r="CL128" s="11"/>
       <c r="CM128" s="11"/>
       <c r="CN128" s="11"/>
@@ -36721,6 +36782,7 @@
       <c r="CH129" s="9"/>
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
+      <c r="CK129" s="9"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
@@ -36816,7 +36878,7 @@
       <c r="CH131" s="3"/>
       <c r="CI131" s="3"/>
       <c r="CJ131" s="3"/>
-      <c r="CK131" s="13"/>
+      <c r="CK131" s="3"/>
       <c r="CL131" s="13"/>
       <c r="CM131" s="13"/>
       <c r="CN131" s="13"/>
@@ -36969,7 +37031,7 @@
       <c r="CH132" s="3"/>
       <c r="CI132" s="3"/>
       <c r="CJ132" s="3"/>
-      <c r="CK132" s="13"/>
+      <c r="CK132" s="3"/>
       <c r="CL132" s="13"/>
       <c r="CM132" s="13"/>
       <c r="CN132" s="13"/>
@@ -37163,13 +37225,13 @@
     <mergeCell ref="AX122:BA122"/>
     <mergeCell ref="BB122:BE122"/>
     <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH28:CJ28"/>
-    <mergeCell ref="CD66:CF66"/>
-    <mergeCell ref="CH84:CJ84"/>
-    <mergeCell ref="CH103:CJ103"/>
-    <mergeCell ref="CH122:CJ122"/>
-    <mergeCell ref="CD47:CE47"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
     <mergeCell ref="BB47:BE47"/>
@@ -37193,9 +37255,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="86" man="1"/>
-    <brk id="76" max="86" man="1"/>
-    <brk id="94" max="86" man="1"/>
+    <brk id="38" max="88" man="1"/>
+    <brk id="76" max="88" man="1"/>
+    <brk id="94" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE8592-5B07-4168-BBD6-B47D08B5CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -323,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CK$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CN$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,24 +612,27 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -702,9 +706,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -725,25 +729,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,11 +767,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23363,7 +23373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23415,7 +23425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23616,195 +23626,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:EU132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A52" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CI64" sqref="CI64:CN80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
-    <col min="2" max="73" width="8.36328125" style="3" customWidth="1"/>
-    <col min="74" max="77" width="8.36328125" style="17" customWidth="1"/>
-    <col min="78" max="78" width="9.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="8.36328125" style="17" customWidth="1"/>
-    <col min="82" max="89" width="9.7265625" style="3" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="3"/>
+    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
+    <col min="2" max="73" width="8.33203125" style="3" customWidth="1"/>
+    <col min="74" max="77" width="8.33203125" style="17" customWidth="1"/>
+    <col min="78" max="78" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="90" width="8.33203125" style="3" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>2000</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
         <v>2001</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26">
         <v>2002</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26">
         <v>2003</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27">
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26">
         <v>2004</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27">
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26">
         <v>2005</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27">
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26">
         <v>2006</v>
       </c>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27">
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26">
         <v>2007</v>
       </c>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27">
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26">
         <v>2008</v>
       </c>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27">
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26">
         <v>2009</v>
       </c>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27">
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27">
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26">
         <v>2011</v>
       </c>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27">
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26">
         <v>2012</v>
       </c>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27">
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26">
         <v>2013</v>
       </c>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27">
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26">
         <v>2014</v>
       </c>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27">
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26">
         <v>2015</v>
       </c>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="27"/>
-      <c r="BM9" s="27"/>
-      <c r="BN9" s="27">
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26">
         <v>2016</v>
       </c>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27">
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="26">
         <v>2017</v>
       </c>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="26"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="26"/>
+      <c r="BV9" s="29">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="26">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="27">
+      <c r="CA9" s="26"/>
+      <c r="CB9" s="26"/>
+      <c r="CC9" s="26"/>
+      <c r="CD9" s="26">
         <v>2020</v>
       </c>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27">
+      <c r="CE9" s="26"/>
+      <c r="CF9" s="26"/>
+      <c r="CG9" s="26"/>
+      <c r="CH9" s="26">
         <v>2021</v>
       </c>
-      <c r="CI9" s="27"/>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="27"/>
+      <c r="CI9" s="26"/>
+      <c r="CJ9" s="26"/>
+      <c r="CK9" s="26"/>
+      <c r="CL9" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24036,16 +24048,16 @@
       <c r="BY10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="18" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="18" t="s">
+      <c r="CA10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="18" t="s">
+      <c r="CB10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="18" t="s">
+      <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="6" t="s">
@@ -24072,11 +24084,14 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -24308,16 +24323,16 @@
       <c r="BY12" s="19">
         <v>161269.1348491307</v>
       </c>
-      <c r="BZ12" s="19">
+      <c r="BZ12" s="15">
         <v>161070.66317850101</v>
       </c>
-      <c r="CA12" s="19">
+      <c r="CA12" s="15">
         <v>178363.90625445903</v>
       </c>
-      <c r="CB12" s="19">
+      <c r="CB12" s="15">
         <v>189093.06232804793</v>
       </c>
-      <c r="CC12" s="19">
+      <c r="CC12" s="15">
         <v>163483.19961062953</v>
       </c>
       <c r="CD12" s="15">
@@ -24330,7 +24345,7 @@
         <v>128379.64827916201</v>
       </c>
       <c r="CG12" s="15">
-        <v>121051.52348660576</v>
+        <v>124488.42840152988</v>
       </c>
       <c r="CH12" s="15">
         <v>124223.62504618784</v>
@@ -24342,9 +24357,11 @@
         <v>144056.10576122248</v>
       </c>
       <c r="CK12" s="15">
-        <v>134739.2241593081</v>
-      </c>
-      <c r="CL12" s="11"/>
+        <v>138425.43993440329</v>
+      </c>
+      <c r="CL12" s="15">
+        <v>149378.87372352509</v>
+      </c>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
@@ -24407,7 +24424,7 @@
       <c r="ET12" s="11"/>
       <c r="EU12" s="11"/>
     </row>
-    <row r="13" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -24639,43 +24656,45 @@
       <c r="BY13" s="19">
         <v>134664.53180269324</v>
       </c>
-      <c r="BZ13" s="19">
+      <c r="BZ13" s="15">
         <v>138368.06774773693</v>
       </c>
-      <c r="CA13" s="19">
+      <c r="CA13" s="15">
         <v>140973.88666726652</v>
       </c>
-      <c r="CB13" s="19">
+      <c r="CB13" s="15">
         <v>143789.87396310209</v>
       </c>
-      <c r="CC13" s="19">
+      <c r="CC13" s="15">
         <v>140500.95675457982</v>
       </c>
       <c r="CD13" s="15">
         <v>145927.77943950184</v>
       </c>
       <c r="CE13" s="15">
-        <v>148411.3090321871</v>
+        <v>148418.65486251179</v>
       </c>
       <c r="CF13" s="15">
-        <v>150304.0232862274</v>
+        <v>150354.47324956354</v>
       </c>
       <c r="CG13" s="15">
-        <v>146243.92120929866</v>
+        <v>146344.17741600078</v>
       </c>
       <c r="CH13" s="15">
-        <v>150497.27820358379</v>
+        <v>150604.620452075</v>
       </c>
       <c r="CI13" s="15">
-        <v>152339.95580364246</v>
+        <v>152506.97628544361</v>
       </c>
       <c r="CJ13" s="15">
-        <v>153661.84228916172</v>
+        <v>153829.46204582092</v>
       </c>
       <c r="CK13" s="15">
-        <v>149442.52654159575</v>
-      </c>
-      <c r="CL13" s="11"/>
+        <v>149606.02567945013</v>
+      </c>
+      <c r="CL13" s="15">
+        <v>154044.26758366541</v>
+      </c>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
@@ -24738,7 +24757,7 @@
       <c r="ET13" s="11"/>
       <c r="EU13" s="11"/>
     </row>
-    <row r="14" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -24815,10 +24834,10 @@
       <c r="BW14" s="20"/>
       <c r="BX14" s="20"/>
       <c r="BY14" s="20"/>
-      <c r="BZ14" s="20"/>
-      <c r="CA14" s="20"/>
-      <c r="CB14" s="20"/>
-      <c r="CC14" s="20"/>
+      <c r="BZ14" s="11"/>
+      <c r="CA14" s="11"/>
+      <c r="CB14" s="11"/>
+      <c r="CC14" s="11"/>
       <c r="CD14" s="11"/>
       <c r="CE14" s="11"/>
       <c r="CF14" s="11"/>
@@ -24890,7 +24909,7 @@
       <c r="ET14" s="11"/>
       <c r="EU14" s="11"/>
     </row>
-    <row r="15" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -25122,43 +25141,45 @@
       <c r="BY15" s="21">
         <v>295933.66665182391</v>
       </c>
-      <c r="BZ15" s="21">
+      <c r="BZ15" s="16">
         <v>299438.73092623794</v>
       </c>
-      <c r="CA15" s="21">
+      <c r="CA15" s="16">
         <v>319337.79292172554</v>
       </c>
-      <c r="CB15" s="21">
+      <c r="CB15" s="16">
         <v>332882.93629115005</v>
       </c>
-      <c r="CC15" s="21">
+      <c r="CC15" s="16">
         <v>303984.15636520938</v>
       </c>
       <c r="CD15" s="16">
         <v>300485.44360873546</v>
       </c>
       <c r="CE15" s="16">
-        <v>231552.67621576411</v>
+        <v>231560.02204608879</v>
       </c>
       <c r="CF15" s="16">
-        <v>278683.67156538938</v>
+        <v>278734.12152872555</v>
       </c>
       <c r="CG15" s="16">
-        <v>267295.44469590439</v>
+        <v>270832.60581753065</v>
       </c>
       <c r="CH15" s="16">
-        <v>274720.90324977163</v>
+        <v>274828.24549826281</v>
       </c>
       <c r="CI15" s="16">
-        <v>277988.79125705408</v>
+        <v>278155.81173885526</v>
       </c>
       <c r="CJ15" s="16">
-        <v>297717.94805038418</v>
+        <v>297885.56780704344</v>
       </c>
       <c r="CK15" s="16">
-        <v>284181.75070090382</v>
-      </c>
-      <c r="CL15" s="11"/>
+        <v>288031.46561385342</v>
+      </c>
+      <c r="CL15" s="16">
+        <v>303423.14130719053</v>
+      </c>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
@@ -25221,7 +25242,7 @@
       <c r="ET15" s="11"/>
       <c r="EU15" s="11"/>
     </row>
-    <row r="16" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -25299,10 +25320,10 @@
       <c r="BW16" s="22"/>
       <c r="BX16" s="22"/>
       <c r="BY16" s="22"/>
-      <c r="BZ16" s="22"/>
-      <c r="CA16" s="22"/>
-      <c r="CB16" s="22"/>
-      <c r="CC16" s="22"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
       <c r="CD16" s="9"/>
       <c r="CE16" s="9"/>
       <c r="CF16" s="9"/>
@@ -25311,13 +25332,14 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
     </row>
-    <row r="17" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -25394,10 +25416,10 @@
       <c r="BW18" s="20"/>
       <c r="BX18" s="20"/>
       <c r="BY18" s="20"/>
-      <c r="BZ18" s="20"/>
-      <c r="CA18" s="20"/>
-      <c r="CB18" s="20"/>
-      <c r="CC18" s="20"/>
+      <c r="BZ18" s="11"/>
+      <c r="CA18" s="11"/>
+      <c r="CB18" s="11"/>
+      <c r="CC18" s="11"/>
       <c r="CD18" s="11"/>
       <c r="CE18" s="11"/>
       <c r="CF18" s="11"/>
@@ -25469,7 +25491,7 @@
       <c r="ET18" s="11"/>
       <c r="EU18" s="11"/>
     </row>
-    <row r="19" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -25546,10 +25568,10 @@
       <c r="BW19" s="20"/>
       <c r="BX19" s="20"/>
       <c r="BY19" s="20"/>
-      <c r="BZ19" s="20"/>
-      <c r="CA19" s="20"/>
-      <c r="CB19" s="20"/>
-      <c r="CC19" s="20"/>
+      <c r="BZ19" s="11"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="11"/>
       <c r="CD19" s="11"/>
       <c r="CE19" s="11"/>
       <c r="CF19" s="11"/>
@@ -25621,172 +25643,175 @@
       <c r="ET19" s="11"/>
       <c r="EU19" s="11"/>
     </row>
-    <row r="20" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>2000</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="27">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26">
         <v>2001</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="27">
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="26">
         <v>2002</v>
       </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="27">
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="26">
         <v>2003</v>
       </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="27">
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="26">
         <v>2004</v>
       </c>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="27">
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="26">
         <v>2005</v>
       </c>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="27">
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="26">
         <v>2006</v>
       </c>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="27">
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="26">
         <v>2007</v>
       </c>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="27">
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="26">
         <v>2008</v>
       </c>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="27">
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="26">
         <v>2009</v>
       </c>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="27">
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="28"/>
-      <c r="AR28" s="28"/>
-      <c r="AS28" s="28"/>
-      <c r="AT28" s="27">
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="26">
         <v>2011</v>
       </c>
-      <c r="AU28" s="28"/>
-      <c r="AV28" s="28"/>
-      <c r="AW28" s="28"/>
-      <c r="AX28" s="27">
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="26">
         <v>2012</v>
       </c>
-      <c r="AY28" s="28"/>
-      <c r="AZ28" s="28"/>
-      <c r="BA28" s="28"/>
-      <c r="BB28" s="27">
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="26">
         <v>2013</v>
       </c>
-      <c r="BC28" s="28"/>
-      <c r="BD28" s="28"/>
-      <c r="BE28" s="28"/>
-      <c r="BF28" s="27">
+      <c r="BC28" s="27"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
+      <c r="BF28" s="26">
         <v>2014</v>
       </c>
-      <c r="BG28" s="28"/>
-      <c r="BH28" s="28"/>
-      <c r="BI28" s="28"/>
-      <c r="BJ28" s="27">
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="27"/>
+      <c r="BJ28" s="26">
         <v>2015</v>
       </c>
-      <c r="BK28" s="28"/>
-      <c r="BL28" s="28"/>
-      <c r="BM28" s="28"/>
-      <c r="BN28" s="27">
+      <c r="BK28" s="27"/>
+      <c r="BL28" s="27"/>
+      <c r="BM28" s="27"/>
+      <c r="BN28" s="26">
         <v>2016</v>
       </c>
-      <c r="BO28" s="28"/>
-      <c r="BP28" s="28"/>
-      <c r="BQ28" s="28"/>
-      <c r="BR28" s="27">
+      <c r="BO28" s="27"/>
+      <c r="BP28" s="27"/>
+      <c r="BQ28" s="27"/>
+      <c r="BR28" s="26">
         <v>2017</v>
       </c>
-      <c r="BS28" s="28"/>
-      <c r="BT28" s="28"/>
-      <c r="BU28" s="28"/>
-      <c r="BV28" s="30">
+      <c r="BS28" s="27"/>
+      <c r="BT28" s="27"/>
+      <c r="BU28" s="27"/>
+      <c r="BV28" s="29">
         <v>2018</v>
       </c>
-      <c r="BW28" s="31"/>
-      <c r="BX28" s="31"/>
-      <c r="BY28" s="31"/>
-      <c r="BZ28" s="30">
+      <c r="BW28" s="30"/>
+      <c r="BX28" s="30"/>
+      <c r="BY28" s="30"/>
+      <c r="BZ28" s="26">
         <v>2019</v>
       </c>
-      <c r="CA28" s="31"/>
-      <c r="CB28" s="31"/>
-      <c r="CC28" s="31"/>
-      <c r="CD28" s="27">
+      <c r="CA28" s="27"/>
+      <c r="CB28" s="27"/>
+      <c r="CC28" s="27"/>
+      <c r="CD28" s="26">
         <v>2020</v>
       </c>
-      <c r="CE28" s="27"/>
-      <c r="CF28" s="27"/>
-      <c r="CG28" s="27"/>
-      <c r="CH28" s="27">
+      <c r="CE28" s="26"/>
+      <c r="CF28" s="26"/>
+      <c r="CG28" s="26"/>
+      <c r="CH28" s="26">
         <v>2021</v>
       </c>
-      <c r="CI28" s="27"/>
-      <c r="CJ28" s="27"/>
-      <c r="CK28" s="27"/>
+      <c r="CI28" s="26"/>
+      <c r="CJ28" s="26"/>
+      <c r="CK28" s="26"/>
+      <c r="CL28" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="29" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -26018,16 +26043,16 @@
       <c r="BY29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="BZ29" s="18" t="s">
+      <c r="BZ29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA29" s="18" t="s">
+      <c r="CA29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB29" s="18" t="s">
+      <c r="CB29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC29" s="18" t="s">
+      <c r="CC29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD29" s="6" t="s">
@@ -26054,11 +26079,14 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL29" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -26290,16 +26318,16 @@
       <c r="BY31" s="19">
         <v>157954.57761705143</v>
       </c>
-      <c r="BZ31" s="19">
+      <c r="BZ31" s="15">
         <v>159100.5350056731</v>
       </c>
-      <c r="CA31" s="19">
+      <c r="CA31" s="15">
         <v>177545.41443802236</v>
       </c>
-      <c r="CB31" s="19">
+      <c r="CB31" s="15">
         <v>191392.35613743175</v>
       </c>
-      <c r="CC31" s="19">
+      <c r="CC31" s="15">
         <v>161324.15405450863</v>
       </c>
       <c r="CD31" s="15">
@@ -26312,7 +26340,7 @@
         <v>125876.72598385259</v>
       </c>
       <c r="CG31" s="15">
-        <v>115051.14110656193</v>
+        <v>118317.68266628485</v>
       </c>
       <c r="CH31" s="15">
         <v>112701.96329946625</v>
@@ -26324,9 +26352,11 @@
         <v>134238.28213043147</v>
       </c>
       <c r="CK31" s="15">
-        <v>122427.31071349166</v>
-      </c>
-      <c r="CL31" s="11"/>
+        <v>125776.69532565904</v>
+      </c>
+      <c r="CL31" s="15">
+        <v>131184.29715276285</v>
+      </c>
       <c r="CM31" s="11"/>
       <c r="CN31" s="11"/>
       <c r="CO31" s="11"/>
@@ -26389,7 +26419,7 @@
       <c r="ET31" s="11"/>
       <c r="EU31" s="11"/>
     </row>
-    <row r="32" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -26621,43 +26651,45 @@
       <c r="BY32" s="19">
         <v>133208.64124452166</v>
       </c>
-      <c r="BZ32" s="19">
+      <c r="BZ32" s="15">
         <v>136972.71021659742</v>
       </c>
-      <c r="CA32" s="19">
+      <c r="CA32" s="15">
         <v>138036.86946670586</v>
       </c>
-      <c r="CB32" s="19">
+      <c r="CB32" s="15">
         <v>138349.08179200045</v>
       </c>
-      <c r="CC32" s="19">
+      <c r="CC32" s="15">
         <v>135748.35967848721</v>
       </c>
       <c r="CD32" s="15">
         <v>139666.02219371271</v>
       </c>
       <c r="CE32" s="15">
-        <v>140769.92706360843</v>
+        <v>140776.89467278705</v>
       </c>
       <c r="CF32" s="15">
-        <v>140568.2905322673</v>
+        <v>140615.47266983439</v>
       </c>
       <c r="CG32" s="15">
-        <v>137619.53754495495</v>
+        <v>137713.88138289549</v>
       </c>
       <c r="CH32" s="15">
-        <v>141206.59721977171</v>
+        <v>141307.31288605015</v>
       </c>
       <c r="CI32" s="15">
-        <v>142174.68768102225</v>
+        <v>142330.56329954363</v>
       </c>
       <c r="CJ32" s="15">
-        <v>142412.64218816737</v>
+        <v>142567.99092063835</v>
       </c>
       <c r="CK32" s="15">
-        <v>138878.98166428643</v>
-      </c>
-      <c r="CL32" s="11"/>
+        <v>139030.92364689126</v>
+      </c>
+      <c r="CL32" s="15">
+        <v>142965.36018506213</v>
+      </c>
       <c r="CM32" s="11"/>
       <c r="CN32" s="11"/>
       <c r="CO32" s="11"/>
@@ -26720,7 +26752,7 @@
       <c r="ET32" s="11"/>
       <c r="EU32" s="11"/>
     </row>
-    <row r="33" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -26797,10 +26829,10 @@
       <c r="BW33" s="20"/>
       <c r="BX33" s="20"/>
       <c r="BY33" s="20"/>
-      <c r="BZ33" s="20"/>
-      <c r="CA33" s="20"/>
-      <c r="CB33" s="20"/>
-      <c r="CC33" s="20"/>
+      <c r="BZ33" s="11"/>
+      <c r="CA33" s="11"/>
+      <c r="CB33" s="11"/>
+      <c r="CC33" s="11"/>
       <c r="CD33" s="11"/>
       <c r="CE33" s="11"/>
       <c r="CF33" s="11"/>
@@ -26872,7 +26904,7 @@
       <c r="ET33" s="11"/>
       <c r="EU33" s="11"/>
     </row>
-    <row r="34" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
@@ -27104,43 +27136,45 @@
       <c r="BY34" s="21">
         <v>291163.21886157308</v>
       </c>
-      <c r="BZ34" s="21">
+      <c r="BZ34" s="16">
         <v>296073.24522227049</v>
       </c>
-      <c r="CA34" s="21">
+      <c r="CA34" s="16">
         <v>315582.28390472825</v>
       </c>
-      <c r="CB34" s="21">
+      <c r="CB34" s="16">
         <v>329741.4379294322</v>
       </c>
-      <c r="CC34" s="21">
+      <c r="CC34" s="16">
         <v>297072.51373299584</v>
       </c>
       <c r="CD34" s="16">
         <v>287532.01013588335</v>
       </c>
       <c r="CE34" s="16">
-        <v>221212.0249582908</v>
+        <v>221218.99256746942</v>
       </c>
       <c r="CF34" s="16">
-        <v>266445.01651611988</v>
+        <v>266492.19865368697</v>
       </c>
       <c r="CG34" s="16">
-        <v>252670.67865151688</v>
+        <v>256031.56404918034</v>
       </c>
       <c r="CH34" s="16">
-        <v>253908.56051923794</v>
+        <v>254009.27618551638</v>
       </c>
       <c r="CI34" s="16">
-        <v>258165.42575622033</v>
+        <v>258321.30137474171</v>
       </c>
       <c r="CJ34" s="16">
-        <v>276650.92431859882</v>
+        <v>276806.27305106982</v>
       </c>
       <c r="CK34" s="16">
-        <v>261306.2923777781</v>
-      </c>
-      <c r="CL34" s="11"/>
+        <v>264807.61897255026</v>
+      </c>
+      <c r="CL34" s="16">
+        <v>274149.65733782499</v>
+      </c>
       <c r="CM34" s="11"/>
       <c r="CN34" s="11"/>
       <c r="CO34" s="11"/>
@@ -27203,7 +27237,7 @@
       <c r="ET34" s="11"/>
       <c r="EU34" s="11"/>
     </row>
-    <row r="35" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -27281,10 +27315,10 @@
       <c r="BW35" s="22"/>
       <c r="BX35" s="22"/>
       <c r="BY35" s="22"/>
-      <c r="BZ35" s="22"/>
-      <c r="CA35" s="22"/>
-      <c r="CB35" s="22"/>
-      <c r="CC35" s="22"/>
+      <c r="BZ35" s="9"/>
+      <c r="CA35" s="9"/>
+      <c r="CB35" s="9"/>
+      <c r="CC35" s="9"/>
       <c r="CD35" s="9"/>
       <c r="CE35" s="9"/>
       <c r="CF35" s="9"/>
@@ -27293,13 +27327,14 @@
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
+      <c r="CL35" s="9"/>
     </row>
-    <row r="36" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -27376,10 +27411,10 @@
       <c r="BW37" s="20"/>
       <c r="BX37" s="20"/>
       <c r="BY37" s="20"/>
-      <c r="BZ37" s="20"/>
-      <c r="CA37" s="20"/>
-      <c r="CB37" s="20"/>
-      <c r="CC37" s="20"/>
+      <c r="BZ37" s="11"/>
+      <c r="CA37" s="11"/>
+      <c r="CB37" s="11"/>
+      <c r="CC37" s="11"/>
       <c r="CD37" s="11"/>
       <c r="CE37" s="11"/>
       <c r="CF37" s="11"/>
@@ -27451,7 +27486,7 @@
       <c r="ET37" s="11"/>
       <c r="EU37" s="11"/>
     </row>
-    <row r="38" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -27528,10 +27563,10 @@
       <c r="BW38" s="20"/>
       <c r="BX38" s="20"/>
       <c r="BY38" s="20"/>
-      <c r="BZ38" s="20"/>
-      <c r="CA38" s="20"/>
-      <c r="CB38" s="20"/>
-      <c r="CC38" s="20"/>
+      <c r="BZ38" s="11"/>
+      <c r="CA38" s="11"/>
+      <c r="CB38" s="11"/>
+      <c r="CC38" s="11"/>
       <c r="CD38" s="11"/>
       <c r="CE38" s="11"/>
       <c r="CF38" s="11"/>
@@ -27603,170 +27638,196 @@
       <c r="ET38" s="11"/>
       <c r="EU38" s="11"/>
     </row>
-    <row r="39" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="CI43" s="32"/>
+      <c r="CJ43" s="32"/>
+      <c r="CK43" s="32"/>
+      <c r="CL43" s="32"/>
+      <c r="CM43" s="32"/>
     </row>
-    <row r="44" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CI44" s="32"/>
+      <c r="CJ44" s="32"/>
+      <c r="CK44" s="32"/>
+      <c r="CL44" s="32"/>
+      <c r="CM44" s="32"/>
     </row>
-    <row r="45" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="CI45" s="32"/>
+      <c r="CJ45" s="32"/>
+      <c r="CK45" s="32"/>
+      <c r="CL45" s="32"/>
+      <c r="CM45" s="32"/>
     </row>
-    <row r="47" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:151" x14ac:dyDescent="0.2">
+      <c r="CI46" s="32"/>
+      <c r="CJ46" s="32"/>
+      <c r="CK46" s="32"/>
+      <c r="CL46" s="32"/>
+      <c r="CM46" s="32"/>
+    </row>
+    <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27" t="s">
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27" t="s">
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27" t="s">
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27" t="s">
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27" t="s">
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27" t="s">
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27" t="s">
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="27" t="s">
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27" t="s">
+      <c r="AM47" s="26"/>
+      <c r="AN47" s="26"/>
+      <c r="AO47" s="26"/>
+      <c r="AP47" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
-      <c r="AS47" s="27"/>
-      <c r="AT47" s="27" t="s">
+      <c r="AQ47" s="26"/>
+      <c r="AR47" s="26"/>
+      <c r="AS47" s="26"/>
+      <c r="AT47" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="27"/>
-      <c r="AW47" s="27"/>
-      <c r="AX47" s="27" t="s">
+      <c r="AU47" s="26"/>
+      <c r="AV47" s="26"/>
+      <c r="AW47" s="26"/>
+      <c r="AX47" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="27"/>
-      <c r="AZ47" s="27"/>
-      <c r="BA47" s="27"/>
-      <c r="BB47" s="27" t="s">
+      <c r="AY47" s="26"/>
+      <c r="AZ47" s="26"/>
+      <c r="BA47" s="26"/>
+      <c r="BB47" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="27"/>
-      <c r="BD47" s="27"/>
-      <c r="BE47" s="27"/>
-      <c r="BF47" s="27" t="s">
+      <c r="BC47" s="26"/>
+      <c r="BD47" s="26"/>
+      <c r="BE47" s="26"/>
+      <c r="BF47" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="27"/>
-      <c r="BH47" s="27"/>
-      <c r="BI47" s="27"/>
-      <c r="BJ47" s="27" t="s">
+      <c r="BG47" s="26"/>
+      <c r="BH47" s="26"/>
+      <c r="BI47" s="26"/>
+      <c r="BJ47" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="27"/>
-      <c r="BL47" s="27"/>
-      <c r="BM47" s="27"/>
-      <c r="BN47" s="27" t="s">
+      <c r="BK47" s="26"/>
+      <c r="BL47" s="26"/>
+      <c r="BM47" s="26"/>
+      <c r="BN47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="27"/>
-      <c r="BP47" s="27"/>
-      <c r="BQ47" s="27"/>
-      <c r="BR47" s="27" t="s">
+      <c r="BO47" s="26"/>
+      <c r="BP47" s="26"/>
+      <c r="BQ47" s="26"/>
+      <c r="BR47" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="27"/>
-      <c r="BT47" s="27"/>
-      <c r="BU47" s="27"/>
-      <c r="BV47" s="30" t="s">
+      <c r="BS47" s="26"/>
+      <c r="BT47" s="26"/>
+      <c r="BU47" s="26"/>
+      <c r="BV47" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="30"/>
-      <c r="BX47" s="30"/>
-      <c r="BY47" s="30"/>
-      <c r="BZ47" s="30" t="s">
+      <c r="BW47" s="29"/>
+      <c r="BX47" s="29"/>
+      <c r="BY47" s="29"/>
+      <c r="BZ47" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="30"/>
-      <c r="CB47" s="30"/>
-      <c r="CC47" s="30"/>
-      <c r="CD47" s="27" t="s">
+      <c r="CA47" s="26"/>
+      <c r="CB47" s="26"/>
+      <c r="CC47" s="26"/>
+      <c r="CD47" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="27"/>
-      <c r="CF47" s="27"/>
-      <c r="CG47" s="27"/>
-      <c r="CH47" s="25"/>
-      <c r="CI47" s="25"/>
-      <c r="CJ47" s="25"/>
-      <c r="CK47" s="25"/>
+      <c r="CE47" s="26"/>
+      <c r="CF47" s="26"/>
+      <c r="CG47" s="26"/>
+      <c r="CH47" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI47" s="33"/>
+      <c r="CJ47" s="33"/>
+      <c r="CK47" s="33"/>
+      <c r="CL47" s="34"/>
+      <c r="CM47" s="32"/>
     </row>
-    <row r="48" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -27998,16 +28059,16 @@
       <c r="BY48" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="BZ48" s="23" t="s">
+      <c r="BZ48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA48" s="23" t="s">
+      <c r="CA48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB48" s="23" t="s">
+      <c r="CB48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC48" s="23" t="s">
+      <c r="CC48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="CD48" s="5" t="s">
@@ -28022,15 +28083,24 @@
       <c r="CG48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH48" s="26"/>
-      <c r="CI48" s="26"/>
-      <c r="CJ48" s="26"/>
-      <c r="CK48" s="26"/>
+      <c r="CH48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI48" s="33"/>
+      <c r="CJ48" s="33"/>
+      <c r="CK48" s="33"/>
+      <c r="CL48" s="33"/>
+      <c r="CM48" s="32"/>
     </row>
-    <row r="49" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
+      <c r="CI49" s="32"/>
+      <c r="CJ49" s="32"/>
+      <c r="CK49" s="32"/>
+      <c r="CL49" s="32"/>
+      <c r="CM49" s="32"/>
     </row>
-    <row r="50" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -28262,17 +28332,17 @@
       <c r="BY50" s="24">
         <v>1.3729005017420803</v>
       </c>
-      <c r="BZ50" s="24">
+      <c r="BZ50" s="12">
         <v>-4.0435662713138498</v>
       </c>
-      <c r="CA50" s="24">
+      <c r="CA50" s="12">
         <v>-53.386663855093438</v>
       </c>
-      <c r="CB50" s="24">
+      <c r="CB50" s="12">
         <v>-32.107689886346719</v>
       </c>
-      <c r="CC50" s="24">
-        <v>-25.954762461882282</v>
+      <c r="CC50" s="12">
+        <v>-23.852463924106033</v>
       </c>
       <c r="CD50" s="12">
         <v>-19.626357117969491</v>
@@ -28284,14 +28354,16 @@
         <v>12.21101451218496</v>
       </c>
       <c r="CG50" s="12">
-        <v>11.307334495642991</v>
-      </c>
-      <c r="CH50" s="11"/>
-      <c r="CI50" s="11"/>
-      <c r="CJ50" s="11"/>
-      <c r="CK50" s="11"/>
-      <c r="CL50" s="11"/>
-      <c r="CM50" s="11"/>
+        <v>11.195427327526716</v>
+      </c>
+      <c r="CH50" s="12">
+        <v>20.249971507419957</v>
+      </c>
+      <c r="CI50" s="35"/>
+      <c r="CJ50" s="35"/>
+      <c r="CK50" s="35"/>
+      <c r="CL50" s="35"/>
+      <c r="CM50" s="35"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
@@ -28349,7 +28421,7 @@
       <c r="EP50" s="11"/>
       <c r="EQ50" s="11"/>
     </row>
-    <row r="51" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -28581,36 +28653,38 @@
       <c r="BY51" s="24">
         <v>4.3340476321099572</v>
       </c>
-      <c r="BZ51" s="24">
+      <c r="BZ51" s="12">
         <v>5.4634799884228045</v>
       </c>
-      <c r="CA51" s="24">
-        <v>5.2757447075817367</v>
-      </c>
-      <c r="CB51" s="24">
-        <v>4.530325497605574</v>
-      </c>
-      <c r="CC51" s="24">
-        <v>4.0874913505040098</v>
+      <c r="CA51" s="12">
+        <v>5.2809554813628523</v>
+      </c>
+      <c r="CB51" s="12">
+        <v>4.5654113920052595</v>
+      </c>
+      <c r="CC51" s="12">
+        <v>4.1588475953424364</v>
       </c>
       <c r="CD51" s="12">
-        <v>3.131342628273444</v>
+        <v>3.2049011028171464</v>
       </c>
       <c r="CE51" s="12">
-        <v>2.647134370739451</v>
+        <v>2.7545873035428485</v>
       </c>
       <c r="CF51" s="12">
-        <v>2.2340180452388552</v>
+        <v>2.3111974796316588</v>
       </c>
       <c r="CG51" s="12">
-        <v>2.1871714775203372</v>
-      </c>
-      <c r="CH51" s="11"/>
-      <c r="CI51" s="11"/>
-      <c r="CJ51" s="11"/>
-      <c r="CK51" s="11"/>
-      <c r="CL51" s="11"/>
-      <c r="CM51" s="11"/>
+        <v>2.2288883104499462</v>
+      </c>
+      <c r="CH51" s="12">
+        <v>2.2838921682917288</v>
+      </c>
+      <c r="CI51" s="35"/>
+      <c r="CJ51" s="35"/>
+      <c r="CK51" s="35"/>
+      <c r="CL51" s="35"/>
+      <c r="CM51" s="35"/>
       <c r="CN51" s="11"/>
       <c r="CO51" s="11"/>
       <c r="CP51" s="11"/>
@@ -28668,7 +28742,7 @@
       <c r="EP51" s="11"/>
       <c r="EQ51" s="11"/>
     </row>
-    <row r="52" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -28746,20 +28820,20 @@
       <c r="BW52" s="20"/>
       <c r="BX52" s="20"/>
       <c r="BY52" s="20"/>
-      <c r="BZ52" s="20"/>
-      <c r="CA52" s="20"/>
-      <c r="CB52" s="20"/>
-      <c r="CC52" s="20"/>
+      <c r="BZ52" s="11"/>
+      <c r="CA52" s="11"/>
+      <c r="CB52" s="11"/>
+      <c r="CC52" s="11"/>
       <c r="CD52" s="11"/>
       <c r="CE52" s="11"/>
       <c r="CF52" s="11"/>
       <c r="CG52" s="11"/>
       <c r="CH52" s="11"/>
-      <c r="CI52" s="11"/>
-      <c r="CJ52" s="11"/>
-      <c r="CK52" s="11"/>
-      <c r="CL52" s="11"/>
-      <c r="CM52" s="11"/>
+      <c r="CI52" s="35"/>
+      <c r="CJ52" s="35"/>
+      <c r="CK52" s="35"/>
+      <c r="CL52" s="35"/>
+      <c r="CM52" s="35"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
       <c r="CP52" s="11"/>
@@ -28817,7 +28891,7 @@
       <c r="EP52" s="11"/>
       <c r="EQ52" s="11"/>
     </row>
-    <row r="53" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>13</v>
       </c>
@@ -29049,36 +29123,38 @@
       <c r="BY53" s="24">
         <v>2.7203696708347564</v>
       </c>
-      <c r="BZ53" s="24">
+      <c r="BZ53" s="12">
         <v>0.34955821488415495</v>
       </c>
-      <c r="CA53" s="24">
-        <v>-27.489736151423486</v>
-      </c>
-      <c r="CB53" s="24">
-        <v>-16.281779213325692</v>
-      </c>
-      <c r="CC53" s="24">
-        <v>-12.069284171911519</v>
+      <c r="CA53" s="12">
+        <v>-27.487435819146029</v>
+      </c>
+      <c r="CB53" s="12">
+        <v>-16.266623746392412</v>
+      </c>
+      <c r="CC53" s="12">
+        <v>-10.905683685649109</v>
       </c>
       <c r="CD53" s="12">
-        <v>-8.5743056467361072</v>
+        <v>-8.5385827021561482</v>
       </c>
       <c r="CE53" s="12">
-        <v>20.054233792582082</v>
+        <v>20.122553660619459</v>
       </c>
       <c r="CF53" s="12">
-        <v>6.8300652054989968</v>
+        <v>6.8708653871586449</v>
       </c>
       <c r="CG53" s="12">
-        <v>6.3174686812229766</v>
-      </c>
-      <c r="CH53" s="11"/>
-      <c r="CI53" s="11"/>
-      <c r="CJ53" s="11"/>
-      <c r="CK53" s="11"/>
-      <c r="CL53" s="11"/>
-      <c r="CM53" s="11"/>
+        <v>6.3503652909170825</v>
+      </c>
+      <c r="CH53" s="12">
+        <v>10.40464227288038</v>
+      </c>
+      <c r="CI53" s="35"/>
+      <c r="CJ53" s="35"/>
+      <c r="CK53" s="35"/>
+      <c r="CL53" s="35"/>
+      <c r="CM53" s="35"/>
       <c r="CN53" s="11"/>
       <c r="CO53" s="11"/>
       <c r="CP53" s="11"/>
@@ -29136,7 +29212,7 @@
       <c r="EP53" s="11"/>
       <c r="EQ53" s="11"/>
     </row>
-    <row r="54" spans="1:147" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:147" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -29214,25 +29290,32 @@
       <c r="BW54" s="22"/>
       <c r="BX54" s="22"/>
       <c r="BY54" s="22"/>
-      <c r="BZ54" s="22"/>
-      <c r="CA54" s="22"/>
-      <c r="CB54" s="22"/>
-      <c r="CC54" s="22"/>
+      <c r="BZ54" s="9"/>
+      <c r="CA54" s="9"/>
+      <c r="CB54" s="9"/>
+      <c r="CC54" s="9"/>
       <c r="CD54" s="9"/>
       <c r="CE54" s="9"/>
       <c r="CF54" s="9"/>
       <c r="CG54" s="9"/>
       <c r="CH54" s="9"/>
-      <c r="CI54" s="9"/>
-      <c r="CJ54" s="9"/>
-      <c r="CK54" s="9"/>
+      <c r="CI54" s="36"/>
+      <c r="CJ54" s="36"/>
+      <c r="CK54" s="36"/>
+      <c r="CL54" s="36"/>
+      <c r="CM54" s="32"/>
     </row>
-    <row r="55" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="CI55" s="32"/>
+      <c r="CJ55" s="32"/>
+      <c r="CK55" s="32"/>
+      <c r="CL55" s="32"/>
+      <c r="CM55" s="32"/>
     </row>
-    <row r="56" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -29309,20 +29392,20 @@
       <c r="BW56" s="20"/>
       <c r="BX56" s="20"/>
       <c r="BY56" s="20"/>
-      <c r="BZ56" s="20"/>
-      <c r="CA56" s="20"/>
-      <c r="CB56" s="20"/>
-      <c r="CC56" s="20"/>
+      <c r="BZ56" s="11"/>
+      <c r="CA56" s="11"/>
+      <c r="CB56" s="11"/>
+      <c r="CC56" s="11"/>
       <c r="CD56" s="11"/>
       <c r="CE56" s="11"/>
       <c r="CF56" s="11"/>
       <c r="CG56" s="11"/>
       <c r="CH56" s="11"/>
-      <c r="CI56" s="11"/>
-      <c r="CJ56" s="11"/>
-      <c r="CK56" s="11"/>
-      <c r="CL56" s="11"/>
-      <c r="CM56" s="11"/>
+      <c r="CI56" s="35"/>
+      <c r="CJ56" s="35"/>
+      <c r="CK56" s="35"/>
+      <c r="CL56" s="35"/>
+      <c r="CM56" s="35"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
       <c r="CP56" s="11"/>
@@ -29380,7 +29463,7 @@
       <c r="EP56" s="11"/>
       <c r="EQ56" s="11"/>
     </row>
-    <row r="57" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -29457,20 +29540,20 @@
       <c r="BW57" s="20"/>
       <c r="BX57" s="20"/>
       <c r="BY57" s="20"/>
-      <c r="BZ57" s="20"/>
-      <c r="CA57" s="20"/>
-      <c r="CB57" s="20"/>
-      <c r="CC57" s="20"/>
+      <c r="BZ57" s="11"/>
+      <c r="CA57" s="11"/>
+      <c r="CB57" s="11"/>
+      <c r="CC57" s="11"/>
       <c r="CD57" s="11"/>
       <c r="CE57" s="11"/>
       <c r="CF57" s="11"/>
       <c r="CG57" s="11"/>
       <c r="CH57" s="11"/>
-      <c r="CI57" s="11"/>
-      <c r="CJ57" s="11"/>
-      <c r="CK57" s="11"/>
-      <c r="CL57" s="11"/>
-      <c r="CM57" s="11"/>
+      <c r="CI57" s="35"/>
+      <c r="CJ57" s="35"/>
+      <c r="CK57" s="35"/>
+      <c r="CL57" s="35"/>
+      <c r="CM57" s="35"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
       <c r="CP57" s="11"/>
@@ -29528,170 +29611,204 @@
       <c r="EP57" s="11"/>
       <c r="EQ57" s="11"/>
     </row>
-    <row r="58" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="CI58" s="32"/>
+      <c r="CJ58" s="32"/>
+      <c r="CK58" s="32"/>
+      <c r="CL58" s="32"/>
+      <c r="CM58" s="32"/>
     </row>
-    <row r="59" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="CI59" s="32"/>
+      <c r="CJ59" s="32"/>
+      <c r="CK59" s="32"/>
+      <c r="CL59" s="32"/>
+      <c r="CM59" s="32"/>
     </row>
-    <row r="60" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="CI60" s="32"/>
+      <c r="CJ60" s="32"/>
+      <c r="CK60" s="32"/>
+      <c r="CL60" s="32"/>
+      <c r="CM60" s="32"/>
     </row>
-    <row r="62" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="CI64" s="32"/>
+      <c r="CJ64" s="32"/>
+      <c r="CK64" s="32"/>
+      <c r="CL64" s="32"/>
+      <c r="CM64" s="32"/>
+      <c r="CN64" s="32"/>
     </row>
-    <row r="66" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:151" x14ac:dyDescent="0.2">
+      <c r="CI65" s="32"/>
+      <c r="CJ65" s="32"/>
+      <c r="CK65" s="32"/>
+      <c r="CL65" s="32"/>
+      <c r="CM65" s="32"/>
+      <c r="CN65" s="32"/>
+    </row>
+    <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="27" t="s">
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="27" t="s">
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="27" t="s">
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="27" t="s">
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="27" t="s">
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="27" t="s">
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="27" t="s">
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
+      <c r="AD66" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="29"/>
-      <c r="AF66" s="29"/>
-      <c r="AG66" s="29"/>
-      <c r="AH66" s="27" t="s">
+      <c r="AE66" s="28"/>
+      <c r="AF66" s="28"/>
+      <c r="AG66" s="28"/>
+      <c r="AH66" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="29"/>
-      <c r="AJ66" s="29"/>
-      <c r="AK66" s="29"/>
-      <c r="AL66" s="27" t="s">
+      <c r="AI66" s="28"/>
+      <c r="AJ66" s="28"/>
+      <c r="AK66" s="28"/>
+      <c r="AL66" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="29"/>
-      <c r="AN66" s="29"/>
-      <c r="AO66" s="29"/>
-      <c r="AP66" s="27" t="s">
+      <c r="AM66" s="28"/>
+      <c r="AN66" s="28"/>
+      <c r="AO66" s="28"/>
+      <c r="AP66" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="29"/>
-      <c r="AR66" s="29"/>
-      <c r="AS66" s="29"/>
-      <c r="AT66" s="27" t="s">
+      <c r="AQ66" s="28"/>
+      <c r="AR66" s="28"/>
+      <c r="AS66" s="28"/>
+      <c r="AT66" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="29"/>
-      <c r="AV66" s="29"/>
-      <c r="AW66" s="29"/>
-      <c r="AX66" s="27" t="s">
+      <c r="AU66" s="28"/>
+      <c r="AV66" s="28"/>
+      <c r="AW66" s="28"/>
+      <c r="AX66" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="29"/>
-      <c r="AZ66" s="29"/>
-      <c r="BA66" s="29"/>
-      <c r="BB66" s="27" t="s">
+      <c r="AY66" s="28"/>
+      <c r="AZ66" s="28"/>
+      <c r="BA66" s="28"/>
+      <c r="BB66" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="29"/>
-      <c r="BD66" s="29"/>
-      <c r="BE66" s="29"/>
-      <c r="BF66" s="27" t="s">
+      <c r="BC66" s="28"/>
+      <c r="BD66" s="28"/>
+      <c r="BE66" s="28"/>
+      <c r="BF66" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="29"/>
-      <c r="BH66" s="29"/>
-      <c r="BI66" s="29"/>
-      <c r="BJ66" s="27" t="s">
+      <c r="BG66" s="28"/>
+      <c r="BH66" s="28"/>
+      <c r="BI66" s="28"/>
+      <c r="BJ66" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="29"/>
-      <c r="BL66" s="29"/>
-      <c r="BM66" s="29"/>
-      <c r="BN66" s="27" t="s">
+      <c r="BK66" s="28"/>
+      <c r="BL66" s="28"/>
+      <c r="BM66" s="28"/>
+      <c r="BN66" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="29"/>
-      <c r="BP66" s="29"/>
-      <c r="BQ66" s="29"/>
-      <c r="BR66" s="27" t="s">
+      <c r="BO66" s="28"/>
+      <c r="BP66" s="28"/>
+      <c r="BQ66" s="28"/>
+      <c r="BR66" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="29"/>
-      <c r="BT66" s="29"/>
-      <c r="BU66" s="29"/>
-      <c r="BV66" s="30" t="s">
+      <c r="BS66" s="28"/>
+      <c r="BT66" s="28"/>
+      <c r="BU66" s="28"/>
+      <c r="BV66" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="32"/>
-      <c r="BX66" s="32"/>
-      <c r="BY66" s="32"/>
-      <c r="BZ66" s="30" t="s">
+      <c r="BW66" s="31"/>
+      <c r="BX66" s="31"/>
+      <c r="BY66" s="31"/>
+      <c r="BZ66" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="30"/>
-      <c r="CB66" s="30"/>
-      <c r="CC66" s="30"/>
-      <c r="CD66" s="27" t="s">
+      <c r="CA66" s="26"/>
+      <c r="CB66" s="26"/>
+      <c r="CC66" s="26"/>
+      <c r="CD66" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="27"/>
-      <c r="CF66" s="27"/>
-      <c r="CG66" s="27"/>
-      <c r="CH66" s="25"/>
-      <c r="CI66" s="25"/>
-      <c r="CJ66" s="25"/>
-      <c r="CK66" s="25"/>
+      <c r="CE66" s="26"/>
+      <c r="CF66" s="26"/>
+      <c r="CG66" s="26"/>
+      <c r="CH66" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI66" s="33"/>
+      <c r="CJ66" s="33"/>
+      <c r="CK66" s="33"/>
+      <c r="CL66" s="34"/>
+      <c r="CM66" s="32"/>
+      <c r="CN66" s="32"/>
     </row>
-    <row r="67" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -29923,16 +30040,16 @@
       <c r="BY67" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="BZ67" s="23" t="s">
+      <c r="BZ67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA67" s="23" t="s">
+      <c r="CA67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB67" s="23" t="s">
+      <c r="CB67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC67" s="23" t="s">
+      <c r="CC67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="CD67" s="5" t="s">
@@ -29947,15 +30064,26 @@
       <c r="CG67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH67" s="26"/>
-      <c r="CI67" s="26"/>
-      <c r="CJ67" s="26"/>
-      <c r="CK67" s="26"/>
+      <c r="CH67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI67" s="33"/>
+      <c r="CJ67" s="33"/>
+      <c r="CK67" s="33"/>
+      <c r="CL67" s="33"/>
+      <c r="CM67" s="32"/>
+      <c r="CN67" s="32"/>
     </row>
-    <row r="68" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
+      <c r="CI68" s="32"/>
+      <c r="CJ68" s="32"/>
+      <c r="CK68" s="32"/>
+      <c r="CL68" s="32"/>
+      <c r="CM68" s="32"/>
+      <c r="CN68" s="32"/>
     </row>
-    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>11</v>
       </c>
@@ -30187,17 +30315,17 @@
       <c r="BY69" s="24">
         <v>2.1332565907817411</v>
       </c>
-      <c r="BZ69" s="24">
+      <c r="BZ69" s="12">
         <v>-7.0612880485297183</v>
       </c>
-      <c r="CA69" s="24">
+      <c r="CA69" s="12">
         <v>-54.692100525771025</v>
       </c>
-      <c r="CB69" s="24">
+      <c r="CB69" s="12">
         <v>-34.231058896905381</v>
       </c>
-      <c r="CC69" s="24">
-        <v>-28.683251568337283</v>
+      <c r="CC69" s="12">
+        <v>-26.658420520024947</v>
       </c>
       <c r="CD69" s="12">
         <v>-23.781009501966622</v>
@@ -30209,15 +30337,17 @@
         <v>6.6426546140479417</v>
       </c>
       <c r="CG69" s="12">
-        <v>6.4112094291162407</v>
-      </c>
-      <c r="CH69" s="11"/>
-      <c r="CI69" s="11"/>
-      <c r="CJ69" s="11"/>
-      <c r="CK69" s="11"/>
-      <c r="CL69" s="11"/>
-      <c r="CM69" s="11"/>
-      <c r="CN69" s="11"/>
+        <v>6.3042247712139101</v>
+      </c>
+      <c r="CH69" s="12">
+        <v>16.399300697350071</v>
+      </c>
+      <c r="CI69" s="35"/>
+      <c r="CJ69" s="35"/>
+      <c r="CK69" s="35"/>
+      <c r="CL69" s="35"/>
+      <c r="CM69" s="35"/>
+      <c r="CN69" s="35"/>
       <c r="CO69" s="11"/>
       <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
@@ -30274,7 +30404,7 @@
       <c r="EP69" s="11"/>
       <c r="EQ69" s="11"/>
     </row>
-    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>12</v>
       </c>
@@ -30506,37 +30636,39 @@
       <c r="BY70" s="24">
         <v>1.9065718336572388</v>
       </c>
-      <c r="BZ70" s="24">
+      <c r="BZ70" s="12">
         <v>1.9663128318453431</v>
       </c>
-      <c r="CA70" s="24">
-        <v>1.9799475368149899</v>
-      </c>
-      <c r="CB70" s="24">
-        <v>1.6040646685341358</v>
-      </c>
-      <c r="CC70" s="24">
-        <v>1.3784165575919474</v>
+      <c r="CA70" s="12">
+        <v>1.9849951803942361</v>
+      </c>
+      <c r="CB70" s="12">
+        <v>1.6381683553500608</v>
+      </c>
+      <c r="CC70" s="12">
+        <v>1.4479156205375148</v>
       </c>
       <c r="CD70" s="12">
-        <v>1.1030421013367544</v>
+        <v>1.1751538896561442</v>
       </c>
       <c r="CE70" s="12">
-        <v>0.99791244246299016</v>
+        <v>1.1036389390232131</v>
       </c>
       <c r="CF70" s="12">
-        <v>1.3120680694887596</v>
+        <v>1.3885514970236983</v>
       </c>
       <c r="CG70" s="12">
-        <v>0.91516374912978904</v>
-      </c>
-      <c r="CH70" s="11"/>
-      <c r="CI70" s="11"/>
-      <c r="CJ70" s="11"/>
-      <c r="CK70" s="11"/>
-      <c r="CL70" s="11"/>
-      <c r="CM70" s="11"/>
-      <c r="CN70" s="11"/>
+        <v>0.95636129834572614</v>
+      </c>
+      <c r="CH70" s="12">
+        <v>1.1733626980431069</v>
+      </c>
+      <c r="CI70" s="35"/>
+      <c r="CJ70" s="35"/>
+      <c r="CK70" s="35"/>
+      <c r="CL70" s="35"/>
+      <c r="CM70" s="35"/>
+      <c r="CN70" s="35"/>
       <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
@@ -30593,7 +30725,7 @@
       <c r="EP70" s="11"/>
       <c r="EQ70" s="11"/>
     </row>
-    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -30670,21 +30802,21 @@
       <c r="BW71" s="20"/>
       <c r="BX71" s="20"/>
       <c r="BY71" s="20"/>
-      <c r="BZ71" s="20"/>
-      <c r="CA71" s="20"/>
-      <c r="CB71" s="20"/>
-      <c r="CC71" s="20"/>
+      <c r="BZ71" s="11"/>
+      <c r="CA71" s="11"/>
+      <c r="CB71" s="11"/>
+      <c r="CC71" s="11"/>
       <c r="CD71" s="11"/>
       <c r="CE71" s="11"/>
       <c r="CF71" s="11"/>
       <c r="CG71" s="11"/>
       <c r="CH71" s="11"/>
-      <c r="CI71" s="11"/>
-      <c r="CJ71" s="11"/>
-      <c r="CK71" s="11"/>
-      <c r="CL71" s="11"/>
-      <c r="CM71" s="11"/>
-      <c r="CN71" s="11"/>
+      <c r="CI71" s="35"/>
+      <c r="CJ71" s="35"/>
+      <c r="CK71" s="35"/>
+      <c r="CL71" s="35"/>
+      <c r="CM71" s="35"/>
+      <c r="CN71" s="35"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
       <c r="CQ71" s="11"/>
@@ -30741,7 +30873,7 @@
       <c r="EP71" s="11"/>
       <c r="EQ71" s="11"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>13</v>
       </c>
@@ -30973,37 +31105,39 @@
       <c r="BY72" s="24">
         <v>2.0295471710086446</v>
       </c>
-      <c r="BZ72" s="24">
+      <c r="BZ72" s="12">
         <v>-2.8848385405358101</v>
       </c>
-      <c r="CA72" s="24">
-        <v>-29.903535071356245</v>
-      </c>
-      <c r="CB72" s="24">
-        <v>-19.195774061875213</v>
-      </c>
-      <c r="CC72" s="24">
-        <v>-14.946463583428866</v>
+      <c r="CA72" s="12">
+        <v>-29.901327213205136</v>
+      </c>
+      <c r="CB72" s="12">
+        <v>-19.181465233156771</v>
+      </c>
+      <c r="CC72" s="12">
+        <v>-13.815128558376983</v>
       </c>
       <c r="CD72" s="12">
-        <v>-11.693810925870636</v>
+        <v>-11.658783289736903</v>
       </c>
       <c r="CE72" s="12">
-        <v>16.704969273210637</v>
+        <v>16.771755614950862</v>
       </c>
       <c r="CF72" s="12">
-        <v>3.8303992080337821</v>
+        <v>3.8703100689210856</v>
       </c>
       <c r="CG72" s="12">
-        <v>3.417734804983624</v>
-      </c>
-      <c r="CH72" s="11"/>
-      <c r="CI72" s="11"/>
-      <c r="CJ72" s="11"/>
-      <c r="CK72" s="11"/>
-      <c r="CL72" s="11"/>
-      <c r="CM72" s="11"/>
-      <c r="CN72" s="11"/>
+        <v>3.4277238261467602</v>
+      </c>
+      <c r="CH72" s="12">
+        <v>7.9289943480642933</v>
+      </c>
+      <c r="CI72" s="35"/>
+      <c r="CJ72" s="35"/>
+      <c r="CK72" s="35"/>
+      <c r="CL72" s="35"/>
+      <c r="CM72" s="35"/>
+      <c r="CN72" s="35"/>
       <c r="CO72" s="11"/>
       <c r="CP72" s="11"/>
       <c r="CQ72" s="11"/>
@@ -31060,7 +31194,7 @@
       <c r="EP72" s="11"/>
       <c r="EQ72" s="11"/>
     </row>
-    <row r="73" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -31138,25 +31272,34 @@
       <c r="BW73" s="22"/>
       <c r="BX73" s="22"/>
       <c r="BY73" s="22"/>
-      <c r="BZ73" s="22"/>
-      <c r="CA73" s="22"/>
-      <c r="CB73" s="22"/>
-      <c r="CC73" s="22"/>
+      <c r="BZ73" s="9"/>
+      <c r="CA73" s="9"/>
+      <c r="CB73" s="9"/>
+      <c r="CC73" s="9"/>
       <c r="CD73" s="9"/>
       <c r="CE73" s="9"/>
       <c r="CF73" s="9"/>
       <c r="CG73" s="9"/>
       <c r="CH73" s="9"/>
-      <c r="CI73" s="9"/>
-      <c r="CJ73" s="9"/>
-      <c r="CK73" s="9"/>
+      <c r="CI73" s="36"/>
+      <c r="CJ73" s="36"/>
+      <c r="CK73" s="36"/>
+      <c r="CL73" s="36"/>
+      <c r="CM73" s="32"/>
+      <c r="CN73" s="32"/>
     </row>
-    <row r="74" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="CI74" s="32"/>
+      <c r="CJ74" s="32"/>
+      <c r="CK74" s="32"/>
+      <c r="CL74" s="32"/>
+      <c r="CM74" s="32"/>
+      <c r="CN74" s="32"/>
     </row>
-    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -31233,21 +31376,21 @@
       <c r="BW75" s="20"/>
       <c r="BX75" s="20"/>
       <c r="BY75" s="20"/>
-      <c r="BZ75" s="20"/>
-      <c r="CA75" s="20"/>
-      <c r="CB75" s="20"/>
-      <c r="CC75" s="20"/>
+      <c r="BZ75" s="11"/>
+      <c r="CA75" s="11"/>
+      <c r="CB75" s="11"/>
+      <c r="CC75" s="11"/>
       <c r="CD75" s="11"/>
       <c r="CE75" s="11"/>
       <c r="CF75" s="11"/>
       <c r="CG75" s="11"/>
       <c r="CH75" s="11"/>
-      <c r="CI75" s="11"/>
-      <c r="CJ75" s="11"/>
-      <c r="CK75" s="11"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
+      <c r="CI75" s="35"/>
+      <c r="CJ75" s="35"/>
+      <c r="CK75" s="35"/>
+      <c r="CL75" s="35"/>
+      <c r="CM75" s="35"/>
+      <c r="CN75" s="35"/>
       <c r="CO75" s="11"/>
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
@@ -31304,7 +31447,7 @@
       <c r="EP75" s="11"/>
       <c r="EQ75" s="11"/>
     </row>
-    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -31381,21 +31524,21 @@
       <c r="BW76" s="20"/>
       <c r="BX76" s="20"/>
       <c r="BY76" s="20"/>
-      <c r="BZ76" s="20"/>
-      <c r="CA76" s="20"/>
-      <c r="CB76" s="20"/>
-      <c r="CC76" s="20"/>
+      <c r="BZ76" s="11"/>
+      <c r="CA76" s="11"/>
+      <c r="CB76" s="11"/>
+      <c r="CC76" s="11"/>
       <c r="CD76" s="11"/>
       <c r="CE76" s="11"/>
       <c r="CF76" s="11"/>
       <c r="CG76" s="11"/>
       <c r="CH76" s="11"/>
-      <c r="CI76" s="11"/>
-      <c r="CJ76" s="11"/>
-      <c r="CK76" s="11"/>
-      <c r="CL76" s="11"/>
-      <c r="CM76" s="11"/>
-      <c r="CN76" s="11"/>
+      <c r="CI76" s="35"/>
+      <c r="CJ76" s="35"/>
+      <c r="CK76" s="35"/>
+      <c r="CL76" s="35"/>
+      <c r="CM76" s="35"/>
+      <c r="CN76" s="35"/>
       <c r="CO76" s="11"/>
       <c r="CP76" s="11"/>
       <c r="CQ76" s="11"/>
@@ -31456,167 +31599,196 @@
       <c r="ET76" s="11"/>
       <c r="EU76" s="11"/>
     </row>
-    <row r="77" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="CI77" s="32"/>
+      <c r="CJ77" s="32"/>
+      <c r="CK77" s="32"/>
+      <c r="CL77" s="32"/>
+      <c r="CM77" s="32"/>
+      <c r="CN77" s="32"/>
     </row>
-    <row r="78" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="CI78" s="32"/>
+      <c r="CJ78" s="32"/>
+      <c r="CK78" s="32"/>
+      <c r="CL78" s="32"/>
+      <c r="CM78" s="32"/>
+      <c r="CN78" s="32"/>
     </row>
-    <row r="80" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:151" x14ac:dyDescent="0.2">
+      <c r="CI79" s="32"/>
+      <c r="CJ79" s="32"/>
+      <c r="CK79" s="32"/>
+      <c r="CL79" s="32"/>
+      <c r="CM79" s="32"/>
+      <c r="CN79" s="32"/>
+    </row>
+    <row r="80" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="CI80" s="32"/>
+      <c r="CJ80" s="32"/>
+      <c r="CK80" s="32"/>
+      <c r="CL80" s="32"/>
+      <c r="CM80" s="32"/>
+      <c r="CN80" s="32"/>
     </row>
-    <row r="81" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="27">
+      <c r="B84" s="26">
         <v>2000</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="27">
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="26">
         <v>2001</v>
       </c>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="27">
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="26">
         <v>2002</v>
       </c>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="27">
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="26">
         <v>2003</v>
       </c>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="27">
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="26">
         <v>2004</v>
       </c>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="27">
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="26">
         <v>2005</v>
       </c>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="27">
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="26">
         <v>2006</v>
       </c>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="27">
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="26">
         <v>2007</v>
       </c>
-      <c r="AE84" s="28"/>
-      <c r="AF84" s="28"/>
-      <c r="AG84" s="28"/>
-      <c r="AH84" s="27">
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="27"/>
+      <c r="AH84" s="26">
         <v>2008</v>
       </c>
-      <c r="AI84" s="28"/>
-      <c r="AJ84" s="28"/>
-      <c r="AK84" s="28"/>
-      <c r="AL84" s="27">
+      <c r="AI84" s="27"/>
+      <c r="AJ84" s="27"/>
+      <c r="AK84" s="27"/>
+      <c r="AL84" s="26">
         <v>2009</v>
       </c>
-      <c r="AM84" s="28"/>
-      <c r="AN84" s="28"/>
-      <c r="AO84" s="28"/>
-      <c r="AP84" s="27">
+      <c r="AM84" s="27"/>
+      <c r="AN84" s="27"/>
+      <c r="AO84" s="27"/>
+      <c r="AP84" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="28"/>
-      <c r="AR84" s="28"/>
-      <c r="AS84" s="28"/>
-      <c r="AT84" s="27">
+      <c r="AQ84" s="27"/>
+      <c r="AR84" s="27"/>
+      <c r="AS84" s="27"/>
+      <c r="AT84" s="26">
         <v>2011</v>
       </c>
-      <c r="AU84" s="28"/>
-      <c r="AV84" s="28"/>
-      <c r="AW84" s="28"/>
-      <c r="AX84" s="27">
+      <c r="AU84" s="27"/>
+      <c r="AV84" s="27"/>
+      <c r="AW84" s="27"/>
+      <c r="AX84" s="26">
         <v>2012</v>
       </c>
-      <c r="AY84" s="28"/>
-      <c r="AZ84" s="28"/>
-      <c r="BA84" s="28"/>
-      <c r="BB84" s="27">
+      <c r="AY84" s="27"/>
+      <c r="AZ84" s="27"/>
+      <c r="BA84" s="27"/>
+      <c r="BB84" s="26">
         <v>2013</v>
       </c>
-      <c r="BC84" s="28"/>
-      <c r="BD84" s="28"/>
-      <c r="BE84" s="28"/>
-      <c r="BF84" s="27">
+      <c r="BC84" s="27"/>
+      <c r="BD84" s="27"/>
+      <c r="BE84" s="27"/>
+      <c r="BF84" s="26">
         <v>2014</v>
       </c>
-      <c r="BG84" s="28"/>
-      <c r="BH84" s="28"/>
-      <c r="BI84" s="28"/>
-      <c r="BJ84" s="27">
+      <c r="BG84" s="27"/>
+      <c r="BH84" s="27"/>
+      <c r="BI84" s="27"/>
+      <c r="BJ84" s="26">
         <v>2015</v>
       </c>
-      <c r="BK84" s="28"/>
-      <c r="BL84" s="28"/>
-      <c r="BM84" s="28"/>
-      <c r="BN84" s="27">
+      <c r="BK84" s="27"/>
+      <c r="BL84" s="27"/>
+      <c r="BM84" s="27"/>
+      <c r="BN84" s="26">
         <v>2016</v>
       </c>
-      <c r="BO84" s="28"/>
-      <c r="BP84" s="28"/>
-      <c r="BQ84" s="28"/>
-      <c r="BR84" s="27">
+      <c r="BO84" s="27"/>
+      <c r="BP84" s="27"/>
+      <c r="BQ84" s="27"/>
+      <c r="BR84" s="26">
         <v>2017</v>
       </c>
-      <c r="BS84" s="28"/>
-      <c r="BT84" s="28"/>
-      <c r="BU84" s="28"/>
-      <c r="BV84" s="30">
+      <c r="BS84" s="27"/>
+      <c r="BT84" s="27"/>
+      <c r="BU84" s="27"/>
+      <c r="BV84" s="29">
         <v>2018</v>
       </c>
-      <c r="BW84" s="31"/>
-      <c r="BX84" s="31"/>
-      <c r="BY84" s="31"/>
-      <c r="BZ84" s="30">
+      <c r="BW84" s="30"/>
+      <c r="BX84" s="30"/>
+      <c r="BY84" s="30"/>
+      <c r="BZ84" s="26">
         <v>2019</v>
       </c>
-      <c r="CA84" s="31"/>
-      <c r="CB84" s="31"/>
-      <c r="CC84" s="31"/>
-      <c r="CD84" s="27">
+      <c r="CA84" s="27"/>
+      <c r="CB84" s="27"/>
+      <c r="CC84" s="27"/>
+      <c r="CD84" s="26">
         <v>2020</v>
       </c>
-      <c r="CE84" s="27"/>
-      <c r="CF84" s="27"/>
-      <c r="CG84" s="27"/>
-      <c r="CH84" s="27">
+      <c r="CE84" s="26"/>
+      <c r="CF84" s="26"/>
+      <c r="CG84" s="26"/>
+      <c r="CH84" s="26">
         <v>2021</v>
       </c>
-      <c r="CI84" s="27"/>
-      <c r="CJ84" s="27"/>
-      <c r="CK84" s="27"/>
+      <c r="CI84" s="26"/>
+      <c r="CJ84" s="26"/>
+      <c r="CK84" s="26"/>
+      <c r="CL84" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="85" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -31848,16 +32020,16 @@
       <c r="BY85" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="BZ85" s="18" t="s">
+      <c r="BZ85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="18" t="s">
+      <c r="CA85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="18" t="s">
+      <c r="CB85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC85" s="18" t="s">
+      <c r="CC85" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD85" s="6" t="s">
@@ -31884,11 +32056,14 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL85" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="86" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
@@ -32120,16 +32295,16 @@
       <c r="BY87" s="24">
         <v>102.09842429518893</v>
       </c>
-      <c r="BZ87" s="24">
+      <c r="BZ87" s="12">
         <v>101.2382913563161</v>
       </c>
-      <c r="CA87" s="24">
+      <c r="CA87" s="12">
         <v>100.46100419941986</v>
       </c>
-      <c r="CB87" s="24">
+      <c r="CB87" s="12">
         <v>98.798649091433518</v>
       </c>
-      <c r="CC87" s="24">
+      <c r="CC87" s="12">
         <v>101.33832752372058</v>
       </c>
       <c r="CD87" s="12">
@@ -32154,9 +32329,11 @@
         <v>107.31372859885946</v>
       </c>
       <c r="CK87" s="12">
-        <v>110.05650893911177</v>
-      </c>
-      <c r="CL87" s="11"/>
+        <v>110.05650893911174</v>
+      </c>
+      <c r="CL87" s="12">
+        <v>113.86947749514169</v>
+      </c>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
@@ -32219,7 +32396,7 @@
       <c r="ET87" s="11"/>
       <c r="EU87" s="11"/>
     </row>
-    <row r="88" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -32451,23 +32628,23 @@
       <c r="BY88" s="24">
         <v>101.09294002593954</v>
       </c>
-      <c r="BZ88" s="24">
+      <c r="BZ88" s="12">
         <v>101.01871206967652</v>
       </c>
-      <c r="CA88" s="24">
+      <c r="CA88" s="12">
         <v>102.12770487472484</v>
       </c>
-      <c r="CB88" s="24">
+      <c r="CB88" s="12">
         <v>103.93265506400797</v>
       </c>
-      <c r="CC88" s="24">
+      <c r="CC88" s="12">
         <v>103.5010346256477</v>
       </c>
       <c r="CD88" s="12">
         <v>104.48337909781971</v>
       </c>
       <c r="CE88" s="12">
-        <v>105.42827728050597</v>
+        <v>105.42827728050599</v>
       </c>
       <c r="CF88" s="12">
         <v>106.92598075789026</v>
@@ -32476,10 +32653,10 @@
         <v>106.26683087168959</v>
       </c>
       <c r="CH88" s="12">
-        <v>106.57949498588385</v>
+        <v>106.57949498588384</v>
       </c>
       <c r="CI88" s="12">
-        <v>107.14984382130427</v>
+        <v>107.14984382130426</v>
       </c>
       <c r="CJ88" s="12">
         <v>107.89901790188752</v>
@@ -32487,7 +32664,9 @@
       <c r="CK88" s="12">
         <v>107.60629488401973</v>
       </c>
-      <c r="CL88" s="11"/>
+      <c r="CL88" s="12">
+        <v>107.74936487010709</v>
+      </c>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
@@ -32550,7 +32729,7 @@
       <c r="ET88" s="11"/>
       <c r="EU88" s="11"/>
     </row>
-    <row r="89" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -32627,10 +32806,10 @@
       <c r="BW89" s="20"/>
       <c r="BX89" s="20"/>
       <c r="BY89" s="20"/>
-      <c r="BZ89" s="20"/>
-      <c r="CA89" s="20"/>
-      <c r="CB89" s="20"/>
-      <c r="CC89" s="20"/>
+      <c r="BZ89" s="11"/>
+      <c r="CA89" s="11"/>
+      <c r="CB89" s="11"/>
+      <c r="CC89" s="11"/>
       <c r="CD89" s="11"/>
       <c r="CE89" s="11"/>
       <c r="CF89" s="11"/>
@@ -32702,7 +32881,7 @@
       <c r="ET89" s="11"/>
       <c r="EU89" s="11"/>
     </row>
-    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>13</v>
       </c>
@@ -32934,43 +33113,45 @@
       <c r="BY90" s="24">
         <v>101.63841017038584</v>
       </c>
-      <c r="BZ90" s="24">
+      <c r="BZ90" s="12">
         <v>101.13670713523636</v>
       </c>
-      <c r="CA90" s="24">
+      <c r="CA90" s="12">
         <v>101.19002529880005</v>
       </c>
-      <c r="CB90" s="24">
+      <c r="CB90" s="12">
         <v>100.95271567366373</v>
       </c>
-      <c r="CC90" s="24">
+      <c r="CC90" s="12">
         <v>102.32658435658091</v>
       </c>
       <c r="CD90" s="12">
         <v>104.50504048809401</v>
       </c>
       <c r="CE90" s="12">
-        <v>104.67454301339316</v>
+        <v>104.67456675333402</v>
       </c>
       <c r="CF90" s="12">
-        <v>104.59331355087629</v>
+        <v>104.59372654692503</v>
       </c>
       <c r="CG90" s="12">
-        <v>105.78807407430047</v>
+        <v>105.78094416730089</v>
       </c>
       <c r="CH90" s="12">
-        <v>108.19678654708326</v>
+        <v>108.19614528468686</v>
       </c>
       <c r="CI90" s="12">
-        <v>107.67855162741758</v>
+        <v>107.67823259582454</v>
       </c>
       <c r="CJ90" s="12">
-        <v>107.6150201860609</v>
+        <v>107.61517957076232</v>
       </c>
       <c r="CK90" s="12">
-        <v>108.75426998522255</v>
-      </c>
-      <c r="CL90" s="11"/>
+        <v>108.77008249664846</v>
+      </c>
+      <c r="CL90" s="12">
+        <v>110.67792104999528</v>
+      </c>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
@@ -33033,7 +33214,7 @@
       <c r="ET90" s="11"/>
       <c r="EU90" s="11"/>
     </row>
-    <row r="91" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -33111,10 +33292,10 @@
       <c r="BW91" s="22"/>
       <c r="BX91" s="22"/>
       <c r="BY91" s="22"/>
-      <c r="BZ91" s="22"/>
-      <c r="CA91" s="22"/>
-      <c r="CB91" s="22"/>
-      <c r="CC91" s="22"/>
+      <c r="BZ91" s="9"/>
+      <c r="CA91" s="9"/>
+      <c r="CB91" s="9"/>
+      <c r="CC91" s="9"/>
       <c r="CD91" s="9"/>
       <c r="CE91" s="9"/>
       <c r="CF91" s="9"/>
@@ -33123,178 +33304,182 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
+      <c r="CL91" s="9"/>
     </row>
-    <row r="92" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="27">
+      <c r="B103" s="26">
         <v>2000</v>
       </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="27">
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="26">
         <v>2001</v>
       </c>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="27">
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="26">
         <v>2002</v>
       </c>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="27">
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="26">
         <v>2003</v>
       </c>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="28"/>
-      <c r="R103" s="27">
+      <c r="O103" s="27"/>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="27"/>
+      <c r="R103" s="26">
         <v>2004</v>
       </c>
-      <c r="S103" s="28"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="28"/>
-      <c r="V103" s="27">
+      <c r="S103" s="27"/>
+      <c r="T103" s="27"/>
+      <c r="U103" s="27"/>
+      <c r="V103" s="26">
         <v>2005</v>
       </c>
-      <c r="W103" s="28"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="27">
+      <c r="W103" s="27"/>
+      <c r="X103" s="27"/>
+      <c r="Y103" s="27"/>
+      <c r="Z103" s="26">
         <v>2006</v>
       </c>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="28"/>
-      <c r="AC103" s="28"/>
-      <c r="AD103" s="27">
+      <c r="AA103" s="27"/>
+      <c r="AB103" s="27"/>
+      <c r="AC103" s="27"/>
+      <c r="AD103" s="26">
         <v>2007</v>
       </c>
-      <c r="AE103" s="28"/>
-      <c r="AF103" s="28"/>
-      <c r="AG103" s="28"/>
-      <c r="AH103" s="27">
+      <c r="AE103" s="27"/>
+      <c r="AF103" s="27"/>
+      <c r="AG103" s="27"/>
+      <c r="AH103" s="26">
         <v>2008</v>
       </c>
-      <c r="AI103" s="28"/>
-      <c r="AJ103" s="28"/>
-      <c r="AK103" s="28"/>
-      <c r="AL103" s="27">
+      <c r="AI103" s="27"/>
+      <c r="AJ103" s="27"/>
+      <c r="AK103" s="27"/>
+      <c r="AL103" s="26">
         <v>2009</v>
       </c>
-      <c r="AM103" s="28"/>
-      <c r="AN103" s="28"/>
-      <c r="AO103" s="28"/>
-      <c r="AP103" s="27">
+      <c r="AM103" s="27"/>
+      <c r="AN103" s="27"/>
+      <c r="AO103" s="27"/>
+      <c r="AP103" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="28"/>
-      <c r="AR103" s="28"/>
-      <c r="AS103" s="28"/>
-      <c r="AT103" s="27">
+      <c r="AQ103" s="27"/>
+      <c r="AR103" s="27"/>
+      <c r="AS103" s="27"/>
+      <c r="AT103" s="26">
         <v>2011</v>
       </c>
-      <c r="AU103" s="28"/>
-      <c r="AV103" s="28"/>
-      <c r="AW103" s="28"/>
-      <c r="AX103" s="27">
+      <c r="AU103" s="27"/>
+      <c r="AV103" s="27"/>
+      <c r="AW103" s="27"/>
+      <c r="AX103" s="26">
         <v>2012</v>
       </c>
-      <c r="AY103" s="28"/>
-      <c r="AZ103" s="28"/>
-      <c r="BA103" s="28"/>
-      <c r="BB103" s="27">
+      <c r="AY103" s="27"/>
+      <c r="AZ103" s="27"/>
+      <c r="BA103" s="27"/>
+      <c r="BB103" s="26">
         <v>2013</v>
       </c>
-      <c r="BC103" s="28"/>
-      <c r="BD103" s="28"/>
-      <c r="BE103" s="28"/>
-      <c r="BF103" s="27">
+      <c r="BC103" s="27"/>
+      <c r="BD103" s="27"/>
+      <c r="BE103" s="27"/>
+      <c r="BF103" s="26">
         <v>2014</v>
       </c>
-      <c r="BG103" s="28"/>
-      <c r="BH103" s="28"/>
-      <c r="BI103" s="28"/>
-      <c r="BJ103" s="27">
+      <c r="BG103" s="27"/>
+      <c r="BH103" s="27"/>
+      <c r="BI103" s="27"/>
+      <c r="BJ103" s="26">
         <v>2015</v>
       </c>
-      <c r="BK103" s="28"/>
-      <c r="BL103" s="28"/>
-      <c r="BM103" s="28"/>
-      <c r="BN103" s="27">
+      <c r="BK103" s="27"/>
+      <c r="BL103" s="27"/>
+      <c r="BM103" s="27"/>
+      <c r="BN103" s="26">
         <v>2016</v>
       </c>
-      <c r="BO103" s="28"/>
-      <c r="BP103" s="28"/>
-      <c r="BQ103" s="28"/>
-      <c r="BR103" s="27">
+      <c r="BO103" s="27"/>
+      <c r="BP103" s="27"/>
+      <c r="BQ103" s="27"/>
+      <c r="BR103" s="26">
         <v>2017</v>
       </c>
-      <c r="BS103" s="28"/>
-      <c r="BT103" s="28"/>
-      <c r="BU103" s="28"/>
-      <c r="BV103" s="30">
+      <c r="BS103" s="27"/>
+      <c r="BT103" s="27"/>
+      <c r="BU103" s="27"/>
+      <c r="BV103" s="29">
         <v>2018</v>
       </c>
-      <c r="BW103" s="31"/>
-      <c r="BX103" s="31"/>
-      <c r="BY103" s="31"/>
-      <c r="BZ103" s="30">
+      <c r="BW103" s="30"/>
+      <c r="BX103" s="30"/>
+      <c r="BY103" s="30"/>
+      <c r="BZ103" s="26">
         <v>2019</v>
       </c>
-      <c r="CA103" s="31"/>
-      <c r="CB103" s="31"/>
-      <c r="CC103" s="31"/>
-      <c r="CD103" s="27">
+      <c r="CA103" s="27"/>
+      <c r="CB103" s="27"/>
+      <c r="CC103" s="27"/>
+      <c r="CD103" s="26">
         <v>2020</v>
       </c>
-      <c r="CE103" s="27"/>
-      <c r="CF103" s="27"/>
-      <c r="CG103" s="27"/>
-      <c r="CH103" s="27">
+      <c r="CE103" s="26"/>
+      <c r="CF103" s="26"/>
+      <c r="CG103" s="26"/>
+      <c r="CH103" s="26">
         <v>2021</v>
       </c>
-      <c r="CI103" s="27"/>
-      <c r="CJ103" s="27"/>
-      <c r="CK103" s="27"/>
+      <c r="CI103" s="26"/>
+      <c r="CJ103" s="26"/>
+      <c r="CK103" s="26"/>
+      <c r="CL103" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="104" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -33526,16 +33711,16 @@
       <c r="BY104" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="BZ104" s="18" t="s">
+      <c r="BZ104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA104" s="18" t="s">
+      <c r="CA104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB104" s="18" t="s">
+      <c r="CB104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC104" s="18" t="s">
+      <c r="CC104" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD104" s="6" t="s">
@@ -33562,11 +33747,14 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL104" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="105" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
@@ -33798,43 +33986,45 @@
       <c r="BY106" s="24">
         <v>54.495028116848012</v>
       </c>
-      <c r="BZ106" s="24">
+      <c r="BZ106" s="12">
         <v>53.790858210048413</v>
       </c>
-      <c r="CA106" s="24">
+      <c r="CA106" s="12">
         <v>55.854305443320541</v>
       </c>
-      <c r="CB106" s="24">
+      <c r="CB106" s="12">
         <v>56.804672668070047</v>
       </c>
-      <c r="CC106" s="24">
+      <c r="CC106" s="12">
         <v>53.780171165966721</v>
       </c>
       <c r="CD106" s="12">
         <v>51.435990480285767</v>
       </c>
       <c r="CE106" s="12">
-        <v>35.906027320584577</v>
+        <v>35.904888265656183</v>
       </c>
       <c r="CF106" s="12">
-        <v>46.06644069171432</v>
+        <v>46.05810281678469</v>
       </c>
       <c r="CG106" s="12">
-        <v>45.287537026425262</v>
+        <v>45.965081650989269</v>
       </c>
       <c r="CH106" s="12">
-        <v>45.218119035247128</v>
+        <v>45.200457769895799</v>
       </c>
       <c r="CI106" s="12">
-        <v>45.199245223245406</v>
+        <v>45.172105039953728</v>
       </c>
       <c r="CJ106" s="12">
-        <v>48.386772347646037</v>
+        <v>48.359545184322386</v>
       </c>
       <c r="CK106" s="12">
-        <v>47.413045991513613</v>
-      </c>
-      <c r="CL106" s="11"/>
+        <v>48.059138135963934</v>
+      </c>
+      <c r="CL106" s="12">
+        <v>49.231206650876864</v>
+      </c>
       <c r="CM106" s="11"/>
       <c r="CN106" s="11"/>
       <c r="CO106" s="11"/>
@@ -33897,7 +34087,7 @@
       <c r="ET106" s="11"/>
       <c r="EU106" s="11"/>
     </row>
-    <row r="107" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -34129,43 +34319,45 @@
       <c r="BY107" s="24">
         <v>45.504971883152002</v>
       </c>
-      <c r="BZ107" s="24">
+      <c r="BZ107" s="12">
         <v>46.209141789951595</v>
       </c>
-      <c r="CA107" s="24">
+      <c r="CA107" s="12">
         <v>44.145694556679459</v>
       </c>
-      <c r="CB107" s="24">
+      <c r="CB107" s="12">
         <v>43.195327331929946</v>
       </c>
-      <c r="CC107" s="24">
+      <c r="CC107" s="12">
         <v>46.219828834033265</v>
       </c>
       <c r="CD107" s="12">
         <v>48.564009519714233</v>
       </c>
       <c r="CE107" s="12">
-        <v>64.09397267941543</v>
+        <v>64.095111734343817</v>
       </c>
       <c r="CF107" s="12">
-        <v>53.933559308285695</v>
+        <v>53.941897183215303</v>
       </c>
       <c r="CG107" s="12">
-        <v>54.712462973574752</v>
+        <v>54.034918349010731</v>
       </c>
       <c r="CH107" s="12">
-        <v>54.781880964752872</v>
+        <v>54.799542230104215</v>
       </c>
       <c r="CI107" s="12">
-        <v>54.800754776754616</v>
+        <v>54.827894960046265</v>
       </c>
       <c r="CJ107" s="12">
-        <v>51.613227652353977</v>
+        <v>51.640454815677593</v>
       </c>
       <c r="CK107" s="12">
-        <v>52.586954008486394</v>
-      </c>
-      <c r="CL107" s="11"/>
+        <v>51.940861864036059</v>
+      </c>
+      <c r="CL107" s="12">
+        <v>50.768793349123129</v>
+      </c>
       <c r="CM107" s="11"/>
       <c r="CN107" s="11"/>
       <c r="CO107" s="11"/>
@@ -34228,7 +34420,7 @@
       <c r="ET107" s="11"/>
       <c r="EU107" s="11"/>
     </row>
-    <row r="108" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -34305,10 +34497,10 @@
       <c r="BW108" s="20"/>
       <c r="BX108" s="20"/>
       <c r="BY108" s="20"/>
-      <c r="BZ108" s="20"/>
-      <c r="CA108" s="20"/>
-      <c r="CB108" s="20"/>
-      <c r="CC108" s="20"/>
+      <c r="BZ108" s="11"/>
+      <c r="CA108" s="11"/>
+      <c r="CB108" s="11"/>
+      <c r="CC108" s="11"/>
       <c r="CD108" s="11"/>
       <c r="CE108" s="11"/>
       <c r="CF108" s="11"/>
@@ -34380,7 +34572,7 @@
       <c r="ET108" s="11"/>
       <c r="EU108" s="11"/>
     </row>
-    <row r="109" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>13</v>
       </c>
@@ -34612,16 +34804,16 @@
       <c r="BY109" s="24">
         <v>100</v>
       </c>
-      <c r="BZ109" s="24">
+      <c r="BZ109" s="12">
         <v>100</v>
       </c>
-      <c r="CA109" s="24">
+      <c r="CA109" s="12">
         <v>100</v>
       </c>
-      <c r="CB109" s="24">
+      <c r="CB109" s="12">
         <v>100</v>
       </c>
-      <c r="CC109" s="24">
+      <c r="CC109" s="12">
         <v>100</v>
       </c>
       <c r="CD109" s="12">
@@ -34648,7 +34840,9 @@
       <c r="CK109" s="12">
         <v>100</v>
       </c>
-      <c r="CL109" s="11"/>
+      <c r="CL109" s="12">
+        <v>100</v>
+      </c>
       <c r="CM109" s="11"/>
       <c r="CN109" s="11"/>
       <c r="CO109" s="11"/>
@@ -34711,7 +34905,7 @@
       <c r="ET109" s="11"/>
       <c r="EU109" s="11"/>
     </row>
-    <row r="110" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -34789,10 +34983,10 @@
       <c r="BW110" s="22"/>
       <c r="BX110" s="22"/>
       <c r="BY110" s="22"/>
-      <c r="BZ110" s="22"/>
-      <c r="CA110" s="22"/>
-      <c r="CB110" s="22"/>
-      <c r="CC110" s="22"/>
+      <c r="BZ110" s="9"/>
+      <c r="CA110" s="9"/>
+      <c r="CB110" s="9"/>
+      <c r="CC110" s="9"/>
       <c r="CD110" s="9"/>
       <c r="CE110" s="9"/>
       <c r="CF110" s="9"/>
@@ -34801,13 +34995,14 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
+      <c r="CL110" s="9"/>
     </row>
-    <row r="111" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -34884,10 +35079,10 @@
       <c r="BW112" s="20"/>
       <c r="BX112" s="20"/>
       <c r="BY112" s="20"/>
-      <c r="BZ112" s="20"/>
-      <c r="CA112" s="20"/>
-      <c r="CB112" s="20"/>
-      <c r="CC112" s="20"/>
+      <c r="BZ112" s="11"/>
+      <c r="CA112" s="11"/>
+      <c r="CB112" s="11"/>
+      <c r="CC112" s="11"/>
       <c r="CD112" s="11"/>
       <c r="CE112" s="11"/>
       <c r="CF112" s="11"/>
@@ -34959,7 +35154,7 @@
       <c r="ET112" s="11"/>
       <c r="EU112" s="11"/>
     </row>
-    <row r="113" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -35036,10 +35231,10 @@
       <c r="BW113" s="20"/>
       <c r="BX113" s="20"/>
       <c r="BY113" s="20"/>
-      <c r="BZ113" s="20"/>
-      <c r="CA113" s="20"/>
-      <c r="CB113" s="20"/>
-      <c r="CC113" s="20"/>
+      <c r="BZ113" s="11"/>
+      <c r="CA113" s="11"/>
+      <c r="CB113" s="11"/>
+      <c r="CC113" s="11"/>
       <c r="CD113" s="11"/>
       <c r="CE113" s="11"/>
       <c r="CF113" s="11"/>
@@ -35111,172 +35306,175 @@
       <c r="ET113" s="11"/>
       <c r="EU113" s="11"/>
     </row>
-    <row r="114" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="27">
+      <c r="B122" s="26">
         <v>2000</v>
       </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="27">
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="26">
         <v>2001</v>
       </c>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="27">
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="26">
         <v>2002</v>
       </c>
-      <c r="K122" s="28"/>
-      <c r="L122" s="28"/>
-      <c r="M122" s="28"/>
-      <c r="N122" s="27">
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="26">
         <v>2003</v>
       </c>
-      <c r="O122" s="28"/>
-      <c r="P122" s="28"/>
-      <c r="Q122" s="28"/>
-      <c r="R122" s="27">
+      <c r="O122" s="27"/>
+      <c r="P122" s="27"/>
+      <c r="Q122" s="27"/>
+      <c r="R122" s="26">
         <v>2004</v>
       </c>
-      <c r="S122" s="28"/>
-      <c r="T122" s="28"/>
-      <c r="U122" s="28"/>
-      <c r="V122" s="27">
+      <c r="S122" s="27"/>
+      <c r="T122" s="27"/>
+      <c r="U122" s="27"/>
+      <c r="V122" s="26">
         <v>2005</v>
       </c>
-      <c r="W122" s="28"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="28"/>
-      <c r="Z122" s="27">
+      <c r="W122" s="27"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="26">
         <v>2006</v>
       </c>
-      <c r="AA122" s="28"/>
-      <c r="AB122" s="28"/>
-      <c r="AC122" s="28"/>
-      <c r="AD122" s="27">
+      <c r="AA122" s="27"/>
+      <c r="AB122" s="27"/>
+      <c r="AC122" s="27"/>
+      <c r="AD122" s="26">
         <v>2007</v>
       </c>
-      <c r="AE122" s="28"/>
-      <c r="AF122" s="28"/>
-      <c r="AG122" s="28"/>
-      <c r="AH122" s="27">
+      <c r="AE122" s="27"/>
+      <c r="AF122" s="27"/>
+      <c r="AG122" s="27"/>
+      <c r="AH122" s="26">
         <v>2008</v>
       </c>
-      <c r="AI122" s="28"/>
-      <c r="AJ122" s="28"/>
-      <c r="AK122" s="28"/>
-      <c r="AL122" s="27">
+      <c r="AI122" s="27"/>
+      <c r="AJ122" s="27"/>
+      <c r="AK122" s="27"/>
+      <c r="AL122" s="26">
         <v>2009</v>
       </c>
-      <c r="AM122" s="28"/>
-      <c r="AN122" s="28"/>
-      <c r="AO122" s="28"/>
-      <c r="AP122" s="27">
+      <c r="AM122" s="27"/>
+      <c r="AN122" s="27"/>
+      <c r="AO122" s="27"/>
+      <c r="AP122" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="28"/>
-      <c r="AR122" s="28"/>
-      <c r="AS122" s="28"/>
-      <c r="AT122" s="27">
+      <c r="AQ122" s="27"/>
+      <c r="AR122" s="27"/>
+      <c r="AS122" s="27"/>
+      <c r="AT122" s="26">
         <v>2011</v>
       </c>
-      <c r="AU122" s="28"/>
-      <c r="AV122" s="28"/>
-      <c r="AW122" s="28"/>
-      <c r="AX122" s="27">
+      <c r="AU122" s="27"/>
+      <c r="AV122" s="27"/>
+      <c r="AW122" s="27"/>
+      <c r="AX122" s="26">
         <v>2012</v>
       </c>
-      <c r="AY122" s="28"/>
-      <c r="AZ122" s="28"/>
-      <c r="BA122" s="28"/>
-      <c r="BB122" s="27">
+      <c r="AY122" s="27"/>
+      <c r="AZ122" s="27"/>
+      <c r="BA122" s="27"/>
+      <c r="BB122" s="26">
         <v>2013</v>
       </c>
-      <c r="BC122" s="28"/>
-      <c r="BD122" s="28"/>
-      <c r="BE122" s="28"/>
-      <c r="BF122" s="27">
+      <c r="BC122" s="27"/>
+      <c r="BD122" s="27"/>
+      <c r="BE122" s="27"/>
+      <c r="BF122" s="26">
         <v>2014</v>
       </c>
-      <c r="BG122" s="28"/>
-      <c r="BH122" s="28"/>
-      <c r="BI122" s="28"/>
-      <c r="BJ122" s="27">
+      <c r="BG122" s="27"/>
+      <c r="BH122" s="27"/>
+      <c r="BI122" s="27"/>
+      <c r="BJ122" s="26">
         <v>2015</v>
       </c>
-      <c r="BK122" s="28"/>
-      <c r="BL122" s="28"/>
-      <c r="BM122" s="28"/>
-      <c r="BN122" s="27">
+      <c r="BK122" s="27"/>
+      <c r="BL122" s="27"/>
+      <c r="BM122" s="27"/>
+      <c r="BN122" s="26">
         <v>2016</v>
       </c>
-      <c r="BO122" s="28"/>
-      <c r="BP122" s="28"/>
-      <c r="BQ122" s="28"/>
-      <c r="BR122" s="27">
+      <c r="BO122" s="27"/>
+      <c r="BP122" s="27"/>
+      <c r="BQ122" s="27"/>
+      <c r="BR122" s="26">
         <v>2017</v>
       </c>
-      <c r="BS122" s="28"/>
-      <c r="BT122" s="28"/>
-      <c r="BU122" s="28"/>
-      <c r="BV122" s="30">
+      <c r="BS122" s="27"/>
+      <c r="BT122" s="27"/>
+      <c r="BU122" s="27"/>
+      <c r="BV122" s="29">
         <v>2018</v>
       </c>
-      <c r="BW122" s="31"/>
-      <c r="BX122" s="31"/>
-      <c r="BY122" s="31"/>
-      <c r="BZ122" s="30">
+      <c r="BW122" s="30"/>
+      <c r="BX122" s="30"/>
+      <c r="BY122" s="30"/>
+      <c r="BZ122" s="26">
         <v>2019</v>
       </c>
-      <c r="CA122" s="31"/>
-      <c r="CB122" s="31"/>
-      <c r="CC122" s="31"/>
-      <c r="CD122" s="27">
+      <c r="CA122" s="27"/>
+      <c r="CB122" s="27"/>
+      <c r="CC122" s="27"/>
+      <c r="CD122" s="26">
         <v>2020</v>
       </c>
-      <c r="CE122" s="27"/>
-      <c r="CF122" s="27"/>
-      <c r="CG122" s="27"/>
-      <c r="CH122" s="27">
+      <c r="CE122" s="26"/>
+      <c r="CF122" s="26"/>
+      <c r="CG122" s="26"/>
+      <c r="CH122" s="26">
         <v>2021</v>
       </c>
-      <c r="CI122" s="27"/>
-      <c r="CJ122" s="27"/>
-      <c r="CK122" s="27"/>
+      <c r="CI122" s="26"/>
+      <c r="CJ122" s="26"/>
+      <c r="CK122" s="26"/>
+      <c r="CL122" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="123" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -35508,16 +35706,16 @@
       <c r="BY123" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="BZ123" s="18" t="s">
+      <c r="BZ123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA123" s="18" t="s">
+      <c r="CA123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB123" s="18" t="s">
+      <c r="CB123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC123" s="18" t="s">
+      <c r="CC123" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD123" s="6" t="s">
@@ -35544,11 +35742,14 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL123" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="124" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>11</v>
       </c>
@@ -35780,43 +35981,45 @@
       <c r="BY125" s="24">
         <v>54.249495604095287</v>
       </c>
-      <c r="BZ125" s="24">
+      <c r="BZ125" s="12">
         <v>53.736883549282496</v>
       </c>
-      <c r="CA125" s="24">
+      <c r="CA125" s="12">
         <v>56.259626567510956</v>
       </c>
-      <c r="CB125" s="24">
+      <c r="CB125" s="12">
         <v>58.043161738862658</v>
       </c>
-      <c r="CC125" s="24">
+      <c r="CC125" s="12">
         <v>54.304638294306919</v>
       </c>
       <c r="CD125" s="12">
         <v>51.425922238115817</v>
       </c>
       <c r="CE125" s="12">
-        <v>36.364251857397726</v>
+        <v>36.36310651317536</v>
       </c>
       <c r="CF125" s="12">
-        <v>47.243040095004766</v>
+        <v>47.234675769039093</v>
       </c>
       <c r="CG125" s="12">
-        <v>45.534029401662522</v>
+        <v>46.212146969331314</v>
       </c>
       <c r="CH125" s="12">
-        <v>44.38683086107573</v>
+        <v>44.369231309943999</v>
       </c>
       <c r="CI125" s="12">
-        <v>44.928842712162961</v>
+        <v>44.901731857928574</v>
       </c>
       <c r="CJ125" s="12">
-        <v>48.522621950772511</v>
+        <v>48.495390169739743</v>
       </c>
       <c r="CK125" s="12">
-        <v>46.852033144496552</v>
-      </c>
-      <c r="CL125" s="11"/>
+        <v>47.49738539006951</v>
+      </c>
+      <c r="CL125" s="12">
+        <v>47.851344563640673</v>
+      </c>
       <c r="CM125" s="11"/>
       <c r="CN125" s="11"/>
       <c r="CO125" s="11"/>
@@ -35879,7 +36082,7 @@
       <c r="ET125" s="11"/>
       <c r="EU125" s="11"/>
     </row>
-    <row r="126" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -36111,43 +36314,45 @@
       <c r="BY126" s="24">
         <v>45.750504395904713</v>
       </c>
-      <c r="BZ126" s="24">
+      <c r="BZ126" s="12">
         <v>46.263116450717511</v>
       </c>
-      <c r="CA126" s="24">
+      <c r="CA126" s="12">
         <v>43.740373432489029</v>
       </c>
-      <c r="CB126" s="24">
+      <c r="CB126" s="12">
         <v>41.956838261137342</v>
       </c>
-      <c r="CC126" s="24">
+      <c r="CC126" s="12">
         <v>45.695361705693081</v>
       </c>
       <c r="CD126" s="12">
         <v>48.57407776188419</v>
       </c>
       <c r="CE126" s="12">
-        <v>63.635748142602274</v>
+        <v>63.63689348682464</v>
       </c>
       <c r="CF126" s="12">
-        <v>52.756959904995234</v>
+        <v>52.765324230960921</v>
       </c>
       <c r="CG126" s="12">
-        <v>54.465970598337478</v>
+        <v>53.787853030668686</v>
       </c>
       <c r="CH126" s="12">
-        <v>55.613169138924277</v>
+        <v>55.630768690056009</v>
       </c>
       <c r="CI126" s="12">
-        <v>55.071157287837039</v>
+        <v>55.098268142071426</v>
       </c>
       <c r="CJ126" s="12">
-        <v>51.477378049227497</v>
+        <v>51.50460983026025</v>
       </c>
       <c r="CK126" s="12">
-        <v>53.147966855503448</v>
-      </c>
-      <c r="CL126" s="11"/>
+        <v>52.502614609930497</v>
+      </c>
+      <c r="CL126" s="12">
+        <v>52.148655436359327</v>
+      </c>
       <c r="CM126" s="11"/>
       <c r="CN126" s="11"/>
       <c r="CO126" s="11"/>
@@ -36210,7 +36415,7 @@
       <c r="ET126" s="11"/>
       <c r="EU126" s="11"/>
     </row>
-    <row r="127" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -36287,10 +36492,10 @@
       <c r="BW127" s="20"/>
       <c r="BX127" s="20"/>
       <c r="BY127" s="20"/>
-      <c r="BZ127" s="20"/>
-      <c r="CA127" s="20"/>
-      <c r="CB127" s="20"/>
-      <c r="CC127" s="20"/>
+      <c r="BZ127" s="11"/>
+      <c r="CA127" s="11"/>
+      <c r="CB127" s="11"/>
+      <c r="CC127" s="11"/>
       <c r="CD127" s="11"/>
       <c r="CE127" s="11"/>
       <c r="CF127" s="11"/>
@@ -36362,7 +36567,7 @@
       <c r="ET127" s="11"/>
       <c r="EU127" s="11"/>
     </row>
-    <row r="128" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>13</v>
       </c>
@@ -36594,16 +36799,16 @@
       <c r="BY128" s="24">
         <v>100</v>
       </c>
-      <c r="BZ128" s="24">
+      <c r="BZ128" s="12">
         <v>100</v>
       </c>
-      <c r="CA128" s="24">
+      <c r="CA128" s="12">
         <v>100</v>
       </c>
-      <c r="CB128" s="24">
+      <c r="CB128" s="12">
         <v>100</v>
       </c>
-      <c r="CC128" s="24">
+      <c r="CC128" s="12">
         <v>100</v>
       </c>
       <c r="CD128" s="12">
@@ -36630,7 +36835,9 @@
       <c r="CK128" s="12">
         <v>100</v>
       </c>
-      <c r="CL128" s="11"/>
+      <c r="CL128" s="12">
+        <v>100</v>
+      </c>
       <c r="CM128" s="11"/>
       <c r="CN128" s="11"/>
       <c r="CO128" s="11"/>
@@ -36693,7 +36900,7 @@
       <c r="ET128" s="11"/>
       <c r="EU128" s="11"/>
     </row>
-    <row r="129" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -36771,10 +36978,10 @@
       <c r="BW129" s="22"/>
       <c r="BX129" s="22"/>
       <c r="BY129" s="22"/>
-      <c r="BZ129" s="22"/>
-      <c r="CA129" s="22"/>
-      <c r="CB129" s="22"/>
-      <c r="CC129" s="22"/>
+      <c r="BZ129" s="9"/>
+      <c r="CA129" s="9"/>
+      <c r="CB129" s="9"/>
+      <c r="CC129" s="9"/>
       <c r="CD129" s="9"/>
       <c r="CE129" s="9"/>
       <c r="CF129" s="9"/>
@@ -36783,13 +36990,14 @@
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
+      <c r="CL129" s="9"/>
     </row>
-    <row r="130" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:151" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:151" s="14" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -36867,18 +37075,18 @@
       <c r="BW131" s="17"/>
       <c r="BX131" s="17"/>
       <c r="BY131" s="17"/>
-      <c r="BZ131" s="17"/>
-      <c r="CA131" s="17"/>
-      <c r="CB131" s="17"/>
-      <c r="CC131" s="17"/>
-      <c r="CD131" s="3"/>
-      <c r="CE131" s="3"/>
-      <c r="CF131" s="3"/>
-      <c r="CG131" s="3"/>
-      <c r="CH131" s="3"/>
-      <c r="CI131" s="3"/>
-      <c r="CJ131" s="3"/>
-      <c r="CK131" s="3"/>
+      <c r="BZ131" s="3"/>
+      <c r="CA131" s="3"/>
+      <c r="CB131" s="3"/>
+      <c r="CC131" s="3"/>
+      <c r="CD131" s="13"/>
+      <c r="CE131" s="13"/>
+      <c r="CF131" s="13"/>
+      <c r="CG131" s="13"/>
+      <c r="CH131" s="13"/>
+      <c r="CI131" s="13"/>
+      <c r="CJ131" s="13"/>
+      <c r="CK131" s="13"/>
       <c r="CL131" s="13"/>
       <c r="CM131" s="13"/>
       <c r="CN131" s="13"/>
@@ -36942,7 +37150,7 @@
       <c r="ET131" s="13"/>
       <c r="EU131" s="13"/>
     </row>
-    <row r="132" spans="1:151" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:151" s="14" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -37020,18 +37228,18 @@
       <c r="BW132" s="17"/>
       <c r="BX132" s="17"/>
       <c r="BY132" s="17"/>
-      <c r="BZ132" s="17"/>
-      <c r="CA132" s="17"/>
-      <c r="CB132" s="17"/>
-      <c r="CC132" s="17"/>
-      <c r="CD132" s="3"/>
-      <c r="CE132" s="3"/>
-      <c r="CF132" s="3"/>
-      <c r="CG132" s="3"/>
-      <c r="CH132" s="3"/>
-      <c r="CI132" s="3"/>
-      <c r="CJ132" s="3"/>
-      <c r="CK132" s="3"/>
+      <c r="BZ132" s="3"/>
+      <c r="CA132" s="3"/>
+      <c r="CB132" s="3"/>
+      <c r="CC132" s="3"/>
+      <c r="CD132" s="13"/>
+      <c r="CE132" s="13"/>
+      <c r="CF132" s="13"/>
+      <c r="CG132" s="13"/>
+      <c r="CH132" s="13"/>
+      <c r="CI132" s="13"/>
+      <c r="CJ132" s="13"/>
+      <c r="CK132" s="13"/>
       <c r="CL132" s="13"/>
       <c r="CM132" s="13"/>
       <c r="CN132" s="13"/>
@@ -37137,19 +37345,8 @@
     <mergeCell ref="AP47:AS47"/>
     <mergeCell ref="AT47:AW47"/>
     <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="AT66:AW66"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -37161,6 +37358,15 @@
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
@@ -37181,6 +37387,10 @@
     <mergeCell ref="BF66:BI66"/>
     <mergeCell ref="N66:Q66"/>
     <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
     <mergeCell ref="B103:E103"/>
     <mergeCell ref="F103:I103"/>
     <mergeCell ref="J103:M103"/>
@@ -37190,21 +37400,20 @@
     <mergeCell ref="AD103:AG103"/>
     <mergeCell ref="AH103:AK103"/>
     <mergeCell ref="R84:U84"/>
-    <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="F84:I84"/>
     <mergeCell ref="J84:M84"/>
     <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX66:BA66"/>
     <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="AP84:AS84"/>
     <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -37214,17 +37423,18 @@
     <mergeCell ref="Z122:AC122"/>
     <mergeCell ref="AD122:AG122"/>
     <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
     <mergeCell ref="AT122:AW122"/>
     <mergeCell ref="AX122:BA122"/>
     <mergeCell ref="BB122:BE122"/>
     <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
     <mergeCell ref="CD47:CG47"/>
@@ -37232,32 +37442,30 @@
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
     <mergeCell ref="BB47:BE47"/>
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BJ47:BM47"/>
     <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AT66:AW66"/>
     <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="88" man="1"/>
-    <brk id="76" max="88" man="1"/>
-    <brk id="94" max="88" man="1"/>
+    <brk id="38" max="91" man="1"/>
+    <brk id="76" max="91" man="1"/>
+    <brk id="94" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE8592-5B07-4168-BBD6-B47D08B5CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E3D229-FF97-4AAE-9393-BACD97532A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CN$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CM$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -629,10 +629,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -703,12 +703,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -729,56 +731,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{216CD568-AC7C-4D0D-9201-E09706422380}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{679523F5-E8A6-450A-BB7D-B9830CFC0309}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23632,191 +23614,189 @@
   </sheetPr>
   <dimension ref="A1:EU132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A52" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CI64" sqref="CI64:CN80"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="73" width="8.33203125" style="3" customWidth="1"/>
-    <col min="74" max="77" width="8.33203125" style="17" customWidth="1"/>
-    <col min="78" max="78" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="90" width="8.33203125" style="3" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="3"/>
+    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
+    <col min="2" max="91" width="8.36328125" style="3" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="26">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
-      <c r="CH9" s="26">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="26"/>
-      <c r="CJ9" s="26"/>
-      <c r="CK9" s="26"/>
-      <c r="CL9" s="25">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
+      <c r="CM9" s="22"/>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24036,16 +24016,16 @@
       <c r="BU10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV10" s="18" t="s">
+      <c r="BV10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW10" s="18" t="s">
+      <c r="BW10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX10" s="18" t="s">
+      <c r="BX10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY10" s="18" t="s">
+      <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ10" s="6" t="s">
@@ -24087,11 +24067,14 @@
       <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -24311,40 +24294,40 @@
       <c r="BU12" s="15">
         <v>145861.00348794594</v>
       </c>
-      <c r="BV12" s="19">
+      <c r="BV12" s="17">
         <v>146854.24472862401</v>
       </c>
-      <c r="BW12" s="19">
+      <c r="BW12" s="17">
         <v>166776.45018528201</v>
       </c>
-      <c r="BX12" s="19">
+      <c r="BX12" s="17">
         <v>176507.61409786201</v>
       </c>
-      <c r="BY12" s="19">
+      <c r="BY12" s="17">
         <v>161269.1348491307</v>
       </c>
-      <c r="BZ12" s="15">
+      <c r="BZ12" s="17">
         <v>161070.66317850101</v>
       </c>
-      <c r="CA12" s="15">
+      <c r="CA12" s="17">
         <v>178363.90625445903</v>
       </c>
-      <c r="CB12" s="15">
+      <c r="CB12" s="17">
         <v>189093.06232804793</v>
       </c>
-      <c r="CC12" s="15">
+      <c r="CC12" s="17">
         <v>163483.19961062953</v>
       </c>
-      <c r="CD12" s="15">
+      <c r="CD12" s="17">
         <v>154557.66416923361</v>
       </c>
-      <c r="CE12" s="15">
+      <c r="CE12" s="17">
         <v>83141.367183577007</v>
       </c>
-      <c r="CF12" s="15">
+      <c r="CF12" s="17">
         <v>128379.64827916201</v>
       </c>
-      <c r="CG12" s="15">
+      <c r="CG12" s="17">
         <v>124488.42840152988</v>
       </c>
       <c r="CH12" s="15">
@@ -24360,9 +24343,11 @@
         <v>138425.43993440329</v>
       </c>
       <c r="CL12" s="15">
-        <v>149378.87372352509</v>
-      </c>
-      <c r="CM12" s="11"/>
+        <v>143436.29439306865</v>
+      </c>
+      <c r="CM12" s="15">
+        <v>141905.18180495873</v>
+      </c>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
       <c r="CP12" s="11"/>
@@ -24424,7 +24409,7 @@
       <c r="ET12" s="11"/>
       <c r="EU12" s="11"/>
     </row>
-    <row r="13" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -24644,40 +24629,40 @@
       <c r="BU13" s="15">
         <v>126199.64162271524</v>
       </c>
-      <c r="BV13" s="19">
+      <c r="BV13" s="17">
         <v>131656.53034154201</v>
       </c>
-      <c r="BW13" s="19">
+      <c r="BW13" s="17">
         <v>134817.764547178</v>
       </c>
-      <c r="BX13" s="19">
+      <c r="BX13" s="17">
         <v>137126.375535139</v>
       </c>
-      <c r="BY13" s="19">
+      <c r="BY13" s="17">
         <v>134664.53180269324</v>
       </c>
-      <c r="BZ13" s="15">
+      <c r="BZ13" s="17">
         <v>138368.06774773693</v>
       </c>
-      <c r="CA13" s="15">
+      <c r="CA13" s="17">
         <v>140973.88666726652</v>
       </c>
-      <c r="CB13" s="15">
+      <c r="CB13" s="17">
         <v>143789.87396310209</v>
       </c>
-      <c r="CC13" s="15">
+      <c r="CC13" s="17">
         <v>140500.95675457982</v>
       </c>
-      <c r="CD13" s="15">
+      <c r="CD13" s="17">
         <v>145927.77943950184</v>
       </c>
-      <c r="CE13" s="15">
+      <c r="CE13" s="17">
         <v>148418.65486251179</v>
       </c>
-      <c r="CF13" s="15">
+      <c r="CF13" s="17">
         <v>150354.47324956354</v>
       </c>
-      <c r="CG13" s="15">
+      <c r="CG13" s="17">
         <v>146344.17741600078</v>
       </c>
       <c r="CH13" s="15">
@@ -24695,7 +24680,9 @@
       <c r="CL13" s="15">
         <v>154044.26758366541</v>
       </c>
-      <c r="CM13" s="11"/>
+      <c r="CM13" s="15">
+        <v>156305.18516723299</v>
+      </c>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
@@ -24757,7 +24744,7 @@
       <c r="ET13" s="11"/>
       <c r="EU13" s="11"/>
     </row>
-    <row r="14" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -24830,10 +24817,10 @@
       <c r="BS14" s="11"/>
       <c r="BT14" s="11"/>
       <c r="BU14" s="11"/>
-      <c r="BV14" s="20"/>
-      <c r="BW14" s="20"/>
-      <c r="BX14" s="20"/>
-      <c r="BY14" s="20"/>
+      <c r="BV14" s="11"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="11"/>
+      <c r="BY14" s="11"/>
       <c r="BZ14" s="11"/>
       <c r="CA14" s="11"/>
       <c r="CB14" s="11"/>
@@ -24909,7 +24896,7 @@
       <c r="ET14" s="11"/>
       <c r="EU14" s="11"/>
     </row>
-    <row r="15" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -25129,40 +25116,40 @@
       <c r="BU15" s="16">
         <v>272060.64511066116</v>
       </c>
-      <c r="BV15" s="21">
+      <c r="BV15" s="18">
         <v>278510.77507016598</v>
       </c>
-      <c r="BW15" s="21">
+      <c r="BW15" s="18">
         <v>301594.21473245998</v>
       </c>
-      <c r="BX15" s="21">
+      <c r="BX15" s="18">
         <v>313633.98963300104</v>
       </c>
-      <c r="BY15" s="21">
+      <c r="BY15" s="18">
         <v>295933.66665182391</v>
       </c>
-      <c r="BZ15" s="16">
+      <c r="BZ15" s="18">
         <v>299438.73092623794</v>
       </c>
-      <c r="CA15" s="16">
+      <c r="CA15" s="18">
         <v>319337.79292172554</v>
       </c>
-      <c r="CB15" s="16">
+      <c r="CB15" s="18">
         <v>332882.93629115005</v>
       </c>
-      <c r="CC15" s="16">
+      <c r="CC15" s="18">
         <v>303984.15636520938</v>
       </c>
-      <c r="CD15" s="16">
+      <c r="CD15" s="18">
         <v>300485.44360873546</v>
       </c>
-      <c r="CE15" s="16">
+      <c r="CE15" s="18">
         <v>231560.02204608879</v>
       </c>
-      <c r="CF15" s="16">
+      <c r="CF15" s="18">
         <v>278734.12152872555</v>
       </c>
-      <c r="CG15" s="16">
+      <c r="CG15" s="18">
         <v>270832.60581753065</v>
       </c>
       <c r="CH15" s="16">
@@ -25178,9 +25165,11 @@
         <v>288031.46561385342</v>
       </c>
       <c r="CL15" s="16">
-        <v>303423.14130719053</v>
-      </c>
-      <c r="CM15" s="11"/>
+        <v>297480.56197673408</v>
+      </c>
+      <c r="CM15" s="16">
+        <v>298210.36697219172</v>
+      </c>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
@@ -25242,7 +25231,7 @@
       <c r="ET15" s="11"/>
       <c r="EU15" s="11"/>
     </row>
-    <row r="16" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -25316,10 +25305,10 @@
       <c r="BS16" s="9"/>
       <c r="BT16" s="9"/>
       <c r="BU16" s="9"/>
-      <c r="BV16" s="22"/>
-      <c r="BW16" s="22"/>
-      <c r="BX16" s="22"/>
-      <c r="BY16" s="22"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
       <c r="BZ16" s="9"/>
       <c r="CA16" s="9"/>
       <c r="CB16" s="9"/>
@@ -25333,13 +25322,14 @@
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
     </row>
-    <row r="17" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -25412,10 +25402,10 @@
       <c r="BS18" s="11"/>
       <c r="BT18" s="11"/>
       <c r="BU18" s="11"/>
-      <c r="BV18" s="20"/>
-      <c r="BW18" s="20"/>
-      <c r="BX18" s="20"/>
-      <c r="BY18" s="20"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
       <c r="CB18" s="11"/>
@@ -25491,7 +25481,7 @@
       <c r="ET18" s="11"/>
       <c r="EU18" s="11"/>
     </row>
-    <row r="19" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -25564,10 +25554,10 @@
       <c r="BS19" s="11"/>
       <c r="BT19" s="11"/>
       <c r="BU19" s="11"/>
-      <c r="BV19" s="20"/>
-      <c r="BW19" s="20"/>
-      <c r="BX19" s="20"/>
-      <c r="BY19" s="20"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
       <c r="CB19" s="11"/>
@@ -25643,175 +25633,176 @@
       <c r="ET19" s="11"/>
       <c r="EU19" s="11"/>
     </row>
-    <row r="20" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <v>2000</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="22">
         <v>2001</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="26">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="22">
         <v>2002</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="26">
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="22">
         <v>2003</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="26">
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="22">
         <v>2004</v>
       </c>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="26">
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="22">
         <v>2005</v>
       </c>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="26">
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="22">
         <v>2006</v>
       </c>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="26">
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="22">
         <v>2007</v>
       </c>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="26">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="22">
         <v>2008</v>
       </c>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="26">
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="22">
         <v>2009</v>
       </c>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="26">
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="27"/>
-      <c r="AR28" s="27"/>
-      <c r="AS28" s="27"/>
-      <c r="AT28" s="26">
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="22">
         <v>2011</v>
       </c>
-      <c r="AU28" s="27"/>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="27"/>
-      <c r="AX28" s="26">
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="22">
         <v>2012</v>
       </c>
-      <c r="AY28" s="27"/>
-      <c r="AZ28" s="27"/>
-      <c r="BA28" s="27"/>
-      <c r="BB28" s="26">
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+      <c r="BA28" s="24"/>
+      <c r="BB28" s="22">
         <v>2013</v>
       </c>
-      <c r="BC28" s="27"/>
-      <c r="BD28" s="27"/>
-      <c r="BE28" s="27"/>
-      <c r="BF28" s="26">
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="22">
         <v>2014</v>
       </c>
-      <c r="BG28" s="27"/>
-      <c r="BH28" s="27"/>
-      <c r="BI28" s="27"/>
-      <c r="BJ28" s="26">
+      <c r="BG28" s="24"/>
+      <c r="BH28" s="24"/>
+      <c r="BI28" s="24"/>
+      <c r="BJ28" s="22">
         <v>2015</v>
       </c>
-      <c r="BK28" s="27"/>
-      <c r="BL28" s="27"/>
-      <c r="BM28" s="27"/>
-      <c r="BN28" s="26">
+      <c r="BK28" s="24"/>
+      <c r="BL28" s="24"/>
+      <c r="BM28" s="24"/>
+      <c r="BN28" s="22">
         <v>2016</v>
       </c>
-      <c r="BO28" s="27"/>
-      <c r="BP28" s="27"/>
-      <c r="BQ28" s="27"/>
-      <c r="BR28" s="26">
+      <c r="BO28" s="24"/>
+      <c r="BP28" s="24"/>
+      <c r="BQ28" s="24"/>
+      <c r="BR28" s="22">
         <v>2017</v>
       </c>
-      <c r="BS28" s="27"/>
-      <c r="BT28" s="27"/>
-      <c r="BU28" s="27"/>
-      <c r="BV28" s="29">
+      <c r="BS28" s="24"/>
+      <c r="BT28" s="24"/>
+      <c r="BU28" s="24"/>
+      <c r="BV28" s="22">
         <v>2018</v>
       </c>
-      <c r="BW28" s="30"/>
-      <c r="BX28" s="30"/>
-      <c r="BY28" s="30"/>
-      <c r="BZ28" s="26">
+      <c r="BW28" s="24"/>
+      <c r="BX28" s="24"/>
+      <c r="BY28" s="24"/>
+      <c r="BZ28" s="22">
         <v>2019</v>
       </c>
-      <c r="CA28" s="27"/>
-      <c r="CB28" s="27"/>
-      <c r="CC28" s="27"/>
-      <c r="CD28" s="26">
+      <c r="CA28" s="24"/>
+      <c r="CB28" s="24"/>
+      <c r="CC28" s="24"/>
+      <c r="CD28" s="22">
         <v>2020</v>
       </c>
-      <c r="CE28" s="26"/>
-      <c r="CF28" s="26"/>
-      <c r="CG28" s="26"/>
-      <c r="CH28" s="26">
+      <c r="CE28" s="24"/>
+      <c r="CF28" s="24"/>
+      <c r="CG28" s="24"/>
+      <c r="CH28" s="22">
         <v>2021</v>
       </c>
-      <c r="CI28" s="26"/>
-      <c r="CJ28" s="26"/>
-      <c r="CK28" s="26"/>
-      <c r="CL28" s="25">
+      <c r="CI28" s="22"/>
+      <c r="CJ28" s="22"/>
+      <c r="CK28" s="22"/>
+      <c r="CL28" s="22">
         <v>2022</v>
       </c>
+      <c r="CM28" s="22"/>
     </row>
-    <row r="29" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -26031,16 +26022,16 @@
       <c r="BU29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV29" s="18" t="s">
+      <c r="BV29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW29" s="18" t="s">
+      <c r="BW29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX29" s="18" t="s">
+      <c r="BX29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY29" s="18" t="s">
+      <c r="BY29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ29" s="6" t="s">
@@ -26082,11 +26073,14 @@
       <c r="CL29" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM29" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -26306,40 +26300,40 @@
       <c r="BU31" s="15">
         <v>152228.22149744202</v>
       </c>
-      <c r="BV31" s="19">
+      <c r="BV31" s="17">
         <v>149040.10882542259</v>
       </c>
-      <c r="BW31" s="19">
+      <c r="BW31" s="17">
         <v>167337.09472907431</v>
       </c>
-      <c r="BX31" s="19">
+      <c r="BX31" s="17">
         <v>177075.66268935049</v>
       </c>
-      <c r="BY31" s="19">
+      <c r="BY31" s="17">
         <v>157954.57761705143</v>
       </c>
-      <c r="BZ31" s="15">
+      <c r="BZ31" s="17">
         <v>159100.5350056731</v>
       </c>
-      <c r="CA31" s="15">
+      <c r="CA31" s="17">
         <v>177545.41443802236</v>
       </c>
-      <c r="CB31" s="15">
+      <c r="CB31" s="17">
         <v>191392.35613743175</v>
       </c>
-      <c r="CC31" s="15">
+      <c r="CC31" s="17">
         <v>161324.15405450863</v>
       </c>
-      <c r="CD31" s="15">
+      <c r="CD31" s="17">
         <v>147865.98794217067</v>
       </c>
-      <c r="CE31" s="15">
+      <c r="CE31" s="17">
         <v>80442.097894682389</v>
       </c>
-      <c r="CF31" s="15">
+      <c r="CF31" s="17">
         <v>125876.72598385259</v>
       </c>
-      <c r="CG31" s="15">
+      <c r="CG31" s="17">
         <v>118317.68266628485</v>
       </c>
       <c r="CH31" s="15">
@@ -26355,9 +26349,11 @@
         <v>125776.69532565904</v>
       </c>
       <c r="CL31" s="15">
-        <v>131184.29715276285</v>
-      </c>
-      <c r="CM31" s="11"/>
+        <v>125965.53312470275</v>
+      </c>
+      <c r="CM31" s="15">
+        <v>124248.10931907622</v>
+      </c>
       <c r="CN31" s="11"/>
       <c r="CO31" s="11"/>
       <c r="CP31" s="11"/>
@@ -26419,7 +26415,7 @@
       <c r="ET31" s="11"/>
       <c r="EU31" s="11"/>
     </row>
-    <row r="32" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -26639,40 +26635,40 @@
       <c r="BU32" s="15">
         <v>129623.73104248037</v>
       </c>
-      <c r="BV32" s="19">
+      <c r="BV32" s="17">
         <v>134195.46655524126</v>
       </c>
-      <c r="BW32" s="19">
+      <c r="BW32" s="17">
         <v>135334.25394789461</v>
       </c>
-      <c r="BX32" s="19">
+      <c r="BX32" s="17">
         <v>135526.8404788948</v>
       </c>
-      <c r="BY32" s="19">
+      <c r="BY32" s="17">
         <v>133208.64124452166</v>
       </c>
-      <c r="BZ32" s="15">
+      <c r="BZ32" s="17">
         <v>136972.71021659742</v>
       </c>
-      <c r="CA32" s="15">
+      <c r="CA32" s="17">
         <v>138036.86946670586</v>
       </c>
-      <c r="CB32" s="15">
+      <c r="CB32" s="17">
         <v>138349.08179200045</v>
       </c>
-      <c r="CC32" s="15">
+      <c r="CC32" s="17">
         <v>135748.35967848721</v>
       </c>
-      <c r="CD32" s="15">
+      <c r="CD32" s="17">
         <v>139666.02219371271</v>
       </c>
-      <c r="CE32" s="15">
+      <c r="CE32" s="17">
         <v>140776.89467278705</v>
       </c>
-      <c r="CF32" s="15">
+      <c r="CF32" s="17">
         <v>140615.47266983439</v>
       </c>
-      <c r="CG32" s="15">
+      <c r="CG32" s="17">
         <v>137713.88138289549</v>
       </c>
       <c r="CH32" s="15">
@@ -26690,7 +26686,9 @@
       <c r="CL32" s="15">
         <v>142965.36018506213</v>
       </c>
-      <c r="CM32" s="11"/>
+      <c r="CM32" s="15">
+        <v>144141.52897438855</v>
+      </c>
       <c r="CN32" s="11"/>
       <c r="CO32" s="11"/>
       <c r="CP32" s="11"/>
@@ -26752,7 +26750,7 @@
       <c r="ET32" s="11"/>
       <c r="EU32" s="11"/>
     </row>
-    <row r="33" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -26825,10 +26823,10 @@
       <c r="BS33" s="11"/>
       <c r="BT33" s="11"/>
       <c r="BU33" s="11"/>
-      <c r="BV33" s="20"/>
-      <c r="BW33" s="20"/>
-      <c r="BX33" s="20"/>
-      <c r="BY33" s="20"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+      <c r="BX33" s="11"/>
+      <c r="BY33" s="11"/>
       <c r="BZ33" s="11"/>
       <c r="CA33" s="11"/>
       <c r="CB33" s="11"/>
@@ -26904,7 +26902,7 @@
       <c r="ET33" s="11"/>
       <c r="EU33" s="11"/>
     </row>
-    <row r="34" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
@@ -27124,40 +27122,40 @@
       <c r="BU34" s="16">
         <v>281851.95253992238</v>
       </c>
-      <c r="BV34" s="21">
+      <c r="BV34" s="18">
         <v>283235.57538066385</v>
       </c>
-      <c r="BW34" s="21">
+      <c r="BW34" s="18">
         <v>302671.34867696895</v>
       </c>
-      <c r="BX34" s="21">
+      <c r="BX34" s="18">
         <v>312602.50316824531</v>
       </c>
-      <c r="BY34" s="21">
+      <c r="BY34" s="18">
         <v>291163.21886157308</v>
       </c>
-      <c r="BZ34" s="16">
+      <c r="BZ34" s="18">
         <v>296073.24522227049</v>
       </c>
-      <c r="CA34" s="16">
+      <c r="CA34" s="18">
         <v>315582.28390472825</v>
       </c>
-      <c r="CB34" s="16">
+      <c r="CB34" s="18">
         <v>329741.4379294322</v>
       </c>
-      <c r="CC34" s="16">
+      <c r="CC34" s="18">
         <v>297072.51373299584</v>
       </c>
-      <c r="CD34" s="16">
+      <c r="CD34" s="18">
         <v>287532.01013588335</v>
       </c>
-      <c r="CE34" s="16">
+      <c r="CE34" s="18">
         <v>221218.99256746942</v>
       </c>
-      <c r="CF34" s="16">
+      <c r="CF34" s="18">
         <v>266492.19865368697</v>
       </c>
-      <c r="CG34" s="16">
+      <c r="CG34" s="18">
         <v>256031.56404918034</v>
       </c>
       <c r="CH34" s="16">
@@ -27173,9 +27171,11 @@
         <v>264807.61897255026</v>
       </c>
       <c r="CL34" s="16">
-        <v>274149.65733782499</v>
-      </c>
-      <c r="CM34" s="11"/>
+        <v>268930.89330976491</v>
+      </c>
+      <c r="CM34" s="16">
+        <v>268389.63829346478</v>
+      </c>
       <c r="CN34" s="11"/>
       <c r="CO34" s="11"/>
       <c r="CP34" s="11"/>
@@ -27237,7 +27237,7 @@
       <c r="ET34" s="11"/>
       <c r="EU34" s="11"/>
     </row>
-    <row r="35" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -27311,10 +27311,10 @@
       <c r="BS35" s="9"/>
       <c r="BT35" s="9"/>
       <c r="BU35" s="9"/>
-      <c r="BV35" s="22"/>
-      <c r="BW35" s="22"/>
-      <c r="BX35" s="22"/>
-      <c r="BY35" s="22"/>
+      <c r="BV35" s="9"/>
+      <c r="BW35" s="9"/>
+      <c r="BX35" s="9"/>
+      <c r="BY35" s="9"/>
       <c r="BZ35" s="9"/>
       <c r="CA35" s="9"/>
       <c r="CB35" s="9"/>
@@ -27328,13 +27328,14 @@
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
+      <c r="CM35" s="9"/>
     </row>
-    <row r="36" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -27407,10 +27408,10 @@
       <c r="BS37" s="11"/>
       <c r="BT37" s="11"/>
       <c r="BU37" s="11"/>
-      <c r="BV37" s="20"/>
-      <c r="BW37" s="20"/>
-      <c r="BX37" s="20"/>
-      <c r="BY37" s="20"/>
+      <c r="BV37" s="11"/>
+      <c r="BW37" s="11"/>
+      <c r="BX37" s="11"/>
+      <c r="BY37" s="11"/>
       <c r="BZ37" s="11"/>
       <c r="CA37" s="11"/>
       <c r="CB37" s="11"/>
@@ -27486,7 +27487,7 @@
       <c r="ET37" s="11"/>
       <c r="EU37" s="11"/>
     </row>
-    <row r="38" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -27559,10 +27560,10 @@
       <c r="BS38" s="11"/>
       <c r="BT38" s="11"/>
       <c r="BU38" s="11"/>
-      <c r="BV38" s="20"/>
-      <c r="BW38" s="20"/>
-      <c r="BX38" s="20"/>
-      <c r="BY38" s="20"/>
+      <c r="BV38" s="11"/>
+      <c r="BW38" s="11"/>
+      <c r="BX38" s="11"/>
+      <c r="BY38" s="11"/>
       <c r="BZ38" s="11"/>
       <c r="CA38" s="11"/>
       <c r="CB38" s="11"/>
@@ -27638,196 +27639,174 @@
       <c r="ET38" s="11"/>
       <c r="EU38" s="11"/>
     </row>
-    <row r="39" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="CI43" s="32"/>
-      <c r="CJ43" s="32"/>
-      <c r="CK43" s="32"/>
-      <c r="CL43" s="32"/>
-      <c r="CM43" s="32"/>
     </row>
-    <row r="44" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CI44" s="32"/>
-      <c r="CJ44" s="32"/>
-      <c r="CK44" s="32"/>
-      <c r="CL44" s="32"/>
-      <c r="CM44" s="32"/>
     </row>
-    <row r="45" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="CI45" s="32"/>
-      <c r="CJ45" s="32"/>
-      <c r="CK45" s="32"/>
-      <c r="CL45" s="32"/>
-      <c r="CM45" s="32"/>
     </row>
-    <row r="46" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CI46" s="32"/>
-      <c r="CJ46" s="32"/>
-      <c r="CK46" s="32"/>
-      <c r="CL46" s="32"/>
-      <c r="CM46" s="32"/>
+    <row r="47" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO47" s="22"/>
+      <c r="BP47" s="22"/>
+      <c r="BQ47" s="22"/>
+      <c r="BR47" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS47" s="22"/>
+      <c r="BT47" s="22"/>
+      <c r="BU47" s="22"/>
+      <c r="BV47" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW47" s="22"/>
+      <c r="BX47" s="22"/>
+      <c r="BY47" s="22"/>
+      <c r="BZ47" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA47" s="22"/>
+      <c r="CB47" s="22"/>
+      <c r="CC47" s="22"/>
+      <c r="CD47" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE47" s="22"/>
+      <c r="CF47" s="22"/>
+      <c r="CG47" s="22"/>
+      <c r="CH47" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI47" s="22"/>
+      <c r="CJ47" s="20"/>
+      <c r="CK47" s="20"/>
+      <c r="CL47" s="19"/>
+      <c r="CM47" s="19"/>
     </row>
-    <row r="47" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM47" s="26"/>
-      <c r="AN47" s="26"/>
-      <c r="AO47" s="26"/>
-      <c r="AP47" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ47" s="26"/>
-      <c r="AR47" s="26"/>
-      <c r="AS47" s="26"/>
-      <c r="AT47" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU47" s="26"/>
-      <c r="AV47" s="26"/>
-      <c r="AW47" s="26"/>
-      <c r="AX47" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY47" s="26"/>
-      <c r="AZ47" s="26"/>
-      <c r="BA47" s="26"/>
-      <c r="BB47" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC47" s="26"/>
-      <c r="BD47" s="26"/>
-      <c r="BE47" s="26"/>
-      <c r="BF47" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG47" s="26"/>
-      <c r="BH47" s="26"/>
-      <c r="BI47" s="26"/>
-      <c r="BJ47" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK47" s="26"/>
-      <c r="BL47" s="26"/>
-      <c r="BM47" s="26"/>
-      <c r="BN47" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO47" s="26"/>
-      <c r="BP47" s="26"/>
-      <c r="BQ47" s="26"/>
-      <c r="BR47" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="BS47" s="26"/>
-      <c r="BT47" s="26"/>
-      <c r="BU47" s="26"/>
-      <c r="BV47" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="BW47" s="29"/>
-      <c r="BX47" s="29"/>
-      <c r="BY47" s="29"/>
-      <c r="BZ47" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA47" s="26"/>
-      <c r="CB47" s="26"/>
-      <c r="CC47" s="26"/>
-      <c r="CD47" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="CE47" s="26"/>
-      <c r="CF47" s="26"/>
-      <c r="CG47" s="26"/>
-      <c r="CH47" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI47" s="33"/>
-      <c r="CJ47" s="33"/>
-      <c r="CK47" s="33"/>
-      <c r="CL47" s="34"/>
-      <c r="CM47" s="32"/>
-    </row>
-    <row r="48" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -28047,16 +28026,16 @@
       <c r="BU48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BV48" s="23" t="s">
+      <c r="BV48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BW48" s="23" t="s">
+      <c r="BW48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BX48" s="23" t="s">
+      <c r="BX48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BY48" s="23" t="s">
+      <c r="BY48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="BZ48" s="5" t="s">
@@ -28086,21 +28065,18 @@
       <c r="CH48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI48" s="33"/>
-      <c r="CJ48" s="33"/>
-      <c r="CK48" s="33"/>
-      <c r="CL48" s="33"/>
-      <c r="CM48" s="32"/>
+      <c r="CI48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ48" s="5"/>
+      <c r="CK48" s="5"/>
+      <c r="CL48" s="5"/>
+      <c r="CM48" s="21"/>
     </row>
-    <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="CI49" s="32"/>
-      <c r="CJ49" s="32"/>
-      <c r="CK49" s="32"/>
-      <c r="CL49" s="32"/>
-      <c r="CM49" s="32"/>
     </row>
-    <row r="50" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -28320,16 +28296,16 @@
       <c r="BU50" s="12">
         <v>10.563571477456676</v>
       </c>
-      <c r="BV50" s="24">
+      <c r="BV50" s="12">
         <v>9.6806316195680466</v>
       </c>
-      <c r="BW50" s="24">
+      <c r="BW50" s="12">
         <v>6.9478970539928184</v>
       </c>
-      <c r="BX50" s="24">
+      <c r="BX50" s="12">
         <v>7.1302579747115686</v>
       </c>
-      <c r="BY50" s="24">
+      <c r="BY50" s="12">
         <v>1.3729005017420803</v>
       </c>
       <c r="BZ50" s="12">
@@ -28357,13 +28333,15 @@
         <v>11.195427327526716</v>
       </c>
       <c r="CH50" s="12">
-        <v>20.249971507419957</v>
-      </c>
-      <c r="CI50" s="35"/>
-      <c r="CJ50" s="35"/>
-      <c r="CK50" s="35"/>
-      <c r="CL50" s="35"/>
-      <c r="CM50" s="35"/>
+        <v>15.466196015240513</v>
+      </c>
+      <c r="CI50" s="12">
+        <v>12.937920429493062</v>
+      </c>
+      <c r="CJ50" s="12"/>
+      <c r="CK50" s="12"/>
+      <c r="CL50" s="12"/>
+      <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
@@ -28421,7 +28399,7 @@
       <c r="EP50" s="11"/>
       <c r="EQ50" s="11"/>
     </row>
-    <row r="51" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -28641,16 +28619,16 @@
       <c r="BU51" s="12">
         <v>6.7075390002172384</v>
       </c>
-      <c r="BV51" s="24">
+      <c r="BV51" s="12">
         <v>5.0977626318906601</v>
       </c>
-      <c r="BW51" s="24">
+      <c r="BW51" s="12">
         <v>4.5662544107340182</v>
       </c>
-      <c r="BX51" s="24">
+      <c r="BX51" s="12">
         <v>4.8593849301118155</v>
       </c>
-      <c r="BY51" s="24">
+      <c r="BY51" s="12">
         <v>4.3340476321099572</v>
       </c>
       <c r="BZ51" s="12">
@@ -28680,11 +28658,13 @@
       <c r="CH51" s="12">
         <v>2.2838921682917288</v>
       </c>
-      <c r="CI51" s="35"/>
-      <c r="CJ51" s="35"/>
-      <c r="CK51" s="35"/>
-      <c r="CL51" s="35"/>
-      <c r="CM51" s="35"/>
+      <c r="CI51" s="12">
+        <v>2.4905148435179711</v>
+      </c>
+      <c r="CJ51" s="12"/>
+      <c r="CK51" s="12"/>
+      <c r="CL51" s="12"/>
+      <c r="CM51" s="11"/>
       <c r="CN51" s="11"/>
       <c r="CO51" s="11"/>
       <c r="CP51" s="11"/>
@@ -28742,7 +28722,7 @@
       <c r="EP51" s="11"/>
       <c r="EQ51" s="11"/>
     </row>
-    <row r="52" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -28816,10 +28796,10 @@
       <c r="BS52" s="11"/>
       <c r="BT52" s="11"/>
       <c r="BU52" s="11"/>
-      <c r="BV52" s="20"/>
-      <c r="BW52" s="20"/>
-      <c r="BX52" s="20"/>
-      <c r="BY52" s="20"/>
+      <c r="BV52" s="11"/>
+      <c r="BW52" s="11"/>
+      <c r="BX52" s="11"/>
+      <c r="BY52" s="11"/>
       <c r="BZ52" s="11"/>
       <c r="CA52" s="11"/>
       <c r="CB52" s="11"/>
@@ -28829,11 +28809,11 @@
       <c r="CF52" s="11"/>
       <c r="CG52" s="11"/>
       <c r="CH52" s="11"/>
-      <c r="CI52" s="35"/>
-      <c r="CJ52" s="35"/>
-      <c r="CK52" s="35"/>
-      <c r="CL52" s="35"/>
-      <c r="CM52" s="35"/>
+      <c r="CI52" s="11"/>
+      <c r="CJ52" s="11"/>
+      <c r="CK52" s="11"/>
+      <c r="CL52" s="11"/>
+      <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
       <c r="CP52" s="11"/>
@@ -28891,7 +28871,7 @@
       <c r="EP52" s="11"/>
       <c r="EQ52" s="11"/>
     </row>
-    <row r="53" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>13</v>
       </c>
@@ -29111,16 +29091,16 @@
       <c r="BU53" s="12">
         <v>8.7748897057317237</v>
       </c>
-      <c r="BV53" s="24">
+      <c r="BV53" s="12">
         <v>7.5142356164854078</v>
       </c>
-      <c r="BW53" s="24">
+      <c r="BW53" s="12">
         <v>5.8832621192702987</v>
       </c>
-      <c r="BX53" s="24">
+      <c r="BX53" s="12">
         <v>6.1373917669679656</v>
       </c>
-      <c r="BY53" s="24">
+      <c r="BY53" s="12">
         <v>2.7203696708347564</v>
       </c>
       <c r="BZ53" s="12">
@@ -29148,13 +29128,15 @@
         <v>6.3503652909170825</v>
       </c>
       <c r="CH53" s="12">
-        <v>10.40464227288038</v>
-      </c>
-      <c r="CI53" s="35"/>
-      <c r="CJ53" s="35"/>
-      <c r="CK53" s="35"/>
-      <c r="CL53" s="35"/>
-      <c r="CM53" s="35"/>
+        <v>8.2423538517311812</v>
+      </c>
+      <c r="CI53" s="12">
+        <v>7.2098278687646342</v>
+      </c>
+      <c r="CJ53" s="12"/>
+      <c r="CK53" s="12"/>
+      <c r="CL53" s="12"/>
+      <c r="CM53" s="11"/>
       <c r="CN53" s="11"/>
       <c r="CO53" s="11"/>
       <c r="CP53" s="11"/>
@@ -29212,7 +29194,7 @@
       <c r="EP53" s="11"/>
       <c r="EQ53" s="11"/>
     </row>
-    <row r="54" spans="1:147" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:147" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -29286,10 +29268,10 @@
       <c r="BS54" s="9"/>
       <c r="BT54" s="9"/>
       <c r="BU54" s="9"/>
-      <c r="BV54" s="22"/>
-      <c r="BW54" s="22"/>
-      <c r="BX54" s="22"/>
-      <c r="BY54" s="22"/>
+      <c r="BV54" s="9"/>
+      <c r="BW54" s="9"/>
+      <c r="BX54" s="9"/>
+      <c r="BY54" s="9"/>
       <c r="BZ54" s="9"/>
       <c r="CA54" s="9"/>
       <c r="CB54" s="9"/>
@@ -29299,23 +29281,18 @@
       <c r="CF54" s="9"/>
       <c r="CG54" s="9"/>
       <c r="CH54" s="9"/>
-      <c r="CI54" s="36"/>
-      <c r="CJ54" s="36"/>
-      <c r="CK54" s="36"/>
-      <c r="CL54" s="36"/>
-      <c r="CM54" s="32"/>
+      <c r="CI54" s="9"/>
+      <c r="CJ54" s="9"/>
+      <c r="CK54" s="9"/>
+      <c r="CL54" s="9"/>
+      <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="CI55" s="32"/>
-      <c r="CJ55" s="32"/>
-      <c r="CK55" s="32"/>
-      <c r="CL55" s="32"/>
-      <c r="CM55" s="32"/>
     </row>
-    <row r="56" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -29388,10 +29365,10 @@
       <c r="BS56" s="11"/>
       <c r="BT56" s="11"/>
       <c r="BU56" s="11"/>
-      <c r="BV56" s="20"/>
-      <c r="BW56" s="20"/>
-      <c r="BX56" s="20"/>
-      <c r="BY56" s="20"/>
+      <c r="BV56" s="11"/>
+      <c r="BW56" s="11"/>
+      <c r="BX56" s="11"/>
+      <c r="BY56" s="11"/>
       <c r="BZ56" s="11"/>
       <c r="CA56" s="11"/>
       <c r="CB56" s="11"/>
@@ -29401,11 +29378,11 @@
       <c r="CF56" s="11"/>
       <c r="CG56" s="11"/>
       <c r="CH56" s="11"/>
-      <c r="CI56" s="35"/>
-      <c r="CJ56" s="35"/>
-      <c r="CK56" s="35"/>
-      <c r="CL56" s="35"/>
-      <c r="CM56" s="35"/>
+      <c r="CI56" s="11"/>
+      <c r="CJ56" s="11"/>
+      <c r="CK56" s="11"/>
+      <c r="CL56" s="11"/>
+      <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
       <c r="CP56" s="11"/>
@@ -29463,7 +29440,7 @@
       <c r="EP56" s="11"/>
       <c r="EQ56" s="11"/>
     </row>
-    <row r="57" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -29536,10 +29513,10 @@
       <c r="BS57" s="11"/>
       <c r="BT57" s="11"/>
       <c r="BU57" s="11"/>
-      <c r="BV57" s="20"/>
-      <c r="BW57" s="20"/>
-      <c r="BX57" s="20"/>
-      <c r="BY57" s="20"/>
+      <c r="BV57" s="11"/>
+      <c r="BW57" s="11"/>
+      <c r="BX57" s="11"/>
+      <c r="BY57" s="11"/>
       <c r="BZ57" s="11"/>
       <c r="CA57" s="11"/>
       <c r="CB57" s="11"/>
@@ -29549,11 +29526,11 @@
       <c r="CF57" s="11"/>
       <c r="CG57" s="11"/>
       <c r="CH57" s="11"/>
-      <c r="CI57" s="35"/>
-      <c r="CJ57" s="35"/>
-      <c r="CK57" s="35"/>
-      <c r="CL57" s="35"/>
-      <c r="CM57" s="35"/>
+      <c r="CI57" s="11"/>
+      <c r="CJ57" s="11"/>
+      <c r="CK57" s="11"/>
+      <c r="CL57" s="11"/>
+      <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
       <c r="CP57" s="11"/>
@@ -29611,204 +29588,174 @@
       <c r="EP57" s="11"/>
       <c r="EQ57" s="11"/>
     </row>
-    <row r="58" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CI58" s="32"/>
-      <c r="CJ58" s="32"/>
-      <c r="CK58" s="32"/>
-      <c r="CL58" s="32"/>
-      <c r="CM58" s="32"/>
     </row>
-    <row r="59" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="CI59" s="32"/>
-      <c r="CJ59" s="32"/>
-      <c r="CK59" s="32"/>
-      <c r="CL59" s="32"/>
-      <c r="CM59" s="32"/>
     </row>
-    <row r="60" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="CI60" s="32"/>
-      <c r="CJ60" s="32"/>
-      <c r="CK60" s="32"/>
-      <c r="CL60" s="32"/>
-      <c r="CM60" s="32"/>
     </row>
-    <row r="62" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="CI64" s="32"/>
-      <c r="CJ64" s="32"/>
-      <c r="CK64" s="32"/>
-      <c r="CL64" s="32"/>
-      <c r="CM64" s="32"/>
-      <c r="CN64" s="32"/>
     </row>
-    <row r="65" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CI65" s="32"/>
-      <c r="CJ65" s="32"/>
-      <c r="CK65" s="32"/>
-      <c r="CL65" s="32"/>
-      <c r="CM65" s="32"/>
-      <c r="CN65" s="32"/>
+    <row r="66" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="23"/>
+      <c r="AO66" s="23"/>
+      <c r="AP66" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ66" s="23"/>
+      <c r="AR66" s="23"/>
+      <c r="AS66" s="23"/>
+      <c r="AT66" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU66" s="23"/>
+      <c r="AV66" s="23"/>
+      <c r="AW66" s="23"/>
+      <c r="AX66" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY66" s="23"/>
+      <c r="AZ66" s="23"/>
+      <c r="BA66" s="23"/>
+      <c r="BB66" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC66" s="23"/>
+      <c r="BD66" s="23"/>
+      <c r="BE66" s="23"/>
+      <c r="BF66" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG66" s="23"/>
+      <c r="BH66" s="23"/>
+      <c r="BI66" s="23"/>
+      <c r="BJ66" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK66" s="23"/>
+      <c r="BL66" s="23"/>
+      <c r="BM66" s="23"/>
+      <c r="BN66" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO66" s="23"/>
+      <c r="BP66" s="23"/>
+      <c r="BQ66" s="23"/>
+      <c r="BR66" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS66" s="23"/>
+      <c r="BT66" s="23"/>
+      <c r="BU66" s="23"/>
+      <c r="BV66" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW66" s="23"/>
+      <c r="BX66" s="23"/>
+      <c r="BY66" s="23"/>
+      <c r="BZ66" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA66" s="23"/>
+      <c r="CB66" s="23"/>
+      <c r="CC66" s="23"/>
+      <c r="CD66" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE66" s="23"/>
+      <c r="CF66" s="23"/>
+      <c r="CG66" s="23"/>
+      <c r="CH66" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI66" s="22"/>
+      <c r="CJ66" s="20"/>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="19"/>
+      <c r="CM66" s="19"/>
     </row>
-    <row r="66" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE66" s="28"/>
-      <c r="AF66" s="28"/>
-      <c r="AG66" s="28"/>
-      <c r="AH66" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI66" s="28"/>
-      <c r="AJ66" s="28"/>
-      <c r="AK66" s="28"/>
-      <c r="AL66" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM66" s="28"/>
-      <c r="AN66" s="28"/>
-      <c r="AO66" s="28"/>
-      <c r="AP66" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ66" s="28"/>
-      <c r="AR66" s="28"/>
-      <c r="AS66" s="28"/>
-      <c r="AT66" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU66" s="28"/>
-      <c r="AV66" s="28"/>
-      <c r="AW66" s="28"/>
-      <c r="AX66" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY66" s="28"/>
-      <c r="AZ66" s="28"/>
-      <c r="BA66" s="28"/>
-      <c r="BB66" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC66" s="28"/>
-      <c r="BD66" s="28"/>
-      <c r="BE66" s="28"/>
-      <c r="BF66" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG66" s="28"/>
-      <c r="BH66" s="28"/>
-      <c r="BI66" s="28"/>
-      <c r="BJ66" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK66" s="28"/>
-      <c r="BL66" s="28"/>
-      <c r="BM66" s="28"/>
-      <c r="BN66" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO66" s="28"/>
-      <c r="BP66" s="28"/>
-      <c r="BQ66" s="28"/>
-      <c r="BR66" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="BS66" s="28"/>
-      <c r="BT66" s="28"/>
-      <c r="BU66" s="28"/>
-      <c r="BV66" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="BW66" s="31"/>
-      <c r="BX66" s="31"/>
-      <c r="BY66" s="31"/>
-      <c r="BZ66" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA66" s="26"/>
-      <c r="CB66" s="26"/>
-      <c r="CC66" s="26"/>
-      <c r="CD66" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="CE66" s="26"/>
-      <c r="CF66" s="26"/>
-      <c r="CG66" s="26"/>
-      <c r="CH66" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI66" s="33"/>
-      <c r="CJ66" s="33"/>
-      <c r="CK66" s="33"/>
-      <c r="CL66" s="34"/>
-      <c r="CM66" s="32"/>
-      <c r="CN66" s="32"/>
-    </row>
-    <row r="67" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -30028,16 +29975,16 @@
       <c r="BU67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BV67" s="23" t="s">
+      <c r="BV67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BW67" s="23" t="s">
+      <c r="BW67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BX67" s="23" t="s">
+      <c r="BX67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BY67" s="23" t="s">
+      <c r="BY67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="BZ67" s="5" t="s">
@@ -30067,23 +30014,18 @@
       <c r="CH67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI67" s="33"/>
-      <c r="CJ67" s="33"/>
-      <c r="CK67" s="33"/>
-      <c r="CL67" s="33"/>
-      <c r="CM67" s="32"/>
-      <c r="CN67" s="32"/>
+      <c r="CI67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ67" s="5"/>
+      <c r="CK67" s="5"/>
+      <c r="CL67" s="5"/>
+      <c r="CM67" s="21"/>
     </row>
-    <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
-      <c r="CI68" s="32"/>
-      <c r="CJ68" s="32"/>
-      <c r="CK68" s="32"/>
-      <c r="CL68" s="32"/>
-      <c r="CM68" s="32"/>
-      <c r="CN68" s="32"/>
     </row>
-    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>11</v>
       </c>
@@ -30303,16 +30245,16 @@
       <c r="BU69" s="12">
         <v>3.7616915334622405</v>
       </c>
-      <c r="BV69" s="24">
+      <c r="BV69" s="12">
         <v>6.7501468292905855</v>
       </c>
-      <c r="BW69" s="24">
+      <c r="BW69" s="12">
         <v>6.1004523387212686</v>
       </c>
-      <c r="BX69" s="24">
+      <c r="BX69" s="12">
         <v>8.0850712235918536</v>
       </c>
-      <c r="BY69" s="24">
+      <c r="BY69" s="12">
         <v>2.1332565907817411</v>
       </c>
       <c r="BZ69" s="12">
@@ -30340,14 +30282,16 @@
         <v>6.3042247712139101</v>
       </c>
       <c r="CH69" s="12">
-        <v>16.399300697350071</v>
-      </c>
-      <c r="CI69" s="35"/>
-      <c r="CJ69" s="35"/>
-      <c r="CK69" s="35"/>
-      <c r="CL69" s="35"/>
-      <c r="CM69" s="35"/>
-      <c r="CN69" s="35"/>
+        <v>11.768712307161124</v>
+      </c>
+      <c r="CI69" s="12">
+        <v>7.1189918961674294</v>
+      </c>
+      <c r="CJ69" s="12"/>
+      <c r="CK69" s="12"/>
+      <c r="CL69" s="12"/>
+      <c r="CM69" s="11"/>
+      <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
       <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
@@ -30404,7 +30348,7 @@
       <c r="EP69" s="11"/>
       <c r="EQ69" s="11"/>
     </row>
-    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>12</v>
       </c>
@@ -30624,16 +30568,16 @@
       <c r="BU70" s="12">
         <v>2.7656280013004846</v>
       </c>
-      <c r="BV70" s="24">
+      <c r="BV70" s="12">
         <v>2.0695510307815965</v>
       </c>
-      <c r="BW70" s="24">
+      <c r="BW70" s="12">
         <v>1.9969929563078637</v>
       </c>
-      <c r="BX70" s="24">
+      <c r="BX70" s="12">
         <v>2.0824224213691167</v>
       </c>
-      <c r="BY70" s="24">
+      <c r="BY70" s="12">
         <v>1.9065718336572388</v>
       </c>
       <c r="BZ70" s="12">
@@ -30663,12 +30607,14 @@
       <c r="CH70" s="12">
         <v>1.1733626980431069</v>
       </c>
-      <c r="CI70" s="35"/>
-      <c r="CJ70" s="35"/>
-      <c r="CK70" s="35"/>
-      <c r="CL70" s="35"/>
-      <c r="CM70" s="35"/>
-      <c r="CN70" s="35"/>
+      <c r="CI70" s="12">
+        <v>1.2723659858168617</v>
+      </c>
+      <c r="CJ70" s="12"/>
+      <c r="CK70" s="12"/>
+      <c r="CL70" s="12"/>
+      <c r="CM70" s="11"/>
+      <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
@@ -30725,7 +30671,7 @@
       <c r="EP70" s="11"/>
       <c r="EQ70" s="11"/>
     </row>
-    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -30798,10 +30744,10 @@
       <c r="BS71" s="11"/>
       <c r="BT71" s="11"/>
       <c r="BU71" s="11"/>
-      <c r="BV71" s="20"/>
-      <c r="BW71" s="20"/>
-      <c r="BX71" s="20"/>
-      <c r="BY71" s="20"/>
+      <c r="BV71" s="11"/>
+      <c r="BW71" s="11"/>
+      <c r="BX71" s="11"/>
+      <c r="BY71" s="11"/>
       <c r="BZ71" s="11"/>
       <c r="CA71" s="11"/>
       <c r="CB71" s="11"/>
@@ -30811,12 +30757,12 @@
       <c r="CF71" s="11"/>
       <c r="CG71" s="11"/>
       <c r="CH71" s="11"/>
-      <c r="CI71" s="35"/>
-      <c r="CJ71" s="35"/>
-      <c r="CK71" s="35"/>
-      <c r="CL71" s="35"/>
-      <c r="CM71" s="35"/>
-      <c r="CN71" s="35"/>
+      <c r="CI71" s="11"/>
+      <c r="CJ71" s="11"/>
+      <c r="CK71" s="11"/>
+      <c r="CL71" s="11"/>
+      <c r="CM71" s="11"/>
+      <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
       <c r="CQ71" s="11"/>
@@ -30873,7 +30819,7 @@
       <c r="EP71" s="11"/>
       <c r="EQ71" s="11"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>13</v>
       </c>
@@ -31093,16 +31039,16 @@
       <c r="BU72" s="12">
         <v>3.3036018511639895</v>
       </c>
-      <c r="BV72" s="24">
+      <c r="BV72" s="12">
         <v>4.5325061388750356</v>
       </c>
-      <c r="BW72" s="24">
+      <c r="BW72" s="12">
         <v>4.2656615117999479</v>
       </c>
-      <c r="BX72" s="24">
+      <c r="BX72" s="12">
         <v>5.4826607552667497</v>
       </c>
-      <c r="BY72" s="24">
+      <c r="BY72" s="12">
         <v>2.0295471710086446</v>
       </c>
       <c r="BZ72" s="12">
@@ -31130,14 +31076,16 @@
         <v>3.4277238261467602</v>
       </c>
       <c r="CH72" s="12">
-        <v>7.9289943480642933</v>
-      </c>
-      <c r="CI72" s="35"/>
-      <c r="CJ72" s="35"/>
-      <c r="CK72" s="35"/>
-      <c r="CL72" s="35"/>
-      <c r="CM72" s="35"/>
-      <c r="CN72" s="35"/>
+        <v>5.8744378742099599</v>
+      </c>
+      <c r="CI72" s="12">
+        <v>3.8976022748186523</v>
+      </c>
+      <c r="CJ72" s="12"/>
+      <c r="CK72" s="12"/>
+      <c r="CL72" s="12"/>
+      <c r="CM72" s="11"/>
+      <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
       <c r="CP72" s="11"/>
       <c r="CQ72" s="11"/>
@@ -31194,7 +31142,7 @@
       <c r="EP72" s="11"/>
       <c r="EQ72" s="11"/>
     </row>
-    <row r="73" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -31268,10 +31216,10 @@
       <c r="BS73" s="9"/>
       <c r="BT73" s="9"/>
       <c r="BU73" s="9"/>
-      <c r="BV73" s="22"/>
-      <c r="BW73" s="22"/>
-      <c r="BX73" s="22"/>
-      <c r="BY73" s="22"/>
+      <c r="BV73" s="9"/>
+      <c r="BW73" s="9"/>
+      <c r="BX73" s="9"/>
+      <c r="BY73" s="9"/>
       <c r="BZ73" s="9"/>
       <c r="CA73" s="9"/>
       <c r="CB73" s="9"/>
@@ -31281,25 +31229,18 @@
       <c r="CF73" s="9"/>
       <c r="CG73" s="9"/>
       <c r="CH73" s="9"/>
-      <c r="CI73" s="36"/>
-      <c r="CJ73" s="36"/>
-      <c r="CK73" s="36"/>
-      <c r="CL73" s="36"/>
-      <c r="CM73" s="32"/>
-      <c r="CN73" s="32"/>
+      <c r="CI73" s="9"/>
+      <c r="CJ73" s="9"/>
+      <c r="CK73" s="9"/>
+      <c r="CL73" s="9"/>
+      <c r="CM73" s="9"/>
     </row>
-    <row r="74" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="CI74" s="32"/>
-      <c r="CJ74" s="32"/>
-      <c r="CK74" s="32"/>
-      <c r="CL74" s="32"/>
-      <c r="CM74" s="32"/>
-      <c r="CN74" s="32"/>
     </row>
-    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -31372,10 +31313,10 @@
       <c r="BS75" s="11"/>
       <c r="BT75" s="11"/>
       <c r="BU75" s="11"/>
-      <c r="BV75" s="20"/>
-      <c r="BW75" s="20"/>
-      <c r="BX75" s="20"/>
-      <c r="BY75" s="20"/>
+      <c r="BV75" s="11"/>
+      <c r="BW75" s="11"/>
+      <c r="BX75" s="11"/>
+      <c r="BY75" s="11"/>
       <c r="BZ75" s="11"/>
       <c r="CA75" s="11"/>
       <c r="CB75" s="11"/>
@@ -31385,12 +31326,12 @@
       <c r="CF75" s="11"/>
       <c r="CG75" s="11"/>
       <c r="CH75" s="11"/>
-      <c r="CI75" s="35"/>
-      <c r="CJ75" s="35"/>
-      <c r="CK75" s="35"/>
-      <c r="CL75" s="35"/>
-      <c r="CM75" s="35"/>
-      <c r="CN75" s="35"/>
+      <c r="CI75" s="11"/>
+      <c r="CJ75" s="11"/>
+      <c r="CK75" s="11"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
+      <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
@@ -31447,7 +31388,7 @@
       <c r="EP75" s="11"/>
       <c r="EQ75" s="11"/>
     </row>
-    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -31520,10 +31461,10 @@
       <c r="BS76" s="11"/>
       <c r="BT76" s="11"/>
       <c r="BU76" s="11"/>
-      <c r="BV76" s="20"/>
-      <c r="BW76" s="20"/>
-      <c r="BX76" s="20"/>
-      <c r="BY76" s="20"/>
+      <c r="BV76" s="11"/>
+      <c r="BW76" s="11"/>
+      <c r="BX76" s="11"/>
+      <c r="BY76" s="11"/>
       <c r="BZ76" s="11"/>
       <c r="CA76" s="11"/>
       <c r="CB76" s="11"/>
@@ -31533,12 +31474,12 @@
       <c r="CF76" s="11"/>
       <c r="CG76" s="11"/>
       <c r="CH76" s="11"/>
-      <c r="CI76" s="35"/>
-      <c r="CJ76" s="35"/>
-      <c r="CK76" s="35"/>
-      <c r="CL76" s="35"/>
-      <c r="CM76" s="35"/>
-      <c r="CN76" s="35"/>
+      <c r="CI76" s="11"/>
+      <c r="CJ76" s="11"/>
+      <c r="CK76" s="11"/>
+      <c r="CL76" s="11"/>
+      <c r="CM76" s="11"/>
+      <c r="CN76" s="11"/>
       <c r="CO76" s="11"/>
       <c r="CP76" s="11"/>
       <c r="CQ76" s="11"/>
@@ -31599,196 +31540,171 @@
       <c r="ET76" s="11"/>
       <c r="EU76" s="11"/>
     </row>
-    <row r="77" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CI77" s="32"/>
-      <c r="CJ77" s="32"/>
-      <c r="CK77" s="32"/>
-      <c r="CL77" s="32"/>
-      <c r="CM77" s="32"/>
-      <c r="CN77" s="32"/>
     </row>
-    <row r="78" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="CI78" s="32"/>
-      <c r="CJ78" s="32"/>
-      <c r="CK78" s="32"/>
-      <c r="CL78" s="32"/>
-      <c r="CM78" s="32"/>
-      <c r="CN78" s="32"/>
     </row>
-    <row r="79" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CI79" s="32"/>
-      <c r="CJ79" s="32"/>
-      <c r="CK79" s="32"/>
-      <c r="CL79" s="32"/>
-      <c r="CM79" s="32"/>
-      <c r="CN79" s="32"/>
-    </row>
-    <row r="80" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CI80" s="32"/>
-      <c r="CJ80" s="32"/>
-      <c r="CK80" s="32"/>
-      <c r="CL80" s="32"/>
-      <c r="CM80" s="32"/>
-      <c r="CN80" s="32"/>
     </row>
-    <row r="81" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="26">
+      <c r="B84" s="22">
         <v>2000</v>
       </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="26">
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="22">
         <v>2001</v>
       </c>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="26">
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="22">
         <v>2002</v>
       </c>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="26">
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="22">
         <v>2003</v>
       </c>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="26">
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="22">
         <v>2004</v>
       </c>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="26">
+      <c r="S84" s="24"/>
+      <c r="T84" s="24"/>
+      <c r="U84" s="24"/>
+      <c r="V84" s="22">
         <v>2005</v>
       </c>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="26">
+      <c r="W84" s="24"/>
+      <c r="X84" s="24"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="22">
         <v>2006</v>
       </c>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="26">
+      <c r="AA84" s="24"/>
+      <c r="AB84" s="24"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="22">
         <v>2007</v>
       </c>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="26">
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="22">
         <v>2008</v>
       </c>
-      <c r="AI84" s="27"/>
-      <c r="AJ84" s="27"/>
-      <c r="AK84" s="27"/>
-      <c r="AL84" s="26">
+      <c r="AI84" s="24"/>
+      <c r="AJ84" s="24"/>
+      <c r="AK84" s="24"/>
+      <c r="AL84" s="22">
         <v>2009</v>
       </c>
-      <c r="AM84" s="27"/>
-      <c r="AN84" s="27"/>
-      <c r="AO84" s="27"/>
-      <c r="AP84" s="26">
+      <c r="AM84" s="24"/>
+      <c r="AN84" s="24"/>
+      <c r="AO84" s="24"/>
+      <c r="AP84" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="27"/>
-      <c r="AR84" s="27"/>
-      <c r="AS84" s="27"/>
-      <c r="AT84" s="26">
+      <c r="AQ84" s="24"/>
+      <c r="AR84" s="24"/>
+      <c r="AS84" s="24"/>
+      <c r="AT84" s="22">
         <v>2011</v>
       </c>
-      <c r="AU84" s="27"/>
-      <c r="AV84" s="27"/>
-      <c r="AW84" s="27"/>
-      <c r="AX84" s="26">
+      <c r="AU84" s="24"/>
+      <c r="AV84" s="24"/>
+      <c r="AW84" s="24"/>
+      <c r="AX84" s="22">
         <v>2012</v>
       </c>
-      <c r="AY84" s="27"/>
-      <c r="AZ84" s="27"/>
-      <c r="BA84" s="27"/>
-      <c r="BB84" s="26">
+      <c r="AY84" s="24"/>
+      <c r="AZ84" s="24"/>
+      <c r="BA84" s="24"/>
+      <c r="BB84" s="22">
         <v>2013</v>
       </c>
-      <c r="BC84" s="27"/>
-      <c r="BD84" s="27"/>
-      <c r="BE84" s="27"/>
-      <c r="BF84" s="26">
+      <c r="BC84" s="24"/>
+      <c r="BD84" s="24"/>
+      <c r="BE84" s="24"/>
+      <c r="BF84" s="22">
         <v>2014</v>
       </c>
-      <c r="BG84" s="27"/>
-      <c r="BH84" s="27"/>
-      <c r="BI84" s="27"/>
-      <c r="BJ84" s="26">
+      <c r="BG84" s="24"/>
+      <c r="BH84" s="24"/>
+      <c r="BI84" s="24"/>
+      <c r="BJ84" s="22">
         <v>2015</v>
       </c>
-      <c r="BK84" s="27"/>
-      <c r="BL84" s="27"/>
-      <c r="BM84" s="27"/>
-      <c r="BN84" s="26">
+      <c r="BK84" s="24"/>
+      <c r="BL84" s="24"/>
+      <c r="BM84" s="24"/>
+      <c r="BN84" s="22">
         <v>2016</v>
       </c>
-      <c r="BO84" s="27"/>
-      <c r="BP84" s="27"/>
-      <c r="BQ84" s="27"/>
-      <c r="BR84" s="26">
+      <c r="BO84" s="24"/>
+      <c r="BP84" s="24"/>
+      <c r="BQ84" s="24"/>
+      <c r="BR84" s="22">
         <v>2017</v>
       </c>
-      <c r="BS84" s="27"/>
-      <c r="BT84" s="27"/>
-      <c r="BU84" s="27"/>
-      <c r="BV84" s="29">
+      <c r="BS84" s="24"/>
+      <c r="BT84" s="24"/>
+      <c r="BU84" s="24"/>
+      <c r="BV84" s="22">
         <v>2018</v>
       </c>
-      <c r="BW84" s="30"/>
-      <c r="BX84" s="30"/>
-      <c r="BY84" s="30"/>
-      <c r="BZ84" s="26">
+      <c r="BW84" s="24"/>
+      <c r="BX84" s="24"/>
+      <c r="BY84" s="24"/>
+      <c r="BZ84" s="22">
         <v>2019</v>
       </c>
-      <c r="CA84" s="27"/>
-      <c r="CB84" s="27"/>
-      <c r="CC84" s="27"/>
-      <c r="CD84" s="26">
+      <c r="CA84" s="24"/>
+      <c r="CB84" s="24"/>
+      <c r="CC84" s="24"/>
+      <c r="CD84" s="22">
         <v>2020</v>
       </c>
-      <c r="CE84" s="26"/>
-      <c r="CF84" s="26"/>
-      <c r="CG84" s="26"/>
-      <c r="CH84" s="26">
+      <c r="CE84" s="24"/>
+      <c r="CF84" s="24"/>
+      <c r="CG84" s="24"/>
+      <c r="CH84" s="22">
         <v>2021</v>
       </c>
-      <c r="CI84" s="26"/>
-      <c r="CJ84" s="26"/>
-      <c r="CK84" s="26"/>
-      <c r="CL84" s="25">
+      <c r="CI84" s="22"/>
+      <c r="CJ84" s="22"/>
+      <c r="CK84" s="22"/>
+      <c r="CL84" s="22">
         <v>2022</v>
       </c>
+      <c r="CM84" s="22"/>
     </row>
-    <row r="85" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -32008,16 +31924,16 @@
       <c r="BU85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV85" s="18" t="s">
+      <c r="BV85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW85" s="18" t="s">
+      <c r="BW85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX85" s="18" t="s">
+      <c r="BX85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY85" s="18" t="s">
+      <c r="BY85" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ85" s="6" t="s">
@@ -32059,11 +31975,14 @@
       <c r="CL85" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM85" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
@@ -32283,16 +32202,16 @@
       <c r="BU87" s="12">
         <v>95.817320896964517</v>
       </c>
-      <c r="BV87" s="24">
+      <c r="BV87" s="12">
         <v>98.533371913087507</v>
       </c>
-      <c r="BW87" s="24">
+      <c r="BW87" s="12">
         <v>99.664960991046243</v>
       </c>
-      <c r="BX87" s="24">
+      <c r="BX87" s="12">
         <v>99.679205723213911</v>
       </c>
-      <c r="BY87" s="24">
+      <c r="BY87" s="12">
         <v>102.09842429518893</v>
       </c>
       <c r="BZ87" s="12">
@@ -32334,7 +32253,9 @@
       <c r="CL87" s="12">
         <v>113.86947749514169</v>
       </c>
-      <c r="CM87" s="11"/>
+      <c r="CM87" s="12">
+        <v>114.21113977721637</v>
+      </c>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
       <c r="CP87" s="11"/>
@@ -32396,7 +32317,7 @@
       <c r="ET87" s="11"/>
       <c r="EU87" s="11"/>
     </row>
-    <row r="88" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -32616,16 +32537,16 @@
       <c r="BU88" s="12">
         <v>97.358439390513311</v>
       </c>
-      <c r="BV88" s="24">
+      <c r="BV88" s="12">
         <v>98.108031307708814</v>
       </c>
-      <c r="BW88" s="24">
+      <c r="BW88" s="12">
         <v>99.618360181809209</v>
       </c>
-      <c r="BX88" s="24">
+      <c r="BX88" s="12">
         <v>101.18023488970312</v>
       </c>
-      <c r="BY88" s="24">
+      <c r="BY88" s="12">
         <v>101.09294002593954</v>
       </c>
       <c r="BZ88" s="12">
@@ -32667,7 +32588,9 @@
       <c r="CL88" s="12">
         <v>107.74936487010709</v>
       </c>
-      <c r="CM88" s="11"/>
+      <c r="CM88" s="12">
+        <v>108.43868958473841</v>
+      </c>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
       <c r="CP88" s="11"/>
@@ -32729,7 +32652,7 @@
       <c r="ET88" s="11"/>
       <c r="EU88" s="11"/>
     </row>
-    <row r="89" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -32802,10 +32725,10 @@
       <c r="BS89" s="11"/>
       <c r="BT89" s="11"/>
       <c r="BU89" s="11"/>
-      <c r="BV89" s="20"/>
-      <c r="BW89" s="20"/>
-      <c r="BX89" s="20"/>
-      <c r="BY89" s="20"/>
+      <c r="BV89" s="11"/>
+      <c r="BW89" s="11"/>
+      <c r="BX89" s="11"/>
+      <c r="BY89" s="11"/>
       <c r="BZ89" s="11"/>
       <c r="CA89" s="11"/>
       <c r="CB89" s="11"/>
@@ -32881,7 +32804,7 @@
       <c r="ET89" s="11"/>
       <c r="EU89" s="11"/>
     </row>
-    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>13</v>
       </c>
@@ -33101,16 +33024,16 @@
       <c r="BU90" s="12">
         <v>96.526081390947851</v>
       </c>
-      <c r="BV90" s="24">
+      <c r="BV90" s="12">
         <v>98.33184786051406</v>
       </c>
-      <c r="BW90" s="24">
+      <c r="BW90" s="12">
         <v>99.644124245913162</v>
       </c>
-      <c r="BX90" s="24">
+      <c r="BX90" s="12">
         <v>100.32996743605747</v>
       </c>
-      <c r="BY90" s="24">
+      <c r="BY90" s="12">
         <v>101.63841017038584</v>
       </c>
       <c r="BZ90" s="12">
@@ -33150,9 +33073,11 @@
         <v>108.77008249664846</v>
       </c>
       <c r="CL90" s="12">
-        <v>110.67792104999528</v>
-      </c>
-      <c r="CM90" s="11"/>
+        <v>110.615986997851</v>
+      </c>
+      <c r="CM90" s="12">
+        <v>111.11098359397917</v>
+      </c>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
       <c r="CP90" s="11"/>
@@ -33214,7 +33139,7 @@
       <c r="ET90" s="11"/>
       <c r="EU90" s="11"/>
     </row>
-    <row r="91" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -33288,10 +33213,10 @@
       <c r="BS91" s="9"/>
       <c r="BT91" s="9"/>
       <c r="BU91" s="9"/>
-      <c r="BV91" s="22"/>
-      <c r="BW91" s="22"/>
-      <c r="BX91" s="22"/>
-      <c r="BY91" s="22"/>
+      <c r="BV91" s="9"/>
+      <c r="BW91" s="9"/>
+      <c r="BX91" s="9"/>
+      <c r="BY91" s="9"/>
       <c r="BZ91" s="9"/>
       <c r="CA91" s="9"/>
       <c r="CB91" s="9"/>
@@ -33305,181 +33230,183 @@
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
+      <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="26">
+      <c r="B103" s="22">
         <v>2000</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="26">
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="22">
         <v>2001</v>
       </c>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="26">
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="22">
         <v>2002</v>
       </c>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="26">
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="22">
         <v>2003</v>
       </c>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="26">
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="22">
         <v>2004</v>
       </c>
-      <c r="S103" s="27"/>
-      <c r="T103" s="27"/>
-      <c r="U103" s="27"/>
-      <c r="V103" s="26">
+      <c r="S103" s="24"/>
+      <c r="T103" s="24"/>
+      <c r="U103" s="24"/>
+      <c r="V103" s="22">
         <v>2005</v>
       </c>
-      <c r="W103" s="27"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="27"/>
-      <c r="Z103" s="26">
+      <c r="W103" s="24"/>
+      <c r="X103" s="24"/>
+      <c r="Y103" s="24"/>
+      <c r="Z103" s="22">
         <v>2006</v>
       </c>
-      <c r="AA103" s="27"/>
-      <c r="AB103" s="27"/>
-      <c r="AC103" s="27"/>
-      <c r="AD103" s="26">
+      <c r="AA103" s="24"/>
+      <c r="AB103" s="24"/>
+      <c r="AC103" s="24"/>
+      <c r="AD103" s="22">
         <v>2007</v>
       </c>
-      <c r="AE103" s="27"/>
-      <c r="AF103" s="27"/>
-      <c r="AG103" s="27"/>
-      <c r="AH103" s="26">
+      <c r="AE103" s="24"/>
+      <c r="AF103" s="24"/>
+      <c r="AG103" s="24"/>
+      <c r="AH103" s="22">
         <v>2008</v>
       </c>
-      <c r="AI103" s="27"/>
-      <c r="AJ103" s="27"/>
-      <c r="AK103" s="27"/>
-      <c r="AL103" s="26">
+      <c r="AI103" s="24"/>
+      <c r="AJ103" s="24"/>
+      <c r="AK103" s="24"/>
+      <c r="AL103" s="22">
         <v>2009</v>
       </c>
-      <c r="AM103" s="27"/>
-      <c r="AN103" s="27"/>
-      <c r="AO103" s="27"/>
-      <c r="AP103" s="26">
+      <c r="AM103" s="24"/>
+      <c r="AN103" s="24"/>
+      <c r="AO103" s="24"/>
+      <c r="AP103" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="27"/>
-      <c r="AR103" s="27"/>
-      <c r="AS103" s="27"/>
-      <c r="AT103" s="26">
+      <c r="AQ103" s="24"/>
+      <c r="AR103" s="24"/>
+      <c r="AS103" s="24"/>
+      <c r="AT103" s="22">
         <v>2011</v>
       </c>
-      <c r="AU103" s="27"/>
-      <c r="AV103" s="27"/>
-      <c r="AW103" s="27"/>
-      <c r="AX103" s="26">
+      <c r="AU103" s="24"/>
+      <c r="AV103" s="24"/>
+      <c r="AW103" s="24"/>
+      <c r="AX103" s="22">
         <v>2012</v>
       </c>
-      <c r="AY103" s="27"/>
-      <c r="AZ103" s="27"/>
-      <c r="BA103" s="27"/>
-      <c r="BB103" s="26">
+      <c r="AY103" s="24"/>
+      <c r="AZ103" s="24"/>
+      <c r="BA103" s="24"/>
+      <c r="BB103" s="22">
         <v>2013</v>
       </c>
-      <c r="BC103" s="27"/>
-      <c r="BD103" s="27"/>
-      <c r="BE103" s="27"/>
-      <c r="BF103" s="26">
+      <c r="BC103" s="24"/>
+      <c r="BD103" s="24"/>
+      <c r="BE103" s="24"/>
+      <c r="BF103" s="22">
         <v>2014</v>
       </c>
-      <c r="BG103" s="27"/>
-      <c r="BH103" s="27"/>
-      <c r="BI103" s="27"/>
-      <c r="BJ103" s="26">
+      <c r="BG103" s="24"/>
+      <c r="BH103" s="24"/>
+      <c r="BI103" s="24"/>
+      <c r="BJ103" s="22">
         <v>2015</v>
       </c>
-      <c r="BK103" s="27"/>
-      <c r="BL103" s="27"/>
-      <c r="BM103" s="27"/>
-      <c r="BN103" s="26">
+      <c r="BK103" s="24"/>
+      <c r="BL103" s="24"/>
+      <c r="BM103" s="24"/>
+      <c r="BN103" s="22">
         <v>2016</v>
       </c>
-      <c r="BO103" s="27"/>
-      <c r="BP103" s="27"/>
-      <c r="BQ103" s="27"/>
-      <c r="BR103" s="26">
+      <c r="BO103" s="24"/>
+      <c r="BP103" s="24"/>
+      <c r="BQ103" s="24"/>
+      <c r="BR103" s="22">
         <v>2017</v>
       </c>
-      <c r="BS103" s="27"/>
-      <c r="BT103" s="27"/>
-      <c r="BU103" s="27"/>
-      <c r="BV103" s="29">
+      <c r="BS103" s="24"/>
+      <c r="BT103" s="24"/>
+      <c r="BU103" s="24"/>
+      <c r="BV103" s="22">
         <v>2018</v>
       </c>
-      <c r="BW103" s="30"/>
-      <c r="BX103" s="30"/>
-      <c r="BY103" s="30"/>
-      <c r="BZ103" s="26">
+      <c r="BW103" s="24"/>
+      <c r="BX103" s="24"/>
+      <c r="BY103" s="24"/>
+      <c r="BZ103" s="22">
         <v>2019</v>
       </c>
-      <c r="CA103" s="27"/>
-      <c r="CB103" s="27"/>
-      <c r="CC103" s="27"/>
-      <c r="CD103" s="26">
+      <c r="CA103" s="24"/>
+      <c r="CB103" s="24"/>
+      <c r="CC103" s="24"/>
+      <c r="CD103" s="22">
         <v>2020</v>
       </c>
-      <c r="CE103" s="26"/>
-      <c r="CF103" s="26"/>
-      <c r="CG103" s="26"/>
-      <c r="CH103" s="26">
+      <c r="CE103" s="24"/>
+      <c r="CF103" s="24"/>
+      <c r="CG103" s="24"/>
+      <c r="CH103" s="22">
         <v>2021</v>
       </c>
-      <c r="CI103" s="26"/>
-      <c r="CJ103" s="26"/>
-      <c r="CK103" s="26"/>
-      <c r="CL103" s="25">
+      <c r="CI103" s="22"/>
+      <c r="CJ103" s="22"/>
+      <c r="CK103" s="22"/>
+      <c r="CL103" s="22">
         <v>2022</v>
       </c>
+      <c r="CM103" s="22"/>
     </row>
-    <row r="104" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -33699,16 +33626,16 @@
       <c r="BU104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV104" s="18" t="s">
+      <c r="BV104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW104" s="18" t="s">
+      <c r="BW104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX104" s="18" t="s">
+      <c r="BX104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY104" s="18" t="s">
+      <c r="BY104" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ104" s="6" t="s">
@@ -33750,11 +33677,14 @@
       <c r="CL104" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM104" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
@@ -33974,16 +33904,16 @@
       <c r="BU106" s="12">
         <v>53.613415284160894</v>
       </c>
-      <c r="BV106" s="24">
+      <c r="BV106" s="12">
         <v>52.728388943525296</v>
       </c>
-      <c r="BW106" s="24">
+      <c r="BW106" s="12">
         <v>55.29829222129711</v>
       </c>
-      <c r="BX106" s="24">
+      <c r="BX106" s="12">
         <v>56.278215988133965</v>
       </c>
-      <c r="BY106" s="24">
+      <c r="BY106" s="12">
         <v>54.495028116848012</v>
       </c>
       <c r="BZ106" s="12">
@@ -34023,9 +33953,11 @@
         <v>48.059138135963934</v>
       </c>
       <c r="CL106" s="12">
-        <v>49.231206650876864</v>
-      </c>
-      <c r="CM106" s="11"/>
+        <v>48.217030867477916</v>
+      </c>
+      <c r="CM106" s="12">
+        <v>47.585596451846847</v>
+      </c>
       <c r="CN106" s="11"/>
       <c r="CO106" s="11"/>
       <c r="CP106" s="11"/>
@@ -34087,7 +34019,7 @@
       <c r="ET106" s="11"/>
       <c r="EU106" s="11"/>
     </row>
-    <row r="107" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -34307,16 +34239,16 @@
       <c r="BU107" s="12">
         <v>46.386584715839113</v>
       </c>
-      <c r="BV107" s="24">
+      <c r="BV107" s="12">
         <v>47.271611056474718</v>
       </c>
-      <c r="BW107" s="24">
+      <c r="BW107" s="12">
         <v>44.701707778702904</v>
       </c>
-      <c r="BX107" s="24">
+      <c r="BX107" s="12">
         <v>43.721784011866028</v>
       </c>
-      <c r="BY107" s="24">
+      <c r="BY107" s="12">
         <v>45.504971883152002</v>
       </c>
       <c r="BZ107" s="12">
@@ -34356,9 +34288,11 @@
         <v>51.940861864036059</v>
       </c>
       <c r="CL107" s="12">
-        <v>50.768793349123129</v>
-      </c>
-      <c r="CM107" s="11"/>
+        <v>51.782969132522069</v>
+      </c>
+      <c r="CM107" s="12">
+        <v>52.414403548153153</v>
+      </c>
       <c r="CN107" s="11"/>
       <c r="CO107" s="11"/>
       <c r="CP107" s="11"/>
@@ -34420,7 +34354,7 @@
       <c r="ET107" s="11"/>
       <c r="EU107" s="11"/>
     </row>
-    <row r="108" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -34493,10 +34427,10 @@
       <c r="BS108" s="11"/>
       <c r="BT108" s="11"/>
       <c r="BU108" s="11"/>
-      <c r="BV108" s="20"/>
-      <c r="BW108" s="20"/>
-      <c r="BX108" s="20"/>
-      <c r="BY108" s="20"/>
+      <c r="BV108" s="11"/>
+      <c r="BW108" s="11"/>
+      <c r="BX108" s="11"/>
+      <c r="BY108" s="11"/>
       <c r="BZ108" s="11"/>
       <c r="CA108" s="11"/>
       <c r="CB108" s="11"/>
@@ -34572,7 +34506,7 @@
       <c r="ET108" s="11"/>
       <c r="EU108" s="11"/>
     </row>
-    <row r="109" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>13</v>
       </c>
@@ -34792,16 +34726,16 @@
       <c r="BU109" s="12">
         <v>100</v>
       </c>
-      <c r="BV109" s="24">
+      <c r="BV109" s="12">
         <v>100</v>
       </c>
-      <c r="BW109" s="24">
+      <c r="BW109" s="12">
         <v>100</v>
       </c>
-      <c r="BX109" s="24">
+      <c r="BX109" s="12">
         <v>100</v>
       </c>
-      <c r="BY109" s="24">
+      <c r="BY109" s="12">
         <v>100</v>
       </c>
       <c r="BZ109" s="12">
@@ -34843,7 +34777,9 @@
       <c r="CL109" s="12">
         <v>100</v>
       </c>
-      <c r="CM109" s="11"/>
+      <c r="CM109" s="12">
+        <v>100</v>
+      </c>
       <c r="CN109" s="11"/>
       <c r="CO109" s="11"/>
       <c r="CP109" s="11"/>
@@ -34905,7 +34841,7 @@
       <c r="ET109" s="11"/>
       <c r="EU109" s="11"/>
     </row>
-    <row r="110" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -34979,10 +34915,10 @@
       <c r="BS110" s="9"/>
       <c r="BT110" s="9"/>
       <c r="BU110" s="9"/>
-      <c r="BV110" s="22"/>
-      <c r="BW110" s="22"/>
-      <c r="BX110" s="22"/>
-      <c r="BY110" s="22"/>
+      <c r="BV110" s="9"/>
+      <c r="BW110" s="9"/>
+      <c r="BX110" s="9"/>
+      <c r="BY110" s="9"/>
       <c r="BZ110" s="9"/>
       <c r="CA110" s="9"/>
       <c r="CB110" s="9"/>
@@ -34996,13 +34932,14 @@
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
       <c r="CL110" s="9"/>
+      <c r="CM110" s="9"/>
     </row>
-    <row r="111" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -35075,10 +35012,10 @@
       <c r="BS112" s="11"/>
       <c r="BT112" s="11"/>
       <c r="BU112" s="11"/>
-      <c r="BV112" s="20"/>
-      <c r="BW112" s="20"/>
-      <c r="BX112" s="20"/>
-      <c r="BY112" s="20"/>
+      <c r="BV112" s="11"/>
+      <c r="BW112" s="11"/>
+      <c r="BX112" s="11"/>
+      <c r="BY112" s="11"/>
       <c r="BZ112" s="11"/>
       <c r="CA112" s="11"/>
       <c r="CB112" s="11"/>
@@ -35154,7 +35091,7 @@
       <c r="ET112" s="11"/>
       <c r="EU112" s="11"/>
     </row>
-    <row r="113" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -35227,10 +35164,10 @@
       <c r="BS113" s="11"/>
       <c r="BT113" s="11"/>
       <c r="BU113" s="11"/>
-      <c r="BV113" s="20"/>
-      <c r="BW113" s="20"/>
-      <c r="BX113" s="20"/>
-      <c r="BY113" s="20"/>
+      <c r="BV113" s="11"/>
+      <c r="BW113" s="11"/>
+      <c r="BX113" s="11"/>
+      <c r="BY113" s="11"/>
       <c r="BZ113" s="11"/>
       <c r="CA113" s="11"/>
       <c r="CB113" s="11"/>
@@ -35306,175 +35243,176 @@
       <c r="ET113" s="11"/>
       <c r="EU113" s="11"/>
     </row>
-    <row r="114" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="26">
+      <c r="B122" s="22">
         <v>2000</v>
       </c>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="26">
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="22">
         <v>2001</v>
       </c>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="26">
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="22">
         <v>2002</v>
       </c>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="26">
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="22">
         <v>2003</v>
       </c>
-      <c r="O122" s="27"/>
-      <c r="P122" s="27"/>
-      <c r="Q122" s="27"/>
-      <c r="R122" s="26">
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="22">
         <v>2004</v>
       </c>
-      <c r="S122" s="27"/>
-      <c r="T122" s="27"/>
-      <c r="U122" s="27"/>
-      <c r="V122" s="26">
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="22">
         <v>2005</v>
       </c>
-      <c r="W122" s="27"/>
-      <c r="X122" s="27"/>
-      <c r="Y122" s="27"/>
-      <c r="Z122" s="26">
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="22">
         <v>2006</v>
       </c>
-      <c r="AA122" s="27"/>
-      <c r="AB122" s="27"/>
-      <c r="AC122" s="27"/>
-      <c r="AD122" s="26">
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="22">
         <v>2007</v>
       </c>
-      <c r="AE122" s="27"/>
-      <c r="AF122" s="27"/>
-      <c r="AG122" s="27"/>
-      <c r="AH122" s="26">
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="22">
         <v>2008</v>
       </c>
-      <c r="AI122" s="27"/>
-      <c r="AJ122" s="27"/>
-      <c r="AK122" s="27"/>
-      <c r="AL122" s="26">
+      <c r="AI122" s="24"/>
+      <c r="AJ122" s="24"/>
+      <c r="AK122" s="24"/>
+      <c r="AL122" s="22">
         <v>2009</v>
       </c>
-      <c r="AM122" s="27"/>
-      <c r="AN122" s="27"/>
-      <c r="AO122" s="27"/>
-      <c r="AP122" s="26">
+      <c r="AM122" s="24"/>
+      <c r="AN122" s="24"/>
+      <c r="AO122" s="24"/>
+      <c r="AP122" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="27"/>
-      <c r="AR122" s="27"/>
-      <c r="AS122" s="27"/>
-      <c r="AT122" s="26">
+      <c r="AQ122" s="24"/>
+      <c r="AR122" s="24"/>
+      <c r="AS122" s="24"/>
+      <c r="AT122" s="22">
         <v>2011</v>
       </c>
-      <c r="AU122" s="27"/>
-      <c r="AV122" s="27"/>
-      <c r="AW122" s="27"/>
-      <c r="AX122" s="26">
+      <c r="AU122" s="24"/>
+      <c r="AV122" s="24"/>
+      <c r="AW122" s="24"/>
+      <c r="AX122" s="22">
         <v>2012</v>
       </c>
-      <c r="AY122" s="27"/>
-      <c r="AZ122" s="27"/>
-      <c r="BA122" s="27"/>
-      <c r="BB122" s="26">
+      <c r="AY122" s="24"/>
+      <c r="AZ122" s="24"/>
+      <c r="BA122" s="24"/>
+      <c r="BB122" s="22">
         <v>2013</v>
       </c>
-      <c r="BC122" s="27"/>
-      <c r="BD122" s="27"/>
-      <c r="BE122" s="27"/>
-      <c r="BF122" s="26">
+      <c r="BC122" s="24"/>
+      <c r="BD122" s="24"/>
+      <c r="BE122" s="24"/>
+      <c r="BF122" s="22">
         <v>2014</v>
       </c>
-      <c r="BG122" s="27"/>
-      <c r="BH122" s="27"/>
-      <c r="BI122" s="27"/>
-      <c r="BJ122" s="26">
+      <c r="BG122" s="24"/>
+      <c r="BH122" s="24"/>
+      <c r="BI122" s="24"/>
+      <c r="BJ122" s="22">
         <v>2015</v>
       </c>
-      <c r="BK122" s="27"/>
-      <c r="BL122" s="27"/>
-      <c r="BM122" s="27"/>
-      <c r="BN122" s="26">
+      <c r="BK122" s="24"/>
+      <c r="BL122" s="24"/>
+      <c r="BM122" s="24"/>
+      <c r="BN122" s="22">
         <v>2016</v>
       </c>
-      <c r="BO122" s="27"/>
-      <c r="BP122" s="27"/>
-      <c r="BQ122" s="27"/>
-      <c r="BR122" s="26">
+      <c r="BO122" s="24"/>
+      <c r="BP122" s="24"/>
+      <c r="BQ122" s="24"/>
+      <c r="BR122" s="22">
         <v>2017</v>
       </c>
-      <c r="BS122" s="27"/>
-      <c r="BT122" s="27"/>
-      <c r="BU122" s="27"/>
-      <c r="BV122" s="29">
+      <c r="BS122" s="24"/>
+      <c r="BT122" s="24"/>
+      <c r="BU122" s="24"/>
+      <c r="BV122" s="22">
         <v>2018</v>
       </c>
-      <c r="BW122" s="30"/>
-      <c r="BX122" s="30"/>
-      <c r="BY122" s="30"/>
-      <c r="BZ122" s="26">
+      <c r="BW122" s="24"/>
+      <c r="BX122" s="24"/>
+      <c r="BY122" s="24"/>
+      <c r="BZ122" s="22">
         <v>2019</v>
       </c>
-      <c r="CA122" s="27"/>
-      <c r="CB122" s="27"/>
-      <c r="CC122" s="27"/>
-      <c r="CD122" s="26">
+      <c r="CA122" s="24"/>
+      <c r="CB122" s="24"/>
+      <c r="CC122" s="24"/>
+      <c r="CD122" s="22">
         <v>2020</v>
       </c>
-      <c r="CE122" s="26"/>
-      <c r="CF122" s="26"/>
-      <c r="CG122" s="26"/>
-      <c r="CH122" s="26">
+      <c r="CE122" s="24"/>
+      <c r="CF122" s="24"/>
+      <c r="CG122" s="24"/>
+      <c r="CH122" s="22">
         <v>2021</v>
       </c>
-      <c r="CI122" s="26"/>
-      <c r="CJ122" s="26"/>
-      <c r="CK122" s="26"/>
-      <c r="CL122" s="25">
+      <c r="CI122" s="22"/>
+      <c r="CJ122" s="22"/>
+      <c r="CK122" s="22"/>
+      <c r="CL122" s="22">
         <v>2022</v>
       </c>
+      <c r="CM122" s="22"/>
     </row>
-    <row r="123" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -35694,16 +35632,16 @@
       <c r="BU123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV123" s="18" t="s">
+      <c r="BV123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW123" s="18" t="s">
+      <c r="BW123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX123" s="18" t="s">
+      <c r="BX123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY123" s="18" t="s">
+      <c r="BY123" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ123" s="6" t="s">
@@ -35745,11 +35683,14 @@
       <c r="CL123" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM123" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>11</v>
       </c>
@@ -35969,16 +35910,16 @@
       <c r="BU125" s="12">
         <v>54.009993589056279</v>
       </c>
-      <c r="BV125" s="24">
+      <c r="BV125" s="12">
         <v>52.620546915801512</v>
       </c>
-      <c r="BW125" s="24">
+      <c r="BW125" s="12">
         <v>55.286731122894494</v>
       </c>
-      <c r="BX125" s="24">
+      <c r="BX125" s="12">
         <v>56.645631719093068</v>
       </c>
-      <c r="BY125" s="24">
+      <c r="BY125" s="12">
         <v>54.249495604095287</v>
       </c>
       <c r="BZ125" s="12">
@@ -36018,9 +35959,11 @@
         <v>47.49738539006951</v>
       </c>
       <c r="CL125" s="12">
-        <v>47.851344563640673</v>
-      </c>
-      <c r="CM125" s="11"/>
+        <v>46.839368870727256</v>
+      </c>
+      <c r="CM125" s="12">
+        <v>46.293929269810278</v>
+      </c>
       <c r="CN125" s="11"/>
       <c r="CO125" s="11"/>
       <c r="CP125" s="11"/>
@@ -36082,7 +36025,7 @@
       <c r="ET125" s="11"/>
       <c r="EU125" s="11"/>
     </row>
-    <row r="126" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -36302,16 +36245,16 @@
       <c r="BU126" s="12">
         <v>45.990006410943728</v>
       </c>
-      <c r="BV126" s="24">
+      <c r="BV126" s="12">
         <v>47.379453084198488</v>
       </c>
-      <c r="BW126" s="24">
+      <c r="BW126" s="12">
         <v>44.713268877105492</v>
       </c>
-      <c r="BX126" s="24">
+      <c r="BX126" s="12">
         <v>43.354368280906918</v>
       </c>
-      <c r="BY126" s="24">
+      <c r="BY126" s="12">
         <v>45.750504395904713</v>
       </c>
       <c r="BZ126" s="12">
@@ -36351,9 +36294,11 @@
         <v>52.502614609930497</v>
       </c>
       <c r="CL126" s="12">
-        <v>52.148655436359327</v>
-      </c>
-      <c r="CM126" s="11"/>
+        <v>53.160631129272737</v>
+      </c>
+      <c r="CM126" s="12">
+        <v>53.706070730189722</v>
+      </c>
       <c r="CN126" s="11"/>
       <c r="CO126" s="11"/>
       <c r="CP126" s="11"/>
@@ -36415,7 +36360,7 @@
       <c r="ET126" s="11"/>
       <c r="EU126" s="11"/>
     </row>
-    <row r="127" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -36488,10 +36433,10 @@
       <c r="BS127" s="11"/>
       <c r="BT127" s="11"/>
       <c r="BU127" s="11"/>
-      <c r="BV127" s="20"/>
-      <c r="BW127" s="20"/>
-      <c r="BX127" s="20"/>
-      <c r="BY127" s="20"/>
+      <c r="BV127" s="11"/>
+      <c r="BW127" s="11"/>
+      <c r="BX127" s="11"/>
+      <c r="BY127" s="11"/>
       <c r="BZ127" s="11"/>
       <c r="CA127" s="11"/>
       <c r="CB127" s="11"/>
@@ -36567,7 +36512,7 @@
       <c r="ET127" s="11"/>
       <c r="EU127" s="11"/>
     </row>
-    <row r="128" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>13</v>
       </c>
@@ -36787,16 +36732,16 @@
       <c r="BU128" s="12">
         <v>100</v>
       </c>
-      <c r="BV128" s="24">
+      <c r="BV128" s="12">
         <v>100</v>
       </c>
-      <c r="BW128" s="24">
+      <c r="BW128" s="12">
         <v>100</v>
       </c>
-      <c r="BX128" s="24">
+      <c r="BX128" s="12">
         <v>100</v>
       </c>
-      <c r="BY128" s="24">
+      <c r="BY128" s="12">
         <v>100</v>
       </c>
       <c r="BZ128" s="12">
@@ -36838,7 +36783,9 @@
       <c r="CL128" s="12">
         <v>100</v>
       </c>
-      <c r="CM128" s="11"/>
+      <c r="CM128" s="12">
+        <v>100</v>
+      </c>
       <c r="CN128" s="11"/>
       <c r="CO128" s="11"/>
       <c r="CP128" s="11"/>
@@ -36900,7 +36847,7 @@
       <c r="ET128" s="11"/>
       <c r="EU128" s="11"/>
     </row>
-    <row r="129" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -36974,10 +36921,10 @@
       <c r="BS129" s="9"/>
       <c r="BT129" s="9"/>
       <c r="BU129" s="9"/>
-      <c r="BV129" s="22"/>
-      <c r="BW129" s="22"/>
-      <c r="BX129" s="22"/>
-      <c r="BY129" s="22"/>
+      <c r="BV129" s="9"/>
+      <c r="BW129" s="9"/>
+      <c r="BX129" s="9"/>
+      <c r="BY129" s="9"/>
       <c r="BZ129" s="9"/>
       <c r="CA129" s="9"/>
       <c r="CB129" s="9"/>
@@ -36991,13 +36938,14 @@
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
       <c r="CL129" s="9"/>
+      <c r="CM129" s="9"/>
     </row>
-    <row r="130" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:151" s="14" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:151" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -37071,24 +37019,24 @@
       <c r="BS131" s="13"/>
       <c r="BT131" s="13"/>
       <c r="BU131" s="13"/>
-      <c r="BV131" s="17"/>
-      <c r="BW131" s="17"/>
-      <c r="BX131" s="17"/>
-      <c r="BY131" s="17"/>
+      <c r="BV131" s="3"/>
+      <c r="BW131" s="3"/>
+      <c r="BX131" s="3"/>
+      <c r="BY131" s="3"/>
       <c r="BZ131" s="3"/>
       <c r="CA131" s="3"/>
       <c r="CB131" s="3"/>
       <c r="CC131" s="3"/>
-      <c r="CD131" s="13"/>
-      <c r="CE131" s="13"/>
-      <c r="CF131" s="13"/>
-      <c r="CG131" s="13"/>
-      <c r="CH131" s="13"/>
-      <c r="CI131" s="13"/>
-      <c r="CJ131" s="13"/>
-      <c r="CK131" s="13"/>
-      <c r="CL131" s="13"/>
-      <c r="CM131" s="13"/>
+      <c r="CD131" s="3"/>
+      <c r="CE131" s="3"/>
+      <c r="CF131" s="3"/>
+      <c r="CG131" s="3"/>
+      <c r="CH131" s="3"/>
+      <c r="CI131" s="3"/>
+      <c r="CJ131" s="3"/>
+      <c r="CK131" s="3"/>
+      <c r="CL131" s="3"/>
+      <c r="CM131" s="3"/>
       <c r="CN131" s="13"/>
       <c r="CO131" s="13"/>
       <c r="CP131" s="13"/>
@@ -37150,7 +37098,7 @@
       <c r="ET131" s="13"/>
       <c r="EU131" s="13"/>
     </row>
-    <row r="132" spans="1:151" s="14" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:151" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -37224,24 +37172,24 @@
       <c r="BS132" s="13"/>
       <c r="BT132" s="13"/>
       <c r="BU132" s="13"/>
-      <c r="BV132" s="17"/>
-      <c r="BW132" s="17"/>
-      <c r="BX132" s="17"/>
-      <c r="BY132" s="17"/>
+      <c r="BV132" s="3"/>
+      <c r="BW132" s="3"/>
+      <c r="BX132" s="3"/>
+      <c r="BY132" s="3"/>
       <c r="BZ132" s="3"/>
       <c r="CA132" s="3"/>
       <c r="CB132" s="3"/>
       <c r="CC132" s="3"/>
-      <c r="CD132" s="13"/>
-      <c r="CE132" s="13"/>
-      <c r="CF132" s="13"/>
-      <c r="CG132" s="13"/>
-      <c r="CH132" s="13"/>
-      <c r="CI132" s="13"/>
-      <c r="CJ132" s="13"/>
-      <c r="CK132" s="13"/>
-      <c r="CL132" s="13"/>
-      <c r="CM132" s="13"/>
+      <c r="CD132" s="3"/>
+      <c r="CE132" s="3"/>
+      <c r="CF132" s="3"/>
+      <c r="CG132" s="3"/>
+      <c r="CH132" s="3"/>
+      <c r="CI132" s="3"/>
+      <c r="CJ132" s="3"/>
+      <c r="CK132" s="3"/>
+      <c r="CL132" s="3"/>
+      <c r="CM132" s="3"/>
       <c r="CN132" s="13"/>
       <c r="CO132" s="13"/>
       <c r="CP132" s="13"/>
@@ -37304,7 +37252,7 @@
       <c r="EU132" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="159">
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="BV47:BY47"/>
     <mergeCell ref="BR47:BU47"/>
@@ -37329,12 +37277,6 @@
     <mergeCell ref="BV28:BY28"/>
     <mergeCell ref="BR66:BU66"/>
     <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="AP28:AS28"/>
     <mergeCell ref="AT28:AW28"/>
     <mergeCell ref="AX28:BA28"/>
@@ -37345,8 +37287,23 @@
     <mergeCell ref="AP47:AS47"/>
     <mergeCell ref="AT47:AW47"/>
     <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -37358,15 +37315,6 @@
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
@@ -37387,10 +37335,10 @@
     <mergeCell ref="BF66:BI66"/>
     <mergeCell ref="N66:Q66"/>
     <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="B103:E103"/>
     <mergeCell ref="F103:I103"/>
     <mergeCell ref="J103:M103"/>
@@ -37404,16 +37352,8 @@
     <mergeCell ref="F84:I84"/>
     <mergeCell ref="J84:M84"/>
     <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="AH84:AK84"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -37423,49 +37363,64 @@
     <mergeCell ref="Z122:AC122"/>
     <mergeCell ref="AD122:AG122"/>
     <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
     <mergeCell ref="AT122:AW122"/>
     <mergeCell ref="AX122:BA122"/>
     <mergeCell ref="BB122:BE122"/>
     <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AX66:BA66"/>
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AT66:AW66"/>
     <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL28:CM28"/>
+    <mergeCell ref="CH47:CI47"/>
+    <mergeCell ref="CH66:CI66"/>
+    <mergeCell ref="CL84:CM84"/>
+    <mergeCell ref="CL103:CM103"/>
+    <mergeCell ref="CL122:CM122"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="91" man="1"/>
-    <brk id="76" max="91" man="1"/>
-    <brk id="94" max="91" man="1"/>
+    <brk id="38" max="90" man="1"/>
+    <brk id="76" max="90" man="1"/>
+    <brk id="94" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E3D229-FF97-4AAE-9393-BACD97532A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D6DEF-1715-44AC-AA62-1B74F382643C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CM$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CN$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -629,10 +629,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -706,11 +706,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -731,27 +731,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23617,186 +23611,187 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
-    <col min="2" max="91" width="8.36328125" style="3" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="3"/>
+    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
+    <col min="2" max="92" width="8.33203125" style="3" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24070,11 +24065,14 @@
       <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -24346,9 +24344,11 @@
         <v>143436.29439306865</v>
       </c>
       <c r="CM12" s="15">
-        <v>141905.18180495873</v>
-      </c>
-      <c r="CN12" s="11"/>
+        <v>143353.08136227759</v>
+      </c>
+      <c r="CN12" s="15">
+        <v>161717.77018111869</v>
+      </c>
       <c r="CO12" s="11"/>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
@@ -24409,7 +24409,7 @@
       <c r="ET12" s="11"/>
       <c r="EU12" s="11"/>
     </row>
-    <row r="13" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -24681,9 +24681,11 @@
         <v>154044.26758366541</v>
       </c>
       <c r="CM13" s="15">
-        <v>156305.18516723299</v>
-      </c>
-      <c r="CN13" s="11"/>
+        <v>156325.11835471363</v>
+      </c>
+      <c r="CN13" s="15">
+        <v>160067.57562560446</v>
+      </c>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
@@ -24744,7 +24746,7 @@
       <c r="ET13" s="11"/>
       <c r="EU13" s="11"/>
     </row>
-    <row r="14" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -24896,7 +24898,7 @@
       <c r="ET14" s="11"/>
       <c r="EU14" s="11"/>
     </row>
-    <row r="15" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -25168,9 +25170,11 @@
         <v>297480.56197673408</v>
       </c>
       <c r="CM15" s="16">
-        <v>298210.36697219172</v>
-      </c>
-      <c r="CN15" s="11"/>
+        <v>299678.19971699122</v>
+      </c>
+      <c r="CN15" s="16">
+        <v>321785.34580672311</v>
+      </c>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
@@ -25231,7 +25235,7 @@
       <c r="ET15" s="11"/>
       <c r="EU15" s="11"/>
     </row>
-    <row r="16" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -25323,13 +25327,14 @@
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
     </row>
-    <row r="17" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -25481,7 +25486,7 @@
       <c r="ET18" s="11"/>
       <c r="EU18" s="11"/>
     </row>
-    <row r="19" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -25633,176 +25638,177 @@
       <c r="ET19" s="11"/>
       <c r="EU19" s="11"/>
     </row>
-    <row r="20" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <v>2000</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="22">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20">
         <v>2001</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="22">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20">
         <v>2002</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="22">
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="20">
         <v>2003</v>
       </c>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="22">
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20">
         <v>2004</v>
       </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="22">
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="20">
         <v>2005</v>
       </c>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="22">
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="20">
         <v>2006</v>
       </c>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="22">
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="20">
         <v>2007</v>
       </c>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="22">
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="20">
         <v>2008</v>
       </c>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="22">
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="20">
         <v>2009</v>
       </c>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="22">
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="22">
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="20">
         <v>2011</v>
       </c>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="22">
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="20">
         <v>2012</v>
       </c>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="24"/>
-      <c r="BB28" s="22">
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="20">
         <v>2013</v>
       </c>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="22">
+      <c r="BC28" s="21"/>
+      <c r="BD28" s="21"/>
+      <c r="BE28" s="21"/>
+      <c r="BF28" s="20">
         <v>2014</v>
       </c>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="24"/>
-      <c r="BI28" s="24"/>
-      <c r="BJ28" s="22">
+      <c r="BG28" s="21"/>
+      <c r="BH28" s="21"/>
+      <c r="BI28" s="21"/>
+      <c r="BJ28" s="20">
         <v>2015</v>
       </c>
-      <c r="BK28" s="24"/>
-      <c r="BL28" s="24"/>
-      <c r="BM28" s="24"/>
-      <c r="BN28" s="22">
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="21"/>
+      <c r="BM28" s="21"/>
+      <c r="BN28" s="20">
         <v>2016</v>
       </c>
-      <c r="BO28" s="24"/>
-      <c r="BP28" s="24"/>
-      <c r="BQ28" s="24"/>
-      <c r="BR28" s="22">
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="20">
         <v>2017</v>
       </c>
-      <c r="BS28" s="24"/>
-      <c r="BT28" s="24"/>
-      <c r="BU28" s="24"/>
-      <c r="BV28" s="22">
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="20">
         <v>2018</v>
       </c>
-      <c r="BW28" s="24"/>
-      <c r="BX28" s="24"/>
-      <c r="BY28" s="24"/>
-      <c r="BZ28" s="22">
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="20">
         <v>2019</v>
       </c>
-      <c r="CA28" s="24"/>
-      <c r="CB28" s="24"/>
-      <c r="CC28" s="24"/>
-      <c r="CD28" s="22">
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="20">
         <v>2020</v>
       </c>
-      <c r="CE28" s="24"/>
-      <c r="CF28" s="24"/>
-      <c r="CG28" s="24"/>
-      <c r="CH28" s="22">
+      <c r="CE28" s="21"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" s="20">
         <v>2021</v>
       </c>
-      <c r="CI28" s="22"/>
-      <c r="CJ28" s="22"/>
-      <c r="CK28" s="22"/>
-      <c r="CL28" s="22">
+      <c r="CI28" s="20"/>
+      <c r="CJ28" s="20"/>
+      <c r="CK28" s="20"/>
+      <c r="CL28" s="20">
         <v>2022</v>
       </c>
-      <c r="CM28" s="22"/>
+      <c r="CM28" s="20"/>
+      <c r="CN28" s="20"/>
     </row>
-    <row r="29" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -26076,11 +26082,14 @@
       <c r="CM29" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN29" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -26352,9 +26361,11 @@
         <v>125965.53312470275</v>
       </c>
       <c r="CM31" s="15">
-        <v>124248.10931907622</v>
-      </c>
-      <c r="CN31" s="11"/>
+        <v>125520.1662002455</v>
+      </c>
+      <c r="CN31" s="15">
+        <v>141067.84170305071</v>
+      </c>
       <c r="CO31" s="11"/>
       <c r="CP31" s="11"/>
       <c r="CQ31" s="11"/>
@@ -26415,7 +26426,7 @@
       <c r="ET31" s="11"/>
       <c r="EU31" s="11"/>
     </row>
-    <row r="32" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -26689,7 +26700,9 @@
       <c r="CM32" s="15">
         <v>144141.52897438855</v>
       </c>
-      <c r="CN32" s="11"/>
+      <c r="CN32" s="15">
+        <v>144416.5673826391</v>
+      </c>
       <c r="CO32" s="11"/>
       <c r="CP32" s="11"/>
       <c r="CQ32" s="11"/>
@@ -26750,7 +26763,7 @@
       <c r="ET32" s="11"/>
       <c r="EU32" s="11"/>
     </row>
-    <row r="33" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -26902,7 +26915,7 @@
       <c r="ET33" s="11"/>
       <c r="EU33" s="11"/>
     </row>
-    <row r="34" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
@@ -27174,9 +27187,11 @@
         <v>268930.89330976491</v>
       </c>
       <c r="CM34" s="16">
-        <v>268389.63829346478</v>
-      </c>
-      <c r="CN34" s="11"/>
+        <v>269661.69517463405</v>
+      </c>
+      <c r="CN34" s="16">
+        <v>285484.40908568981</v>
+      </c>
       <c r="CO34" s="11"/>
       <c r="CP34" s="11"/>
       <c r="CQ34" s="11"/>
@@ -27237,7 +27252,7 @@
       <c r="ET34" s="11"/>
       <c r="EU34" s="11"/>
     </row>
-    <row r="35" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -27329,13 +27344,14 @@
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
+      <c r="CN35" s="9"/>
     </row>
-    <row r="36" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -27487,7 +27503,7 @@
       <c r="ET37" s="11"/>
       <c r="EU37" s="11"/>
     </row>
-    <row r="38" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -27639,174 +27655,175 @@
       <c r="ET38" s="11"/>
       <c r="EU38" s="11"/>
     </row>
-    <row r="39" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22" t="s">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22" t="s">
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22" t="s">
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22" t="s">
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22" t="s">
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22" t="s">
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22" t="s">
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22" t="s">
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22" t="s">
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22" t="s">
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22" t="s">
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="20"/>
+      <c r="BA47" s="20"/>
+      <c r="BB47" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22" t="s">
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="20"/>
+      <c r="BE47" s="20"/>
+      <c r="BF47" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22" t="s">
+      <c r="BG47" s="20"/>
+      <c r="BH47" s="20"/>
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22" t="s">
+      <c r="BK47" s="20"/>
+      <c r="BL47" s="20"/>
+      <c r="BM47" s="20"/>
+      <c r="BN47" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22" t="s">
+      <c r="BO47" s="20"/>
+      <c r="BP47" s="20"/>
+      <c r="BQ47" s="20"/>
+      <c r="BR47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22" t="s">
+      <c r="BS47" s="20"/>
+      <c r="BT47" s="20"/>
+      <c r="BU47" s="20"/>
+      <c r="BV47" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22" t="s">
+      <c r="BW47" s="20"/>
+      <c r="BX47" s="20"/>
+      <c r="BY47" s="20"/>
+      <c r="BZ47" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22" t="s">
+      <c r="CA47" s="20"/>
+      <c r="CB47" s="20"/>
+      <c r="CC47" s="20"/>
+      <c r="CD47" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="22"/>
-      <c r="CF47" s="22"/>
-      <c r="CG47" s="22"/>
-      <c r="CH47" s="22" t="s">
+      <c r="CE47" s="20"/>
+      <c r="CF47" s="20"/>
+      <c r="CG47" s="20"/>
+      <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="22"/>
+      <c r="CI47" s="20"/>
       <c r="CJ47" s="20"/>
-      <c r="CK47" s="20"/>
-      <c r="CL47" s="19"/>
-      <c r="CM47" s="19"/>
+      <c r="CK47" s="19"/>
+      <c r="CL47" s="20"/>
+      <c r="CM47" s="20"/>
+      <c r="CN47" s="19"/>
     </row>
-    <row r="48" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -28068,15 +28085,18 @@
       <c r="CI48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ48" s="5"/>
+      <c r="CJ48" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK48" s="5"/>
       <c r="CL48" s="5"/>
-      <c r="CM48" s="21"/>
+      <c r="CM48" s="5"/>
+      <c r="CN48" s="5"/>
     </row>
-    <row r="49" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -28336,13 +28356,15 @@
         <v>15.466196015240513</v>
       </c>
       <c r="CI50" s="12">
-        <v>12.937920429493062</v>
-      </c>
-      <c r="CJ50" s="12"/>
+        <v>14.090258652202436</v>
+      </c>
+      <c r="CJ50" s="12">
+        <v>12.260267849507869</v>
+      </c>
       <c r="CK50" s="12"/>
       <c r="CL50" s="12"/>
-      <c r="CM50" s="11"/>
-      <c r="CN50" s="11"/>
+      <c r="CM50" s="12"/>
+      <c r="CN50" s="12"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
@@ -28399,7 +28421,7 @@
       <c r="EP50" s="11"/>
       <c r="EQ50" s="11"/>
     </row>
-    <row r="51" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -28659,13 +28681,15 @@
         <v>2.2838921682917288</v>
       </c>
       <c r="CI51" s="12">
-        <v>2.4905148435179711</v>
-      </c>
-      <c r="CJ51" s="12"/>
+        <v>2.5035851882104794</v>
+      </c>
+      <c r="CJ51" s="12">
+        <v>4.0552138041836088</v>
+      </c>
       <c r="CK51" s="12"/>
       <c r="CL51" s="12"/>
-      <c r="CM51" s="11"/>
-      <c r="CN51" s="11"/>
+      <c r="CM51" s="12"/>
+      <c r="CN51" s="12"/>
       <c r="CO51" s="11"/>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
@@ -28722,7 +28746,7 @@
       <c r="EP51" s="11"/>
       <c r="EQ51" s="11"/>
     </row>
-    <row r="52" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -28871,7 +28895,7 @@
       <c r="EP52" s="11"/>
       <c r="EQ52" s="11"/>
     </row>
-    <row r="53" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>13</v>
       </c>
@@ -29131,13 +29155,15 @@
         <v>8.2423538517311812</v>
       </c>
       <c r="CI53" s="12">
-        <v>7.2098278687646342</v>
-      </c>
-      <c r="CJ53" s="12"/>
+        <v>7.7375294960013719</v>
+      </c>
+      <c r="CJ53" s="12">
+        <v>8.0231406226302511</v>
+      </c>
       <c r="CK53" s="12"/>
       <c r="CL53" s="12"/>
-      <c r="CM53" s="11"/>
-      <c r="CN53" s="11"/>
+      <c r="CM53" s="12"/>
+      <c r="CN53" s="12"/>
       <c r="CO53" s="11"/>
       <c r="CP53" s="11"/>
       <c r="CQ53" s="11"/>
@@ -29194,7 +29220,7 @@
       <c r="EP53" s="11"/>
       <c r="EQ53" s="11"/>
     </row>
-    <row r="54" spans="1:147" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:147" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -29286,13 +29312,14 @@
       <c r="CK54" s="9"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
+      <c r="CN54" s="9"/>
     </row>
-    <row r="55" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -29440,7 +29467,7 @@
       <c r="EP56" s="11"/>
       <c r="EQ56" s="11"/>
     </row>
-    <row r="57" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -29588,174 +29615,175 @@
       <c r="EP57" s="11"/>
       <c r="EQ57" s="11"/>
     </row>
-    <row r="58" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="22" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="22" t="s">
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="22" t="s">
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="22" t="s">
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="22" t="s">
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="22" t="s">
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="22" t="s">
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-      <c r="AG66" s="23"/>
-      <c r="AH66" s="22" t="s">
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="22" t="s">
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="23"/>
-      <c r="AN66" s="23"/>
-      <c r="AO66" s="23"/>
-      <c r="AP66" s="22" t="s">
+      <c r="AM66" s="22"/>
+      <c r="AN66" s="22"/>
+      <c r="AO66" s="22"/>
+      <c r="AP66" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="23"/>
-      <c r="AR66" s="23"/>
-      <c r="AS66" s="23"/>
-      <c r="AT66" s="22" t="s">
+      <c r="AQ66" s="22"/>
+      <c r="AR66" s="22"/>
+      <c r="AS66" s="22"/>
+      <c r="AT66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="23"/>
-      <c r="AV66" s="23"/>
-      <c r="AW66" s="23"/>
-      <c r="AX66" s="22" t="s">
+      <c r="AU66" s="22"/>
+      <c r="AV66" s="22"/>
+      <c r="AW66" s="22"/>
+      <c r="AX66" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="23"/>
-      <c r="AZ66" s="23"/>
-      <c r="BA66" s="23"/>
-      <c r="BB66" s="22" t="s">
+      <c r="AY66" s="22"/>
+      <c r="AZ66" s="22"/>
+      <c r="BA66" s="22"/>
+      <c r="BB66" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="23"/>
-      <c r="BD66" s="23"/>
-      <c r="BE66" s="23"/>
-      <c r="BF66" s="22" t="s">
+      <c r="BC66" s="22"/>
+      <c r="BD66" s="22"/>
+      <c r="BE66" s="22"/>
+      <c r="BF66" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="23"/>
-      <c r="BH66" s="23"/>
-      <c r="BI66" s="23"/>
-      <c r="BJ66" s="22" t="s">
+      <c r="BG66" s="22"/>
+      <c r="BH66" s="22"/>
+      <c r="BI66" s="22"/>
+      <c r="BJ66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="23"/>
-      <c r="BL66" s="23"/>
-      <c r="BM66" s="23"/>
-      <c r="BN66" s="22" t="s">
+      <c r="BK66" s="22"/>
+      <c r="BL66" s="22"/>
+      <c r="BM66" s="22"/>
+      <c r="BN66" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="23"/>
-      <c r="BP66" s="23"/>
-      <c r="BQ66" s="23"/>
-      <c r="BR66" s="22" t="s">
+      <c r="BO66" s="22"/>
+      <c r="BP66" s="22"/>
+      <c r="BQ66" s="22"/>
+      <c r="BR66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="23"/>
-      <c r="BT66" s="23"/>
-      <c r="BU66" s="23"/>
-      <c r="BV66" s="22" t="s">
+      <c r="BS66" s="22"/>
+      <c r="BT66" s="22"/>
+      <c r="BU66" s="22"/>
+      <c r="BV66" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="23"/>
-      <c r="BX66" s="23"/>
-      <c r="BY66" s="23"/>
-      <c r="BZ66" s="22" t="s">
+      <c r="BW66" s="22"/>
+      <c r="BX66" s="22"/>
+      <c r="BY66" s="22"/>
+      <c r="BZ66" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="23"/>
-      <c r="CB66" s="23"/>
-      <c r="CC66" s="23"/>
-      <c r="CD66" s="22" t="s">
+      <c r="CA66" s="22"/>
+      <c r="CB66" s="22"/>
+      <c r="CC66" s="22"/>
+      <c r="CD66" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="23"/>
-      <c r="CF66" s="23"/>
-      <c r="CG66" s="23"/>
-      <c r="CH66" s="22" t="s">
+      <c r="CE66" s="22"/>
+      <c r="CF66" s="22"/>
+      <c r="CG66" s="22"/>
+      <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="22"/>
+      <c r="CI66" s="20"/>
       <c r="CJ66" s="20"/>
-      <c r="CK66" s="20"/>
-      <c r="CL66" s="19"/>
-      <c r="CM66" s="19"/>
+      <c r="CK66" s="19"/>
+      <c r="CL66" s="20"/>
+      <c r="CM66" s="20"/>
+      <c r="CN66" s="19"/>
     </row>
-    <row r="67" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -30017,15 +30045,18 @@
       <c r="CI67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ67" s="5"/>
+      <c r="CJ67" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK67" s="5"/>
       <c r="CL67" s="5"/>
-      <c r="CM67" s="21"/>
+      <c r="CM67" s="5"/>
+      <c r="CN67" s="5"/>
     </row>
-    <row r="68" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>11</v>
       </c>
@@ -30285,13 +30316,15 @@
         <v>11.768712307161124</v>
       </c>
       <c r="CI69" s="12">
-        <v>7.1189918961674294</v>
-      </c>
-      <c r="CJ69" s="12"/>
+        <v>8.2156802199752974</v>
+      </c>
+      <c r="CJ69" s="12">
+        <v>5.0876392816047371</v>
+      </c>
       <c r="CK69" s="12"/>
       <c r="CL69" s="12"/>
-      <c r="CM69" s="11"/>
-      <c r="CN69" s="11"/>
+      <c r="CM69" s="12"/>
+      <c r="CN69" s="12"/>
       <c r="CO69" s="11"/>
       <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
@@ -30348,7 +30381,7 @@
       <c r="EP69" s="11"/>
       <c r="EQ69" s="11"/>
     </row>
-    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>12</v>
       </c>
@@ -30610,11 +30643,13 @@
       <c r="CI70" s="12">
         <v>1.2723659858168617</v>
       </c>
-      <c r="CJ70" s="12"/>
+      <c r="CJ70" s="12">
+        <v>1.2966279808416203</v>
+      </c>
       <c r="CK70" s="12"/>
       <c r="CL70" s="12"/>
-      <c r="CM70" s="11"/>
-      <c r="CN70" s="11"/>
+      <c r="CM70" s="12"/>
+      <c r="CN70" s="12"/>
       <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
@@ -30671,7 +30706,7 @@
       <c r="EP70" s="11"/>
       <c r="EQ70" s="11"/>
     </row>
-    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -30819,7 +30854,7 @@
       <c r="EP71" s="11"/>
       <c r="EQ71" s="11"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>13</v>
       </c>
@@ -31079,13 +31114,15 @@
         <v>5.8744378742099599</v>
       </c>
       <c r="CI72" s="12">
-        <v>3.8976022748186523</v>
-      </c>
-      <c r="CJ72" s="12"/>
+        <v>4.3900343252920777</v>
+      </c>
+      <c r="CJ72" s="12">
+        <v>3.1350937025256229</v>
+      </c>
       <c r="CK72" s="12"/>
       <c r="CL72" s="12"/>
-      <c r="CM72" s="11"/>
-      <c r="CN72" s="11"/>
+      <c r="CM72" s="12"/>
+      <c r="CN72" s="12"/>
       <c r="CO72" s="11"/>
       <c r="CP72" s="11"/>
       <c r="CQ72" s="11"/>
@@ -31142,7 +31179,7 @@
       <c r="EP72" s="11"/>
       <c r="EQ72" s="11"/>
     </row>
-    <row r="73" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -31234,13 +31271,14 @@
       <c r="CK73" s="9"/>
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
+      <c r="CN73" s="9"/>
     </row>
-    <row r="74" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -31388,7 +31426,7 @@
       <c r="EP75" s="11"/>
       <c r="EQ75" s="11"/>
     </row>
-    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -31540,171 +31578,172 @@
       <c r="ET76" s="11"/>
       <c r="EU76" s="11"/>
     </row>
-    <row r="77" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="22">
+      <c r="B84" s="20">
         <v>2000</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="22">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="20">
         <v>2001</v>
       </c>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="22">
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="20">
         <v>2002</v>
       </c>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="22">
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="20">
         <v>2003</v>
       </c>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="22">
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="20">
         <v>2004</v>
       </c>
-      <c r="S84" s="24"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="22">
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="20">
         <v>2005</v>
       </c>
-      <c r="W84" s="24"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="22">
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="20">
         <v>2006</v>
       </c>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="24"/>
-      <c r="AC84" s="24"/>
-      <c r="AD84" s="22">
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="20">
         <v>2007</v>
       </c>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="22">
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="20">
         <v>2008</v>
       </c>
-      <c r="AI84" s="24"/>
-      <c r="AJ84" s="24"/>
-      <c r="AK84" s="24"/>
-      <c r="AL84" s="22">
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
+      <c r="AL84" s="20">
         <v>2009</v>
       </c>
-      <c r="AM84" s="24"/>
-      <c r="AN84" s="24"/>
-      <c r="AO84" s="24"/>
-      <c r="AP84" s="22">
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
+      <c r="AO84" s="21"/>
+      <c r="AP84" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="24"/>
-      <c r="AR84" s="24"/>
-      <c r="AS84" s="24"/>
-      <c r="AT84" s="22">
+      <c r="AQ84" s="21"/>
+      <c r="AR84" s="21"/>
+      <c r="AS84" s="21"/>
+      <c r="AT84" s="20">
         <v>2011</v>
       </c>
-      <c r="AU84" s="24"/>
-      <c r="AV84" s="24"/>
-      <c r="AW84" s="24"/>
-      <c r="AX84" s="22">
+      <c r="AU84" s="21"/>
+      <c r="AV84" s="21"/>
+      <c r="AW84" s="21"/>
+      <c r="AX84" s="20">
         <v>2012</v>
       </c>
-      <c r="AY84" s="24"/>
-      <c r="AZ84" s="24"/>
-      <c r="BA84" s="24"/>
-      <c r="BB84" s="22">
+      <c r="AY84" s="21"/>
+      <c r="AZ84" s="21"/>
+      <c r="BA84" s="21"/>
+      <c r="BB84" s="20">
         <v>2013</v>
       </c>
-      <c r="BC84" s="24"/>
-      <c r="BD84" s="24"/>
-      <c r="BE84" s="24"/>
-      <c r="BF84" s="22">
+      <c r="BC84" s="21"/>
+      <c r="BD84" s="21"/>
+      <c r="BE84" s="21"/>
+      <c r="BF84" s="20">
         <v>2014</v>
       </c>
-      <c r="BG84" s="24"/>
-      <c r="BH84" s="24"/>
-      <c r="BI84" s="24"/>
-      <c r="BJ84" s="22">
+      <c r="BG84" s="21"/>
+      <c r="BH84" s="21"/>
+      <c r="BI84" s="21"/>
+      <c r="BJ84" s="20">
         <v>2015</v>
       </c>
-      <c r="BK84" s="24"/>
-      <c r="BL84" s="24"/>
-      <c r="BM84" s="24"/>
-      <c r="BN84" s="22">
+      <c r="BK84" s="21"/>
+      <c r="BL84" s="21"/>
+      <c r="BM84" s="21"/>
+      <c r="BN84" s="20">
         <v>2016</v>
       </c>
-      <c r="BO84" s="24"/>
-      <c r="BP84" s="24"/>
-      <c r="BQ84" s="24"/>
-      <c r="BR84" s="22">
+      <c r="BO84" s="21"/>
+      <c r="BP84" s="21"/>
+      <c r="BQ84" s="21"/>
+      <c r="BR84" s="20">
         <v>2017</v>
       </c>
-      <c r="BS84" s="24"/>
-      <c r="BT84" s="24"/>
-      <c r="BU84" s="24"/>
-      <c r="BV84" s="22">
+      <c r="BS84" s="21"/>
+      <c r="BT84" s="21"/>
+      <c r="BU84" s="21"/>
+      <c r="BV84" s="20">
         <v>2018</v>
       </c>
-      <c r="BW84" s="24"/>
-      <c r="BX84" s="24"/>
-      <c r="BY84" s="24"/>
-      <c r="BZ84" s="22">
+      <c r="BW84" s="21"/>
+      <c r="BX84" s="21"/>
+      <c r="BY84" s="21"/>
+      <c r="BZ84" s="20">
         <v>2019</v>
       </c>
-      <c r="CA84" s="24"/>
-      <c r="CB84" s="24"/>
-      <c r="CC84" s="24"/>
-      <c r="CD84" s="22">
+      <c r="CA84" s="21"/>
+      <c r="CB84" s="21"/>
+      <c r="CC84" s="21"/>
+      <c r="CD84" s="20">
         <v>2020</v>
       </c>
-      <c r="CE84" s="24"/>
-      <c r="CF84" s="24"/>
-      <c r="CG84" s="24"/>
-      <c r="CH84" s="22">
+      <c r="CE84" s="21"/>
+      <c r="CF84" s="21"/>
+      <c r="CG84" s="21"/>
+      <c r="CH84" s="20">
         <v>2021</v>
       </c>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="22"/>
-      <c r="CL84" s="22">
+      <c r="CI84" s="20"/>
+      <c r="CJ84" s="20"/>
+      <c r="CK84" s="20"/>
+      <c r="CL84" s="20">
         <v>2022</v>
       </c>
-      <c r="CM84" s="22"/>
+      <c r="CM84" s="20"/>
+      <c r="CN84" s="20"/>
     </row>
-    <row r="85" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -31978,11 +32017,14 @@
       <c r="CM85" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN85" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="86" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
@@ -32254,9 +32296,11 @@
         <v>113.86947749514169</v>
       </c>
       <c r="CM87" s="12">
-        <v>114.21113977721637</v>
-      </c>
-      <c r="CN87" s="11"/>
+        <v>114.20721124092745</v>
+      </c>
+      <c r="CN87" s="12">
+        <v>114.63829617634349</v>
+      </c>
       <c r="CO87" s="11"/>
       <c r="CP87" s="11"/>
       <c r="CQ87" s="11"/>
@@ -32317,7 +32361,7 @@
       <c r="ET87" s="11"/>
       <c r="EU87" s="11"/>
     </row>
-    <row r="88" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -32589,9 +32633,11 @@
         <v>107.74936487010709</v>
       </c>
       <c r="CM88" s="12">
-        <v>108.43868958473841</v>
-      </c>
-      <c r="CN88" s="11"/>
+        <v>108.45251848444725</v>
+      </c>
+      <c r="CN88" s="12">
+        <v>110.83740496441604</v>
+      </c>
       <c r="CO88" s="11"/>
       <c r="CP88" s="11"/>
       <c r="CQ88" s="11"/>
@@ -32652,7 +32698,7 @@
       <c r="ET88" s="11"/>
       <c r="EU88" s="11"/>
     </row>
-    <row r="89" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -32804,7 +32850,7 @@
       <c r="ET89" s="11"/>
       <c r="EU89" s="11"/>
     </row>
-    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>13</v>
       </c>
@@ -33076,9 +33122,11 @@
         <v>110.615986997851</v>
       </c>
       <c r="CM90" s="12">
-        <v>111.11098359397917</v>
-      </c>
-      <c r="CN90" s="11"/>
+        <v>111.13117104856822</v>
+      </c>
+      <c r="CN90" s="12">
+        <v>112.71555838628559</v>
+      </c>
       <c r="CO90" s="11"/>
       <c r="CP90" s="11"/>
       <c r="CQ90" s="11"/>
@@ -33139,7 +33187,7 @@
       <c r="ET90" s="11"/>
       <c r="EU90" s="11"/>
     </row>
-    <row r="91" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -33231,182 +33279,184 @@
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
+      <c r="CN91" s="9"/>
     </row>
-    <row r="92" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="22">
+      <c r="B103" s="20">
         <v>2000</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="22">
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="20">
         <v>2001</v>
       </c>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="22">
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="20">
         <v>2002</v>
       </c>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="22">
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="20">
         <v>2003</v>
       </c>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="22">
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="20">
         <v>2004</v>
       </c>
-      <c r="S103" s="24"/>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
-      <c r="V103" s="22">
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="20">
         <v>2005</v>
       </c>
-      <c r="W103" s="24"/>
-      <c r="X103" s="24"/>
-      <c r="Y103" s="24"/>
-      <c r="Z103" s="22">
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="20">
         <v>2006</v>
       </c>
-      <c r="AA103" s="24"/>
-      <c r="AB103" s="24"/>
-      <c r="AC103" s="24"/>
-      <c r="AD103" s="22">
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="20">
         <v>2007</v>
       </c>
-      <c r="AE103" s="24"/>
-      <c r="AF103" s="24"/>
-      <c r="AG103" s="24"/>
-      <c r="AH103" s="22">
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="20">
         <v>2008</v>
       </c>
-      <c r="AI103" s="24"/>
-      <c r="AJ103" s="24"/>
-      <c r="AK103" s="24"/>
-      <c r="AL103" s="22">
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="21"/>
+      <c r="AK103" s="21"/>
+      <c r="AL103" s="20">
         <v>2009</v>
       </c>
-      <c r="AM103" s="24"/>
-      <c r="AN103" s="24"/>
-      <c r="AO103" s="24"/>
-      <c r="AP103" s="22">
+      <c r="AM103" s="21"/>
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="24"/>
-      <c r="AR103" s="24"/>
-      <c r="AS103" s="24"/>
-      <c r="AT103" s="22">
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="21"/>
+      <c r="AT103" s="20">
         <v>2011</v>
       </c>
-      <c r="AU103" s="24"/>
-      <c r="AV103" s="24"/>
-      <c r="AW103" s="24"/>
-      <c r="AX103" s="22">
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="21"/>
+      <c r="AX103" s="20">
         <v>2012</v>
       </c>
-      <c r="AY103" s="24"/>
-      <c r="AZ103" s="24"/>
-      <c r="BA103" s="24"/>
-      <c r="BB103" s="22">
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="21"/>
+      <c r="BA103" s="21"/>
+      <c r="BB103" s="20">
         <v>2013</v>
       </c>
-      <c r="BC103" s="24"/>
-      <c r="BD103" s="24"/>
-      <c r="BE103" s="24"/>
-      <c r="BF103" s="22">
+      <c r="BC103" s="21"/>
+      <c r="BD103" s="21"/>
+      <c r="BE103" s="21"/>
+      <c r="BF103" s="20">
         <v>2014</v>
       </c>
-      <c r="BG103" s="24"/>
-      <c r="BH103" s="24"/>
-      <c r="BI103" s="24"/>
-      <c r="BJ103" s="22">
+      <c r="BG103" s="21"/>
+      <c r="BH103" s="21"/>
+      <c r="BI103" s="21"/>
+      <c r="BJ103" s="20">
         <v>2015</v>
       </c>
-      <c r="BK103" s="24"/>
-      <c r="BL103" s="24"/>
-      <c r="BM103" s="24"/>
-      <c r="BN103" s="22">
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="21"/>
+      <c r="BM103" s="21"/>
+      <c r="BN103" s="20">
         <v>2016</v>
       </c>
-      <c r="BO103" s="24"/>
-      <c r="BP103" s="24"/>
-      <c r="BQ103" s="24"/>
-      <c r="BR103" s="22">
+      <c r="BO103" s="21"/>
+      <c r="BP103" s="21"/>
+      <c r="BQ103" s="21"/>
+      <c r="BR103" s="20">
         <v>2017</v>
       </c>
-      <c r="BS103" s="24"/>
-      <c r="BT103" s="24"/>
-      <c r="BU103" s="24"/>
-      <c r="BV103" s="22">
+      <c r="BS103" s="21"/>
+      <c r="BT103" s="21"/>
+      <c r="BU103" s="21"/>
+      <c r="BV103" s="20">
         <v>2018</v>
       </c>
-      <c r="BW103" s="24"/>
-      <c r="BX103" s="24"/>
-      <c r="BY103" s="24"/>
-      <c r="BZ103" s="22">
+      <c r="BW103" s="21"/>
+      <c r="BX103" s="21"/>
+      <c r="BY103" s="21"/>
+      <c r="BZ103" s="20">
         <v>2019</v>
       </c>
-      <c r="CA103" s="24"/>
-      <c r="CB103" s="24"/>
-      <c r="CC103" s="24"/>
-      <c r="CD103" s="22">
+      <c r="CA103" s="21"/>
+      <c r="CB103" s="21"/>
+      <c r="CC103" s="21"/>
+      <c r="CD103" s="20">
         <v>2020</v>
       </c>
-      <c r="CE103" s="24"/>
-      <c r="CF103" s="24"/>
-      <c r="CG103" s="24"/>
-      <c r="CH103" s="22">
+      <c r="CE103" s="21"/>
+      <c r="CF103" s="21"/>
+      <c r="CG103" s="21"/>
+      <c r="CH103" s="20">
         <v>2021</v>
       </c>
-      <c r="CI103" s="22"/>
-      <c r="CJ103" s="22"/>
-      <c r="CK103" s="22"/>
-      <c r="CL103" s="22">
+      <c r="CI103" s="20"/>
+      <c r="CJ103" s="20"/>
+      <c r="CK103" s="20"/>
+      <c r="CL103" s="20">
         <v>2022</v>
       </c>
-      <c r="CM103" s="22"/>
+      <c r="CM103" s="20"/>
+      <c r="CN103" s="20"/>
     </row>
-    <row r="104" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -33680,11 +33730,14 @@
       <c r="CM104" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN104" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="105" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
@@ -33956,9 +34009,11 @@
         <v>48.217030867477916</v>
       </c>
       <c r="CM106" s="12">
-        <v>47.585596451846847</v>
-      </c>
-      <c r="CN106" s="11"/>
+        <v>47.835672230297952</v>
+      </c>
+      <c r="CN106" s="12">
+        <v>50.256412322223255</v>
+      </c>
       <c r="CO106" s="11"/>
       <c r="CP106" s="11"/>
       <c r="CQ106" s="11"/>
@@ -34019,7 +34074,7 @@
       <c r="ET106" s="11"/>
       <c r="EU106" s="11"/>
     </row>
-    <row r="107" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -34291,9 +34346,11 @@
         <v>51.782969132522069</v>
       </c>
       <c r="CM107" s="12">
-        <v>52.414403548153153</v>
-      </c>
-      <c r="CN107" s="11"/>
+        <v>52.164327769702055</v>
+      </c>
+      <c r="CN107" s="12">
+        <v>49.743587677776766</v>
+      </c>
       <c r="CO107" s="11"/>
       <c r="CP107" s="11"/>
       <c r="CQ107" s="11"/>
@@ -34354,7 +34411,7 @@
       <c r="ET107" s="11"/>
       <c r="EU107" s="11"/>
     </row>
-    <row r="108" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -34506,7 +34563,7 @@
       <c r="ET108" s="11"/>
       <c r="EU108" s="11"/>
     </row>
-    <row r="109" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>13</v>
       </c>
@@ -34780,7 +34837,9 @@
       <c r="CM109" s="12">
         <v>100</v>
       </c>
-      <c r="CN109" s="11"/>
+      <c r="CN109" s="12">
+        <v>100</v>
+      </c>
       <c r="CO109" s="11"/>
       <c r="CP109" s="11"/>
       <c r="CQ109" s="11"/>
@@ -34841,7 +34900,7 @@
       <c r="ET109" s="11"/>
       <c r="EU109" s="11"/>
     </row>
-    <row r="110" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -34933,13 +34992,14 @@
       <c r="CK110" s="9"/>
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
+      <c r="CN110" s="9"/>
     </row>
-    <row r="111" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -35091,7 +35151,7 @@
       <c r="ET112" s="11"/>
       <c r="EU112" s="11"/>
     </row>
-    <row r="113" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -35243,176 +35303,177 @@
       <c r="ET113" s="11"/>
       <c r="EU113" s="11"/>
     </row>
-    <row r="114" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="22">
+      <c r="B122" s="20">
         <v>2000</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="22">
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="20">
         <v>2001</v>
       </c>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="22">
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="20">
         <v>2002</v>
       </c>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="22">
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="20">
         <v>2003</v>
       </c>
-      <c r="O122" s="24"/>
-      <c r="P122" s="24"/>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="22">
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="20">
         <v>2004</v>
       </c>
-      <c r="S122" s="24"/>
-      <c r="T122" s="24"/>
-      <c r="U122" s="24"/>
-      <c r="V122" s="22">
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="20">
         <v>2005</v>
       </c>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-      <c r="Z122" s="22">
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+      <c r="Z122" s="20">
         <v>2006</v>
       </c>
-      <c r="AA122" s="24"/>
-      <c r="AB122" s="24"/>
-      <c r="AC122" s="24"/>
-      <c r="AD122" s="22">
+      <c r="AA122" s="21"/>
+      <c r="AB122" s="21"/>
+      <c r="AC122" s="21"/>
+      <c r="AD122" s="20">
         <v>2007</v>
       </c>
-      <c r="AE122" s="24"/>
-      <c r="AF122" s="24"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="22">
+      <c r="AE122" s="21"/>
+      <c r="AF122" s="21"/>
+      <c r="AG122" s="21"/>
+      <c r="AH122" s="20">
         <v>2008</v>
       </c>
-      <c r="AI122" s="24"/>
-      <c r="AJ122" s="24"/>
-      <c r="AK122" s="24"/>
-      <c r="AL122" s="22">
+      <c r="AI122" s="21"/>
+      <c r="AJ122" s="21"/>
+      <c r="AK122" s="21"/>
+      <c r="AL122" s="20">
         <v>2009</v>
       </c>
-      <c r="AM122" s="24"/>
-      <c r="AN122" s="24"/>
-      <c r="AO122" s="24"/>
-      <c r="AP122" s="22">
+      <c r="AM122" s="21"/>
+      <c r="AN122" s="21"/>
+      <c r="AO122" s="21"/>
+      <c r="AP122" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="24"/>
-      <c r="AR122" s="24"/>
-      <c r="AS122" s="24"/>
-      <c r="AT122" s="22">
+      <c r="AQ122" s="21"/>
+      <c r="AR122" s="21"/>
+      <c r="AS122" s="21"/>
+      <c r="AT122" s="20">
         <v>2011</v>
       </c>
-      <c r="AU122" s="24"/>
-      <c r="AV122" s="24"/>
-      <c r="AW122" s="24"/>
-      <c r="AX122" s="22">
+      <c r="AU122" s="21"/>
+      <c r="AV122" s="21"/>
+      <c r="AW122" s="21"/>
+      <c r="AX122" s="20">
         <v>2012</v>
       </c>
-      <c r="AY122" s="24"/>
-      <c r="AZ122" s="24"/>
-      <c r="BA122" s="24"/>
-      <c r="BB122" s="22">
+      <c r="AY122" s="21"/>
+      <c r="AZ122" s="21"/>
+      <c r="BA122" s="21"/>
+      <c r="BB122" s="20">
         <v>2013</v>
       </c>
-      <c r="BC122" s="24"/>
-      <c r="BD122" s="24"/>
-      <c r="BE122" s="24"/>
-      <c r="BF122" s="22">
+      <c r="BC122" s="21"/>
+      <c r="BD122" s="21"/>
+      <c r="BE122" s="21"/>
+      <c r="BF122" s="20">
         <v>2014</v>
       </c>
-      <c r="BG122" s="24"/>
-      <c r="BH122" s="24"/>
-      <c r="BI122" s="24"/>
-      <c r="BJ122" s="22">
+      <c r="BG122" s="21"/>
+      <c r="BH122" s="21"/>
+      <c r="BI122" s="21"/>
+      <c r="BJ122" s="20">
         <v>2015</v>
       </c>
-      <c r="BK122" s="24"/>
-      <c r="BL122" s="24"/>
-      <c r="BM122" s="24"/>
-      <c r="BN122" s="22">
+      <c r="BK122" s="21"/>
+      <c r="BL122" s="21"/>
+      <c r="BM122" s="21"/>
+      <c r="BN122" s="20">
         <v>2016</v>
       </c>
-      <c r="BO122" s="24"/>
-      <c r="BP122" s="24"/>
-      <c r="BQ122" s="24"/>
-      <c r="BR122" s="22">
+      <c r="BO122" s="21"/>
+      <c r="BP122" s="21"/>
+      <c r="BQ122" s="21"/>
+      <c r="BR122" s="20">
         <v>2017</v>
       </c>
-      <c r="BS122" s="24"/>
-      <c r="BT122" s="24"/>
-      <c r="BU122" s="24"/>
-      <c r="BV122" s="22">
+      <c r="BS122" s="21"/>
+      <c r="BT122" s="21"/>
+      <c r="BU122" s="21"/>
+      <c r="BV122" s="20">
         <v>2018</v>
       </c>
-      <c r="BW122" s="24"/>
-      <c r="BX122" s="24"/>
-      <c r="BY122" s="24"/>
-      <c r="BZ122" s="22">
+      <c r="BW122" s="21"/>
+      <c r="BX122" s="21"/>
+      <c r="BY122" s="21"/>
+      <c r="BZ122" s="20">
         <v>2019</v>
       </c>
-      <c r="CA122" s="24"/>
-      <c r="CB122" s="24"/>
-      <c r="CC122" s="24"/>
-      <c r="CD122" s="22">
+      <c r="CA122" s="21"/>
+      <c r="CB122" s="21"/>
+      <c r="CC122" s="21"/>
+      <c r="CD122" s="20">
         <v>2020</v>
       </c>
-      <c r="CE122" s="24"/>
-      <c r="CF122" s="24"/>
-      <c r="CG122" s="24"/>
-      <c r="CH122" s="22">
+      <c r="CE122" s="21"/>
+      <c r="CF122" s="21"/>
+      <c r="CG122" s="21"/>
+      <c r="CH122" s="20">
         <v>2021</v>
       </c>
-      <c r="CI122" s="22"/>
-      <c r="CJ122" s="22"/>
-      <c r="CK122" s="22"/>
-      <c r="CL122" s="22">
+      <c r="CI122" s="20"/>
+      <c r="CJ122" s="20"/>
+      <c r="CK122" s="20"/>
+      <c r="CL122" s="20">
         <v>2022</v>
       </c>
-      <c r="CM122" s="22"/>
+      <c r="CM122" s="20"/>
+      <c r="CN122" s="20"/>
     </row>
-    <row r="123" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -35686,11 +35747,14 @@
       <c r="CM123" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN123" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="124" spans="1:151" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>11</v>
       </c>
@@ -35962,9 +36026,11 @@
         <v>46.839368870727256</v>
       </c>
       <c r="CM125" s="12">
-        <v>46.293929269810278</v>
-      </c>
-      <c r="CN125" s="11"/>
+        <v>46.547273285869586</v>
+      </c>
+      <c r="CN125" s="12">
+        <v>49.413501127730022</v>
+      </c>
       <c r="CO125" s="11"/>
       <c r="CP125" s="11"/>
       <c r="CQ125" s="11"/>
@@ -36025,7 +36091,7 @@
       <c r="ET125" s="11"/>
       <c r="EU125" s="11"/>
     </row>
-    <row r="126" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -36297,9 +36363,11 @@
         <v>53.160631129272737</v>
       </c>
       <c r="CM126" s="12">
-        <v>53.706070730189722</v>
-      </c>
-      <c r="CN126" s="11"/>
+        <v>53.452726714130414</v>
+      </c>
+      <c r="CN126" s="12">
+        <v>50.586498872269978</v>
+      </c>
       <c r="CO126" s="11"/>
       <c r="CP126" s="11"/>
       <c r="CQ126" s="11"/>
@@ -36360,7 +36428,7 @@
       <c r="ET126" s="11"/>
       <c r="EU126" s="11"/>
     </row>
-    <row r="127" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -36512,7 +36580,7 @@
       <c r="ET127" s="11"/>
       <c r="EU127" s="11"/>
     </row>
-    <row r="128" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>13</v>
       </c>
@@ -36786,7 +36854,9 @@
       <c r="CM128" s="12">
         <v>100</v>
       </c>
-      <c r="CN128" s="11"/>
+      <c r="CN128" s="12">
+        <v>100</v>
+      </c>
       <c r="CO128" s="11"/>
       <c r="CP128" s="11"/>
       <c r="CQ128" s="11"/>
@@ -36847,7 +36917,7 @@
       <c r="ET128" s="11"/>
       <c r="EU128" s="11"/>
     </row>
-    <row r="129" spans="1:151" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:151" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -36939,13 +37009,14 @@
       <c r="CK129" s="9"/>
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
+      <c r="CN129" s="9"/>
     </row>
-    <row r="130" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:151" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:151" s="14" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -37037,7 +37108,7 @@
       <c r="CK131" s="3"/>
       <c r="CL131" s="3"/>
       <c r="CM131" s="3"/>
-      <c r="CN131" s="13"/>
+      <c r="CN131" s="3"/>
       <c r="CO131" s="13"/>
       <c r="CP131" s="13"/>
       <c r="CQ131" s="13"/>
@@ -37098,7 +37169,7 @@
       <c r="ET131" s="13"/>
       <c r="EU131" s="13"/>
     </row>
-    <row r="132" spans="1:151" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:151" s="14" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -37190,7 +37261,7 @@
       <c r="CK132" s="3"/>
       <c r="CL132" s="3"/>
       <c r="CM132" s="3"/>
-      <c r="CN132" s="13"/>
+      <c r="CN132" s="3"/>
       <c r="CO132" s="13"/>
       <c r="CP132" s="13"/>
       <c r="CQ132" s="13"/>
@@ -37252,7 +37323,144 @@
       <c r="EU132" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="161">
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL28:CN28"/>
+    <mergeCell ref="CH47:CJ47"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CH66:CJ66"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="CL84:CN84"/>
+    <mergeCell ref="CL103:CN103"/>
+    <mergeCell ref="CL122:CN122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="BV47:BY47"/>
     <mergeCell ref="BR47:BU47"/>
@@ -37277,150 +37485,15 @@
     <mergeCell ref="BV28:BY28"/>
     <mergeCell ref="BR66:BU66"/>
     <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL28:CM28"/>
-    <mergeCell ref="CH47:CI47"/>
-    <mergeCell ref="CH66:CI66"/>
-    <mergeCell ref="CL84:CM84"/>
-    <mergeCell ref="CL103:CM103"/>
-    <mergeCell ref="CL122:CM122"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="90" man="1"/>
-    <brk id="76" max="90" man="1"/>
-    <brk id="94" max="90" man="1"/>
+    <brk id="38" max="91" man="1"/>
+    <brk id="76" max="91" man="1"/>
+    <brk id="94" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D6DEF-1715-44AC-AA62-1B74F382643C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39C95B-2217-420C-BEFA-81D99957D4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CN$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CO$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -742,10 +742,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15142,7 +15142,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15851,7 +15851,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15874,7 +15874,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15903,7 +15903,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15966,7 +15966,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15995,7 +15995,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16026,7 +16026,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18420,7 +18420,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18508,7 +18508,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18529,7 +18529,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18586,7 +18586,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18603,7 +18603,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18644,7 +18644,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18657,7 +18657,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18704,7 +18704,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18733,7 +18733,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23150,7 +23150,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23193,7 +23193,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23595,7 +23595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23611,14 +23611,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="92" width="8.33203125" style="3" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="93" width="8.33203125" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23633,7 +23633,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23643,7 +23643,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23790,6 +23790,7 @@
       </c>
       <c r="CM9" s="20"/>
       <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24067,6 +24068,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24347,9 +24351,11 @@
         <v>143353.08136227759</v>
       </c>
       <c r="CN12" s="15">
-        <v>161717.77018111869</v>
-      </c>
-      <c r="CO12" s="11"/>
+        <v>163156.69927114615</v>
+      </c>
+      <c r="CO12" s="15">
+        <v>170138.51592938413</v>
+      </c>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
@@ -24684,9 +24690,11 @@
         <v>156325.11835471363</v>
       </c>
       <c r="CN13" s="15">
-        <v>160067.57562560446</v>
-      </c>
-      <c r="CO13" s="11"/>
+        <v>160056.12459406475</v>
+      </c>
+      <c r="CO13" s="15">
+        <v>158429.80059888729</v>
+      </c>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
@@ -25173,9 +25181,11 @@
         <v>299678.19971699122</v>
       </c>
       <c r="CN15" s="16">
-        <v>321785.34580672311</v>
-      </c>
-      <c r="CO15" s="11"/>
+        <v>323212.82386521087</v>
+      </c>
+      <c r="CO15" s="16">
+        <v>328568.31652827142</v>
+      </c>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
@@ -25328,6 +25338,7 @@
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25650,7 +25661,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25660,7 +25671,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25673,129 +25684,129 @@
       <c r="B28" s="20">
         <v>2000</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="20">
         <v>2001</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="20">
         <v>2002</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="20">
         <v>2003</v>
       </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
       <c r="R28" s="20">
         <v>2004</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
       <c r="V28" s="20">
         <v>2005</v>
       </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
       <c r="Z28" s="20">
         <v>2006</v>
       </c>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
       <c r="AD28" s="20">
         <v>2007</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
       <c r="AH28" s="20">
         <v>2008</v>
       </c>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
       <c r="AL28" s="20">
         <v>2009</v>
       </c>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
       <c r="AP28" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
       <c r="AT28" s="20">
         <v>2011</v>
       </c>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
       <c r="AX28" s="20">
         <v>2012</v>
       </c>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
       <c r="BB28" s="20">
         <v>2013</v>
       </c>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
       <c r="BF28" s="20">
         <v>2014</v>
       </c>
-      <c r="BG28" s="21"/>
-      <c r="BH28" s="21"/>
-      <c r="BI28" s="21"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
       <c r="BJ28" s="20">
         <v>2015</v>
       </c>
-      <c r="BK28" s="21"/>
-      <c r="BL28" s="21"/>
-      <c r="BM28" s="21"/>
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
       <c r="BN28" s="20">
         <v>2016</v>
       </c>
-      <c r="BO28" s="21"/>
-      <c r="BP28" s="21"/>
-      <c r="BQ28" s="21"/>
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
       <c r="BR28" s="20">
         <v>2017</v>
       </c>
-      <c r="BS28" s="21"/>
-      <c r="BT28" s="21"/>
-      <c r="BU28" s="21"/>
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
       <c r="BV28" s="20">
         <v>2018</v>
       </c>
-      <c r="BW28" s="21"/>
-      <c r="BX28" s="21"/>
-      <c r="BY28" s="21"/>
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
       <c r="BZ28" s="20">
         <v>2019</v>
       </c>
-      <c r="CA28" s="21"/>
-      <c r="CB28" s="21"/>
-      <c r="CC28" s="21"/>
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
       <c r="CD28" s="20">
         <v>2020</v>
       </c>
-      <c r="CE28" s="21"/>
-      <c r="CF28" s="21"/>
-      <c r="CG28" s="21"/>
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
       <c r="CH28" s="20">
         <v>2021</v>
       </c>
@@ -25807,6 +25818,7 @@
       </c>
       <c r="CM28" s="20"/>
       <c r="CN28" s="20"/>
+      <c r="CO28" s="20"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26084,6 +26096,9 @@
       </c>
       <c r="CN29" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26364,9 +26379,11 @@
         <v>125520.1662002455</v>
       </c>
       <c r="CN31" s="15">
-        <v>141067.84170305071</v>
-      </c>
-      <c r="CO31" s="11"/>
+        <v>142359.38932074618</v>
+      </c>
+      <c r="CO31" s="15">
+        <v>142597.73531886877</v>
+      </c>
       <c r="CP31" s="11"/>
       <c r="CQ31" s="11"/>
       <c r="CR31" s="11"/>
@@ -26703,7 +26720,9 @@
       <c r="CN32" s="15">
         <v>144416.5673826391</v>
       </c>
-      <c r="CO32" s="11"/>
+      <c r="CO32" s="15">
+        <v>141918.83422163335</v>
+      </c>
       <c r="CP32" s="11"/>
       <c r="CQ32" s="11"/>
       <c r="CR32" s="11"/>
@@ -27190,9 +27209,11 @@
         <v>269661.69517463405</v>
       </c>
       <c r="CN34" s="16">
-        <v>285484.40908568981</v>
-      </c>
-      <c r="CO34" s="11"/>
+        <v>286775.95670338528</v>
+      </c>
+      <c r="CO34" s="16">
+        <v>284516.56954050215</v>
+      </c>
       <c r="CP34" s="11"/>
       <c r="CQ34" s="11"/>
       <c r="CR34" s="11"/>
@@ -27345,6 +27366,7 @@
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
+      <c r="CO35" s="9"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27667,7 +27689,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
@@ -27677,7 +27699,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
@@ -27818,10 +27840,11 @@
       </c>
       <c r="CI47" s="20"/>
       <c r="CJ47" s="20"/>
-      <c r="CK47" s="19"/>
+      <c r="CK47" s="20"/>
       <c r="CL47" s="20"/>
       <c r="CM47" s="20"/>
       <c r="CN47" s="19"/>
+      <c r="CO47" s="19"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28088,10 +28111,13 @@
       <c r="CJ48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK48" s="5"/>
+      <c r="CK48" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL48" s="5"/>
       <c r="CM48" s="5"/>
       <c r="CN48" s="5"/>
+      <c r="CO48" s="5"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28359,13 +28385,15 @@
         <v>14.090258652202436</v>
       </c>
       <c r="CJ50" s="12">
-        <v>12.260267849507869</v>
-      </c>
-      <c r="CK50" s="12"/>
+        <v>13.259134980077491</v>
+      </c>
+      <c r="CK50" s="12">
+        <v>22.909861084789739</v>
+      </c>
       <c r="CL50" s="12"/>
       <c r="CM50" s="12"/>
       <c r="CN50" s="12"/>
-      <c r="CO50" s="11"/>
+      <c r="CO50" s="12"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
       <c r="CR50" s="11"/>
@@ -28684,13 +28712,15 @@
         <v>2.5035851882104794</v>
       </c>
       <c r="CJ51" s="12">
-        <v>4.0552138041836088</v>
-      </c>
-      <c r="CK51" s="12"/>
+        <v>4.0477698260357471</v>
+      </c>
+      <c r="CK51" s="12">
+        <v>5.8980077034752583</v>
+      </c>
       <c r="CL51" s="12"/>
       <c r="CM51" s="12"/>
       <c r="CN51" s="12"/>
-      <c r="CO51" s="11"/>
+      <c r="CO51" s="12"/>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
       <c r="CR51" s="11"/>
@@ -29158,13 +29188,15 @@
         <v>7.7375294960013719</v>
       </c>
       <c r="CJ53" s="12">
-        <v>8.0231406226302511</v>
-      </c>
-      <c r="CK53" s="12"/>
+        <v>8.5023441197974705</v>
+      </c>
+      <c r="CK53" s="12">
+        <v>14.073757819488833</v>
+      </c>
       <c r="CL53" s="12"/>
       <c r="CM53" s="12"/>
       <c r="CN53" s="12"/>
-      <c r="CO53" s="11"/>
+      <c r="CO53" s="12"/>
       <c r="CP53" s="11"/>
       <c r="CQ53" s="11"/>
       <c r="CR53" s="11"/>
@@ -29313,6 +29345,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
+      <c r="CO54" s="9"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -29627,7 +29660,7 @@
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
@@ -29637,7 +29670,7 @@
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
@@ -29650,138 +29683,139 @@
       <c r="B66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
       <c r="N66" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
       <c r="R66" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
       <c r="V66" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
       <c r="Z66" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
       <c r="AD66" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
       <c r="AH66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
       <c r="AL66" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
       <c r="AP66" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="22"/>
-      <c r="AR66" s="22"/>
-      <c r="AS66" s="22"/>
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
       <c r="AT66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="22"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="22"/>
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
       <c r="AX66" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="22"/>
-      <c r="AZ66" s="22"/>
-      <c r="BA66" s="22"/>
+      <c r="AY66" s="21"/>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="21"/>
       <c r="BB66" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="22"/>
-      <c r="BD66" s="22"/>
-      <c r="BE66" s="22"/>
+      <c r="BC66" s="21"/>
+      <c r="BD66" s="21"/>
+      <c r="BE66" s="21"/>
       <c r="BF66" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="22"/>
-      <c r="BH66" s="22"/>
-      <c r="BI66" s="22"/>
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="21"/>
       <c r="BJ66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="22"/>
-      <c r="BL66" s="22"/>
-      <c r="BM66" s="22"/>
+      <c r="BK66" s="21"/>
+      <c r="BL66" s="21"/>
+      <c r="BM66" s="21"/>
       <c r="BN66" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="22"/>
-      <c r="BP66" s="22"/>
-      <c r="BQ66" s="22"/>
+      <c r="BO66" s="21"/>
+      <c r="BP66" s="21"/>
+      <c r="BQ66" s="21"/>
       <c r="BR66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="22"/>
-      <c r="BT66" s="22"/>
-      <c r="BU66" s="22"/>
+      <c r="BS66" s="21"/>
+      <c r="BT66" s="21"/>
+      <c r="BU66" s="21"/>
       <c r="BV66" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="22"/>
-      <c r="BX66" s="22"/>
-      <c r="BY66" s="22"/>
+      <c r="BW66" s="21"/>
+      <c r="BX66" s="21"/>
+      <c r="BY66" s="21"/>
       <c r="BZ66" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="22"/>
-      <c r="CB66" s="22"/>
-      <c r="CC66" s="22"/>
+      <c r="CA66" s="21"/>
+      <c r="CB66" s="21"/>
+      <c r="CC66" s="21"/>
       <c r="CD66" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="22"/>
-      <c r="CF66" s="22"/>
-      <c r="CG66" s="22"/>
+      <c r="CE66" s="21"/>
+      <c r="CF66" s="21"/>
+      <c r="CG66" s="21"/>
       <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
       <c r="CI66" s="20"/>
       <c r="CJ66" s="20"/>
-      <c r="CK66" s="19"/>
+      <c r="CK66" s="20"/>
       <c r="CL66" s="20"/>
       <c r="CM66" s="20"/>
       <c r="CN66" s="19"/>
+      <c r="CO66" s="19"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30048,10 +30082,13 @@
       <c r="CJ67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK67" s="5"/>
+      <c r="CK67" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL67" s="5"/>
       <c r="CM67" s="5"/>
       <c r="CN67" s="5"/>
+      <c r="CO67" s="5"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -30319,13 +30356,15 @@
         <v>8.2156802199752974</v>
       </c>
       <c r="CJ69" s="12">
-        <v>5.0876392816047371</v>
-      </c>
-      <c r="CK69" s="12"/>
+        <v>6.0497699027643392</v>
+      </c>
+      <c r="CK69" s="12">
+        <v>13.373733464420383</v>
+      </c>
       <c r="CL69" s="12"/>
       <c r="CM69" s="12"/>
       <c r="CN69" s="12"/>
-      <c r="CO69" s="11"/>
+      <c r="CO69" s="12"/>
       <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
       <c r="CR69" s="11"/>
@@ -30646,11 +30685,13 @@
       <c r="CJ70" s="12">
         <v>1.2966279808416203</v>
       </c>
-      <c r="CK70" s="12"/>
+      <c r="CK70" s="12">
+        <v>2.0771713939531651</v>
+      </c>
       <c r="CL70" s="12"/>
       <c r="CM70" s="12"/>
       <c r="CN70" s="12"/>
-      <c r="CO70" s="11"/>
+      <c r="CO70" s="12"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
       <c r="CR70" s="11"/>
@@ -31117,13 +31158,15 @@
         <v>4.3900343252920777</v>
       </c>
       <c r="CJ72" s="12">
-        <v>3.1350937025256229</v>
-      </c>
-      <c r="CK72" s="12"/>
+        <v>3.6016827011995218</v>
+      </c>
+      <c r="CK72" s="12">
+        <v>7.4427430163914323</v>
+      </c>
       <c r="CL72" s="12"/>
       <c r="CM72" s="12"/>
       <c r="CN72" s="12"/>
-      <c r="CO72" s="11"/>
+      <c r="CO72" s="12"/>
       <c r="CP72" s="11"/>
       <c r="CQ72" s="11"/>
       <c r="CR72" s="11"/>
@@ -31272,6 +31315,7 @@
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
+      <c r="CO73" s="9"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -31585,7 +31629,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -31595,7 +31639,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -31608,129 +31652,129 @@
       <c r="B84" s="20">
         <v>2000</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="20">
         <v>2001</v>
       </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
       <c r="J84" s="20">
         <v>2002</v>
       </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
       <c r="N84" s="20">
         <v>2003</v>
       </c>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
       <c r="R84" s="20">
         <v>2004</v>
       </c>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
       <c r="V84" s="20">
         <v>2005</v>
       </c>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
       <c r="Z84" s="20">
         <v>2006</v>
       </c>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
       <c r="AD84" s="20">
         <v>2007</v>
       </c>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="21"/>
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
       <c r="AH84" s="20">
         <v>2008</v>
       </c>
-      <c r="AI84" s="21"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="21"/>
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
       <c r="AL84" s="20">
         <v>2009</v>
       </c>
-      <c r="AM84" s="21"/>
-      <c r="AN84" s="21"/>
-      <c r="AO84" s="21"/>
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
       <c r="AP84" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="21"/>
-      <c r="AR84" s="21"/>
-      <c r="AS84" s="21"/>
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
       <c r="AT84" s="20">
         <v>2011</v>
       </c>
-      <c r="AU84" s="21"/>
-      <c r="AV84" s="21"/>
-      <c r="AW84" s="21"/>
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
       <c r="AX84" s="20">
         <v>2012</v>
       </c>
-      <c r="AY84" s="21"/>
-      <c r="AZ84" s="21"/>
-      <c r="BA84" s="21"/>
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
       <c r="BB84" s="20">
         <v>2013</v>
       </c>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="21"/>
-      <c r="BE84" s="21"/>
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
       <c r="BF84" s="20">
         <v>2014</v>
       </c>
-      <c r="BG84" s="21"/>
-      <c r="BH84" s="21"/>
-      <c r="BI84" s="21"/>
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
       <c r="BJ84" s="20">
         <v>2015</v>
       </c>
-      <c r="BK84" s="21"/>
-      <c r="BL84" s="21"/>
-      <c r="BM84" s="21"/>
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
       <c r="BN84" s="20">
         <v>2016</v>
       </c>
-      <c r="BO84" s="21"/>
-      <c r="BP84" s="21"/>
-      <c r="BQ84" s="21"/>
+      <c r="BO84" s="22"/>
+      <c r="BP84" s="22"/>
+      <c r="BQ84" s="22"/>
       <c r="BR84" s="20">
         <v>2017</v>
       </c>
-      <c r="BS84" s="21"/>
-      <c r="BT84" s="21"/>
-      <c r="BU84" s="21"/>
+      <c r="BS84" s="22"/>
+      <c r="BT84" s="22"/>
+      <c r="BU84" s="22"/>
       <c r="BV84" s="20">
         <v>2018</v>
       </c>
-      <c r="BW84" s="21"/>
-      <c r="BX84" s="21"/>
-      <c r="BY84" s="21"/>
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
       <c r="BZ84" s="20">
         <v>2019</v>
       </c>
-      <c r="CA84" s="21"/>
-      <c r="CB84" s="21"/>
-      <c r="CC84" s="21"/>
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
       <c r="CD84" s="20">
         <v>2020</v>
       </c>
-      <c r="CE84" s="21"/>
-      <c r="CF84" s="21"/>
-      <c r="CG84" s="21"/>
+      <c r="CE84" s="22"/>
+      <c r="CF84" s="22"/>
+      <c r="CG84" s="22"/>
       <c r="CH84" s="20">
         <v>2021</v>
       </c>
@@ -31742,6 +31786,7 @@
       </c>
       <c r="CM84" s="20"/>
       <c r="CN84" s="20"/>
+      <c r="CO84" s="20"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32019,6 +32064,9 @@
       </c>
       <c r="CN85" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO85" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32299,9 +32347,11 @@
         <v>114.20721124092745</v>
       </c>
       <c r="CN87" s="12">
-        <v>114.63829617634349</v>
-      </c>
-      <c r="CO87" s="11"/>
+        <v>114.60901880067924</v>
+      </c>
+      <c r="CO87" s="12">
+        <v>119.31361711245292</v>
+      </c>
       <c r="CP87" s="11"/>
       <c r="CQ87" s="11"/>
       <c r="CR87" s="11"/>
@@ -32636,9 +32686,11 @@
         <v>108.45251848444725</v>
       </c>
       <c r="CN88" s="12">
-        <v>110.83740496441604</v>
-      </c>
-      <c r="CO88" s="11"/>
+        <v>110.82947579690621</v>
+      </c>
+      <c r="CO88" s="12">
+        <v>111.63409104070634</v>
+      </c>
       <c r="CP88" s="11"/>
       <c r="CQ88" s="11"/>
       <c r="CR88" s="11"/>
@@ -33125,9 +33177,11 @@
         <v>111.13117104856822</v>
       </c>
       <c r="CN90" s="12">
-        <v>112.71555838628559</v>
-      </c>
-      <c r="CO90" s="11"/>
+        <v>112.70569108396786</v>
+      </c>
+      <c r="CO90" s="12">
+        <v>115.4830163525848</v>
+      </c>
       <c r="CP90" s="11"/>
       <c r="CQ90" s="11"/>
       <c r="CR90" s="11"/>
@@ -33280,6 +33334,7 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
+      <c r="CO91" s="9"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33298,7 +33353,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33308,7 +33363,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -33321,129 +33376,129 @@
       <c r="B103" s="20">
         <v>2000</v>
       </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="20">
         <v>2001</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
       <c r="J103" s="20">
         <v>2002</v>
       </c>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
       <c r="N103" s="20">
         <v>2003</v>
       </c>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
       <c r="R103" s="20">
         <v>2004</v>
       </c>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
       <c r="V103" s="20">
         <v>2005</v>
       </c>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="21"/>
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
       <c r="Z103" s="20">
         <v>2006</v>
       </c>
-      <c r="AA103" s="21"/>
-      <c r="AB103" s="21"/>
-      <c r="AC103" s="21"/>
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="22"/>
       <c r="AD103" s="20">
         <v>2007</v>
       </c>
-      <c r="AE103" s="21"/>
-      <c r="AF103" s="21"/>
-      <c r="AG103" s="21"/>
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
       <c r="AH103" s="20">
         <v>2008</v>
       </c>
-      <c r="AI103" s="21"/>
-      <c r="AJ103" s="21"/>
-      <c r="AK103" s="21"/>
+      <c r="AI103" s="22"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
       <c r="AL103" s="20">
         <v>2009</v>
       </c>
-      <c r="AM103" s="21"/>
-      <c r="AN103" s="21"/>
-      <c r="AO103" s="21"/>
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="22"/>
       <c r="AP103" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="21"/>
-      <c r="AR103" s="21"/>
-      <c r="AS103" s="21"/>
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="22"/>
       <c r="AT103" s="20">
         <v>2011</v>
       </c>
-      <c r="AU103" s="21"/>
-      <c r="AV103" s="21"/>
-      <c r="AW103" s="21"/>
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="22"/>
+      <c r="AW103" s="22"/>
       <c r="AX103" s="20">
         <v>2012</v>
       </c>
-      <c r="AY103" s="21"/>
-      <c r="AZ103" s="21"/>
-      <c r="BA103" s="21"/>
+      <c r="AY103" s="22"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
       <c r="BB103" s="20">
         <v>2013</v>
       </c>
-      <c r="BC103" s="21"/>
-      <c r="BD103" s="21"/>
-      <c r="BE103" s="21"/>
+      <c r="BC103" s="22"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
       <c r="BF103" s="20">
         <v>2014</v>
       </c>
-      <c r="BG103" s="21"/>
-      <c r="BH103" s="21"/>
-      <c r="BI103" s="21"/>
+      <c r="BG103" s="22"/>
+      <c r="BH103" s="22"/>
+      <c r="BI103" s="22"/>
       <c r="BJ103" s="20">
         <v>2015</v>
       </c>
-      <c r="BK103" s="21"/>
-      <c r="BL103" s="21"/>
-      <c r="BM103" s="21"/>
+      <c r="BK103" s="22"/>
+      <c r="BL103" s="22"/>
+      <c r="BM103" s="22"/>
       <c r="BN103" s="20">
         <v>2016</v>
       </c>
-      <c r="BO103" s="21"/>
-      <c r="BP103" s="21"/>
-      <c r="BQ103" s="21"/>
+      <c r="BO103" s="22"/>
+      <c r="BP103" s="22"/>
+      <c r="BQ103" s="22"/>
       <c r="BR103" s="20">
         <v>2017</v>
       </c>
-      <c r="BS103" s="21"/>
-      <c r="BT103" s="21"/>
-      <c r="BU103" s="21"/>
+      <c r="BS103" s="22"/>
+      <c r="BT103" s="22"/>
+      <c r="BU103" s="22"/>
       <c r="BV103" s="20">
         <v>2018</v>
       </c>
-      <c r="BW103" s="21"/>
-      <c r="BX103" s="21"/>
-      <c r="BY103" s="21"/>
+      <c r="BW103" s="22"/>
+      <c r="BX103" s="22"/>
+      <c r="BY103" s="22"/>
       <c r="BZ103" s="20">
         <v>2019</v>
       </c>
-      <c r="CA103" s="21"/>
-      <c r="CB103" s="21"/>
-      <c r="CC103" s="21"/>
+      <c r="CA103" s="22"/>
+      <c r="CB103" s="22"/>
+      <c r="CC103" s="22"/>
       <c r="CD103" s="20">
         <v>2020</v>
       </c>
-      <c r="CE103" s="21"/>
-      <c r="CF103" s="21"/>
-      <c r="CG103" s="21"/>
+      <c r="CE103" s="22"/>
+      <c r="CF103" s="22"/>
+      <c r="CG103" s="22"/>
       <c r="CH103" s="20">
         <v>2021</v>
       </c>
@@ -33455,6 +33510,7 @@
       </c>
       <c r="CM103" s="20"/>
       <c r="CN103" s="20"/>
+      <c r="CO103" s="20"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -33732,6 +33788,9 @@
       </c>
       <c r="CN104" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO104" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34012,9 +34071,11 @@
         <v>47.835672230297952</v>
       </c>
       <c r="CN106" s="12">
-        <v>50.256412322223255</v>
-      </c>
-      <c r="CO106" s="11"/>
+        <v>50.479649080751585</v>
+      </c>
+      <c r="CO106" s="12">
+        <v>51.781777904548711</v>
+      </c>
       <c r="CP106" s="11"/>
       <c r="CQ106" s="11"/>
       <c r="CR106" s="11"/>
@@ -34349,9 +34410,11 @@
         <v>52.164327769702055</v>
       </c>
       <c r="CN107" s="12">
-        <v>49.743587677776766</v>
-      </c>
-      <c r="CO107" s="11"/>
+        <v>49.520350919248429</v>
+      </c>
+      <c r="CO107" s="12">
+        <v>48.218222095451289</v>
+      </c>
       <c r="CP107" s="11"/>
       <c r="CQ107" s="11"/>
       <c r="CR107" s="11"/>
@@ -34840,7 +34903,9 @@
       <c r="CN109" s="12">
         <v>100</v>
       </c>
-      <c r="CO109" s="11"/>
+      <c r="CO109" s="12">
+        <v>100</v>
+      </c>
       <c r="CP109" s="11"/>
       <c r="CQ109" s="11"/>
       <c r="CR109" s="11"/>
@@ -34993,6 +35058,7 @@
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
+      <c r="CO110" s="9"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35315,7 +35381,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -35325,7 +35391,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -35338,129 +35404,129 @@
       <c r="B122" s="20">
         <v>2000</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="20">
         <v>2001</v>
       </c>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
       <c r="J122" s="20">
         <v>2002</v>
       </c>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
       <c r="N122" s="20">
         <v>2003</v>
       </c>
-      <c r="O122" s="21"/>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
       <c r="R122" s="20">
         <v>2004</v>
       </c>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
       <c r="V122" s="20">
         <v>2005</v>
       </c>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
       <c r="Z122" s="20">
         <v>2006</v>
       </c>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
       <c r="AD122" s="20">
         <v>2007</v>
       </c>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
       <c r="AH122" s="20">
         <v>2008</v>
       </c>
-      <c r="AI122" s="21"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="21"/>
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
       <c r="AL122" s="20">
         <v>2009</v>
       </c>
-      <c r="AM122" s="21"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="21"/>
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
       <c r="AP122" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="21"/>
-      <c r="AR122" s="21"/>
-      <c r="AS122" s="21"/>
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
       <c r="AT122" s="20">
         <v>2011</v>
       </c>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="21"/>
-      <c r="AW122" s="21"/>
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
       <c r="AX122" s="20">
         <v>2012</v>
       </c>
-      <c r="AY122" s="21"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="21"/>
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
       <c r="BB122" s="20">
         <v>2013</v>
       </c>
-      <c r="BC122" s="21"/>
-      <c r="BD122" s="21"/>
-      <c r="BE122" s="21"/>
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
       <c r="BF122" s="20">
         <v>2014</v>
       </c>
-      <c r="BG122" s="21"/>
-      <c r="BH122" s="21"/>
-      <c r="BI122" s="21"/>
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
       <c r="BJ122" s="20">
         <v>2015</v>
       </c>
-      <c r="BK122" s="21"/>
-      <c r="BL122" s="21"/>
-      <c r="BM122" s="21"/>
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
       <c r="BN122" s="20">
         <v>2016</v>
       </c>
-      <c r="BO122" s="21"/>
-      <c r="BP122" s="21"/>
-      <c r="BQ122" s="21"/>
+      <c r="BO122" s="22"/>
+      <c r="BP122" s="22"/>
+      <c r="BQ122" s="22"/>
       <c r="BR122" s="20">
         <v>2017</v>
       </c>
-      <c r="BS122" s="21"/>
-      <c r="BT122" s="21"/>
-      <c r="BU122" s="21"/>
+      <c r="BS122" s="22"/>
+      <c r="BT122" s="22"/>
+      <c r="BU122" s="22"/>
       <c r="BV122" s="20">
         <v>2018</v>
       </c>
-      <c r="BW122" s="21"/>
-      <c r="BX122" s="21"/>
-      <c r="BY122" s="21"/>
+      <c r="BW122" s="22"/>
+      <c r="BX122" s="22"/>
+      <c r="BY122" s="22"/>
       <c r="BZ122" s="20">
         <v>2019</v>
       </c>
-      <c r="CA122" s="21"/>
-      <c r="CB122" s="21"/>
-      <c r="CC122" s="21"/>
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
       <c r="CD122" s="20">
         <v>2020</v>
       </c>
-      <c r="CE122" s="21"/>
-      <c r="CF122" s="21"/>
-      <c r="CG122" s="21"/>
+      <c r="CE122" s="22"/>
+      <c r="CF122" s="22"/>
+      <c r="CG122" s="22"/>
       <c r="CH122" s="20">
         <v>2021</v>
       </c>
@@ -35472,6 +35538,7 @@
       </c>
       <c r="CM122" s="20"/>
       <c r="CN122" s="20"/>
+      <c r="CO122" s="20"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -35749,6 +35816,9 @@
       </c>
       <c r="CN123" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO123" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36029,9 +36099,11 @@
         <v>46.547273285869586</v>
       </c>
       <c r="CN125" s="12">
-        <v>49.413501127730022</v>
-      </c>
-      <c r="CO125" s="11"/>
+        <v>49.641326615114274</v>
+      </c>
+      <c r="CO125" s="12">
+        <v>50.119307831233137</v>
+      </c>
       <c r="CP125" s="11"/>
       <c r="CQ125" s="11"/>
       <c r="CR125" s="11"/>
@@ -36366,9 +36438,11 @@
         <v>53.452726714130414</v>
       </c>
       <c r="CN126" s="12">
-        <v>50.586498872269978</v>
-      </c>
-      <c r="CO126" s="11"/>
+        <v>50.358673384885734</v>
+      </c>
+      <c r="CO126" s="12">
+        <v>49.880692168766856</v>
+      </c>
       <c r="CP126" s="11"/>
       <c r="CQ126" s="11"/>
       <c r="CR126" s="11"/>
@@ -36857,7 +36931,9 @@
       <c r="CN128" s="12">
         <v>100</v>
       </c>
-      <c r="CO128" s="11"/>
+      <c r="CO128" s="12">
+        <v>100</v>
+      </c>
       <c r="CP128" s="11"/>
       <c r="CQ128" s="11"/>
       <c r="CR128" s="11"/>
@@ -37010,6 +37086,7 @@
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
+      <c r="CO129" s="9"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37109,7 +37186,7 @@
       <c r="CL131" s="3"/>
       <c r="CM131" s="3"/>
       <c r="CN131" s="3"/>
-      <c r="CO131" s="13"/>
+      <c r="CO131" s="3"/>
       <c r="CP131" s="13"/>
       <c r="CQ131" s="13"/>
       <c r="CR131" s="13"/>
@@ -37262,7 +37339,7 @@
       <c r="CL132" s="3"/>
       <c r="CM132" s="3"/>
       <c r="CN132" s="3"/>
-      <c r="CO132" s="13"/>
+      <c r="CO132" s="3"/>
       <c r="CP132" s="13"/>
       <c r="CQ132" s="13"/>
       <c r="CR132" s="13"/>
@@ -37324,81 +37401,70 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL28:CN28"/>
-    <mergeCell ref="CH47:CJ47"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CH66:CJ66"/>
-    <mergeCell ref="CL66:CM66"/>
-    <mergeCell ref="CL84:CN84"/>
-    <mergeCell ref="CL103:CN103"/>
-    <mergeCell ref="CL122:CN122"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
@@ -37423,77 +37489,88 @@
     <mergeCell ref="AP66:AS66"/>
     <mergeCell ref="V47:Y47"/>
     <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="91" man="1"/>
-    <brk id="76" max="91" man="1"/>
-    <brk id="94" max="91" man="1"/>
+    <brk id="38" max="92" man="1"/>
+    <brk id="76" max="92" man="1"/>
+    <brk id="94" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39C95B-2217-420C-BEFA-81D99957D4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECD3450-678B-4DD3-9176-5777D0099ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,14 +738,13 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23595,7 +23594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23609,9 +23608,9 @@
   <dimension ref="A1:EU132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23633,7 +23632,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23643,7 +23642,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23653,144 +23652,144 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="20"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="20"/>
-      <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24332,29 +24331,29 @@
       <c r="CG12" s="17">
         <v>124488.42840152988</v>
       </c>
-      <c r="CH12" s="15">
+      <c r="CH12" s="17">
         <v>124223.62504618784</v>
       </c>
-      <c r="CI12" s="15">
+      <c r="CI12" s="17">
         <v>125648.83545341165</v>
       </c>
-      <c r="CJ12" s="15">
+      <c r="CJ12" s="17">
         <v>144056.10576122248</v>
       </c>
-      <c r="CK12" s="15">
-        <v>138425.43993440329</v>
-      </c>
-      <c r="CL12" s="15">
+      <c r="CK12" s="17">
+        <v>138745.43860942539</v>
+      </c>
+      <c r="CL12" s="17">
         <v>143436.29439306865</v>
       </c>
-      <c r="CM12" s="15">
+      <c r="CM12" s="17">
         <v>143353.08136227759</v>
       </c>
-      <c r="CN12" s="15">
+      <c r="CN12" s="17">
         <v>163156.69927114615</v>
       </c>
-      <c r="CO12" s="15">
-        <v>170138.51592938413</v>
+      <c r="CO12" s="17">
+        <v>170532.75677675504</v>
       </c>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
@@ -24671,28 +24670,28 @@
       <c r="CG13" s="17">
         <v>146344.17741600078</v>
       </c>
-      <c r="CH13" s="15">
+      <c r="CH13" s="17">
         <v>150604.620452075</v>
       </c>
-      <c r="CI13" s="15">
+      <c r="CI13" s="17">
         <v>152506.97628544361</v>
       </c>
-      <c r="CJ13" s="15">
+      <c r="CJ13" s="17">
         <v>153829.46204582092</v>
       </c>
-      <c r="CK13" s="15">
+      <c r="CK13" s="17">
         <v>149606.02567945013</v>
       </c>
-      <c r="CL13" s="15">
+      <c r="CL13" s="17">
         <v>154044.26758366541</v>
       </c>
-      <c r="CM13" s="15">
+      <c r="CM13" s="17">
         <v>156325.11835471363</v>
       </c>
-      <c r="CN13" s="15">
+      <c r="CN13" s="17">
         <v>160056.12459406475</v>
       </c>
-      <c r="CO13" s="15">
+      <c r="CO13" s="17">
         <v>158429.80059888729</v>
       </c>
       <c r="CP13" s="11"/>
@@ -25162,29 +25161,29 @@
       <c r="CG15" s="18">
         <v>270832.60581753065</v>
       </c>
-      <c r="CH15" s="16">
+      <c r="CH15" s="18">
         <v>274828.24549826281</v>
       </c>
-      <c r="CI15" s="16">
+      <c r="CI15" s="18">
         <v>278155.81173885526</v>
       </c>
-      <c r="CJ15" s="16">
+      <c r="CJ15" s="18">
         <v>297885.56780704344</v>
       </c>
-      <c r="CK15" s="16">
-        <v>288031.46561385342</v>
-      </c>
-      <c r="CL15" s="16">
+      <c r="CK15" s="18">
+        <v>288351.46428887552</v>
+      </c>
+      <c r="CL15" s="18">
         <v>297480.56197673408</v>
       </c>
-      <c r="CM15" s="16">
+      <c r="CM15" s="18">
         <v>299678.19971699122</v>
       </c>
-      <c r="CN15" s="16">
+      <c r="CN15" s="18">
         <v>323212.82386521087</v>
       </c>
-      <c r="CO15" s="16">
-        <v>328568.31652827142</v>
+      <c r="CO15" s="18">
+        <v>328962.55737564235</v>
       </c>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
@@ -25661,7 +25660,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25671,7 +25670,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25681,139 +25680,139 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>2000</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="20">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19">
         <v>2001</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="20">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19">
         <v>2002</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="20">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="19">
         <v>2003</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="20">
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="19">
         <v>2004</v>
       </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="20">
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="19">
         <v>2005</v>
       </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="20">
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="19">
         <v>2006</v>
       </c>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="20">
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="19">
         <v>2007</v>
       </c>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="20">
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="19">
         <v>2008</v>
       </c>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="20">
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="19">
         <v>2009</v>
       </c>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="20">
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="20">
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="19">
         <v>2011</v>
       </c>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="20">
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="19">
         <v>2012</v>
       </c>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="20">
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="19">
         <v>2013</v>
       </c>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="20">
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="19">
         <v>2014</v>
       </c>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="20">
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="19">
         <v>2015</v>
       </c>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="20">
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="19">
         <v>2016</v>
       </c>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="20">
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="19">
         <v>2017</v>
       </c>
-      <c r="BS28" s="22"/>
-      <c r="BT28" s="22"/>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="20">
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="19">
         <v>2018</v>
       </c>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="20">
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="19">
         <v>2019</v>
       </c>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="20">
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="19">
         <v>2020</v>
       </c>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
-      <c r="CH28" s="20">
+      <c r="CE28" s="20"/>
+      <c r="CF28" s="20"/>
+      <c r="CG28" s="20"/>
+      <c r="CH28" s="19">
         <v>2021</v>
       </c>
       <c r="CI28" s="20"/>
       <c r="CJ28" s="20"/>
       <c r="CK28" s="20"/>
-      <c r="CL28" s="20">
+      <c r="CL28" s="19">
         <v>2022</v>
       </c>
       <c r="CM28" s="20"/>
@@ -26360,29 +26359,29 @@
       <c r="CG31" s="17">
         <v>118317.68266628485</v>
       </c>
-      <c r="CH31" s="15">
+      <c r="CH31" s="17">
         <v>112701.96329946625</v>
       </c>
-      <c r="CI31" s="15">
+      <c r="CI31" s="17">
         <v>115990.73807519808</v>
       </c>
-      <c r="CJ31" s="15">
+      <c r="CJ31" s="17">
         <v>134238.28213043147</v>
       </c>
-      <c r="CK31" s="15">
-        <v>125776.69532565904</v>
-      </c>
-      <c r="CL31" s="15">
+      <c r="CK31" s="17">
+        <v>126067.45384426617</v>
+      </c>
+      <c r="CL31" s="17">
         <v>125965.53312470275</v>
       </c>
-      <c r="CM31" s="15">
+      <c r="CM31" s="17">
         <v>125520.1662002455</v>
       </c>
-      <c r="CN31" s="15">
+      <c r="CN31" s="17">
         <v>142359.38932074618</v>
       </c>
-      <c r="CO31" s="15">
-        <v>142597.73531886877</v>
+      <c r="CO31" s="17">
+        <v>142928.1593366063</v>
       </c>
       <c r="CP31" s="11"/>
       <c r="CQ31" s="11"/>
@@ -26699,28 +26698,28 @@
       <c r="CG32" s="17">
         <v>137713.88138289549</v>
       </c>
-      <c r="CH32" s="15">
+      <c r="CH32" s="17">
         <v>141307.31288605015</v>
       </c>
-      <c r="CI32" s="15">
+      <c r="CI32" s="17">
         <v>142330.56329954363</v>
       </c>
-      <c r="CJ32" s="15">
+      <c r="CJ32" s="17">
         <v>142567.99092063835</v>
       </c>
-      <c r="CK32" s="15">
+      <c r="CK32" s="17">
         <v>139030.92364689126</v>
       </c>
-      <c r="CL32" s="15">
+      <c r="CL32" s="17">
         <v>142965.36018506213</v>
       </c>
-      <c r="CM32" s="15">
+      <c r="CM32" s="17">
         <v>144141.52897438855</v>
       </c>
-      <c r="CN32" s="15">
+      <c r="CN32" s="17">
         <v>144416.5673826391</v>
       </c>
-      <c r="CO32" s="15">
+      <c r="CO32" s="17">
         <v>141918.83422163335</v>
       </c>
       <c r="CP32" s="11"/>
@@ -27190,29 +27189,29 @@
       <c r="CG34" s="18">
         <v>256031.56404918034</v>
       </c>
-      <c r="CH34" s="16">
+      <c r="CH34" s="18">
         <v>254009.27618551638</v>
       </c>
-      <c r="CI34" s="16">
+      <c r="CI34" s="18">
         <v>258321.30137474171</v>
       </c>
-      <c r="CJ34" s="16">
+      <c r="CJ34" s="18">
         <v>276806.27305106982</v>
       </c>
-      <c r="CK34" s="16">
-        <v>264807.61897255026</v>
-      </c>
-      <c r="CL34" s="16">
+      <c r="CK34" s="18">
+        <v>265098.37749115744</v>
+      </c>
+      <c r="CL34" s="18">
         <v>268930.89330976491</v>
       </c>
-      <c r="CM34" s="16">
+      <c r="CM34" s="18">
         <v>269661.69517463405</v>
       </c>
-      <c r="CN34" s="16">
+      <c r="CN34" s="18">
         <v>286775.95670338528</v>
       </c>
-      <c r="CO34" s="16">
-        <v>284516.56954050215</v>
+      <c r="CO34" s="18">
+        <v>284846.99355823966</v>
       </c>
       <c r="CP34" s="11"/>
       <c r="CQ34" s="11"/>
@@ -27689,7 +27688,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
@@ -27699,7 +27698,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
@@ -27709,140 +27708,140 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20" t="s">
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20" t="s">
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20" t="s">
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20" t="s">
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20" t="s">
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="20" t="s">
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20" t="s">
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="20" t="s">
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
-      <c r="AS47" s="20"/>
-      <c r="AT47" s="20" t="s">
+      <c r="AQ47" s="19"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="20"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="20" t="s">
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="20"/>
-      <c r="AZ47" s="20"/>
-      <c r="BA47" s="20"/>
-      <c r="BB47" s="20" t="s">
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="19"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="20"/>
-      <c r="BE47" s="20"/>
-      <c r="BF47" s="20" t="s">
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="19"/>
+      <c r="BF47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="20"/>
-      <c r="BH47" s="20"/>
-      <c r="BI47" s="20"/>
-      <c r="BJ47" s="20" t="s">
+      <c r="BG47" s="19"/>
+      <c r="BH47" s="19"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="20"/>
-      <c r="BL47" s="20"/>
-      <c r="BM47" s="20"/>
-      <c r="BN47" s="20" t="s">
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="19"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="20"/>
-      <c r="BP47" s="20"/>
-      <c r="BQ47" s="20"/>
-      <c r="BR47" s="20" t="s">
+      <c r="BO47" s="19"/>
+      <c r="BP47" s="19"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="20"/>
-      <c r="BT47" s="20"/>
-      <c r="BU47" s="20"/>
-      <c r="BV47" s="20" t="s">
+      <c r="BS47" s="19"/>
+      <c r="BT47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="BV47" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="20"/>
-      <c r="BX47" s="20"/>
-      <c r="BY47" s="20"/>
-      <c r="BZ47" s="20" t="s">
+      <c r="BW47" s="19"/>
+      <c r="BX47" s="19"/>
+      <c r="BY47" s="19"/>
+      <c r="BZ47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="20"/>
-      <c r="CB47" s="20"/>
-      <c r="CC47" s="20"/>
-      <c r="CD47" s="20" t="s">
+      <c r="CA47" s="19"/>
+      <c r="CB47" s="19"/>
+      <c r="CC47" s="19"/>
+      <c r="CD47" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="20"/>
-      <c r="CF47" s="20"/>
-      <c r="CG47" s="20"/>
-      <c r="CH47" s="20" t="s">
+      <c r="CE47" s="19"/>
+      <c r="CF47" s="19"/>
+      <c r="CG47" s="19"/>
+      <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="20"/>
-      <c r="CJ47" s="20"/>
-      <c r="CK47" s="20"/>
-      <c r="CL47" s="20"/>
-      <c r="CM47" s="20"/>
+      <c r="CI47" s="19"/>
+      <c r="CJ47" s="19"/>
+      <c r="CK47" s="19"/>
+      <c r="CL47" s="19"/>
+      <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
     </row>
@@ -28376,7 +28375,7 @@
         <v>12.21101451218496</v>
       </c>
       <c r="CG50" s="12">
-        <v>11.195427327526716</v>
+        <v>11.452478267225288</v>
       </c>
       <c r="CH50" s="12">
         <v>15.466196015240513</v>
@@ -28388,7 +28387,7 @@
         <v>13.259134980077491</v>
       </c>
       <c r="CK50" s="12">
-        <v>22.909861084789739</v>
+        <v>22.910532040489187</v>
       </c>
       <c r="CL50" s="12"/>
       <c r="CM50" s="12"/>
@@ -29179,7 +29178,7 @@
         <v>6.8708653871586449</v>
       </c>
       <c r="CG53" s="12">
-        <v>6.3503652909170825</v>
+        <v>6.4685189652341677</v>
       </c>
       <c r="CH53" s="12">
         <v>8.2423538517311812</v>
@@ -29191,7 +29190,7 @@
         <v>8.5023441197974705</v>
       </c>
       <c r="CK53" s="12">
-        <v>14.073757819488833</v>
+        <v>14.083886546898867</v>
       </c>
       <c r="CL53" s="12"/>
       <c r="CM53" s="12"/>
@@ -29660,7 +29659,7 @@
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
@@ -29670,7 +29669,7 @@
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
@@ -29680,142 +29679,142 @@
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
-      <c r="J66" s="20" t="s">
+      <c r="J66" s="19" t="s">
         <v>31</v>
       </c>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
-      <c r="N66" s="20" t="s">
+      <c r="N66" s="19" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
-      <c r="R66" s="20" t="s">
+      <c r="R66" s="19" t="s">
         <v>33</v>
       </c>
       <c r="S66" s="21"/>
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
-      <c r="V66" s="20" t="s">
+      <c r="V66" s="19" t="s">
         <v>34</v>
       </c>
       <c r="W66" s="21"/>
       <c r="X66" s="21"/>
       <c r="Y66" s="21"/>
-      <c r="Z66" s="20" t="s">
+      <c r="Z66" s="19" t="s">
         <v>35</v>
       </c>
       <c r="AA66" s="21"/>
       <c r="AB66" s="21"/>
       <c r="AC66" s="21"/>
-      <c r="AD66" s="20" t="s">
+      <c r="AD66" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AE66" s="21"/>
       <c r="AF66" s="21"/>
       <c r="AG66" s="21"/>
-      <c r="AH66" s="20" t="s">
+      <c r="AH66" s="19" t="s">
         <v>37</v>
       </c>
       <c r="AI66" s="21"/>
       <c r="AJ66" s="21"/>
       <c r="AK66" s="21"/>
-      <c r="AL66" s="20" t="s">
+      <c r="AL66" s="19" t="s">
         <v>38</v>
       </c>
       <c r="AM66" s="21"/>
       <c r="AN66" s="21"/>
       <c r="AO66" s="21"/>
-      <c r="AP66" s="20" t="s">
+      <c r="AP66" s="19" t="s">
         <v>39</v>
       </c>
       <c r="AQ66" s="21"/>
       <c r="AR66" s="21"/>
       <c r="AS66" s="21"/>
-      <c r="AT66" s="20" t="s">
+      <c r="AT66" s="19" t="s">
         <v>40</v>
       </c>
       <c r="AU66" s="21"/>
       <c r="AV66" s="21"/>
       <c r="AW66" s="21"/>
-      <c r="AX66" s="20" t="s">
+      <c r="AX66" s="19" t="s">
         <v>41</v>
       </c>
       <c r="AY66" s="21"/>
       <c r="AZ66" s="21"/>
       <c r="BA66" s="21"/>
-      <c r="BB66" s="20" t="s">
+      <c r="BB66" s="19" t="s">
         <v>42</v>
       </c>
       <c r="BC66" s="21"/>
       <c r="BD66" s="21"/>
       <c r="BE66" s="21"/>
-      <c r="BF66" s="20" t="s">
+      <c r="BF66" s="19" t="s">
         <v>43</v>
       </c>
       <c r="BG66" s="21"/>
       <c r="BH66" s="21"/>
       <c r="BI66" s="21"/>
-      <c r="BJ66" s="20" t="s">
+      <c r="BJ66" s="19" t="s">
         <v>44</v>
       </c>
       <c r="BK66" s="21"/>
       <c r="BL66" s="21"/>
       <c r="BM66" s="21"/>
-      <c r="BN66" s="20" t="s">
+      <c r="BN66" s="19" t="s">
         <v>45</v>
       </c>
       <c r="BO66" s="21"/>
       <c r="BP66" s="21"/>
       <c r="BQ66" s="21"/>
-      <c r="BR66" s="20" t="s">
+      <c r="BR66" s="19" t="s">
         <v>25</v>
       </c>
       <c r="BS66" s="21"/>
       <c r="BT66" s="21"/>
       <c r="BU66" s="21"/>
-      <c r="BV66" s="20" t="s">
+      <c r="BV66" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BW66" s="21"/>
       <c r="BX66" s="21"/>
       <c r="BY66" s="21"/>
-      <c r="BZ66" s="20" t="s">
+      <c r="BZ66" s="19" t="s">
         <v>27</v>
       </c>
       <c r="CA66" s="21"/>
       <c r="CB66" s="21"/>
       <c r="CC66" s="21"/>
-      <c r="CD66" s="20" t="s">
+      <c r="CD66" s="19" t="s">
         <v>46</v>
       </c>
       <c r="CE66" s="21"/>
       <c r="CF66" s="21"/>
       <c r="CG66" s="21"/>
-      <c r="CH66" s="20" t="s">
+      <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="20"/>
-      <c r="CJ66" s="20"/>
-      <c r="CK66" s="20"/>
-      <c r="CL66" s="20"/>
-      <c r="CM66" s="20"/>
-      <c r="CN66" s="19"/>
-      <c r="CO66" s="19"/>
+      <c r="CI66" s="21"/>
+      <c r="CJ66" s="21"/>
+      <c r="CK66" s="21"/>
+      <c r="CL66" s="19"/>
+      <c r="CM66" s="21"/>
+      <c r="CN66" s="21"/>
+      <c r="CO66" s="21"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30347,7 +30346,7 @@
         <v>6.6426546140479417</v>
       </c>
       <c r="CG69" s="12">
-        <v>6.3042247712139101</v>
+        <v>6.5499686972737265</v>
       </c>
       <c r="CH69" s="12">
         <v>11.768712307161124</v>
@@ -30359,7 +30358,7 @@
         <v>6.0497699027643392</v>
       </c>
       <c r="CK69" s="12">
-        <v>13.373733464420383</v>
+        <v>13.374352363115477</v>
       </c>
       <c r="CL69" s="12"/>
       <c r="CM69" s="12"/>
@@ -31149,7 +31148,7 @@
         <v>3.8703100689210856</v>
       </c>
       <c r="CG72" s="12">
-        <v>3.4277238261467602</v>
+        <v>3.541287370425735</v>
       </c>
       <c r="CH72" s="12">
         <v>5.8744378742099599</v>
@@ -31161,7 +31160,7 @@
         <v>3.6016827011995218</v>
       </c>
       <c r="CK72" s="12">
-        <v>7.4427430163914323</v>
+        <v>7.4495424128882064</v>
       </c>
       <c r="CL72" s="12"/>
       <c r="CM72" s="12"/>
@@ -31629,7 +31628,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -31639,7 +31638,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -31649,139 +31648,139 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="20">
+      <c r="B84" s="19">
         <v>2000</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="20">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="19">
         <v>2001</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="20">
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="19">
         <v>2002</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="20">
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="19">
         <v>2003</v>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="20">
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="19">
         <v>2004</v>
       </c>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="20">
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="19">
         <v>2005</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="20">
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="19">
         <v>2006</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="20">
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="19">
         <v>2007</v>
       </c>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="20">
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="19">
         <v>2008</v>
       </c>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="20">
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+      <c r="AL84" s="19">
         <v>2009</v>
       </c>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="20">
+      <c r="AM84" s="20"/>
+      <c r="AN84" s="20"/>
+      <c r="AO84" s="20"/>
+      <c r="AP84" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="20">
+      <c r="AQ84" s="20"/>
+      <c r="AR84" s="20"/>
+      <c r="AS84" s="20"/>
+      <c r="AT84" s="19">
         <v>2011</v>
       </c>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="20">
+      <c r="AU84" s="20"/>
+      <c r="AV84" s="20"/>
+      <c r="AW84" s="20"/>
+      <c r="AX84" s="19">
         <v>2012</v>
       </c>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="20">
+      <c r="AY84" s="20"/>
+      <c r="AZ84" s="20"/>
+      <c r="BA84" s="20"/>
+      <c r="BB84" s="19">
         <v>2013</v>
       </c>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="20">
+      <c r="BC84" s="20"/>
+      <c r="BD84" s="20"/>
+      <c r="BE84" s="20"/>
+      <c r="BF84" s="19">
         <v>2014</v>
       </c>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="20">
+      <c r="BG84" s="20"/>
+      <c r="BH84" s="20"/>
+      <c r="BI84" s="20"/>
+      <c r="BJ84" s="19">
         <v>2015</v>
       </c>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="20">
+      <c r="BK84" s="20"/>
+      <c r="BL84" s="20"/>
+      <c r="BM84" s="20"/>
+      <c r="BN84" s="19">
         <v>2016</v>
       </c>
-      <c r="BO84" s="22"/>
-      <c r="BP84" s="22"/>
-      <c r="BQ84" s="22"/>
-      <c r="BR84" s="20">
+      <c r="BO84" s="20"/>
+      <c r="BP84" s="20"/>
+      <c r="BQ84" s="20"/>
+      <c r="BR84" s="19">
         <v>2017</v>
       </c>
-      <c r="BS84" s="22"/>
-      <c r="BT84" s="22"/>
-      <c r="BU84" s="22"/>
-      <c r="BV84" s="20">
+      <c r="BS84" s="20"/>
+      <c r="BT84" s="20"/>
+      <c r="BU84" s="20"/>
+      <c r="BV84" s="19">
         <v>2018</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="20">
+      <c r="BW84" s="20"/>
+      <c r="BX84" s="20"/>
+      <c r="BY84" s="20"/>
+      <c r="BZ84" s="19">
         <v>2019</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="20">
+      <c r="CA84" s="20"/>
+      <c r="CB84" s="20"/>
+      <c r="CC84" s="20"/>
+      <c r="CD84" s="19">
         <v>2020</v>
       </c>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
-      <c r="CH84" s="20">
+      <c r="CE84" s="20"/>
+      <c r="CF84" s="20"/>
+      <c r="CG84" s="20"/>
+      <c r="CH84" s="19">
         <v>2021</v>
       </c>
       <c r="CI84" s="20"/>
       <c r="CJ84" s="20"/>
       <c r="CK84" s="20"/>
-      <c r="CL84" s="20">
+      <c r="CL84" s="19">
         <v>2022</v>
       </c>
       <c r="CM84" s="20"/>
@@ -32338,7 +32337,7 @@
         <v>107.31372859885946</v>
       </c>
       <c r="CK87" s="12">
-        <v>110.05650893911174</v>
+        <v>110.05650893911177</v>
       </c>
       <c r="CL87" s="12">
         <v>113.86947749514169</v>
@@ -32350,7 +32349,7 @@
         <v>114.60901880067924</v>
       </c>
       <c r="CO87" s="12">
-        <v>119.31361711245292</v>
+        <v>119.3136171124529</v>
       </c>
       <c r="CP87" s="11"/>
       <c r="CQ87" s="11"/>
@@ -33168,7 +33167,7 @@
         <v>107.61517957076232</v>
       </c>
       <c r="CK90" s="12">
-        <v>108.77008249664846</v>
+        <v>108.77149344246504</v>
       </c>
       <c r="CL90" s="12">
         <v>110.615986997851</v>
@@ -33180,7 +33179,7 @@
         <v>112.70569108396786</v>
       </c>
       <c r="CO90" s="12">
-        <v>115.4830163525848</v>
+        <v>115.4874598697082</v>
       </c>
       <c r="CP90" s="11"/>
       <c r="CQ90" s="11"/>
@@ -33353,7 +33352,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33363,7 +33362,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -33373,139 +33372,139 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="20">
+      <c r="B103" s="19">
         <v>2000</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="20">
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="19">
         <v>2001</v>
       </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="20">
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="19">
         <v>2002</v>
       </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="20">
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="19">
         <v>2003</v>
       </c>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="20">
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="19">
         <v>2004</v>
       </c>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="20">
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="19">
         <v>2005</v>
       </c>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="20">
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="19">
         <v>2006</v>
       </c>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="20">
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="19">
         <v>2007</v>
       </c>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="20">
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="19">
         <v>2008</v>
       </c>
-      <c r="AI103" s="22"/>
-      <c r="AJ103" s="22"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="20">
+      <c r="AI103" s="20"/>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="20"/>
+      <c r="AL103" s="19">
         <v>2009</v>
       </c>
-      <c r="AM103" s="22"/>
-      <c r="AN103" s="22"/>
-      <c r="AO103" s="22"/>
-      <c r="AP103" s="20">
+      <c r="AM103" s="20"/>
+      <c r="AN103" s="20"/>
+      <c r="AO103" s="20"/>
+      <c r="AP103" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="22"/>
-      <c r="AR103" s="22"/>
-      <c r="AS103" s="22"/>
-      <c r="AT103" s="20">
+      <c r="AQ103" s="20"/>
+      <c r="AR103" s="20"/>
+      <c r="AS103" s="20"/>
+      <c r="AT103" s="19">
         <v>2011</v>
       </c>
-      <c r="AU103" s="22"/>
-      <c r="AV103" s="22"/>
-      <c r="AW103" s="22"/>
-      <c r="AX103" s="20">
+      <c r="AU103" s="20"/>
+      <c r="AV103" s="20"/>
+      <c r="AW103" s="20"/>
+      <c r="AX103" s="19">
         <v>2012</v>
       </c>
-      <c r="AY103" s="22"/>
-      <c r="AZ103" s="22"/>
-      <c r="BA103" s="22"/>
-      <c r="BB103" s="20">
+      <c r="AY103" s="20"/>
+      <c r="AZ103" s="20"/>
+      <c r="BA103" s="20"/>
+      <c r="BB103" s="19">
         <v>2013</v>
       </c>
-      <c r="BC103" s="22"/>
-      <c r="BD103" s="22"/>
-      <c r="BE103" s="22"/>
-      <c r="BF103" s="20">
+      <c r="BC103" s="20"/>
+      <c r="BD103" s="20"/>
+      <c r="BE103" s="20"/>
+      <c r="BF103" s="19">
         <v>2014</v>
       </c>
-      <c r="BG103" s="22"/>
-      <c r="BH103" s="22"/>
-      <c r="BI103" s="22"/>
-      <c r="BJ103" s="20">
+      <c r="BG103" s="20"/>
+      <c r="BH103" s="20"/>
+      <c r="BI103" s="20"/>
+      <c r="BJ103" s="19">
         <v>2015</v>
       </c>
-      <c r="BK103" s="22"/>
-      <c r="BL103" s="22"/>
-      <c r="BM103" s="22"/>
-      <c r="BN103" s="20">
+      <c r="BK103" s="20"/>
+      <c r="BL103" s="20"/>
+      <c r="BM103" s="20"/>
+      <c r="BN103" s="19">
         <v>2016</v>
       </c>
-      <c r="BO103" s="22"/>
-      <c r="BP103" s="22"/>
-      <c r="BQ103" s="22"/>
-      <c r="BR103" s="20">
+      <c r="BO103" s="20"/>
+      <c r="BP103" s="20"/>
+      <c r="BQ103" s="20"/>
+      <c r="BR103" s="19">
         <v>2017</v>
       </c>
-      <c r="BS103" s="22"/>
-      <c r="BT103" s="22"/>
-      <c r="BU103" s="22"/>
-      <c r="BV103" s="20">
+      <c r="BS103" s="20"/>
+      <c r="BT103" s="20"/>
+      <c r="BU103" s="20"/>
+      <c r="BV103" s="19">
         <v>2018</v>
       </c>
-      <c r="BW103" s="22"/>
-      <c r="BX103" s="22"/>
-      <c r="BY103" s="22"/>
-      <c r="BZ103" s="20">
+      <c r="BW103" s="20"/>
+      <c r="BX103" s="20"/>
+      <c r="BY103" s="20"/>
+      <c r="BZ103" s="19">
         <v>2019</v>
       </c>
-      <c r="CA103" s="22"/>
-      <c r="CB103" s="22"/>
-      <c r="CC103" s="22"/>
-      <c r="CD103" s="20">
+      <c r="CA103" s="20"/>
+      <c r="CB103" s="20"/>
+      <c r="CC103" s="20"/>
+      <c r="CD103" s="19">
         <v>2020</v>
       </c>
-      <c r="CE103" s="22"/>
-      <c r="CF103" s="22"/>
-      <c r="CG103" s="22"/>
-      <c r="CH103" s="20">
+      <c r="CE103" s="20"/>
+      <c r="CF103" s="20"/>
+      <c r="CG103" s="20"/>
+      <c r="CH103" s="19">
         <v>2021</v>
       </c>
       <c r="CI103" s="20"/>
       <c r="CJ103" s="20"/>
       <c r="CK103" s="20"/>
-      <c r="CL103" s="20">
+      <c r="CL103" s="19">
         <v>2022</v>
       </c>
       <c r="CM103" s="20"/>
@@ -34062,7 +34061,7 @@
         <v>48.359545184322386</v>
       </c>
       <c r="CK106" s="12">
-        <v>48.059138135963934</v>
+        <v>48.116779622255635</v>
       </c>
       <c r="CL106" s="12">
         <v>48.217030867477916</v>
@@ -34074,7 +34073,7 @@
         <v>50.479649080751585</v>
       </c>
       <c r="CO106" s="12">
-        <v>51.781777904548711</v>
+        <v>51.839564398213156</v>
       </c>
       <c r="CP106" s="11"/>
       <c r="CQ106" s="11"/>
@@ -34401,7 +34400,7 @@
         <v>51.640454815677593</v>
       </c>
       <c r="CK107" s="12">
-        <v>51.940861864036059</v>
+        <v>51.883220377744365</v>
       </c>
       <c r="CL107" s="12">
         <v>51.782969132522069</v>
@@ -34413,7 +34412,7 @@
         <v>49.520350919248429</v>
       </c>
       <c r="CO107" s="12">
-        <v>48.218222095451289</v>
+        <v>48.16043560178683</v>
       </c>
       <c r="CP107" s="11"/>
       <c r="CQ107" s="11"/>
@@ -35381,7 +35380,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -35391,7 +35390,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -35401,139 +35400,139 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="20">
+      <c r="B122" s="19">
         <v>2000</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="20">
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="19">
         <v>2001</v>
       </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="20">
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="19">
         <v>2002</v>
       </c>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="20">
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="19">
         <v>2003</v>
       </c>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="20">
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="19">
         <v>2004</v>
       </c>
-      <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="22"/>
-      <c r="V122" s="20">
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="19">
         <v>2005</v>
       </c>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-      <c r="Y122" s="22"/>
-      <c r="Z122" s="20">
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="19">
         <v>2006</v>
       </c>
-      <c r="AA122" s="22"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="22"/>
-      <c r="AD122" s="20">
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="19">
         <v>2007</v>
       </c>
-      <c r="AE122" s="22"/>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="22"/>
-      <c r="AH122" s="20">
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="19">
         <v>2008</v>
       </c>
-      <c r="AI122" s="22"/>
-      <c r="AJ122" s="22"/>
-      <c r="AK122" s="22"/>
-      <c r="AL122" s="20">
+      <c r="AI122" s="20"/>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="20"/>
+      <c r="AL122" s="19">
         <v>2009</v>
       </c>
-      <c r="AM122" s="22"/>
-      <c r="AN122" s="22"/>
-      <c r="AO122" s="22"/>
-      <c r="AP122" s="20">
+      <c r="AM122" s="20"/>
+      <c r="AN122" s="20"/>
+      <c r="AO122" s="20"/>
+      <c r="AP122" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="22"/>
-      <c r="AR122" s="22"/>
-      <c r="AS122" s="22"/>
-      <c r="AT122" s="20">
+      <c r="AQ122" s="20"/>
+      <c r="AR122" s="20"/>
+      <c r="AS122" s="20"/>
+      <c r="AT122" s="19">
         <v>2011</v>
       </c>
-      <c r="AU122" s="22"/>
-      <c r="AV122" s="22"/>
-      <c r="AW122" s="22"/>
-      <c r="AX122" s="20">
+      <c r="AU122" s="20"/>
+      <c r="AV122" s="20"/>
+      <c r="AW122" s="20"/>
+      <c r="AX122" s="19">
         <v>2012</v>
       </c>
-      <c r="AY122" s="22"/>
-      <c r="AZ122" s="22"/>
-      <c r="BA122" s="22"/>
-      <c r="BB122" s="20">
+      <c r="AY122" s="20"/>
+      <c r="AZ122" s="20"/>
+      <c r="BA122" s="20"/>
+      <c r="BB122" s="19">
         <v>2013</v>
       </c>
-      <c r="BC122" s="22"/>
-      <c r="BD122" s="22"/>
-      <c r="BE122" s="22"/>
-      <c r="BF122" s="20">
+      <c r="BC122" s="20"/>
+      <c r="BD122" s="20"/>
+      <c r="BE122" s="20"/>
+      <c r="BF122" s="19">
         <v>2014</v>
       </c>
-      <c r="BG122" s="22"/>
-      <c r="BH122" s="22"/>
-      <c r="BI122" s="22"/>
-      <c r="BJ122" s="20">
+      <c r="BG122" s="20"/>
+      <c r="BH122" s="20"/>
+      <c r="BI122" s="20"/>
+      <c r="BJ122" s="19">
         <v>2015</v>
       </c>
-      <c r="BK122" s="22"/>
-      <c r="BL122" s="22"/>
-      <c r="BM122" s="22"/>
-      <c r="BN122" s="20">
+      <c r="BK122" s="20"/>
+      <c r="BL122" s="20"/>
+      <c r="BM122" s="20"/>
+      <c r="BN122" s="19">
         <v>2016</v>
       </c>
-      <c r="BO122" s="22"/>
-      <c r="BP122" s="22"/>
-      <c r="BQ122" s="22"/>
-      <c r="BR122" s="20">
+      <c r="BO122" s="20"/>
+      <c r="BP122" s="20"/>
+      <c r="BQ122" s="20"/>
+      <c r="BR122" s="19">
         <v>2017</v>
       </c>
-      <c r="BS122" s="22"/>
-      <c r="BT122" s="22"/>
-      <c r="BU122" s="22"/>
-      <c r="BV122" s="20">
+      <c r="BS122" s="20"/>
+      <c r="BT122" s="20"/>
+      <c r="BU122" s="20"/>
+      <c r="BV122" s="19">
         <v>2018</v>
       </c>
-      <c r="BW122" s="22"/>
-      <c r="BX122" s="22"/>
-      <c r="BY122" s="22"/>
-      <c r="BZ122" s="20">
+      <c r="BW122" s="20"/>
+      <c r="BX122" s="20"/>
+      <c r="BY122" s="20"/>
+      <c r="BZ122" s="19">
         <v>2019</v>
       </c>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="20">
+      <c r="CA122" s="20"/>
+      <c r="CB122" s="20"/>
+      <c r="CC122" s="20"/>
+      <c r="CD122" s="19">
         <v>2020</v>
       </c>
-      <c r="CE122" s="22"/>
-      <c r="CF122" s="22"/>
-      <c r="CG122" s="22"/>
-      <c r="CH122" s="20">
+      <c r="CE122" s="20"/>
+      <c r="CF122" s="20"/>
+      <c r="CG122" s="20"/>
+      <c r="CH122" s="19">
         <v>2021</v>
       </c>
       <c r="CI122" s="20"/>
       <c r="CJ122" s="20"/>
       <c r="CK122" s="20"/>
-      <c r="CL122" s="20">
+      <c r="CL122" s="19">
         <v>2022</v>
       </c>
       <c r="CM122" s="20"/>
@@ -36090,7 +36089,7 @@
         <v>48.495390169739743</v>
       </c>
       <c r="CK125" s="12">
-        <v>47.49738539006951</v>
+        <v>47.55496998410382</v>
       </c>
       <c r="CL125" s="12">
         <v>46.839368870727256</v>
@@ -36102,7 +36101,7 @@
         <v>49.641326615114274</v>
       </c>
       <c r="CO125" s="12">
-        <v>50.119307831233137</v>
+        <v>50.177169697732225</v>
       </c>
       <c r="CP125" s="11"/>
       <c r="CQ125" s="11"/>
@@ -36429,7 +36428,7 @@
         <v>51.50460983026025</v>
       </c>
       <c r="CK126" s="12">
-        <v>52.502614609930497</v>
+        <v>52.445030015896165</v>
       </c>
       <c r="CL126" s="12">
         <v>53.160631129272737</v>
@@ -36441,7 +36440,7 @@
         <v>50.358673384885734</v>
       </c>
       <c r="CO126" s="12">
-        <v>49.880692168766856</v>
+        <v>49.822830302267775</v>
       </c>
       <c r="CP126" s="11"/>
       <c r="CQ126" s="11"/>
@@ -37555,13 +37554,13 @@
     <mergeCell ref="BJ122:BM122"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CL66:CM66"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="CH66:CK66"/>
     <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CL66:CO66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECD3450-678B-4DD3-9176-5777D0099ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82730FE4-E558-4448-9443-5096FDFAC437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CO$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CP$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,6 +741,9 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23610,14 +23616,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="93" width="8.33203125" style="3" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="94" width="8.33203125" style="3" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23632,7 +23638,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23642,7 +23648,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23652,144 +23658,147 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
+      <c r="CP9" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24070,6 +24079,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24319,43 +24331,45 @@
       <c r="CC12" s="17">
         <v>163483.19961062953</v>
       </c>
-      <c r="CD12" s="17">
+      <c r="CD12" s="15">
         <v>154557.66416923361</v>
       </c>
-      <c r="CE12" s="17">
+      <c r="CE12" s="15">
         <v>83141.367183577007</v>
       </c>
-      <c r="CF12" s="17">
+      <c r="CF12" s="15">
         <v>128379.64827916201</v>
       </c>
-      <c r="CG12" s="17">
+      <c r="CG12" s="15">
         <v>124488.42840152988</v>
       </c>
-      <c r="CH12" s="17">
+      <c r="CH12" s="15">
         <v>124223.62504618784</v>
       </c>
-      <c r="CI12" s="17">
+      <c r="CI12" s="15">
         <v>125648.83545341165</v>
       </c>
-      <c r="CJ12" s="17">
+      <c r="CJ12" s="15">
         <v>144056.10576122248</v>
       </c>
-      <c r="CK12" s="17">
+      <c r="CK12" s="15">
         <v>138745.43860942539</v>
       </c>
-      <c r="CL12" s="17">
+      <c r="CL12" s="15">
         <v>143436.29439306865</v>
       </c>
-      <c r="CM12" s="17">
+      <c r="CM12" s="15">
         <v>143353.08136227759</v>
       </c>
-      <c r="CN12" s="17">
+      <c r="CN12" s="15">
         <v>163156.69927114615</v>
       </c>
-      <c r="CO12" s="17">
+      <c r="CO12" s="15">
         <v>170532.75677675504</v>
       </c>
-      <c r="CP12" s="11"/>
+      <c r="CP12" s="15">
+        <v>165592.59158373723</v>
+      </c>
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
       <c r="CS12" s="11"/>
@@ -24658,43 +24672,45 @@
       <c r="CC13" s="17">
         <v>140500.95675457982</v>
       </c>
-      <c r="CD13" s="17">
+      <c r="CD13" s="15">
         <v>145927.77943950184</v>
       </c>
-      <c r="CE13" s="17">
+      <c r="CE13" s="15">
         <v>148418.65486251179</v>
       </c>
-      <c r="CF13" s="17">
+      <c r="CF13" s="15">
         <v>150354.47324956354</v>
       </c>
-      <c r="CG13" s="17">
+      <c r="CG13" s="15">
         <v>146344.17741600078</v>
       </c>
-      <c r="CH13" s="17">
+      <c r="CH13" s="15">
         <v>150604.620452075</v>
       </c>
-      <c r="CI13" s="17">
+      <c r="CI13" s="15">
         <v>152506.97628544361</v>
       </c>
-      <c r="CJ13" s="17">
+      <c r="CJ13" s="15">
         <v>153829.46204582092</v>
       </c>
-      <c r="CK13" s="17">
+      <c r="CK13" s="15">
         <v>149606.02567945013</v>
       </c>
-      <c r="CL13" s="17">
+      <c r="CL13" s="15">
         <v>154044.26758366541</v>
       </c>
-      <c r="CM13" s="17">
+      <c r="CM13" s="15">
         <v>156325.11835471363</v>
       </c>
-      <c r="CN13" s="17">
+      <c r="CN13" s="15">
         <v>160056.12459406475</v>
       </c>
-      <c r="CO13" s="17">
+      <c r="CO13" s="15">
         <v>158429.80059888729</v>
       </c>
-      <c r="CP13" s="11"/>
+      <c r="CP13" s="15">
+        <v>165459.15803816935</v>
+      </c>
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
       <c r="CS13" s="11"/>
@@ -25149,43 +25165,45 @@
       <c r="CC15" s="18">
         <v>303984.15636520938</v>
       </c>
-      <c r="CD15" s="18">
+      <c r="CD15" s="16">
         <v>300485.44360873546</v>
       </c>
-      <c r="CE15" s="18">
+      <c r="CE15" s="16">
         <v>231560.02204608879</v>
       </c>
-      <c r="CF15" s="18">
+      <c r="CF15" s="16">
         <v>278734.12152872555</v>
       </c>
-      <c r="CG15" s="18">
+      <c r="CG15" s="16">
         <v>270832.60581753065</v>
       </c>
-      <c r="CH15" s="18">
+      <c r="CH15" s="16">
         <v>274828.24549826281</v>
       </c>
-      <c r="CI15" s="18">
+      <c r="CI15" s="16">
         <v>278155.81173885526</v>
       </c>
-      <c r="CJ15" s="18">
+      <c r="CJ15" s="16">
         <v>297885.56780704344</v>
       </c>
-      <c r="CK15" s="18">
+      <c r="CK15" s="16">
         <v>288351.46428887552</v>
       </c>
-      <c r="CL15" s="18">
+      <c r="CL15" s="16">
         <v>297480.56197673408</v>
       </c>
-      <c r="CM15" s="18">
+      <c r="CM15" s="16">
         <v>299678.19971699122</v>
       </c>
-      <c r="CN15" s="18">
+      <c r="CN15" s="16">
         <v>323212.82386521087</v>
       </c>
-      <c r="CO15" s="18">
+      <c r="CO15" s="16">
         <v>328962.55737564235</v>
       </c>
-      <c r="CP15" s="11"/>
+      <c r="CP15" s="16">
+        <v>331051.74962190655</v>
+      </c>
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
       <c r="CS15" s="11"/>
@@ -25338,6 +25356,7 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
+      <c r="CP16" s="9"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25660,7 +25679,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25670,7 +25689,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25680,144 +25699,147 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="19">
+      <c r="B28" s="20">
         <v>2000</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20">
         <v>2001</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="19">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20">
         <v>2002</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="19">
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="20">
         <v>2003</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="19">
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20">
         <v>2004</v>
       </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="19">
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="20">
         <v>2005</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="19">
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="20">
         <v>2006</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="19">
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="20">
         <v>2007</v>
       </c>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="19">
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="20">
         <v>2008</v>
       </c>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="19">
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="20">
         <v>2009</v>
       </c>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="19">
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="19">
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="20">
         <v>2011</v>
       </c>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="19">
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="20">
         <v>2012</v>
       </c>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="19">
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="20">
         <v>2013</v>
       </c>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="19">
+      <c r="BC28" s="21"/>
+      <c r="BD28" s="21"/>
+      <c r="BE28" s="21"/>
+      <c r="BF28" s="20">
         <v>2014</v>
       </c>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="19">
+      <c r="BG28" s="21"/>
+      <c r="BH28" s="21"/>
+      <c r="BI28" s="21"/>
+      <c r="BJ28" s="20">
         <v>2015</v>
       </c>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="19">
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="21"/>
+      <c r="BM28" s="21"/>
+      <c r="BN28" s="20">
         <v>2016</v>
       </c>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="19">
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="20">
         <v>2017</v>
       </c>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="19">
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="20">
         <v>2018</v>
       </c>
-      <c r="BW28" s="20"/>
-      <c r="BX28" s="20"/>
-      <c r="BY28" s="20"/>
-      <c r="BZ28" s="19">
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="20">
         <v>2019</v>
       </c>
-      <c r="CA28" s="20"/>
-      <c r="CB28" s="20"/>
-      <c r="CC28" s="20"/>
-      <c r="CD28" s="19">
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="20">
         <v>2020</v>
       </c>
       <c r="CE28" s="20"/>
       <c r="CF28" s="20"/>
       <c r="CG28" s="20"/>
-      <c r="CH28" s="19">
+      <c r="CH28" s="20">
         <v>2021</v>
       </c>
       <c r="CI28" s="20"/>
       <c r="CJ28" s="20"/>
       <c r="CK28" s="20"/>
-      <c r="CL28" s="19">
+      <c r="CL28" s="20">
         <v>2022</v>
       </c>
       <c r="CM28" s="20"/>
       <c r="CN28" s="20"/>
       <c r="CO28" s="20"/>
+      <c r="CP28" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26098,6 +26120,9 @@
       </c>
       <c r="CO29" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP29" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26347,43 +26372,45 @@
       <c r="CC31" s="17">
         <v>161324.15405450863</v>
       </c>
-      <c r="CD31" s="17">
+      <c r="CD31" s="15">
         <v>147865.98794217067</v>
       </c>
-      <c r="CE31" s="17">
+      <c r="CE31" s="15">
         <v>80442.097894682389</v>
       </c>
-      <c r="CF31" s="17">
+      <c r="CF31" s="15">
         <v>125876.72598385259</v>
       </c>
-      <c r="CG31" s="17">
+      <c r="CG31" s="15">
         <v>118317.68266628485</v>
       </c>
-      <c r="CH31" s="17">
+      <c r="CH31" s="15">
         <v>112701.96329946625</v>
       </c>
-      <c r="CI31" s="17">
+      <c r="CI31" s="15">
         <v>115990.73807519808</v>
       </c>
-      <c r="CJ31" s="17">
+      <c r="CJ31" s="15">
         <v>134238.28213043147</v>
       </c>
-      <c r="CK31" s="17">
+      <c r="CK31" s="15">
         <v>126067.45384426617</v>
       </c>
-      <c r="CL31" s="17">
+      <c r="CL31" s="15">
         <v>125965.53312470275</v>
       </c>
-      <c r="CM31" s="17">
+      <c r="CM31" s="15">
         <v>125520.1662002455</v>
       </c>
-      <c r="CN31" s="17">
+      <c r="CN31" s="15">
         <v>142359.38932074618</v>
       </c>
-      <c r="CO31" s="17">
+      <c r="CO31" s="15">
         <v>142928.1593366063</v>
       </c>
-      <c r="CP31" s="11"/>
+      <c r="CP31" s="15">
+        <v>133250.92994935409</v>
+      </c>
       <c r="CQ31" s="11"/>
       <c r="CR31" s="11"/>
       <c r="CS31" s="11"/>
@@ -26686,43 +26713,45 @@
       <c r="CC32" s="17">
         <v>135748.35967848721</v>
       </c>
-      <c r="CD32" s="17">
+      <c r="CD32" s="15">
         <v>139666.02219371271</v>
       </c>
-      <c r="CE32" s="17">
+      <c r="CE32" s="15">
         <v>140776.89467278705</v>
       </c>
-      <c r="CF32" s="17">
+      <c r="CF32" s="15">
         <v>140615.47266983439</v>
       </c>
-      <c r="CG32" s="17">
+      <c r="CG32" s="15">
         <v>137713.88138289549</v>
       </c>
-      <c r="CH32" s="17">
+      <c r="CH32" s="15">
         <v>141307.31288605015</v>
       </c>
-      <c r="CI32" s="17">
+      <c r="CI32" s="15">
         <v>142330.56329954363</v>
       </c>
-      <c r="CJ32" s="17">
+      <c r="CJ32" s="15">
         <v>142567.99092063835</v>
       </c>
-      <c r="CK32" s="17">
+      <c r="CK32" s="15">
         <v>139030.92364689126</v>
       </c>
-      <c r="CL32" s="17">
+      <c r="CL32" s="15">
         <v>142965.36018506213</v>
       </c>
-      <c r="CM32" s="17">
+      <c r="CM32" s="15">
         <v>144141.52897438855</v>
       </c>
-      <c r="CN32" s="17">
+      <c r="CN32" s="15">
         <v>144416.5673826391</v>
       </c>
-      <c r="CO32" s="17">
+      <c r="CO32" s="15">
         <v>141918.83422163335</v>
       </c>
-      <c r="CP32" s="11"/>
+      <c r="CP32" s="15">
+        <v>145961.35390420625</v>
+      </c>
       <c r="CQ32" s="11"/>
       <c r="CR32" s="11"/>
       <c r="CS32" s="11"/>
@@ -27177,43 +27206,45 @@
       <c r="CC34" s="18">
         <v>297072.51373299584</v>
       </c>
-      <c r="CD34" s="18">
+      <c r="CD34" s="16">
         <v>287532.01013588335</v>
       </c>
-      <c r="CE34" s="18">
+      <c r="CE34" s="16">
         <v>221218.99256746942</v>
       </c>
-      <c r="CF34" s="18">
+      <c r="CF34" s="16">
         <v>266492.19865368697</v>
       </c>
-      <c r="CG34" s="18">
+      <c r="CG34" s="16">
         <v>256031.56404918034</v>
       </c>
-      <c r="CH34" s="18">
+      <c r="CH34" s="16">
         <v>254009.27618551638</v>
       </c>
-      <c r="CI34" s="18">
+      <c r="CI34" s="16">
         <v>258321.30137474171</v>
       </c>
-      <c r="CJ34" s="18">
+      <c r="CJ34" s="16">
         <v>276806.27305106982</v>
       </c>
-      <c r="CK34" s="18">
+      <c r="CK34" s="16">
         <v>265098.37749115744</v>
       </c>
-      <c r="CL34" s="18">
+      <c r="CL34" s="16">
         <v>268930.89330976491</v>
       </c>
-      <c r="CM34" s="18">
+      <c r="CM34" s="16">
         <v>269661.69517463405</v>
       </c>
-      <c r="CN34" s="18">
+      <c r="CN34" s="16">
         <v>286775.95670338528</v>
       </c>
-      <c r="CO34" s="18">
+      <c r="CO34" s="16">
         <v>284846.99355823966</v>
       </c>
-      <c r="CP34" s="11"/>
+      <c r="CP34" s="16">
+        <v>279212.28385356034</v>
+      </c>
       <c r="CQ34" s="11"/>
       <c r="CR34" s="11"/>
       <c r="CS34" s="11"/>
@@ -27366,6 +27397,7 @@
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
+      <c r="CP35" s="9"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27688,7 +27720,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
@@ -27698,7 +27730,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
@@ -27708,142 +27740,145 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19" t="s">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19" t="s">
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19" t="s">
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19" t="s">
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19" t="s">
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19" t="s">
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19" t="s">
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="19" t="s">
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="19"/>
-      <c r="AR47" s="19"/>
-      <c r="AS47" s="19"/>
-      <c r="AT47" s="19" t="s">
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="19"/>
-      <c r="AV47" s="19"/>
-      <c r="AW47" s="19"/>
-      <c r="AX47" s="19" t="s">
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="19"/>
-      <c r="AZ47" s="19"/>
-      <c r="BA47" s="19"/>
-      <c r="BB47" s="19" t="s">
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="20"/>
+      <c r="BA47" s="20"/>
+      <c r="BB47" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="19"/>
-      <c r="BD47" s="19"/>
-      <c r="BE47" s="19"/>
-      <c r="BF47" s="19" t="s">
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="20"/>
+      <c r="BE47" s="20"/>
+      <c r="BF47" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="19"/>
-      <c r="BH47" s="19"/>
-      <c r="BI47" s="19"/>
-      <c r="BJ47" s="19" t="s">
+      <c r="BG47" s="20"/>
+      <c r="BH47" s="20"/>
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="19"/>
-      <c r="BL47" s="19"/>
-      <c r="BM47" s="19"/>
-      <c r="BN47" s="19" t="s">
+      <c r="BK47" s="20"/>
+      <c r="BL47" s="20"/>
+      <c r="BM47" s="20"/>
+      <c r="BN47" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="19"/>
-      <c r="BP47" s="19"/>
-      <c r="BQ47" s="19"/>
-      <c r="BR47" s="19" t="s">
+      <c r="BO47" s="20"/>
+      <c r="BP47" s="20"/>
+      <c r="BQ47" s="20"/>
+      <c r="BR47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="19"/>
-      <c r="BT47" s="19"/>
-      <c r="BU47" s="19"/>
-      <c r="BV47" s="19" t="s">
+      <c r="BS47" s="20"/>
+      <c r="BT47" s="20"/>
+      <c r="BU47" s="20"/>
+      <c r="BV47" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="19"/>
-      <c r="BX47" s="19"/>
-      <c r="BY47" s="19"/>
-      <c r="BZ47" s="19" t="s">
+      <c r="BW47" s="20"/>
+      <c r="BX47" s="20"/>
+      <c r="BY47" s="20"/>
+      <c r="BZ47" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="19"/>
-      <c r="CB47" s="19"/>
-      <c r="CC47" s="19"/>
-      <c r="CD47" s="19" t="s">
+      <c r="CA47" s="20"/>
+      <c r="CB47" s="20"/>
+      <c r="CC47" s="20"/>
+      <c r="CD47" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="19"/>
-      <c r="CF47" s="19"/>
-      <c r="CG47" s="19"/>
-      <c r="CH47" s="19" t="s">
+      <c r="CE47" s="20"/>
+      <c r="CF47" s="20"/>
+      <c r="CG47" s="20"/>
+      <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="19"/>
-      <c r="CJ47" s="19"/>
-      <c r="CK47" s="19"/>
-      <c r="CL47" s="19"/>
+      <c r="CI47" s="20"/>
+      <c r="CJ47" s="20"/>
+      <c r="CK47" s="20"/>
+      <c r="CL47" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
+      <c r="CP47" s="19"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28113,10 +28148,13 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5"/>
+      <c r="CL48" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM48" s="5"/>
       <c r="CN48" s="5"/>
       <c r="CO48" s="5"/>
+      <c r="CP48" s="5"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28389,11 +28427,13 @@
       <c r="CK50" s="12">
         <v>22.910532040489187</v>
       </c>
-      <c r="CL50" s="12"/>
+      <c r="CL50" s="12">
+        <v>15.446785825317065</v>
+      </c>
       <c r="CM50" s="12"/>
       <c r="CN50" s="12"/>
       <c r="CO50" s="12"/>
-      <c r="CP50" s="11"/>
+      <c r="CP50" s="12"/>
       <c r="CQ50" s="11"/>
       <c r="CR50" s="11"/>
       <c r="CS50" s="11"/>
@@ -28716,11 +28756,13 @@
       <c r="CK51" s="12">
         <v>5.8980077034752583</v>
       </c>
-      <c r="CL51" s="12"/>
+      <c r="CL51" s="12">
+        <v>7.4101364715205733</v>
+      </c>
       <c r="CM51" s="12"/>
       <c r="CN51" s="12"/>
       <c r="CO51" s="12"/>
-      <c r="CP51" s="11"/>
+      <c r="CP51" s="12"/>
       <c r="CQ51" s="11"/>
       <c r="CR51" s="11"/>
       <c r="CS51" s="11"/>
@@ -29192,11 +29234,13 @@
       <c r="CK53" s="12">
         <v>14.083886546898867</v>
       </c>
-      <c r="CL53" s="12"/>
+      <c r="CL53" s="12">
+        <v>11.285170171151577</v>
+      </c>
       <c r="CM53" s="12"/>
       <c r="CN53" s="12"/>
       <c r="CO53" s="12"/>
-      <c r="CP53" s="11"/>
+      <c r="CP53" s="12"/>
       <c r="CQ53" s="11"/>
       <c r="CR53" s="11"/>
       <c r="CS53" s="11"/>
@@ -29345,6 +29389,7 @@
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
+      <c r="CP54" s="9"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -29659,7 +29704,7 @@
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
@@ -29669,7 +29714,7 @@
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
@@ -29679,142 +29724,145 @@
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="19" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="19" t="s">
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="19" t="s">
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="19" t="s">
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="19" t="s">
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="19" t="s">
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="19" t="s">
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="19" t="s">
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="19" t="s">
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="21"/>
-      <c r="AP66" s="19" t="s">
+      <c r="AM66" s="22"/>
+      <c r="AN66" s="22"/>
+      <c r="AO66" s="22"/>
+      <c r="AP66" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="21"/>
-      <c r="AT66" s="19" t="s">
+      <c r="AQ66" s="22"/>
+      <c r="AR66" s="22"/>
+      <c r="AS66" s="22"/>
+      <c r="AT66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="21"/>
-      <c r="AX66" s="19" t="s">
+      <c r="AU66" s="22"/>
+      <c r="AV66" s="22"/>
+      <c r="AW66" s="22"/>
+      <c r="AX66" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="21"/>
-      <c r="AZ66" s="21"/>
-      <c r="BA66" s="21"/>
-      <c r="BB66" s="19" t="s">
+      <c r="AY66" s="22"/>
+      <c r="AZ66" s="22"/>
+      <c r="BA66" s="22"/>
+      <c r="BB66" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="21"/>
-      <c r="BD66" s="21"/>
-      <c r="BE66" s="21"/>
-      <c r="BF66" s="19" t="s">
+      <c r="BC66" s="22"/>
+      <c r="BD66" s="22"/>
+      <c r="BE66" s="22"/>
+      <c r="BF66" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="21"/>
-      <c r="BH66" s="21"/>
-      <c r="BI66" s="21"/>
-      <c r="BJ66" s="19" t="s">
+      <c r="BG66" s="22"/>
+      <c r="BH66" s="22"/>
+      <c r="BI66" s="22"/>
+      <c r="BJ66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="21"/>
-      <c r="BL66" s="21"/>
-      <c r="BM66" s="21"/>
-      <c r="BN66" s="19" t="s">
+      <c r="BK66" s="22"/>
+      <c r="BL66" s="22"/>
+      <c r="BM66" s="22"/>
+      <c r="BN66" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="21"/>
-      <c r="BP66" s="21"/>
-      <c r="BQ66" s="21"/>
-      <c r="BR66" s="19" t="s">
+      <c r="BO66" s="22"/>
+      <c r="BP66" s="22"/>
+      <c r="BQ66" s="22"/>
+      <c r="BR66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="21"/>
-      <c r="BT66" s="21"/>
-      <c r="BU66" s="21"/>
-      <c r="BV66" s="19" t="s">
+      <c r="BS66" s="22"/>
+      <c r="BT66" s="22"/>
+      <c r="BU66" s="22"/>
+      <c r="BV66" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="21"/>
-      <c r="BX66" s="21"/>
-      <c r="BY66" s="21"/>
-      <c r="BZ66" s="19" t="s">
+      <c r="BW66" s="22"/>
+      <c r="BX66" s="22"/>
+      <c r="BY66" s="22"/>
+      <c r="BZ66" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="21"/>
-      <c r="CB66" s="21"/>
-      <c r="CC66" s="21"/>
-      <c r="CD66" s="19" t="s">
+      <c r="CA66" s="22"/>
+      <c r="CB66" s="22"/>
+      <c r="CC66" s="22"/>
+      <c r="CD66" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="21"/>
-      <c r="CF66" s="21"/>
-      <c r="CG66" s="21"/>
-      <c r="CH66" s="19" t="s">
+      <c r="CE66" s="20"/>
+      <c r="CF66" s="20"/>
+      <c r="CG66" s="20"/>
+      <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="21"/>
-      <c r="CJ66" s="21"/>
-      <c r="CK66" s="21"/>
-      <c r="CL66" s="19"/>
-      <c r="CM66" s="21"/>
-      <c r="CN66" s="21"/>
-      <c r="CO66" s="21"/>
+      <c r="CI66" s="20"/>
+      <c r="CJ66" s="20"/>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM66" s="19"/>
+      <c r="CN66" s="19"/>
+      <c r="CO66" s="19"/>
+      <c r="CP66" s="19"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30084,10 +30132,13 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5"/>
+      <c r="CL67" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM67" s="5"/>
       <c r="CN67" s="5"/>
       <c r="CO67" s="5"/>
+      <c r="CP67" s="5"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -30360,11 +30411,13 @@
       <c r="CK69" s="12">
         <v>13.374352363115477</v>
       </c>
-      <c r="CL69" s="12"/>
+      <c r="CL69" s="12">
+        <v>5.7836430680120827</v>
+      </c>
       <c r="CM69" s="12"/>
       <c r="CN69" s="12"/>
       <c r="CO69" s="12"/>
-      <c r="CP69" s="11"/>
+      <c r="CP69" s="12"/>
       <c r="CQ69" s="11"/>
       <c r="CR69" s="11"/>
       <c r="CS69" s="11"/>
@@ -30687,11 +30740,13 @@
       <c r="CK70" s="12">
         <v>2.0771713939531651</v>
       </c>
-      <c r="CL70" s="12"/>
+      <c r="CL70" s="12">
+        <v>2.0956081356112719</v>
+      </c>
       <c r="CM70" s="12"/>
       <c r="CN70" s="12"/>
       <c r="CO70" s="12"/>
-      <c r="CP70" s="11"/>
+      <c r="CP70" s="12"/>
       <c r="CQ70" s="11"/>
       <c r="CR70" s="11"/>
       <c r="CS70" s="11"/>
@@ -31162,11 +31217,13 @@
       <c r="CK72" s="12">
         <v>7.4495424128882064</v>
       </c>
-      <c r="CL72" s="12"/>
+      <c r="CL72" s="12">
+        <v>3.8230604216797417</v>
+      </c>
       <c r="CM72" s="12"/>
       <c r="CN72" s="12"/>
       <c r="CO72" s="12"/>
-      <c r="CP72" s="11"/>
+      <c r="CP72" s="12"/>
       <c r="CQ72" s="11"/>
       <c r="CR72" s="11"/>
       <c r="CS72" s="11"/>
@@ -31315,6 +31372,7 @@
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
+      <c r="CP73" s="9"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -31628,7 +31686,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -31638,7 +31696,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -31648,144 +31706,147 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="19">
+      <c r="B84" s="20">
         <v>2000</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="19">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="20">
         <v>2001</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="19">
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="20">
         <v>2002</v>
       </c>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="19">
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="20">
         <v>2003</v>
       </c>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="19">
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="20">
         <v>2004</v>
       </c>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="19">
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="20">
         <v>2005</v>
       </c>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="19">
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="20">
         <v>2006</v>
       </c>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-      <c r="AD84" s="19">
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="20">
         <v>2007</v>
       </c>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
-      <c r="AH84" s="19">
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="20">
         <v>2008</v>
       </c>
-      <c r="AI84" s="20"/>
-      <c r="AJ84" s="20"/>
-      <c r="AK84" s="20"/>
-      <c r="AL84" s="19">
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
+      <c r="AL84" s="20">
         <v>2009</v>
       </c>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
-      <c r="AP84" s="19">
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
+      <c r="AO84" s="21"/>
+      <c r="AP84" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="20"/>
-      <c r="AR84" s="20"/>
-      <c r="AS84" s="20"/>
-      <c r="AT84" s="19">
+      <c r="AQ84" s="21"/>
+      <c r="AR84" s="21"/>
+      <c r="AS84" s="21"/>
+      <c r="AT84" s="20">
         <v>2011</v>
       </c>
-      <c r="AU84" s="20"/>
-      <c r="AV84" s="20"/>
-      <c r="AW84" s="20"/>
-      <c r="AX84" s="19">
+      <c r="AU84" s="21"/>
+      <c r="AV84" s="21"/>
+      <c r="AW84" s="21"/>
+      <c r="AX84" s="20">
         <v>2012</v>
       </c>
-      <c r="AY84" s="20"/>
-      <c r="AZ84" s="20"/>
-      <c r="BA84" s="20"/>
-      <c r="BB84" s="19">
+      <c r="AY84" s="21"/>
+      <c r="AZ84" s="21"/>
+      <c r="BA84" s="21"/>
+      <c r="BB84" s="20">
         <v>2013</v>
       </c>
-      <c r="BC84" s="20"/>
-      <c r="BD84" s="20"/>
-      <c r="BE84" s="20"/>
-      <c r="BF84" s="19">
+      <c r="BC84" s="21"/>
+      <c r="BD84" s="21"/>
+      <c r="BE84" s="21"/>
+      <c r="BF84" s="20">
         <v>2014</v>
       </c>
-      <c r="BG84" s="20"/>
-      <c r="BH84" s="20"/>
-      <c r="BI84" s="20"/>
-      <c r="BJ84" s="19">
+      <c r="BG84" s="21"/>
+      <c r="BH84" s="21"/>
+      <c r="BI84" s="21"/>
+      <c r="BJ84" s="20">
         <v>2015</v>
       </c>
-      <c r="BK84" s="20"/>
-      <c r="BL84" s="20"/>
-      <c r="BM84" s="20"/>
-      <c r="BN84" s="19">
+      <c r="BK84" s="21"/>
+      <c r="BL84" s="21"/>
+      <c r="BM84" s="21"/>
+      <c r="BN84" s="20">
         <v>2016</v>
       </c>
-      <c r="BO84" s="20"/>
-      <c r="BP84" s="20"/>
-      <c r="BQ84" s="20"/>
-      <c r="BR84" s="19">
+      <c r="BO84" s="21"/>
+      <c r="BP84" s="21"/>
+      <c r="BQ84" s="21"/>
+      <c r="BR84" s="20">
         <v>2017</v>
       </c>
-      <c r="BS84" s="20"/>
-      <c r="BT84" s="20"/>
-      <c r="BU84" s="20"/>
-      <c r="BV84" s="19">
+      <c r="BS84" s="21"/>
+      <c r="BT84" s="21"/>
+      <c r="BU84" s="21"/>
+      <c r="BV84" s="20">
         <v>2018</v>
       </c>
-      <c r="BW84" s="20"/>
-      <c r="BX84" s="20"/>
-      <c r="BY84" s="20"/>
-      <c r="BZ84" s="19">
+      <c r="BW84" s="21"/>
+      <c r="BX84" s="21"/>
+      <c r="BY84" s="21"/>
+      <c r="BZ84" s="20">
         <v>2019</v>
       </c>
-      <c r="CA84" s="20"/>
-      <c r="CB84" s="20"/>
-      <c r="CC84" s="20"/>
-      <c r="CD84" s="19">
+      <c r="CA84" s="21"/>
+      <c r="CB84" s="21"/>
+      <c r="CC84" s="21"/>
+      <c r="CD84" s="20">
         <v>2020</v>
       </c>
       <c r="CE84" s="20"/>
       <c r="CF84" s="20"/>
       <c r="CG84" s="20"/>
-      <c r="CH84" s="19">
+      <c r="CH84" s="20">
         <v>2021</v>
       </c>
       <c r="CI84" s="20"/>
       <c r="CJ84" s="20"/>
       <c r="CK84" s="20"/>
-      <c r="CL84" s="19">
+      <c r="CL84" s="20">
         <v>2022</v>
       </c>
       <c r="CM84" s="20"/>
       <c r="CN84" s="20"/>
       <c r="CO84" s="20"/>
+      <c r="CP84" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32066,6 +32127,9 @@
       </c>
       <c r="CO85" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP85" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32351,7 +32415,9 @@
       <c r="CO87" s="12">
         <v>119.3136171124529</v>
       </c>
-      <c r="CP87" s="11"/>
+      <c r="CP87" s="12">
+        <v>124.27124647210756</v>
+      </c>
       <c r="CQ87" s="11"/>
       <c r="CR87" s="11"/>
       <c r="CS87" s="11"/>
@@ -32690,7 +32756,9 @@
       <c r="CO88" s="12">
         <v>111.63409104070634</v>
       </c>
-      <c r="CP88" s="11"/>
+      <c r="CP88" s="12">
+        <v>113.35819627074673</v>
+      </c>
       <c r="CQ88" s="11"/>
       <c r="CR88" s="11"/>
       <c r="CS88" s="11"/>
@@ -33181,7 +33249,9 @@
       <c r="CO90" s="12">
         <v>115.4874598697082</v>
       </c>
-      <c r="CP90" s="11"/>
+      <c r="CP90" s="12">
+        <v>118.56632704438414</v>
+      </c>
       <c r="CQ90" s="11"/>
       <c r="CR90" s="11"/>
       <c r="CS90" s="11"/>
@@ -33334,6 +33404,7 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
+      <c r="CP91" s="9"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33352,7 +33423,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33362,7 +33433,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -33372,144 +33443,147 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="19">
+      <c r="B103" s="20">
         <v>2000</v>
       </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="19">
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="20">
         <v>2001</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="19">
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="20">
         <v>2002</v>
       </c>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="19">
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="20">
         <v>2003</v>
       </c>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="19">
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="20">
         <v>2004</v>
       </c>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="19">
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="20">
         <v>2005</v>
       </c>
-      <c r="W103" s="20"/>
-      <c r="X103" s="20"/>
-      <c r="Y103" s="20"/>
-      <c r="Z103" s="19">
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="20">
         <v>2006</v>
       </c>
-      <c r="AA103" s="20"/>
-      <c r="AB103" s="20"/>
-      <c r="AC103" s="20"/>
-      <c r="AD103" s="19">
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="20">
         <v>2007</v>
       </c>
-      <c r="AE103" s="20"/>
-      <c r="AF103" s="20"/>
-      <c r="AG103" s="20"/>
-      <c r="AH103" s="19">
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="20">
         <v>2008</v>
       </c>
-      <c r="AI103" s="20"/>
-      <c r="AJ103" s="20"/>
-      <c r="AK103" s="20"/>
-      <c r="AL103" s="19">
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="21"/>
+      <c r="AK103" s="21"/>
+      <c r="AL103" s="20">
         <v>2009</v>
       </c>
-      <c r="AM103" s="20"/>
-      <c r="AN103" s="20"/>
-      <c r="AO103" s="20"/>
-      <c r="AP103" s="19">
+      <c r="AM103" s="21"/>
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="20"/>
-      <c r="AR103" s="20"/>
-      <c r="AS103" s="20"/>
-      <c r="AT103" s="19">
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="21"/>
+      <c r="AT103" s="20">
         <v>2011</v>
       </c>
-      <c r="AU103" s="20"/>
-      <c r="AV103" s="20"/>
-      <c r="AW103" s="20"/>
-      <c r="AX103" s="19">
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="21"/>
+      <c r="AX103" s="20">
         <v>2012</v>
       </c>
-      <c r="AY103" s="20"/>
-      <c r="AZ103" s="20"/>
-      <c r="BA103" s="20"/>
-      <c r="BB103" s="19">
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="21"/>
+      <c r="BA103" s="21"/>
+      <c r="BB103" s="20">
         <v>2013</v>
       </c>
-      <c r="BC103" s="20"/>
-      <c r="BD103" s="20"/>
-      <c r="BE103" s="20"/>
-      <c r="BF103" s="19">
+      <c r="BC103" s="21"/>
+      <c r="BD103" s="21"/>
+      <c r="BE103" s="21"/>
+      <c r="BF103" s="20">
         <v>2014</v>
       </c>
-      <c r="BG103" s="20"/>
-      <c r="BH103" s="20"/>
-      <c r="BI103" s="20"/>
-      <c r="BJ103" s="19">
+      <c r="BG103" s="21"/>
+      <c r="BH103" s="21"/>
+      <c r="BI103" s="21"/>
+      <c r="BJ103" s="20">
         <v>2015</v>
       </c>
-      <c r="BK103" s="20"/>
-      <c r="BL103" s="20"/>
-      <c r="BM103" s="20"/>
-      <c r="BN103" s="19">
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="21"/>
+      <c r="BM103" s="21"/>
+      <c r="BN103" s="20">
         <v>2016</v>
       </c>
-      <c r="BO103" s="20"/>
-      <c r="BP103" s="20"/>
-      <c r="BQ103" s="20"/>
-      <c r="BR103" s="19">
+      <c r="BO103" s="21"/>
+      <c r="BP103" s="21"/>
+      <c r="BQ103" s="21"/>
+      <c r="BR103" s="20">
         <v>2017</v>
       </c>
-      <c r="BS103" s="20"/>
-      <c r="BT103" s="20"/>
-      <c r="BU103" s="20"/>
-      <c r="BV103" s="19">
+      <c r="BS103" s="21"/>
+      <c r="BT103" s="21"/>
+      <c r="BU103" s="21"/>
+      <c r="BV103" s="20">
         <v>2018</v>
       </c>
-      <c r="BW103" s="20"/>
-      <c r="BX103" s="20"/>
-      <c r="BY103" s="20"/>
-      <c r="BZ103" s="19">
+      <c r="BW103" s="21"/>
+      <c r="BX103" s="21"/>
+      <c r="BY103" s="21"/>
+      <c r="BZ103" s="20">
         <v>2019</v>
       </c>
-      <c r="CA103" s="20"/>
-      <c r="CB103" s="20"/>
-      <c r="CC103" s="20"/>
-      <c r="CD103" s="19">
+      <c r="CA103" s="21"/>
+      <c r="CB103" s="21"/>
+      <c r="CC103" s="21"/>
+      <c r="CD103" s="20">
         <v>2020</v>
       </c>
       <c r="CE103" s="20"/>
       <c r="CF103" s="20"/>
       <c r="CG103" s="20"/>
-      <c r="CH103" s="19">
+      <c r="CH103" s="20">
         <v>2021</v>
       </c>
       <c r="CI103" s="20"/>
       <c r="CJ103" s="20"/>
       <c r="CK103" s="20"/>
-      <c r="CL103" s="19">
+      <c r="CL103" s="20">
         <v>2022</v>
       </c>
       <c r="CM103" s="20"/>
       <c r="CN103" s="20"/>
       <c r="CO103" s="20"/>
+      <c r="CP103" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -33790,6 +33864,9 @@
       </c>
       <c r="CO104" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP104" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34075,7 +34152,9 @@
       <c r="CO106" s="12">
         <v>51.839564398213156</v>
       </c>
-      <c r="CP106" s="11"/>
+      <c r="CP106" s="12">
+        <v>50.020152973926322</v>
+      </c>
       <c r="CQ106" s="11"/>
       <c r="CR106" s="11"/>
       <c r="CS106" s="11"/>
@@ -34414,7 +34493,9 @@
       <c r="CO107" s="12">
         <v>48.16043560178683</v>
       </c>
-      <c r="CP107" s="11"/>
+      <c r="CP107" s="12">
+        <v>49.979847026073685</v>
+      </c>
       <c r="CQ107" s="11"/>
       <c r="CR107" s="11"/>
       <c r="CS107" s="11"/>
@@ -34905,7 +34986,9 @@
       <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="11"/>
+      <c r="CP109" s="12">
+        <v>100</v>
+      </c>
       <c r="CQ109" s="11"/>
       <c r="CR109" s="11"/>
       <c r="CS109" s="11"/>
@@ -35058,6 +35141,7 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
+      <c r="CP110" s="9"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35380,7 +35464,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -35390,7 +35474,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -35400,144 +35484,147 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="19">
+      <c r="B122" s="20">
         <v>2000</v>
       </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="19">
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="20">
         <v>2001</v>
       </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="19">
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="20">
         <v>2002</v>
       </c>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="19">
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="20">
         <v>2003</v>
       </c>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="19">
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="20">
         <v>2004</v>
       </c>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
-      <c r="V122" s="19">
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="20">
         <v>2005</v>
       </c>
-      <c r="W122" s="20"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="20"/>
-      <c r="Z122" s="19">
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+      <c r="Z122" s="20">
         <v>2006</v>
       </c>
-      <c r="AA122" s="20"/>
-      <c r="AB122" s="20"/>
-      <c r="AC122" s="20"/>
-      <c r="AD122" s="19">
+      <c r="AA122" s="21"/>
+      <c r="AB122" s="21"/>
+      <c r="AC122" s="21"/>
+      <c r="AD122" s="20">
         <v>2007</v>
       </c>
-      <c r="AE122" s="20"/>
-      <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
-      <c r="AH122" s="19">
+      <c r="AE122" s="21"/>
+      <c r="AF122" s="21"/>
+      <c r="AG122" s="21"/>
+      <c r="AH122" s="20">
         <v>2008</v>
       </c>
-      <c r="AI122" s="20"/>
-      <c r="AJ122" s="20"/>
-      <c r="AK122" s="20"/>
-      <c r="AL122" s="19">
+      <c r="AI122" s="21"/>
+      <c r="AJ122" s="21"/>
+      <c r="AK122" s="21"/>
+      <c r="AL122" s="20">
         <v>2009</v>
       </c>
-      <c r="AM122" s="20"/>
-      <c r="AN122" s="20"/>
-      <c r="AO122" s="20"/>
-      <c r="AP122" s="19">
+      <c r="AM122" s="21"/>
+      <c r="AN122" s="21"/>
+      <c r="AO122" s="21"/>
+      <c r="AP122" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="20"/>
-      <c r="AR122" s="20"/>
-      <c r="AS122" s="20"/>
-      <c r="AT122" s="19">
+      <c r="AQ122" s="21"/>
+      <c r="AR122" s="21"/>
+      <c r="AS122" s="21"/>
+      <c r="AT122" s="20">
         <v>2011</v>
       </c>
-      <c r="AU122" s="20"/>
-      <c r="AV122" s="20"/>
-      <c r="AW122" s="20"/>
-      <c r="AX122" s="19">
+      <c r="AU122" s="21"/>
+      <c r="AV122" s="21"/>
+      <c r="AW122" s="21"/>
+      <c r="AX122" s="20">
         <v>2012</v>
       </c>
-      <c r="AY122" s="20"/>
-      <c r="AZ122" s="20"/>
-      <c r="BA122" s="20"/>
-      <c r="BB122" s="19">
+      <c r="AY122" s="21"/>
+      <c r="AZ122" s="21"/>
+      <c r="BA122" s="21"/>
+      <c r="BB122" s="20">
         <v>2013</v>
       </c>
-      <c r="BC122" s="20"/>
-      <c r="BD122" s="20"/>
-      <c r="BE122" s="20"/>
-      <c r="BF122" s="19">
+      <c r="BC122" s="21"/>
+      <c r="BD122" s="21"/>
+      <c r="BE122" s="21"/>
+      <c r="BF122" s="20">
         <v>2014</v>
       </c>
-      <c r="BG122" s="20"/>
-      <c r="BH122" s="20"/>
-      <c r="BI122" s="20"/>
-      <c r="BJ122" s="19">
+      <c r="BG122" s="21"/>
+      <c r="BH122" s="21"/>
+      <c r="BI122" s="21"/>
+      <c r="BJ122" s="20">
         <v>2015</v>
       </c>
-      <c r="BK122" s="20"/>
-      <c r="BL122" s="20"/>
-      <c r="BM122" s="20"/>
-      <c r="BN122" s="19">
+      <c r="BK122" s="21"/>
+      <c r="BL122" s="21"/>
+      <c r="BM122" s="21"/>
+      <c r="BN122" s="20">
         <v>2016</v>
       </c>
-      <c r="BO122" s="20"/>
-      <c r="BP122" s="20"/>
-      <c r="BQ122" s="20"/>
-      <c r="BR122" s="19">
+      <c r="BO122" s="21"/>
+      <c r="BP122" s="21"/>
+      <c r="BQ122" s="21"/>
+      <c r="BR122" s="20">
         <v>2017</v>
       </c>
-      <c r="BS122" s="20"/>
-      <c r="BT122" s="20"/>
-      <c r="BU122" s="20"/>
-      <c r="BV122" s="19">
+      <c r="BS122" s="21"/>
+      <c r="BT122" s="21"/>
+      <c r="BU122" s="21"/>
+      <c r="BV122" s="20">
         <v>2018</v>
       </c>
-      <c r="BW122" s="20"/>
-      <c r="BX122" s="20"/>
-      <c r="BY122" s="20"/>
-      <c r="BZ122" s="19">
+      <c r="BW122" s="21"/>
+      <c r="BX122" s="21"/>
+      <c r="BY122" s="21"/>
+      <c r="BZ122" s="20">
         <v>2019</v>
       </c>
-      <c r="CA122" s="20"/>
-      <c r="CB122" s="20"/>
-      <c r="CC122" s="20"/>
-      <c r="CD122" s="19">
+      <c r="CA122" s="21"/>
+      <c r="CB122" s="21"/>
+      <c r="CC122" s="21"/>
+      <c r="CD122" s="20">
         <v>2020</v>
       </c>
       <c r="CE122" s="20"/>
       <c r="CF122" s="20"/>
       <c r="CG122" s="20"/>
-      <c r="CH122" s="19">
+      <c r="CH122" s="20">
         <v>2021</v>
       </c>
       <c r="CI122" s="20"/>
       <c r="CJ122" s="20"/>
       <c r="CK122" s="20"/>
-      <c r="CL122" s="19">
+      <c r="CL122" s="20">
         <v>2022</v>
       </c>
       <c r="CM122" s="20"/>
       <c r="CN122" s="20"/>
       <c r="CO122" s="20"/>
+      <c r="CP122" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -35818,6 +35905,9 @@
       </c>
       <c r="CO123" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP123" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36103,7 +36193,9 @@
       <c r="CO125" s="12">
         <v>50.177169697732225</v>
       </c>
-      <c r="CP125" s="11"/>
+      <c r="CP125" s="12">
+        <v>47.723878086696494</v>
+      </c>
       <c r="CQ125" s="11"/>
       <c r="CR125" s="11"/>
       <c r="CS125" s="11"/>
@@ -36442,7 +36534,9 @@
       <c r="CO126" s="12">
         <v>49.822830302267775</v>
       </c>
-      <c r="CP126" s="11"/>
+      <c r="CP126" s="12">
+        <v>52.276121913303506</v>
+      </c>
       <c r="CQ126" s="11"/>
       <c r="CR126" s="11"/>
       <c r="CS126" s="11"/>
@@ -36933,7 +37027,9 @@
       <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="11"/>
+      <c r="CP128" s="12">
+        <v>100</v>
+      </c>
       <c r="CQ128" s="11"/>
       <c r="CR128" s="11"/>
       <c r="CS128" s="11"/>
@@ -37086,6 +37182,7 @@
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
+      <c r="CP129" s="9"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37186,7 +37283,7 @@
       <c r="CM131" s="3"/>
       <c r="CN131" s="3"/>
       <c r="CO131" s="3"/>
-      <c r="CP131" s="13"/>
+      <c r="CP131" s="3"/>
       <c r="CQ131" s="13"/>
       <c r="CR131" s="13"/>
       <c r="CS131" s="13"/>
@@ -37339,7 +37436,7 @@
       <c r="CM132" s="3"/>
       <c r="CN132" s="3"/>
       <c r="CO132" s="3"/>
-      <c r="CP132" s="13"/>
+      <c r="CP132" s="3"/>
       <c r="CQ132" s="13"/>
       <c r="CR132" s="13"/>
       <c r="CS132" s="13"/>
@@ -37399,7 +37496,7 @@
       <c r="EU132" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
     <mergeCell ref="BZ28:CC28"/>
@@ -37488,6 +37585,14 @@
     <mergeCell ref="AP66:AS66"/>
     <mergeCell ref="V47:Y47"/>
     <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
     <mergeCell ref="R84:U84"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="F84:I84"/>
@@ -37497,9 +37602,6 @@
     <mergeCell ref="V103:Y103"/>
     <mergeCell ref="V84:Y84"/>
     <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -37509,14 +37611,6 @@
     <mergeCell ref="Z122:AC122"/>
     <mergeCell ref="AD122:AG122"/>
     <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
     <mergeCell ref="V66:Y66"/>
     <mergeCell ref="Z66:AC66"/>
     <mergeCell ref="AD66:AG66"/>
@@ -37528,9 +37622,6 @@
     <mergeCell ref="BN66:BQ66"/>
     <mergeCell ref="AD84:AG84"/>
     <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="BN84:BQ84"/>
@@ -37552,6 +37643,9 @@
     <mergeCell ref="BF103:BI103"/>
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
     <mergeCell ref="CL9:CO9"/>
@@ -37559,17 +37653,18 @@
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="CH66:CK66"/>
     <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CL66:CO66"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="92" man="1"/>
-    <brk id="76" max="92" man="1"/>
-    <brk id="94" max="92" man="1"/>
+    <brk id="38" max="93" man="1"/>
+    <brk id="76" max="93" man="1"/>
+    <brk id="94" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82730FE4-E558-4448-9443-5096FDFAC437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFDAB8B-9E41-43A4-87E6-0D7B561EBA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="3045" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CP$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CQ$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,9 +741,6 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23616,14 +23613,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CQ4" sqref="CQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="94" width="8.33203125" style="3" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="95" width="8.33203125" style="3" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23658,147 +23655,148 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="20"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="20"/>
-      <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
       <c r="CP9" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="21"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24082,6 +24080,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24368,9 +24369,11 @@
         <v>170532.75677675504</v>
       </c>
       <c r="CP12" s="15">
-        <v>165592.59158373723</v>
-      </c>
-      <c r="CQ12" s="11"/>
+        <v>163346.84236623056</v>
+      </c>
+      <c r="CQ12" s="15">
+        <v>158122.7189596846</v>
+      </c>
       <c r="CR12" s="11"/>
       <c r="CS12" s="11"/>
       <c r="CT12" s="11"/>
@@ -24709,9 +24712,11 @@
         <v>158429.80059888729</v>
       </c>
       <c r="CP13" s="15">
-        <v>165459.15803816935</v>
-      </c>
-      <c r="CQ13" s="11"/>
+        <v>165459.15804036456</v>
+      </c>
+      <c r="CQ13" s="15">
+        <v>168880.10026788112</v>
+      </c>
       <c r="CR13" s="11"/>
       <c r="CS13" s="11"/>
       <c r="CT13" s="11"/>
@@ -25202,9 +25207,11 @@
         <v>328962.55737564235</v>
       </c>
       <c r="CP15" s="16">
-        <v>331051.74962190655</v>
-      </c>
-      <c r="CQ15" s="11"/>
+        <v>328806.00040659512</v>
+      </c>
+      <c r="CQ15" s="16">
+        <v>327002.81922756572</v>
+      </c>
       <c r="CR15" s="11"/>
       <c r="CS15" s="11"/>
       <c r="CT15" s="11"/>
@@ -25357,6 +25364,7 @@
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25699,147 +25707,148 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>2000</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19">
         <v>2001</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="20">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19">
         <v>2002</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="20">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="19">
         <v>2003</v>
       </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="20">
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="19">
         <v>2004</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="20">
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="19">
         <v>2005</v>
       </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="20">
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="19">
         <v>2006</v>
       </c>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="20">
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="19">
         <v>2007</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="20">
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="19">
         <v>2008</v>
       </c>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="20">
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="19">
         <v>2009</v>
       </c>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="20">
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="20">
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="19">
         <v>2011</v>
       </c>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="20">
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="19">
         <v>2012</v>
       </c>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="20">
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="19">
         <v>2013</v>
       </c>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="20">
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="19">
         <v>2014</v>
       </c>
-      <c r="BG28" s="21"/>
-      <c r="BH28" s="21"/>
-      <c r="BI28" s="21"/>
-      <c r="BJ28" s="20">
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="19">
         <v>2015</v>
       </c>
-      <c r="BK28" s="21"/>
-      <c r="BL28" s="21"/>
-      <c r="BM28" s="21"/>
-      <c r="BN28" s="20">
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="19">
         <v>2016</v>
       </c>
-      <c r="BO28" s="21"/>
-      <c r="BP28" s="21"/>
-      <c r="BQ28" s="21"/>
-      <c r="BR28" s="20">
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="19">
         <v>2017</v>
       </c>
-      <c r="BS28" s="21"/>
-      <c r="BT28" s="21"/>
-      <c r="BU28" s="21"/>
-      <c r="BV28" s="20">
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="19">
         <v>2018</v>
       </c>
-      <c r="BW28" s="21"/>
-      <c r="BX28" s="21"/>
-      <c r="BY28" s="21"/>
-      <c r="BZ28" s="20">
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="19">
         <v>2019</v>
       </c>
-      <c r="CA28" s="21"/>
-      <c r="CB28" s="21"/>
-      <c r="CC28" s="21"/>
-      <c r="CD28" s="20">
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="19">
         <v>2020</v>
       </c>
-      <c r="CE28" s="20"/>
-      <c r="CF28" s="20"/>
-      <c r="CG28" s="20"/>
-      <c r="CH28" s="20">
+      <c r="CE28" s="19"/>
+      <c r="CF28" s="19"/>
+      <c r="CG28" s="19"/>
+      <c r="CH28" s="19">
         <v>2021</v>
       </c>
-      <c r="CI28" s="20"/>
-      <c r="CJ28" s="20"/>
-      <c r="CK28" s="20"/>
-      <c r="CL28" s="20">
+      <c r="CI28" s="19"/>
+      <c r="CJ28" s="19"/>
+      <c r="CK28" s="19"/>
+      <c r="CL28" s="19">
         <v>2022</v>
       </c>
-      <c r="CM28" s="20"/>
-      <c r="CN28" s="20"/>
-      <c r="CO28" s="20"/>
+      <c r="CM28" s="19"/>
+      <c r="CN28" s="19"/>
+      <c r="CO28" s="19"/>
       <c r="CP28" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ28" s="21"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26123,6 +26132,9 @@
       </c>
       <c r="CP29" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ29" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26409,9 +26421,11 @@
         <v>142928.1593366063</v>
       </c>
       <c r="CP31" s="15">
-        <v>133250.92994935409</v>
-      </c>
-      <c r="CQ31" s="11"/>
+        <v>131444.22106651304</v>
+      </c>
+      <c r="CQ31" s="15">
+        <v>129888.69870208875</v>
+      </c>
       <c r="CR31" s="11"/>
       <c r="CS31" s="11"/>
       <c r="CT31" s="11"/>
@@ -26752,7 +26766,9 @@
       <c r="CP32" s="15">
         <v>145961.35390420625</v>
       </c>
-      <c r="CQ32" s="11"/>
+      <c r="CQ32" s="15">
+        <v>147225.22594290605</v>
+      </c>
       <c r="CR32" s="11"/>
       <c r="CS32" s="11"/>
       <c r="CT32" s="11"/>
@@ -27243,9 +27259,11 @@
         <v>284846.99355823966</v>
       </c>
       <c r="CP34" s="16">
-        <v>279212.28385356034</v>
-      </c>
-      <c r="CQ34" s="11"/>
+        <v>277405.57497071929</v>
+      </c>
+      <c r="CQ34" s="16">
+        <v>277113.92464499478</v>
+      </c>
       <c r="CR34" s="11"/>
       <c r="CS34" s="11"/>
       <c r="CT34" s="11"/>
@@ -27398,6 +27416,7 @@
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
+      <c r="CQ35" s="9"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27740,138 +27759,138 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20" t="s">
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20" t="s">
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20" t="s">
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20" t="s">
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20" t="s">
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="20" t="s">
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20" t="s">
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="20" t="s">
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
-      <c r="AS47" s="20"/>
-      <c r="AT47" s="20" t="s">
+      <c r="AQ47" s="19"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="20"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="20" t="s">
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="20"/>
-      <c r="AZ47" s="20"/>
-      <c r="BA47" s="20"/>
-      <c r="BB47" s="20" t="s">
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="19"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="20"/>
-      <c r="BE47" s="20"/>
-      <c r="BF47" s="20" t="s">
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="19"/>
+      <c r="BF47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="20"/>
-      <c r="BH47" s="20"/>
-      <c r="BI47" s="20"/>
-      <c r="BJ47" s="20" t="s">
+      <c r="BG47" s="19"/>
+      <c r="BH47" s="19"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="20"/>
-      <c r="BL47" s="20"/>
-      <c r="BM47" s="20"/>
-      <c r="BN47" s="20" t="s">
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="19"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="20"/>
-      <c r="BP47" s="20"/>
-      <c r="BQ47" s="20"/>
-      <c r="BR47" s="20" t="s">
+      <c r="BO47" s="19"/>
+      <c r="BP47" s="19"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="20"/>
-      <c r="BT47" s="20"/>
-      <c r="BU47" s="20"/>
-      <c r="BV47" s="20" t="s">
+      <c r="BS47" s="19"/>
+      <c r="BT47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="BV47" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="20"/>
-      <c r="BX47" s="20"/>
-      <c r="BY47" s="20"/>
-      <c r="BZ47" s="20" t="s">
+      <c r="BW47" s="19"/>
+      <c r="BX47" s="19"/>
+      <c r="BY47" s="19"/>
+      <c r="BZ47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="20"/>
-      <c r="CB47" s="20"/>
-      <c r="CC47" s="20"/>
-      <c r="CD47" s="20" t="s">
+      <c r="CA47" s="19"/>
+      <c r="CB47" s="19"/>
+      <c r="CC47" s="19"/>
+      <c r="CD47" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="20"/>
-      <c r="CF47" s="20"/>
-      <c r="CG47" s="20"/>
-      <c r="CH47" s="20" t="s">
+      <c r="CE47" s="19"/>
+      <c r="CF47" s="19"/>
+      <c r="CG47" s="19"/>
+      <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="20"/>
-      <c r="CJ47" s="20"/>
-      <c r="CK47" s="20"/>
+      <c r="CI47" s="19"/>
+      <c r="CJ47" s="19"/>
+      <c r="CK47" s="19"/>
       <c r="CL47" s="19" t="s">
         <v>48</v>
       </c>
@@ -27879,6 +27898,7 @@
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
       <c r="CP47" s="19"/>
+      <c r="CQ47" s="21"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28151,10 +28171,13 @@
       <c r="CL48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5"/>
+      <c r="CM48" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN48" s="5"/>
       <c r="CO48" s="5"/>
       <c r="CP48" s="5"/>
+      <c r="CQ48" s="5"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28428,13 +28451,15 @@
         <v>22.910532040489187</v>
       </c>
       <c r="CL50" s="12">
-        <v>15.446785825317065</v>
-      </c>
-      <c r="CM50" s="12"/>
+        <v>13.881108723151783</v>
+      </c>
+      <c r="CM50" s="12">
+        <v>10.302978810815816</v>
+      </c>
       <c r="CN50" s="12"/>
       <c r="CO50" s="12"/>
       <c r="CP50" s="12"/>
-      <c r="CQ50" s="11"/>
+      <c r="CQ50" s="12"/>
       <c r="CR50" s="11"/>
       <c r="CS50" s="11"/>
       <c r="CT50" s="11"/>
@@ -28757,13 +28782,15 @@
         <v>5.8980077034752583</v>
       </c>
       <c r="CL51" s="12">
-        <v>7.4101364715205733</v>
-      </c>
-      <c r="CM51" s="12"/>
+        <v>7.4101364729456378</v>
+      </c>
+      <c r="CM51" s="12">
+        <v>8.0313273038305226</v>
+      </c>
       <c r="CN51" s="12"/>
       <c r="CO51" s="12"/>
       <c r="CP51" s="12"/>
-      <c r="CQ51" s="11"/>
+      <c r="CQ51" s="12"/>
       <c r="CR51" s="11"/>
       <c r="CS51" s="11"/>
       <c r="CT51" s="11"/>
@@ -29235,13 +29262,15 @@
         <v>14.083886546898867</v>
       </c>
       <c r="CL53" s="12">
-        <v>11.285170171151577</v>
-      </c>
-      <c r="CM53" s="12"/>
+        <v>10.530247160253452</v>
+      </c>
+      <c r="CM53" s="12">
+        <v>9.1179870729266383</v>
+      </c>
       <c r="CN53" s="12"/>
       <c r="CO53" s="12"/>
       <c r="CP53" s="12"/>
-      <c r="CQ53" s="11"/>
+      <c r="CQ53" s="12"/>
       <c r="CR53" s="11"/>
       <c r="CS53" s="11"/>
       <c r="CT53" s="11"/>
@@ -29390,6 +29419,7 @@
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
+      <c r="CQ54" s="9"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -29724,138 +29754,138 @@
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="20" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="20" t="s">
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="20" t="s">
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="20" t="s">
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="20" t="s">
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="20" t="s">
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="20" t="s">
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="20" t="s">
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="20" t="s">
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="20" t="s">
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+      <c r="AP66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="22"/>
-      <c r="AR66" s="22"/>
-      <c r="AS66" s="22"/>
-      <c r="AT66" s="20" t="s">
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
+      <c r="AT66" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="22"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="22"/>
-      <c r="AX66" s="20" t="s">
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+      <c r="AX66" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="22"/>
-      <c r="AZ66" s="22"/>
-      <c r="BA66" s="22"/>
-      <c r="BB66" s="20" t="s">
+      <c r="AY66" s="21"/>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="21"/>
+      <c r="BB66" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="22"/>
-      <c r="BD66" s="22"/>
-      <c r="BE66" s="22"/>
-      <c r="BF66" s="20" t="s">
+      <c r="BC66" s="21"/>
+      <c r="BD66" s="21"/>
+      <c r="BE66" s="21"/>
+      <c r="BF66" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="22"/>
-      <c r="BH66" s="22"/>
-      <c r="BI66" s="22"/>
-      <c r="BJ66" s="20" t="s">
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="21"/>
+      <c r="BJ66" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="22"/>
-      <c r="BL66" s="22"/>
-      <c r="BM66" s="22"/>
-      <c r="BN66" s="20" t="s">
+      <c r="BK66" s="21"/>
+      <c r="BL66" s="21"/>
+      <c r="BM66" s="21"/>
+      <c r="BN66" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="22"/>
-      <c r="BP66" s="22"/>
-      <c r="BQ66" s="22"/>
-      <c r="BR66" s="20" t="s">
+      <c r="BO66" s="21"/>
+      <c r="BP66" s="21"/>
+      <c r="BQ66" s="21"/>
+      <c r="BR66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="22"/>
-      <c r="BT66" s="22"/>
-      <c r="BU66" s="22"/>
-      <c r="BV66" s="20" t="s">
+      <c r="BS66" s="21"/>
+      <c r="BT66" s="21"/>
+      <c r="BU66" s="21"/>
+      <c r="BV66" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="22"/>
-      <c r="BX66" s="22"/>
-      <c r="BY66" s="22"/>
-      <c r="BZ66" s="20" t="s">
+      <c r="BW66" s="21"/>
+      <c r="BX66" s="21"/>
+      <c r="BY66" s="21"/>
+      <c r="BZ66" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="22"/>
-      <c r="CB66" s="22"/>
-      <c r="CC66" s="22"/>
-      <c r="CD66" s="20" t="s">
+      <c r="CA66" s="21"/>
+      <c r="CB66" s="21"/>
+      <c r="CC66" s="21"/>
+      <c r="CD66" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="20"/>
-      <c r="CF66" s="20"/>
-      <c r="CG66" s="20"/>
-      <c r="CH66" s="20" t="s">
+      <c r="CE66" s="19"/>
+      <c r="CF66" s="19"/>
+      <c r="CG66" s="19"/>
+      <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="20"/>
-      <c r="CJ66" s="20"/>
-      <c r="CK66" s="20"/>
+      <c r="CI66" s="19"/>
+      <c r="CJ66" s="19"/>
+      <c r="CK66" s="19"/>
       <c r="CL66" s="19" t="s">
         <v>48</v>
       </c>
@@ -29863,6 +29893,7 @@
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
       <c r="CP66" s="19"/>
+      <c r="CQ66" s="21"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30135,10 +30166,13 @@
       <c r="CL67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5"/>
+      <c r="CM67" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN67" s="5"/>
       <c r="CO67" s="5"/>
       <c r="CP67" s="5"/>
+      <c r="CQ67" s="5"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -30412,13 +30446,15 @@
         <v>13.374352363115477</v>
       </c>
       <c r="CL69" s="12">
-        <v>5.7836430680120827</v>
-      </c>
-      <c r="CM69" s="12"/>
+        <v>4.3493547845238965</v>
+      </c>
+      <c r="CM69" s="12">
+        <v>3.4803431465140164</v>
+      </c>
       <c r="CN69" s="12"/>
       <c r="CO69" s="12"/>
       <c r="CP69" s="12"/>
-      <c r="CQ69" s="11"/>
+      <c r="CQ69" s="12"/>
       <c r="CR69" s="11"/>
       <c r="CS69" s="11"/>
       <c r="CT69" s="11"/>
@@ -30743,11 +30779,13 @@
       <c r="CL70" s="12">
         <v>2.0956081356112719</v>
       </c>
-      <c r="CM70" s="12"/>
+      <c r="CM70" s="12">
+        <v>2.1393535856452814</v>
+      </c>
       <c r="CN70" s="12"/>
       <c r="CO70" s="12"/>
       <c r="CP70" s="12"/>
-      <c r="CQ70" s="11"/>
+      <c r="CQ70" s="12"/>
       <c r="CR70" s="11"/>
       <c r="CS70" s="11"/>
       <c r="CT70" s="11"/>
@@ -31218,13 +31256,15 @@
         <v>7.4495424128882064</v>
       </c>
       <c r="CL72" s="12">
-        <v>3.8230604216797417</v>
-      </c>
-      <c r="CM72" s="12"/>
+        <v>3.1512488419070905</v>
+      </c>
+      <c r="CM72" s="12">
+        <v>2.7635476612778263</v>
+      </c>
       <c r="CN72" s="12"/>
       <c r="CO72" s="12"/>
       <c r="CP72" s="12"/>
-      <c r="CQ72" s="11"/>
+      <c r="CQ72" s="12"/>
       <c r="CR72" s="11"/>
       <c r="CS72" s="11"/>
       <c r="CT72" s="11"/>
@@ -31373,6 +31413,7 @@
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
+      <c r="CQ73" s="9"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -31706,147 +31747,148 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="20">
+      <c r="B84" s="19">
         <v>2000</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="20">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="19">
         <v>2001</v>
       </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="20">
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="19">
         <v>2002</v>
       </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="20">
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="19">
         <v>2003</v>
       </c>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="20">
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="19">
         <v>2004</v>
       </c>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="20">
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="19">
         <v>2005</v>
       </c>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="20">
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="19">
         <v>2006</v>
       </c>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21"/>
-      <c r="AD84" s="20">
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="19">
         <v>2007</v>
       </c>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="21"/>
-      <c r="AH84" s="20">
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="19">
         <v>2008</v>
       </c>
-      <c r="AI84" s="21"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="21"/>
-      <c r="AL84" s="20">
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+      <c r="AL84" s="19">
         <v>2009</v>
       </c>
-      <c r="AM84" s="21"/>
-      <c r="AN84" s="21"/>
-      <c r="AO84" s="21"/>
-      <c r="AP84" s="20">
+      <c r="AM84" s="20"/>
+      <c r="AN84" s="20"/>
+      <c r="AO84" s="20"/>
+      <c r="AP84" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="21"/>
-      <c r="AR84" s="21"/>
-      <c r="AS84" s="21"/>
-      <c r="AT84" s="20">
+      <c r="AQ84" s="20"/>
+      <c r="AR84" s="20"/>
+      <c r="AS84" s="20"/>
+      <c r="AT84" s="19">
         <v>2011</v>
       </c>
-      <c r="AU84" s="21"/>
-      <c r="AV84" s="21"/>
-      <c r="AW84" s="21"/>
-      <c r="AX84" s="20">
+      <c r="AU84" s="20"/>
+      <c r="AV84" s="20"/>
+      <c r="AW84" s="20"/>
+      <c r="AX84" s="19">
         <v>2012</v>
       </c>
-      <c r="AY84" s="21"/>
-      <c r="AZ84" s="21"/>
-      <c r="BA84" s="21"/>
-      <c r="BB84" s="20">
+      <c r="AY84" s="20"/>
+      <c r="AZ84" s="20"/>
+      <c r="BA84" s="20"/>
+      <c r="BB84" s="19">
         <v>2013</v>
       </c>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="21"/>
-      <c r="BE84" s="21"/>
-      <c r="BF84" s="20">
+      <c r="BC84" s="20"/>
+      <c r="BD84" s="20"/>
+      <c r="BE84" s="20"/>
+      <c r="BF84" s="19">
         <v>2014</v>
       </c>
-      <c r="BG84" s="21"/>
-      <c r="BH84" s="21"/>
-      <c r="BI84" s="21"/>
-      <c r="BJ84" s="20">
+      <c r="BG84" s="20"/>
+      <c r="BH84" s="20"/>
+      <c r="BI84" s="20"/>
+      <c r="BJ84" s="19">
         <v>2015</v>
       </c>
-      <c r="BK84" s="21"/>
-      <c r="BL84" s="21"/>
-      <c r="BM84" s="21"/>
-      <c r="BN84" s="20">
+      <c r="BK84" s="20"/>
+      <c r="BL84" s="20"/>
+      <c r="BM84" s="20"/>
+      <c r="BN84" s="19">
         <v>2016</v>
       </c>
-      <c r="BO84" s="21"/>
-      <c r="BP84" s="21"/>
-      <c r="BQ84" s="21"/>
-      <c r="BR84" s="20">
+      <c r="BO84" s="20"/>
+      <c r="BP84" s="20"/>
+      <c r="BQ84" s="20"/>
+      <c r="BR84" s="19">
         <v>2017</v>
       </c>
-      <c r="BS84" s="21"/>
-      <c r="BT84" s="21"/>
-      <c r="BU84" s="21"/>
-      <c r="BV84" s="20">
+      <c r="BS84" s="20"/>
+      <c r="BT84" s="20"/>
+      <c r="BU84" s="20"/>
+      <c r="BV84" s="19">
         <v>2018</v>
       </c>
-      <c r="BW84" s="21"/>
-      <c r="BX84" s="21"/>
-      <c r="BY84" s="21"/>
-      <c r="BZ84" s="20">
+      <c r="BW84" s="20"/>
+      <c r="BX84" s="20"/>
+      <c r="BY84" s="20"/>
+      <c r="BZ84" s="19">
         <v>2019</v>
       </c>
-      <c r="CA84" s="21"/>
-      <c r="CB84" s="21"/>
-      <c r="CC84" s="21"/>
-      <c r="CD84" s="20">
+      <c r="CA84" s="20"/>
+      <c r="CB84" s="20"/>
+      <c r="CC84" s="20"/>
+      <c r="CD84" s="19">
         <v>2020</v>
       </c>
-      <c r="CE84" s="20"/>
-      <c r="CF84" s="20"/>
-      <c r="CG84" s="20"/>
-      <c r="CH84" s="20">
+      <c r="CE84" s="19"/>
+      <c r="CF84" s="19"/>
+      <c r="CG84" s="19"/>
+      <c r="CH84" s="19">
         <v>2021</v>
       </c>
-      <c r="CI84" s="20"/>
-      <c r="CJ84" s="20"/>
-      <c r="CK84" s="20"/>
-      <c r="CL84" s="20">
+      <c r="CI84" s="19"/>
+      <c r="CJ84" s="19"/>
+      <c r="CK84" s="19"/>
+      <c r="CL84" s="19">
         <v>2022</v>
       </c>
-      <c r="CM84" s="20"/>
-      <c r="CN84" s="20"/>
-      <c r="CO84" s="20"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
       <c r="CP84" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ84" s="21"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32130,6 +32172,9 @@
       </c>
       <c r="CP85" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ85" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32416,9 +32461,11 @@
         <v>119.3136171124529</v>
       </c>
       <c r="CP87" s="12">
-        <v>124.27124647210756</v>
-      </c>
-      <c r="CQ87" s="11"/>
+        <v>124.27084358739076</v>
+      </c>
+      <c r="CQ87" s="12">
+        <v>121.73708762942732</v>
+      </c>
       <c r="CR87" s="11"/>
       <c r="CS87" s="11"/>
       <c r="CT87" s="11"/>
@@ -32757,9 +32804,11 @@
         <v>111.63409104070634</v>
       </c>
       <c r="CP88" s="12">
-        <v>113.35819627074673</v>
-      </c>
-      <c r="CQ88" s="11"/>
+        <v>113.35819627225069</v>
+      </c>
+      <c r="CQ88" s="12">
+        <v>114.70867114401497</v>
+      </c>
       <c r="CR88" s="11"/>
       <c r="CS88" s="11"/>
       <c r="CT88" s="11"/>
@@ -33250,9 +33299,11 @@
         <v>115.4874598697082</v>
       </c>
       <c r="CP90" s="12">
-        <v>118.56632704438414</v>
-      </c>
-      <c r="CQ90" s="11"/>
+        <v>118.52898069597239</v>
+      </c>
+      <c r="CQ90" s="12">
+        <v>118.00302696679086</v>
+      </c>
       <c r="CR90" s="11"/>
       <c r="CS90" s="11"/>
       <c r="CT90" s="11"/>
@@ -33405,6 +33456,7 @@
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
       <c r="CP91" s="9"/>
+      <c r="CQ91" s="9"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33443,147 +33495,148 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="20">
+      <c r="B103" s="19">
         <v>2000</v>
       </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="20">
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="19">
         <v>2001</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="20">
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="19">
         <v>2002</v>
       </c>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="20">
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="19">
         <v>2003</v>
       </c>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="20">
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="19">
         <v>2004</v>
       </c>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="20">
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="19">
         <v>2005</v>
       </c>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="21"/>
-      <c r="Z103" s="20">
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="19">
         <v>2006</v>
       </c>
-      <c r="AA103" s="21"/>
-      <c r="AB103" s="21"/>
-      <c r="AC103" s="21"/>
-      <c r="AD103" s="20">
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="19">
         <v>2007</v>
       </c>
-      <c r="AE103" s="21"/>
-      <c r="AF103" s="21"/>
-      <c r="AG103" s="21"/>
-      <c r="AH103" s="20">
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="19">
         <v>2008</v>
       </c>
-      <c r="AI103" s="21"/>
-      <c r="AJ103" s="21"/>
-      <c r="AK103" s="21"/>
-      <c r="AL103" s="20">
+      <c r="AI103" s="20"/>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="20"/>
+      <c r="AL103" s="19">
         <v>2009</v>
       </c>
-      <c r="AM103" s="21"/>
-      <c r="AN103" s="21"/>
-      <c r="AO103" s="21"/>
-      <c r="AP103" s="20">
+      <c r="AM103" s="20"/>
+      <c r="AN103" s="20"/>
+      <c r="AO103" s="20"/>
+      <c r="AP103" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="21"/>
-      <c r="AR103" s="21"/>
-      <c r="AS103" s="21"/>
-      <c r="AT103" s="20">
+      <c r="AQ103" s="20"/>
+      <c r="AR103" s="20"/>
+      <c r="AS103" s="20"/>
+      <c r="AT103" s="19">
         <v>2011</v>
       </c>
-      <c r="AU103" s="21"/>
-      <c r="AV103" s="21"/>
-      <c r="AW103" s="21"/>
-      <c r="AX103" s="20">
+      <c r="AU103" s="20"/>
+      <c r="AV103" s="20"/>
+      <c r="AW103" s="20"/>
+      <c r="AX103" s="19">
         <v>2012</v>
       </c>
-      <c r="AY103" s="21"/>
-      <c r="AZ103" s="21"/>
-      <c r="BA103" s="21"/>
-      <c r="BB103" s="20">
+      <c r="AY103" s="20"/>
+      <c r="AZ103" s="20"/>
+      <c r="BA103" s="20"/>
+      <c r="BB103" s="19">
         <v>2013</v>
       </c>
-      <c r="BC103" s="21"/>
-      <c r="BD103" s="21"/>
-      <c r="BE103" s="21"/>
-      <c r="BF103" s="20">
+      <c r="BC103" s="20"/>
+      <c r="BD103" s="20"/>
+      <c r="BE103" s="20"/>
+      <c r="BF103" s="19">
         <v>2014</v>
       </c>
-      <c r="BG103" s="21"/>
-      <c r="BH103" s="21"/>
-      <c r="BI103" s="21"/>
-      <c r="BJ103" s="20">
+      <c r="BG103" s="20"/>
+      <c r="BH103" s="20"/>
+      <c r="BI103" s="20"/>
+      <c r="BJ103" s="19">
         <v>2015</v>
       </c>
-      <c r="BK103" s="21"/>
-      <c r="BL103" s="21"/>
-      <c r="BM103" s="21"/>
-      <c r="BN103" s="20">
+      <c r="BK103" s="20"/>
+      <c r="BL103" s="20"/>
+      <c r="BM103" s="20"/>
+      <c r="BN103" s="19">
         <v>2016</v>
       </c>
-      <c r="BO103" s="21"/>
-      <c r="BP103" s="21"/>
-      <c r="BQ103" s="21"/>
-      <c r="BR103" s="20">
+      <c r="BO103" s="20"/>
+      <c r="BP103" s="20"/>
+      <c r="BQ103" s="20"/>
+      <c r="BR103" s="19">
         <v>2017</v>
       </c>
-      <c r="BS103" s="21"/>
-      <c r="BT103" s="21"/>
-      <c r="BU103" s="21"/>
-      <c r="BV103" s="20">
+      <c r="BS103" s="20"/>
+      <c r="BT103" s="20"/>
+      <c r="BU103" s="20"/>
+      <c r="BV103" s="19">
         <v>2018</v>
       </c>
-      <c r="BW103" s="21"/>
-      <c r="BX103" s="21"/>
-      <c r="BY103" s="21"/>
-      <c r="BZ103" s="20">
+      <c r="BW103" s="20"/>
+      <c r="BX103" s="20"/>
+      <c r="BY103" s="20"/>
+      <c r="BZ103" s="19">
         <v>2019</v>
       </c>
-      <c r="CA103" s="21"/>
-      <c r="CB103" s="21"/>
-      <c r="CC103" s="21"/>
-      <c r="CD103" s="20">
+      <c r="CA103" s="20"/>
+      <c r="CB103" s="20"/>
+      <c r="CC103" s="20"/>
+      <c r="CD103" s="19">
         <v>2020</v>
       </c>
-      <c r="CE103" s="20"/>
-      <c r="CF103" s="20"/>
-      <c r="CG103" s="20"/>
-      <c r="CH103" s="20">
+      <c r="CE103" s="19"/>
+      <c r="CF103" s="19"/>
+      <c r="CG103" s="19"/>
+      <c r="CH103" s="19">
         <v>2021</v>
       </c>
-      <c r="CI103" s="20"/>
-      <c r="CJ103" s="20"/>
-      <c r="CK103" s="20"/>
-      <c r="CL103" s="20">
+      <c r="CI103" s="19"/>
+      <c r="CJ103" s="19"/>
+      <c r="CK103" s="19"/>
+      <c r="CL103" s="19">
         <v>2022</v>
       </c>
-      <c r="CM103" s="20"/>
-      <c r="CN103" s="20"/>
-      <c r="CO103" s="20"/>
+      <c r="CM103" s="19"/>
+      <c r="CN103" s="19"/>
+      <c r="CO103" s="19"/>
       <c r="CP103" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ103" s="21"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -33867,6 +33920,9 @@
       </c>
       <c r="CP104" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ104" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34153,9 +34209,11 @@
         <v>51.839564398213156</v>
       </c>
       <c r="CP106" s="12">
-        <v>50.020152973926322</v>
-      </c>
-      <c r="CQ106" s="11"/>
+        <v>49.678789974708195</v>
+      </c>
+      <c r="CQ106" s="12">
+        <v>48.355154653772217</v>
+      </c>
       <c r="CR106" s="11"/>
       <c r="CS106" s="11"/>
       <c r="CT106" s="11"/>
@@ -34494,9 +34552,11 @@
         <v>48.16043560178683</v>
       </c>
       <c r="CP107" s="12">
-        <v>49.979847026073685</v>
-      </c>
-      <c r="CQ107" s="11"/>
+        <v>50.321210025291805</v>
+      </c>
+      <c r="CQ107" s="12">
+        <v>51.644845346227783</v>
+      </c>
       <c r="CR107" s="11"/>
       <c r="CS107" s="11"/>
       <c r="CT107" s="11"/>
@@ -34989,7 +35049,9 @@
       <c r="CP109" s="12">
         <v>100</v>
       </c>
-      <c r="CQ109" s="11"/>
+      <c r="CQ109" s="12">
+        <v>100</v>
+      </c>
       <c r="CR109" s="11"/>
       <c r="CS109" s="11"/>
       <c r="CT109" s="11"/>
@@ -35142,6 +35204,7 @@
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
       <c r="CP110" s="9"/>
+      <c r="CQ110" s="9"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35484,147 +35547,148 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="20">
+      <c r="B122" s="19">
         <v>2000</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="20">
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="19">
         <v>2001</v>
       </c>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="20">
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="19">
         <v>2002</v>
       </c>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="20">
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="19">
         <v>2003</v>
       </c>
-      <c r="O122" s="21"/>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="20">
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="19">
         <v>2004</v>
       </c>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="20">
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="19">
         <v>2005</v>
       </c>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="20">
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="19">
         <v>2006</v>
       </c>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="20">
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="19">
         <v>2007</v>
       </c>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="20">
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="19">
         <v>2008</v>
       </c>
-      <c r="AI122" s="21"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="21"/>
-      <c r="AL122" s="20">
+      <c r="AI122" s="20"/>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="20"/>
+      <c r="AL122" s="19">
         <v>2009</v>
       </c>
-      <c r="AM122" s="21"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="21"/>
-      <c r="AP122" s="20">
+      <c r="AM122" s="20"/>
+      <c r="AN122" s="20"/>
+      <c r="AO122" s="20"/>
+      <c r="AP122" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="21"/>
-      <c r="AR122" s="21"/>
-      <c r="AS122" s="21"/>
-      <c r="AT122" s="20">
+      <c r="AQ122" s="20"/>
+      <c r="AR122" s="20"/>
+      <c r="AS122" s="20"/>
+      <c r="AT122" s="19">
         <v>2011</v>
       </c>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="21"/>
-      <c r="AW122" s="21"/>
-      <c r="AX122" s="20">
+      <c r="AU122" s="20"/>
+      <c r="AV122" s="20"/>
+      <c r="AW122" s="20"/>
+      <c r="AX122" s="19">
         <v>2012</v>
       </c>
-      <c r="AY122" s="21"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="21"/>
-      <c r="BB122" s="20">
+      <c r="AY122" s="20"/>
+      <c r="AZ122" s="20"/>
+      <c r="BA122" s="20"/>
+      <c r="BB122" s="19">
         <v>2013</v>
       </c>
-      <c r="BC122" s="21"/>
-      <c r="BD122" s="21"/>
-      <c r="BE122" s="21"/>
-      <c r="BF122" s="20">
+      <c r="BC122" s="20"/>
+      <c r="BD122" s="20"/>
+      <c r="BE122" s="20"/>
+      <c r="BF122" s="19">
         <v>2014</v>
       </c>
-      <c r="BG122" s="21"/>
-      <c r="BH122" s="21"/>
-      <c r="BI122" s="21"/>
-      <c r="BJ122" s="20">
+      <c r="BG122" s="20"/>
+      <c r="BH122" s="20"/>
+      <c r="BI122" s="20"/>
+      <c r="BJ122" s="19">
         <v>2015</v>
       </c>
-      <c r="BK122" s="21"/>
-      <c r="BL122" s="21"/>
-      <c r="BM122" s="21"/>
-      <c r="BN122" s="20">
+      <c r="BK122" s="20"/>
+      <c r="BL122" s="20"/>
+      <c r="BM122" s="20"/>
+      <c r="BN122" s="19">
         <v>2016</v>
       </c>
-      <c r="BO122" s="21"/>
-      <c r="BP122" s="21"/>
-      <c r="BQ122" s="21"/>
-      <c r="BR122" s="20">
+      <c r="BO122" s="20"/>
+      <c r="BP122" s="20"/>
+      <c r="BQ122" s="20"/>
+      <c r="BR122" s="19">
         <v>2017</v>
       </c>
-      <c r="BS122" s="21"/>
-      <c r="BT122" s="21"/>
-      <c r="BU122" s="21"/>
-      <c r="BV122" s="20">
+      <c r="BS122" s="20"/>
+      <c r="BT122" s="20"/>
+      <c r="BU122" s="20"/>
+      <c r="BV122" s="19">
         <v>2018</v>
       </c>
-      <c r="BW122" s="21"/>
-      <c r="BX122" s="21"/>
-      <c r="BY122" s="21"/>
-      <c r="BZ122" s="20">
+      <c r="BW122" s="20"/>
+      <c r="BX122" s="20"/>
+      <c r="BY122" s="20"/>
+      <c r="BZ122" s="19">
         <v>2019</v>
       </c>
-      <c r="CA122" s="21"/>
-      <c r="CB122" s="21"/>
-      <c r="CC122" s="21"/>
-      <c r="CD122" s="20">
+      <c r="CA122" s="20"/>
+      <c r="CB122" s="20"/>
+      <c r="CC122" s="20"/>
+      <c r="CD122" s="19">
         <v>2020</v>
       </c>
-      <c r="CE122" s="20"/>
-      <c r="CF122" s="20"/>
-      <c r="CG122" s="20"/>
-      <c r="CH122" s="20">
+      <c r="CE122" s="19"/>
+      <c r="CF122" s="19"/>
+      <c r="CG122" s="19"/>
+      <c r="CH122" s="19">
         <v>2021</v>
       </c>
-      <c r="CI122" s="20"/>
-      <c r="CJ122" s="20"/>
-      <c r="CK122" s="20"/>
-      <c r="CL122" s="20">
+      <c r="CI122" s="19"/>
+      <c r="CJ122" s="19"/>
+      <c r="CK122" s="19"/>
+      <c r="CL122" s="19">
         <v>2022</v>
       </c>
-      <c r="CM122" s="20"/>
-      <c r="CN122" s="20"/>
-      <c r="CO122" s="20"/>
+      <c r="CM122" s="19"/>
+      <c r="CN122" s="19"/>
+      <c r="CO122" s="19"/>
       <c r="CP122" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ122" s="21"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -35908,6 +35972,9 @@
       </c>
       <c r="CP123" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ123" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36194,9 +36261,11 @@
         <v>50.177169697732225</v>
       </c>
       <c r="CP125" s="12">
-        <v>47.723878086696494</v>
-      </c>
-      <c r="CQ125" s="11"/>
+        <v>47.383410041556388</v>
+      </c>
+      <c r="CQ125" s="12">
+        <v>46.871949458507586</v>
+      </c>
       <c r="CR125" s="11"/>
       <c r="CS125" s="11"/>
       <c r="CT125" s="11"/>
@@ -36535,9 +36604,11 @@
         <v>49.822830302267775</v>
       </c>
       <c r="CP126" s="12">
-        <v>52.276121913303506</v>
-      </c>
-      <c r="CQ126" s="11"/>
+        <v>52.616589958443619</v>
+      </c>
+      <c r="CQ126" s="12">
+        <v>53.128050541492421</v>
+      </c>
       <c r="CR126" s="11"/>
       <c r="CS126" s="11"/>
       <c r="CT126" s="11"/>
@@ -37030,7 +37101,9 @@
       <c r="CP128" s="12">
         <v>100</v>
       </c>
-      <c r="CQ128" s="11"/>
+      <c r="CQ128" s="12">
+        <v>100</v>
+      </c>
       <c r="CR128" s="11"/>
       <c r="CS128" s="11"/>
       <c r="CT128" s="11"/>
@@ -37183,6 +37256,7 @@
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
       <c r="CP129" s="9"/>
+      <c r="CQ129" s="9"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37284,7 +37358,7 @@
       <c r="CN131" s="3"/>
       <c r="CO131" s="3"/>
       <c r="CP131" s="3"/>
-      <c r="CQ131" s="13"/>
+      <c r="CQ131" s="3"/>
       <c r="CR131" s="13"/>
       <c r="CS131" s="13"/>
       <c r="CT131" s="13"/>
@@ -37437,7 +37511,7 @@
       <c r="CN132" s="3"/>
       <c r="CO132" s="3"/>
       <c r="CP132" s="3"/>
-      <c r="CQ132" s="13"/>
+      <c r="CQ132" s="3"/>
       <c r="CR132" s="13"/>
       <c r="CS132" s="13"/>
       <c r="CT132" s="13"/>
@@ -37496,9 +37570,151 @@
       <c r="EU132" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP28:CQ28"/>
+    <mergeCell ref="CP84:CQ84"/>
+    <mergeCell ref="CP103:CQ103"/>
+    <mergeCell ref="CP122:CQ122"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CP47:CQ47"/>
+    <mergeCell ref="CL66:CO66"/>
+    <mergeCell ref="CP66:CQ66"/>
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="BV47:BY47"/>
     <mergeCell ref="BR47:BU47"/>
@@ -37523,148 +37739,15 @@
     <mergeCell ref="BV28:BY28"/>
     <mergeCell ref="BR66:BU66"/>
     <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="93" man="1"/>
-    <brk id="76" max="93" man="1"/>
-    <brk id="94" max="93" man="1"/>
+    <brk id="38" max="94" man="1"/>
+    <brk id="76" max="94" man="1"/>
+    <brk id="94" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFDAB8B-9E41-43A4-87E6-0D7B561EBA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4831A0-FDA3-4642-AE45-CDDA7DD02048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="3045" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CQ$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CR$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,6 +741,22 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23613,14 +23629,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CQ4" sqref="CQ4"/>
+      <selection pane="topRight" activeCell="CQ6" sqref="CQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="95" width="8.33203125" style="3" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="89" width="8.33203125" style="3" customWidth="1"/>
+    <col min="90" max="96" width="9.21875" style="20" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23655,148 +23672,149 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="19">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="31">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
-      <c r="CP9" s="19">
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
+      <c r="CP9" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="21"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="31"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24066,23 +24084,26 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24356,25 +24377,27 @@
       <c r="CK12" s="15">
         <v>138745.43860942539</v>
       </c>
-      <c r="CL12" s="15">
+      <c r="CL12" s="22">
         <v>143436.29439306865</v>
       </c>
-      <c r="CM12" s="15">
+      <c r="CM12" s="22">
         <v>143353.08136227759</v>
       </c>
-      <c r="CN12" s="15">
+      <c r="CN12" s="22">
         <v>163156.69927114615</v>
       </c>
-      <c r="CO12" s="15">
+      <c r="CO12" s="22">
         <v>170532.75677675504</v>
       </c>
-      <c r="CP12" s="15">
+      <c r="CP12" s="22">
         <v>163346.84236623056</v>
       </c>
-      <c r="CQ12" s="15">
-        <v>158122.7189596846</v>
-      </c>
-      <c r="CR12" s="11"/>
+      <c r="CQ12" s="22">
+        <v>158533.94266610869</v>
+      </c>
+      <c r="CR12" s="22">
+        <v>181541.47598018654</v>
+      </c>
       <c r="CS12" s="11"/>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
@@ -24699,25 +24722,27 @@
       <c r="CK13" s="15">
         <v>149606.02567945013</v>
       </c>
-      <c r="CL13" s="15">
+      <c r="CL13" s="22">
         <v>154044.26758366541</v>
       </c>
-      <c r="CM13" s="15">
+      <c r="CM13" s="22">
         <v>156325.11835471363</v>
       </c>
-      <c r="CN13" s="15">
+      <c r="CN13" s="22">
         <v>160056.12459406475</v>
       </c>
-      <c r="CO13" s="15">
+      <c r="CO13" s="22">
         <v>158429.80059888729</v>
       </c>
-      <c r="CP13" s="15">
+      <c r="CP13" s="22">
         <v>165459.15804036456</v>
       </c>
-      <c r="CQ13" s="15">
+      <c r="CQ13" s="22">
         <v>168880.10026788112</v>
       </c>
-      <c r="CR13" s="11"/>
+      <c r="CR13" s="22">
+        <v>171130.83629595349</v>
+      </c>
       <c r="CS13" s="11"/>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
@@ -24863,13 +24888,13 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="11"/>
-      <c r="CM14" s="11"/>
-      <c r="CN14" s="11"/>
-      <c r="CO14" s="11"/>
-      <c r="CP14" s="11"/>
-      <c r="CQ14" s="11"/>
-      <c r="CR14" s="11"/>
+      <c r="CL14" s="23"/>
+      <c r="CM14" s="23"/>
+      <c r="CN14" s="23"/>
+      <c r="CO14" s="23"/>
+      <c r="CP14" s="23"/>
+      <c r="CQ14" s="23"/>
+      <c r="CR14" s="23"/>
       <c r="CS14" s="11"/>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
@@ -25194,25 +25219,27 @@
       <c r="CK15" s="16">
         <v>288351.46428887552</v>
       </c>
-      <c r="CL15" s="16">
+      <c r="CL15" s="24">
         <v>297480.56197673408</v>
       </c>
-      <c r="CM15" s="16">
+      <c r="CM15" s="24">
         <v>299678.19971699122</v>
       </c>
-      <c r="CN15" s="16">
+      <c r="CN15" s="24">
         <v>323212.82386521087</v>
       </c>
-      <c r="CO15" s="16">
+      <c r="CO15" s="24">
         <v>328962.55737564235</v>
       </c>
-      <c r="CP15" s="16">
+      <c r="CP15" s="24">
         <v>328806.00040659512</v>
       </c>
-      <c r="CQ15" s="16">
-        <v>327002.81922756572</v>
-      </c>
-      <c r="CR15" s="11"/>
+      <c r="CQ15" s="24">
+        <v>327414.04293398978</v>
+      </c>
+      <c r="CR15" s="24">
+        <v>352672.31227614003</v>
+      </c>
       <c r="CS15" s="11"/>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
@@ -25359,12 +25386,13 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="9"/>
-      <c r="CM16" s="9"/>
-      <c r="CN16" s="9"/>
-      <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
+      <c r="CL16" s="25"/>
+      <c r="CM16" s="25"/>
+      <c r="CN16" s="25"/>
+      <c r="CO16" s="25"/>
+      <c r="CP16" s="25"/>
+      <c r="CQ16" s="25"/>
+      <c r="CR16" s="25"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25460,13 +25488,13 @@
       <c r="CI18" s="11"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="11"/>
-      <c r="CL18" s="11"/>
-      <c r="CM18" s="11"/>
-      <c r="CN18" s="11"/>
-      <c r="CO18" s="11"/>
-      <c r="CP18" s="11"/>
-      <c r="CQ18" s="11"/>
-      <c r="CR18" s="11"/>
+      <c r="CL18" s="23"/>
+      <c r="CM18" s="23"/>
+      <c r="CN18" s="23"/>
+      <c r="CO18" s="23"/>
+      <c r="CP18" s="23"/>
+      <c r="CQ18" s="23"/>
+      <c r="CR18" s="23"/>
       <c r="CS18" s="11"/>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
@@ -25612,13 +25640,13 @@
       <c r="CI19" s="11"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="11"/>
-      <c r="CL19" s="11"/>
-      <c r="CM19" s="11"/>
-      <c r="CN19" s="11"/>
-      <c r="CO19" s="11"/>
-      <c r="CP19" s="11"/>
-      <c r="CQ19" s="11"/>
-      <c r="CR19" s="11"/>
+      <c r="CL19" s="23"/>
+      <c r="CM19" s="23"/>
+      <c r="CN19" s="23"/>
+      <c r="CO19" s="23"/>
+      <c r="CP19" s="23"/>
+      <c r="CQ19" s="23"/>
+      <c r="CR19" s="23"/>
       <c r="CS19" s="11"/>
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
@@ -25707,148 +25735,149 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="19">
+      <c r="B28" s="29">
         <v>2000</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29">
         <v>2001</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="19">
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29">
         <v>2002</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="19">
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="29">
         <v>2003</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="19">
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="29">
         <v>2004</v>
       </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="19">
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="29">
         <v>2005</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="19">
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="29">
         <v>2006</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="19">
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="29">
         <v>2007</v>
       </c>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="19">
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="29">
         <v>2008</v>
       </c>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="19">
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="29">
         <v>2009</v>
       </c>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="19">
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="19">
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="29">
         <v>2011</v>
       </c>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="19">
+      <c r="AU28" s="30"/>
+      <c r="AV28" s="30"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="29">
         <v>2012</v>
       </c>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="19">
+      <c r="AY28" s="30"/>
+      <c r="AZ28" s="30"/>
+      <c r="BA28" s="30"/>
+      <c r="BB28" s="29">
         <v>2013</v>
       </c>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="19">
+      <c r="BC28" s="30"/>
+      <c r="BD28" s="30"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="29">
         <v>2014</v>
       </c>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="19">
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BI28" s="30"/>
+      <c r="BJ28" s="29">
         <v>2015</v>
       </c>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="19">
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
+      <c r="BM28" s="30"/>
+      <c r="BN28" s="29">
         <v>2016</v>
       </c>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="19">
+      <c r="BO28" s="30"/>
+      <c r="BP28" s="30"/>
+      <c r="BQ28" s="30"/>
+      <c r="BR28" s="29">
         <v>2017</v>
       </c>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="19">
+      <c r="BS28" s="30"/>
+      <c r="BT28" s="30"/>
+      <c r="BU28" s="30"/>
+      <c r="BV28" s="29">
         <v>2018</v>
       </c>
-      <c r="BW28" s="20"/>
-      <c r="BX28" s="20"/>
-      <c r="BY28" s="20"/>
-      <c r="BZ28" s="19">
+      <c r="BW28" s="30"/>
+      <c r="BX28" s="30"/>
+      <c r="BY28" s="30"/>
+      <c r="BZ28" s="29">
         <v>2019</v>
       </c>
-      <c r="CA28" s="20"/>
-      <c r="CB28" s="20"/>
-      <c r="CC28" s="20"/>
-      <c r="CD28" s="19">
+      <c r="CA28" s="30"/>
+      <c r="CB28" s="30"/>
+      <c r="CC28" s="30"/>
+      <c r="CD28" s="29">
         <v>2020</v>
       </c>
-      <c r="CE28" s="19"/>
-      <c r="CF28" s="19"/>
-      <c r="CG28" s="19"/>
-      <c r="CH28" s="19">
+      <c r="CE28" s="29"/>
+      <c r="CF28" s="29"/>
+      <c r="CG28" s="29"/>
+      <c r="CH28" s="29">
         <v>2021</v>
       </c>
-      <c r="CI28" s="19"/>
-      <c r="CJ28" s="19"/>
-      <c r="CK28" s="19"/>
-      <c r="CL28" s="19">
+      <c r="CI28" s="29"/>
+      <c r="CJ28" s="29"/>
+      <c r="CK28" s="29"/>
+      <c r="CL28" s="31">
         <v>2022</v>
       </c>
-      <c r="CM28" s="19"/>
-      <c r="CN28" s="19"/>
-      <c r="CO28" s="19"/>
-      <c r="CP28" s="19">
+      <c r="CM28" s="31"/>
+      <c r="CN28" s="31"/>
+      <c r="CO28" s="31"/>
+      <c r="CP28" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="21"/>
+      <c r="CQ28" s="31"/>
+      <c r="CR28" s="31"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26118,23 +26147,26 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="6" t="s">
+      <c r="CL29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="6" t="s">
+      <c r="CM29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="6" t="s">
+      <c r="CN29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="6" t="s">
+      <c r="CO29" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR29" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26408,25 +26440,27 @@
       <c r="CK31" s="15">
         <v>126067.45384426617</v>
       </c>
-      <c r="CL31" s="15">
+      <c r="CL31" s="22">
         <v>125965.53312470275</v>
       </c>
-      <c r="CM31" s="15">
+      <c r="CM31" s="22">
         <v>125520.1662002455</v>
       </c>
-      <c r="CN31" s="15">
+      <c r="CN31" s="22">
         <v>142359.38932074618</v>
       </c>
-      <c r="CO31" s="15">
+      <c r="CO31" s="22">
         <v>142928.1593366063</v>
       </c>
-      <c r="CP31" s="15">
+      <c r="CP31" s="22">
         <v>131444.22106651304</v>
       </c>
-      <c r="CQ31" s="15">
-        <v>129888.69870208875</v>
-      </c>
-      <c r="CR31" s="11"/>
+      <c r="CQ31" s="22">
+        <v>130226.49527208382</v>
+      </c>
+      <c r="CR31" s="22">
+        <v>151233.9847395551</v>
+      </c>
       <c r="CS31" s="11"/>
       <c r="CT31" s="11"/>
       <c r="CU31" s="11"/>
@@ -26751,25 +26785,27 @@
       <c r="CK32" s="15">
         <v>139030.92364689126</v>
       </c>
-      <c r="CL32" s="15">
+      <c r="CL32" s="22">
         <v>142965.36018506213</v>
       </c>
-      <c r="CM32" s="15">
+      <c r="CM32" s="22">
         <v>144141.52897438855</v>
       </c>
-      <c r="CN32" s="15">
+      <c r="CN32" s="22">
         <v>144416.5673826391</v>
       </c>
-      <c r="CO32" s="15">
+      <c r="CO32" s="22">
         <v>141918.83422163335</v>
       </c>
-      <c r="CP32" s="15">
+      <c r="CP32" s="22">
         <v>145961.35390420625</v>
       </c>
-      <c r="CQ32" s="15">
+      <c r="CQ32" s="22">
         <v>147225.22594290605</v>
       </c>
-      <c r="CR32" s="11"/>
+      <c r="CR32" s="22">
+        <v>147481.6678785613</v>
+      </c>
       <c r="CS32" s="11"/>
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
@@ -26915,13 +26951,13 @@
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
-      <c r="CL33" s="11"/>
-      <c r="CM33" s="11"/>
-      <c r="CN33" s="11"/>
-      <c r="CO33" s="11"/>
-      <c r="CP33" s="11"/>
-      <c r="CQ33" s="11"/>
-      <c r="CR33" s="11"/>
+      <c r="CL33" s="23"/>
+      <c r="CM33" s="23"/>
+      <c r="CN33" s="23"/>
+      <c r="CO33" s="23"/>
+      <c r="CP33" s="23"/>
+      <c r="CQ33" s="23"/>
+      <c r="CR33" s="23"/>
       <c r="CS33" s="11"/>
       <c r="CT33" s="11"/>
       <c r="CU33" s="11"/>
@@ -27246,25 +27282,27 @@
       <c r="CK34" s="16">
         <v>265098.37749115744</v>
       </c>
-      <c r="CL34" s="16">
+      <c r="CL34" s="24">
         <v>268930.89330976491</v>
       </c>
-      <c r="CM34" s="16">
+      <c r="CM34" s="24">
         <v>269661.69517463405</v>
       </c>
-      <c r="CN34" s="16">
+      <c r="CN34" s="24">
         <v>286775.95670338528</v>
       </c>
-      <c r="CO34" s="16">
+      <c r="CO34" s="24">
         <v>284846.99355823966</v>
       </c>
-      <c r="CP34" s="16">
+      <c r="CP34" s="24">
         <v>277405.57497071929</v>
       </c>
-      <c r="CQ34" s="16">
-        <v>277113.92464499478</v>
-      </c>
-      <c r="CR34" s="11"/>
+      <c r="CQ34" s="24">
+        <v>277451.7212149899</v>
+      </c>
+      <c r="CR34" s="24">
+        <v>298715.65261811641</v>
+      </c>
       <c r="CS34" s="11"/>
       <c r="CT34" s="11"/>
       <c r="CU34" s="11"/>
@@ -27411,12 +27449,13 @@
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
-      <c r="CL35" s="9"/>
-      <c r="CM35" s="9"/>
-      <c r="CN35" s="9"/>
-      <c r="CO35" s="9"/>
-      <c r="CP35" s="9"/>
-      <c r="CQ35" s="9"/>
+      <c r="CL35" s="25"/>
+      <c r="CM35" s="25"/>
+      <c r="CN35" s="25"/>
+      <c r="CO35" s="25"/>
+      <c r="CP35" s="25"/>
+      <c r="CQ35" s="25"/>
+      <c r="CR35" s="25"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27512,13 +27551,13 @@
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
-      <c r="CL37" s="11"/>
-      <c r="CM37" s="11"/>
-      <c r="CN37" s="11"/>
-      <c r="CO37" s="11"/>
-      <c r="CP37" s="11"/>
-      <c r="CQ37" s="11"/>
-      <c r="CR37" s="11"/>
+      <c r="CL37" s="23"/>
+      <c r="CM37" s="23"/>
+      <c r="CN37" s="23"/>
+      <c r="CO37" s="23"/>
+      <c r="CP37" s="23"/>
+      <c r="CQ37" s="23"/>
+      <c r="CR37" s="23"/>
       <c r="CS37" s="11"/>
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
@@ -27664,13 +27703,13 @@
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
-      <c r="CL38" s="11"/>
-      <c r="CM38" s="11"/>
-      <c r="CN38" s="11"/>
-      <c r="CO38" s="11"/>
-      <c r="CP38" s="11"/>
-      <c r="CQ38" s="11"/>
-      <c r="CR38" s="11"/>
+      <c r="CL38" s="23"/>
+      <c r="CM38" s="23"/>
+      <c r="CN38" s="23"/>
+      <c r="CO38" s="23"/>
+      <c r="CP38" s="23"/>
+      <c r="CQ38" s="23"/>
+      <c r="CR38" s="23"/>
       <c r="CS38" s="11"/>
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
@@ -27759,146 +27798,147 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19" t="s">
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19" t="s">
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19" t="s">
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19" t="s">
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19" t="s">
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19" t="s">
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19" t="s">
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="19" t="s">
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="19"/>
-      <c r="AR47" s="19"/>
-      <c r="AS47" s="19"/>
-      <c r="AT47" s="19" t="s">
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="29"/>
+      <c r="AT47" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="19"/>
-      <c r="AV47" s="19"/>
-      <c r="AW47" s="19"/>
-      <c r="AX47" s="19" t="s">
+      <c r="AU47" s="29"/>
+      <c r="AV47" s="29"/>
+      <c r="AW47" s="29"/>
+      <c r="AX47" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="19"/>
-      <c r="AZ47" s="19"/>
-      <c r="BA47" s="19"/>
-      <c r="BB47" s="19" t="s">
+      <c r="AY47" s="29"/>
+      <c r="AZ47" s="29"/>
+      <c r="BA47" s="29"/>
+      <c r="BB47" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="19"/>
-      <c r="BD47" s="19"/>
-      <c r="BE47" s="19"/>
-      <c r="BF47" s="19" t="s">
+      <c r="BC47" s="29"/>
+      <c r="BD47" s="29"/>
+      <c r="BE47" s="29"/>
+      <c r="BF47" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="19"/>
-      <c r="BH47" s="19"/>
-      <c r="BI47" s="19"/>
-      <c r="BJ47" s="19" t="s">
+      <c r="BG47" s="29"/>
+      <c r="BH47" s="29"/>
+      <c r="BI47" s="29"/>
+      <c r="BJ47" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="19"/>
-      <c r="BL47" s="19"/>
-      <c r="BM47" s="19"/>
-      <c r="BN47" s="19" t="s">
+      <c r="BK47" s="29"/>
+      <c r="BL47" s="29"/>
+      <c r="BM47" s="29"/>
+      <c r="BN47" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="19"/>
-      <c r="BP47" s="19"/>
-      <c r="BQ47" s="19"/>
-      <c r="BR47" s="19" t="s">
+      <c r="BO47" s="29"/>
+      <c r="BP47" s="29"/>
+      <c r="BQ47" s="29"/>
+      <c r="BR47" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="19"/>
-      <c r="BT47" s="19"/>
-      <c r="BU47" s="19"/>
-      <c r="BV47" s="19" t="s">
+      <c r="BS47" s="29"/>
+      <c r="BT47" s="29"/>
+      <c r="BU47" s="29"/>
+      <c r="BV47" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="19"/>
-      <c r="BX47" s="19"/>
-      <c r="BY47" s="19"/>
-      <c r="BZ47" s="19" t="s">
+      <c r="BW47" s="29"/>
+      <c r="BX47" s="29"/>
+      <c r="BY47" s="29"/>
+      <c r="BZ47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="19"/>
-      <c r="CB47" s="19"/>
-      <c r="CC47" s="19"/>
-      <c r="CD47" s="19" t="s">
+      <c r="CA47" s="29"/>
+      <c r="CB47" s="29"/>
+      <c r="CC47" s="29"/>
+      <c r="CD47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="19"/>
-      <c r="CF47" s="19"/>
-      <c r="CG47" s="19"/>
-      <c r="CH47" s="19" t="s">
+      <c r="CE47" s="29"/>
+      <c r="CF47" s="29"/>
+      <c r="CG47" s="29"/>
+      <c r="CH47" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="19"/>
-      <c r="CJ47" s="19"/>
-      <c r="CK47" s="19"/>
-      <c r="CL47" s="19" t="s">
+      <c r="CI47" s="29"/>
+      <c r="CJ47" s="29"/>
+      <c r="CK47" s="29"/>
+      <c r="CL47" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="19"/>
-      <c r="CN47" s="19"/>
-      <c r="CO47" s="19"/>
+      <c r="CM47" s="31"/>
+      <c r="CN47" s="31"/>
+      <c r="CO47" s="26"/>
       <c r="CP47" s="19"/>
-      <c r="CQ47" s="21"/>
+      <c r="CQ47" s="19"/>
+      <c r="CR47" s="19"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28168,16 +28208,19 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5" t="s">
+      <c r="CL48" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5" t="s">
+      <c r="CM48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="5"/>
-      <c r="CO48" s="5"/>
-      <c r="CP48" s="5"/>
-      <c r="CQ48" s="5"/>
+      <c r="CN48" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO48" s="27"/>
+      <c r="CP48" s="27"/>
+      <c r="CQ48" s="27"/>
+      <c r="CR48" s="27"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28450,17 +28493,19 @@
       <c r="CK50" s="12">
         <v>22.910532040489187</v>
       </c>
-      <c r="CL50" s="12">
+      <c r="CL50" s="28">
         <v>13.881108723151783</v>
       </c>
-      <c r="CM50" s="12">
-        <v>10.302978810815816</v>
-      </c>
-      <c r="CN50" s="12"/>
-      <c r="CO50" s="12"/>
-      <c r="CP50" s="12"/>
-      <c r="CQ50" s="12"/>
-      <c r="CR50" s="11"/>
+      <c r="CM50" s="28">
+        <v>10.589839548315311</v>
+      </c>
+      <c r="CN50" s="28">
+        <v>11.268171513133638</v>
+      </c>
+      <c r="CO50" s="28"/>
+      <c r="CP50" s="28"/>
+      <c r="CQ50" s="28"/>
+      <c r="CR50" s="28"/>
       <c r="CS50" s="11"/>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
@@ -28781,17 +28826,19 @@
       <c r="CK51" s="12">
         <v>5.8980077034752583</v>
       </c>
-      <c r="CL51" s="12">
+      <c r="CL51" s="28">
         <v>7.4101364729456378</v>
       </c>
-      <c r="CM51" s="12">
+      <c r="CM51" s="28">
         <v>8.0313273038305226</v>
       </c>
-      <c r="CN51" s="12"/>
-      <c r="CO51" s="12"/>
-      <c r="CP51" s="12"/>
-      <c r="CQ51" s="12"/>
-      <c r="CR51" s="11"/>
+      <c r="CN51" s="28">
+        <v>6.9192676818687744</v>
+      </c>
+      <c r="CO51" s="28"/>
+      <c r="CP51" s="28"/>
+      <c r="CQ51" s="28"/>
+      <c r="CR51" s="28"/>
       <c r="CS51" s="11"/>
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
@@ -28934,13 +28981,13 @@
       <c r="CI52" s="11"/>
       <c r="CJ52" s="11"/>
       <c r="CK52" s="11"/>
-      <c r="CL52" s="11"/>
-      <c r="CM52" s="11"/>
-      <c r="CN52" s="11"/>
-      <c r="CO52" s="11"/>
-      <c r="CP52" s="11"/>
-      <c r="CQ52" s="11"/>
-      <c r="CR52" s="11"/>
+      <c r="CL52" s="23"/>
+      <c r="CM52" s="23"/>
+      <c r="CN52" s="23"/>
+      <c r="CO52" s="23"/>
+      <c r="CP52" s="23"/>
+      <c r="CQ52" s="23"/>
+      <c r="CR52" s="23"/>
       <c r="CS52" s="11"/>
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
@@ -29261,17 +29308,19 @@
       <c r="CK53" s="12">
         <v>14.083886546898867</v>
       </c>
-      <c r="CL53" s="12">
+      <c r="CL53" s="28">
         <v>10.530247160253452</v>
       </c>
-      <c r="CM53" s="12">
-        <v>9.1179870729266383</v>
-      </c>
-      <c r="CN53" s="12"/>
-      <c r="CO53" s="12"/>
-      <c r="CP53" s="12"/>
-      <c r="CQ53" s="12"/>
-      <c r="CR53" s="11"/>
+      <c r="CM53" s="28">
+        <v>9.2552088350742849</v>
+      </c>
+      <c r="CN53" s="28">
+        <v>9.1145790747506368</v>
+      </c>
+      <c r="CO53" s="28"/>
+      <c r="CP53" s="28"/>
+      <c r="CQ53" s="28"/>
+      <c r="CR53" s="28"/>
       <c r="CS53" s="11"/>
       <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
@@ -29414,12 +29463,13 @@
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
       <c r="CK54" s="9"/>
-      <c r="CL54" s="9"/>
-      <c r="CM54" s="9"/>
-      <c r="CN54" s="9"/>
-      <c r="CO54" s="9"/>
-      <c r="CP54" s="9"/>
-      <c r="CQ54" s="9"/>
+      <c r="CL54" s="25"/>
+      <c r="CM54" s="25"/>
+      <c r="CN54" s="25"/>
+      <c r="CO54" s="25"/>
+      <c r="CP54" s="25"/>
+      <c r="CQ54" s="25"/>
+      <c r="CR54" s="25"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -29515,13 +29565,13 @@
       <c r="CI56" s="11"/>
       <c r="CJ56" s="11"/>
       <c r="CK56" s="11"/>
-      <c r="CL56" s="11"/>
-      <c r="CM56" s="11"/>
-      <c r="CN56" s="11"/>
-      <c r="CO56" s="11"/>
-      <c r="CP56" s="11"/>
-      <c r="CQ56" s="11"/>
-      <c r="CR56" s="11"/>
+      <c r="CL56" s="23"/>
+      <c r="CM56" s="23"/>
+      <c r="CN56" s="23"/>
+      <c r="CO56" s="23"/>
+      <c r="CP56" s="23"/>
+      <c r="CQ56" s="23"/>
+      <c r="CR56" s="23"/>
       <c r="CS56" s="11"/>
       <c r="CT56" s="11"/>
       <c r="CU56" s="11"/>
@@ -29663,13 +29713,13 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="11"/>
-      <c r="CM57" s="11"/>
-      <c r="CN57" s="11"/>
-      <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="11"/>
+      <c r="CL57" s="23"/>
+      <c r="CM57" s="23"/>
+      <c r="CN57" s="23"/>
+      <c r="CO57" s="23"/>
+      <c r="CP57" s="23"/>
+      <c r="CQ57" s="23"/>
+      <c r="CR57" s="23"/>
       <c r="CS57" s="11"/>
       <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
@@ -29754,146 +29804,147 @@
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="19" t="s">
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="19" t="s">
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="19" t="s">
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="19" t="s">
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="19" t="s">
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="19" t="s">
+      <c r="W66" s="31"/>
+      <c r="X66" s="31"/>
+      <c r="Y66" s="31"/>
+      <c r="Z66" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="19" t="s">
+      <c r="AA66" s="31"/>
+      <c r="AB66" s="31"/>
+      <c r="AC66" s="31"/>
+      <c r="AD66" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="19" t="s">
+      <c r="AE66" s="31"/>
+      <c r="AF66" s="31"/>
+      <c r="AG66" s="31"/>
+      <c r="AH66" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="19" t="s">
+      <c r="AI66" s="31"/>
+      <c r="AJ66" s="31"/>
+      <c r="AK66" s="31"/>
+      <c r="AL66" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="21"/>
-      <c r="AP66" s="19" t="s">
+      <c r="AM66" s="31"/>
+      <c r="AN66" s="31"/>
+      <c r="AO66" s="31"/>
+      <c r="AP66" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="21"/>
-      <c r="AT66" s="19" t="s">
+      <c r="AQ66" s="31"/>
+      <c r="AR66" s="31"/>
+      <c r="AS66" s="31"/>
+      <c r="AT66" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="21"/>
-      <c r="AX66" s="19" t="s">
+      <c r="AU66" s="31"/>
+      <c r="AV66" s="31"/>
+      <c r="AW66" s="31"/>
+      <c r="AX66" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="21"/>
-      <c r="AZ66" s="21"/>
-      <c r="BA66" s="21"/>
-      <c r="BB66" s="19" t="s">
+      <c r="AY66" s="31"/>
+      <c r="AZ66" s="31"/>
+      <c r="BA66" s="31"/>
+      <c r="BB66" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="21"/>
-      <c r="BD66" s="21"/>
-      <c r="BE66" s="21"/>
-      <c r="BF66" s="19" t="s">
+      <c r="BC66" s="31"/>
+      <c r="BD66" s="31"/>
+      <c r="BE66" s="31"/>
+      <c r="BF66" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="21"/>
-      <c r="BH66" s="21"/>
-      <c r="BI66" s="21"/>
-      <c r="BJ66" s="19" t="s">
+      <c r="BG66" s="31"/>
+      <c r="BH66" s="31"/>
+      <c r="BI66" s="31"/>
+      <c r="BJ66" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="21"/>
-      <c r="BL66" s="21"/>
-      <c r="BM66" s="21"/>
-      <c r="BN66" s="19" t="s">
+      <c r="BK66" s="31"/>
+      <c r="BL66" s="31"/>
+      <c r="BM66" s="31"/>
+      <c r="BN66" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="21"/>
-      <c r="BP66" s="21"/>
-      <c r="BQ66" s="21"/>
-      <c r="BR66" s="19" t="s">
+      <c r="BO66" s="31"/>
+      <c r="BP66" s="31"/>
+      <c r="BQ66" s="31"/>
+      <c r="BR66" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="21"/>
-      <c r="BT66" s="21"/>
-      <c r="BU66" s="21"/>
-      <c r="BV66" s="19" t="s">
+      <c r="BS66" s="31"/>
+      <c r="BT66" s="31"/>
+      <c r="BU66" s="31"/>
+      <c r="BV66" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="21"/>
-      <c r="BX66" s="21"/>
-      <c r="BY66" s="21"/>
-      <c r="BZ66" s="19" t="s">
+      <c r="BW66" s="31"/>
+      <c r="BX66" s="31"/>
+      <c r="BY66" s="31"/>
+      <c r="BZ66" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="21"/>
-      <c r="CB66" s="21"/>
-      <c r="CC66" s="21"/>
-      <c r="CD66" s="19" t="s">
+      <c r="CA66" s="31"/>
+      <c r="CB66" s="31"/>
+      <c r="CC66" s="31"/>
+      <c r="CD66" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="19"/>
-      <c r="CF66" s="19"/>
-      <c r="CG66" s="19"/>
-      <c r="CH66" s="19" t="s">
+      <c r="CE66" s="29"/>
+      <c r="CF66" s="29"/>
+      <c r="CG66" s="29"/>
+      <c r="CH66" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="19"/>
-      <c r="CJ66" s="19"/>
-      <c r="CK66" s="19"/>
-      <c r="CL66" s="19" t="s">
+      <c r="CI66" s="29"/>
+      <c r="CJ66" s="29"/>
+      <c r="CK66" s="29"/>
+      <c r="CL66" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="19"/>
-      <c r="CN66" s="19"/>
-      <c r="CO66" s="19"/>
+      <c r="CM66" s="31"/>
+      <c r="CN66" s="31"/>
+      <c r="CO66" s="26"/>
       <c r="CP66" s="19"/>
-      <c r="CQ66" s="21"/>
+      <c r="CQ66" s="19"/>
+      <c r="CR66" s="19"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30163,16 +30214,19 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5" t="s">
+      <c r="CL67" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5" t="s">
+      <c r="CM67" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="5"/>
-      <c r="CO67" s="5"/>
-      <c r="CP67" s="5"/>
-      <c r="CQ67" s="5"/>
+      <c r="CN67" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO67" s="27"/>
+      <c r="CP67" s="27"/>
+      <c r="CQ67" s="27"/>
+      <c r="CR67" s="27"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -30445,17 +30499,19 @@
       <c r="CK69" s="12">
         <v>13.374352363115477</v>
       </c>
-      <c r="CL69" s="12">
+      <c r="CL69" s="28">
         <v>4.3493547845238965</v>
       </c>
-      <c r="CM69" s="12">
-        <v>3.4803431465140164</v>
-      </c>
-      <c r="CN69" s="12"/>
-      <c r="CO69" s="12"/>
-      <c r="CP69" s="12"/>
-      <c r="CQ69" s="12"/>
-      <c r="CR69" s="11"/>
+      <c r="CM69" s="28">
+        <v>3.7494605164322365</v>
+      </c>
+      <c r="CN69" s="28">
+        <v>6.2339375443749532</v>
+      </c>
+      <c r="CO69" s="28"/>
+      <c r="CP69" s="28"/>
+      <c r="CQ69" s="28"/>
+      <c r="CR69" s="28"/>
       <c r="CS69" s="11"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
@@ -30776,17 +30832,19 @@
       <c r="CK70" s="12">
         <v>2.0771713939531651</v>
       </c>
-      <c r="CL70" s="12">
+      <c r="CL70" s="28">
         <v>2.0956081356112719</v>
       </c>
-      <c r="CM70" s="12">
+      <c r="CM70" s="28">
         <v>2.1393535856452814</v>
       </c>
-      <c r="CN70" s="12"/>
-      <c r="CO70" s="12"/>
-      <c r="CP70" s="12"/>
-      <c r="CQ70" s="12"/>
-      <c r="CR70" s="11"/>
+      <c r="CN70" s="28">
+        <v>2.1224022641398648</v>
+      </c>
+      <c r="CO70" s="28"/>
+      <c r="CP70" s="28"/>
+      <c r="CQ70" s="28"/>
+      <c r="CR70" s="28"/>
       <c r="CS70" s="11"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
@@ -30928,13 +30986,13 @@
       <c r="CI71" s="11"/>
       <c r="CJ71" s="11"/>
       <c r="CK71" s="11"/>
-      <c r="CL71" s="11"/>
-      <c r="CM71" s="11"/>
-      <c r="CN71" s="11"/>
-      <c r="CO71" s="11"/>
-      <c r="CP71" s="11"/>
-      <c r="CQ71" s="11"/>
-      <c r="CR71" s="11"/>
+      <c r="CL71" s="23"/>
+      <c r="CM71" s="23"/>
+      <c r="CN71" s="23"/>
+      <c r="CO71" s="23"/>
+      <c r="CP71" s="23"/>
+      <c r="CQ71" s="23"/>
+      <c r="CR71" s="23"/>
       <c r="CS71" s="11"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
@@ -31255,17 +31313,19 @@
       <c r="CK72" s="12">
         <v>7.4495424128882064</v>
       </c>
-      <c r="CL72" s="12">
+      <c r="CL72" s="28">
         <v>3.1512488419070905</v>
       </c>
-      <c r="CM72" s="12">
-        <v>2.7635476612778263</v>
-      </c>
-      <c r="CN72" s="12"/>
-      <c r="CO72" s="12"/>
-      <c r="CP72" s="12"/>
-      <c r="CQ72" s="12"/>
-      <c r="CR72" s="11"/>
+      <c r="CM72" s="28">
+        <v>2.8888144589134299</v>
+      </c>
+      <c r="CN72" s="28">
+        <v>4.1634229214970304</v>
+      </c>
+      <c r="CO72" s="28"/>
+      <c r="CP72" s="28"/>
+      <c r="CQ72" s="28"/>
+      <c r="CR72" s="28"/>
       <c r="CS72" s="11"/>
       <c r="CT72" s="11"/>
       <c r="CU72" s="11"/>
@@ -31408,12 +31468,13 @@
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
       <c r="CK73" s="9"/>
-      <c r="CL73" s="9"/>
-      <c r="CM73" s="9"/>
-      <c r="CN73" s="9"/>
-      <c r="CO73" s="9"/>
-      <c r="CP73" s="9"/>
-      <c r="CQ73" s="9"/>
+      <c r="CL73" s="25"/>
+      <c r="CM73" s="25"/>
+      <c r="CN73" s="25"/>
+      <c r="CO73" s="25"/>
+      <c r="CP73" s="25"/>
+      <c r="CQ73" s="25"/>
+      <c r="CR73" s="25"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -31509,13 +31570,13 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
-      <c r="CO75" s="11"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="11"/>
+      <c r="CL75" s="23"/>
+      <c r="CM75" s="23"/>
+      <c r="CN75" s="23"/>
+      <c r="CO75" s="23"/>
+      <c r="CP75" s="23"/>
+      <c r="CQ75" s="23"/>
+      <c r="CR75" s="23"/>
       <c r="CS75" s="11"/>
       <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
@@ -31657,13 +31718,13 @@
       <c r="CI76" s="11"/>
       <c r="CJ76" s="11"/>
       <c r="CK76" s="11"/>
-      <c r="CL76" s="11"/>
-      <c r="CM76" s="11"/>
-      <c r="CN76" s="11"/>
-      <c r="CO76" s="11"/>
-      <c r="CP76" s="11"/>
-      <c r="CQ76" s="11"/>
-      <c r="CR76" s="11"/>
+      <c r="CL76" s="23"/>
+      <c r="CM76" s="23"/>
+      <c r="CN76" s="23"/>
+      <c r="CO76" s="23"/>
+      <c r="CP76" s="23"/>
+      <c r="CQ76" s="23"/>
+      <c r="CR76" s="23"/>
       <c r="CS76" s="11"/>
       <c r="CT76" s="11"/>
       <c r="CU76" s="11"/>
@@ -31747,148 +31808,149 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="19">
+      <c r="B84" s="29">
         <v>2000</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="19">
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="29">
         <v>2001</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="19">
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="29">
         <v>2002</v>
       </c>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="19">
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="29">
         <v>2003</v>
       </c>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="19">
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="29">
         <v>2004</v>
       </c>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="19">
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="29">
         <v>2005</v>
       </c>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="19">
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="29">
         <v>2006</v>
       </c>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-      <c r="AD84" s="19">
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="29">
         <v>2007</v>
       </c>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
-      <c r="AH84" s="19">
+      <c r="AE84" s="30"/>
+      <c r="AF84" s="30"/>
+      <c r="AG84" s="30"/>
+      <c r="AH84" s="29">
         <v>2008</v>
       </c>
-      <c r="AI84" s="20"/>
-      <c r="AJ84" s="20"/>
-      <c r="AK84" s="20"/>
-      <c r="AL84" s="19">
+      <c r="AI84" s="30"/>
+      <c r="AJ84" s="30"/>
+      <c r="AK84" s="30"/>
+      <c r="AL84" s="29">
         <v>2009</v>
       </c>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
-      <c r="AP84" s="19">
+      <c r="AM84" s="30"/>
+      <c r="AN84" s="30"/>
+      <c r="AO84" s="30"/>
+      <c r="AP84" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="20"/>
-      <c r="AR84" s="20"/>
-      <c r="AS84" s="20"/>
-      <c r="AT84" s="19">
+      <c r="AQ84" s="30"/>
+      <c r="AR84" s="30"/>
+      <c r="AS84" s="30"/>
+      <c r="AT84" s="29">
         <v>2011</v>
       </c>
-      <c r="AU84" s="20"/>
-      <c r="AV84" s="20"/>
-      <c r="AW84" s="20"/>
-      <c r="AX84" s="19">
+      <c r="AU84" s="30"/>
+      <c r="AV84" s="30"/>
+      <c r="AW84" s="30"/>
+      <c r="AX84" s="29">
         <v>2012</v>
       </c>
-      <c r="AY84" s="20"/>
-      <c r="AZ84" s="20"/>
-      <c r="BA84" s="20"/>
-      <c r="BB84" s="19">
+      <c r="AY84" s="30"/>
+      <c r="AZ84" s="30"/>
+      <c r="BA84" s="30"/>
+      <c r="BB84" s="29">
         <v>2013</v>
       </c>
-      <c r="BC84" s="20"/>
-      <c r="BD84" s="20"/>
-      <c r="BE84" s="20"/>
-      <c r="BF84" s="19">
+      <c r="BC84" s="30"/>
+      <c r="BD84" s="30"/>
+      <c r="BE84" s="30"/>
+      <c r="BF84" s="29">
         <v>2014</v>
       </c>
-      <c r="BG84" s="20"/>
-      <c r="BH84" s="20"/>
-      <c r="BI84" s="20"/>
-      <c r="BJ84" s="19">
+      <c r="BG84" s="30"/>
+      <c r="BH84" s="30"/>
+      <c r="BI84" s="30"/>
+      <c r="BJ84" s="29">
         <v>2015</v>
       </c>
-      <c r="BK84" s="20"/>
-      <c r="BL84" s="20"/>
-      <c r="BM84" s="20"/>
-      <c r="BN84" s="19">
+      <c r="BK84" s="30"/>
+      <c r="BL84" s="30"/>
+      <c r="BM84" s="30"/>
+      <c r="BN84" s="29">
         <v>2016</v>
       </c>
-      <c r="BO84" s="20"/>
-      <c r="BP84" s="20"/>
-      <c r="BQ84" s="20"/>
-      <c r="BR84" s="19">
+      <c r="BO84" s="30"/>
+      <c r="BP84" s="30"/>
+      <c r="BQ84" s="30"/>
+      <c r="BR84" s="29">
         <v>2017</v>
       </c>
-      <c r="BS84" s="20"/>
-      <c r="BT84" s="20"/>
-      <c r="BU84" s="20"/>
-      <c r="BV84" s="19">
+      <c r="BS84" s="30"/>
+      <c r="BT84" s="30"/>
+      <c r="BU84" s="30"/>
+      <c r="BV84" s="29">
         <v>2018</v>
       </c>
-      <c r="BW84" s="20"/>
-      <c r="BX84" s="20"/>
-      <c r="BY84" s="20"/>
-      <c r="BZ84" s="19">
+      <c r="BW84" s="30"/>
+      <c r="BX84" s="30"/>
+      <c r="BY84" s="30"/>
+      <c r="BZ84" s="29">
         <v>2019</v>
       </c>
-      <c r="CA84" s="20"/>
-      <c r="CB84" s="20"/>
-      <c r="CC84" s="20"/>
-      <c r="CD84" s="19">
+      <c r="CA84" s="30"/>
+      <c r="CB84" s="30"/>
+      <c r="CC84" s="30"/>
+      <c r="CD84" s="29">
         <v>2020</v>
       </c>
-      <c r="CE84" s="19"/>
-      <c r="CF84" s="19"/>
-      <c r="CG84" s="19"/>
-      <c r="CH84" s="19">
+      <c r="CE84" s="29"/>
+      <c r="CF84" s="29"/>
+      <c r="CG84" s="29"/>
+      <c r="CH84" s="29">
         <v>2021</v>
       </c>
-      <c r="CI84" s="19"/>
-      <c r="CJ84" s="19"/>
-      <c r="CK84" s="19"/>
-      <c r="CL84" s="19">
+      <c r="CI84" s="29"/>
+      <c r="CJ84" s="29"/>
+      <c r="CK84" s="29"/>
+      <c r="CL84" s="31">
         <v>2022</v>
       </c>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
-      <c r="CP84" s="19">
+      <c r="CM84" s="31"/>
+      <c r="CN84" s="31"/>
+      <c r="CO84" s="31"/>
+      <c r="CP84" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="21"/>
+      <c r="CQ84" s="31"/>
+      <c r="CR84" s="31"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32158,23 +32220,26 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="6" t="s">
+      <c r="CL85" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="6" t="s">
+      <c r="CM85" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="6" t="s">
+      <c r="CN85" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="6" t="s">
+      <c r="CO85" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR85" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32448,25 +32513,27 @@
       <c r="CK87" s="12">
         <v>110.05650893911177</v>
       </c>
-      <c r="CL87" s="12">
+      <c r="CL87" s="28">
         <v>113.86947749514169</v>
       </c>
-      <c r="CM87" s="12">
+      <c r="CM87" s="28">
         <v>114.20721124092745</v>
       </c>
-      <c r="CN87" s="12">
+      <c r="CN87" s="28">
         <v>114.60901880067924</v>
       </c>
-      <c r="CO87" s="12">
+      <c r="CO87" s="28">
         <v>119.3136171124529</v>
       </c>
-      <c r="CP87" s="12">
+      <c r="CP87" s="28">
         <v>124.27084358739076</v>
       </c>
-      <c r="CQ87" s="12">
-        <v>121.73708762942732</v>
-      </c>
-      <c r="CR87" s="11"/>
+      <c r="CQ87" s="28">
+        <v>121.73708762942729</v>
+      </c>
+      <c r="CR87" s="28">
+        <v>120.0401327074896</v>
+      </c>
       <c r="CS87" s="11"/>
       <c r="CT87" s="11"/>
       <c r="CU87" s="11"/>
@@ -32791,25 +32858,27 @@
       <c r="CK88" s="12">
         <v>107.60629488401973</v>
       </c>
-      <c r="CL88" s="12">
+      <c r="CL88" s="28">
         <v>107.74936487010709</v>
       </c>
-      <c r="CM88" s="12">
+      <c r="CM88" s="28">
         <v>108.45251848444725</v>
       </c>
-      <c r="CN88" s="12">
+      <c r="CN88" s="28">
         <v>110.82947579690621</v>
       </c>
-      <c r="CO88" s="12">
+      <c r="CO88" s="28">
         <v>111.63409104070634</v>
       </c>
-      <c r="CP88" s="12">
+      <c r="CP88" s="28">
         <v>113.35819627225069</v>
       </c>
-      <c r="CQ88" s="12">
+      <c r="CQ88" s="28">
         <v>114.70867114401497</v>
       </c>
-      <c r="CR88" s="11"/>
+      <c r="CR88" s="28">
+        <v>116.03532748006707</v>
+      </c>
       <c r="CS88" s="11"/>
       <c r="CT88" s="11"/>
       <c r="CU88" s="11"/>
@@ -32955,13 +33024,13 @@
       <c r="CI89" s="11"/>
       <c r="CJ89" s="11"/>
       <c r="CK89" s="11"/>
-      <c r="CL89" s="11"/>
-      <c r="CM89" s="11"/>
-      <c r="CN89" s="11"/>
-      <c r="CO89" s="11"/>
-      <c r="CP89" s="11"/>
-      <c r="CQ89" s="11"/>
-      <c r="CR89" s="11"/>
+      <c r="CL89" s="23"/>
+      <c r="CM89" s="23"/>
+      <c r="CN89" s="23"/>
+      <c r="CO89" s="23"/>
+      <c r="CP89" s="23"/>
+      <c r="CQ89" s="23"/>
+      <c r="CR89" s="23"/>
       <c r="CS89" s="11"/>
       <c r="CT89" s="11"/>
       <c r="CU89" s="11"/>
@@ -33286,25 +33355,27 @@
       <c r="CK90" s="12">
         <v>108.77149344246504</v>
       </c>
-      <c r="CL90" s="12">
+      <c r="CL90" s="28">
         <v>110.615986997851</v>
       </c>
-      <c r="CM90" s="12">
+      <c r="CM90" s="28">
         <v>111.13117104856822</v>
       </c>
-      <c r="CN90" s="12">
+      <c r="CN90" s="28">
         <v>112.70569108396786</v>
       </c>
-      <c r="CO90" s="12">
+      <c r="CO90" s="28">
         <v>115.4874598697082</v>
       </c>
-      <c r="CP90" s="12">
+      <c r="CP90" s="28">
         <v>118.52898069597239</v>
       </c>
-      <c r="CQ90" s="12">
-        <v>118.00302696679086</v>
-      </c>
-      <c r="CR90" s="11"/>
+      <c r="CQ90" s="28">
+        <v>118.00757317352716</v>
+      </c>
+      <c r="CR90" s="28">
+        <v>118.06288327548835</v>
+      </c>
       <c r="CS90" s="11"/>
       <c r="CT90" s="11"/>
       <c r="CU90" s="11"/>
@@ -33451,12 +33522,13 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
-      <c r="CL91" s="9"/>
-      <c r="CM91" s="9"/>
-      <c r="CN91" s="9"/>
-      <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
+      <c r="CL91" s="25"/>
+      <c r="CM91" s="25"/>
+      <c r="CN91" s="25"/>
+      <c r="CO91" s="25"/>
+      <c r="CP91" s="25"/>
+      <c r="CQ91" s="25"/>
+      <c r="CR91" s="25"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33495,148 +33567,149 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="19">
+      <c r="B103" s="29">
         <v>2000</v>
       </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="19">
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="29">
         <v>2001</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="19">
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="29">
         <v>2002</v>
       </c>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="19">
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="29">
         <v>2003</v>
       </c>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="19">
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="30"/>
+      <c r="R103" s="29">
         <v>2004</v>
       </c>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="19">
+      <c r="S103" s="30"/>
+      <c r="T103" s="30"/>
+      <c r="U103" s="30"/>
+      <c r="V103" s="29">
         <v>2005</v>
       </c>
-      <c r="W103" s="20"/>
-      <c r="X103" s="20"/>
-      <c r="Y103" s="20"/>
-      <c r="Z103" s="19">
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="29">
         <v>2006</v>
       </c>
-      <c r="AA103" s="20"/>
-      <c r="AB103" s="20"/>
-      <c r="AC103" s="20"/>
-      <c r="AD103" s="19">
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="29">
         <v>2007</v>
       </c>
-      <c r="AE103" s="20"/>
-      <c r="AF103" s="20"/>
-      <c r="AG103" s="20"/>
-      <c r="AH103" s="19">
+      <c r="AE103" s="30"/>
+      <c r="AF103" s="30"/>
+      <c r="AG103" s="30"/>
+      <c r="AH103" s="29">
         <v>2008</v>
       </c>
-      <c r="AI103" s="20"/>
-      <c r="AJ103" s="20"/>
-      <c r="AK103" s="20"/>
-      <c r="AL103" s="19">
+      <c r="AI103" s="30"/>
+      <c r="AJ103" s="30"/>
+      <c r="AK103" s="30"/>
+      <c r="AL103" s="29">
         <v>2009</v>
       </c>
-      <c r="AM103" s="20"/>
-      <c r="AN103" s="20"/>
-      <c r="AO103" s="20"/>
-      <c r="AP103" s="19">
+      <c r="AM103" s="30"/>
+      <c r="AN103" s="30"/>
+      <c r="AO103" s="30"/>
+      <c r="AP103" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="20"/>
-      <c r="AR103" s="20"/>
-      <c r="AS103" s="20"/>
-      <c r="AT103" s="19">
+      <c r="AQ103" s="30"/>
+      <c r="AR103" s="30"/>
+      <c r="AS103" s="30"/>
+      <c r="AT103" s="29">
         <v>2011</v>
       </c>
-      <c r="AU103" s="20"/>
-      <c r="AV103" s="20"/>
-      <c r="AW103" s="20"/>
-      <c r="AX103" s="19">
+      <c r="AU103" s="30"/>
+      <c r="AV103" s="30"/>
+      <c r="AW103" s="30"/>
+      <c r="AX103" s="29">
         <v>2012</v>
       </c>
-      <c r="AY103" s="20"/>
-      <c r="AZ103" s="20"/>
-      <c r="BA103" s="20"/>
-      <c r="BB103" s="19">
+      <c r="AY103" s="30"/>
+      <c r="AZ103" s="30"/>
+      <c r="BA103" s="30"/>
+      <c r="BB103" s="29">
         <v>2013</v>
       </c>
-      <c r="BC103" s="20"/>
-      <c r="BD103" s="20"/>
-      <c r="BE103" s="20"/>
-      <c r="BF103" s="19">
+      <c r="BC103" s="30"/>
+      <c r="BD103" s="30"/>
+      <c r="BE103" s="30"/>
+      <c r="BF103" s="29">
         <v>2014</v>
       </c>
-      <c r="BG103" s="20"/>
-      <c r="BH103" s="20"/>
-      <c r="BI103" s="20"/>
-      <c r="BJ103" s="19">
+      <c r="BG103" s="30"/>
+      <c r="BH103" s="30"/>
+      <c r="BI103" s="30"/>
+      <c r="BJ103" s="29">
         <v>2015</v>
       </c>
-      <c r="BK103" s="20"/>
-      <c r="BL103" s="20"/>
-      <c r="BM103" s="20"/>
-      <c r="BN103" s="19">
+      <c r="BK103" s="30"/>
+      <c r="BL103" s="30"/>
+      <c r="BM103" s="30"/>
+      <c r="BN103" s="29">
         <v>2016</v>
       </c>
-      <c r="BO103" s="20"/>
-      <c r="BP103" s="20"/>
-      <c r="BQ103" s="20"/>
-      <c r="BR103" s="19">
+      <c r="BO103" s="30"/>
+      <c r="BP103" s="30"/>
+      <c r="BQ103" s="30"/>
+      <c r="BR103" s="29">
         <v>2017</v>
       </c>
-      <c r="BS103" s="20"/>
-      <c r="BT103" s="20"/>
-      <c r="BU103" s="20"/>
-      <c r="BV103" s="19">
+      <c r="BS103" s="30"/>
+      <c r="BT103" s="30"/>
+      <c r="BU103" s="30"/>
+      <c r="BV103" s="29">
         <v>2018</v>
       </c>
-      <c r="BW103" s="20"/>
-      <c r="BX103" s="20"/>
-      <c r="BY103" s="20"/>
-      <c r="BZ103" s="19">
+      <c r="BW103" s="30"/>
+      <c r="BX103" s="30"/>
+      <c r="BY103" s="30"/>
+      <c r="BZ103" s="29">
         <v>2019</v>
       </c>
-      <c r="CA103" s="20"/>
-      <c r="CB103" s="20"/>
-      <c r="CC103" s="20"/>
-      <c r="CD103" s="19">
+      <c r="CA103" s="30"/>
+      <c r="CB103" s="30"/>
+      <c r="CC103" s="30"/>
+      <c r="CD103" s="29">
         <v>2020</v>
       </c>
-      <c r="CE103" s="19"/>
-      <c r="CF103" s="19"/>
-      <c r="CG103" s="19"/>
-      <c r="CH103" s="19">
+      <c r="CE103" s="29"/>
+      <c r="CF103" s="29"/>
+      <c r="CG103" s="29"/>
+      <c r="CH103" s="29">
         <v>2021</v>
       </c>
-      <c r="CI103" s="19"/>
-      <c r="CJ103" s="19"/>
-      <c r="CK103" s="19"/>
-      <c r="CL103" s="19">
+      <c r="CI103" s="29"/>
+      <c r="CJ103" s="29"/>
+      <c r="CK103" s="29"/>
+      <c r="CL103" s="31">
         <v>2022</v>
       </c>
-      <c r="CM103" s="19"/>
-      <c r="CN103" s="19"/>
-      <c r="CO103" s="19"/>
-      <c r="CP103" s="19">
+      <c r="CM103" s="31"/>
+      <c r="CN103" s="31"/>
+      <c r="CO103" s="31"/>
+      <c r="CP103" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="21"/>
+      <c r="CQ103" s="31"/>
+      <c r="CR103" s="31"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -33906,23 +33979,26 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="6" t="s">
+      <c r="CL104" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="6" t="s">
+      <c r="CM104" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="6" t="s">
+      <c r="CN104" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="6" t="s">
+      <c r="CO104" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR104" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34196,25 +34272,27 @@
       <c r="CK106" s="12">
         <v>48.116779622255635</v>
       </c>
-      <c r="CL106" s="12">
+      <c r="CL106" s="28">
         <v>48.217030867477916</v>
       </c>
-      <c r="CM106" s="12">
+      <c r="CM106" s="28">
         <v>47.835672230297952</v>
       </c>
-      <c r="CN106" s="12">
+      <c r="CN106" s="28">
         <v>50.479649080751585</v>
       </c>
-      <c r="CO106" s="12">
+      <c r="CO106" s="28">
         <v>51.839564398213156</v>
       </c>
-      <c r="CP106" s="12">
+      <c r="CP106" s="28">
         <v>49.678789974708195</v>
       </c>
-      <c r="CQ106" s="12">
-        <v>48.355154653772217</v>
-      </c>
-      <c r="CR106" s="11"/>
+      <c r="CQ106" s="28">
+        <v>48.420019265352906</v>
+      </c>
+      <c r="CR106" s="28">
+        <v>51.475964985320658</v>
+      </c>
       <c r="CS106" s="11"/>
       <c r="CT106" s="11"/>
       <c r="CU106" s="11"/>
@@ -34539,25 +34617,27 @@
       <c r="CK107" s="12">
         <v>51.883220377744365</v>
       </c>
-      <c r="CL107" s="12">
+      <c r="CL107" s="28">
         <v>51.782969132522069</v>
       </c>
-      <c r="CM107" s="12">
+      <c r="CM107" s="28">
         <v>52.164327769702055</v>
       </c>
-      <c r="CN107" s="12">
+      <c r="CN107" s="28">
         <v>49.520350919248429</v>
       </c>
-      <c r="CO107" s="12">
+      <c r="CO107" s="28">
         <v>48.16043560178683</v>
       </c>
-      <c r="CP107" s="12">
+      <c r="CP107" s="28">
         <v>50.321210025291805</v>
       </c>
-      <c r="CQ107" s="12">
-        <v>51.644845346227783</v>
-      </c>
-      <c r="CR107" s="11"/>
+      <c r="CQ107" s="28">
+        <v>51.579980734647101</v>
+      </c>
+      <c r="CR107" s="28">
+        <v>48.524035014679349</v>
+      </c>
       <c r="CS107" s="11"/>
       <c r="CT107" s="11"/>
       <c r="CU107" s="11"/>
@@ -34703,13 +34783,13 @@
       <c r="CI108" s="11"/>
       <c r="CJ108" s="11"/>
       <c r="CK108" s="11"/>
-      <c r="CL108" s="11"/>
-      <c r="CM108" s="11"/>
-      <c r="CN108" s="11"/>
-      <c r="CO108" s="11"/>
-      <c r="CP108" s="11"/>
-      <c r="CQ108" s="11"/>
-      <c r="CR108" s="11"/>
+      <c r="CL108" s="23"/>
+      <c r="CM108" s="23"/>
+      <c r="CN108" s="23"/>
+      <c r="CO108" s="23"/>
+      <c r="CP108" s="23"/>
+      <c r="CQ108" s="23"/>
+      <c r="CR108" s="23"/>
       <c r="CS108" s="11"/>
       <c r="CT108" s="11"/>
       <c r="CU108" s="11"/>
@@ -35034,25 +35114,27 @@
       <c r="CK109" s="12">
         <v>100</v>
       </c>
-      <c r="CL109" s="12">
+      <c r="CL109" s="28">
         <v>100</v>
       </c>
-      <c r="CM109" s="12">
+      <c r="CM109" s="28">
         <v>100</v>
       </c>
-      <c r="CN109" s="12">
+      <c r="CN109" s="28">
         <v>100</v>
       </c>
-      <c r="CO109" s="12">
+      <c r="CO109" s="28">
         <v>100</v>
       </c>
-      <c r="CP109" s="12">
+      <c r="CP109" s="28">
         <v>100</v>
       </c>
-      <c r="CQ109" s="12">
+      <c r="CQ109" s="28">
         <v>100</v>
       </c>
-      <c r="CR109" s="11"/>
+      <c r="CR109" s="28">
+        <v>100</v>
+      </c>
       <c r="CS109" s="11"/>
       <c r="CT109" s="11"/>
       <c r="CU109" s="11"/>
@@ -35199,12 +35281,13 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="9"/>
-      <c r="CM110" s="9"/>
-      <c r="CN110" s="9"/>
-      <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
+      <c r="CL110" s="25"/>
+      <c r="CM110" s="25"/>
+      <c r="CN110" s="25"/>
+      <c r="CO110" s="25"/>
+      <c r="CP110" s="25"/>
+      <c r="CQ110" s="25"/>
+      <c r="CR110" s="25"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35300,13 +35383,13 @@
       <c r="CI112" s="11"/>
       <c r="CJ112" s="11"/>
       <c r="CK112" s="11"/>
-      <c r="CL112" s="11"/>
-      <c r="CM112" s="11"/>
-      <c r="CN112" s="11"/>
-      <c r="CO112" s="11"/>
-      <c r="CP112" s="11"/>
-      <c r="CQ112" s="11"/>
-      <c r="CR112" s="11"/>
+      <c r="CL112" s="23"/>
+      <c r="CM112" s="23"/>
+      <c r="CN112" s="23"/>
+      <c r="CO112" s="23"/>
+      <c r="CP112" s="23"/>
+      <c r="CQ112" s="23"/>
+      <c r="CR112" s="23"/>
       <c r="CS112" s="11"/>
       <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
@@ -35452,13 +35535,13 @@
       <c r="CI113" s="11"/>
       <c r="CJ113" s="11"/>
       <c r="CK113" s="11"/>
-      <c r="CL113" s="11"/>
-      <c r="CM113" s="11"/>
-      <c r="CN113" s="11"/>
-      <c r="CO113" s="11"/>
-      <c r="CP113" s="11"/>
-      <c r="CQ113" s="11"/>
-      <c r="CR113" s="11"/>
+      <c r="CL113" s="23"/>
+      <c r="CM113" s="23"/>
+      <c r="CN113" s="23"/>
+      <c r="CO113" s="23"/>
+      <c r="CP113" s="23"/>
+      <c r="CQ113" s="23"/>
+      <c r="CR113" s="23"/>
       <c r="CS113" s="11"/>
       <c r="CT113" s="11"/>
       <c r="CU113" s="11"/>
@@ -35547,148 +35630,149 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="19">
+      <c r="B122" s="29">
         <v>2000</v>
       </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="19">
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="29">
         <v>2001</v>
       </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="19">
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="29">
         <v>2002</v>
       </c>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="19">
+      <c r="K122" s="30"/>
+      <c r="L122" s="30"/>
+      <c r="M122" s="30"/>
+      <c r="N122" s="29">
         <v>2003</v>
       </c>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="19">
+      <c r="O122" s="30"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="30"/>
+      <c r="R122" s="29">
         <v>2004</v>
       </c>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
-      <c r="V122" s="19">
+      <c r="S122" s="30"/>
+      <c r="T122" s="30"/>
+      <c r="U122" s="30"/>
+      <c r="V122" s="29">
         <v>2005</v>
       </c>
-      <c r="W122" s="20"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="20"/>
-      <c r="Z122" s="19">
+      <c r="W122" s="30"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="29">
         <v>2006</v>
       </c>
-      <c r="AA122" s="20"/>
-      <c r="AB122" s="20"/>
-      <c r="AC122" s="20"/>
-      <c r="AD122" s="19">
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="30"/>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="29">
         <v>2007</v>
       </c>
-      <c r="AE122" s="20"/>
-      <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
-      <c r="AH122" s="19">
+      <c r="AE122" s="30"/>
+      <c r="AF122" s="30"/>
+      <c r="AG122" s="30"/>
+      <c r="AH122" s="29">
         <v>2008</v>
       </c>
-      <c r="AI122" s="20"/>
-      <c r="AJ122" s="20"/>
-      <c r="AK122" s="20"/>
-      <c r="AL122" s="19">
+      <c r="AI122" s="30"/>
+      <c r="AJ122" s="30"/>
+      <c r="AK122" s="30"/>
+      <c r="AL122" s="29">
         <v>2009</v>
       </c>
-      <c r="AM122" s="20"/>
-      <c r="AN122" s="20"/>
-      <c r="AO122" s="20"/>
-      <c r="AP122" s="19">
+      <c r="AM122" s="30"/>
+      <c r="AN122" s="30"/>
+      <c r="AO122" s="30"/>
+      <c r="AP122" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="20"/>
-      <c r="AR122" s="20"/>
-      <c r="AS122" s="20"/>
-      <c r="AT122" s="19">
+      <c r="AQ122" s="30"/>
+      <c r="AR122" s="30"/>
+      <c r="AS122" s="30"/>
+      <c r="AT122" s="29">
         <v>2011</v>
       </c>
-      <c r="AU122" s="20"/>
-      <c r="AV122" s="20"/>
-      <c r="AW122" s="20"/>
-      <c r="AX122" s="19">
+      <c r="AU122" s="30"/>
+      <c r="AV122" s="30"/>
+      <c r="AW122" s="30"/>
+      <c r="AX122" s="29">
         <v>2012</v>
       </c>
-      <c r="AY122" s="20"/>
-      <c r="AZ122" s="20"/>
-      <c r="BA122" s="20"/>
-      <c r="BB122" s="19">
+      <c r="AY122" s="30"/>
+      <c r="AZ122" s="30"/>
+      <c r="BA122" s="30"/>
+      <c r="BB122" s="29">
         <v>2013</v>
       </c>
-      <c r="BC122" s="20"/>
-      <c r="BD122" s="20"/>
-      <c r="BE122" s="20"/>
-      <c r="BF122" s="19">
+      <c r="BC122" s="30"/>
+      <c r="BD122" s="30"/>
+      <c r="BE122" s="30"/>
+      <c r="BF122" s="29">
         <v>2014</v>
       </c>
-      <c r="BG122" s="20"/>
-      <c r="BH122" s="20"/>
-      <c r="BI122" s="20"/>
-      <c r="BJ122" s="19">
+      <c r="BG122" s="30"/>
+      <c r="BH122" s="30"/>
+      <c r="BI122" s="30"/>
+      <c r="BJ122" s="29">
         <v>2015</v>
       </c>
-      <c r="BK122" s="20"/>
-      <c r="BL122" s="20"/>
-      <c r="BM122" s="20"/>
-      <c r="BN122" s="19">
+      <c r="BK122" s="30"/>
+      <c r="BL122" s="30"/>
+      <c r="BM122" s="30"/>
+      <c r="BN122" s="29">
         <v>2016</v>
       </c>
-      <c r="BO122" s="20"/>
-      <c r="BP122" s="20"/>
-      <c r="BQ122" s="20"/>
-      <c r="BR122" s="19">
+      <c r="BO122" s="30"/>
+      <c r="BP122" s="30"/>
+      <c r="BQ122" s="30"/>
+      <c r="BR122" s="29">
         <v>2017</v>
       </c>
-      <c r="BS122" s="20"/>
-      <c r="BT122" s="20"/>
-      <c r="BU122" s="20"/>
-      <c r="BV122" s="19">
+      <c r="BS122" s="30"/>
+      <c r="BT122" s="30"/>
+      <c r="BU122" s="30"/>
+      <c r="BV122" s="29">
         <v>2018</v>
       </c>
-      <c r="BW122" s="20"/>
-      <c r="BX122" s="20"/>
-      <c r="BY122" s="20"/>
-      <c r="BZ122" s="19">
+      <c r="BW122" s="30"/>
+      <c r="BX122" s="30"/>
+      <c r="BY122" s="30"/>
+      <c r="BZ122" s="29">
         <v>2019</v>
       </c>
-      <c r="CA122" s="20"/>
-      <c r="CB122" s="20"/>
-      <c r="CC122" s="20"/>
-      <c r="CD122" s="19">
+      <c r="CA122" s="30"/>
+      <c r="CB122" s="30"/>
+      <c r="CC122" s="30"/>
+      <c r="CD122" s="29">
         <v>2020</v>
       </c>
-      <c r="CE122" s="19"/>
-      <c r="CF122" s="19"/>
-      <c r="CG122" s="19"/>
-      <c r="CH122" s="19">
+      <c r="CE122" s="29"/>
+      <c r="CF122" s="29"/>
+      <c r="CG122" s="29"/>
+      <c r="CH122" s="29">
         <v>2021</v>
       </c>
-      <c r="CI122" s="19"/>
-      <c r="CJ122" s="19"/>
-      <c r="CK122" s="19"/>
-      <c r="CL122" s="19">
+      <c r="CI122" s="29"/>
+      <c r="CJ122" s="29"/>
+      <c r="CK122" s="29"/>
+      <c r="CL122" s="31">
         <v>2022</v>
       </c>
-      <c r="CM122" s="19"/>
-      <c r="CN122" s="19"/>
-      <c r="CO122" s="19"/>
-      <c r="CP122" s="19">
+      <c r="CM122" s="31"/>
+      <c r="CN122" s="31"/>
+      <c r="CO122" s="31"/>
+      <c r="CP122" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="21"/>
+      <c r="CQ122" s="31"/>
+      <c r="CR122" s="31"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -35958,23 +36042,26 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="6" t="s">
+      <c r="CL123" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="6" t="s">
+      <c r="CM123" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="6" t="s">
+      <c r="CN123" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="6" t="s">
+      <c r="CO123" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CR123" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36248,25 +36335,27 @@
       <c r="CK125" s="12">
         <v>47.55496998410382</v>
       </c>
-      <c r="CL125" s="12">
+      <c r="CL125" s="28">
         <v>46.839368870727256</v>
       </c>
-      <c r="CM125" s="12">
+      <c r="CM125" s="28">
         <v>46.547273285869586</v>
       </c>
-      <c r="CN125" s="12">
+      <c r="CN125" s="28">
         <v>49.641326615114274</v>
       </c>
-      <c r="CO125" s="12">
+      <c r="CO125" s="28">
         <v>50.177169697732225</v>
       </c>
-      <c r="CP125" s="12">
+      <c r="CP125" s="28">
         <v>47.383410041556388</v>
       </c>
-      <c r="CQ125" s="12">
-        <v>46.871949458507586</v>
-      </c>
-      <c r="CR125" s="11"/>
+      <c r="CQ125" s="28">
+        <v>46.936632687592812</v>
+      </c>
+      <c r="CR125" s="28">
+        <v>50.628075031908494</v>
+      </c>
       <c r="CS125" s="11"/>
       <c r="CT125" s="11"/>
       <c r="CU125" s="11"/>
@@ -36591,25 +36680,27 @@
       <c r="CK126" s="12">
         <v>52.445030015896165</v>
       </c>
-      <c r="CL126" s="12">
+      <c r="CL126" s="28">
         <v>53.160631129272737</v>
       </c>
-      <c r="CM126" s="12">
+      <c r="CM126" s="28">
         <v>53.452726714130414</v>
       </c>
-      <c r="CN126" s="12">
+      <c r="CN126" s="28">
         <v>50.358673384885734</v>
       </c>
-      <c r="CO126" s="12">
+      <c r="CO126" s="28">
         <v>49.822830302267775</v>
       </c>
-      <c r="CP126" s="12">
+      <c r="CP126" s="28">
         <v>52.616589958443619</v>
       </c>
-      <c r="CQ126" s="12">
-        <v>53.128050541492421</v>
-      </c>
-      <c r="CR126" s="11"/>
+      <c r="CQ126" s="28">
+        <v>53.063367312407181</v>
+      </c>
+      <c r="CR126" s="28">
+        <v>49.371924968091506</v>
+      </c>
       <c r="CS126" s="11"/>
       <c r="CT126" s="11"/>
       <c r="CU126" s="11"/>
@@ -36755,13 +36846,13 @@
       <c r="CI127" s="11"/>
       <c r="CJ127" s="11"/>
       <c r="CK127" s="11"/>
-      <c r="CL127" s="11"/>
-      <c r="CM127" s="11"/>
-      <c r="CN127" s="11"/>
-      <c r="CO127" s="11"/>
-      <c r="CP127" s="11"/>
-      <c r="CQ127" s="11"/>
-      <c r="CR127" s="11"/>
+      <c r="CL127" s="23"/>
+      <c r="CM127" s="23"/>
+      <c r="CN127" s="23"/>
+      <c r="CO127" s="23"/>
+      <c r="CP127" s="23"/>
+      <c r="CQ127" s="23"/>
+      <c r="CR127" s="23"/>
       <c r="CS127" s="11"/>
       <c r="CT127" s="11"/>
       <c r="CU127" s="11"/>
@@ -37086,25 +37177,27 @@
       <c r="CK128" s="12">
         <v>100</v>
       </c>
-      <c r="CL128" s="12">
+      <c r="CL128" s="28">
         <v>100</v>
       </c>
-      <c r="CM128" s="12">
+      <c r="CM128" s="28">
         <v>100</v>
       </c>
-      <c r="CN128" s="12">
+      <c r="CN128" s="28">
         <v>100</v>
       </c>
-      <c r="CO128" s="12">
+      <c r="CO128" s="28">
         <v>100</v>
       </c>
-      <c r="CP128" s="12">
+      <c r="CP128" s="28">
         <v>100</v>
       </c>
-      <c r="CQ128" s="12">
+      <c r="CQ128" s="28">
         <v>100</v>
       </c>
-      <c r="CR128" s="11"/>
+      <c r="CR128" s="28">
+        <v>100</v>
+      </c>
       <c r="CS128" s="11"/>
       <c r="CT128" s="11"/>
       <c r="CU128" s="11"/>
@@ -37251,12 +37344,13 @@
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
-      <c r="CL129" s="9"/>
-      <c r="CM129" s="9"/>
-      <c r="CN129" s="9"/>
-      <c r="CO129" s="9"/>
-      <c r="CP129" s="9"/>
-      <c r="CQ129" s="9"/>
+      <c r="CL129" s="25"/>
+      <c r="CM129" s="25"/>
+      <c r="CN129" s="25"/>
+      <c r="CO129" s="25"/>
+      <c r="CP129" s="25"/>
+      <c r="CQ129" s="25"/>
+      <c r="CR129" s="25"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37353,13 +37447,13 @@
       <c r="CI131" s="3"/>
       <c r="CJ131" s="3"/>
       <c r="CK131" s="3"/>
-      <c r="CL131" s="3"/>
-      <c r="CM131" s="3"/>
-      <c r="CN131" s="3"/>
-      <c r="CO131" s="3"/>
-      <c r="CP131" s="3"/>
-      <c r="CQ131" s="3"/>
-      <c r="CR131" s="13"/>
+      <c r="CL131" s="20"/>
+      <c r="CM131" s="20"/>
+      <c r="CN131" s="20"/>
+      <c r="CO131" s="20"/>
+      <c r="CP131" s="20"/>
+      <c r="CQ131" s="20"/>
+      <c r="CR131" s="20"/>
       <c r="CS131" s="13"/>
       <c r="CT131" s="13"/>
       <c r="CU131" s="13"/>
@@ -37506,13 +37600,13 @@
       <c r="CI132" s="3"/>
       <c r="CJ132" s="3"/>
       <c r="CK132" s="3"/>
-      <c r="CL132" s="3"/>
-      <c r="CM132" s="3"/>
-      <c r="CN132" s="3"/>
-      <c r="CO132" s="3"/>
-      <c r="CP132" s="3"/>
-      <c r="CQ132" s="3"/>
-      <c r="CR132" s="13"/>
+      <c r="CL132" s="20"/>
+      <c r="CM132" s="20"/>
+      <c r="CN132" s="20"/>
+      <c r="CO132" s="20"/>
+      <c r="CP132" s="20"/>
+      <c r="CQ132" s="20"/>
+      <c r="CR132" s="20"/>
       <c r="CS132" s="13"/>
       <c r="CT132" s="13"/>
       <c r="CU132" s="13"/>
@@ -37570,18 +37664,14 @@
       <c r="EU132" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP28:CQ28"/>
-    <mergeCell ref="CP84:CQ84"/>
-    <mergeCell ref="CP103:CQ103"/>
-    <mergeCell ref="CP122:CQ122"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CP47:CQ47"/>
-    <mergeCell ref="CL66:CO66"/>
-    <mergeCell ref="CP66:CQ66"/>
+  <mergeCells count="166">
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP28:CR28"/>
+    <mergeCell ref="CP84:CR84"/>
+    <mergeCell ref="CP103:CR103"/>
+    <mergeCell ref="CP122:CR122"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
     <mergeCell ref="CL9:CO9"/>
@@ -37592,6 +37682,8 @@
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
     <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CL47:CN47"/>
+    <mergeCell ref="CL66:CN66"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="BN84:BQ84"/>
@@ -37745,9 +37837,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="94" man="1"/>
-    <brk id="76" max="94" man="1"/>
-    <brk id="94" max="94" man="1"/>
+    <brk id="38" max="95" man="1"/>
+    <brk id="76" max="95" man="1"/>
+    <brk id="94" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4831A0-FDA3-4642-AE45-CDDA7DD02048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539FBE8-A493-4058-9B28-118B3B2FD59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CR$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CS$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,22 +741,14 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23325,9 +23317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23365,7 +23357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23471,7 +23463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23613,7 +23605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23629,15 +23621,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CQ6" sqref="CQ6"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="89" width="8.33203125" style="3" customWidth="1"/>
-    <col min="90" max="96" width="9.21875" style="20" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="97" width="8.33203125" style="3" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23652,7 +23643,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23662,7 +23653,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23672,149 +23663,150 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="31">
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="31"/>
-      <c r="CO9" s="31"/>
-      <c r="CP9" s="31">
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="31"/>
-      <c r="CR9" s="31"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24084,26 +24076,29 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="21" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="21" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="21" t="s">
+      <c r="CN10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="21" t="s">
+      <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="21" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="21" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="21" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24377,28 +24372,30 @@
       <c r="CK12" s="15">
         <v>138745.43860942539</v>
       </c>
-      <c r="CL12" s="22">
+      <c r="CL12" s="19">
         <v>143436.29439306865</v>
       </c>
-      <c r="CM12" s="22">
+      <c r="CM12" s="19">
         <v>143353.08136227759</v>
       </c>
-      <c r="CN12" s="22">
+      <c r="CN12" s="19">
         <v>163156.69927114615</v>
       </c>
-      <c r="CO12" s="22">
+      <c r="CO12" s="19">
         <v>170532.75677675504</v>
       </c>
-      <c r="CP12" s="22">
+      <c r="CP12" s="19">
         <v>163346.84236623056</v>
       </c>
-      <c r="CQ12" s="22">
+      <c r="CQ12" s="19">
         <v>158533.94266610869</v>
       </c>
-      <c r="CR12" s="22">
-        <v>181541.47598018654</v>
-      </c>
-      <c r="CS12" s="11"/>
+      <c r="CR12" s="19">
+        <v>181738.36279390383</v>
+      </c>
+      <c r="CS12" s="19">
+        <v>188933.89495583781</v>
+      </c>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
@@ -24722,28 +24719,30 @@
       <c r="CK13" s="15">
         <v>149606.02567945013</v>
       </c>
-      <c r="CL13" s="22">
+      <c r="CL13" s="19">
         <v>154044.26758366541</v>
       </c>
-      <c r="CM13" s="22">
+      <c r="CM13" s="19">
         <v>156325.11835471363</v>
       </c>
-      <c r="CN13" s="22">
+      <c r="CN13" s="19">
         <v>160056.12459406475</v>
       </c>
-      <c r="CO13" s="22">
+      <c r="CO13" s="19">
         <v>158429.80059888729</v>
       </c>
-      <c r="CP13" s="22">
+      <c r="CP13" s="19">
         <v>165459.15804036456</v>
       </c>
-      <c r="CQ13" s="22">
+      <c r="CQ13" s="19">
         <v>168880.10026788112</v>
       </c>
-      <c r="CR13" s="22">
-        <v>171130.83629595349</v>
-      </c>
-      <c r="CS13" s="11"/>
+      <c r="CR13" s="19">
+        <v>171131.454257765</v>
+      </c>
+      <c r="CS13" s="19">
+        <v>168577.245298091</v>
+      </c>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
@@ -24888,13 +24887,13 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="23"/>
-      <c r="CM14" s="23"/>
-      <c r="CN14" s="23"/>
-      <c r="CO14" s="23"/>
-      <c r="CP14" s="23"/>
-      <c r="CQ14" s="23"/>
-      <c r="CR14" s="23"/>
+      <c r="CL14" s="11"/>
+      <c r="CM14" s="11"/>
+      <c r="CN14" s="11"/>
+      <c r="CO14" s="11"/>
+      <c r="CP14" s="11"/>
+      <c r="CQ14" s="11"/>
+      <c r="CR14" s="11"/>
       <c r="CS14" s="11"/>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
@@ -25219,28 +25218,30 @@
       <c r="CK15" s="16">
         <v>288351.46428887552</v>
       </c>
-      <c r="CL15" s="24">
+      <c r="CL15" s="20">
         <v>297480.56197673408</v>
       </c>
-      <c r="CM15" s="24">
+      <c r="CM15" s="20">
         <v>299678.19971699122</v>
       </c>
-      <c r="CN15" s="24">
+      <c r="CN15" s="20">
         <v>323212.82386521087</v>
       </c>
-      <c r="CO15" s="24">
+      <c r="CO15" s="20">
         <v>328962.55737564235</v>
       </c>
-      <c r="CP15" s="24">
+      <c r="CP15" s="20">
         <v>328806.00040659512</v>
       </c>
-      <c r="CQ15" s="24">
+      <c r="CQ15" s="20">
         <v>327414.04293398978</v>
       </c>
-      <c r="CR15" s="24">
-        <v>352672.31227614003</v>
-      </c>
-      <c r="CS15" s="11"/>
+      <c r="CR15" s="20">
+        <v>352869.81705166883</v>
+      </c>
+      <c r="CS15" s="20">
+        <v>357511.14025392884</v>
+      </c>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
@@ -25386,13 +25387,14 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="25"/>
-      <c r="CM16" s="25"/>
-      <c r="CN16" s="25"/>
-      <c r="CO16" s="25"/>
-      <c r="CP16" s="25"/>
-      <c r="CQ16" s="25"/>
-      <c r="CR16" s="25"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
+      <c r="CS16" s="9"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25488,13 +25490,13 @@
       <c r="CI18" s="11"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="11"/>
-      <c r="CL18" s="23"/>
-      <c r="CM18" s="23"/>
-      <c r="CN18" s="23"/>
-      <c r="CO18" s="23"/>
-      <c r="CP18" s="23"/>
-      <c r="CQ18" s="23"/>
-      <c r="CR18" s="23"/>
+      <c r="CL18" s="11"/>
+      <c r="CM18" s="11"/>
+      <c r="CN18" s="11"/>
+      <c r="CO18" s="11"/>
+      <c r="CP18" s="11"/>
+      <c r="CQ18" s="11"/>
+      <c r="CR18" s="11"/>
       <c r="CS18" s="11"/>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
@@ -25640,13 +25642,13 @@
       <c r="CI19" s="11"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="11"/>
-      <c r="CL19" s="23"/>
-      <c r="CM19" s="23"/>
-      <c r="CN19" s="23"/>
-      <c r="CO19" s="23"/>
-      <c r="CP19" s="23"/>
-      <c r="CQ19" s="23"/>
-      <c r="CR19" s="23"/>
+      <c r="CL19" s="11"/>
+      <c r="CM19" s="11"/>
+      <c r="CN19" s="11"/>
+      <c r="CO19" s="11"/>
+      <c r="CP19" s="11"/>
+      <c r="CQ19" s="11"/>
+      <c r="CR19" s="11"/>
       <c r="CS19" s="11"/>
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
@@ -25715,7 +25717,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25725,7 +25727,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25735,149 +25737,150 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="29">
+      <c r="B28" s="23">
         <v>2000</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23">
         <v>2001</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="23">
         <v>2002</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="29">
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="23">
         <v>2003</v>
       </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="29">
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="23">
         <v>2004</v>
       </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="29">
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="23">
         <v>2005</v>
       </c>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="29">
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="23">
         <v>2006</v>
       </c>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="29">
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="23">
         <v>2007</v>
       </c>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="29">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="23">
         <v>2008</v>
       </c>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="29">
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="23">
         <v>2009</v>
       </c>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="29">
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="29">
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="23">
         <v>2011</v>
       </c>
-      <c r="AU28" s="30"/>
-      <c r="AV28" s="30"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="29">
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="23">
         <v>2012</v>
       </c>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
-      <c r="BA28" s="30"/>
-      <c r="BB28" s="29">
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+      <c r="BA28" s="24"/>
+      <c r="BB28" s="23">
         <v>2013</v>
       </c>
-      <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="29">
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="23">
         <v>2014</v>
       </c>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="30"/>
-      <c r="BJ28" s="29">
+      <c r="BG28" s="24"/>
+      <c r="BH28" s="24"/>
+      <c r="BI28" s="24"/>
+      <c r="BJ28" s="23">
         <v>2015</v>
       </c>
-      <c r="BK28" s="30"/>
-      <c r="BL28" s="30"/>
-      <c r="BM28" s="30"/>
-      <c r="BN28" s="29">
+      <c r="BK28" s="24"/>
+      <c r="BL28" s="24"/>
+      <c r="BM28" s="24"/>
+      <c r="BN28" s="23">
         <v>2016</v>
       </c>
-      <c r="BO28" s="30"/>
-      <c r="BP28" s="30"/>
-      <c r="BQ28" s="30"/>
-      <c r="BR28" s="29">
+      <c r="BO28" s="24"/>
+      <c r="BP28" s="24"/>
+      <c r="BQ28" s="24"/>
+      <c r="BR28" s="23">
         <v>2017</v>
       </c>
-      <c r="BS28" s="30"/>
-      <c r="BT28" s="30"/>
-      <c r="BU28" s="30"/>
-      <c r="BV28" s="29">
+      <c r="BS28" s="24"/>
+      <c r="BT28" s="24"/>
+      <c r="BU28" s="24"/>
+      <c r="BV28" s="23">
         <v>2018</v>
       </c>
-      <c r="BW28" s="30"/>
-      <c r="BX28" s="30"/>
-      <c r="BY28" s="30"/>
-      <c r="BZ28" s="29">
+      <c r="BW28" s="24"/>
+      <c r="BX28" s="24"/>
+      <c r="BY28" s="24"/>
+      <c r="BZ28" s="23">
         <v>2019</v>
       </c>
-      <c r="CA28" s="30"/>
-      <c r="CB28" s="30"/>
-      <c r="CC28" s="30"/>
-      <c r="CD28" s="29">
+      <c r="CA28" s="24"/>
+      <c r="CB28" s="24"/>
+      <c r="CC28" s="24"/>
+      <c r="CD28" s="23">
         <v>2020</v>
       </c>
-      <c r="CE28" s="29"/>
-      <c r="CF28" s="29"/>
-      <c r="CG28" s="29"/>
-      <c r="CH28" s="29">
+      <c r="CE28" s="23"/>
+      <c r="CF28" s="23"/>
+      <c r="CG28" s="23"/>
+      <c r="CH28" s="23">
         <v>2021</v>
       </c>
-      <c r="CI28" s="29"/>
-      <c r="CJ28" s="29"/>
-      <c r="CK28" s="29"/>
-      <c r="CL28" s="31">
+      <c r="CI28" s="23"/>
+      <c r="CJ28" s="23"/>
+      <c r="CK28" s="23"/>
+      <c r="CL28" s="22">
         <v>2022</v>
       </c>
-      <c r="CM28" s="31"/>
-      <c r="CN28" s="31"/>
-      <c r="CO28" s="31"/>
-      <c r="CP28" s="31">
+      <c r="CM28" s="22"/>
+      <c r="CN28" s="22"/>
+      <c r="CO28" s="22"/>
+      <c r="CP28" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="31"/>
-      <c r="CR28" s="31"/>
+      <c r="CQ28" s="22"/>
+      <c r="CR28" s="22"/>
+      <c r="CS28" s="22"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26147,26 +26150,29 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="21" t="s">
+      <c r="CL29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="21" t="s">
+      <c r="CM29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="21" t="s">
+      <c r="CN29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="21" t="s">
+      <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="21" t="s">
+      <c r="CP29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="21" t="s">
+      <c r="CQ29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="21" t="s">
+      <c r="CR29" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26440,28 +26446,30 @@
       <c r="CK31" s="15">
         <v>126067.45384426617</v>
       </c>
-      <c r="CL31" s="22">
+      <c r="CL31" s="19">
         <v>125965.53312470275</v>
       </c>
-      <c r="CM31" s="22">
+      <c r="CM31" s="19">
         <v>125520.1662002455</v>
       </c>
-      <c r="CN31" s="22">
+      <c r="CN31" s="19">
         <v>142359.38932074618</v>
       </c>
-      <c r="CO31" s="22">
+      <c r="CO31" s="19">
         <v>142928.1593366063</v>
       </c>
-      <c r="CP31" s="22">
+      <c r="CP31" s="19">
         <v>131444.22106651304</v>
       </c>
-      <c r="CQ31" s="22">
+      <c r="CQ31" s="19">
         <v>130226.49527208382</v>
       </c>
-      <c r="CR31" s="22">
-        <v>151233.9847395551</v>
-      </c>
-      <c r="CS31" s="11"/>
+      <c r="CR31" s="19">
+        <v>151388.48155147026</v>
+      </c>
+      <c r="CS31" s="19">
+        <v>150870.89715225721</v>
+      </c>
       <c r="CT31" s="11"/>
       <c r="CU31" s="11"/>
       <c r="CV31" s="11"/>
@@ -26785,28 +26793,30 @@
       <c r="CK32" s="15">
         <v>139030.92364689126</v>
       </c>
-      <c r="CL32" s="22">
+      <c r="CL32" s="19">
         <v>142965.36018506213</v>
       </c>
-      <c r="CM32" s="22">
+      <c r="CM32" s="19">
         <v>144141.52897438855</v>
       </c>
-      <c r="CN32" s="22">
+      <c r="CN32" s="19">
         <v>144416.5673826391</v>
       </c>
-      <c r="CO32" s="22">
+      <c r="CO32" s="19">
         <v>141918.83422163335</v>
       </c>
-      <c r="CP32" s="22">
+      <c r="CP32" s="19">
         <v>145961.35390420625</v>
       </c>
-      <c r="CQ32" s="22">
+      <c r="CQ32" s="19">
         <v>147225.22594290605</v>
       </c>
-      <c r="CR32" s="22">
-        <v>147481.6678785613</v>
-      </c>
-      <c r="CS32" s="11"/>
+      <c r="CR32" s="19">
+        <v>147483.26859781085</v>
+      </c>
+      <c r="CS32" s="19">
+        <v>145041.3597657044</v>
+      </c>
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
       <c r="CV32" s="11"/>
@@ -26951,13 +26961,13 @@
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
-      <c r="CL33" s="23"/>
-      <c r="CM33" s="23"/>
-      <c r="CN33" s="23"/>
-      <c r="CO33" s="23"/>
-      <c r="CP33" s="23"/>
-      <c r="CQ33" s="23"/>
-      <c r="CR33" s="23"/>
+      <c r="CL33" s="11"/>
+      <c r="CM33" s="11"/>
+      <c r="CN33" s="11"/>
+      <c r="CO33" s="11"/>
+      <c r="CP33" s="11"/>
+      <c r="CQ33" s="11"/>
+      <c r="CR33" s="11"/>
       <c r="CS33" s="11"/>
       <c r="CT33" s="11"/>
       <c r="CU33" s="11"/>
@@ -27282,28 +27292,30 @@
       <c r="CK34" s="16">
         <v>265098.37749115744</v>
       </c>
-      <c r="CL34" s="24">
+      <c r="CL34" s="20">
         <v>268930.89330976491</v>
       </c>
-      <c r="CM34" s="24">
+      <c r="CM34" s="20">
         <v>269661.69517463405</v>
       </c>
-      <c r="CN34" s="24">
+      <c r="CN34" s="20">
         <v>286775.95670338528</v>
       </c>
-      <c r="CO34" s="24">
+      <c r="CO34" s="20">
         <v>284846.99355823966</v>
       </c>
-      <c r="CP34" s="24">
+      <c r="CP34" s="20">
         <v>277405.57497071929</v>
       </c>
-      <c r="CQ34" s="24">
+      <c r="CQ34" s="20">
         <v>277451.7212149899</v>
       </c>
-      <c r="CR34" s="24">
-        <v>298715.65261811641</v>
-      </c>
-      <c r="CS34" s="11"/>
+      <c r="CR34" s="20">
+        <v>298871.75014928111</v>
+      </c>
+      <c r="CS34" s="20">
+        <v>295912.25691796164</v>
+      </c>
       <c r="CT34" s="11"/>
       <c r="CU34" s="11"/>
       <c r="CV34" s="11"/>
@@ -27449,13 +27461,14 @@
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
-      <c r="CL35" s="25"/>
-      <c r="CM35" s="25"/>
-      <c r="CN35" s="25"/>
-      <c r="CO35" s="25"/>
-      <c r="CP35" s="25"/>
-      <c r="CQ35" s="25"/>
-      <c r="CR35" s="25"/>
+      <c r="CL35" s="9"/>
+      <c r="CM35" s="9"/>
+      <c r="CN35" s="9"/>
+      <c r="CO35" s="9"/>
+      <c r="CP35" s="9"/>
+      <c r="CQ35" s="9"/>
+      <c r="CR35" s="9"/>
+      <c r="CS35" s="9"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27551,13 +27564,13 @@
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
-      <c r="CL37" s="23"/>
-      <c r="CM37" s="23"/>
-      <c r="CN37" s="23"/>
-      <c r="CO37" s="23"/>
-      <c r="CP37" s="23"/>
-      <c r="CQ37" s="23"/>
-      <c r="CR37" s="23"/>
+      <c r="CL37" s="11"/>
+      <c r="CM37" s="11"/>
+      <c r="CN37" s="11"/>
+      <c r="CO37" s="11"/>
+      <c r="CP37" s="11"/>
+      <c r="CQ37" s="11"/>
+      <c r="CR37" s="11"/>
       <c r="CS37" s="11"/>
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
@@ -27703,13 +27716,13 @@
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
-      <c r="CL38" s="23"/>
-      <c r="CM38" s="23"/>
-      <c r="CN38" s="23"/>
-      <c r="CO38" s="23"/>
-      <c r="CP38" s="23"/>
-      <c r="CQ38" s="23"/>
-      <c r="CR38" s="23"/>
+      <c r="CL38" s="11"/>
+      <c r="CM38" s="11"/>
+      <c r="CN38" s="11"/>
+      <c r="CO38" s="11"/>
+      <c r="CP38" s="11"/>
+      <c r="CQ38" s="11"/>
+      <c r="CR38" s="11"/>
       <c r="CS38" s="11"/>
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
@@ -27778,7 +27791,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
@@ -27788,7 +27801,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
@@ -27798,147 +27811,148 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29" t="s">
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29" t="s">
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29" t="s">
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29" t="s">
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29" t="s">
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29" t="s">
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29" t="s">
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-      <c r="AL47" s="29" t="s">
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="29"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
-      <c r="AP47" s="29" t="s">
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="29"/>
-      <c r="AR47" s="29"/>
-      <c r="AS47" s="29"/>
-      <c r="AT47" s="29" t="s">
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="29"/>
-      <c r="AV47" s="29"/>
-      <c r="AW47" s="29"/>
-      <c r="AX47" s="29" t="s">
+      <c r="AU47" s="23"/>
+      <c r="AV47" s="23"/>
+      <c r="AW47" s="23"/>
+      <c r="AX47" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="29"/>
-      <c r="AZ47" s="29"/>
-      <c r="BA47" s="29"/>
-      <c r="BB47" s="29" t="s">
+      <c r="AY47" s="23"/>
+      <c r="AZ47" s="23"/>
+      <c r="BA47" s="23"/>
+      <c r="BB47" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="29"/>
-      <c r="BD47" s="29"/>
-      <c r="BE47" s="29"/>
-      <c r="BF47" s="29" t="s">
+      <c r="BC47" s="23"/>
+      <c r="BD47" s="23"/>
+      <c r="BE47" s="23"/>
+      <c r="BF47" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="29"/>
-      <c r="BH47" s="29"/>
-      <c r="BI47" s="29"/>
-      <c r="BJ47" s="29" t="s">
+      <c r="BG47" s="23"/>
+      <c r="BH47" s="23"/>
+      <c r="BI47" s="23"/>
+      <c r="BJ47" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="29"/>
-      <c r="BL47" s="29"/>
-      <c r="BM47" s="29"/>
-      <c r="BN47" s="29" t="s">
+      <c r="BK47" s="23"/>
+      <c r="BL47" s="23"/>
+      <c r="BM47" s="23"/>
+      <c r="BN47" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="29"/>
-      <c r="BP47" s="29"/>
-      <c r="BQ47" s="29"/>
-      <c r="BR47" s="29" t="s">
+      <c r="BO47" s="23"/>
+      <c r="BP47" s="23"/>
+      <c r="BQ47" s="23"/>
+      <c r="BR47" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="29"/>
-      <c r="BT47" s="29"/>
-      <c r="BU47" s="29"/>
-      <c r="BV47" s="29" t="s">
+      <c r="BS47" s="23"/>
+      <c r="BT47" s="23"/>
+      <c r="BU47" s="23"/>
+      <c r="BV47" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="29"/>
-      <c r="BX47" s="29"/>
-      <c r="BY47" s="29"/>
-      <c r="BZ47" s="29" t="s">
+      <c r="BW47" s="23"/>
+      <c r="BX47" s="23"/>
+      <c r="BY47" s="23"/>
+      <c r="BZ47" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="29"/>
-      <c r="CB47" s="29"/>
-      <c r="CC47" s="29"/>
-      <c r="CD47" s="29" t="s">
+      <c r="CA47" s="23"/>
+      <c r="CB47" s="23"/>
+      <c r="CC47" s="23"/>
+      <c r="CD47" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="29"/>
-      <c r="CF47" s="29"/>
-      <c r="CG47" s="29"/>
-      <c r="CH47" s="29" t="s">
+      <c r="CE47" s="23"/>
+      <c r="CF47" s="23"/>
+      <c r="CG47" s="23"/>
+      <c r="CH47" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="29"/>
-      <c r="CJ47" s="29"/>
-      <c r="CK47" s="29"/>
-      <c r="CL47" s="31" t="s">
+      <c r="CI47" s="23"/>
+      <c r="CJ47" s="23"/>
+      <c r="CK47" s="23"/>
+      <c r="CL47" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="31"/>
-      <c r="CN47" s="31"/>
-      <c r="CO47" s="26"/>
-      <c r="CP47" s="19"/>
-      <c r="CQ47" s="19"/>
-      <c r="CR47" s="19"/>
+      <c r="CM47" s="22"/>
+      <c r="CN47" s="22"/>
+      <c r="CO47" s="22"/>
+      <c r="CP47" s="21"/>
+      <c r="CQ47" s="21"/>
+      <c r="CR47" s="21"/>
+      <c r="CS47" s="21"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28208,19 +28222,22 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="27" t="s">
+      <c r="CL48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="27" t="s">
+      <c r="CM48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="27" t="s">
+      <c r="CN48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="27"/>
-      <c r="CP48" s="27"/>
-      <c r="CQ48" s="27"/>
-      <c r="CR48" s="27"/>
+      <c r="CO48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP48" s="5"/>
+      <c r="CQ48" s="5"/>
+      <c r="CR48" s="5"/>
+      <c r="CS48" s="5"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28493,20 +28510,22 @@
       <c r="CK50" s="12">
         <v>22.910532040489187</v>
       </c>
-      <c r="CL50" s="28">
+      <c r="CL50" s="12">
         <v>13.881108723151783</v>
       </c>
-      <c r="CM50" s="28">
+      <c r="CM50" s="12">
         <v>10.589839548315311</v>
       </c>
-      <c r="CN50" s="28">
-        <v>11.268171513133638</v>
-      </c>
-      <c r="CO50" s="28"/>
-      <c r="CP50" s="28"/>
-      <c r="CQ50" s="28"/>
-      <c r="CR50" s="28"/>
-      <c r="CS50" s="11"/>
+      <c r="CN50" s="12">
+        <v>11.388844960559823</v>
+      </c>
+      <c r="CO50" s="12">
+        <v>10.790383341525271</v>
+      </c>
+      <c r="CP50" s="12"/>
+      <c r="CQ50" s="12"/>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="12"/>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
@@ -28826,20 +28845,22 @@
       <c r="CK51" s="12">
         <v>5.8980077034752583</v>
       </c>
-      <c r="CL51" s="28">
+      <c r="CL51" s="12">
         <v>7.4101364729456378</v>
       </c>
-      <c r="CM51" s="28">
+      <c r="CM51" s="12">
         <v>8.0313273038305226</v>
       </c>
-      <c r="CN51" s="28">
-        <v>6.9192676818687744</v>
-      </c>
-      <c r="CO51" s="28"/>
-      <c r="CP51" s="28"/>
-      <c r="CQ51" s="28"/>
-      <c r="CR51" s="28"/>
-      <c r="CS51" s="11"/>
+      <c r="CN51" s="12">
+        <v>6.9196537725685801</v>
+      </c>
+      <c r="CO51" s="12">
+        <v>6.405010080707612</v>
+      </c>
+      <c r="CP51" s="12"/>
+      <c r="CQ51" s="12"/>
+      <c r="CR51" s="12"/>
+      <c r="CS51" s="12"/>
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
       <c r="CV51" s="11"/>
@@ -28981,13 +29002,13 @@
       <c r="CI52" s="11"/>
       <c r="CJ52" s="11"/>
       <c r="CK52" s="11"/>
-      <c r="CL52" s="23"/>
-      <c r="CM52" s="23"/>
-      <c r="CN52" s="23"/>
-      <c r="CO52" s="23"/>
-      <c r="CP52" s="23"/>
-      <c r="CQ52" s="23"/>
-      <c r="CR52" s="23"/>
+      <c r="CL52" s="11"/>
+      <c r="CM52" s="11"/>
+      <c r="CN52" s="11"/>
+      <c r="CO52" s="11"/>
+      <c r="CP52" s="11"/>
+      <c r="CQ52" s="11"/>
+      <c r="CR52" s="11"/>
       <c r="CS52" s="11"/>
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
@@ -29308,20 +29329,22 @@
       <c r="CK53" s="12">
         <v>14.083886546898867</v>
       </c>
-      <c r="CL53" s="28">
+      <c r="CL53" s="12">
         <v>10.530247160253452</v>
       </c>
-      <c r="CM53" s="28">
+      <c r="CM53" s="12">
         <v>9.2552088350742849</v>
       </c>
-      <c r="CN53" s="28">
-        <v>9.1145790747506368</v>
-      </c>
-      <c r="CO53" s="28"/>
-      <c r="CP53" s="28"/>
-      <c r="CQ53" s="28"/>
-      <c r="CR53" s="28"/>
-      <c r="CS53" s="11"/>
+      <c r="CN53" s="12">
+        <v>9.1756858010144384</v>
+      </c>
+      <c r="CO53" s="12">
+        <v>8.6783684763511957</v>
+      </c>
+      <c r="CP53" s="12"/>
+      <c r="CQ53" s="12"/>
+      <c r="CR53" s="12"/>
+      <c r="CS53" s="12"/>
       <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
       <c r="CV53" s="11"/>
@@ -29463,13 +29486,14 @@
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
       <c r="CK54" s="9"/>
-      <c r="CL54" s="25"/>
-      <c r="CM54" s="25"/>
-      <c r="CN54" s="25"/>
-      <c r="CO54" s="25"/>
-      <c r="CP54" s="25"/>
-      <c r="CQ54" s="25"/>
-      <c r="CR54" s="25"/>
+      <c r="CL54" s="9"/>
+      <c r="CM54" s="9"/>
+      <c r="CN54" s="9"/>
+      <c r="CO54" s="9"/>
+      <c r="CP54" s="9"/>
+      <c r="CQ54" s="9"/>
+      <c r="CR54" s="9"/>
+      <c r="CS54" s="9"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -29565,13 +29589,13 @@
       <c r="CI56" s="11"/>
       <c r="CJ56" s="11"/>
       <c r="CK56" s="11"/>
-      <c r="CL56" s="23"/>
-      <c r="CM56" s="23"/>
-      <c r="CN56" s="23"/>
-      <c r="CO56" s="23"/>
-      <c r="CP56" s="23"/>
-      <c r="CQ56" s="23"/>
-      <c r="CR56" s="23"/>
+      <c r="CL56" s="11"/>
+      <c r="CM56" s="11"/>
+      <c r="CN56" s="11"/>
+      <c r="CO56" s="11"/>
+      <c r="CP56" s="11"/>
+      <c r="CQ56" s="11"/>
+      <c r="CR56" s="11"/>
       <c r="CS56" s="11"/>
       <c r="CT56" s="11"/>
       <c r="CU56" s="11"/>
@@ -29713,13 +29737,13 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="23"/>
-      <c r="CM57" s="23"/>
-      <c r="CN57" s="23"/>
-      <c r="CO57" s="23"/>
-      <c r="CP57" s="23"/>
-      <c r="CQ57" s="23"/>
-      <c r="CR57" s="23"/>
+      <c r="CL57" s="11"/>
+      <c r="CM57" s="11"/>
+      <c r="CN57" s="11"/>
+      <c r="CO57" s="11"/>
+      <c r="CP57" s="11"/>
+      <c r="CQ57" s="11"/>
+      <c r="CR57" s="11"/>
       <c r="CS57" s="11"/>
       <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
@@ -29784,7 +29808,7 @@
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
@@ -29794,7 +29818,7 @@
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
@@ -29804,147 +29828,148 @@
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="29" t="s">
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29" t="s">
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="29" t="s">
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="29" t="s">
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="29" t="s">
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="31"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="31"/>
-      <c r="Z66" s="29" t="s">
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="31"/>
-      <c r="AD66" s="29" t="s">
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="31"/>
-      <c r="AF66" s="31"/>
-      <c r="AG66" s="31"/>
-      <c r="AH66" s="29" t="s">
+      <c r="AE66" s="25"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="31"/>
-      <c r="AJ66" s="31"/>
-      <c r="AK66" s="31"/>
-      <c r="AL66" s="29" t="s">
+      <c r="AI66" s="25"/>
+      <c r="AJ66" s="25"/>
+      <c r="AK66" s="25"/>
+      <c r="AL66" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="31"/>
-      <c r="AN66" s="31"/>
-      <c r="AO66" s="31"/>
-      <c r="AP66" s="29" t="s">
+      <c r="AM66" s="25"/>
+      <c r="AN66" s="25"/>
+      <c r="AO66" s="25"/>
+      <c r="AP66" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="31"/>
-      <c r="AR66" s="31"/>
-      <c r="AS66" s="31"/>
-      <c r="AT66" s="29" t="s">
+      <c r="AQ66" s="25"/>
+      <c r="AR66" s="25"/>
+      <c r="AS66" s="25"/>
+      <c r="AT66" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="31"/>
-      <c r="AV66" s="31"/>
-      <c r="AW66" s="31"/>
-      <c r="AX66" s="29" t="s">
+      <c r="AU66" s="25"/>
+      <c r="AV66" s="25"/>
+      <c r="AW66" s="25"/>
+      <c r="AX66" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="31"/>
-      <c r="AZ66" s="31"/>
-      <c r="BA66" s="31"/>
-      <c r="BB66" s="29" t="s">
+      <c r="AY66" s="25"/>
+      <c r="AZ66" s="25"/>
+      <c r="BA66" s="25"/>
+      <c r="BB66" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="31"/>
-      <c r="BD66" s="31"/>
-      <c r="BE66" s="31"/>
-      <c r="BF66" s="29" t="s">
+      <c r="BC66" s="25"/>
+      <c r="BD66" s="25"/>
+      <c r="BE66" s="25"/>
+      <c r="BF66" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="31"/>
-      <c r="BH66" s="31"/>
-      <c r="BI66" s="31"/>
-      <c r="BJ66" s="29" t="s">
+      <c r="BG66" s="25"/>
+      <c r="BH66" s="25"/>
+      <c r="BI66" s="25"/>
+      <c r="BJ66" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="31"/>
-      <c r="BL66" s="31"/>
-      <c r="BM66" s="31"/>
-      <c r="BN66" s="29" t="s">
+      <c r="BK66" s="25"/>
+      <c r="BL66" s="25"/>
+      <c r="BM66" s="25"/>
+      <c r="BN66" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="31"/>
-      <c r="BP66" s="31"/>
-      <c r="BQ66" s="31"/>
-      <c r="BR66" s="29" t="s">
+      <c r="BO66" s="25"/>
+      <c r="BP66" s="25"/>
+      <c r="BQ66" s="25"/>
+      <c r="BR66" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="31"/>
-      <c r="BT66" s="31"/>
-      <c r="BU66" s="31"/>
-      <c r="BV66" s="29" t="s">
+      <c r="BS66" s="25"/>
+      <c r="BT66" s="25"/>
+      <c r="BU66" s="25"/>
+      <c r="BV66" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="31"/>
-      <c r="BX66" s="31"/>
-      <c r="BY66" s="31"/>
-      <c r="BZ66" s="29" t="s">
+      <c r="BW66" s="25"/>
+      <c r="BX66" s="25"/>
+      <c r="BY66" s="25"/>
+      <c r="BZ66" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="31"/>
-      <c r="CB66" s="31"/>
-      <c r="CC66" s="31"/>
-      <c r="CD66" s="29" t="s">
+      <c r="CA66" s="25"/>
+      <c r="CB66" s="25"/>
+      <c r="CC66" s="25"/>
+      <c r="CD66" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="29"/>
-      <c r="CF66" s="29"/>
-      <c r="CG66" s="29"/>
-      <c r="CH66" s="29" t="s">
+      <c r="CE66" s="23"/>
+      <c r="CF66" s="23"/>
+      <c r="CG66" s="23"/>
+      <c r="CH66" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="29"/>
-      <c r="CJ66" s="29"/>
-      <c r="CK66" s="29"/>
-      <c r="CL66" s="31" t="s">
+      <c r="CI66" s="23"/>
+      <c r="CJ66" s="23"/>
+      <c r="CK66" s="23"/>
+      <c r="CL66" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="31"/>
-      <c r="CN66" s="31"/>
-      <c r="CO66" s="26"/>
-      <c r="CP66" s="19"/>
-      <c r="CQ66" s="19"/>
-      <c r="CR66" s="19"/>
+      <c r="CM66" s="22"/>
+      <c r="CN66" s="22"/>
+      <c r="CO66" s="22"/>
+      <c r="CP66" s="21"/>
+      <c r="CQ66" s="21"/>
+      <c r="CR66" s="21"/>
+      <c r="CS66" s="21"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30214,19 +30239,22 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="27" t="s">
+      <c r="CL67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="27" t="s">
+      <c r="CM67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="27" t="s">
+      <c r="CN67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="27"/>
-      <c r="CP67" s="27"/>
-      <c r="CQ67" s="27"/>
-      <c r="CR67" s="27"/>
+      <c r="CO67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP67" s="5"/>
+      <c r="CQ67" s="5"/>
+      <c r="CR67" s="5"/>
+      <c r="CS67" s="5"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -30499,20 +30527,22 @@
       <c r="CK69" s="12">
         <v>13.374352363115477</v>
       </c>
-      <c r="CL69" s="28">
+      <c r="CL69" s="12">
         <v>4.3493547845238965</v>
       </c>
-      <c r="CM69" s="28">
+      <c r="CM69" s="12">
         <v>3.7494605164322365</v>
       </c>
-      <c r="CN69" s="28">
-        <v>6.2339375443749532</v>
-      </c>
-      <c r="CO69" s="28"/>
-      <c r="CP69" s="28"/>
-      <c r="CQ69" s="28"/>
-      <c r="CR69" s="28"/>
-      <c r="CS69" s="11"/>
+      <c r="CN69" s="12">
+        <v>6.3424634467775576</v>
+      </c>
+      <c r="CO69" s="12">
+        <v>5.5571539244028116</v>
+      </c>
+      <c r="CP69" s="12"/>
+      <c r="CQ69" s="12"/>
+      <c r="CR69" s="12"/>
+      <c r="CS69" s="12"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
       <c r="CV69" s="11"/>
@@ -30832,20 +30862,22 @@
       <c r="CK70" s="12">
         <v>2.0771713939531651</v>
       </c>
-      <c r="CL70" s="28">
+      <c r="CL70" s="12">
         <v>2.0956081356112719</v>
       </c>
-      <c r="CM70" s="28">
+      <c r="CM70" s="12">
         <v>2.1393535856452814</v>
       </c>
-      <c r="CN70" s="28">
-        <v>2.1224022641398648</v>
-      </c>
-      <c r="CO70" s="28"/>
-      <c r="CP70" s="28"/>
-      <c r="CQ70" s="28"/>
-      <c r="CR70" s="28"/>
-      <c r="CS70" s="11"/>
+      <c r="CN70" s="12">
+        <v>2.1235106683060536</v>
+      </c>
+      <c r="CO70" s="12">
+        <v>2.2002192740638122</v>
+      </c>
+      <c r="CP70" s="12"/>
+      <c r="CQ70" s="12"/>
+      <c r="CR70" s="12"/>
+      <c r="CS70" s="12"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
       <c r="CV70" s="11"/>
@@ -30986,13 +31018,13 @@
       <c r="CI71" s="11"/>
       <c r="CJ71" s="11"/>
       <c r="CK71" s="11"/>
-      <c r="CL71" s="23"/>
-      <c r="CM71" s="23"/>
-      <c r="CN71" s="23"/>
-      <c r="CO71" s="23"/>
-      <c r="CP71" s="23"/>
-      <c r="CQ71" s="23"/>
-      <c r="CR71" s="23"/>
+      <c r="CL71" s="11"/>
+      <c r="CM71" s="11"/>
+      <c r="CN71" s="11"/>
+      <c r="CO71" s="11"/>
+      <c r="CP71" s="11"/>
+      <c r="CQ71" s="11"/>
+      <c r="CR71" s="11"/>
       <c r="CS71" s="11"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
@@ -31313,20 +31345,22 @@
       <c r="CK72" s="12">
         <v>7.4495424128882064</v>
       </c>
-      <c r="CL72" s="28">
+      <c r="CL72" s="12">
         <v>3.1512488419070905</v>
       </c>
-      <c r="CM72" s="28">
+      <c r="CM72" s="12">
         <v>2.8888144589134299</v>
       </c>
-      <c r="CN72" s="28">
-        <v>4.1634229214970304</v>
-      </c>
-      <c r="CO72" s="28"/>
-      <c r="CP72" s="28"/>
-      <c r="CQ72" s="28"/>
-      <c r="CR72" s="28"/>
-      <c r="CS72" s="11"/>
+      <c r="CN72" s="12">
+        <v>4.217854796804545</v>
+      </c>
+      <c r="CO72" s="12">
+        <v>3.8846340702063884</v>
+      </c>
+      <c r="CP72" s="12"/>
+      <c r="CQ72" s="12"/>
+      <c r="CR72" s="12"/>
+      <c r="CS72" s="12"/>
       <c r="CT72" s="11"/>
       <c r="CU72" s="11"/>
       <c r="CV72" s="11"/>
@@ -31468,13 +31502,14 @@
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
       <c r="CK73" s="9"/>
-      <c r="CL73" s="25"/>
-      <c r="CM73" s="25"/>
-      <c r="CN73" s="25"/>
-      <c r="CO73" s="25"/>
-      <c r="CP73" s="25"/>
-      <c r="CQ73" s="25"/>
-      <c r="CR73" s="25"/>
+      <c r="CL73" s="9"/>
+      <c r="CM73" s="9"/>
+      <c r="CN73" s="9"/>
+      <c r="CO73" s="9"/>
+      <c r="CP73" s="9"/>
+      <c r="CQ73" s="9"/>
+      <c r="CR73" s="9"/>
+      <c r="CS73" s="9"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -31570,13 +31605,13 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
-      <c r="CL75" s="23"/>
-      <c r="CM75" s="23"/>
-      <c r="CN75" s="23"/>
-      <c r="CO75" s="23"/>
-      <c r="CP75" s="23"/>
-      <c r="CQ75" s="23"/>
-      <c r="CR75" s="23"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
+      <c r="CN75" s="11"/>
+      <c r="CO75" s="11"/>
+      <c r="CP75" s="11"/>
+      <c r="CQ75" s="11"/>
+      <c r="CR75" s="11"/>
       <c r="CS75" s="11"/>
       <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
@@ -31718,13 +31753,13 @@
       <c r="CI76" s="11"/>
       <c r="CJ76" s="11"/>
       <c r="CK76" s="11"/>
-      <c r="CL76" s="23"/>
-      <c r="CM76" s="23"/>
-      <c r="CN76" s="23"/>
-      <c r="CO76" s="23"/>
-      <c r="CP76" s="23"/>
-      <c r="CQ76" s="23"/>
-      <c r="CR76" s="23"/>
+      <c r="CL76" s="11"/>
+      <c r="CM76" s="11"/>
+      <c r="CN76" s="11"/>
+      <c r="CO76" s="11"/>
+      <c r="CP76" s="11"/>
+      <c r="CQ76" s="11"/>
+      <c r="CR76" s="11"/>
       <c r="CS76" s="11"/>
       <c r="CT76" s="11"/>
       <c r="CU76" s="11"/>
@@ -31788,7 +31823,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -31798,7 +31833,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -31808,149 +31843,150 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="29">
+      <c r="B84" s="23">
         <v>2000</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="29">
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="23">
         <v>2001</v>
       </c>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="29">
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="23">
         <v>2002</v>
       </c>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="29">
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="23">
         <v>2003</v>
       </c>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="29">
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="23">
         <v>2004</v>
       </c>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="29">
+      <c r="S84" s="24"/>
+      <c r="T84" s="24"/>
+      <c r="U84" s="24"/>
+      <c r="V84" s="23">
         <v>2005</v>
       </c>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="29">
+      <c r="W84" s="24"/>
+      <c r="X84" s="24"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="23">
         <v>2006</v>
       </c>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
-      <c r="AD84" s="29">
+      <c r="AA84" s="24"/>
+      <c r="AB84" s="24"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="23">
         <v>2007</v>
       </c>
-      <c r="AE84" s="30"/>
-      <c r="AF84" s="30"/>
-      <c r="AG84" s="30"/>
-      <c r="AH84" s="29">
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="23">
         <v>2008</v>
       </c>
-      <c r="AI84" s="30"/>
-      <c r="AJ84" s="30"/>
-      <c r="AK84" s="30"/>
-      <c r="AL84" s="29">
+      <c r="AI84" s="24"/>
+      <c r="AJ84" s="24"/>
+      <c r="AK84" s="24"/>
+      <c r="AL84" s="23">
         <v>2009</v>
       </c>
-      <c r="AM84" s="30"/>
-      <c r="AN84" s="30"/>
-      <c r="AO84" s="30"/>
-      <c r="AP84" s="29">
+      <c r="AM84" s="24"/>
+      <c r="AN84" s="24"/>
+      <c r="AO84" s="24"/>
+      <c r="AP84" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="30"/>
-      <c r="AR84" s="30"/>
-      <c r="AS84" s="30"/>
-      <c r="AT84" s="29">
+      <c r="AQ84" s="24"/>
+      <c r="AR84" s="24"/>
+      <c r="AS84" s="24"/>
+      <c r="AT84" s="23">
         <v>2011</v>
       </c>
-      <c r="AU84" s="30"/>
-      <c r="AV84" s="30"/>
-      <c r="AW84" s="30"/>
-      <c r="AX84" s="29">
+      <c r="AU84" s="24"/>
+      <c r="AV84" s="24"/>
+      <c r="AW84" s="24"/>
+      <c r="AX84" s="23">
         <v>2012</v>
       </c>
-      <c r="AY84" s="30"/>
-      <c r="AZ84" s="30"/>
-      <c r="BA84" s="30"/>
-      <c r="BB84" s="29">
+      <c r="AY84" s="24"/>
+      <c r="AZ84" s="24"/>
+      <c r="BA84" s="24"/>
+      <c r="BB84" s="23">
         <v>2013</v>
       </c>
-      <c r="BC84" s="30"/>
-      <c r="BD84" s="30"/>
-      <c r="BE84" s="30"/>
-      <c r="BF84" s="29">
+      <c r="BC84" s="24"/>
+      <c r="BD84" s="24"/>
+      <c r="BE84" s="24"/>
+      <c r="BF84" s="23">
         <v>2014</v>
       </c>
-      <c r="BG84" s="30"/>
-      <c r="BH84" s="30"/>
-      <c r="BI84" s="30"/>
-      <c r="BJ84" s="29">
+      <c r="BG84" s="24"/>
+      <c r="BH84" s="24"/>
+      <c r="BI84" s="24"/>
+      <c r="BJ84" s="23">
         <v>2015</v>
       </c>
-      <c r="BK84" s="30"/>
-      <c r="BL84" s="30"/>
-      <c r="BM84" s="30"/>
-      <c r="BN84" s="29">
+      <c r="BK84" s="24"/>
+      <c r="BL84" s="24"/>
+      <c r="BM84" s="24"/>
+      <c r="BN84" s="23">
         <v>2016</v>
       </c>
-      <c r="BO84" s="30"/>
-      <c r="BP84" s="30"/>
-      <c r="BQ84" s="30"/>
-      <c r="BR84" s="29">
+      <c r="BO84" s="24"/>
+      <c r="BP84" s="24"/>
+      <c r="BQ84" s="24"/>
+      <c r="BR84" s="23">
         <v>2017</v>
       </c>
-      <c r="BS84" s="30"/>
-      <c r="BT84" s="30"/>
-      <c r="BU84" s="30"/>
-      <c r="BV84" s="29">
+      <c r="BS84" s="24"/>
+      <c r="BT84" s="24"/>
+      <c r="BU84" s="24"/>
+      <c r="BV84" s="23">
         <v>2018</v>
       </c>
-      <c r="BW84" s="30"/>
-      <c r="BX84" s="30"/>
-      <c r="BY84" s="30"/>
-      <c r="BZ84" s="29">
+      <c r="BW84" s="24"/>
+      <c r="BX84" s="24"/>
+      <c r="BY84" s="24"/>
+      <c r="BZ84" s="23">
         <v>2019</v>
       </c>
-      <c r="CA84" s="30"/>
-      <c r="CB84" s="30"/>
-      <c r="CC84" s="30"/>
-      <c r="CD84" s="29">
+      <c r="CA84" s="24"/>
+      <c r="CB84" s="24"/>
+      <c r="CC84" s="24"/>
+      <c r="CD84" s="23">
         <v>2020</v>
       </c>
-      <c r="CE84" s="29"/>
-      <c r="CF84" s="29"/>
-      <c r="CG84" s="29"/>
-      <c r="CH84" s="29">
+      <c r="CE84" s="23"/>
+      <c r="CF84" s="23"/>
+      <c r="CG84" s="23"/>
+      <c r="CH84" s="23">
         <v>2021</v>
       </c>
-      <c r="CI84" s="29"/>
-      <c r="CJ84" s="29"/>
-      <c r="CK84" s="29"/>
-      <c r="CL84" s="31">
+      <c r="CI84" s="23"/>
+      <c r="CJ84" s="23"/>
+      <c r="CK84" s="23"/>
+      <c r="CL84" s="22">
         <v>2022</v>
       </c>
-      <c r="CM84" s="31"/>
-      <c r="CN84" s="31"/>
-      <c r="CO84" s="31"/>
-      <c r="CP84" s="31">
+      <c r="CM84" s="22"/>
+      <c r="CN84" s="22"/>
+      <c r="CO84" s="22"/>
+      <c r="CP84" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="31"/>
-      <c r="CR84" s="31"/>
+      <c r="CQ84" s="22"/>
+      <c r="CR84" s="22"/>
+      <c r="CS84" s="22"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32220,26 +32256,29 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="21" t="s">
+      <c r="CL85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="21" t="s">
+      <c r="CM85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="21" t="s">
+      <c r="CN85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="21" t="s">
+      <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="21" t="s">
+      <c r="CP85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="21" t="s">
+      <c r="CQ85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="21" t="s">
+      <c r="CR85" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS85" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32513,28 +32552,30 @@
       <c r="CK87" s="12">
         <v>110.05650893911177</v>
       </c>
-      <c r="CL87" s="28">
+      <c r="CL87" s="12">
         <v>113.86947749514169</v>
       </c>
-      <c r="CM87" s="28">
+      <c r="CM87" s="12">
         <v>114.20721124092745</v>
       </c>
-      <c r="CN87" s="28">
+      <c r="CN87" s="12">
         <v>114.60901880067924</v>
       </c>
-      <c r="CO87" s="28">
+      <c r="CO87" s="12">
         <v>119.3136171124529</v>
       </c>
-      <c r="CP87" s="28">
+      <c r="CP87" s="12">
         <v>124.27084358739076</v>
       </c>
-      <c r="CQ87" s="28">
+      <c r="CQ87" s="12">
         <v>121.73708762942729</v>
       </c>
-      <c r="CR87" s="28">
-        <v>120.0401327074896</v>
-      </c>
-      <c r="CS87" s="11"/>
+      <c r="CR87" s="12">
+        <v>120.04768191833337</v>
+      </c>
+      <c r="CS87" s="12">
+        <v>125.22885362388206</v>
+      </c>
       <c r="CT87" s="11"/>
       <c r="CU87" s="11"/>
       <c r="CV87" s="11"/>
@@ -32858,28 +32899,30 @@
       <c r="CK88" s="12">
         <v>107.60629488401973</v>
       </c>
-      <c r="CL88" s="28">
+      <c r="CL88" s="12">
         <v>107.74936487010709</v>
       </c>
-      <c r="CM88" s="28">
+      <c r="CM88" s="12">
         <v>108.45251848444725</v>
       </c>
-      <c r="CN88" s="28">
+      <c r="CN88" s="12">
         <v>110.82947579690621</v>
       </c>
-      <c r="CO88" s="28">
+      <c r="CO88" s="12">
         <v>111.63409104070634</v>
       </c>
-      <c r="CP88" s="28">
+      <c r="CP88" s="12">
         <v>113.35819627225069</v>
       </c>
-      <c r="CQ88" s="28">
+      <c r="CQ88" s="12">
         <v>114.70867114401497</v>
       </c>
-      <c r="CR88" s="28">
-        <v>116.03532748006707</v>
-      </c>
-      <c r="CS88" s="11"/>
+      <c r="CR88" s="12">
+        <v>116.03448708778154</v>
+      </c>
+      <c r="CS88" s="12">
+        <v>116.22701660437119</v>
+      </c>
       <c r="CT88" s="11"/>
       <c r="CU88" s="11"/>
       <c r="CV88" s="11"/>
@@ -33024,13 +33067,13 @@
       <c r="CI89" s="11"/>
       <c r="CJ89" s="11"/>
       <c r="CK89" s="11"/>
-      <c r="CL89" s="23"/>
-      <c r="CM89" s="23"/>
-      <c r="CN89" s="23"/>
-      <c r="CO89" s="23"/>
-      <c r="CP89" s="23"/>
-      <c r="CQ89" s="23"/>
-      <c r="CR89" s="23"/>
+      <c r="CL89" s="11"/>
+      <c r="CM89" s="11"/>
+      <c r="CN89" s="11"/>
+      <c r="CO89" s="11"/>
+      <c r="CP89" s="11"/>
+      <c r="CQ89" s="11"/>
+      <c r="CR89" s="11"/>
       <c r="CS89" s="11"/>
       <c r="CT89" s="11"/>
       <c r="CU89" s="11"/>
@@ -33355,28 +33398,30 @@
       <c r="CK90" s="12">
         <v>108.77149344246504</v>
       </c>
-      <c r="CL90" s="28">
+      <c r="CL90" s="12">
         <v>110.615986997851</v>
       </c>
-      <c r="CM90" s="28">
+      <c r="CM90" s="12">
         <v>111.13117104856822</v>
       </c>
-      <c r="CN90" s="28">
+      <c r="CN90" s="12">
         <v>112.70569108396786</v>
       </c>
-      <c r="CO90" s="28">
+      <c r="CO90" s="12">
         <v>115.4874598697082</v>
       </c>
-      <c r="CP90" s="28">
+      <c r="CP90" s="12">
         <v>118.52898069597239</v>
       </c>
-      <c r="CQ90" s="28">
+      <c r="CQ90" s="12">
         <v>118.00757317352716</v>
       </c>
-      <c r="CR90" s="28">
-        <v>118.06288327548835</v>
-      </c>
-      <c r="CS90" s="11"/>
+      <c r="CR90" s="12">
+        <v>118.06730374330014</v>
+      </c>
+      <c r="CS90" s="12">
+        <v>120.81660421151288</v>
+      </c>
       <c r="CT90" s="11"/>
       <c r="CU90" s="11"/>
       <c r="CV90" s="11"/>
@@ -33522,13 +33567,14 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
-      <c r="CL91" s="25"/>
-      <c r="CM91" s="25"/>
-      <c r="CN91" s="25"/>
-      <c r="CO91" s="25"/>
-      <c r="CP91" s="25"/>
-      <c r="CQ91" s="25"/>
-      <c r="CR91" s="25"/>
+      <c r="CL91" s="9"/>
+      <c r="CM91" s="9"/>
+      <c r="CN91" s="9"/>
+      <c r="CO91" s="9"/>
+      <c r="CP91" s="9"/>
+      <c r="CQ91" s="9"/>
+      <c r="CR91" s="9"/>
+      <c r="CS91" s="9"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33547,7 +33593,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33557,7 +33603,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -33567,149 +33613,150 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="29">
+      <c r="B103" s="23">
         <v>2000</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="29">
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="23">
         <v>2001</v>
       </c>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="29">
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="23">
         <v>2002</v>
       </c>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
-      <c r="N103" s="29">
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23">
         <v>2003</v>
       </c>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="29">
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="23">
         <v>2004</v>
       </c>
-      <c r="S103" s="30"/>
-      <c r="T103" s="30"/>
-      <c r="U103" s="30"/>
-      <c r="V103" s="29">
+      <c r="S103" s="24"/>
+      <c r="T103" s="24"/>
+      <c r="U103" s="24"/>
+      <c r="V103" s="23">
         <v>2005</v>
       </c>
-      <c r="W103" s="30"/>
-      <c r="X103" s="30"/>
-      <c r="Y103" s="30"/>
-      <c r="Z103" s="29">
+      <c r="W103" s="24"/>
+      <c r="X103" s="24"/>
+      <c r="Y103" s="24"/>
+      <c r="Z103" s="23">
         <v>2006</v>
       </c>
-      <c r="AA103" s="30"/>
-      <c r="AB103" s="30"/>
-      <c r="AC103" s="30"/>
-      <c r="AD103" s="29">
+      <c r="AA103" s="24"/>
+      <c r="AB103" s="24"/>
+      <c r="AC103" s="24"/>
+      <c r="AD103" s="23">
         <v>2007</v>
       </c>
-      <c r="AE103" s="30"/>
-      <c r="AF103" s="30"/>
-      <c r="AG103" s="30"/>
-      <c r="AH103" s="29">
+      <c r="AE103" s="24"/>
+      <c r="AF103" s="24"/>
+      <c r="AG103" s="24"/>
+      <c r="AH103" s="23">
         <v>2008</v>
       </c>
-      <c r="AI103" s="30"/>
-      <c r="AJ103" s="30"/>
-      <c r="AK103" s="30"/>
-      <c r="AL103" s="29">
+      <c r="AI103" s="24"/>
+      <c r="AJ103" s="24"/>
+      <c r="AK103" s="24"/>
+      <c r="AL103" s="23">
         <v>2009</v>
       </c>
-      <c r="AM103" s="30"/>
-      <c r="AN103" s="30"/>
-      <c r="AO103" s="30"/>
-      <c r="AP103" s="29">
+      <c r="AM103" s="24"/>
+      <c r="AN103" s="24"/>
+      <c r="AO103" s="24"/>
+      <c r="AP103" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="30"/>
-      <c r="AR103" s="30"/>
-      <c r="AS103" s="30"/>
-      <c r="AT103" s="29">
+      <c r="AQ103" s="24"/>
+      <c r="AR103" s="24"/>
+      <c r="AS103" s="24"/>
+      <c r="AT103" s="23">
         <v>2011</v>
       </c>
-      <c r="AU103" s="30"/>
-      <c r="AV103" s="30"/>
-      <c r="AW103" s="30"/>
-      <c r="AX103" s="29">
+      <c r="AU103" s="24"/>
+      <c r="AV103" s="24"/>
+      <c r="AW103" s="24"/>
+      <c r="AX103" s="23">
         <v>2012</v>
       </c>
-      <c r="AY103" s="30"/>
-      <c r="AZ103" s="30"/>
-      <c r="BA103" s="30"/>
-      <c r="BB103" s="29">
+      <c r="AY103" s="24"/>
+      <c r="AZ103" s="24"/>
+      <c r="BA103" s="24"/>
+      <c r="BB103" s="23">
         <v>2013</v>
       </c>
-      <c r="BC103" s="30"/>
-      <c r="BD103" s="30"/>
-      <c r="BE103" s="30"/>
-      <c r="BF103" s="29">
+      <c r="BC103" s="24"/>
+      <c r="BD103" s="24"/>
+      <c r="BE103" s="24"/>
+      <c r="BF103" s="23">
         <v>2014</v>
       </c>
-      <c r="BG103" s="30"/>
-      <c r="BH103" s="30"/>
-      <c r="BI103" s="30"/>
-      <c r="BJ103" s="29">
+      <c r="BG103" s="24"/>
+      <c r="BH103" s="24"/>
+      <c r="BI103" s="24"/>
+      <c r="BJ103" s="23">
         <v>2015</v>
       </c>
-      <c r="BK103" s="30"/>
-      <c r="BL103" s="30"/>
-      <c r="BM103" s="30"/>
-      <c r="BN103" s="29">
+      <c r="BK103" s="24"/>
+      <c r="BL103" s="24"/>
+      <c r="BM103" s="24"/>
+      <c r="BN103" s="23">
         <v>2016</v>
       </c>
-      <c r="BO103" s="30"/>
-      <c r="BP103" s="30"/>
-      <c r="BQ103" s="30"/>
-      <c r="BR103" s="29">
+      <c r="BO103" s="24"/>
+      <c r="BP103" s="24"/>
+      <c r="BQ103" s="24"/>
+      <c r="BR103" s="23">
         <v>2017</v>
       </c>
-      <c r="BS103" s="30"/>
-      <c r="BT103" s="30"/>
-      <c r="BU103" s="30"/>
-      <c r="BV103" s="29">
+      <c r="BS103" s="24"/>
+      <c r="BT103" s="24"/>
+      <c r="BU103" s="24"/>
+      <c r="BV103" s="23">
         <v>2018</v>
       </c>
-      <c r="BW103" s="30"/>
-      <c r="BX103" s="30"/>
-      <c r="BY103" s="30"/>
-      <c r="BZ103" s="29">
+      <c r="BW103" s="24"/>
+      <c r="BX103" s="24"/>
+      <c r="BY103" s="24"/>
+      <c r="BZ103" s="23">
         <v>2019</v>
       </c>
-      <c r="CA103" s="30"/>
-      <c r="CB103" s="30"/>
-      <c r="CC103" s="30"/>
-      <c r="CD103" s="29">
+      <c r="CA103" s="24"/>
+      <c r="CB103" s="24"/>
+      <c r="CC103" s="24"/>
+      <c r="CD103" s="23">
         <v>2020</v>
       </c>
-      <c r="CE103" s="29"/>
-      <c r="CF103" s="29"/>
-      <c r="CG103" s="29"/>
-      <c r="CH103" s="29">
+      <c r="CE103" s="23"/>
+      <c r="CF103" s="23"/>
+      <c r="CG103" s="23"/>
+      <c r="CH103" s="23">
         <v>2021</v>
       </c>
-      <c r="CI103" s="29"/>
-      <c r="CJ103" s="29"/>
-      <c r="CK103" s="29"/>
-      <c r="CL103" s="31">
+      <c r="CI103" s="23"/>
+      <c r="CJ103" s="23"/>
+      <c r="CK103" s="23"/>
+      <c r="CL103" s="22">
         <v>2022</v>
       </c>
-      <c r="CM103" s="31"/>
-      <c r="CN103" s="31"/>
-      <c r="CO103" s="31"/>
-      <c r="CP103" s="31">
+      <c r="CM103" s="22"/>
+      <c r="CN103" s="22"/>
+      <c r="CO103" s="22"/>
+      <c r="CP103" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="31"/>
-      <c r="CR103" s="31"/>
+      <c r="CQ103" s="22"/>
+      <c r="CR103" s="22"/>
+      <c r="CS103" s="22"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -33979,26 +34026,29 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="21" t="s">
+      <c r="CL104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="21" t="s">
+      <c r="CM104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="21" t="s">
+      <c r="CN104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="21" t="s">
+      <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="21" t="s">
+      <c r="CP104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="21" t="s">
+      <c r="CQ104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="21" t="s">
+      <c r="CR104" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS104" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34272,28 +34322,30 @@
       <c r="CK106" s="12">
         <v>48.116779622255635</v>
       </c>
-      <c r="CL106" s="28">
+      <c r="CL106" s="12">
         <v>48.217030867477916</v>
       </c>
-      <c r="CM106" s="28">
+      <c r="CM106" s="12">
         <v>47.835672230297952</v>
       </c>
-      <c r="CN106" s="28">
+      <c r="CN106" s="12">
         <v>50.479649080751585</v>
       </c>
-      <c r="CO106" s="28">
+      <c r="CO106" s="12">
         <v>51.839564398213156</v>
       </c>
-      <c r="CP106" s="28">
+      <c r="CP106" s="12">
         <v>49.678789974708195</v>
       </c>
-      <c r="CQ106" s="28">
+      <c r="CQ106" s="12">
         <v>48.420019265352906</v>
       </c>
-      <c r="CR106" s="28">
-        <v>51.475964985320658</v>
-      </c>
-      <c r="CS106" s="11"/>
+      <c r="CR106" s="12">
+        <v>51.502949249777529</v>
+      </c>
+      <c r="CS106" s="12">
+        <v>52.84699515143614</v>
+      </c>
       <c r="CT106" s="11"/>
       <c r="CU106" s="11"/>
       <c r="CV106" s="11"/>
@@ -34617,28 +34669,30 @@
       <c r="CK107" s="12">
         <v>51.883220377744365</v>
       </c>
-      <c r="CL107" s="28">
+      <c r="CL107" s="12">
         <v>51.782969132522069</v>
       </c>
-      <c r="CM107" s="28">
+      <c r="CM107" s="12">
         <v>52.164327769702055</v>
       </c>
-      <c r="CN107" s="28">
+      <c r="CN107" s="12">
         <v>49.520350919248429</v>
       </c>
-      <c r="CO107" s="28">
+      <c r="CO107" s="12">
         <v>48.16043560178683</v>
       </c>
-      <c r="CP107" s="28">
+      <c r="CP107" s="12">
         <v>50.321210025291805</v>
       </c>
-      <c r="CQ107" s="28">
+      <c r="CQ107" s="12">
         <v>51.579980734647101</v>
       </c>
-      <c r="CR107" s="28">
-        <v>48.524035014679349</v>
-      </c>
-      <c r="CS107" s="11"/>
+      <c r="CR107" s="12">
+        <v>48.497050750222463</v>
+      </c>
+      <c r="CS107" s="12">
+        <v>47.153004848563853</v>
+      </c>
       <c r="CT107" s="11"/>
       <c r="CU107" s="11"/>
       <c r="CV107" s="11"/>
@@ -34783,13 +34837,13 @@
       <c r="CI108" s="11"/>
       <c r="CJ108" s="11"/>
       <c r="CK108" s="11"/>
-      <c r="CL108" s="23"/>
-      <c r="CM108" s="23"/>
-      <c r="CN108" s="23"/>
-      <c r="CO108" s="23"/>
-      <c r="CP108" s="23"/>
-      <c r="CQ108" s="23"/>
-      <c r="CR108" s="23"/>
+      <c r="CL108" s="11"/>
+      <c r="CM108" s="11"/>
+      <c r="CN108" s="11"/>
+      <c r="CO108" s="11"/>
+      <c r="CP108" s="11"/>
+      <c r="CQ108" s="11"/>
+      <c r="CR108" s="11"/>
       <c r="CS108" s="11"/>
       <c r="CT108" s="11"/>
       <c r="CU108" s="11"/>
@@ -35114,28 +35168,30 @@
       <c r="CK109" s="12">
         <v>100</v>
       </c>
-      <c r="CL109" s="28">
+      <c r="CL109" s="12">
         <v>100</v>
       </c>
-      <c r="CM109" s="28">
+      <c r="CM109" s="12">
         <v>100</v>
       </c>
-      <c r="CN109" s="28">
+      <c r="CN109" s="12">
         <v>100</v>
       </c>
-      <c r="CO109" s="28">
+      <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="28">
+      <c r="CP109" s="12">
         <v>100</v>
       </c>
-      <c r="CQ109" s="28">
+      <c r="CQ109" s="12">
         <v>100</v>
       </c>
-      <c r="CR109" s="28">
+      <c r="CR109" s="12">
         <v>100</v>
       </c>
-      <c r="CS109" s="11"/>
+      <c r="CS109" s="12">
+        <v>100</v>
+      </c>
       <c r="CT109" s="11"/>
       <c r="CU109" s="11"/>
       <c r="CV109" s="11"/>
@@ -35281,13 +35337,14 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="25"/>
-      <c r="CM110" s="25"/>
-      <c r="CN110" s="25"/>
-      <c r="CO110" s="25"/>
-      <c r="CP110" s="25"/>
-      <c r="CQ110" s="25"/>
-      <c r="CR110" s="25"/>
+      <c r="CL110" s="9"/>
+      <c r="CM110" s="9"/>
+      <c r="CN110" s="9"/>
+      <c r="CO110" s="9"/>
+      <c r="CP110" s="9"/>
+      <c r="CQ110" s="9"/>
+      <c r="CR110" s="9"/>
+      <c r="CS110" s="9"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35383,13 +35440,13 @@
       <c r="CI112" s="11"/>
       <c r="CJ112" s="11"/>
       <c r="CK112" s="11"/>
-      <c r="CL112" s="23"/>
-      <c r="CM112" s="23"/>
-      <c r="CN112" s="23"/>
-      <c r="CO112" s="23"/>
-      <c r="CP112" s="23"/>
-      <c r="CQ112" s="23"/>
-      <c r="CR112" s="23"/>
+      <c r="CL112" s="11"/>
+      <c r="CM112" s="11"/>
+      <c r="CN112" s="11"/>
+      <c r="CO112" s="11"/>
+      <c r="CP112" s="11"/>
+      <c r="CQ112" s="11"/>
+      <c r="CR112" s="11"/>
       <c r="CS112" s="11"/>
       <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
@@ -35535,13 +35592,13 @@
       <c r="CI113" s="11"/>
       <c r="CJ113" s="11"/>
       <c r="CK113" s="11"/>
-      <c r="CL113" s="23"/>
-      <c r="CM113" s="23"/>
-      <c r="CN113" s="23"/>
-      <c r="CO113" s="23"/>
-      <c r="CP113" s="23"/>
-      <c r="CQ113" s="23"/>
-      <c r="CR113" s="23"/>
+      <c r="CL113" s="11"/>
+      <c r="CM113" s="11"/>
+      <c r="CN113" s="11"/>
+      <c r="CO113" s="11"/>
+      <c r="CP113" s="11"/>
+      <c r="CQ113" s="11"/>
+      <c r="CR113" s="11"/>
       <c r="CS113" s="11"/>
       <c r="CT113" s="11"/>
       <c r="CU113" s="11"/>
@@ -35610,7 +35667,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -35620,7 +35677,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -35630,149 +35687,150 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="29">
+      <c r="B122" s="23">
         <v>2000</v>
       </c>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="29">
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="23">
         <v>2001</v>
       </c>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
-      <c r="I122" s="30"/>
-      <c r="J122" s="29">
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="23">
         <v>2002</v>
       </c>
-      <c r="K122" s="30"/>
-      <c r="L122" s="30"/>
-      <c r="M122" s="30"/>
-      <c r="N122" s="29">
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="23">
         <v>2003</v>
       </c>
-      <c r="O122" s="30"/>
-      <c r="P122" s="30"/>
-      <c r="Q122" s="30"/>
-      <c r="R122" s="29">
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="23">
         <v>2004</v>
       </c>
-      <c r="S122" s="30"/>
-      <c r="T122" s="30"/>
-      <c r="U122" s="30"/>
-      <c r="V122" s="29">
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="23">
         <v>2005</v>
       </c>
-      <c r="W122" s="30"/>
-      <c r="X122" s="30"/>
-      <c r="Y122" s="30"/>
-      <c r="Z122" s="29">
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="23">
         <v>2006</v>
       </c>
-      <c r="AA122" s="30"/>
-      <c r="AB122" s="30"/>
-      <c r="AC122" s="30"/>
-      <c r="AD122" s="29">
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="23">
         <v>2007</v>
       </c>
-      <c r="AE122" s="30"/>
-      <c r="AF122" s="30"/>
-      <c r="AG122" s="30"/>
-      <c r="AH122" s="29">
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="23">
         <v>2008</v>
       </c>
-      <c r="AI122" s="30"/>
-      <c r="AJ122" s="30"/>
-      <c r="AK122" s="30"/>
-      <c r="AL122" s="29">
+      <c r="AI122" s="24"/>
+      <c r="AJ122" s="24"/>
+      <c r="AK122" s="24"/>
+      <c r="AL122" s="23">
         <v>2009</v>
       </c>
-      <c r="AM122" s="30"/>
-      <c r="AN122" s="30"/>
-      <c r="AO122" s="30"/>
-      <c r="AP122" s="29">
+      <c r="AM122" s="24"/>
+      <c r="AN122" s="24"/>
+      <c r="AO122" s="24"/>
+      <c r="AP122" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="30"/>
-      <c r="AR122" s="30"/>
-      <c r="AS122" s="30"/>
-      <c r="AT122" s="29">
+      <c r="AQ122" s="24"/>
+      <c r="AR122" s="24"/>
+      <c r="AS122" s="24"/>
+      <c r="AT122" s="23">
         <v>2011</v>
       </c>
-      <c r="AU122" s="30"/>
-      <c r="AV122" s="30"/>
-      <c r="AW122" s="30"/>
-      <c r="AX122" s="29">
+      <c r="AU122" s="24"/>
+      <c r="AV122" s="24"/>
+      <c r="AW122" s="24"/>
+      <c r="AX122" s="23">
         <v>2012</v>
       </c>
-      <c r="AY122" s="30"/>
-      <c r="AZ122" s="30"/>
-      <c r="BA122" s="30"/>
-      <c r="BB122" s="29">
+      <c r="AY122" s="24"/>
+      <c r="AZ122" s="24"/>
+      <c r="BA122" s="24"/>
+      <c r="BB122" s="23">
         <v>2013</v>
       </c>
-      <c r="BC122" s="30"/>
-      <c r="BD122" s="30"/>
-      <c r="BE122" s="30"/>
-      <c r="BF122" s="29">
+      <c r="BC122" s="24"/>
+      <c r="BD122" s="24"/>
+      <c r="BE122" s="24"/>
+      <c r="BF122" s="23">
         <v>2014</v>
       </c>
-      <c r="BG122" s="30"/>
-      <c r="BH122" s="30"/>
-      <c r="BI122" s="30"/>
-      <c r="BJ122" s="29">
+      <c r="BG122" s="24"/>
+      <c r="BH122" s="24"/>
+      <c r="BI122" s="24"/>
+      <c r="BJ122" s="23">
         <v>2015</v>
       </c>
-      <c r="BK122" s="30"/>
-      <c r="BL122" s="30"/>
-      <c r="BM122" s="30"/>
-      <c r="BN122" s="29">
+      <c r="BK122" s="24"/>
+      <c r="BL122" s="24"/>
+      <c r="BM122" s="24"/>
+      <c r="BN122" s="23">
         <v>2016</v>
       </c>
-      <c r="BO122" s="30"/>
-      <c r="BP122" s="30"/>
-      <c r="BQ122" s="30"/>
-      <c r="BR122" s="29">
+      <c r="BO122" s="24"/>
+      <c r="BP122" s="24"/>
+      <c r="BQ122" s="24"/>
+      <c r="BR122" s="23">
         <v>2017</v>
       </c>
-      <c r="BS122" s="30"/>
-      <c r="BT122" s="30"/>
-      <c r="BU122" s="30"/>
-      <c r="BV122" s="29">
+      <c r="BS122" s="24"/>
+      <c r="BT122" s="24"/>
+      <c r="BU122" s="24"/>
+      <c r="BV122" s="23">
         <v>2018</v>
       </c>
-      <c r="BW122" s="30"/>
-      <c r="BX122" s="30"/>
-      <c r="BY122" s="30"/>
-      <c r="BZ122" s="29">
+      <c r="BW122" s="24"/>
+      <c r="BX122" s="24"/>
+      <c r="BY122" s="24"/>
+      <c r="BZ122" s="23">
         <v>2019</v>
       </c>
-      <c r="CA122" s="30"/>
-      <c r="CB122" s="30"/>
-      <c r="CC122" s="30"/>
-      <c r="CD122" s="29">
+      <c r="CA122" s="24"/>
+      <c r="CB122" s="24"/>
+      <c r="CC122" s="24"/>
+      <c r="CD122" s="23">
         <v>2020</v>
       </c>
-      <c r="CE122" s="29"/>
-      <c r="CF122" s="29"/>
-      <c r="CG122" s="29"/>
-      <c r="CH122" s="29">
+      <c r="CE122" s="23"/>
+      <c r="CF122" s="23"/>
+      <c r="CG122" s="23"/>
+      <c r="CH122" s="23">
         <v>2021</v>
       </c>
-      <c r="CI122" s="29"/>
-      <c r="CJ122" s="29"/>
-      <c r="CK122" s="29"/>
-      <c r="CL122" s="31">
+      <c r="CI122" s="23"/>
+      <c r="CJ122" s="23"/>
+      <c r="CK122" s="23"/>
+      <c r="CL122" s="22">
         <v>2022</v>
       </c>
-      <c r="CM122" s="31"/>
-      <c r="CN122" s="31"/>
-      <c r="CO122" s="31"/>
-      <c r="CP122" s="31">
+      <c r="CM122" s="22"/>
+      <c r="CN122" s="22"/>
+      <c r="CO122" s="22"/>
+      <c r="CP122" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="31"/>
-      <c r="CR122" s="31"/>
+      <c r="CQ122" s="22"/>
+      <c r="CR122" s="22"/>
+      <c r="CS122" s="22"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -36042,26 +36100,29 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="21" t="s">
+      <c r="CL123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="21" t="s">
+      <c r="CM123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="21" t="s">
+      <c r="CN123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="21" t="s">
+      <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="21" t="s">
+      <c r="CP123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="21" t="s">
+      <c r="CQ123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="21" t="s">
+      <c r="CR123" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS123" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36335,28 +36396,30 @@
       <c r="CK125" s="12">
         <v>47.55496998410382</v>
       </c>
-      <c r="CL125" s="28">
+      <c r="CL125" s="12">
         <v>46.839368870727256</v>
       </c>
-      <c r="CM125" s="28">
+      <c r="CM125" s="12">
         <v>46.547273285869586</v>
       </c>
-      <c r="CN125" s="28">
+      <c r="CN125" s="12">
         <v>49.641326615114274</v>
       </c>
-      <c r="CO125" s="28">
+      <c r="CO125" s="12">
         <v>50.177169697732225</v>
       </c>
-      <c r="CP125" s="28">
+      <c r="CP125" s="12">
         <v>47.383410041556388</v>
       </c>
-      <c r="CQ125" s="28">
+      <c r="CQ125" s="12">
         <v>46.936632687592812</v>
       </c>
-      <c r="CR125" s="28">
-        <v>50.628075031908494</v>
-      </c>
-      <c r="CS125" s="11"/>
+      <c r="CR125" s="12">
+        <v>50.653325875013088</v>
+      </c>
+      <c r="CS125" s="12">
+        <v>50.985011139327185</v>
+      </c>
       <c r="CT125" s="11"/>
       <c r="CU125" s="11"/>
       <c r="CV125" s="11"/>
@@ -36680,28 +36743,30 @@
       <c r="CK126" s="12">
         <v>52.445030015896165</v>
       </c>
-      <c r="CL126" s="28">
+      <c r="CL126" s="12">
         <v>53.160631129272737</v>
       </c>
-      <c r="CM126" s="28">
+      <c r="CM126" s="12">
         <v>53.452726714130414</v>
       </c>
-      <c r="CN126" s="28">
+      <c r="CN126" s="12">
         <v>50.358673384885734</v>
       </c>
-      <c r="CO126" s="28">
+      <c r="CO126" s="12">
         <v>49.822830302267775</v>
       </c>
-      <c r="CP126" s="28">
+      <c r="CP126" s="12">
         <v>52.616589958443619</v>
       </c>
-      <c r="CQ126" s="28">
+      <c r="CQ126" s="12">
         <v>53.063367312407181</v>
       </c>
-      <c r="CR126" s="28">
-        <v>49.371924968091506</v>
-      </c>
-      <c r="CS126" s="11"/>
+      <c r="CR126" s="12">
+        <v>49.346674124986919</v>
+      </c>
+      <c r="CS126" s="12">
+        <v>49.014988860672808</v>
+      </c>
       <c r="CT126" s="11"/>
       <c r="CU126" s="11"/>
       <c r="CV126" s="11"/>
@@ -36846,13 +36911,13 @@
       <c r="CI127" s="11"/>
       <c r="CJ127" s="11"/>
       <c r="CK127" s="11"/>
-      <c r="CL127" s="23"/>
-      <c r="CM127" s="23"/>
-      <c r="CN127" s="23"/>
-      <c r="CO127" s="23"/>
-      <c r="CP127" s="23"/>
-      <c r="CQ127" s="23"/>
-      <c r="CR127" s="23"/>
+      <c r="CL127" s="11"/>
+      <c r="CM127" s="11"/>
+      <c r="CN127" s="11"/>
+      <c r="CO127" s="11"/>
+      <c r="CP127" s="11"/>
+      <c r="CQ127" s="11"/>
+      <c r="CR127" s="11"/>
       <c r="CS127" s="11"/>
       <c r="CT127" s="11"/>
       <c r="CU127" s="11"/>
@@ -37177,28 +37242,30 @@
       <c r="CK128" s="12">
         <v>100</v>
       </c>
-      <c r="CL128" s="28">
+      <c r="CL128" s="12">
         <v>100</v>
       </c>
-      <c r="CM128" s="28">
+      <c r="CM128" s="12">
         <v>100</v>
       </c>
-      <c r="CN128" s="28">
+      <c r="CN128" s="12">
         <v>100</v>
       </c>
-      <c r="CO128" s="28">
+      <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="28">
+      <c r="CP128" s="12">
         <v>100</v>
       </c>
-      <c r="CQ128" s="28">
+      <c r="CQ128" s="12">
         <v>100</v>
       </c>
-      <c r="CR128" s="28">
+      <c r="CR128" s="12">
         <v>100</v>
       </c>
-      <c r="CS128" s="11"/>
+      <c r="CS128" s="12">
+        <v>100</v>
+      </c>
       <c r="CT128" s="11"/>
       <c r="CU128" s="11"/>
       <c r="CV128" s="11"/>
@@ -37344,13 +37411,14 @@
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
-      <c r="CL129" s="25"/>
-      <c r="CM129" s="25"/>
-      <c r="CN129" s="25"/>
-      <c r="CO129" s="25"/>
-      <c r="CP129" s="25"/>
-      <c r="CQ129" s="25"/>
-      <c r="CR129" s="25"/>
+      <c r="CL129" s="9"/>
+      <c r="CM129" s="9"/>
+      <c r="CN129" s="9"/>
+      <c r="CO129" s="9"/>
+      <c r="CP129" s="9"/>
+      <c r="CQ129" s="9"/>
+      <c r="CR129" s="9"/>
+      <c r="CS129" s="9"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37447,14 +37515,14 @@
       <c r="CI131" s="3"/>
       <c r="CJ131" s="3"/>
       <c r="CK131" s="3"/>
-      <c r="CL131" s="20"/>
-      <c r="CM131" s="20"/>
-      <c r="CN131" s="20"/>
-      <c r="CO131" s="20"/>
-      <c r="CP131" s="20"/>
-      <c r="CQ131" s="20"/>
-      <c r="CR131" s="20"/>
-      <c r="CS131" s="13"/>
+      <c r="CL131" s="3"/>
+      <c r="CM131" s="3"/>
+      <c r="CN131" s="3"/>
+      <c r="CO131" s="3"/>
+      <c r="CP131" s="3"/>
+      <c r="CQ131" s="3"/>
+      <c r="CR131" s="3"/>
+      <c r="CS131" s="3"/>
       <c r="CT131" s="13"/>
       <c r="CU131" s="13"/>
       <c r="CV131" s="13"/>
@@ -37600,14 +37668,14 @@
       <c r="CI132" s="3"/>
       <c r="CJ132" s="3"/>
       <c r="CK132" s="3"/>
-      <c r="CL132" s="20"/>
-      <c r="CM132" s="20"/>
-      <c r="CN132" s="20"/>
-      <c r="CO132" s="20"/>
-      <c r="CP132" s="20"/>
-      <c r="CQ132" s="20"/>
-      <c r="CR132" s="20"/>
-      <c r="CS132" s="13"/>
+      <c r="CL132" s="3"/>
+      <c r="CM132" s="3"/>
+      <c r="CN132" s="3"/>
+      <c r="CO132" s="3"/>
+      <c r="CP132" s="3"/>
+      <c r="CQ132" s="3"/>
+      <c r="CR132" s="3"/>
+      <c r="CS132" s="3"/>
       <c r="CT132" s="13"/>
       <c r="CU132" s="13"/>
       <c r="CV132" s="13"/>
@@ -37664,26 +37732,14 @@
       <c r="EU132" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP28:CR28"/>
-    <mergeCell ref="CP84:CR84"/>
-    <mergeCell ref="CP103:CR103"/>
-    <mergeCell ref="CP122:CR122"/>
+  <mergeCells count="154">
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
     <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CL47:CN47"/>
-    <mergeCell ref="CL66:CN66"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="BN84:BQ84"/>
@@ -37837,9 +37893,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="95" man="1"/>
-    <brk id="76" max="95" man="1"/>
-    <brk id="94" max="95" man="1"/>
+    <brk id="38" max="96" man="1"/>
+    <brk id="76" max="96" man="1"/>
+    <brk id="94" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539FBE8-A493-4058-9B28-118B3B2FD59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DB344-F077-41B1-9BAA-81EEE84080BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CS$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CT$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,14 +744,27 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23618,17 +23634,18 @@
   </sheetPr>
   <dimension ref="A1:EU132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="DI15" sqref="DI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="97" width="8.33203125" style="3" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="93" width="8.33203125" style="3" customWidth="1"/>
+    <col min="94" max="98" width="9.6640625" style="21" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23643,7 +23660,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23653,7 +23670,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23663,150 +23680,153 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="23">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
-      <c r="CH9" s="23">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="23"/>
-      <c r="CK9" s="23"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
       <c r="CP9" s="22">
         <v>2023</v>
       </c>
       <c r="CQ9" s="22"/>
       <c r="CR9" s="22"/>
       <c r="CS9" s="22"/>
+      <c r="CT9" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24088,17 +24108,20 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24372,31 +24395,33 @@
       <c r="CK12" s="15">
         <v>138745.43860942539</v>
       </c>
-      <c r="CL12" s="19">
-        <v>143436.29439306865</v>
-      </c>
-      <c r="CM12" s="19">
-        <v>143353.08136227759</v>
-      </c>
-      <c r="CN12" s="19">
-        <v>163156.69927114615</v>
-      </c>
-      <c r="CO12" s="19">
-        <v>170532.75677675504</v>
-      </c>
-      <c r="CP12" s="19">
-        <v>163346.84236623056</v>
-      </c>
-      <c r="CQ12" s="19">
-        <v>158533.94266610869</v>
-      </c>
-      <c r="CR12" s="19">
-        <v>181738.36279390383</v>
-      </c>
-      <c r="CS12" s="19">
-        <v>188933.89495583781</v>
-      </c>
-      <c r="CT12" s="11"/>
+      <c r="CL12" s="15">
+        <v>143103.20121419372</v>
+      </c>
+      <c r="CM12" s="15">
+        <v>143856.23723273393</v>
+      </c>
+      <c r="CN12" s="15">
+        <v>163687.02775287611</v>
+      </c>
+      <c r="CO12" s="15">
+        <v>167359.66211914457</v>
+      </c>
+      <c r="CP12" s="24">
+        <v>162733.41338826407</v>
+      </c>
+      <c r="CQ12" s="24">
+        <v>159816.52743620294</v>
+      </c>
+      <c r="CR12" s="24">
+        <v>182366.00154739365</v>
+      </c>
+      <c r="CS12" s="24">
+        <v>191169.57992403524</v>
+      </c>
+      <c r="CT12" s="24">
+        <v>179195.0213863246</v>
+      </c>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
@@ -24719,31 +24744,33 @@
       <c r="CK13" s="15">
         <v>149606.02567945013</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="15">
         <v>154044.26758366541</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="15">
         <v>156325.11835471363</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="15">
         <v>160056.12459406475</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="15">
         <v>158429.80059888729</v>
       </c>
-      <c r="CP13" s="19">
+      <c r="CP13" s="24">
         <v>165459.15804036456</v>
       </c>
-      <c r="CQ13" s="19">
+      <c r="CQ13" s="24">
         <v>168880.10026788112</v>
       </c>
-      <c r="CR13" s="19">
+      <c r="CR13" s="24">
         <v>171131.454257765</v>
       </c>
-      <c r="CS13" s="19">
-        <v>168577.245298091</v>
-      </c>
-      <c r="CT13" s="11"/>
+      <c r="CS13" s="24">
+        <v>168597.81028725675</v>
+      </c>
+      <c r="CT13" s="24">
+        <v>174569.87378258348</v>
+      </c>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
@@ -24891,11 +24918,11 @@
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
-      <c r="CP14" s="11"/>
-      <c r="CQ14" s="11"/>
-      <c r="CR14" s="11"/>
-      <c r="CS14" s="11"/>
-      <c r="CT14" s="11"/>
+      <c r="CP14" s="25"/>
+      <c r="CQ14" s="25"/>
+      <c r="CR14" s="25"/>
+      <c r="CS14" s="25"/>
+      <c r="CT14" s="25"/>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
@@ -25218,31 +25245,33 @@
       <c r="CK15" s="16">
         <v>288351.46428887552</v>
       </c>
-      <c r="CL15" s="20">
-        <v>297480.56197673408</v>
-      </c>
-      <c r="CM15" s="20">
-        <v>299678.19971699122</v>
-      </c>
-      <c r="CN15" s="20">
-        <v>323212.82386521087</v>
-      </c>
-      <c r="CO15" s="20">
-        <v>328962.55737564235</v>
-      </c>
-      <c r="CP15" s="20">
-        <v>328806.00040659512</v>
-      </c>
-      <c r="CQ15" s="20">
-        <v>327414.04293398978</v>
-      </c>
-      <c r="CR15" s="20">
-        <v>352869.81705166883</v>
-      </c>
-      <c r="CS15" s="20">
-        <v>357511.14025392884</v>
-      </c>
-      <c r="CT15" s="11"/>
+      <c r="CL15" s="16">
+        <v>297147.46879785915</v>
+      </c>
+      <c r="CM15" s="16">
+        <v>300181.35558744753</v>
+      </c>
+      <c r="CN15" s="16">
+        <v>323743.15234694083</v>
+      </c>
+      <c r="CO15" s="16">
+        <v>325789.46271803183</v>
+      </c>
+      <c r="CP15" s="26">
+        <v>328192.57142862864</v>
+      </c>
+      <c r="CQ15" s="26">
+        <v>328696.62770408404</v>
+      </c>
+      <c r="CR15" s="26">
+        <v>353497.45580515865</v>
+      </c>
+      <c r="CS15" s="26">
+        <v>359767.39021129196</v>
+      </c>
+      <c r="CT15" s="26">
+        <v>353764.89516890806</v>
+      </c>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
@@ -25391,10 +25420,11 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
-      <c r="CR16" s="9"/>
-      <c r="CS16" s="9"/>
+      <c r="CP16" s="27"/>
+      <c r="CQ16" s="27"/>
+      <c r="CR16" s="27"/>
+      <c r="CS16" s="27"/>
+      <c r="CT16" s="27"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25494,11 +25524,11 @@
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
-      <c r="CP18" s="11"/>
-      <c r="CQ18" s="11"/>
-      <c r="CR18" s="11"/>
-      <c r="CS18" s="11"/>
-      <c r="CT18" s="11"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
@@ -25646,11 +25676,11 @@
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
-      <c r="CP19" s="11"/>
-      <c r="CQ19" s="11"/>
-      <c r="CR19" s="11"/>
-      <c r="CS19" s="11"/>
-      <c r="CT19" s="11"/>
+      <c r="CP19" s="25"/>
+      <c r="CQ19" s="25"/>
+      <c r="CR19" s="25"/>
+      <c r="CS19" s="25"/>
+      <c r="CT19" s="25"/>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
@@ -25717,7 +25747,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25727,7 +25757,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25737,150 +25767,153 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="23">
+      <c r="B28" s="30">
         <v>2000</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30">
         <v>2001</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23">
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="30">
         <v>2002</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="23">
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="30">
         <v>2003</v>
       </c>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="23">
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="30">
         <v>2004</v>
       </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="23">
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="30">
         <v>2005</v>
       </c>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="23">
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="30">
         <v>2006</v>
       </c>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="23">
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="30">
         <v>2007</v>
       </c>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="23">
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="30">
         <v>2008</v>
       </c>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="23">
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="30">
         <v>2009</v>
       </c>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="23">
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="23">
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="30">
         <v>2011</v>
       </c>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="23">
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+      <c r="AX28" s="30">
         <v>2012</v>
       </c>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="24"/>
-      <c r="BB28" s="23">
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="30">
         <v>2013</v>
       </c>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="23">
+      <c r="BC28" s="31"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="30">
         <v>2014</v>
       </c>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="24"/>
-      <c r="BI28" s="24"/>
-      <c r="BJ28" s="23">
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="30">
         <v>2015</v>
       </c>
-      <c r="BK28" s="24"/>
-      <c r="BL28" s="24"/>
-      <c r="BM28" s="24"/>
-      <c r="BN28" s="23">
+      <c r="BK28" s="31"/>
+      <c r="BL28" s="31"/>
+      <c r="BM28" s="31"/>
+      <c r="BN28" s="30">
         <v>2016</v>
       </c>
-      <c r="BO28" s="24"/>
-      <c r="BP28" s="24"/>
-      <c r="BQ28" s="24"/>
-      <c r="BR28" s="23">
+      <c r="BO28" s="31"/>
+      <c r="BP28" s="31"/>
+      <c r="BQ28" s="31"/>
+      <c r="BR28" s="30">
         <v>2017</v>
       </c>
-      <c r="BS28" s="24"/>
-      <c r="BT28" s="24"/>
-      <c r="BU28" s="24"/>
-      <c r="BV28" s="23">
+      <c r="BS28" s="31"/>
+      <c r="BT28" s="31"/>
+      <c r="BU28" s="31"/>
+      <c r="BV28" s="30">
         <v>2018</v>
       </c>
-      <c r="BW28" s="24"/>
-      <c r="BX28" s="24"/>
-      <c r="BY28" s="24"/>
-      <c r="BZ28" s="23">
+      <c r="BW28" s="31"/>
+      <c r="BX28" s="31"/>
+      <c r="BY28" s="31"/>
+      <c r="BZ28" s="30">
         <v>2019</v>
       </c>
-      <c r="CA28" s="24"/>
-      <c r="CB28" s="24"/>
-      <c r="CC28" s="24"/>
-      <c r="CD28" s="23">
+      <c r="CA28" s="31"/>
+      <c r="CB28" s="31"/>
+      <c r="CC28" s="31"/>
+      <c r="CD28" s="30">
         <v>2020</v>
       </c>
-      <c r="CE28" s="23"/>
-      <c r="CF28" s="23"/>
-      <c r="CG28" s="23"/>
-      <c r="CH28" s="23">
+      <c r="CE28" s="30"/>
+      <c r="CF28" s="30"/>
+      <c r="CG28" s="30"/>
+      <c r="CH28" s="19">
         <v>2021</v>
       </c>
-      <c r="CI28" s="23"/>
-      <c r="CJ28" s="23"/>
-      <c r="CK28" s="23"/>
-      <c r="CL28" s="22">
+      <c r="CI28" s="19"/>
+      <c r="CJ28" s="19"/>
+      <c r="CK28" s="19"/>
+      <c r="CL28" s="19">
         <v>2022</v>
       </c>
-      <c r="CM28" s="22"/>
-      <c r="CN28" s="22"/>
-      <c r="CO28" s="22"/>
+      <c r="CM28" s="19"/>
+      <c r="CN28" s="19"/>
+      <c r="CO28" s="19"/>
       <c r="CP28" s="22">
         <v>2023</v>
       </c>
       <c r="CQ28" s="22"/>
       <c r="CR28" s="22"/>
       <c r="CS28" s="22"/>
+      <c r="CT28" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26162,17 +26195,20 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="6" t="s">
+      <c r="CR29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="6" t="s">
+      <c r="CS29" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT29" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26446,31 +26482,33 @@
       <c r="CK31" s="15">
         <v>126067.45384426617</v>
       </c>
-      <c r="CL31" s="19">
-        <v>125965.53312470275</v>
-      </c>
-      <c r="CM31" s="19">
-        <v>125520.1662002455</v>
-      </c>
-      <c r="CN31" s="19">
-        <v>142359.38932074618</v>
-      </c>
-      <c r="CO31" s="19">
-        <v>142928.1593366063</v>
-      </c>
-      <c r="CP31" s="19">
-        <v>131444.22106651304</v>
-      </c>
-      <c r="CQ31" s="19">
-        <v>130226.49527208382</v>
-      </c>
-      <c r="CR31" s="19">
-        <v>151388.48155147026</v>
-      </c>
-      <c r="CS31" s="19">
-        <v>150870.89715225721</v>
-      </c>
-      <c r="CT31" s="11"/>
+      <c r="CL31" s="15">
+        <v>125673.01120732664</v>
+      </c>
+      <c r="CM31" s="15">
+        <v>125960.73021103712</v>
+      </c>
+      <c r="CN31" s="15">
+        <v>142822.11772316997</v>
+      </c>
+      <c r="CO31" s="15">
+        <v>140268.70207229434</v>
+      </c>
+      <c r="CP31" s="24">
+        <v>130950.59845942492</v>
+      </c>
+      <c r="CQ31" s="24">
+        <v>131280.0647266107</v>
+      </c>
+      <c r="CR31" s="24">
+        <v>151911.30610206575</v>
+      </c>
+      <c r="CS31" s="24">
+        <v>152653.2055123279</v>
+      </c>
+      <c r="CT31" s="24">
+        <v>139140.26192767074</v>
+      </c>
       <c r="CU31" s="11"/>
       <c r="CV31" s="11"/>
       <c r="CW31" s="11"/>
@@ -26793,31 +26831,33 @@
       <c r="CK32" s="15">
         <v>139030.92364689126</v>
       </c>
-      <c r="CL32" s="19">
+      <c r="CL32" s="15">
         <v>142965.36018506213</v>
       </c>
-      <c r="CM32" s="19">
+      <c r="CM32" s="15">
         <v>144141.52897438855</v>
       </c>
-      <c r="CN32" s="19">
+      <c r="CN32" s="15">
         <v>144416.5673826391</v>
       </c>
-      <c r="CO32" s="19">
+      <c r="CO32" s="15">
         <v>141918.83422163335</v>
       </c>
-      <c r="CP32" s="19">
+      <c r="CP32" s="24">
         <v>145961.35390420625</v>
       </c>
-      <c r="CQ32" s="19">
+      <c r="CQ32" s="24">
         <v>147225.22594290605</v>
       </c>
-      <c r="CR32" s="19">
+      <c r="CR32" s="24">
         <v>147483.26859781085</v>
       </c>
-      <c r="CS32" s="19">
+      <c r="CS32" s="24">
         <v>145041.3597657044</v>
       </c>
-      <c r="CT32" s="11"/>
+      <c r="CT32" s="24">
+        <v>149214.20258384082</v>
+      </c>
       <c r="CU32" s="11"/>
       <c r="CV32" s="11"/>
       <c r="CW32" s="11"/>
@@ -26965,11 +27005,11 @@
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
-      <c r="CP33" s="11"/>
-      <c r="CQ33" s="11"/>
-      <c r="CR33" s="11"/>
-      <c r="CS33" s="11"/>
-      <c r="CT33" s="11"/>
+      <c r="CP33" s="25"/>
+      <c r="CQ33" s="25"/>
+      <c r="CR33" s="25"/>
+      <c r="CS33" s="25"/>
+      <c r="CT33" s="25"/>
       <c r="CU33" s="11"/>
       <c r="CV33" s="11"/>
       <c r="CW33" s="11"/>
@@ -27292,31 +27332,33 @@
       <c r="CK34" s="16">
         <v>265098.37749115744</v>
       </c>
-      <c r="CL34" s="20">
-        <v>268930.89330976491</v>
-      </c>
-      <c r="CM34" s="20">
-        <v>269661.69517463405</v>
-      </c>
-      <c r="CN34" s="20">
-        <v>286775.95670338528</v>
-      </c>
-      <c r="CO34" s="20">
-        <v>284846.99355823966</v>
-      </c>
-      <c r="CP34" s="20">
-        <v>277405.57497071929</v>
-      </c>
-      <c r="CQ34" s="20">
-        <v>277451.7212149899</v>
-      </c>
-      <c r="CR34" s="20">
-        <v>298871.75014928111</v>
-      </c>
-      <c r="CS34" s="20">
-        <v>295912.25691796164</v>
-      </c>
-      <c r="CT34" s="11"/>
+      <c r="CL34" s="16">
+        <v>268638.37139238877</v>
+      </c>
+      <c r="CM34" s="16">
+        <v>270102.2591854257</v>
+      </c>
+      <c r="CN34" s="16">
+        <v>287238.68510580907</v>
+      </c>
+      <c r="CO34" s="16">
+        <v>282187.5362939277</v>
+      </c>
+      <c r="CP34" s="26">
+        <v>276911.95236363116</v>
+      </c>
+      <c r="CQ34" s="26">
+        <v>278505.29066951678</v>
+      </c>
+      <c r="CR34" s="26">
+        <v>299394.5746998766</v>
+      </c>
+      <c r="CS34" s="26">
+        <v>297694.56527803233</v>
+      </c>
+      <c r="CT34" s="26">
+        <v>288354.46451151156</v>
+      </c>
       <c r="CU34" s="11"/>
       <c r="CV34" s="11"/>
       <c r="CW34" s="11"/>
@@ -27465,10 +27507,11 @@
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
-      <c r="CP35" s="9"/>
-      <c r="CQ35" s="9"/>
-      <c r="CR35" s="9"/>
-      <c r="CS35" s="9"/>
+      <c r="CP35" s="27"/>
+      <c r="CQ35" s="27"/>
+      <c r="CR35" s="27"/>
+      <c r="CS35" s="27"/>
+      <c r="CT35" s="27"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27568,11 +27611,11 @@
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
-      <c r="CP37" s="11"/>
-      <c r="CQ37" s="11"/>
-      <c r="CR37" s="11"/>
-      <c r="CS37" s="11"/>
-      <c r="CT37" s="11"/>
+      <c r="CP37" s="25"/>
+      <c r="CQ37" s="25"/>
+      <c r="CR37" s="25"/>
+      <c r="CS37" s="25"/>
+      <c r="CT37" s="25"/>
       <c r="CU37" s="11"/>
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
@@ -27720,11 +27763,11 @@
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
-      <c r="CP38" s="11"/>
-      <c r="CQ38" s="11"/>
-      <c r="CR38" s="11"/>
-      <c r="CS38" s="11"/>
-      <c r="CT38" s="11"/>
+      <c r="CP38" s="25"/>
+      <c r="CQ38" s="25"/>
+      <c r="CR38" s="25"/>
+      <c r="CS38" s="25"/>
+      <c r="CT38" s="25"/>
       <c r="CU38" s="11"/>
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
@@ -27791,7 +27834,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
@@ -27801,7 +27844,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
@@ -27811,148 +27854,151 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23" t="s">
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23" t="s">
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23" t="s">
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23" t="s">
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23" t="s">
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23" t="s">
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="23"/>
-      <c r="AG47" s="23"/>
-      <c r="AH47" s="23" t="s">
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="23"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23" t="s">
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23" t="s">
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23" t="s">
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="30"/>
+      <c r="AS47" s="30"/>
+      <c r="AT47" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="23"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
-      <c r="AX47" s="23" t="s">
+      <c r="AU47" s="30"/>
+      <c r="AV47" s="30"/>
+      <c r="AW47" s="30"/>
+      <c r="AX47" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="23"/>
-      <c r="AZ47" s="23"/>
-      <c r="BA47" s="23"/>
-      <c r="BB47" s="23" t="s">
+      <c r="AY47" s="30"/>
+      <c r="AZ47" s="30"/>
+      <c r="BA47" s="30"/>
+      <c r="BB47" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="23"/>
-      <c r="BD47" s="23"/>
-      <c r="BE47" s="23"/>
-      <c r="BF47" s="23" t="s">
+      <c r="BC47" s="30"/>
+      <c r="BD47" s="30"/>
+      <c r="BE47" s="30"/>
+      <c r="BF47" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="23"/>
-      <c r="BH47" s="23"/>
-      <c r="BI47" s="23"/>
-      <c r="BJ47" s="23" t="s">
+      <c r="BG47" s="30"/>
+      <c r="BH47" s="30"/>
+      <c r="BI47" s="30"/>
+      <c r="BJ47" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="23"/>
-      <c r="BL47" s="23"/>
-      <c r="BM47" s="23"/>
-      <c r="BN47" s="23" t="s">
+      <c r="BK47" s="30"/>
+      <c r="BL47" s="30"/>
+      <c r="BM47" s="30"/>
+      <c r="BN47" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="23"/>
-      <c r="BP47" s="23"/>
-      <c r="BQ47" s="23"/>
-      <c r="BR47" s="23" t="s">
+      <c r="BO47" s="30"/>
+      <c r="BP47" s="30"/>
+      <c r="BQ47" s="30"/>
+      <c r="BR47" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="23"/>
-      <c r="BT47" s="23"/>
-      <c r="BU47" s="23"/>
-      <c r="BV47" s="23" t="s">
+      <c r="BS47" s="30"/>
+      <c r="BT47" s="30"/>
+      <c r="BU47" s="30"/>
+      <c r="BV47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="23"/>
-      <c r="BX47" s="23"/>
-      <c r="BY47" s="23"/>
-      <c r="BZ47" s="23" t="s">
+      <c r="BW47" s="30"/>
+      <c r="BX47" s="30"/>
+      <c r="BY47" s="30"/>
+      <c r="BZ47" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="23"/>
-      <c r="CB47" s="23"/>
-      <c r="CC47" s="23"/>
-      <c r="CD47" s="23" t="s">
+      <c r="CA47" s="30"/>
+      <c r="CB47" s="30"/>
+      <c r="CC47" s="30"/>
+      <c r="CD47" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="23"/>
-      <c r="CF47" s="23"/>
-      <c r="CG47" s="23"/>
-      <c r="CH47" s="23" t="s">
+      <c r="CE47" s="30"/>
+      <c r="CF47" s="30"/>
+      <c r="CG47" s="30"/>
+      <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="23"/>
-      <c r="CJ47" s="23"/>
-      <c r="CK47" s="23"/>
-      <c r="CL47" s="22" t="s">
+      <c r="CI47" s="19"/>
+      <c r="CJ47" s="19"/>
+      <c r="CK47" s="19"/>
+      <c r="CL47" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="22"/>
-      <c r="CN47" s="22"/>
-      <c r="CO47" s="22"/>
-      <c r="CP47" s="21"/>
-      <c r="CQ47" s="21"/>
-      <c r="CR47" s="21"/>
-      <c r="CS47" s="21"/>
+      <c r="CM47" s="19"/>
+      <c r="CN47" s="19"/>
+      <c r="CO47" s="19"/>
+      <c r="CP47" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ47" s="20"/>
+      <c r="CR47" s="20"/>
+      <c r="CS47" s="20"/>
+      <c r="CT47" s="20"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28234,10 +28280,13 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="5"/>
-      <c r="CQ48" s="5"/>
-      <c r="CR48" s="5"/>
-      <c r="CS48" s="5"/>
+      <c r="CP48" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ48" s="28"/>
+      <c r="CR48" s="28"/>
+      <c r="CS48" s="28"/>
+      <c r="CT48" s="28"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28499,34 +28548,36 @@
         <v>11.452478267225288</v>
       </c>
       <c r="CH50" s="12">
-        <v>15.466196015240513</v>
+        <v>15.198056054946235</v>
       </c>
       <c r="CI50" s="12">
-        <v>14.090258652202436</v>
+        <v>14.490704759514657</v>
       </c>
       <c r="CJ50" s="12">
-        <v>13.259134980077491</v>
+        <v>13.627275211918118</v>
       </c>
       <c r="CK50" s="12">
-        <v>22.910532040489187</v>
+        <v>20.623541787394899</v>
       </c>
       <c r="CL50" s="12">
-        <v>13.881108723151783</v>
+        <v>13.717521346491964</v>
       </c>
       <c r="CM50" s="12">
-        <v>10.589839548315311</v>
+        <v>11.094611196904935</v>
       </c>
       <c r="CN50" s="12">
-        <v>11.388844960559823</v>
+        <v>11.411395301720432</v>
       </c>
       <c r="CO50" s="12">
-        <v>10.790383341525271</v>
-      </c>
-      <c r="CP50" s="12"/>
-      <c r="CQ50" s="12"/>
-      <c r="CR50" s="12"/>
-      <c r="CS50" s="12"/>
-      <c r="CT50" s="11"/>
+        <v>14.226796053125511</v>
+      </c>
+      <c r="CP50" s="29">
+        <v>10.115690229384498</v>
+      </c>
+      <c r="CQ50" s="29"/>
+      <c r="CR50" s="29"/>
+      <c r="CS50" s="29"/>
+      <c r="CT50" s="29"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
@@ -28855,13 +28906,15 @@
         <v>6.9196537725685801</v>
       </c>
       <c r="CO51" s="12">
-        <v>6.405010080707612</v>
-      </c>
-      <c r="CP51" s="12"/>
-      <c r="CQ51" s="12"/>
-      <c r="CR51" s="12"/>
-      <c r="CS51" s="12"/>
-      <c r="CT51" s="11"/>
+        <v>6.4179905863246205</v>
+      </c>
+      <c r="CP51" s="29">
+        <v>5.5063230407568682</v>
+      </c>
+      <c r="CQ51" s="29"/>
+      <c r="CR51" s="29"/>
+      <c r="CS51" s="29"/>
+      <c r="CT51" s="29"/>
       <c r="CU51" s="11"/>
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
@@ -29006,11 +29059,11 @@
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
-      <c r="CP52" s="11"/>
-      <c r="CQ52" s="11"/>
-      <c r="CR52" s="11"/>
-      <c r="CS52" s="11"/>
-      <c r="CT52" s="11"/>
+      <c r="CP52" s="25"/>
+      <c r="CQ52" s="25"/>
+      <c r="CR52" s="25"/>
+      <c r="CS52" s="25"/>
+      <c r="CT52" s="25"/>
       <c r="CU52" s="11"/>
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
@@ -29318,34 +29371,36 @@
         <v>6.4685189652341677</v>
       </c>
       <c r="CH53" s="12">
-        <v>8.2423538517311812</v>
+        <v>8.1211533622141445</v>
       </c>
       <c r="CI53" s="12">
-        <v>7.7375294960013719</v>
+        <v>7.9184194322248374</v>
       </c>
       <c r="CJ53" s="12">
-        <v>8.5023441197974705</v>
+        <v>8.6803750615561057</v>
       </c>
       <c r="CK53" s="12">
-        <v>14.083886546898867</v>
+        <v>12.983460486835014</v>
       </c>
       <c r="CL53" s="12">
-        <v>10.530247160253452</v>
+        <v>10.447708929295501</v>
       </c>
       <c r="CM53" s="12">
-        <v>9.2552088350742849</v>
+        <v>9.4993481726514375</v>
       </c>
       <c r="CN53" s="12">
-        <v>9.1756858010144384</v>
+        <v>9.1907128359371342</v>
       </c>
       <c r="CO53" s="12">
-        <v>8.6783684763511957</v>
-      </c>
-      <c r="CP53" s="12"/>
-      <c r="CQ53" s="12"/>
-      <c r="CR53" s="12"/>
-      <c r="CS53" s="12"/>
-      <c r="CT53" s="11"/>
+        <v>10.429412667243867</v>
+      </c>
+      <c r="CP53" s="29">
+        <v>7.7918654980405648</v>
+      </c>
+      <c r="CQ53" s="29"/>
+      <c r="CR53" s="29"/>
+      <c r="CS53" s="29"/>
+      <c r="CT53" s="29"/>
       <c r="CU53" s="11"/>
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
@@ -29490,10 +29545,11 @@
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
-      <c r="CP54" s="9"/>
-      <c r="CQ54" s="9"/>
-      <c r="CR54" s="9"/>
-      <c r="CS54" s="9"/>
+      <c r="CP54" s="27"/>
+      <c r="CQ54" s="27"/>
+      <c r="CR54" s="27"/>
+      <c r="CS54" s="27"/>
+      <c r="CT54" s="27"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -29593,11 +29649,11 @@
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
-      <c r="CP56" s="11"/>
-      <c r="CQ56" s="11"/>
-      <c r="CR56" s="11"/>
-      <c r="CS56" s="11"/>
-      <c r="CT56" s="11"/>
+      <c r="CP56" s="25"/>
+      <c r="CQ56" s="25"/>
+      <c r="CR56" s="25"/>
+      <c r="CS56" s="25"/>
+      <c r="CT56" s="25"/>
       <c r="CU56" s="11"/>
       <c r="CV56" s="11"/>
       <c r="CW56" s="11"/>
@@ -29741,11 +29797,11 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="11"/>
-      <c r="CS57" s="11"/>
-      <c r="CT57" s="11"/>
+      <c r="CP57" s="25"/>
+      <c r="CQ57" s="25"/>
+      <c r="CR57" s="25"/>
+      <c r="CS57" s="25"/>
+      <c r="CT57" s="25"/>
       <c r="CU57" s="11"/>
       <c r="CV57" s="11"/>
       <c r="CW57" s="11"/>
@@ -29808,7 +29864,7 @@
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
@@ -29818,7 +29874,7 @@
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
@@ -29828,148 +29884,151 @@
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="23" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="23" t="s">
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="23" t="s">
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="23" t="s">
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="25"/>
-      <c r="V66" s="23" t="s">
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="25"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="23" t="s">
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="25"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="25"/>
-      <c r="AD66" s="23" t="s">
+      <c r="AA66" s="32"/>
+      <c r="AB66" s="32"/>
+      <c r="AC66" s="32"/>
+      <c r="AD66" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="25"/>
-      <c r="AF66" s="25"/>
-      <c r="AG66" s="25"/>
-      <c r="AH66" s="23" t="s">
+      <c r="AE66" s="32"/>
+      <c r="AF66" s="32"/>
+      <c r="AG66" s="32"/>
+      <c r="AH66" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="25"/>
-      <c r="AJ66" s="25"/>
-      <c r="AK66" s="25"/>
-      <c r="AL66" s="23" t="s">
+      <c r="AI66" s="32"/>
+      <c r="AJ66" s="32"/>
+      <c r="AK66" s="32"/>
+      <c r="AL66" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="25"/>
-      <c r="AN66" s="25"/>
-      <c r="AO66" s="25"/>
-      <c r="AP66" s="23" t="s">
+      <c r="AM66" s="32"/>
+      <c r="AN66" s="32"/>
+      <c r="AO66" s="32"/>
+      <c r="AP66" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="25"/>
-      <c r="AR66" s="25"/>
-      <c r="AS66" s="25"/>
-      <c r="AT66" s="23" t="s">
+      <c r="AQ66" s="32"/>
+      <c r="AR66" s="32"/>
+      <c r="AS66" s="32"/>
+      <c r="AT66" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="25"/>
-      <c r="AV66" s="25"/>
-      <c r="AW66" s="25"/>
-      <c r="AX66" s="23" t="s">
+      <c r="AU66" s="32"/>
+      <c r="AV66" s="32"/>
+      <c r="AW66" s="32"/>
+      <c r="AX66" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="25"/>
-      <c r="AZ66" s="25"/>
-      <c r="BA66" s="25"/>
-      <c r="BB66" s="23" t="s">
+      <c r="AY66" s="32"/>
+      <c r="AZ66" s="32"/>
+      <c r="BA66" s="32"/>
+      <c r="BB66" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="25"/>
-      <c r="BD66" s="25"/>
-      <c r="BE66" s="25"/>
-      <c r="BF66" s="23" t="s">
+      <c r="BC66" s="32"/>
+      <c r="BD66" s="32"/>
+      <c r="BE66" s="32"/>
+      <c r="BF66" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="25"/>
-      <c r="BH66" s="25"/>
-      <c r="BI66" s="25"/>
-      <c r="BJ66" s="23" t="s">
+      <c r="BG66" s="32"/>
+      <c r="BH66" s="32"/>
+      <c r="BI66" s="32"/>
+      <c r="BJ66" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="25"/>
-      <c r="BL66" s="25"/>
-      <c r="BM66" s="25"/>
-      <c r="BN66" s="23" t="s">
+      <c r="BK66" s="32"/>
+      <c r="BL66" s="32"/>
+      <c r="BM66" s="32"/>
+      <c r="BN66" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="25"/>
-      <c r="BP66" s="25"/>
-      <c r="BQ66" s="25"/>
-      <c r="BR66" s="23" t="s">
+      <c r="BO66" s="32"/>
+      <c r="BP66" s="32"/>
+      <c r="BQ66" s="32"/>
+      <c r="BR66" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="25"/>
-      <c r="BT66" s="25"/>
-      <c r="BU66" s="25"/>
-      <c r="BV66" s="23" t="s">
+      <c r="BS66" s="32"/>
+      <c r="BT66" s="32"/>
+      <c r="BU66" s="32"/>
+      <c r="BV66" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="25"/>
-      <c r="BX66" s="25"/>
-      <c r="BY66" s="25"/>
-      <c r="BZ66" s="23" t="s">
+      <c r="BW66" s="32"/>
+      <c r="BX66" s="32"/>
+      <c r="BY66" s="32"/>
+      <c r="BZ66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="25"/>
-      <c r="CB66" s="25"/>
-      <c r="CC66" s="25"/>
-      <c r="CD66" s="23" t="s">
+      <c r="CA66" s="32"/>
+      <c r="CB66" s="32"/>
+      <c r="CC66" s="32"/>
+      <c r="CD66" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="23"/>
-      <c r="CF66" s="23"/>
-      <c r="CG66" s="23"/>
-      <c r="CH66" s="23" t="s">
+      <c r="CE66" s="30"/>
+      <c r="CF66" s="30"/>
+      <c r="CG66" s="30"/>
+      <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="23"/>
-      <c r="CJ66" s="23"/>
-      <c r="CK66" s="23"/>
-      <c r="CL66" s="22" t="s">
+      <c r="CI66" s="19"/>
+      <c r="CJ66" s="19"/>
+      <c r="CK66" s="19"/>
+      <c r="CL66" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="22"/>
-      <c r="CN66" s="22"/>
-      <c r="CO66" s="22"/>
-      <c r="CP66" s="21"/>
-      <c r="CQ66" s="21"/>
-      <c r="CR66" s="21"/>
-      <c r="CS66" s="21"/>
+      <c r="CM66" s="19"/>
+      <c r="CN66" s="19"/>
+      <c r="CO66" s="19"/>
+      <c r="CP66" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ66" s="20"/>
+      <c r="CR66" s="20"/>
+      <c r="CS66" s="20"/>
+      <c r="CT66" s="20"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30251,10 +30310,13 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="5"/>
-      <c r="CQ67" s="5"/>
-      <c r="CR67" s="5"/>
-      <c r="CS67" s="5"/>
+      <c r="CP67" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ67" s="28"/>
+      <c r="CR67" s="28"/>
+      <c r="CS67" s="28"/>
+      <c r="CT67" s="28"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -30516,34 +30578,36 @@
         <v>6.5499686972737265</v>
       </c>
       <c r="CH69" s="12">
-        <v>11.768712307161124</v>
+        <v>11.509158783147669</v>
       </c>
       <c r="CI69" s="12">
-        <v>8.2156802199752974</v>
+        <v>8.5955071079687286</v>
       </c>
       <c r="CJ69" s="12">
-        <v>6.0497699027643392</v>
+        <v>6.3944766399782367</v>
       </c>
       <c r="CK69" s="12">
-        <v>13.374352363115477</v>
+        <v>11.264801338473347</v>
       </c>
       <c r="CL69" s="12">
-        <v>4.3493547845238965</v>
+        <v>4.1994595350243458</v>
       </c>
       <c r="CM69" s="12">
-        <v>3.7494605164322365</v>
+        <v>4.2230102244258632</v>
       </c>
       <c r="CN69" s="12">
-        <v>6.3424634467775576</v>
+        <v>6.3639921629738012</v>
       </c>
       <c r="CO69" s="12">
-        <v>5.5571539244028116</v>
-      </c>
-      <c r="CP69" s="12"/>
-      <c r="CQ69" s="12"/>
-      <c r="CR69" s="12"/>
-      <c r="CS69" s="12"/>
-      <c r="CT69" s="11"/>
+        <v>8.8291281355484301</v>
+      </c>
+      <c r="CP69" s="29">
+        <v>6.2540099584068543</v>
+      </c>
+      <c r="CQ69" s="29"/>
+      <c r="CR69" s="29"/>
+      <c r="CS69" s="29"/>
+      <c r="CT69" s="29"/>
       <c r="CU69" s="11"/>
       <c r="CV69" s="11"/>
       <c r="CW69" s="11"/>
@@ -30874,11 +30938,13 @@
       <c r="CO70" s="12">
         <v>2.2002192740638122</v>
       </c>
-      <c r="CP70" s="12"/>
-      <c r="CQ70" s="12"/>
-      <c r="CR70" s="12"/>
-      <c r="CS70" s="12"/>
-      <c r="CT70" s="11"/>
+      <c r="CP70" s="29">
+        <v>2.2285684481725241</v>
+      </c>
+      <c r="CQ70" s="29"/>
+      <c r="CR70" s="29"/>
+      <c r="CS70" s="29"/>
+      <c r="CT70" s="29"/>
       <c r="CU70" s="11"/>
       <c r="CV70" s="11"/>
       <c r="CW70" s="11"/>
@@ -31022,11 +31088,11 @@
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
-      <c r="CP71" s="11"/>
-      <c r="CQ71" s="11"/>
-      <c r="CR71" s="11"/>
-      <c r="CS71" s="11"/>
-      <c r="CT71" s="11"/>
+      <c r="CP71" s="25"/>
+      <c r="CQ71" s="25"/>
+      <c r="CR71" s="25"/>
+      <c r="CS71" s="25"/>
+      <c r="CT71" s="25"/>
       <c r="CU71" s="11"/>
       <c r="CV71" s="11"/>
       <c r="CW71" s="11"/>
@@ -31334,34 +31400,36 @@
         <v>3.541287370425735</v>
       </c>
       <c r="CH72" s="12">
-        <v>5.8744378742099599</v>
+        <v>5.7592759707673054</v>
       </c>
       <c r="CI72" s="12">
-        <v>4.3900343252920777</v>
+        <v>4.5605831760632043</v>
       </c>
       <c r="CJ72" s="12">
-        <v>3.6016827011995218</v>
+        <v>3.7688495783527713</v>
       </c>
       <c r="CK72" s="12">
-        <v>7.4495424128882064</v>
+        <v>6.4463460563202659</v>
       </c>
       <c r="CL72" s="12">
-        <v>3.1512488419070905</v>
+        <v>3.079820998154247</v>
       </c>
       <c r="CM72" s="12">
-        <v>2.8888144589134299</v>
+        <v>3.111055608876768</v>
       </c>
       <c r="CN72" s="12">
-        <v>4.217854796804545</v>
+        <v>4.2319820499072733</v>
       </c>
       <c r="CO72" s="12">
-        <v>3.8846340702063884</v>
-      </c>
-      <c r="CP72" s="12"/>
-      <c r="CQ72" s="12"/>
-      <c r="CR72" s="12"/>
-      <c r="CS72" s="12"/>
-      <c r="CT72" s="11"/>
+        <v>5.4952919564641718</v>
+      </c>
+      <c r="CP72" s="29">
+        <v>4.132184273813678</v>
+      </c>
+      <c r="CQ72" s="29"/>
+      <c r="CR72" s="29"/>
+      <c r="CS72" s="29"/>
+      <c r="CT72" s="29"/>
       <c r="CU72" s="11"/>
       <c r="CV72" s="11"/>
       <c r="CW72" s="11"/>
@@ -31506,10 +31574,11 @@
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
-      <c r="CP73" s="9"/>
-      <c r="CQ73" s="9"/>
-      <c r="CR73" s="9"/>
-      <c r="CS73" s="9"/>
+      <c r="CP73" s="27"/>
+      <c r="CQ73" s="27"/>
+      <c r="CR73" s="27"/>
+      <c r="CS73" s="27"/>
+      <c r="CT73" s="27"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -31609,11 +31678,11 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="11"/>
-      <c r="CS75" s="11"/>
-      <c r="CT75" s="11"/>
+      <c r="CP75" s="25"/>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="25"/>
+      <c r="CS75" s="25"/>
+      <c r="CT75" s="25"/>
       <c r="CU75" s="11"/>
       <c r="CV75" s="11"/>
       <c r="CW75" s="11"/>
@@ -31757,11 +31826,11 @@
       <c r="CM76" s="11"/>
       <c r="CN76" s="11"/>
       <c r="CO76" s="11"/>
-      <c r="CP76" s="11"/>
-      <c r="CQ76" s="11"/>
-      <c r="CR76" s="11"/>
-      <c r="CS76" s="11"/>
-      <c r="CT76" s="11"/>
+      <c r="CP76" s="25"/>
+      <c r="CQ76" s="25"/>
+      <c r="CR76" s="25"/>
+      <c r="CS76" s="25"/>
+      <c r="CT76" s="25"/>
       <c r="CU76" s="11"/>
       <c r="CV76" s="11"/>
       <c r="CW76" s="11"/>
@@ -31823,7 +31892,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -31833,7 +31902,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -31843,150 +31912,153 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="23">
+      <c r="B84" s="30">
         <v>2000</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="23">
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="30">
         <v>2001</v>
       </c>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="23">
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="30">
         <v>2002</v>
       </c>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23">
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="30">
         <v>2003</v>
       </c>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="23">
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="30">
         <v>2004</v>
       </c>
-      <c r="S84" s="24"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="23">
+      <c r="S84" s="31"/>
+      <c r="T84" s="31"/>
+      <c r="U84" s="31"/>
+      <c r="V84" s="30">
         <v>2005</v>
       </c>
-      <c r="W84" s="24"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="23">
+      <c r="W84" s="31"/>
+      <c r="X84" s="31"/>
+      <c r="Y84" s="31"/>
+      <c r="Z84" s="30">
         <v>2006</v>
       </c>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="24"/>
-      <c r="AC84" s="24"/>
-      <c r="AD84" s="23">
+      <c r="AA84" s="31"/>
+      <c r="AB84" s="31"/>
+      <c r="AC84" s="31"/>
+      <c r="AD84" s="30">
         <v>2007</v>
       </c>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="23">
+      <c r="AE84" s="31"/>
+      <c r="AF84" s="31"/>
+      <c r="AG84" s="31"/>
+      <c r="AH84" s="30">
         <v>2008</v>
       </c>
-      <c r="AI84" s="24"/>
-      <c r="AJ84" s="24"/>
-      <c r="AK84" s="24"/>
-      <c r="AL84" s="23">
+      <c r="AI84" s="31"/>
+      <c r="AJ84" s="31"/>
+      <c r="AK84" s="31"/>
+      <c r="AL84" s="30">
         <v>2009</v>
       </c>
-      <c r="AM84" s="24"/>
-      <c r="AN84" s="24"/>
-      <c r="AO84" s="24"/>
-      <c r="AP84" s="23">
+      <c r="AM84" s="31"/>
+      <c r="AN84" s="31"/>
+      <c r="AO84" s="31"/>
+      <c r="AP84" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="24"/>
-      <c r="AR84" s="24"/>
-      <c r="AS84" s="24"/>
-      <c r="AT84" s="23">
+      <c r="AQ84" s="31"/>
+      <c r="AR84" s="31"/>
+      <c r="AS84" s="31"/>
+      <c r="AT84" s="30">
         <v>2011</v>
       </c>
-      <c r="AU84" s="24"/>
-      <c r="AV84" s="24"/>
-      <c r="AW84" s="24"/>
-      <c r="AX84" s="23">
+      <c r="AU84" s="31"/>
+      <c r="AV84" s="31"/>
+      <c r="AW84" s="31"/>
+      <c r="AX84" s="30">
         <v>2012</v>
       </c>
-      <c r="AY84" s="24"/>
-      <c r="AZ84" s="24"/>
-      <c r="BA84" s="24"/>
-      <c r="BB84" s="23">
+      <c r="AY84" s="31"/>
+      <c r="AZ84" s="31"/>
+      <c r="BA84" s="31"/>
+      <c r="BB84" s="30">
         <v>2013</v>
       </c>
-      <c r="BC84" s="24"/>
-      <c r="BD84" s="24"/>
-      <c r="BE84" s="24"/>
-      <c r="BF84" s="23">
+      <c r="BC84" s="31"/>
+      <c r="BD84" s="31"/>
+      <c r="BE84" s="31"/>
+      <c r="BF84" s="30">
         <v>2014</v>
       </c>
-      <c r="BG84" s="24"/>
-      <c r="BH84" s="24"/>
-      <c r="BI84" s="24"/>
-      <c r="BJ84" s="23">
+      <c r="BG84" s="31"/>
+      <c r="BH84" s="31"/>
+      <c r="BI84" s="31"/>
+      <c r="BJ84" s="30">
         <v>2015</v>
       </c>
-      <c r="BK84" s="24"/>
-      <c r="BL84" s="24"/>
-      <c r="BM84" s="24"/>
-      <c r="BN84" s="23">
+      <c r="BK84" s="31"/>
+      <c r="BL84" s="31"/>
+      <c r="BM84" s="31"/>
+      <c r="BN84" s="30">
         <v>2016</v>
       </c>
-      <c r="BO84" s="24"/>
-      <c r="BP84" s="24"/>
-      <c r="BQ84" s="24"/>
-      <c r="BR84" s="23">
+      <c r="BO84" s="31"/>
+      <c r="BP84" s="31"/>
+      <c r="BQ84" s="31"/>
+      <c r="BR84" s="30">
         <v>2017</v>
       </c>
-      <c r="BS84" s="24"/>
-      <c r="BT84" s="24"/>
-      <c r="BU84" s="24"/>
-      <c r="BV84" s="23">
+      <c r="BS84" s="31"/>
+      <c r="BT84" s="31"/>
+      <c r="BU84" s="31"/>
+      <c r="BV84" s="30">
         <v>2018</v>
       </c>
-      <c r="BW84" s="24"/>
-      <c r="BX84" s="24"/>
-      <c r="BY84" s="24"/>
-      <c r="BZ84" s="23">
+      <c r="BW84" s="31"/>
+      <c r="BX84" s="31"/>
+      <c r="BY84" s="31"/>
+      <c r="BZ84" s="30">
         <v>2019</v>
       </c>
-      <c r="CA84" s="24"/>
-      <c r="CB84" s="24"/>
-      <c r="CC84" s="24"/>
-      <c r="CD84" s="23">
+      <c r="CA84" s="31"/>
+      <c r="CB84" s="31"/>
+      <c r="CC84" s="31"/>
+      <c r="CD84" s="30">
         <v>2020</v>
       </c>
-      <c r="CE84" s="23"/>
-      <c r="CF84" s="23"/>
-      <c r="CG84" s="23"/>
-      <c r="CH84" s="23">
+      <c r="CE84" s="30"/>
+      <c r="CF84" s="30"/>
+      <c r="CG84" s="30"/>
+      <c r="CH84" s="19">
         <v>2021</v>
       </c>
-      <c r="CI84" s="23"/>
-      <c r="CJ84" s="23"/>
-      <c r="CK84" s="23"/>
-      <c r="CL84" s="22">
+      <c r="CI84" s="19"/>
+      <c r="CJ84" s="19"/>
+      <c r="CK84" s="19"/>
+      <c r="CL84" s="19">
         <v>2022</v>
       </c>
-      <c r="CM84" s="22"/>
-      <c r="CN84" s="22"/>
-      <c r="CO84" s="22"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
       <c r="CP84" s="22">
         <v>2023</v>
       </c>
       <c r="CQ84" s="22"/>
       <c r="CR84" s="22"/>
       <c r="CS84" s="22"/>
+      <c r="CT84" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32268,17 +32340,20 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="6" t="s">
+      <c r="CR85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="6" t="s">
+      <c r="CS85" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT85" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32553,30 +32628,32 @@
         <v>110.05650893911177</v>
       </c>
       <c r="CL87" s="12">
-        <v>113.86947749514169</v>
+        <v>113.86947749514171</v>
       </c>
       <c r="CM87" s="12">
-        <v>114.20721124092745</v>
+        <v>114.20721124092748</v>
       </c>
       <c r="CN87" s="12">
         <v>114.60901880067924</v>
       </c>
       <c r="CO87" s="12">
-        <v>119.3136171124529</v>
-      </c>
-      <c r="CP87" s="12">
+        <v>119.31361711245292</v>
+      </c>
+      <c r="CP87" s="29">
         <v>124.27084358739076</v>
       </c>
-      <c r="CQ87" s="12">
+      <c r="CQ87" s="29">
         <v>121.73708762942729</v>
       </c>
-      <c r="CR87" s="12">
+      <c r="CR87" s="29">
         <v>120.04768191833337</v>
       </c>
-      <c r="CS87" s="12">
-        <v>125.22885362388206</v>
-      </c>
-      <c r="CT87" s="11"/>
+      <c r="CS87" s="29">
+        <v>125.2312909397745</v>
+      </c>
+      <c r="CT87" s="29">
+        <v>128.78732503714528</v>
+      </c>
       <c r="CU87" s="11"/>
       <c r="CV87" s="11"/>
       <c r="CW87" s="11"/>
@@ -32911,19 +32988,21 @@
       <c r="CO88" s="12">
         <v>111.63409104070634</v>
       </c>
-      <c r="CP88" s="12">
+      <c r="CP88" s="29">
         <v>113.35819627225069</v>
       </c>
-      <c r="CQ88" s="12">
+      <c r="CQ88" s="29">
         <v>114.70867114401497</v>
       </c>
-      <c r="CR88" s="12">
+      <c r="CR88" s="29">
         <v>116.03448708778154</v>
       </c>
-      <c r="CS88" s="12">
-        <v>116.22701660437119</v>
-      </c>
-      <c r="CT88" s="11"/>
+      <c r="CS88" s="29">
+        <v>116.24119531118899</v>
+      </c>
+      <c r="CT88" s="29">
+        <v>116.99280012202308</v>
+      </c>
       <c r="CU88" s="11"/>
       <c r="CV88" s="11"/>
       <c r="CW88" s="11"/>
@@ -33071,11 +33150,11 @@
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
-      <c r="CP89" s="11"/>
-      <c r="CQ89" s="11"/>
-      <c r="CR89" s="11"/>
-      <c r="CS89" s="11"/>
-      <c r="CT89" s="11"/>
+      <c r="CP89" s="25"/>
+      <c r="CQ89" s="25"/>
+      <c r="CR89" s="25"/>
+      <c r="CS89" s="25"/>
+      <c r="CT89" s="25"/>
       <c r="CU89" s="11"/>
       <c r="CV89" s="11"/>
       <c r="CW89" s="11"/>
@@ -33399,30 +33478,32 @@
         <v>108.77149344246504</v>
       </c>
       <c r="CL90" s="12">
-        <v>110.615986997851</v>
+        <v>110.61244425273422</v>
       </c>
       <c r="CM90" s="12">
-        <v>111.13117104856822</v>
+        <v>111.136188380184</v>
       </c>
       <c r="CN90" s="12">
-        <v>112.70569108396786</v>
+        <v>112.70875725798729</v>
       </c>
       <c r="CO90" s="12">
-        <v>115.4874598697082</v>
-      </c>
-      <c r="CP90" s="12">
-        <v>118.52898069597239</v>
-      </c>
-      <c r="CQ90" s="12">
-        <v>118.00757317352716</v>
-      </c>
-      <c r="CR90" s="12">
-        <v>118.06730374330014</v>
-      </c>
-      <c r="CS90" s="12">
-        <v>120.81660421151288</v>
-      </c>
-      <c r="CT90" s="11"/>
+        <v>115.45140051071859</v>
+      </c>
+      <c r="CP90" s="29">
+        <v>118.51874526443609</v>
+      </c>
+      <c r="CQ90" s="29">
+        <v>118.02168171165046</v>
+      </c>
+      <c r="CR90" s="29">
+        <v>118.07076202349913</v>
+      </c>
+      <c r="CS90" s="29">
+        <v>120.85117841344757</v>
+      </c>
+      <c r="CT90" s="29">
+        <v>122.68403604161475</v>
+      </c>
       <c r="CU90" s="11"/>
       <c r="CV90" s="11"/>
       <c r="CW90" s="11"/>
@@ -33571,10 +33652,11 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
-      <c r="CR91" s="9"/>
-      <c r="CS91" s="9"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
+      <c r="CT91" s="27"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33593,7 +33675,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33603,7 +33685,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -33613,150 +33695,153 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="23">
+      <c r="B103" s="30">
         <v>2000</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="23">
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="30">
         <v>2001</v>
       </c>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="23">
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="30">
         <v>2002</v>
       </c>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="23">
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="30">
         <v>2003</v>
       </c>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="23">
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="31"/>
+      <c r="R103" s="30">
         <v>2004</v>
       </c>
-      <c r="S103" s="24"/>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
-      <c r="V103" s="23">
+      <c r="S103" s="31"/>
+      <c r="T103" s="31"/>
+      <c r="U103" s="31"/>
+      <c r="V103" s="30">
         <v>2005</v>
       </c>
-      <c r="W103" s="24"/>
-      <c r="X103" s="24"/>
-      <c r="Y103" s="24"/>
-      <c r="Z103" s="23">
+      <c r="W103" s="31"/>
+      <c r="X103" s="31"/>
+      <c r="Y103" s="31"/>
+      <c r="Z103" s="30">
         <v>2006</v>
       </c>
-      <c r="AA103" s="24"/>
-      <c r="AB103" s="24"/>
-      <c r="AC103" s="24"/>
-      <c r="AD103" s="23">
+      <c r="AA103" s="31"/>
+      <c r="AB103" s="31"/>
+      <c r="AC103" s="31"/>
+      <c r="AD103" s="30">
         <v>2007</v>
       </c>
-      <c r="AE103" s="24"/>
-      <c r="AF103" s="24"/>
-      <c r="AG103" s="24"/>
-      <c r="AH103" s="23">
+      <c r="AE103" s="31"/>
+      <c r="AF103" s="31"/>
+      <c r="AG103" s="31"/>
+      <c r="AH103" s="30">
         <v>2008</v>
       </c>
-      <c r="AI103" s="24"/>
-      <c r="AJ103" s="24"/>
-      <c r="AK103" s="24"/>
-      <c r="AL103" s="23">
+      <c r="AI103" s="31"/>
+      <c r="AJ103" s="31"/>
+      <c r="AK103" s="31"/>
+      <c r="AL103" s="30">
         <v>2009</v>
       </c>
-      <c r="AM103" s="24"/>
-      <c r="AN103" s="24"/>
-      <c r="AO103" s="24"/>
-      <c r="AP103" s="23">
+      <c r="AM103" s="31"/>
+      <c r="AN103" s="31"/>
+      <c r="AO103" s="31"/>
+      <c r="AP103" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="24"/>
-      <c r="AR103" s="24"/>
-      <c r="AS103" s="24"/>
-      <c r="AT103" s="23">
+      <c r="AQ103" s="31"/>
+      <c r="AR103" s="31"/>
+      <c r="AS103" s="31"/>
+      <c r="AT103" s="30">
         <v>2011</v>
       </c>
-      <c r="AU103" s="24"/>
-      <c r="AV103" s="24"/>
-      <c r="AW103" s="24"/>
-      <c r="AX103" s="23">
+      <c r="AU103" s="31"/>
+      <c r="AV103" s="31"/>
+      <c r="AW103" s="31"/>
+      <c r="AX103" s="30">
         <v>2012</v>
       </c>
-      <c r="AY103" s="24"/>
-      <c r="AZ103" s="24"/>
-      <c r="BA103" s="24"/>
-      <c r="BB103" s="23">
+      <c r="AY103" s="31"/>
+      <c r="AZ103" s="31"/>
+      <c r="BA103" s="31"/>
+      <c r="BB103" s="30">
         <v>2013</v>
       </c>
-      <c r="BC103" s="24"/>
-      <c r="BD103" s="24"/>
-      <c r="BE103" s="24"/>
-      <c r="BF103" s="23">
+      <c r="BC103" s="31"/>
+      <c r="BD103" s="31"/>
+      <c r="BE103" s="31"/>
+      <c r="BF103" s="30">
         <v>2014</v>
       </c>
-      <c r="BG103" s="24"/>
-      <c r="BH103" s="24"/>
-      <c r="BI103" s="24"/>
-      <c r="BJ103" s="23">
+      <c r="BG103" s="31"/>
+      <c r="BH103" s="31"/>
+      <c r="BI103" s="31"/>
+      <c r="BJ103" s="30">
         <v>2015</v>
       </c>
-      <c r="BK103" s="24"/>
-      <c r="BL103" s="24"/>
-      <c r="BM103" s="24"/>
-      <c r="BN103" s="23">
+      <c r="BK103" s="31"/>
+      <c r="BL103" s="31"/>
+      <c r="BM103" s="31"/>
+      <c r="BN103" s="30">
         <v>2016</v>
       </c>
-      <c r="BO103" s="24"/>
-      <c r="BP103" s="24"/>
-      <c r="BQ103" s="24"/>
-      <c r="BR103" s="23">
+      <c r="BO103" s="31"/>
+      <c r="BP103" s="31"/>
+      <c r="BQ103" s="31"/>
+      <c r="BR103" s="30">
         <v>2017</v>
       </c>
-      <c r="BS103" s="24"/>
-      <c r="BT103" s="24"/>
-      <c r="BU103" s="24"/>
-      <c r="BV103" s="23">
+      <c r="BS103" s="31"/>
+      <c r="BT103" s="31"/>
+      <c r="BU103" s="31"/>
+      <c r="BV103" s="30">
         <v>2018</v>
       </c>
-      <c r="BW103" s="24"/>
-      <c r="BX103" s="24"/>
-      <c r="BY103" s="24"/>
-      <c r="BZ103" s="23">
+      <c r="BW103" s="31"/>
+      <c r="BX103" s="31"/>
+      <c r="BY103" s="31"/>
+      <c r="BZ103" s="30">
         <v>2019</v>
       </c>
-      <c r="CA103" s="24"/>
-      <c r="CB103" s="24"/>
-      <c r="CC103" s="24"/>
-      <c r="CD103" s="23">
+      <c r="CA103" s="31"/>
+      <c r="CB103" s="31"/>
+      <c r="CC103" s="31"/>
+      <c r="CD103" s="30">
         <v>2020</v>
       </c>
-      <c r="CE103" s="23"/>
-      <c r="CF103" s="23"/>
-      <c r="CG103" s="23"/>
-      <c r="CH103" s="23">
+      <c r="CE103" s="30"/>
+      <c r="CF103" s="30"/>
+      <c r="CG103" s="30"/>
+      <c r="CH103" s="19">
         <v>2021</v>
       </c>
-      <c r="CI103" s="23"/>
-      <c r="CJ103" s="23"/>
-      <c r="CK103" s="23"/>
-      <c r="CL103" s="22">
+      <c r="CI103" s="19"/>
+      <c r="CJ103" s="19"/>
+      <c r="CK103" s="19"/>
+      <c r="CL103" s="19">
         <v>2022</v>
       </c>
-      <c r="CM103" s="22"/>
-      <c r="CN103" s="22"/>
-      <c r="CO103" s="22"/>
+      <c r="CM103" s="19"/>
+      <c r="CN103" s="19"/>
+      <c r="CO103" s="19"/>
       <c r="CP103" s="22">
         <v>2023</v>
       </c>
       <c r="CQ103" s="22"/>
       <c r="CR103" s="22"/>
       <c r="CS103" s="22"/>
+      <c r="CT103" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -34038,17 +34123,20 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="6" t="s">
+      <c r="CR104" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="6" t="s">
+      <c r="CS104" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT104" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34323,30 +34411,32 @@
         <v>48.116779622255635</v>
       </c>
       <c r="CL106" s="12">
-        <v>48.217030867477916</v>
+        <v>48.158983750772819</v>
       </c>
       <c r="CM106" s="12">
-        <v>47.835672230297952</v>
+        <v>47.923108665829965</v>
       </c>
       <c r="CN106" s="12">
-        <v>50.479649080751585</v>
+        <v>50.560769105460537</v>
       </c>
       <c r="CO106" s="12">
-        <v>51.839564398213156</v>
-      </c>
-      <c r="CP106" s="12">
-        <v>49.678789974708195</v>
-      </c>
-      <c r="CQ106" s="12">
-        <v>48.420019265352906</v>
-      </c>
-      <c r="CR106" s="12">
-        <v>51.502949249777529</v>
-      </c>
-      <c r="CS106" s="12">
-        <v>52.84699515143614</v>
-      </c>
-      <c r="CT106" s="11"/>
+        <v>51.370495756025427</v>
+      </c>
+      <c r="CP106" s="29">
+        <v>49.584733950522512</v>
+      </c>
+      <c r="CQ106" s="29">
+        <v>48.621286002386704</v>
+      </c>
+      <c r="CR106" s="29">
+        <v>51.589056314993812</v>
+      </c>
+      <c r="CS106" s="29">
+        <v>53.136994937690439</v>
+      </c>
+      <c r="CT106" s="29">
+        <v>50.653703584909529</v>
+      </c>
       <c r="CU106" s="11"/>
       <c r="CV106" s="11"/>
       <c r="CW106" s="11"/>
@@ -34670,30 +34760,32 @@
         <v>51.883220377744365</v>
       </c>
       <c r="CL107" s="12">
-        <v>51.782969132522069</v>
+        <v>51.841016249227181</v>
       </c>
       <c r="CM107" s="12">
-        <v>52.164327769702055</v>
+        <v>52.07689133417005</v>
       </c>
       <c r="CN107" s="12">
-        <v>49.520350919248429</v>
+        <v>49.43923089453947</v>
       </c>
       <c r="CO107" s="12">
-        <v>48.16043560178683</v>
-      </c>
-      <c r="CP107" s="12">
-        <v>50.321210025291805</v>
-      </c>
-      <c r="CQ107" s="12">
-        <v>51.579980734647101</v>
-      </c>
-      <c r="CR107" s="12">
-        <v>48.497050750222463</v>
-      </c>
-      <c r="CS107" s="12">
-        <v>47.153004848563853</v>
-      </c>
-      <c r="CT107" s="11"/>
+        <v>48.629504243974587</v>
+      </c>
+      <c r="CP107" s="29">
+        <v>50.415266049477495</v>
+      </c>
+      <c r="CQ107" s="29">
+        <v>51.378713997613303</v>
+      </c>
+      <c r="CR107" s="29">
+        <v>48.410943685006188</v>
+      </c>
+      <c r="CS107" s="29">
+        <v>46.863005062309568</v>
+      </c>
+      <c r="CT107" s="29">
+        <v>49.346296415090485</v>
+      </c>
       <c r="CU107" s="11"/>
       <c r="CV107" s="11"/>
       <c r="CW107" s="11"/>
@@ -34841,11 +34933,11 @@
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
-      <c r="CP108" s="11"/>
-      <c r="CQ108" s="11"/>
-      <c r="CR108" s="11"/>
-      <c r="CS108" s="11"/>
-      <c r="CT108" s="11"/>
+      <c r="CP108" s="25"/>
+      <c r="CQ108" s="25"/>
+      <c r="CR108" s="25"/>
+      <c r="CS108" s="25"/>
+      <c r="CT108" s="25"/>
       <c r="CU108" s="11"/>
       <c r="CV108" s="11"/>
       <c r="CW108" s="11"/>
@@ -35180,19 +35272,21 @@
       <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="12">
+      <c r="CP109" s="29">
         <v>100</v>
       </c>
-      <c r="CQ109" s="12">
+      <c r="CQ109" s="29">
         <v>100</v>
       </c>
-      <c r="CR109" s="12">
+      <c r="CR109" s="29">
         <v>100</v>
       </c>
-      <c r="CS109" s="12">
+      <c r="CS109" s="29">
         <v>100</v>
       </c>
-      <c r="CT109" s="11"/>
+      <c r="CT109" s="29">
+        <v>100</v>
+      </c>
       <c r="CU109" s="11"/>
       <c r="CV109" s="11"/>
       <c r="CW109" s="11"/>
@@ -35341,10 +35435,11 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
-      <c r="CR110" s="9"/>
-      <c r="CS110" s="9"/>
+      <c r="CP110" s="27"/>
+      <c r="CQ110" s="27"/>
+      <c r="CR110" s="27"/>
+      <c r="CS110" s="27"/>
+      <c r="CT110" s="27"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35444,11 +35539,11 @@
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
-      <c r="CP112" s="11"/>
-      <c r="CQ112" s="11"/>
-      <c r="CR112" s="11"/>
-      <c r="CS112" s="11"/>
-      <c r="CT112" s="11"/>
+      <c r="CP112" s="25"/>
+      <c r="CQ112" s="25"/>
+      <c r="CR112" s="25"/>
+      <c r="CS112" s="25"/>
+      <c r="CT112" s="25"/>
       <c r="CU112" s="11"/>
       <c r="CV112" s="11"/>
       <c r="CW112" s="11"/>
@@ -35596,11 +35691,11 @@
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
-      <c r="CP113" s="11"/>
-      <c r="CQ113" s="11"/>
-      <c r="CR113" s="11"/>
-      <c r="CS113" s="11"/>
-      <c r="CT113" s="11"/>
+      <c r="CP113" s="25"/>
+      <c r="CQ113" s="25"/>
+      <c r="CR113" s="25"/>
+      <c r="CS113" s="25"/>
+      <c r="CT113" s="25"/>
       <c r="CU113" s="11"/>
       <c r="CV113" s="11"/>
       <c r="CW113" s="11"/>
@@ -35667,7 +35762,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -35677,7 +35772,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -35687,150 +35782,153 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="23">
+      <c r="B122" s="30">
         <v>2000</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="23">
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="30">
         <v>2001</v>
       </c>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="23">
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="30">
         <v>2002</v>
       </c>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="23">
+      <c r="K122" s="31"/>
+      <c r="L122" s="31"/>
+      <c r="M122" s="31"/>
+      <c r="N122" s="30">
         <v>2003</v>
       </c>
-      <c r="O122" s="24"/>
-      <c r="P122" s="24"/>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="23">
+      <c r="O122" s="31"/>
+      <c r="P122" s="31"/>
+      <c r="Q122" s="31"/>
+      <c r="R122" s="30">
         <v>2004</v>
       </c>
-      <c r="S122" s="24"/>
-      <c r="T122" s="24"/>
-      <c r="U122" s="24"/>
-      <c r="V122" s="23">
+      <c r="S122" s="31"/>
+      <c r="T122" s="31"/>
+      <c r="U122" s="31"/>
+      <c r="V122" s="30">
         <v>2005</v>
       </c>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-      <c r="Z122" s="23">
+      <c r="W122" s="31"/>
+      <c r="X122" s="31"/>
+      <c r="Y122" s="31"/>
+      <c r="Z122" s="30">
         <v>2006</v>
       </c>
-      <c r="AA122" s="24"/>
-      <c r="AB122" s="24"/>
-      <c r="AC122" s="24"/>
-      <c r="AD122" s="23">
+      <c r="AA122" s="31"/>
+      <c r="AB122" s="31"/>
+      <c r="AC122" s="31"/>
+      <c r="AD122" s="30">
         <v>2007</v>
       </c>
-      <c r="AE122" s="24"/>
-      <c r="AF122" s="24"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="23">
+      <c r="AE122" s="31"/>
+      <c r="AF122" s="31"/>
+      <c r="AG122" s="31"/>
+      <c r="AH122" s="30">
         <v>2008</v>
       </c>
-      <c r="AI122" s="24"/>
-      <c r="AJ122" s="24"/>
-      <c r="AK122" s="24"/>
-      <c r="AL122" s="23">
+      <c r="AI122" s="31"/>
+      <c r="AJ122" s="31"/>
+      <c r="AK122" s="31"/>
+      <c r="AL122" s="30">
         <v>2009</v>
       </c>
-      <c r="AM122" s="24"/>
-      <c r="AN122" s="24"/>
-      <c r="AO122" s="24"/>
-      <c r="AP122" s="23">
+      <c r="AM122" s="31"/>
+      <c r="AN122" s="31"/>
+      <c r="AO122" s="31"/>
+      <c r="AP122" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="24"/>
-      <c r="AR122" s="24"/>
-      <c r="AS122" s="24"/>
-      <c r="AT122" s="23">
+      <c r="AQ122" s="31"/>
+      <c r="AR122" s="31"/>
+      <c r="AS122" s="31"/>
+      <c r="AT122" s="30">
         <v>2011</v>
       </c>
-      <c r="AU122" s="24"/>
-      <c r="AV122" s="24"/>
-      <c r="AW122" s="24"/>
-      <c r="AX122" s="23">
+      <c r="AU122" s="31"/>
+      <c r="AV122" s="31"/>
+      <c r="AW122" s="31"/>
+      <c r="AX122" s="30">
         <v>2012</v>
       </c>
-      <c r="AY122" s="24"/>
-      <c r="AZ122" s="24"/>
-      <c r="BA122" s="24"/>
-      <c r="BB122" s="23">
+      <c r="AY122" s="31"/>
+      <c r="AZ122" s="31"/>
+      <c r="BA122" s="31"/>
+      <c r="BB122" s="30">
         <v>2013</v>
       </c>
-      <c r="BC122" s="24"/>
-      <c r="BD122" s="24"/>
-      <c r="BE122" s="24"/>
-      <c r="BF122" s="23">
+      <c r="BC122" s="31"/>
+      <c r="BD122" s="31"/>
+      <c r="BE122" s="31"/>
+      <c r="BF122" s="30">
         <v>2014</v>
       </c>
-      <c r="BG122" s="24"/>
-      <c r="BH122" s="24"/>
-      <c r="BI122" s="24"/>
-      <c r="BJ122" s="23">
+      <c r="BG122" s="31"/>
+      <c r="BH122" s="31"/>
+      <c r="BI122" s="31"/>
+      <c r="BJ122" s="30">
         <v>2015</v>
       </c>
-      <c r="BK122" s="24"/>
-      <c r="BL122" s="24"/>
-      <c r="BM122" s="24"/>
-      <c r="BN122" s="23">
+      <c r="BK122" s="31"/>
+      <c r="BL122" s="31"/>
+      <c r="BM122" s="31"/>
+      <c r="BN122" s="30">
         <v>2016</v>
       </c>
-      <c r="BO122" s="24"/>
-      <c r="BP122" s="24"/>
-      <c r="BQ122" s="24"/>
-      <c r="BR122" s="23">
+      <c r="BO122" s="31"/>
+      <c r="BP122" s="31"/>
+      <c r="BQ122" s="31"/>
+      <c r="BR122" s="30">
         <v>2017</v>
       </c>
-      <c r="BS122" s="24"/>
-      <c r="BT122" s="24"/>
-      <c r="BU122" s="24"/>
-      <c r="BV122" s="23">
+      <c r="BS122" s="31"/>
+      <c r="BT122" s="31"/>
+      <c r="BU122" s="31"/>
+      <c r="BV122" s="30">
         <v>2018</v>
       </c>
-      <c r="BW122" s="24"/>
-      <c r="BX122" s="24"/>
-      <c r="BY122" s="24"/>
-      <c r="BZ122" s="23">
+      <c r="BW122" s="31"/>
+      <c r="BX122" s="31"/>
+      <c r="BY122" s="31"/>
+      <c r="BZ122" s="30">
         <v>2019</v>
       </c>
-      <c r="CA122" s="24"/>
-      <c r="CB122" s="24"/>
-      <c r="CC122" s="24"/>
-      <c r="CD122" s="23">
+      <c r="CA122" s="31"/>
+      <c r="CB122" s="31"/>
+      <c r="CC122" s="31"/>
+      <c r="CD122" s="30">
         <v>2020</v>
       </c>
-      <c r="CE122" s="23"/>
-      <c r="CF122" s="23"/>
-      <c r="CG122" s="23"/>
-      <c r="CH122" s="23">
+      <c r="CE122" s="30"/>
+      <c r="CF122" s="30"/>
+      <c r="CG122" s="30"/>
+      <c r="CH122" s="19">
         <v>2021</v>
       </c>
-      <c r="CI122" s="23"/>
-      <c r="CJ122" s="23"/>
-      <c r="CK122" s="23"/>
-      <c r="CL122" s="22">
+      <c r="CI122" s="19"/>
+      <c r="CJ122" s="19"/>
+      <c r="CK122" s="19"/>
+      <c r="CL122" s="19">
         <v>2022</v>
       </c>
-      <c r="CM122" s="22"/>
-      <c r="CN122" s="22"/>
-      <c r="CO122" s="22"/>
+      <c r="CM122" s="19"/>
+      <c r="CN122" s="19"/>
+      <c r="CO122" s="19"/>
       <c r="CP122" s="22">
         <v>2023</v>
       </c>
       <c r="CQ122" s="22"/>
       <c r="CR122" s="22"/>
       <c r="CS122" s="22"/>
+      <c r="CT122" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -36112,17 +36210,20 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="6" t="s">
+      <c r="CR123" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="6" t="s">
+      <c r="CS123" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT123" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36397,30 +36498,32 @@
         <v>47.55496998410382</v>
       </c>
       <c r="CL125" s="12">
-        <v>46.839368870727256</v>
+        <v>46.781481943903444</v>
       </c>
       <c r="CM125" s="12">
-        <v>46.547273285869586</v>
+        <v>46.634460071126185</v>
       </c>
       <c r="CN125" s="12">
-        <v>49.641326615114274</v>
+        <v>49.722452137865453</v>
       </c>
       <c r="CO125" s="12">
-        <v>50.177169697732225</v>
-      </c>
-      <c r="CP125" s="12">
-        <v>47.383410041556388</v>
-      </c>
-      <c r="CQ125" s="12">
-        <v>46.936632687592812</v>
-      </c>
-      <c r="CR125" s="12">
-        <v>50.653325875013088</v>
-      </c>
-      <c r="CS125" s="12">
-        <v>50.985011139327185</v>
-      </c>
-      <c r="CT125" s="11"/>
+        <v>49.707617818453151</v>
+      </c>
+      <c r="CP125" s="29">
+        <v>47.289615829751227</v>
+      </c>
+      <c r="CQ125" s="29">
+        <v>47.137368346223553</v>
+      </c>
+      <c r="CR125" s="29">
+        <v>50.739498621291602</v>
+      </c>
+      <c r="CS125" s="29">
+        <v>51.278465688400189</v>
+      </c>
+      <c r="CT125" s="29">
+        <v>48.253201892809969</v>
+      </c>
       <c r="CU125" s="11"/>
       <c r="CV125" s="11"/>
       <c r="CW125" s="11"/>
@@ -36744,30 +36847,32 @@
         <v>52.445030015896165</v>
       </c>
       <c r="CL126" s="12">
-        <v>53.160631129272737</v>
+        <v>53.218518056096556</v>
       </c>
       <c r="CM126" s="12">
-        <v>53.452726714130414</v>
+        <v>53.365539928873794</v>
       </c>
       <c r="CN126" s="12">
-        <v>50.358673384885734</v>
+        <v>50.277547862134554</v>
       </c>
       <c r="CO126" s="12">
-        <v>49.822830302267775</v>
-      </c>
-      <c r="CP126" s="12">
-        <v>52.616589958443619</v>
-      </c>
-      <c r="CQ126" s="12">
-        <v>53.063367312407181</v>
-      </c>
-      <c r="CR126" s="12">
-        <v>49.346674124986919</v>
-      </c>
-      <c r="CS126" s="12">
-        <v>49.014988860672808</v>
-      </c>
-      <c r="CT126" s="11"/>
+        <v>50.292382181546856</v>
+      </c>
+      <c r="CP126" s="29">
+        <v>52.710384170248773</v>
+      </c>
+      <c r="CQ126" s="29">
+        <v>52.86263165377644</v>
+      </c>
+      <c r="CR126" s="29">
+        <v>49.260501378708391</v>
+      </c>
+      <c r="CS126" s="29">
+        <v>48.721534311599804</v>
+      </c>
+      <c r="CT126" s="29">
+        <v>51.746798107190031</v>
+      </c>
       <c r="CU126" s="11"/>
       <c r="CV126" s="11"/>
       <c r="CW126" s="11"/>
@@ -36915,11 +37020,11 @@
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
-      <c r="CP127" s="11"/>
-      <c r="CQ127" s="11"/>
-      <c r="CR127" s="11"/>
-      <c r="CS127" s="11"/>
-      <c r="CT127" s="11"/>
+      <c r="CP127" s="25"/>
+      <c r="CQ127" s="25"/>
+      <c r="CR127" s="25"/>
+      <c r="CS127" s="25"/>
+      <c r="CT127" s="25"/>
       <c r="CU127" s="11"/>
       <c r="CV127" s="11"/>
       <c r="CW127" s="11"/>
@@ -37254,19 +37359,21 @@
       <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="12">
+      <c r="CP128" s="29">
         <v>100</v>
       </c>
-      <c r="CQ128" s="12">
+      <c r="CQ128" s="29">
         <v>100</v>
       </c>
-      <c r="CR128" s="12">
+      <c r="CR128" s="29">
         <v>100</v>
       </c>
-      <c r="CS128" s="12">
+      <c r="CS128" s="29">
         <v>100</v>
       </c>
-      <c r="CT128" s="11"/>
+      <c r="CT128" s="29">
+        <v>100</v>
+      </c>
       <c r="CU128" s="11"/>
       <c r="CV128" s="11"/>
       <c r="CW128" s="11"/>
@@ -37415,10 +37522,11 @@
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
-      <c r="CP129" s="9"/>
-      <c r="CQ129" s="9"/>
-      <c r="CR129" s="9"/>
-      <c r="CS129" s="9"/>
+      <c r="CP129" s="27"/>
+      <c r="CQ129" s="27"/>
+      <c r="CR129" s="27"/>
+      <c r="CS129" s="27"/>
+      <c r="CT129" s="27"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37519,11 +37627,11 @@
       <c r="CM131" s="3"/>
       <c r="CN131" s="3"/>
       <c r="CO131" s="3"/>
-      <c r="CP131" s="3"/>
-      <c r="CQ131" s="3"/>
-      <c r="CR131" s="3"/>
-      <c r="CS131" s="3"/>
-      <c r="CT131" s="13"/>
+      <c r="CP131" s="21"/>
+      <c r="CQ131" s="21"/>
+      <c r="CR131" s="21"/>
+      <c r="CS131" s="21"/>
+      <c r="CT131" s="21"/>
       <c r="CU131" s="13"/>
       <c r="CV131" s="13"/>
       <c r="CW131" s="13"/>
@@ -37672,11 +37780,11 @@
       <c r="CM132" s="3"/>
       <c r="CN132" s="3"/>
       <c r="CO132" s="3"/>
-      <c r="CP132" s="3"/>
-      <c r="CQ132" s="3"/>
-      <c r="CR132" s="3"/>
-      <c r="CS132" s="3"/>
-      <c r="CT132" s="13"/>
+      <c r="CP132" s="21"/>
+      <c r="CQ132" s="21"/>
+      <c r="CR132" s="21"/>
+      <c r="CS132" s="21"/>
+      <c r="CT132" s="21"/>
       <c r="CU132" s="13"/>
       <c r="CV132" s="13"/>
       <c r="CW132" s="13"/>
@@ -37732,27 +37840,9 @@
       <c r="EU132" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
+  <mergeCells count="147">
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
     <mergeCell ref="AT122:AW122"/>
@@ -37764,6 +37854,10 @@
     <mergeCell ref="BN122:BQ122"/>
     <mergeCell ref="BJ103:BM103"/>
     <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
     <mergeCell ref="V66:Y66"/>
     <mergeCell ref="Z66:AC66"/>
     <mergeCell ref="AD66:AG66"/>
@@ -37775,6 +37869,13 @@
     <mergeCell ref="BN66:BQ66"/>
     <mergeCell ref="AD84:AG84"/>
     <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -37893,9 +37994,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="96" man="1"/>
-    <brk id="76" max="96" man="1"/>
-    <brk id="94" max="96" man="1"/>
+    <brk id="38" max="97" man="1"/>
+    <brk id="76" max="97" man="1"/>
+    <brk id="94" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DB344-F077-41B1-9BAA-81EEE84080BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60959F3C-270C-4366-B153-1D020328DDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CT$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CU$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,24 +747,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23637,15 +23622,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="DI15" sqref="DI15"/>
+      <selection pane="topRight" activeCell="CP4" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="93" width="8.33203125" style="3" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="21" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="3"/>
+    <col min="94" max="99" width="9.44140625" style="3" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23660,7 +23645,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23670,7 +23655,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23680,132 +23665,132 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23818,15 +23803,16 @@
       <c r="CM9" s="19"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="19"/>
-      <c r="CP9" s="22">
+      <c r="CP9" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="22"/>
-      <c r="CS9" s="22"/>
-      <c r="CT9" s="22">
+      <c r="CQ9" s="19"/>
+      <c r="CR9" s="19"/>
+      <c r="CS9" s="19"/>
+      <c r="CT9" s="19">
         <v>2024</v>
       </c>
+      <c r="CU9" s="19"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24108,20 +24094,23 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="23" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="23" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="23" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="23" t="s">
+      <c r="CS10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="23" t="s">
+      <c r="CT10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24407,22 +24396,24 @@
       <c r="CO12" s="15">
         <v>167359.66211914457</v>
       </c>
-      <c r="CP12" s="24">
+      <c r="CP12" s="15">
         <v>162733.41338826407</v>
       </c>
-      <c r="CQ12" s="24">
+      <c r="CQ12" s="15">
         <v>159816.52743620294</v>
       </c>
-      <c r="CR12" s="24">
+      <c r="CR12" s="15">
         <v>182366.00154739365</v>
       </c>
-      <c r="CS12" s="24">
+      <c r="CS12" s="15">
         <v>191169.57992403524</v>
       </c>
-      <c r="CT12" s="24">
-        <v>179195.0213863246</v>
-      </c>
-      <c r="CU12" s="11"/>
+      <c r="CT12" s="15">
+        <v>180409.48814543907</v>
+      </c>
+      <c r="CU12" s="15">
+        <v>188107.57872917742</v>
+      </c>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
       <c r="CX12" s="11"/>
@@ -24756,22 +24747,24 @@
       <c r="CO13" s="15">
         <v>158429.80059888729</v>
       </c>
-      <c r="CP13" s="24">
+      <c r="CP13" s="15">
         <v>165459.15804036456</v>
       </c>
-      <c r="CQ13" s="24">
+      <c r="CQ13" s="15">
         <v>168880.10026788112</v>
       </c>
-      <c r="CR13" s="24">
+      <c r="CR13" s="15">
         <v>171131.454257765</v>
       </c>
-      <c r="CS13" s="24">
+      <c r="CS13" s="15">
         <v>168597.81028725675</v>
       </c>
-      <c r="CT13" s="24">
+      <c r="CT13" s="15">
         <v>174569.87378258348</v>
       </c>
-      <c r="CU13" s="11"/>
+      <c r="CU13" s="15">
+        <v>177594.22315016587</v>
+      </c>
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
@@ -24918,11 +24911,11 @@
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
-      <c r="CP14" s="25"/>
-      <c r="CQ14" s="25"/>
-      <c r="CR14" s="25"/>
-      <c r="CS14" s="25"/>
-      <c r="CT14" s="25"/>
+      <c r="CP14" s="11"/>
+      <c r="CQ14" s="11"/>
+      <c r="CR14" s="11"/>
+      <c r="CS14" s="11"/>
+      <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
@@ -25257,22 +25250,24 @@
       <c r="CO15" s="16">
         <v>325789.46271803183</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="16">
         <v>328192.57142862864</v>
       </c>
-      <c r="CQ15" s="26">
+      <c r="CQ15" s="16">
         <v>328696.62770408404</v>
       </c>
-      <c r="CR15" s="26">
+      <c r="CR15" s="16">
         <v>353497.45580515865</v>
       </c>
-      <c r="CS15" s="26">
+      <c r="CS15" s="16">
         <v>359767.39021129196</v>
       </c>
-      <c r="CT15" s="26">
-        <v>353764.89516890806</v>
-      </c>
-      <c r="CU15" s="11"/>
+      <c r="CT15" s="16">
+        <v>354979.36192802258</v>
+      </c>
+      <c r="CU15" s="16">
+        <v>365701.80187934329</v>
+      </c>
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
@@ -25420,11 +25415,12 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="27"/>
-      <c r="CQ16" s="27"/>
-      <c r="CR16" s="27"/>
-      <c r="CS16" s="27"/>
-      <c r="CT16" s="27"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
+      <c r="CS16" s="9"/>
+      <c r="CT16" s="9"/>
+      <c r="CU16" s="9"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25524,11 +25520,11 @@
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
-      <c r="CP18" s="25"/>
-      <c r="CQ18" s="25"/>
-      <c r="CR18" s="25"/>
-      <c r="CS18" s="25"/>
-      <c r="CT18" s="25"/>
+      <c r="CP18" s="11"/>
+      <c r="CQ18" s="11"/>
+      <c r="CR18" s="11"/>
+      <c r="CS18" s="11"/>
+      <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
@@ -25676,11 +25672,11 @@
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
-      <c r="CP19" s="25"/>
-      <c r="CQ19" s="25"/>
-      <c r="CR19" s="25"/>
-      <c r="CS19" s="25"/>
-      <c r="CT19" s="25"/>
+      <c r="CP19" s="11"/>
+      <c r="CQ19" s="11"/>
+      <c r="CR19" s="11"/>
+      <c r="CS19" s="11"/>
+      <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
@@ -25747,7 +25743,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25757,7 +25753,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25767,132 +25763,132 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="30">
+      <c r="B28" s="21">
         <v>2000</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21">
         <v>2001</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="30">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21">
         <v>2002</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="30">
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21">
         <v>2003</v>
       </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="30">
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21">
         <v>2004</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="30">
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="21">
         <v>2005</v>
       </c>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="30">
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="21">
         <v>2006</v>
       </c>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="30">
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="21">
         <v>2007</v>
       </c>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="30">
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="21">
         <v>2008</v>
       </c>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="30">
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="21">
         <v>2009</v>
       </c>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="30">
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="30">
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="21">
         <v>2011</v>
       </c>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
-      <c r="AX28" s="30">
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="21">
         <v>2012</v>
       </c>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="30">
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="21">
         <v>2013</v>
       </c>
-      <c r="BC28" s="31"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="30">
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="21">
         <v>2014</v>
       </c>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="30">
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="21">
         <v>2015</v>
       </c>
-      <c r="BK28" s="31"/>
-      <c r="BL28" s="31"/>
-      <c r="BM28" s="31"/>
-      <c r="BN28" s="30">
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="21">
         <v>2016</v>
       </c>
-      <c r="BO28" s="31"/>
-      <c r="BP28" s="31"/>
-      <c r="BQ28" s="31"/>
-      <c r="BR28" s="30">
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="21">
         <v>2017</v>
       </c>
-      <c r="BS28" s="31"/>
-      <c r="BT28" s="31"/>
-      <c r="BU28" s="31"/>
-      <c r="BV28" s="30">
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
+      <c r="BV28" s="21">
         <v>2018</v>
       </c>
-      <c r="BW28" s="31"/>
-      <c r="BX28" s="31"/>
-      <c r="BY28" s="31"/>
-      <c r="BZ28" s="30">
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
+      <c r="BZ28" s="21">
         <v>2019</v>
       </c>
-      <c r="CA28" s="31"/>
-      <c r="CB28" s="31"/>
-      <c r="CC28" s="31"/>
-      <c r="CD28" s="30">
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
+      <c r="CD28" s="21">
         <v>2020</v>
       </c>
-      <c r="CE28" s="30"/>
-      <c r="CF28" s="30"/>
-      <c r="CG28" s="30"/>
+      <c r="CE28" s="21"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
       <c r="CH28" s="19">
         <v>2021</v>
       </c>
@@ -25905,15 +25901,16 @@
       <c r="CM28" s="19"/>
       <c r="CN28" s="19"/>
       <c r="CO28" s="19"/>
-      <c r="CP28" s="22">
+      <c r="CP28" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="22"/>
-      <c r="CR28" s="22"/>
-      <c r="CS28" s="22"/>
-      <c r="CT28" s="22">
+      <c r="CQ28" s="19"/>
+      <c r="CR28" s="19"/>
+      <c r="CS28" s="19"/>
+      <c r="CT28" s="19">
         <v>2024</v>
       </c>
+      <c r="CU28" s="19"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26195,20 +26192,23 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="23" t="s">
+      <c r="CP29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="23" t="s">
+      <c r="CQ29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="23" t="s">
+      <c r="CR29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="23" t="s">
+      <c r="CS29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="23" t="s">
+      <c r="CT29" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU29" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26494,22 +26494,24 @@
       <c r="CO31" s="15">
         <v>140268.70207229434</v>
       </c>
-      <c r="CP31" s="24">
+      <c r="CP31" s="15">
         <v>130950.59845942492</v>
       </c>
-      <c r="CQ31" s="24">
+      <c r="CQ31" s="15">
         <v>131280.0647266107</v>
       </c>
-      <c r="CR31" s="24">
+      <c r="CR31" s="15">
         <v>151911.30610206575</v>
       </c>
-      <c r="CS31" s="24">
+      <c r="CS31" s="15">
         <v>152653.2055123279</v>
       </c>
-      <c r="CT31" s="24">
-        <v>139140.26192767074</v>
-      </c>
-      <c r="CU31" s="11"/>
+      <c r="CT31" s="15">
+        <v>140083.26370114821</v>
+      </c>
+      <c r="CU31" s="15">
+        <v>147980.89404375706</v>
+      </c>
       <c r="CV31" s="11"/>
       <c r="CW31" s="11"/>
       <c r="CX31" s="11"/>
@@ -26843,22 +26845,24 @@
       <c r="CO32" s="15">
         <v>141918.83422163335</v>
       </c>
-      <c r="CP32" s="24">
+      <c r="CP32" s="15">
         <v>145961.35390420625</v>
       </c>
-      <c r="CQ32" s="24">
+      <c r="CQ32" s="15">
         <v>147225.22594290605</v>
       </c>
-      <c r="CR32" s="24">
+      <c r="CR32" s="15">
         <v>147483.26859781085</v>
       </c>
-      <c r="CS32" s="24">
+      <c r="CS32" s="15">
         <v>145041.3597657044</v>
       </c>
-      <c r="CT32" s="24">
+      <c r="CT32" s="15">
         <v>149214.20258384082</v>
       </c>
-      <c r="CU32" s="11"/>
+      <c r="CU32" s="15">
+        <v>150531.11215960496</v>
+      </c>
       <c r="CV32" s="11"/>
       <c r="CW32" s="11"/>
       <c r="CX32" s="11"/>
@@ -27005,11 +27009,11 @@
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
-      <c r="CP33" s="25"/>
-      <c r="CQ33" s="25"/>
-      <c r="CR33" s="25"/>
-      <c r="CS33" s="25"/>
-      <c r="CT33" s="25"/>
+      <c r="CP33" s="11"/>
+      <c r="CQ33" s="11"/>
+      <c r="CR33" s="11"/>
+      <c r="CS33" s="11"/>
+      <c r="CT33" s="11"/>
       <c r="CU33" s="11"/>
       <c r="CV33" s="11"/>
       <c r="CW33" s="11"/>
@@ -27344,22 +27348,24 @@
       <c r="CO34" s="16">
         <v>282187.5362939277</v>
       </c>
-      <c r="CP34" s="26">
+      <c r="CP34" s="16">
         <v>276911.95236363116</v>
       </c>
-      <c r="CQ34" s="26">
+      <c r="CQ34" s="16">
         <v>278505.29066951678</v>
       </c>
-      <c r="CR34" s="26">
+      <c r="CR34" s="16">
         <v>299394.5746998766</v>
       </c>
-      <c r="CS34" s="26">
+      <c r="CS34" s="16">
         <v>297694.56527803233</v>
       </c>
-      <c r="CT34" s="26">
-        <v>288354.46451151156</v>
-      </c>
-      <c r="CU34" s="11"/>
+      <c r="CT34" s="16">
+        <v>289297.46628498903</v>
+      </c>
+      <c r="CU34" s="16">
+        <v>298512.00620336202</v>
+      </c>
       <c r="CV34" s="11"/>
       <c r="CW34" s="11"/>
       <c r="CX34" s="11"/>
@@ -27507,11 +27513,12 @@
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
-      <c r="CP35" s="27"/>
-      <c r="CQ35" s="27"/>
-      <c r="CR35" s="27"/>
-      <c r="CS35" s="27"/>
-      <c r="CT35" s="27"/>
+      <c r="CP35" s="9"/>
+      <c r="CQ35" s="9"/>
+      <c r="CR35" s="9"/>
+      <c r="CS35" s="9"/>
+      <c r="CT35" s="9"/>
+      <c r="CU35" s="9"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27611,11 +27618,11 @@
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
-      <c r="CP37" s="25"/>
-      <c r="CQ37" s="25"/>
-      <c r="CR37" s="25"/>
-      <c r="CS37" s="25"/>
-      <c r="CT37" s="25"/>
+      <c r="CP37" s="11"/>
+      <c r="CQ37" s="11"/>
+      <c r="CR37" s="11"/>
+      <c r="CS37" s="11"/>
+      <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
@@ -27763,11 +27770,11 @@
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
-      <c r="CP38" s="25"/>
-      <c r="CQ38" s="25"/>
-      <c r="CR38" s="25"/>
-      <c r="CS38" s="25"/>
-      <c r="CT38" s="25"/>
+      <c r="CP38" s="11"/>
+      <c r="CQ38" s="11"/>
+      <c r="CR38" s="11"/>
+      <c r="CS38" s="11"/>
+      <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
@@ -27834,7 +27841,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
@@ -27844,7 +27851,7 @@
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
@@ -27854,132 +27861,132 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30" t="s">
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30" t="s">
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30" t="s">
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30" t="s">
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30" t="s">
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30" t="s">
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30" t="s">
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30" t="s">
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="30" t="s">
+      <c r="AQ47" s="21"/>
+      <c r="AR47" s="21"/>
+      <c r="AS47" s="21"/>
+      <c r="AT47" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="30"/>
-      <c r="AV47" s="30"/>
-      <c r="AW47" s="30"/>
-      <c r="AX47" s="30" t="s">
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="30"/>
-      <c r="AZ47" s="30"/>
-      <c r="BA47" s="30"/>
-      <c r="BB47" s="30" t="s">
+      <c r="AY47" s="21"/>
+      <c r="AZ47" s="21"/>
+      <c r="BA47" s="21"/>
+      <c r="BB47" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="30"/>
-      <c r="BD47" s="30"/>
-      <c r="BE47" s="30"/>
-      <c r="BF47" s="30" t="s">
+      <c r="BC47" s="21"/>
+      <c r="BD47" s="21"/>
+      <c r="BE47" s="21"/>
+      <c r="BF47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="30"/>
-      <c r="BH47" s="30"/>
-      <c r="BI47" s="30"/>
-      <c r="BJ47" s="30" t="s">
+      <c r="BG47" s="21"/>
+      <c r="BH47" s="21"/>
+      <c r="BI47" s="21"/>
+      <c r="BJ47" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="30"/>
-      <c r="BL47" s="30"/>
-      <c r="BM47" s="30"/>
-      <c r="BN47" s="30" t="s">
+      <c r="BK47" s="21"/>
+      <c r="BL47" s="21"/>
+      <c r="BM47" s="21"/>
+      <c r="BN47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="30"/>
-      <c r="BP47" s="30"/>
-      <c r="BQ47" s="30"/>
-      <c r="BR47" s="30" t="s">
+      <c r="BO47" s="21"/>
+      <c r="BP47" s="21"/>
+      <c r="BQ47" s="21"/>
+      <c r="BR47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="30"/>
-      <c r="BT47" s="30"/>
-      <c r="BU47" s="30"/>
-      <c r="BV47" s="30" t="s">
+      <c r="BS47" s="21"/>
+      <c r="BT47" s="21"/>
+      <c r="BU47" s="21"/>
+      <c r="BV47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="30"/>
-      <c r="BX47" s="30"/>
-      <c r="BY47" s="30"/>
-      <c r="BZ47" s="30" t="s">
+      <c r="BW47" s="21"/>
+      <c r="BX47" s="21"/>
+      <c r="BY47" s="21"/>
+      <c r="BZ47" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="30"/>
-      <c r="CB47" s="30"/>
-      <c r="CC47" s="30"/>
-      <c r="CD47" s="30" t="s">
+      <c r="CA47" s="21"/>
+      <c r="CB47" s="21"/>
+      <c r="CC47" s="21"/>
+      <c r="CD47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="30"/>
-      <c r="CF47" s="30"/>
-      <c r="CG47" s="30"/>
+      <c r="CE47" s="21"/>
+      <c r="CF47" s="21"/>
+      <c r="CG47" s="21"/>
       <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
@@ -27992,13 +27999,14 @@
       <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
-      <c r="CP47" s="22" t="s">
+      <c r="CP47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="20"/>
+      <c r="CQ47" s="19"/>
       <c r="CR47" s="20"/>
       <c r="CS47" s="20"/>
-      <c r="CT47" s="20"/>
+      <c r="CT47" s="19"/>
+      <c r="CU47" s="20"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28280,13 +28288,16 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="28" t="s">
+      <c r="CP48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="28"/>
-      <c r="CR48" s="28"/>
-      <c r="CS48" s="28"/>
-      <c r="CT48" s="28"/>
+      <c r="CQ48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR48" s="5"/>
+      <c r="CS48" s="5"/>
+      <c r="CT48" s="5"/>
+      <c r="CU48" s="5"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28571,14 +28582,16 @@
       <c r="CO50" s="12">
         <v>14.226796053125511</v>
       </c>
-      <c r="CP50" s="29">
-        <v>10.115690229384498</v>
-      </c>
-      <c r="CQ50" s="29"/>
-      <c r="CR50" s="29"/>
-      <c r="CS50" s="29"/>
-      <c r="CT50" s="29"/>
-      <c r="CU50" s="11"/>
+      <c r="CP50" s="12">
+        <v>10.861982422135895</v>
+      </c>
+      <c r="CQ50" s="12">
+        <v>17.702206240382722</v>
+      </c>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="12"/>
+      <c r="CT50" s="12"/>
+      <c r="CU50" s="12"/>
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
       <c r="CX50" s="11"/>
@@ -28908,14 +28921,16 @@
       <c r="CO51" s="12">
         <v>6.4179905863246205</v>
       </c>
-      <c r="CP51" s="29">
+      <c r="CP51" s="12">
         <v>5.5063230407568682</v>
       </c>
-      <c r="CQ51" s="29"/>
-      <c r="CR51" s="29"/>
-      <c r="CS51" s="29"/>
-      <c r="CT51" s="29"/>
-      <c r="CU51" s="11"/>
+      <c r="CQ51" s="12">
+        <v>5.1599465351229696</v>
+      </c>
+      <c r="CR51" s="12"/>
+      <c r="CS51" s="12"/>
+      <c r="CT51" s="12"/>
+      <c r="CU51" s="12"/>
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
       <c r="CX51" s="11"/>
@@ -29059,11 +29074,11 @@
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
-      <c r="CP52" s="25"/>
-      <c r="CQ52" s="25"/>
-      <c r="CR52" s="25"/>
-      <c r="CS52" s="25"/>
-      <c r="CT52" s="25"/>
+      <c r="CP52" s="11"/>
+      <c r="CQ52" s="11"/>
+      <c r="CR52" s="11"/>
+      <c r="CS52" s="11"/>
+      <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
@@ -29394,14 +29409,16 @@
       <c r="CO53" s="12">
         <v>10.429412667243867</v>
       </c>
-      <c r="CP53" s="29">
-        <v>7.7918654980405648</v>
-      </c>
-      <c r="CQ53" s="29"/>
-      <c r="CR53" s="29"/>
-      <c r="CS53" s="29"/>
-      <c r="CT53" s="29"/>
-      <c r="CU53" s="11"/>
+      <c r="CP53" s="12">
+        <v>8.161912496309867</v>
+      </c>
+      <c r="CQ53" s="12">
+        <v>11.258154497579426</v>
+      </c>
+      <c r="CR53" s="12"/>
+      <c r="CS53" s="12"/>
+      <c r="CT53" s="12"/>
+      <c r="CU53" s="12"/>
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
       <c r="CX53" s="11"/>
@@ -29545,11 +29562,12 @@
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
-      <c r="CP54" s="27"/>
-      <c r="CQ54" s="27"/>
-      <c r="CR54" s="27"/>
-      <c r="CS54" s="27"/>
-      <c r="CT54" s="27"/>
+      <c r="CP54" s="9"/>
+      <c r="CQ54" s="9"/>
+      <c r="CR54" s="9"/>
+      <c r="CS54" s="9"/>
+      <c r="CT54" s="9"/>
+      <c r="CU54" s="9"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -29649,11 +29667,11 @@
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
-      <c r="CP56" s="25"/>
-      <c r="CQ56" s="25"/>
-      <c r="CR56" s="25"/>
-      <c r="CS56" s="25"/>
-      <c r="CT56" s="25"/>
+      <c r="CP56" s="11"/>
+      <c r="CQ56" s="11"/>
+      <c r="CR56" s="11"/>
+      <c r="CS56" s="11"/>
+      <c r="CT56" s="11"/>
       <c r="CU56" s="11"/>
       <c r="CV56" s="11"/>
       <c r="CW56" s="11"/>
@@ -29797,11 +29815,11 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="25"/>
-      <c r="CQ57" s="25"/>
-      <c r="CR57" s="25"/>
-      <c r="CS57" s="25"/>
-      <c r="CT57" s="25"/>
+      <c r="CP57" s="11"/>
+      <c r="CQ57" s="11"/>
+      <c r="CR57" s="11"/>
+      <c r="CS57" s="11"/>
+      <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
       <c r="CV57" s="11"/>
       <c r="CW57" s="11"/>
@@ -29864,7 +29882,7 @@
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
@@ -29874,7 +29892,7 @@
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
@@ -29884,132 +29902,132 @@
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="30" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="30" t="s">
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="30" t="s">
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="30" t="s">
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="30" t="s">
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="30" t="s">
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="30" t="s">
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="30" t="s">
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="32"/>
-      <c r="AJ66" s="32"/>
-      <c r="AK66" s="32"/>
-      <c r="AL66" s="30" t="s">
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="32"/>
-      <c r="AN66" s="32"/>
-      <c r="AO66" s="32"/>
-      <c r="AP66" s="30" t="s">
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="23"/>
+      <c r="AO66" s="23"/>
+      <c r="AP66" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="32"/>
-      <c r="AR66" s="32"/>
-      <c r="AS66" s="32"/>
-      <c r="AT66" s="30" t="s">
+      <c r="AQ66" s="23"/>
+      <c r="AR66" s="23"/>
+      <c r="AS66" s="23"/>
+      <c r="AT66" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="32"/>
-      <c r="AV66" s="32"/>
-      <c r="AW66" s="32"/>
-      <c r="AX66" s="30" t="s">
+      <c r="AU66" s="23"/>
+      <c r="AV66" s="23"/>
+      <c r="AW66" s="23"/>
+      <c r="AX66" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="32"/>
-      <c r="AZ66" s="32"/>
-      <c r="BA66" s="32"/>
-      <c r="BB66" s="30" t="s">
+      <c r="AY66" s="23"/>
+      <c r="AZ66" s="23"/>
+      <c r="BA66" s="23"/>
+      <c r="BB66" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="32"/>
-      <c r="BD66" s="32"/>
-      <c r="BE66" s="32"/>
-      <c r="BF66" s="30" t="s">
+      <c r="BC66" s="23"/>
+      <c r="BD66" s="23"/>
+      <c r="BE66" s="23"/>
+      <c r="BF66" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="32"/>
-      <c r="BH66" s="32"/>
-      <c r="BI66" s="32"/>
-      <c r="BJ66" s="30" t="s">
+      <c r="BG66" s="23"/>
+      <c r="BH66" s="23"/>
+      <c r="BI66" s="23"/>
+      <c r="BJ66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="32"/>
-      <c r="BL66" s="32"/>
-      <c r="BM66" s="32"/>
-      <c r="BN66" s="30" t="s">
+      <c r="BK66" s="23"/>
+      <c r="BL66" s="23"/>
+      <c r="BM66" s="23"/>
+      <c r="BN66" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="32"/>
-      <c r="BP66" s="32"/>
-      <c r="BQ66" s="32"/>
-      <c r="BR66" s="30" t="s">
+      <c r="BO66" s="23"/>
+      <c r="BP66" s="23"/>
+      <c r="BQ66" s="23"/>
+      <c r="BR66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="32"/>
-      <c r="BT66" s="32"/>
-      <c r="BU66" s="32"/>
-      <c r="BV66" s="30" t="s">
+      <c r="BS66" s="23"/>
+      <c r="BT66" s="23"/>
+      <c r="BU66" s="23"/>
+      <c r="BV66" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="32"/>
-      <c r="BX66" s="32"/>
-      <c r="BY66" s="32"/>
-      <c r="BZ66" s="30" t="s">
+      <c r="BW66" s="23"/>
+      <c r="BX66" s="23"/>
+      <c r="BY66" s="23"/>
+      <c r="BZ66" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="32"/>
-      <c r="CB66" s="32"/>
-      <c r="CC66" s="32"/>
-      <c r="CD66" s="30" t="s">
+      <c r="CA66" s="23"/>
+      <c r="CB66" s="23"/>
+      <c r="CC66" s="23"/>
+      <c r="CD66" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="30"/>
-      <c r="CF66" s="30"/>
-      <c r="CG66" s="30"/>
+      <c r="CE66" s="21"/>
+      <c r="CF66" s="21"/>
+      <c r="CG66" s="21"/>
       <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
@@ -30022,13 +30040,14 @@
       <c r="CM66" s="19"/>
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
-      <c r="CP66" s="22" t="s">
+      <c r="CP66" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="20"/>
+      <c r="CQ66" s="19"/>
       <c r="CR66" s="20"/>
       <c r="CS66" s="20"/>
-      <c r="CT66" s="20"/>
+      <c r="CT66" s="19"/>
+      <c r="CU66" s="20"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30310,13 +30329,16 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="28" t="s">
+      <c r="CP67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="28"/>
-      <c r="CR67" s="28"/>
-      <c r="CS67" s="28"/>
-      <c r="CT67" s="28"/>
+      <c r="CQ67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR67" s="5"/>
+      <c r="CS67" s="5"/>
+      <c r="CT67" s="5"/>
+      <c r="CU67" s="5"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -30601,14 +30623,16 @@
       <c r="CO69" s="12">
         <v>8.8291281355484301</v>
       </c>
-      <c r="CP69" s="29">
-        <v>6.2540099584068543</v>
-      </c>
-      <c r="CQ69" s="29"/>
-      <c r="CR69" s="29"/>
-      <c r="CS69" s="29"/>
-      <c r="CT69" s="29"/>
-      <c r="CU69" s="11"/>
+      <c r="CP69" s="12">
+        <v>6.9741302057149852</v>
+      </c>
+      <c r="CQ69" s="12">
+        <v>12.721527333129856</v>
+      </c>
+      <c r="CR69" s="12"/>
+      <c r="CS69" s="12"/>
+      <c r="CT69" s="12"/>
+      <c r="CU69" s="12"/>
       <c r="CV69" s="11"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
@@ -30938,14 +30962,16 @@
       <c r="CO70" s="12">
         <v>2.2002192740638122</v>
       </c>
-      <c r="CP70" s="29">
+      <c r="CP70" s="12">
         <v>2.2285684481725241</v>
       </c>
-      <c r="CQ70" s="29"/>
-      <c r="CR70" s="29"/>
-      <c r="CS70" s="29"/>
-      <c r="CT70" s="29"/>
-      <c r="CU70" s="11"/>
+      <c r="CQ70" s="12">
+        <v>2.2454618055610496</v>
+      </c>
+      <c r="CR70" s="12"/>
+      <c r="CS70" s="12"/>
+      <c r="CT70" s="12"/>
+      <c r="CU70" s="12"/>
       <c r="CV70" s="11"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
@@ -31088,11 +31114,11 @@
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
-      <c r="CP71" s="25"/>
-      <c r="CQ71" s="25"/>
-      <c r="CR71" s="25"/>
-      <c r="CS71" s="25"/>
-      <c r="CT71" s="25"/>
+      <c r="CP71" s="11"/>
+      <c r="CQ71" s="11"/>
+      <c r="CR71" s="11"/>
+      <c r="CS71" s="11"/>
+      <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
       <c r="CV71" s="11"/>
       <c r="CW71" s="11"/>
@@ -31423,14 +31449,16 @@
       <c r="CO72" s="12">
         <v>5.4952919564641718</v>
       </c>
-      <c r="CP72" s="29">
-        <v>4.132184273813678</v>
-      </c>
-      <c r="CQ72" s="29"/>
-      <c r="CR72" s="29"/>
-      <c r="CS72" s="29"/>
-      <c r="CT72" s="29"/>
-      <c r="CU72" s="11"/>
+      <c r="CP72" s="12">
+        <v>4.4727263722779327</v>
+      </c>
+      <c r="CQ72" s="12">
+        <v>7.1836034014828982</v>
+      </c>
+      <c r="CR72" s="12"/>
+      <c r="CS72" s="12"/>
+      <c r="CT72" s="12"/>
+      <c r="CU72" s="12"/>
       <c r="CV72" s="11"/>
       <c r="CW72" s="11"/>
       <c r="CX72" s="11"/>
@@ -31574,11 +31602,12 @@
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
-      <c r="CP73" s="27"/>
-      <c r="CQ73" s="27"/>
-      <c r="CR73" s="27"/>
-      <c r="CS73" s="27"/>
-      <c r="CT73" s="27"/>
+      <c r="CP73" s="9"/>
+      <c r="CQ73" s="9"/>
+      <c r="CR73" s="9"/>
+      <c r="CS73" s="9"/>
+      <c r="CT73" s="9"/>
+      <c r="CU73" s="9"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -31678,11 +31707,11 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="25"/>
-      <c r="CQ75" s="25"/>
-      <c r="CR75" s="25"/>
-      <c r="CS75" s="25"/>
-      <c r="CT75" s="25"/>
+      <c r="CP75" s="11"/>
+      <c r="CQ75" s="11"/>
+      <c r="CR75" s="11"/>
+      <c r="CS75" s="11"/>
+      <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
       <c r="CV75" s="11"/>
       <c r="CW75" s="11"/>
@@ -31826,11 +31855,11 @@
       <c r="CM76" s="11"/>
       <c r="CN76" s="11"/>
       <c r="CO76" s="11"/>
-      <c r="CP76" s="25"/>
-      <c r="CQ76" s="25"/>
-      <c r="CR76" s="25"/>
-      <c r="CS76" s="25"/>
-      <c r="CT76" s="25"/>
+      <c r="CP76" s="11"/>
+      <c r="CQ76" s="11"/>
+      <c r="CR76" s="11"/>
+      <c r="CS76" s="11"/>
+      <c r="CT76" s="11"/>
       <c r="CU76" s="11"/>
       <c r="CV76" s="11"/>
       <c r="CW76" s="11"/>
@@ -31892,7 +31921,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -31902,7 +31931,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -31912,132 +31941,132 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="30">
+      <c r="B84" s="21">
         <v>2000</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="30">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="21">
         <v>2001</v>
       </c>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="30">
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="21">
         <v>2002</v>
       </c>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="30">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="21">
         <v>2003</v>
       </c>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="30">
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="21">
         <v>2004</v>
       </c>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="30">
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="21">
         <v>2005</v>
       </c>
-      <c r="W84" s="31"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="31"/>
-      <c r="Z84" s="30">
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="21">
         <v>2006</v>
       </c>
-      <c r="AA84" s="31"/>
-      <c r="AB84" s="31"/>
-      <c r="AC84" s="31"/>
-      <c r="AD84" s="30">
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="21">
         <v>2007</v>
       </c>
-      <c r="AE84" s="31"/>
-      <c r="AF84" s="31"/>
-      <c r="AG84" s="31"/>
-      <c r="AH84" s="30">
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="21">
         <v>2008</v>
       </c>
-      <c r="AI84" s="31"/>
-      <c r="AJ84" s="31"/>
-      <c r="AK84" s="31"/>
-      <c r="AL84" s="30">
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="21">
         <v>2009</v>
       </c>
-      <c r="AM84" s="31"/>
-      <c r="AN84" s="31"/>
-      <c r="AO84" s="31"/>
-      <c r="AP84" s="30">
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="31"/>
-      <c r="AR84" s="31"/>
-      <c r="AS84" s="31"/>
-      <c r="AT84" s="30">
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="21">
         <v>2011</v>
       </c>
-      <c r="AU84" s="31"/>
-      <c r="AV84" s="31"/>
-      <c r="AW84" s="31"/>
-      <c r="AX84" s="30">
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="21">
         <v>2012</v>
       </c>
-      <c r="AY84" s="31"/>
-      <c r="AZ84" s="31"/>
-      <c r="BA84" s="31"/>
-      <c r="BB84" s="30">
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="21">
         <v>2013</v>
       </c>
-      <c r="BC84" s="31"/>
-      <c r="BD84" s="31"/>
-      <c r="BE84" s="31"/>
-      <c r="BF84" s="30">
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="21">
         <v>2014</v>
       </c>
-      <c r="BG84" s="31"/>
-      <c r="BH84" s="31"/>
-      <c r="BI84" s="31"/>
-      <c r="BJ84" s="30">
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="21">
         <v>2015</v>
       </c>
-      <c r="BK84" s="31"/>
-      <c r="BL84" s="31"/>
-      <c r="BM84" s="31"/>
-      <c r="BN84" s="30">
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="21">
         <v>2016</v>
       </c>
-      <c r="BO84" s="31"/>
-      <c r="BP84" s="31"/>
-      <c r="BQ84" s="31"/>
-      <c r="BR84" s="30">
+      <c r="BO84" s="22"/>
+      <c r="BP84" s="22"/>
+      <c r="BQ84" s="22"/>
+      <c r="BR84" s="21">
         <v>2017</v>
       </c>
-      <c r="BS84" s="31"/>
-      <c r="BT84" s="31"/>
-      <c r="BU84" s="31"/>
-      <c r="BV84" s="30">
+      <c r="BS84" s="22"/>
+      <c r="BT84" s="22"/>
+      <c r="BU84" s="22"/>
+      <c r="BV84" s="21">
         <v>2018</v>
       </c>
-      <c r="BW84" s="31"/>
-      <c r="BX84" s="31"/>
-      <c r="BY84" s="31"/>
-      <c r="BZ84" s="30">
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
+      <c r="BZ84" s="21">
         <v>2019</v>
       </c>
-      <c r="CA84" s="31"/>
-      <c r="CB84" s="31"/>
-      <c r="CC84" s="31"/>
-      <c r="CD84" s="30">
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
+      <c r="CD84" s="21">
         <v>2020</v>
       </c>
-      <c r="CE84" s="30"/>
-      <c r="CF84" s="30"/>
-      <c r="CG84" s="30"/>
+      <c r="CE84" s="21"/>
+      <c r="CF84" s="21"/>
+      <c r="CG84" s="21"/>
       <c r="CH84" s="19">
         <v>2021</v>
       </c>
@@ -32050,15 +32079,16 @@
       <c r="CM84" s="19"/>
       <c r="CN84" s="19"/>
       <c r="CO84" s="19"/>
-      <c r="CP84" s="22">
+      <c r="CP84" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="22"/>
-      <c r="CR84" s="22"/>
-      <c r="CS84" s="22"/>
-      <c r="CT84" s="22">
+      <c r="CQ84" s="19"/>
+      <c r="CR84" s="19"/>
+      <c r="CS84" s="19"/>
+      <c r="CT84" s="19">
         <v>2024</v>
       </c>
+      <c r="CU84" s="19"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32340,20 +32370,23 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="23" t="s">
+      <c r="CP85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="23" t="s">
+      <c r="CQ85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="23" t="s">
+      <c r="CR85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="23" t="s">
+      <c r="CS85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="23" t="s">
+      <c r="CT85" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU85" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32639,22 +32672,24 @@
       <c r="CO87" s="12">
         <v>119.31361711245292</v>
       </c>
-      <c r="CP87" s="29">
+      <c r="CP87" s="12">
         <v>124.27084358739076</v>
       </c>
-      <c r="CQ87" s="29">
+      <c r="CQ87" s="12">
         <v>121.73708762942729</v>
       </c>
-      <c r="CR87" s="29">
+      <c r="CR87" s="12">
         <v>120.04768191833337</v>
       </c>
-      <c r="CS87" s="29">
+      <c r="CS87" s="12">
         <v>125.2312909397745</v>
       </c>
-      <c r="CT87" s="29">
-        <v>128.78732503714528</v>
-      </c>
-      <c r="CU87" s="11"/>
+      <c r="CT87" s="12">
+        <v>128.78732503714525</v>
+      </c>
+      <c r="CU87" s="12">
+        <v>127.11612532463492</v>
+      </c>
       <c r="CV87" s="11"/>
       <c r="CW87" s="11"/>
       <c r="CX87" s="11"/>
@@ -32988,22 +33023,24 @@
       <c r="CO88" s="12">
         <v>111.63409104070634</v>
       </c>
-      <c r="CP88" s="29">
+      <c r="CP88" s="12">
         <v>113.35819627225069</v>
       </c>
-      <c r="CQ88" s="29">
+      <c r="CQ88" s="12">
         <v>114.70867114401497</v>
       </c>
-      <c r="CR88" s="29">
+      <c r="CR88" s="12">
         <v>116.03448708778154</v>
       </c>
-      <c r="CS88" s="29">
+      <c r="CS88" s="12">
         <v>116.24119531118899</v>
       </c>
-      <c r="CT88" s="29">
+      <c r="CT88" s="12">
         <v>116.99280012202308</v>
       </c>
-      <c r="CU88" s="11"/>
+      <c r="CU88" s="12">
+        <v>117.97841695467343</v>
+      </c>
       <c r="CV88" s="11"/>
       <c r="CW88" s="11"/>
       <c r="CX88" s="11"/>
@@ -33150,11 +33187,11 @@
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
-      <c r="CP89" s="25"/>
-      <c r="CQ89" s="25"/>
-      <c r="CR89" s="25"/>
-      <c r="CS89" s="25"/>
-      <c r="CT89" s="25"/>
+      <c r="CP89" s="11"/>
+      <c r="CQ89" s="11"/>
+      <c r="CR89" s="11"/>
+      <c r="CS89" s="11"/>
+      <c r="CT89" s="11"/>
       <c r="CU89" s="11"/>
       <c r="CV89" s="11"/>
       <c r="CW89" s="11"/>
@@ -33489,22 +33526,24 @@
       <c r="CO90" s="12">
         <v>115.45140051071859</v>
       </c>
-      <c r="CP90" s="29">
+      <c r="CP90" s="12">
         <v>118.51874526443609</v>
       </c>
-      <c r="CQ90" s="29">
+      <c r="CQ90" s="12">
         <v>118.02168171165046</v>
       </c>
-      <c r="CR90" s="29">
+      <c r="CR90" s="12">
         <v>118.07076202349913</v>
       </c>
-      <c r="CS90" s="29">
+      <c r="CS90" s="12">
         <v>120.85117841344757</v>
       </c>
-      <c r="CT90" s="29">
-        <v>122.68403604161475</v>
-      </c>
-      <c r="CU90" s="11"/>
+      <c r="CT90" s="12">
+        <v>122.70393048597592</v>
+      </c>
+      <c r="CU90" s="12">
+        <v>122.50823895847194</v>
+      </c>
       <c r="CV90" s="11"/>
       <c r="CW90" s="11"/>
       <c r="CX90" s="11"/>
@@ -33652,11 +33691,12 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="27"/>
-      <c r="CQ91" s="27"/>
-      <c r="CR91" s="27"/>
-      <c r="CS91" s="27"/>
-      <c r="CT91" s="27"/>
+      <c r="CP91" s="9"/>
+      <c r="CQ91" s="9"/>
+      <c r="CR91" s="9"/>
+      <c r="CS91" s="9"/>
+      <c r="CT91" s="9"/>
+      <c r="CU91" s="9"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33675,7 +33715,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33685,7 +33725,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -33695,132 +33735,132 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="30">
+      <c r="B103" s="21">
         <v>2000</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="30">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="21">
         <v>2001</v>
       </c>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="30">
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="21">
         <v>2002</v>
       </c>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="30">
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="21">
         <v>2003</v>
       </c>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="31"/>
-      <c r="R103" s="30">
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="21">
         <v>2004</v>
       </c>
-      <c r="S103" s="31"/>
-      <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
-      <c r="V103" s="30">
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="21">
         <v>2005</v>
       </c>
-      <c r="W103" s="31"/>
-      <c r="X103" s="31"/>
-      <c r="Y103" s="31"/>
-      <c r="Z103" s="30">
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="21">
         <v>2006</v>
       </c>
-      <c r="AA103" s="31"/>
-      <c r="AB103" s="31"/>
-      <c r="AC103" s="31"/>
-      <c r="AD103" s="30">
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="22"/>
+      <c r="AD103" s="21">
         <v>2007</v>
       </c>
-      <c r="AE103" s="31"/>
-      <c r="AF103" s="31"/>
-      <c r="AG103" s="31"/>
-      <c r="AH103" s="30">
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
+      <c r="AH103" s="21">
         <v>2008</v>
       </c>
-      <c r="AI103" s="31"/>
-      <c r="AJ103" s="31"/>
-      <c r="AK103" s="31"/>
-      <c r="AL103" s="30">
+      <c r="AI103" s="22"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
+      <c r="AL103" s="21">
         <v>2009</v>
       </c>
-      <c r="AM103" s="31"/>
-      <c r="AN103" s="31"/>
-      <c r="AO103" s="31"/>
-      <c r="AP103" s="30">
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="22"/>
+      <c r="AP103" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="31"/>
-      <c r="AR103" s="31"/>
-      <c r="AS103" s="31"/>
-      <c r="AT103" s="30">
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="22"/>
+      <c r="AT103" s="21">
         <v>2011</v>
       </c>
-      <c r="AU103" s="31"/>
-      <c r="AV103" s="31"/>
-      <c r="AW103" s="31"/>
-      <c r="AX103" s="30">
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="22"/>
+      <c r="AW103" s="22"/>
+      <c r="AX103" s="21">
         <v>2012</v>
       </c>
-      <c r="AY103" s="31"/>
-      <c r="AZ103" s="31"/>
-      <c r="BA103" s="31"/>
-      <c r="BB103" s="30">
+      <c r="AY103" s="22"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
+      <c r="BB103" s="21">
         <v>2013</v>
       </c>
-      <c r="BC103" s="31"/>
-      <c r="BD103" s="31"/>
-      <c r="BE103" s="31"/>
-      <c r="BF103" s="30">
+      <c r="BC103" s="22"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
+      <c r="BF103" s="21">
         <v>2014</v>
       </c>
-      <c r="BG103" s="31"/>
-      <c r="BH103" s="31"/>
-      <c r="BI103" s="31"/>
-      <c r="BJ103" s="30">
+      <c r="BG103" s="22"/>
+      <c r="BH103" s="22"/>
+      <c r="BI103" s="22"/>
+      <c r="BJ103" s="21">
         <v>2015</v>
       </c>
-      <c r="BK103" s="31"/>
-      <c r="BL103" s="31"/>
-      <c r="BM103" s="31"/>
-      <c r="BN103" s="30">
+      <c r="BK103" s="22"/>
+      <c r="BL103" s="22"/>
+      <c r="BM103" s="22"/>
+      <c r="BN103" s="21">
         <v>2016</v>
       </c>
-      <c r="BO103" s="31"/>
-      <c r="BP103" s="31"/>
-      <c r="BQ103" s="31"/>
-      <c r="BR103" s="30">
+      <c r="BO103" s="22"/>
+      <c r="BP103" s="22"/>
+      <c r="BQ103" s="22"/>
+      <c r="BR103" s="21">
         <v>2017</v>
       </c>
-      <c r="BS103" s="31"/>
-      <c r="BT103" s="31"/>
-      <c r="BU103" s="31"/>
-      <c r="BV103" s="30">
+      <c r="BS103" s="22"/>
+      <c r="BT103" s="22"/>
+      <c r="BU103" s="22"/>
+      <c r="BV103" s="21">
         <v>2018</v>
       </c>
-      <c r="BW103" s="31"/>
-      <c r="BX103" s="31"/>
-      <c r="BY103" s="31"/>
-      <c r="BZ103" s="30">
+      <c r="BW103" s="22"/>
+      <c r="BX103" s="22"/>
+      <c r="BY103" s="22"/>
+      <c r="BZ103" s="21">
         <v>2019</v>
       </c>
-      <c r="CA103" s="31"/>
-      <c r="CB103" s="31"/>
-      <c r="CC103" s="31"/>
-      <c r="CD103" s="30">
+      <c r="CA103" s="22"/>
+      <c r="CB103" s="22"/>
+      <c r="CC103" s="22"/>
+      <c r="CD103" s="21">
         <v>2020</v>
       </c>
-      <c r="CE103" s="30"/>
-      <c r="CF103" s="30"/>
-      <c r="CG103" s="30"/>
+      <c r="CE103" s="21"/>
+      <c r="CF103" s="21"/>
+      <c r="CG103" s="21"/>
       <c r="CH103" s="19">
         <v>2021</v>
       </c>
@@ -33833,15 +33873,16 @@
       <c r="CM103" s="19"/>
       <c r="CN103" s="19"/>
       <c r="CO103" s="19"/>
-      <c r="CP103" s="22">
+      <c r="CP103" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="22"/>
-      <c r="CR103" s="22"/>
-      <c r="CS103" s="22"/>
-      <c r="CT103" s="22">
+      <c r="CQ103" s="19"/>
+      <c r="CR103" s="19"/>
+      <c r="CS103" s="19"/>
+      <c r="CT103" s="19">
         <v>2024</v>
       </c>
+      <c r="CU103" s="19"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -34123,20 +34164,23 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="23" t="s">
+      <c r="CP104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="23" t="s">
+      <c r="CQ104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="23" t="s">
+      <c r="CR104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="23" t="s">
+      <c r="CS104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="23" t="s">
+      <c r="CT104" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU104" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34422,22 +34466,24 @@
       <c r="CO106" s="12">
         <v>51.370495756025427</v>
       </c>
-      <c r="CP106" s="29">
+      <c r="CP106" s="12">
         <v>49.584733950522512</v>
       </c>
-      <c r="CQ106" s="29">
+      <c r="CQ106" s="12">
         <v>48.621286002386704</v>
       </c>
-      <c r="CR106" s="29">
+      <c r="CR106" s="12">
         <v>51.589056314993812</v>
       </c>
-      <c r="CS106" s="29">
+      <c r="CS106" s="12">
         <v>53.136994937690439</v>
       </c>
-      <c r="CT106" s="29">
-        <v>50.653703584909529</v>
-      </c>
-      <c r="CU106" s="11"/>
+      <c r="CT106" s="12">
+        <v>50.822528714224177</v>
+      </c>
+      <c r="CU106" s="12">
+        <v>51.437421900163386</v>
+      </c>
       <c r="CV106" s="11"/>
       <c r="CW106" s="11"/>
       <c r="CX106" s="11"/>
@@ -34771,22 +34817,24 @@
       <c r="CO107" s="12">
         <v>48.629504243974587</v>
       </c>
-      <c r="CP107" s="29">
+      <c r="CP107" s="12">
         <v>50.415266049477495</v>
       </c>
-      <c r="CQ107" s="29">
+      <c r="CQ107" s="12">
         <v>51.378713997613303</v>
       </c>
-      <c r="CR107" s="29">
+      <c r="CR107" s="12">
         <v>48.410943685006188</v>
       </c>
-      <c r="CS107" s="29">
+      <c r="CS107" s="12">
         <v>46.863005062309568</v>
       </c>
-      <c r="CT107" s="29">
-        <v>49.346296415090485</v>
-      </c>
-      <c r="CU107" s="11"/>
+      <c r="CT107" s="12">
+        <v>49.177471285775809</v>
+      </c>
+      <c r="CU107" s="12">
+        <v>48.562578099836614</v>
+      </c>
       <c r="CV107" s="11"/>
       <c r="CW107" s="11"/>
       <c r="CX107" s="11"/>
@@ -34933,11 +34981,11 @@
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
-      <c r="CP108" s="25"/>
-      <c r="CQ108" s="25"/>
-      <c r="CR108" s="25"/>
-      <c r="CS108" s="25"/>
-      <c r="CT108" s="25"/>
+      <c r="CP108" s="11"/>
+      <c r="CQ108" s="11"/>
+      <c r="CR108" s="11"/>
+      <c r="CS108" s="11"/>
+      <c r="CT108" s="11"/>
       <c r="CU108" s="11"/>
       <c r="CV108" s="11"/>
       <c r="CW108" s="11"/>
@@ -35272,22 +35320,24 @@
       <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="29">
+      <c r="CP109" s="12">
         <v>100</v>
       </c>
-      <c r="CQ109" s="29">
+      <c r="CQ109" s="12">
         <v>100</v>
       </c>
-      <c r="CR109" s="29">
+      <c r="CR109" s="12">
         <v>100</v>
       </c>
-      <c r="CS109" s="29">
+      <c r="CS109" s="12">
         <v>100</v>
       </c>
-      <c r="CT109" s="29">
+      <c r="CT109" s="12">
         <v>100</v>
       </c>
-      <c r="CU109" s="11"/>
+      <c r="CU109" s="12">
+        <v>100</v>
+      </c>
       <c r="CV109" s="11"/>
       <c r="CW109" s="11"/>
       <c r="CX109" s="11"/>
@@ -35435,11 +35485,12 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="27"/>
-      <c r="CQ110" s="27"/>
-      <c r="CR110" s="27"/>
-      <c r="CS110" s="27"/>
-      <c r="CT110" s="27"/>
+      <c r="CP110" s="9"/>
+      <c r="CQ110" s="9"/>
+      <c r="CR110" s="9"/>
+      <c r="CS110" s="9"/>
+      <c r="CT110" s="9"/>
+      <c r="CU110" s="9"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35539,11 +35590,11 @@
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
-      <c r="CP112" s="25"/>
-      <c r="CQ112" s="25"/>
-      <c r="CR112" s="25"/>
-      <c r="CS112" s="25"/>
-      <c r="CT112" s="25"/>
+      <c r="CP112" s="11"/>
+      <c r="CQ112" s="11"/>
+      <c r="CR112" s="11"/>
+      <c r="CS112" s="11"/>
+      <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
       <c r="CV112" s="11"/>
       <c r="CW112" s="11"/>
@@ -35691,11 +35742,11 @@
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
-      <c r="CP113" s="25"/>
-      <c r="CQ113" s="25"/>
-      <c r="CR113" s="25"/>
-      <c r="CS113" s="25"/>
-      <c r="CT113" s="25"/>
+      <c r="CP113" s="11"/>
+      <c r="CQ113" s="11"/>
+      <c r="CR113" s="11"/>
+      <c r="CS113" s="11"/>
+      <c r="CT113" s="11"/>
       <c r="CU113" s="11"/>
       <c r="CV113" s="11"/>
       <c r="CW113" s="11"/>
@@ -35762,7 +35813,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -35772,7 +35823,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -35782,132 +35833,132 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="30">
+      <c r="B122" s="21">
         <v>2000</v>
       </c>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="30">
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="21">
         <v>2001</v>
       </c>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="30">
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="21">
         <v>2002</v>
       </c>
-      <c r="K122" s="31"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="31"/>
-      <c r="N122" s="30">
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="21">
         <v>2003</v>
       </c>
-      <c r="O122" s="31"/>
-      <c r="P122" s="31"/>
-      <c r="Q122" s="31"/>
-      <c r="R122" s="30">
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="21">
         <v>2004</v>
       </c>
-      <c r="S122" s="31"/>
-      <c r="T122" s="31"/>
-      <c r="U122" s="31"/>
-      <c r="V122" s="30">
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="21">
         <v>2005</v>
       </c>
-      <c r="W122" s="31"/>
-      <c r="X122" s="31"/>
-      <c r="Y122" s="31"/>
-      <c r="Z122" s="30">
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
+      <c r="Z122" s="21">
         <v>2006</v>
       </c>
-      <c r="AA122" s="31"/>
-      <c r="AB122" s="31"/>
-      <c r="AC122" s="31"/>
-      <c r="AD122" s="30">
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
+      <c r="AD122" s="21">
         <v>2007</v>
       </c>
-      <c r="AE122" s="31"/>
-      <c r="AF122" s="31"/>
-      <c r="AG122" s="31"/>
-      <c r="AH122" s="30">
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
+      <c r="AH122" s="21">
         <v>2008</v>
       </c>
-      <c r="AI122" s="31"/>
-      <c r="AJ122" s="31"/>
-      <c r="AK122" s="31"/>
-      <c r="AL122" s="30">
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
+      <c r="AL122" s="21">
         <v>2009</v>
       </c>
-      <c r="AM122" s="31"/>
-      <c r="AN122" s="31"/>
-      <c r="AO122" s="31"/>
-      <c r="AP122" s="30">
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
+      <c r="AP122" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="31"/>
-      <c r="AR122" s="31"/>
-      <c r="AS122" s="31"/>
-      <c r="AT122" s="30">
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
+      <c r="AT122" s="21">
         <v>2011</v>
       </c>
-      <c r="AU122" s="31"/>
-      <c r="AV122" s="31"/>
-      <c r="AW122" s="31"/>
-      <c r="AX122" s="30">
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
+      <c r="AX122" s="21">
         <v>2012</v>
       </c>
-      <c r="AY122" s="31"/>
-      <c r="AZ122" s="31"/>
-      <c r="BA122" s="31"/>
-      <c r="BB122" s="30">
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
+      <c r="BB122" s="21">
         <v>2013</v>
       </c>
-      <c r="BC122" s="31"/>
-      <c r="BD122" s="31"/>
-      <c r="BE122" s="31"/>
-      <c r="BF122" s="30">
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
+      <c r="BF122" s="21">
         <v>2014</v>
       </c>
-      <c r="BG122" s="31"/>
-      <c r="BH122" s="31"/>
-      <c r="BI122" s="31"/>
-      <c r="BJ122" s="30">
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
+      <c r="BJ122" s="21">
         <v>2015</v>
       </c>
-      <c r="BK122" s="31"/>
-      <c r="BL122" s="31"/>
-      <c r="BM122" s="31"/>
-      <c r="BN122" s="30">
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
+      <c r="BN122" s="21">
         <v>2016</v>
       </c>
-      <c r="BO122" s="31"/>
-      <c r="BP122" s="31"/>
-      <c r="BQ122" s="31"/>
-      <c r="BR122" s="30">
+      <c r="BO122" s="22"/>
+      <c r="BP122" s="22"/>
+      <c r="BQ122" s="22"/>
+      <c r="BR122" s="21">
         <v>2017</v>
       </c>
-      <c r="BS122" s="31"/>
-      <c r="BT122" s="31"/>
-      <c r="BU122" s="31"/>
-      <c r="BV122" s="30">
+      <c r="BS122" s="22"/>
+      <c r="BT122" s="22"/>
+      <c r="BU122" s="22"/>
+      <c r="BV122" s="21">
         <v>2018</v>
       </c>
-      <c r="BW122" s="31"/>
-      <c r="BX122" s="31"/>
-      <c r="BY122" s="31"/>
-      <c r="BZ122" s="30">
+      <c r="BW122" s="22"/>
+      <c r="BX122" s="22"/>
+      <c r="BY122" s="22"/>
+      <c r="BZ122" s="21">
         <v>2019</v>
       </c>
-      <c r="CA122" s="31"/>
-      <c r="CB122" s="31"/>
-      <c r="CC122" s="31"/>
-      <c r="CD122" s="30">
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
+      <c r="CD122" s="21">
         <v>2020</v>
       </c>
-      <c r="CE122" s="30"/>
-      <c r="CF122" s="30"/>
-      <c r="CG122" s="30"/>
+      <c r="CE122" s="21"/>
+      <c r="CF122" s="21"/>
+      <c r="CG122" s="21"/>
       <c r="CH122" s="19">
         <v>2021</v>
       </c>
@@ -35920,15 +35971,16 @@
       <c r="CM122" s="19"/>
       <c r="CN122" s="19"/>
       <c r="CO122" s="19"/>
-      <c r="CP122" s="22">
+      <c r="CP122" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="22"/>
-      <c r="CR122" s="22"/>
-      <c r="CS122" s="22"/>
-      <c r="CT122" s="22">
+      <c r="CQ122" s="19"/>
+      <c r="CR122" s="19"/>
+      <c r="CS122" s="19"/>
+      <c r="CT122" s="19">
         <v>2024</v>
       </c>
+      <c r="CU122" s="19"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -36210,20 +36262,23 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="23" t="s">
+      <c r="CP123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="23" t="s">
+      <c r="CQ123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="23" t="s">
+      <c r="CR123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="23" t="s">
+      <c r="CS123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="23" t="s">
+      <c r="CT123" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU123" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36509,22 +36564,24 @@
       <c r="CO125" s="12">
         <v>49.707617818453151</v>
       </c>
-      <c r="CP125" s="29">
+      <c r="CP125" s="12">
         <v>47.289615829751227</v>
       </c>
-      <c r="CQ125" s="29">
+      <c r="CQ125" s="12">
         <v>47.137368346223553</v>
       </c>
-      <c r="CR125" s="29">
+      <c r="CR125" s="12">
         <v>50.739498621291602</v>
       </c>
-      <c r="CS125" s="29">
+      <c r="CS125" s="12">
         <v>51.278465688400189</v>
       </c>
-      <c r="CT125" s="29">
-        <v>48.253201892809969</v>
-      </c>
-      <c r="CU125" s="11"/>
+      <c r="CT125" s="12">
+        <v>48.421877142591761</v>
+      </c>
+      <c r="CU125" s="12">
+        <v>49.572844967228797</v>
+      </c>
       <c r="CV125" s="11"/>
       <c r="CW125" s="11"/>
       <c r="CX125" s="11"/>
@@ -36858,22 +36915,24 @@
       <c r="CO126" s="12">
         <v>50.292382181546856</v>
       </c>
-      <c r="CP126" s="29">
+      <c r="CP126" s="12">
         <v>52.710384170248773</v>
       </c>
-      <c r="CQ126" s="29">
+      <c r="CQ126" s="12">
         <v>52.86263165377644</v>
       </c>
-      <c r="CR126" s="29">
+      <c r="CR126" s="12">
         <v>49.260501378708391</v>
       </c>
-      <c r="CS126" s="29">
+      <c r="CS126" s="12">
         <v>48.721534311599804</v>
       </c>
-      <c r="CT126" s="29">
-        <v>51.746798107190031</v>
-      </c>
-      <c r="CU126" s="11"/>
+      <c r="CT126" s="12">
+        <v>51.578122857408239</v>
+      </c>
+      <c r="CU126" s="12">
+        <v>50.427155032771211</v>
+      </c>
       <c r="CV126" s="11"/>
       <c r="CW126" s="11"/>
       <c r="CX126" s="11"/>
@@ -37020,11 +37079,11 @@
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
-      <c r="CP127" s="25"/>
-      <c r="CQ127" s="25"/>
-      <c r="CR127" s="25"/>
-      <c r="CS127" s="25"/>
-      <c r="CT127" s="25"/>
+      <c r="CP127" s="11"/>
+      <c r="CQ127" s="11"/>
+      <c r="CR127" s="11"/>
+      <c r="CS127" s="11"/>
+      <c r="CT127" s="11"/>
       <c r="CU127" s="11"/>
       <c r="CV127" s="11"/>
       <c r="CW127" s="11"/>
@@ -37359,22 +37418,24 @@
       <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="29">
+      <c r="CP128" s="12">
         <v>100</v>
       </c>
-      <c r="CQ128" s="29">
+      <c r="CQ128" s="12">
         <v>100</v>
       </c>
-      <c r="CR128" s="29">
+      <c r="CR128" s="12">
         <v>100</v>
       </c>
-      <c r="CS128" s="29">
+      <c r="CS128" s="12">
         <v>100</v>
       </c>
-      <c r="CT128" s="29">
+      <c r="CT128" s="12">
         <v>100</v>
       </c>
-      <c r="CU128" s="11"/>
+      <c r="CU128" s="12">
+        <v>100</v>
+      </c>
       <c r="CV128" s="11"/>
       <c r="CW128" s="11"/>
       <c r="CX128" s="11"/>
@@ -37522,11 +37583,12 @@
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
-      <c r="CP129" s="27"/>
-      <c r="CQ129" s="27"/>
-      <c r="CR129" s="27"/>
-      <c r="CS129" s="27"/>
-      <c r="CT129" s="27"/>
+      <c r="CP129" s="9"/>
+      <c r="CQ129" s="9"/>
+      <c r="CR129" s="9"/>
+      <c r="CS129" s="9"/>
+      <c r="CT129" s="9"/>
+      <c r="CU129" s="9"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37627,12 +37689,12 @@
       <c r="CM131" s="3"/>
       <c r="CN131" s="3"/>
       <c r="CO131" s="3"/>
-      <c r="CP131" s="21"/>
-      <c r="CQ131" s="21"/>
-      <c r="CR131" s="21"/>
-      <c r="CS131" s="21"/>
-      <c r="CT131" s="21"/>
-      <c r="CU131" s="13"/>
+      <c r="CP131" s="3"/>
+      <c r="CQ131" s="3"/>
+      <c r="CR131" s="3"/>
+      <c r="CS131" s="3"/>
+      <c r="CT131" s="3"/>
+      <c r="CU131" s="3"/>
       <c r="CV131" s="13"/>
       <c r="CW131" s="13"/>
       <c r="CX131" s="13"/>
@@ -37780,12 +37842,12 @@
       <c r="CM132" s="3"/>
       <c r="CN132" s="3"/>
       <c r="CO132" s="3"/>
-      <c r="CP132" s="21"/>
-      <c r="CQ132" s="21"/>
-      <c r="CR132" s="21"/>
-      <c r="CS132" s="21"/>
-      <c r="CT132" s="21"/>
-      <c r="CU132" s="13"/>
+      <c r="CP132" s="3"/>
+      <c r="CQ132" s="3"/>
+      <c r="CR132" s="3"/>
+      <c r="CS132" s="3"/>
+      <c r="CT132" s="3"/>
+      <c r="CU132" s="3"/>
       <c r="CV132" s="13"/>
       <c r="CW132" s="13"/>
       <c r="CX132" s="13"/>
@@ -37841,67 +37903,68 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
@@ -37926,77 +37989,76 @@
     <mergeCell ref="AP66:AS66"/>
     <mergeCell ref="V47:Y47"/>
     <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="97" man="1"/>
-    <brk id="76" max="97" man="1"/>
-    <brk id="94" max="97" man="1"/>
+    <brk id="38" max="98" man="1"/>
+    <brk id="76" max="98" man="1"/>
+    <brk id="94" max="98" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60959F3C-270C-4366-B153-1D020328DDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA403EE-11AE-44C8-AAD2-62E201B81C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CU$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CV$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,9 +747,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23622,15 +23637,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CP4" sqref="CP1:CU1048576"/>
+      <selection pane="topRight" activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="93" width="8.33203125" style="3" customWidth="1"/>
-    <col min="94" max="99" width="9.44140625" style="3" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="3"/>
+    <col min="94" max="100" width="10.109375" style="21" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23665,132 +23680,132 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="21">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23803,16 +23818,17 @@
       <c r="CM9" s="19"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="19"/>
-      <c r="CP9" s="19">
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="19"/>
-      <c r="CR9" s="19"/>
-      <c r="CS9" s="19"/>
-      <c r="CT9" s="19">
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
+      <c r="CT9" s="22">
         <v>2024</v>
       </c>
-      <c r="CU9" s="19"/>
+      <c r="CU9" s="22"/>
+      <c r="CV9" s="22"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24094,23 +24110,26 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24396,25 +24415,27 @@
       <c r="CO12" s="15">
         <v>167359.66211914457</v>
       </c>
-      <c r="CP12" s="15">
+      <c r="CP12" s="24">
         <v>162733.41338826407</v>
       </c>
-      <c r="CQ12" s="15">
+      <c r="CQ12" s="24">
         <v>159816.52743620294</v>
       </c>
-      <c r="CR12" s="15">
+      <c r="CR12" s="24">
         <v>182366.00154739365</v>
       </c>
-      <c r="CS12" s="15">
+      <c r="CS12" s="24">
         <v>191169.57992403524</v>
       </c>
-      <c r="CT12" s="15">
+      <c r="CT12" s="24">
         <v>180409.48814543907</v>
       </c>
-      <c r="CU12" s="15">
-        <v>188107.57872917742</v>
-      </c>
-      <c r="CV12" s="11"/>
+      <c r="CU12" s="24">
+        <v>189366.93090094713</v>
+      </c>
+      <c r="CV12" s="24">
+        <v>205067.56970061615</v>
+      </c>
       <c r="CW12" s="11"/>
       <c r="CX12" s="11"/>
       <c r="CY12" s="11"/>
@@ -24747,25 +24768,27 @@
       <c r="CO13" s="15">
         <v>158429.80059888729</v>
       </c>
-      <c r="CP13" s="15">
+      <c r="CP13" s="24">
         <v>165459.15804036456</v>
       </c>
-      <c r="CQ13" s="15">
+      <c r="CQ13" s="24">
         <v>168880.10026788112</v>
       </c>
-      <c r="CR13" s="15">
+      <c r="CR13" s="24">
         <v>171131.454257765</v>
       </c>
-      <c r="CS13" s="15">
+      <c r="CS13" s="24">
         <v>168597.81028725675</v>
       </c>
-      <c r="CT13" s="15">
+      <c r="CT13" s="24">
         <v>174569.87378258348</v>
       </c>
-      <c r="CU13" s="15">
-        <v>177594.22315016587</v>
-      </c>
-      <c r="CV13" s="11"/>
+      <c r="CU13" s="24">
+        <v>177597.72670989437</v>
+      </c>
+      <c r="CV13" s="24">
+        <v>179404.67657826995</v>
+      </c>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
       <c r="CY13" s="11"/>
@@ -24911,13 +24934,13 @@
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
-      <c r="CP14" s="11"/>
-      <c r="CQ14" s="11"/>
-      <c r="CR14" s="11"/>
-      <c r="CS14" s="11"/>
-      <c r="CT14" s="11"/>
-      <c r="CU14" s="11"/>
-      <c r="CV14" s="11"/>
+      <c r="CP14" s="25"/>
+      <c r="CQ14" s="25"/>
+      <c r="CR14" s="25"/>
+      <c r="CS14" s="25"/>
+      <c r="CT14" s="25"/>
+      <c r="CU14" s="25"/>
+      <c r="CV14" s="25"/>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
       <c r="CY14" s="11"/>
@@ -25250,25 +25273,27 @@
       <c r="CO15" s="16">
         <v>325789.46271803183</v>
       </c>
-      <c r="CP15" s="16">
+      <c r="CP15" s="26">
         <v>328192.57142862864</v>
       </c>
-      <c r="CQ15" s="16">
+      <c r="CQ15" s="26">
         <v>328696.62770408404</v>
       </c>
-      <c r="CR15" s="16">
+      <c r="CR15" s="26">
         <v>353497.45580515865</v>
       </c>
-      <c r="CS15" s="16">
+      <c r="CS15" s="26">
         <v>359767.39021129196</v>
       </c>
-      <c r="CT15" s="16">
+      <c r="CT15" s="26">
         <v>354979.36192802258</v>
       </c>
-      <c r="CU15" s="16">
-        <v>365701.80187934329</v>
-      </c>
-      <c r="CV15" s="11"/>
+      <c r="CU15" s="26">
+        <v>366964.6576108415</v>
+      </c>
+      <c r="CV15" s="26">
+        <v>384472.2462788861</v>
+      </c>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
       <c r="CY15" s="11"/>
@@ -25415,12 +25440,13 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
-      <c r="CR16" s="9"/>
-      <c r="CS16" s="9"/>
-      <c r="CT16" s="9"/>
-      <c r="CU16" s="9"/>
+      <c r="CP16" s="27"/>
+      <c r="CQ16" s="27"/>
+      <c r="CR16" s="27"/>
+      <c r="CS16" s="27"/>
+      <c r="CT16" s="27"/>
+      <c r="CU16" s="27"/>
+      <c r="CV16" s="27"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25520,13 +25546,13 @@
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
-      <c r="CP18" s="11"/>
-      <c r="CQ18" s="11"/>
-      <c r="CR18" s="11"/>
-      <c r="CS18" s="11"/>
-      <c r="CT18" s="11"/>
-      <c r="CU18" s="11"/>
-      <c r="CV18" s="11"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
+      <c r="CU18" s="25"/>
+      <c r="CV18" s="25"/>
       <c r="CW18" s="11"/>
       <c r="CX18" s="11"/>
       <c r="CY18" s="11"/>
@@ -25672,13 +25698,13 @@
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
-      <c r="CP19" s="11"/>
-      <c r="CQ19" s="11"/>
-      <c r="CR19" s="11"/>
-      <c r="CS19" s="11"/>
-      <c r="CT19" s="11"/>
-      <c r="CU19" s="11"/>
-      <c r="CV19" s="11"/>
+      <c r="CP19" s="25"/>
+      <c r="CQ19" s="25"/>
+      <c r="CR19" s="25"/>
+      <c r="CS19" s="25"/>
+      <c r="CT19" s="25"/>
+      <c r="CU19" s="25"/>
+      <c r="CV19" s="25"/>
       <c r="CW19" s="11"/>
       <c r="CX19" s="11"/>
       <c r="CY19" s="11"/>
@@ -25763,132 +25789,132 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="21">
+      <c r="B28" s="30">
         <v>2000</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30">
         <v>2001</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21">
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="30">
         <v>2002</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="21">
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="30">
         <v>2003</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="21">
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="30">
         <v>2004</v>
       </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="21">
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="30">
         <v>2005</v>
       </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="21">
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="30">
         <v>2006</v>
       </c>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="21">
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="30">
         <v>2007</v>
       </c>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="21">
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="30">
         <v>2008</v>
       </c>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="21">
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="30">
         <v>2009</v>
       </c>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="21">
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="21">
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="30">
         <v>2011</v>
       </c>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="21">
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+      <c r="AX28" s="30">
         <v>2012</v>
       </c>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="21">
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="30">
         <v>2013</v>
       </c>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="21">
+      <c r="BC28" s="31"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="30">
         <v>2014</v>
       </c>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="21">
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="30">
         <v>2015</v>
       </c>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="21">
+      <c r="BK28" s="31"/>
+      <c r="BL28" s="31"/>
+      <c r="BM28" s="31"/>
+      <c r="BN28" s="30">
         <v>2016</v>
       </c>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="21">
+      <c r="BO28" s="31"/>
+      <c r="BP28" s="31"/>
+      <c r="BQ28" s="31"/>
+      <c r="BR28" s="30">
         <v>2017</v>
       </c>
-      <c r="BS28" s="22"/>
-      <c r="BT28" s="22"/>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="21">
+      <c r="BS28" s="31"/>
+      <c r="BT28" s="31"/>
+      <c r="BU28" s="31"/>
+      <c r="BV28" s="30">
         <v>2018</v>
       </c>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="21">
+      <c r="BW28" s="31"/>
+      <c r="BX28" s="31"/>
+      <c r="BY28" s="31"/>
+      <c r="BZ28" s="30">
         <v>2019</v>
       </c>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="21">
+      <c r="CA28" s="31"/>
+      <c r="CB28" s="31"/>
+      <c r="CC28" s="31"/>
+      <c r="CD28" s="30">
         <v>2020</v>
       </c>
-      <c r="CE28" s="21"/>
-      <c r="CF28" s="21"/>
-      <c r="CG28" s="21"/>
+      <c r="CE28" s="30"/>
+      <c r="CF28" s="30"/>
+      <c r="CG28" s="30"/>
       <c r="CH28" s="19">
         <v>2021</v>
       </c>
@@ -25901,16 +25927,17 @@
       <c r="CM28" s="19"/>
       <c r="CN28" s="19"/>
       <c r="CO28" s="19"/>
-      <c r="CP28" s="19">
+      <c r="CP28" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="19"/>
-      <c r="CR28" s="19"/>
-      <c r="CS28" s="19"/>
-      <c r="CT28" s="19">
+      <c r="CQ28" s="22"/>
+      <c r="CR28" s="22"/>
+      <c r="CS28" s="22"/>
+      <c r="CT28" s="22">
         <v>2024</v>
       </c>
-      <c r="CU28" s="19"/>
+      <c r="CU28" s="22"/>
+      <c r="CV28" s="22"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26192,23 +26219,26 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="6" t="s">
+      <c r="CR29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="6" t="s">
+      <c r="CS29" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="6" t="s">
+      <c r="CT29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU29" s="6" t="s">
+      <c r="CU29" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV29" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26494,25 +26524,27 @@
       <c r="CO31" s="15">
         <v>140268.70207229434</v>
       </c>
-      <c r="CP31" s="15">
+      <c r="CP31" s="24">
         <v>130950.59845942492</v>
       </c>
-      <c r="CQ31" s="15">
+      <c r="CQ31" s="24">
         <v>131280.0647266107</v>
       </c>
-      <c r="CR31" s="15">
+      <c r="CR31" s="24">
         <v>151911.30610206575</v>
       </c>
-      <c r="CS31" s="15">
+      <c r="CS31" s="24">
         <v>152653.2055123279</v>
       </c>
-      <c r="CT31" s="15">
+      <c r="CT31" s="24">
         <v>140083.26370114821</v>
       </c>
-      <c r="CU31" s="15">
-        <v>147980.89404375706</v>
-      </c>
-      <c r="CV31" s="11"/>
+      <c r="CU31" s="24">
+        <v>149010.01855787332</v>
+      </c>
+      <c r="CV31" s="24">
+        <v>164895.18576407072</v>
+      </c>
       <c r="CW31" s="11"/>
       <c r="CX31" s="11"/>
       <c r="CY31" s="11"/>
@@ -26845,25 +26877,27 @@
       <c r="CO32" s="15">
         <v>141918.83422163335</v>
       </c>
-      <c r="CP32" s="15">
+      <c r="CP32" s="24">
         <v>145961.35390420625</v>
       </c>
-      <c r="CQ32" s="15">
+      <c r="CQ32" s="24">
         <v>147225.22594290605</v>
       </c>
-      <c r="CR32" s="15">
+      <c r="CR32" s="24">
         <v>147483.26859781085</v>
       </c>
-      <c r="CS32" s="15">
+      <c r="CS32" s="24">
         <v>145041.3597657044</v>
       </c>
-      <c r="CT32" s="15">
+      <c r="CT32" s="24">
         <v>149214.20258384082</v>
       </c>
-      <c r="CU32" s="15">
+      <c r="CU32" s="24">
         <v>150531.11215960496</v>
       </c>
-      <c r="CV32" s="11"/>
+      <c r="CV32" s="24">
+        <v>150713.89269145762</v>
+      </c>
       <c r="CW32" s="11"/>
       <c r="CX32" s="11"/>
       <c r="CY32" s="11"/>
@@ -27009,13 +27043,13 @@
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
-      <c r="CP33" s="11"/>
-      <c r="CQ33" s="11"/>
-      <c r="CR33" s="11"/>
-      <c r="CS33" s="11"/>
-      <c r="CT33" s="11"/>
-      <c r="CU33" s="11"/>
-      <c r="CV33" s="11"/>
+      <c r="CP33" s="25"/>
+      <c r="CQ33" s="25"/>
+      <c r="CR33" s="25"/>
+      <c r="CS33" s="25"/>
+      <c r="CT33" s="25"/>
+      <c r="CU33" s="25"/>
+      <c r="CV33" s="25"/>
       <c r="CW33" s="11"/>
       <c r="CX33" s="11"/>
       <c r="CY33" s="11"/>
@@ -27348,25 +27382,27 @@
       <c r="CO34" s="16">
         <v>282187.5362939277</v>
       </c>
-      <c r="CP34" s="16">
+      <c r="CP34" s="26">
         <v>276911.95236363116</v>
       </c>
-      <c r="CQ34" s="16">
+      <c r="CQ34" s="26">
         <v>278505.29066951678</v>
       </c>
-      <c r="CR34" s="16">
+      <c r="CR34" s="26">
         <v>299394.5746998766</v>
       </c>
-      <c r="CS34" s="16">
+      <c r="CS34" s="26">
         <v>297694.56527803233</v>
       </c>
-      <c r="CT34" s="16">
+      <c r="CT34" s="26">
         <v>289297.46628498903</v>
       </c>
-      <c r="CU34" s="16">
-        <v>298512.00620336202</v>
-      </c>
-      <c r="CV34" s="11"/>
+      <c r="CU34" s="26">
+        <v>299541.13071747829</v>
+      </c>
+      <c r="CV34" s="26">
+        <v>315609.07845552836</v>
+      </c>
       <c r="CW34" s="11"/>
       <c r="CX34" s="11"/>
       <c r="CY34" s="11"/>
@@ -27513,12 +27549,13 @@
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
-      <c r="CP35" s="9"/>
-      <c r="CQ35" s="9"/>
-      <c r="CR35" s="9"/>
-      <c r="CS35" s="9"/>
-      <c r="CT35" s="9"/>
-      <c r="CU35" s="9"/>
+      <c r="CP35" s="27"/>
+      <c r="CQ35" s="27"/>
+      <c r="CR35" s="27"/>
+      <c r="CS35" s="27"/>
+      <c r="CT35" s="27"/>
+      <c r="CU35" s="27"/>
+      <c r="CV35" s="27"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27618,13 +27655,13 @@
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
-      <c r="CP37" s="11"/>
-      <c r="CQ37" s="11"/>
-      <c r="CR37" s="11"/>
-      <c r="CS37" s="11"/>
-      <c r="CT37" s="11"/>
-      <c r="CU37" s="11"/>
-      <c r="CV37" s="11"/>
+      <c r="CP37" s="25"/>
+      <c r="CQ37" s="25"/>
+      <c r="CR37" s="25"/>
+      <c r="CS37" s="25"/>
+      <c r="CT37" s="25"/>
+      <c r="CU37" s="25"/>
+      <c r="CV37" s="25"/>
       <c r="CW37" s="11"/>
       <c r="CX37" s="11"/>
       <c r="CY37" s="11"/>
@@ -27770,13 +27807,13 @@
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
-      <c r="CP38" s="11"/>
-      <c r="CQ38" s="11"/>
-      <c r="CR38" s="11"/>
-      <c r="CS38" s="11"/>
-      <c r="CT38" s="11"/>
-      <c r="CU38" s="11"/>
-      <c r="CV38" s="11"/>
+      <c r="CP38" s="25"/>
+      <c r="CQ38" s="25"/>
+      <c r="CR38" s="25"/>
+      <c r="CS38" s="25"/>
+      <c r="CT38" s="25"/>
+      <c r="CU38" s="25"/>
+      <c r="CV38" s="25"/>
       <c r="CW38" s="11"/>
       <c r="CX38" s="11"/>
       <c r="CY38" s="11"/>
@@ -27861,132 +27898,132 @@
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21" t="s">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21" t="s">
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21" t="s">
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21" t="s">
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21" t="s">
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21" t="s">
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21" t="s">
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21" t="s">
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21" t="s">
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21" t="s">
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21" t="s">
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="30"/>
+      <c r="AS47" s="30"/>
+      <c r="AT47" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="21"/>
-      <c r="AX47" s="21" t="s">
+      <c r="AU47" s="30"/>
+      <c r="AV47" s="30"/>
+      <c r="AW47" s="30"/>
+      <c r="AX47" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="21"/>
-      <c r="BA47" s="21"/>
-      <c r="BB47" s="21" t="s">
+      <c r="AY47" s="30"/>
+      <c r="AZ47" s="30"/>
+      <c r="BA47" s="30"/>
+      <c r="BB47" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="21"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="21"/>
-      <c r="BF47" s="21" t="s">
+      <c r="BC47" s="30"/>
+      <c r="BD47" s="30"/>
+      <c r="BE47" s="30"/>
+      <c r="BF47" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="21"/>
-      <c r="BH47" s="21"/>
-      <c r="BI47" s="21"/>
-      <c r="BJ47" s="21" t="s">
+      <c r="BG47" s="30"/>
+      <c r="BH47" s="30"/>
+      <c r="BI47" s="30"/>
+      <c r="BJ47" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="21"/>
-      <c r="BL47" s="21"/>
-      <c r="BM47" s="21"/>
-      <c r="BN47" s="21" t="s">
+      <c r="BK47" s="30"/>
+      <c r="BL47" s="30"/>
+      <c r="BM47" s="30"/>
+      <c r="BN47" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="21"/>
-      <c r="BP47" s="21"/>
-      <c r="BQ47" s="21"/>
-      <c r="BR47" s="21" t="s">
+      <c r="BO47" s="30"/>
+      <c r="BP47" s="30"/>
+      <c r="BQ47" s="30"/>
+      <c r="BR47" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="21"/>
-      <c r="BT47" s="21"/>
-      <c r="BU47" s="21"/>
-      <c r="BV47" s="21" t="s">
+      <c r="BS47" s="30"/>
+      <c r="BT47" s="30"/>
+      <c r="BU47" s="30"/>
+      <c r="BV47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="21"/>
-      <c r="BX47" s="21"/>
-      <c r="BY47" s="21"/>
-      <c r="BZ47" s="21" t="s">
+      <c r="BW47" s="30"/>
+      <c r="BX47" s="30"/>
+      <c r="BY47" s="30"/>
+      <c r="BZ47" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="21"/>
-      <c r="CB47" s="21"/>
-      <c r="CC47" s="21"/>
-      <c r="CD47" s="21" t="s">
+      <c r="CA47" s="30"/>
+      <c r="CB47" s="30"/>
+      <c r="CC47" s="30"/>
+      <c r="CD47" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="21"/>
-      <c r="CF47" s="21"/>
-      <c r="CG47" s="21"/>
+      <c r="CE47" s="30"/>
+      <c r="CF47" s="30"/>
+      <c r="CG47" s="30"/>
       <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
@@ -27999,14 +28036,15 @@
       <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
-      <c r="CP47" s="19" t="s">
+      <c r="CP47" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="19"/>
-      <c r="CR47" s="20"/>
+      <c r="CQ47" s="22"/>
+      <c r="CR47" s="22"/>
       <c r="CS47" s="20"/>
-      <c r="CT47" s="19"/>
-      <c r="CU47" s="20"/>
+      <c r="CT47" s="22"/>
+      <c r="CU47" s="22"/>
+      <c r="CV47" s="20"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28288,16 +28326,19 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="5" t="s">
+      <c r="CP48" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="5" t="s">
+      <c r="CQ48" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CR48" s="5"/>
-      <c r="CS48" s="5"/>
-      <c r="CT48" s="5"/>
-      <c r="CU48" s="5"/>
+      <c r="CR48" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS48" s="28"/>
+      <c r="CT48" s="28"/>
+      <c r="CU48" s="28"/>
+      <c r="CV48" s="28"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28582,17 +28623,19 @@
       <c r="CO50" s="12">
         <v>14.226796053125511</v>
       </c>
-      <c r="CP50" s="12">
+      <c r="CP50" s="29">
         <v>10.861982422135895</v>
       </c>
-      <c r="CQ50" s="12">
-        <v>17.702206240382722</v>
-      </c>
-      <c r="CR50" s="12"/>
-      <c r="CS50" s="12"/>
-      <c r="CT50" s="12"/>
-      <c r="CU50" s="12"/>
-      <c r="CV50" s="11"/>
+      <c r="CQ50" s="29">
+        <v>18.490204948634229</v>
+      </c>
+      <c r="CR50" s="29">
+        <v>12.448355483257529</v>
+      </c>
+      <c r="CS50" s="29"/>
+      <c r="CT50" s="29"/>
+      <c r="CU50" s="29"/>
+      <c r="CV50" s="29"/>
       <c r="CW50" s="11"/>
       <c r="CX50" s="11"/>
       <c r="CY50" s="11"/>
@@ -28921,17 +28964,19 @@
       <c r="CO51" s="12">
         <v>6.4179905863246205</v>
       </c>
-      <c r="CP51" s="12">
+      <c r="CP51" s="29">
         <v>5.5063230407568682</v>
       </c>
-      <c r="CQ51" s="12">
-        <v>5.1599465351229696</v>
-      </c>
-      <c r="CR51" s="12"/>
-      <c r="CS51" s="12"/>
-      <c r="CT51" s="12"/>
-      <c r="CU51" s="12"/>
-      <c r="CV51" s="11"/>
+      <c r="CQ51" s="29">
+        <v>5.1620211192349785</v>
+      </c>
+      <c r="CR51" s="29">
+        <v>4.8344252997718939</v>
+      </c>
+      <c r="CS51" s="29"/>
+      <c r="CT51" s="29"/>
+      <c r="CU51" s="29"/>
+      <c r="CV51" s="29"/>
       <c r="CW51" s="11"/>
       <c r="CX51" s="11"/>
       <c r="CY51" s="11"/>
@@ -29074,13 +29119,13 @@
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
-      <c r="CP52" s="11"/>
-      <c r="CQ52" s="11"/>
-      <c r="CR52" s="11"/>
-      <c r="CS52" s="11"/>
-      <c r="CT52" s="11"/>
-      <c r="CU52" s="11"/>
-      <c r="CV52" s="11"/>
+      <c r="CP52" s="25"/>
+      <c r="CQ52" s="25"/>
+      <c r="CR52" s="25"/>
+      <c r="CS52" s="25"/>
+      <c r="CT52" s="25"/>
+      <c r="CU52" s="25"/>
+      <c r="CV52" s="25"/>
       <c r="CW52" s="11"/>
       <c r="CX52" s="11"/>
       <c r="CY52" s="11"/>
@@ -29409,17 +29454,19 @@
       <c r="CO53" s="12">
         <v>10.429412667243867</v>
       </c>
-      <c r="CP53" s="12">
+      <c r="CP53" s="29">
         <v>8.161912496309867</v>
       </c>
-      <c r="CQ53" s="12">
-        <v>11.258154497579426</v>
-      </c>
-      <c r="CR53" s="12"/>
-      <c r="CS53" s="12"/>
-      <c r="CT53" s="12"/>
-      <c r="CU53" s="12"/>
-      <c r="CV53" s="11"/>
+      <c r="CQ53" s="29">
+        <v>11.642355497851071</v>
+      </c>
+      <c r="CR53" s="29">
+        <v>8.7623800299146097</v>
+      </c>
+      <c r="CS53" s="29"/>
+      <c r="CT53" s="29"/>
+      <c r="CU53" s="29"/>
+      <c r="CV53" s="29"/>
       <c r="CW53" s="11"/>
       <c r="CX53" s="11"/>
       <c r="CY53" s="11"/>
@@ -29562,12 +29609,13 @@
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
-      <c r="CP54" s="9"/>
-      <c r="CQ54" s="9"/>
-      <c r="CR54" s="9"/>
-      <c r="CS54" s="9"/>
-      <c r="CT54" s="9"/>
-      <c r="CU54" s="9"/>
+      <c r="CP54" s="27"/>
+      <c r="CQ54" s="27"/>
+      <c r="CR54" s="27"/>
+      <c r="CS54" s="27"/>
+      <c r="CT54" s="27"/>
+      <c r="CU54" s="27"/>
+      <c r="CV54" s="27"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -29667,13 +29715,13 @@
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
-      <c r="CP56" s="11"/>
-      <c r="CQ56" s="11"/>
-      <c r="CR56" s="11"/>
-      <c r="CS56" s="11"/>
-      <c r="CT56" s="11"/>
-      <c r="CU56" s="11"/>
-      <c r="CV56" s="11"/>
+      <c r="CP56" s="25"/>
+      <c r="CQ56" s="25"/>
+      <c r="CR56" s="25"/>
+      <c r="CS56" s="25"/>
+      <c r="CT56" s="25"/>
+      <c r="CU56" s="25"/>
+      <c r="CV56" s="25"/>
       <c r="CW56" s="11"/>
       <c r="CX56" s="11"/>
       <c r="CY56" s="11"/>
@@ -29815,13 +29863,13 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="11"/>
-      <c r="CS57" s="11"/>
-      <c r="CT57" s="11"/>
-      <c r="CU57" s="11"/>
-      <c r="CV57" s="11"/>
+      <c r="CP57" s="25"/>
+      <c r="CQ57" s="25"/>
+      <c r="CR57" s="25"/>
+      <c r="CS57" s="25"/>
+      <c r="CT57" s="25"/>
+      <c r="CU57" s="25"/>
+      <c r="CV57" s="25"/>
       <c r="CW57" s="11"/>
       <c r="CX57" s="11"/>
       <c r="CY57" s="11"/>
@@ -29902,132 +29950,132 @@
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="21" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="21" t="s">
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="21" t="s">
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="21" t="s">
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="21" t="s">
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="21" t="s">
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="21" t="s">
+      <c r="AA66" s="32"/>
+      <c r="AB66" s="32"/>
+      <c r="AC66" s="32"/>
+      <c r="AD66" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-      <c r="AG66" s="23"/>
-      <c r="AH66" s="21" t="s">
+      <c r="AE66" s="32"/>
+      <c r="AF66" s="32"/>
+      <c r="AG66" s="32"/>
+      <c r="AH66" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="21" t="s">
+      <c r="AI66" s="32"/>
+      <c r="AJ66" s="32"/>
+      <c r="AK66" s="32"/>
+      <c r="AL66" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="23"/>
-      <c r="AN66" s="23"/>
-      <c r="AO66" s="23"/>
-      <c r="AP66" s="21" t="s">
+      <c r="AM66" s="32"/>
+      <c r="AN66" s="32"/>
+      <c r="AO66" s="32"/>
+      <c r="AP66" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="23"/>
-      <c r="AR66" s="23"/>
-      <c r="AS66" s="23"/>
-      <c r="AT66" s="21" t="s">
+      <c r="AQ66" s="32"/>
+      <c r="AR66" s="32"/>
+      <c r="AS66" s="32"/>
+      <c r="AT66" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="23"/>
-      <c r="AV66" s="23"/>
-      <c r="AW66" s="23"/>
-      <c r="AX66" s="21" t="s">
+      <c r="AU66" s="32"/>
+      <c r="AV66" s="32"/>
+      <c r="AW66" s="32"/>
+      <c r="AX66" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="23"/>
-      <c r="AZ66" s="23"/>
-      <c r="BA66" s="23"/>
-      <c r="BB66" s="21" t="s">
+      <c r="AY66" s="32"/>
+      <c r="AZ66" s="32"/>
+      <c r="BA66" s="32"/>
+      <c r="BB66" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="23"/>
-      <c r="BD66" s="23"/>
-      <c r="BE66" s="23"/>
-      <c r="BF66" s="21" t="s">
+      <c r="BC66" s="32"/>
+      <c r="BD66" s="32"/>
+      <c r="BE66" s="32"/>
+      <c r="BF66" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="23"/>
-      <c r="BH66" s="23"/>
-      <c r="BI66" s="23"/>
-      <c r="BJ66" s="21" t="s">
+      <c r="BG66" s="32"/>
+      <c r="BH66" s="32"/>
+      <c r="BI66" s="32"/>
+      <c r="BJ66" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="23"/>
-      <c r="BL66" s="23"/>
-      <c r="BM66" s="23"/>
-      <c r="BN66" s="21" t="s">
+      <c r="BK66" s="32"/>
+      <c r="BL66" s="32"/>
+      <c r="BM66" s="32"/>
+      <c r="BN66" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="23"/>
-      <c r="BP66" s="23"/>
-      <c r="BQ66" s="23"/>
-      <c r="BR66" s="21" t="s">
+      <c r="BO66" s="32"/>
+      <c r="BP66" s="32"/>
+      <c r="BQ66" s="32"/>
+      <c r="BR66" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="23"/>
-      <c r="BT66" s="23"/>
-      <c r="BU66" s="23"/>
-      <c r="BV66" s="21" t="s">
+      <c r="BS66" s="32"/>
+      <c r="BT66" s="32"/>
+      <c r="BU66" s="32"/>
+      <c r="BV66" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="23"/>
-      <c r="BX66" s="23"/>
-      <c r="BY66" s="23"/>
-      <c r="BZ66" s="21" t="s">
+      <c r="BW66" s="32"/>
+      <c r="BX66" s="32"/>
+      <c r="BY66" s="32"/>
+      <c r="BZ66" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="23"/>
-      <c r="CB66" s="23"/>
-      <c r="CC66" s="23"/>
-      <c r="CD66" s="21" t="s">
+      <c r="CA66" s="32"/>
+      <c r="CB66" s="32"/>
+      <c r="CC66" s="32"/>
+      <c r="CD66" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="21"/>
-      <c r="CF66" s="21"/>
-      <c r="CG66" s="21"/>
+      <c r="CE66" s="30"/>
+      <c r="CF66" s="30"/>
+      <c r="CG66" s="30"/>
       <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
@@ -30040,14 +30088,15 @@
       <c r="CM66" s="19"/>
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
-      <c r="CP66" s="19" t="s">
+      <c r="CP66" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="19"/>
-      <c r="CR66" s="20"/>
+      <c r="CQ66" s="22"/>
+      <c r="CR66" s="22"/>
       <c r="CS66" s="20"/>
-      <c r="CT66" s="19"/>
-      <c r="CU66" s="20"/>
+      <c r="CT66" s="22"/>
+      <c r="CU66" s="22"/>
+      <c r="CV66" s="20"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30329,16 +30378,19 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="5" t="s">
+      <c r="CP67" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="5" t="s">
+      <c r="CQ67" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CR67" s="5"/>
-      <c r="CS67" s="5"/>
-      <c r="CT67" s="5"/>
-      <c r="CU67" s="5"/>
+      <c r="CR67" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS67" s="28"/>
+      <c r="CT67" s="28"/>
+      <c r="CU67" s="28"/>
+      <c r="CV67" s="28"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -30623,17 +30675,19 @@
       <c r="CO69" s="12">
         <v>8.8291281355484301</v>
       </c>
-      <c r="CP69" s="12">
+      <c r="CP69" s="29">
         <v>6.9741302057149852</v>
       </c>
-      <c r="CQ69" s="12">
-        <v>12.721527333129856</v>
-      </c>
-      <c r="CR69" s="12"/>
-      <c r="CS69" s="12"/>
-      <c r="CT69" s="12"/>
-      <c r="CU69" s="12"/>
-      <c r="CV69" s="11"/>
+      <c r="CQ69" s="29">
+        <v>13.505442633795965</v>
+      </c>
+      <c r="CR69" s="29">
+        <v>8.5470133824544945</v>
+      </c>
+      <c r="CS69" s="29"/>
+      <c r="CT69" s="29"/>
+      <c r="CU69" s="29"/>
+      <c r="CV69" s="29"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
       <c r="CY69" s="11"/>
@@ -30962,17 +31016,19 @@
       <c r="CO70" s="12">
         <v>2.2002192740638122</v>
       </c>
-      <c r="CP70" s="12">
+      <c r="CP70" s="29">
         <v>2.2285684481725241</v>
       </c>
-      <c r="CQ70" s="12">
+      <c r="CQ70" s="29">
         <v>2.2454618055610496</v>
       </c>
-      <c r="CR70" s="12"/>
-      <c r="CS70" s="12"/>
-      <c r="CT70" s="12"/>
-      <c r="CU70" s="12"/>
-      <c r="CV70" s="11"/>
+      <c r="CR70" s="29">
+        <v>2.1905020985510788</v>
+      </c>
+      <c r="CS70" s="29"/>
+      <c r="CT70" s="29"/>
+      <c r="CU70" s="29"/>
+      <c r="CV70" s="29"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
       <c r="CY70" s="11"/>
@@ -31114,13 +31170,13 @@
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
-      <c r="CP71" s="11"/>
-      <c r="CQ71" s="11"/>
-      <c r="CR71" s="11"/>
-      <c r="CS71" s="11"/>
-      <c r="CT71" s="11"/>
-      <c r="CU71" s="11"/>
-      <c r="CV71" s="11"/>
+      <c r="CP71" s="25"/>
+      <c r="CQ71" s="25"/>
+      <c r="CR71" s="25"/>
+      <c r="CS71" s="25"/>
+      <c r="CT71" s="25"/>
+      <c r="CU71" s="25"/>
+      <c r="CV71" s="25"/>
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="11"/>
@@ -31449,17 +31505,19 @@
       <c r="CO72" s="12">
         <v>5.4952919564641718</v>
       </c>
-      <c r="CP72" s="12">
+      <c r="CP72" s="29">
         <v>4.4727263722779327</v>
       </c>
-      <c r="CQ72" s="12">
-        <v>7.1836034014828982</v>
-      </c>
-      <c r="CR72" s="12"/>
-      <c r="CS72" s="12"/>
-      <c r="CT72" s="12"/>
-      <c r="CU72" s="12"/>
-      <c r="CV72" s="11"/>
+      <c r="CQ72" s="29">
+        <v>7.5531204442802959</v>
+      </c>
+      <c r="CR72" s="29">
+        <v>5.4157640538094967</v>
+      </c>
+      <c r="CS72" s="29"/>
+      <c r="CT72" s="29"/>
+      <c r="CU72" s="29"/>
+      <c r="CV72" s="29"/>
       <c r="CW72" s="11"/>
       <c r="CX72" s="11"/>
       <c r="CY72" s="11"/>
@@ -31602,12 +31660,13 @@
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
-      <c r="CP73" s="9"/>
-      <c r="CQ73" s="9"/>
-      <c r="CR73" s="9"/>
-      <c r="CS73" s="9"/>
-      <c r="CT73" s="9"/>
-      <c r="CU73" s="9"/>
+      <c r="CP73" s="27"/>
+      <c r="CQ73" s="27"/>
+      <c r="CR73" s="27"/>
+      <c r="CS73" s="27"/>
+      <c r="CT73" s="27"/>
+      <c r="CU73" s="27"/>
+      <c r="CV73" s="27"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -31707,13 +31766,13 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="11"/>
-      <c r="CS75" s="11"/>
-      <c r="CT75" s="11"/>
-      <c r="CU75" s="11"/>
-      <c r="CV75" s="11"/>
+      <c r="CP75" s="25"/>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="25"/>
+      <c r="CS75" s="25"/>
+      <c r="CT75" s="25"/>
+      <c r="CU75" s="25"/>
+      <c r="CV75" s="25"/>
       <c r="CW75" s="11"/>
       <c r="CX75" s="11"/>
       <c r="CY75" s="11"/>
@@ -31855,13 +31914,13 @@
       <c r="CM76" s="11"/>
       <c r="CN76" s="11"/>
       <c r="CO76" s="11"/>
-      <c r="CP76" s="11"/>
-      <c r="CQ76" s="11"/>
-      <c r="CR76" s="11"/>
-      <c r="CS76" s="11"/>
-      <c r="CT76" s="11"/>
-      <c r="CU76" s="11"/>
-      <c r="CV76" s="11"/>
+      <c r="CP76" s="25"/>
+      <c r="CQ76" s="25"/>
+      <c r="CR76" s="25"/>
+      <c r="CS76" s="25"/>
+      <c r="CT76" s="25"/>
+      <c r="CU76" s="25"/>
+      <c r="CV76" s="25"/>
       <c r="CW76" s="11"/>
       <c r="CX76" s="11"/>
       <c r="CY76" s="11"/>
@@ -31941,132 +32000,132 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="21">
+      <c r="B84" s="30">
         <v>2000</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="21">
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="30">
         <v>2001</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="21">
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="30">
         <v>2002</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="21">
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="30">
         <v>2003</v>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="21">
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="30">
         <v>2004</v>
       </c>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="21">
+      <c r="S84" s="31"/>
+      <c r="T84" s="31"/>
+      <c r="U84" s="31"/>
+      <c r="V84" s="30">
         <v>2005</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="21">
+      <c r="W84" s="31"/>
+      <c r="X84" s="31"/>
+      <c r="Y84" s="31"/>
+      <c r="Z84" s="30">
         <v>2006</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="21">
+      <c r="AA84" s="31"/>
+      <c r="AB84" s="31"/>
+      <c r="AC84" s="31"/>
+      <c r="AD84" s="30">
         <v>2007</v>
       </c>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="21">
+      <c r="AE84" s="31"/>
+      <c r="AF84" s="31"/>
+      <c r="AG84" s="31"/>
+      <c r="AH84" s="30">
         <v>2008</v>
       </c>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="21">
+      <c r="AI84" s="31"/>
+      <c r="AJ84" s="31"/>
+      <c r="AK84" s="31"/>
+      <c r="AL84" s="30">
         <v>2009</v>
       </c>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="21">
+      <c r="AM84" s="31"/>
+      <c r="AN84" s="31"/>
+      <c r="AO84" s="31"/>
+      <c r="AP84" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="21">
+      <c r="AQ84" s="31"/>
+      <c r="AR84" s="31"/>
+      <c r="AS84" s="31"/>
+      <c r="AT84" s="30">
         <v>2011</v>
       </c>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="21">
+      <c r="AU84" s="31"/>
+      <c r="AV84" s="31"/>
+      <c r="AW84" s="31"/>
+      <c r="AX84" s="30">
         <v>2012</v>
       </c>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="21">
+      <c r="AY84" s="31"/>
+      <c r="AZ84" s="31"/>
+      <c r="BA84" s="31"/>
+      <c r="BB84" s="30">
         <v>2013</v>
       </c>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="21">
+      <c r="BC84" s="31"/>
+      <c r="BD84" s="31"/>
+      <c r="BE84" s="31"/>
+      <c r="BF84" s="30">
         <v>2014</v>
       </c>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="21">
+      <c r="BG84" s="31"/>
+      <c r="BH84" s="31"/>
+      <c r="BI84" s="31"/>
+      <c r="BJ84" s="30">
         <v>2015</v>
       </c>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="21">
+      <c r="BK84" s="31"/>
+      <c r="BL84" s="31"/>
+      <c r="BM84" s="31"/>
+      <c r="BN84" s="30">
         <v>2016</v>
       </c>
-      <c r="BO84" s="22"/>
-      <c r="BP84" s="22"/>
-      <c r="BQ84" s="22"/>
-      <c r="BR84" s="21">
+      <c r="BO84" s="31"/>
+      <c r="BP84" s="31"/>
+      <c r="BQ84" s="31"/>
+      <c r="BR84" s="30">
         <v>2017</v>
       </c>
-      <c r="BS84" s="22"/>
-      <c r="BT84" s="22"/>
-      <c r="BU84" s="22"/>
-      <c r="BV84" s="21">
+      <c r="BS84" s="31"/>
+      <c r="BT84" s="31"/>
+      <c r="BU84" s="31"/>
+      <c r="BV84" s="30">
         <v>2018</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="21">
+      <c r="BW84" s="31"/>
+      <c r="BX84" s="31"/>
+      <c r="BY84" s="31"/>
+      <c r="BZ84" s="30">
         <v>2019</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="21">
+      <c r="CA84" s="31"/>
+      <c r="CB84" s="31"/>
+      <c r="CC84" s="31"/>
+      <c r="CD84" s="30">
         <v>2020</v>
       </c>
-      <c r="CE84" s="21"/>
-      <c r="CF84" s="21"/>
-      <c r="CG84" s="21"/>
+      <c r="CE84" s="30"/>
+      <c r="CF84" s="30"/>
+      <c r="CG84" s="30"/>
       <c r="CH84" s="19">
         <v>2021</v>
       </c>
@@ -32079,16 +32138,17 @@
       <c r="CM84" s="19"/>
       <c r="CN84" s="19"/>
       <c r="CO84" s="19"/>
-      <c r="CP84" s="19">
+      <c r="CP84" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="19"/>
-      <c r="CR84" s="19"/>
-      <c r="CS84" s="19"/>
-      <c r="CT84" s="19">
+      <c r="CQ84" s="22"/>
+      <c r="CR84" s="22"/>
+      <c r="CS84" s="22"/>
+      <c r="CT84" s="22">
         <v>2024</v>
       </c>
-      <c r="CU84" s="19"/>
+      <c r="CU84" s="22"/>
+      <c r="CV84" s="22"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32370,23 +32430,26 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="6" t="s">
+      <c r="CR85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="6" t="s">
+      <c r="CS85" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="6" t="s">
+      <c r="CT85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU85" s="6" t="s">
+      <c r="CU85" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV85" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32672,25 +32735,27 @@
       <c r="CO87" s="12">
         <v>119.31361711245292</v>
       </c>
-      <c r="CP87" s="12">
+      <c r="CP87" s="29">
         <v>124.27084358739076</v>
       </c>
-      <c r="CQ87" s="12">
+      <c r="CQ87" s="29">
         <v>121.73708762942729</v>
       </c>
-      <c r="CR87" s="12">
+      <c r="CR87" s="29">
         <v>120.04768191833337</v>
       </c>
-      <c r="CS87" s="12">
+      <c r="CS87" s="29">
         <v>125.2312909397745</v>
       </c>
-      <c r="CT87" s="12">
+      <c r="CT87" s="29">
         <v>128.78732503714525</v>
       </c>
-      <c r="CU87" s="12">
-        <v>127.11612532463492</v>
-      </c>
-      <c r="CV87" s="11"/>
+      <c r="CU87" s="29">
+        <v>127.08335502112548</v>
+      </c>
+      <c r="CV87" s="29">
+        <v>124.36237525698502</v>
+      </c>
       <c r="CW87" s="11"/>
       <c r="CX87" s="11"/>
       <c r="CY87" s="11"/>
@@ -33023,25 +33088,27 @@
       <c r="CO88" s="12">
         <v>111.63409104070634</v>
       </c>
-      <c r="CP88" s="12">
+      <c r="CP88" s="29">
         <v>113.35819627225069</v>
       </c>
-      <c r="CQ88" s="12">
+      <c r="CQ88" s="29">
         <v>114.70867114401497</v>
       </c>
-      <c r="CR88" s="12">
+      <c r="CR88" s="29">
         <v>116.03448708778154</v>
       </c>
-      <c r="CS88" s="12">
+      <c r="CS88" s="29">
         <v>116.24119531118899</v>
       </c>
-      <c r="CT88" s="12">
+      <c r="CT88" s="29">
         <v>116.99280012202308</v>
       </c>
-      <c r="CU88" s="12">
-        <v>117.97841695467343</v>
-      </c>
-      <c r="CV88" s="11"/>
+      <c r="CU88" s="29">
+        <v>117.98074442019086</v>
+      </c>
+      <c r="CV88" s="29">
+        <v>119.03658871418594</v>
+      </c>
       <c r="CW88" s="11"/>
       <c r="CX88" s="11"/>
       <c r="CY88" s="11"/>
@@ -33187,13 +33254,13 @@
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
-      <c r="CP89" s="11"/>
-      <c r="CQ89" s="11"/>
-      <c r="CR89" s="11"/>
-      <c r="CS89" s="11"/>
-      <c r="CT89" s="11"/>
-      <c r="CU89" s="11"/>
-      <c r="CV89" s="11"/>
+      <c r="CP89" s="25"/>
+      <c r="CQ89" s="25"/>
+      <c r="CR89" s="25"/>
+      <c r="CS89" s="25"/>
+      <c r="CT89" s="25"/>
+      <c r="CU89" s="25"/>
+      <c r="CV89" s="25"/>
       <c r="CW89" s="11"/>
       <c r="CX89" s="11"/>
       <c r="CY89" s="11"/>
@@ -33526,25 +33593,27 @@
       <c r="CO90" s="12">
         <v>115.45140051071859</v>
       </c>
-      <c r="CP90" s="12">
+      <c r="CP90" s="29">
         <v>118.51874526443609</v>
       </c>
-      <c r="CQ90" s="12">
+      <c r="CQ90" s="29">
         <v>118.02168171165046</v>
       </c>
-      <c r="CR90" s="12">
+      <c r="CR90" s="29">
         <v>118.07076202349913</v>
       </c>
-      <c r="CS90" s="12">
+      <c r="CS90" s="29">
         <v>120.85117841344757</v>
       </c>
-      <c r="CT90" s="12">
+      <c r="CT90" s="29">
         <v>122.70393048597592</v>
       </c>
-      <c r="CU90" s="12">
-        <v>122.50823895847194</v>
-      </c>
-      <c r="CV90" s="11"/>
+      <c r="CU90" s="29">
+        <v>122.5089378316315</v>
+      </c>
+      <c r="CV90" s="29">
+        <v>121.81913402502491</v>
+      </c>
       <c r="CW90" s="11"/>
       <c r="CX90" s="11"/>
       <c r="CY90" s="11"/>
@@ -33691,12 +33760,13 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
-      <c r="CR91" s="9"/>
-      <c r="CS91" s="9"/>
-      <c r="CT91" s="9"/>
-      <c r="CU91" s="9"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
+      <c r="CT91" s="27"/>
+      <c r="CU91" s="27"/>
+      <c r="CV91" s="27"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33735,132 +33805,132 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="21">
+      <c r="B103" s="30">
         <v>2000</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="21">
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="30">
         <v>2001</v>
       </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="21">
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="30">
         <v>2002</v>
       </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="21">
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="30">
         <v>2003</v>
       </c>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="21">
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="31"/>
+      <c r="R103" s="30">
         <v>2004</v>
       </c>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="21">
+      <c r="S103" s="31"/>
+      <c r="T103" s="31"/>
+      <c r="U103" s="31"/>
+      <c r="V103" s="30">
         <v>2005</v>
       </c>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="21">
+      <c r="W103" s="31"/>
+      <c r="X103" s="31"/>
+      <c r="Y103" s="31"/>
+      <c r="Z103" s="30">
         <v>2006</v>
       </c>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="21">
+      <c r="AA103" s="31"/>
+      <c r="AB103" s="31"/>
+      <c r="AC103" s="31"/>
+      <c r="AD103" s="30">
         <v>2007</v>
       </c>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="21">
+      <c r="AE103" s="31"/>
+      <c r="AF103" s="31"/>
+      <c r="AG103" s="31"/>
+      <c r="AH103" s="30">
         <v>2008</v>
       </c>
-      <c r="AI103" s="22"/>
-      <c r="AJ103" s="22"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="21">
+      <c r="AI103" s="31"/>
+      <c r="AJ103" s="31"/>
+      <c r="AK103" s="31"/>
+      <c r="AL103" s="30">
         <v>2009</v>
       </c>
-      <c r="AM103" s="22"/>
-      <c r="AN103" s="22"/>
-      <c r="AO103" s="22"/>
-      <c r="AP103" s="21">
+      <c r="AM103" s="31"/>
+      <c r="AN103" s="31"/>
+      <c r="AO103" s="31"/>
+      <c r="AP103" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="22"/>
-      <c r="AR103" s="22"/>
-      <c r="AS103" s="22"/>
-      <c r="AT103" s="21">
+      <c r="AQ103" s="31"/>
+      <c r="AR103" s="31"/>
+      <c r="AS103" s="31"/>
+      <c r="AT103" s="30">
         <v>2011</v>
       </c>
-      <c r="AU103" s="22"/>
-      <c r="AV103" s="22"/>
-      <c r="AW103" s="22"/>
-      <c r="AX103" s="21">
+      <c r="AU103" s="31"/>
+      <c r="AV103" s="31"/>
+      <c r="AW103" s="31"/>
+      <c r="AX103" s="30">
         <v>2012</v>
       </c>
-      <c r="AY103" s="22"/>
-      <c r="AZ103" s="22"/>
-      <c r="BA103" s="22"/>
-      <c r="BB103" s="21">
+      <c r="AY103" s="31"/>
+      <c r="AZ103" s="31"/>
+      <c r="BA103" s="31"/>
+      <c r="BB103" s="30">
         <v>2013</v>
       </c>
-      <c r="BC103" s="22"/>
-      <c r="BD103" s="22"/>
-      <c r="BE103" s="22"/>
-      <c r="BF103" s="21">
+      <c r="BC103" s="31"/>
+      <c r="BD103" s="31"/>
+      <c r="BE103" s="31"/>
+      <c r="BF103" s="30">
         <v>2014</v>
       </c>
-      <c r="BG103" s="22"/>
-      <c r="BH103" s="22"/>
-      <c r="BI103" s="22"/>
-      <c r="BJ103" s="21">
+      <c r="BG103" s="31"/>
+      <c r="BH103" s="31"/>
+      <c r="BI103" s="31"/>
+      <c r="BJ103" s="30">
         <v>2015</v>
       </c>
-      <c r="BK103" s="22"/>
-      <c r="BL103" s="22"/>
-      <c r="BM103" s="22"/>
-      <c r="BN103" s="21">
+      <c r="BK103" s="31"/>
+      <c r="BL103" s="31"/>
+      <c r="BM103" s="31"/>
+      <c r="BN103" s="30">
         <v>2016</v>
       </c>
-      <c r="BO103" s="22"/>
-      <c r="BP103" s="22"/>
-      <c r="BQ103" s="22"/>
-      <c r="BR103" s="21">
+      <c r="BO103" s="31"/>
+      <c r="BP103" s="31"/>
+      <c r="BQ103" s="31"/>
+      <c r="BR103" s="30">
         <v>2017</v>
       </c>
-      <c r="BS103" s="22"/>
-      <c r="BT103" s="22"/>
-      <c r="BU103" s="22"/>
-      <c r="BV103" s="21">
+      <c r="BS103" s="31"/>
+      <c r="BT103" s="31"/>
+      <c r="BU103" s="31"/>
+      <c r="BV103" s="30">
         <v>2018</v>
       </c>
-      <c r="BW103" s="22"/>
-      <c r="BX103" s="22"/>
-      <c r="BY103" s="22"/>
-      <c r="BZ103" s="21">
+      <c r="BW103" s="31"/>
+      <c r="BX103" s="31"/>
+      <c r="BY103" s="31"/>
+      <c r="BZ103" s="30">
         <v>2019</v>
       </c>
-      <c r="CA103" s="22"/>
-      <c r="CB103" s="22"/>
-      <c r="CC103" s="22"/>
-      <c r="CD103" s="21">
+      <c r="CA103" s="31"/>
+      <c r="CB103" s="31"/>
+      <c r="CC103" s="31"/>
+      <c r="CD103" s="30">
         <v>2020</v>
       </c>
-      <c r="CE103" s="21"/>
-      <c r="CF103" s="21"/>
-      <c r="CG103" s="21"/>
+      <c r="CE103" s="30"/>
+      <c r="CF103" s="30"/>
+      <c r="CG103" s="30"/>
       <c r="CH103" s="19">
         <v>2021</v>
       </c>
@@ -33873,16 +33943,17 @@
       <c r="CM103" s="19"/>
       <c r="CN103" s="19"/>
       <c r="CO103" s="19"/>
-      <c r="CP103" s="19">
+      <c r="CP103" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="19"/>
-      <c r="CR103" s="19"/>
-      <c r="CS103" s="19"/>
-      <c r="CT103" s="19">
+      <c r="CQ103" s="22"/>
+      <c r="CR103" s="22"/>
+      <c r="CS103" s="22"/>
+      <c r="CT103" s="22">
         <v>2024</v>
       </c>
-      <c r="CU103" s="19"/>
+      <c r="CU103" s="22"/>
+      <c r="CV103" s="22"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -34164,23 +34235,26 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="6" t="s">
+      <c r="CR104" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="6" t="s">
+      <c r="CS104" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="6" t="s">
+      <c r="CT104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU104" s="6" t="s">
+      <c r="CU104" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV104" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34466,25 +34540,27 @@
       <c r="CO106" s="12">
         <v>51.370495756025427</v>
       </c>
-      <c r="CP106" s="12">
+      <c r="CP106" s="29">
         <v>49.584733950522512</v>
       </c>
-      <c r="CQ106" s="12">
+      <c r="CQ106" s="29">
         <v>48.621286002386704</v>
       </c>
-      <c r="CR106" s="12">
+      <c r="CR106" s="29">
         <v>51.589056314993812</v>
       </c>
-      <c r="CS106" s="12">
+      <c r="CS106" s="29">
         <v>53.136994937690439</v>
       </c>
-      <c r="CT106" s="12">
+      <c r="CT106" s="29">
         <v>50.822528714224177</v>
       </c>
-      <c r="CU106" s="12">
-        <v>51.437421900163386</v>
-      </c>
-      <c r="CV106" s="11"/>
+      <c r="CU106" s="29">
+        <v>51.603588240305932</v>
+      </c>
+      <c r="CV106" s="29">
+        <v>53.337418158361814</v>
+      </c>
       <c r="CW106" s="11"/>
       <c r="CX106" s="11"/>
       <c r="CY106" s="11"/>
@@ -34817,25 +34893,27 @@
       <c r="CO107" s="12">
         <v>48.629504243974587</v>
       </c>
-      <c r="CP107" s="12">
+      <c r="CP107" s="29">
         <v>50.415266049477495</v>
       </c>
-      <c r="CQ107" s="12">
+      <c r="CQ107" s="29">
         <v>51.378713997613303</v>
       </c>
-      <c r="CR107" s="12">
+      <c r="CR107" s="29">
         <v>48.410943685006188</v>
       </c>
-      <c r="CS107" s="12">
+      <c r="CS107" s="29">
         <v>46.863005062309568</v>
       </c>
-      <c r="CT107" s="12">
+      <c r="CT107" s="29">
         <v>49.177471285775809</v>
       </c>
-      <c r="CU107" s="12">
-        <v>48.562578099836614</v>
-      </c>
-      <c r="CV107" s="11"/>
+      <c r="CU107" s="29">
+        <v>48.396411759694068</v>
+      </c>
+      <c r="CV107" s="29">
+        <v>46.662581841638186</v>
+      </c>
       <c r="CW107" s="11"/>
       <c r="CX107" s="11"/>
       <c r="CY107" s="11"/>
@@ -34981,13 +35059,13 @@
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
-      <c r="CP108" s="11"/>
-      <c r="CQ108" s="11"/>
-      <c r="CR108" s="11"/>
-      <c r="CS108" s="11"/>
-      <c r="CT108" s="11"/>
-      <c r="CU108" s="11"/>
-      <c r="CV108" s="11"/>
+      <c r="CP108" s="25"/>
+      <c r="CQ108" s="25"/>
+      <c r="CR108" s="25"/>
+      <c r="CS108" s="25"/>
+      <c r="CT108" s="25"/>
+      <c r="CU108" s="25"/>
+      <c r="CV108" s="25"/>
       <c r="CW108" s="11"/>
       <c r="CX108" s="11"/>
       <c r="CY108" s="11"/>
@@ -35320,25 +35398,27 @@
       <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="12">
+      <c r="CP109" s="29">
         <v>100</v>
       </c>
-      <c r="CQ109" s="12">
+      <c r="CQ109" s="29">
         <v>100</v>
       </c>
-      <c r="CR109" s="12">
+      <c r="CR109" s="29">
         <v>100</v>
       </c>
-      <c r="CS109" s="12">
+      <c r="CS109" s="29">
         <v>100</v>
       </c>
-      <c r="CT109" s="12">
+      <c r="CT109" s="29">
         <v>100</v>
       </c>
-      <c r="CU109" s="12">
+      <c r="CU109" s="29">
         <v>100</v>
       </c>
-      <c r="CV109" s="11"/>
+      <c r="CV109" s="29">
+        <v>100</v>
+      </c>
       <c r="CW109" s="11"/>
       <c r="CX109" s="11"/>
       <c r="CY109" s="11"/>
@@ -35485,12 +35565,13 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
-      <c r="CR110" s="9"/>
-      <c r="CS110" s="9"/>
-      <c r="CT110" s="9"/>
-      <c r="CU110" s="9"/>
+      <c r="CP110" s="27"/>
+      <c r="CQ110" s="27"/>
+      <c r="CR110" s="27"/>
+      <c r="CS110" s="27"/>
+      <c r="CT110" s="27"/>
+      <c r="CU110" s="27"/>
+      <c r="CV110" s="27"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35590,13 +35671,13 @@
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
-      <c r="CP112" s="11"/>
-      <c r="CQ112" s="11"/>
-      <c r="CR112" s="11"/>
-      <c r="CS112" s="11"/>
-      <c r="CT112" s="11"/>
-      <c r="CU112" s="11"/>
-      <c r="CV112" s="11"/>
+      <c r="CP112" s="25"/>
+      <c r="CQ112" s="25"/>
+      <c r="CR112" s="25"/>
+      <c r="CS112" s="25"/>
+      <c r="CT112" s="25"/>
+      <c r="CU112" s="25"/>
+      <c r="CV112" s="25"/>
       <c r="CW112" s="11"/>
       <c r="CX112" s="11"/>
       <c r="CY112" s="11"/>
@@ -35742,13 +35823,13 @@
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
-      <c r="CP113" s="11"/>
-      <c r="CQ113" s="11"/>
-      <c r="CR113" s="11"/>
-      <c r="CS113" s="11"/>
-      <c r="CT113" s="11"/>
-      <c r="CU113" s="11"/>
-      <c r="CV113" s="11"/>
+      <c r="CP113" s="25"/>
+      <c r="CQ113" s="25"/>
+      <c r="CR113" s="25"/>
+      <c r="CS113" s="25"/>
+      <c r="CT113" s="25"/>
+      <c r="CU113" s="25"/>
+      <c r="CV113" s="25"/>
       <c r="CW113" s="11"/>
       <c r="CX113" s="11"/>
       <c r="CY113" s="11"/>
@@ -35833,132 +35914,132 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="21">
+      <c r="B122" s="30">
         <v>2000</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="21">
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="30">
         <v>2001</v>
       </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="21">
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="30">
         <v>2002</v>
       </c>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="21">
+      <c r="K122" s="31"/>
+      <c r="L122" s="31"/>
+      <c r="M122" s="31"/>
+      <c r="N122" s="30">
         <v>2003</v>
       </c>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="21">
+      <c r="O122" s="31"/>
+      <c r="P122" s="31"/>
+      <c r="Q122" s="31"/>
+      <c r="R122" s="30">
         <v>2004</v>
       </c>
-      <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="22"/>
-      <c r="V122" s="21">
+      <c r="S122" s="31"/>
+      <c r="T122" s="31"/>
+      <c r="U122" s="31"/>
+      <c r="V122" s="30">
         <v>2005</v>
       </c>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-      <c r="Y122" s="22"/>
-      <c r="Z122" s="21">
+      <c r="W122" s="31"/>
+      <c r="X122" s="31"/>
+      <c r="Y122" s="31"/>
+      <c r="Z122" s="30">
         <v>2006</v>
       </c>
-      <c r="AA122" s="22"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="22"/>
-      <c r="AD122" s="21">
+      <c r="AA122" s="31"/>
+      <c r="AB122" s="31"/>
+      <c r="AC122" s="31"/>
+      <c r="AD122" s="30">
         <v>2007</v>
       </c>
-      <c r="AE122" s="22"/>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="22"/>
-      <c r="AH122" s="21">
+      <c r="AE122" s="31"/>
+      <c r="AF122" s="31"/>
+      <c r="AG122" s="31"/>
+      <c r="AH122" s="30">
         <v>2008</v>
       </c>
-      <c r="AI122" s="22"/>
-      <c r="AJ122" s="22"/>
-      <c r="AK122" s="22"/>
-      <c r="AL122" s="21">
+      <c r="AI122" s="31"/>
+      <c r="AJ122" s="31"/>
+      <c r="AK122" s="31"/>
+      <c r="AL122" s="30">
         <v>2009</v>
       </c>
-      <c r="AM122" s="22"/>
-      <c r="AN122" s="22"/>
-      <c r="AO122" s="22"/>
-      <c r="AP122" s="21">
+      <c r="AM122" s="31"/>
+      <c r="AN122" s="31"/>
+      <c r="AO122" s="31"/>
+      <c r="AP122" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="22"/>
-      <c r="AR122" s="22"/>
-      <c r="AS122" s="22"/>
-      <c r="AT122" s="21">
+      <c r="AQ122" s="31"/>
+      <c r="AR122" s="31"/>
+      <c r="AS122" s="31"/>
+      <c r="AT122" s="30">
         <v>2011</v>
       </c>
-      <c r="AU122" s="22"/>
-      <c r="AV122" s="22"/>
-      <c r="AW122" s="22"/>
-      <c r="AX122" s="21">
+      <c r="AU122" s="31"/>
+      <c r="AV122" s="31"/>
+      <c r="AW122" s="31"/>
+      <c r="AX122" s="30">
         <v>2012</v>
       </c>
-      <c r="AY122" s="22"/>
-      <c r="AZ122" s="22"/>
-      <c r="BA122" s="22"/>
-      <c r="BB122" s="21">
+      <c r="AY122" s="31"/>
+      <c r="AZ122" s="31"/>
+      <c r="BA122" s="31"/>
+      <c r="BB122" s="30">
         <v>2013</v>
       </c>
-      <c r="BC122" s="22"/>
-      <c r="BD122" s="22"/>
-      <c r="BE122" s="22"/>
-      <c r="BF122" s="21">
+      <c r="BC122" s="31"/>
+      <c r="BD122" s="31"/>
+      <c r="BE122" s="31"/>
+      <c r="BF122" s="30">
         <v>2014</v>
       </c>
-      <c r="BG122" s="22"/>
-      <c r="BH122" s="22"/>
-      <c r="BI122" s="22"/>
-      <c r="BJ122" s="21">
+      <c r="BG122" s="31"/>
+      <c r="BH122" s="31"/>
+      <c r="BI122" s="31"/>
+      <c r="BJ122" s="30">
         <v>2015</v>
       </c>
-      <c r="BK122" s="22"/>
-      <c r="BL122" s="22"/>
-      <c r="BM122" s="22"/>
-      <c r="BN122" s="21">
+      <c r="BK122" s="31"/>
+      <c r="BL122" s="31"/>
+      <c r="BM122" s="31"/>
+      <c r="BN122" s="30">
         <v>2016</v>
       </c>
-      <c r="BO122" s="22"/>
-      <c r="BP122" s="22"/>
-      <c r="BQ122" s="22"/>
-      <c r="BR122" s="21">
+      <c r="BO122" s="31"/>
+      <c r="BP122" s="31"/>
+      <c r="BQ122" s="31"/>
+      <c r="BR122" s="30">
         <v>2017</v>
       </c>
-      <c r="BS122" s="22"/>
-      <c r="BT122" s="22"/>
-      <c r="BU122" s="22"/>
-      <c r="BV122" s="21">
+      <c r="BS122" s="31"/>
+      <c r="BT122" s="31"/>
+      <c r="BU122" s="31"/>
+      <c r="BV122" s="30">
         <v>2018</v>
       </c>
-      <c r="BW122" s="22"/>
-      <c r="BX122" s="22"/>
-      <c r="BY122" s="22"/>
-      <c r="BZ122" s="21">
+      <c r="BW122" s="31"/>
+      <c r="BX122" s="31"/>
+      <c r="BY122" s="31"/>
+      <c r="BZ122" s="30">
         <v>2019</v>
       </c>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="21">
+      <c r="CA122" s="31"/>
+      <c r="CB122" s="31"/>
+      <c r="CC122" s="31"/>
+      <c r="CD122" s="30">
         <v>2020</v>
       </c>
-      <c r="CE122" s="21"/>
-      <c r="CF122" s="21"/>
-      <c r="CG122" s="21"/>
+      <c r="CE122" s="30"/>
+      <c r="CF122" s="30"/>
+      <c r="CG122" s="30"/>
       <c r="CH122" s="19">
         <v>2021</v>
       </c>
@@ -35971,16 +36052,17 @@
       <c r="CM122" s="19"/>
       <c r="CN122" s="19"/>
       <c r="CO122" s="19"/>
-      <c r="CP122" s="19">
+      <c r="CP122" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="19"/>
-      <c r="CR122" s="19"/>
-      <c r="CS122" s="19"/>
-      <c r="CT122" s="19">
+      <c r="CQ122" s="22"/>
+      <c r="CR122" s="22"/>
+      <c r="CS122" s="22"/>
+      <c r="CT122" s="22">
         <v>2024</v>
       </c>
-      <c r="CU122" s="19"/>
+      <c r="CU122" s="22"/>
+      <c r="CV122" s="22"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -36262,23 +36344,26 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="6" t="s">
+      <c r="CR123" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="6" t="s">
+      <c r="CS123" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="6" t="s">
+      <c r="CT123" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU123" s="6" t="s">
+      <c r="CU123" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV123" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36564,25 +36649,27 @@
       <c r="CO125" s="12">
         <v>49.707617818453151</v>
       </c>
-      <c r="CP125" s="12">
+      <c r="CP125" s="29">
         <v>47.289615829751227</v>
       </c>
-      <c r="CQ125" s="12">
+      <c r="CQ125" s="29">
         <v>47.137368346223553</v>
       </c>
-      <c r="CR125" s="12">
+      <c r="CR125" s="29">
         <v>50.739498621291602</v>
       </c>
-      <c r="CS125" s="12">
+      <c r="CS125" s="29">
         <v>51.278465688400189</v>
       </c>
-      <c r="CT125" s="12">
+      <c r="CT125" s="29">
         <v>48.421877142591761</v>
       </c>
-      <c r="CU125" s="12">
-        <v>49.572844967228797</v>
-      </c>
-      <c r="CV125" s="11"/>
+      <c r="CU125" s="29">
+        <v>49.746096037280715</v>
+      </c>
+      <c r="CV125" s="29">
+        <v>52.246654808222083</v>
+      </c>
       <c r="CW125" s="11"/>
       <c r="CX125" s="11"/>
       <c r="CY125" s="11"/>
@@ -36915,25 +37002,27 @@
       <c r="CO126" s="12">
         <v>50.292382181546856</v>
       </c>
-      <c r="CP126" s="12">
+      <c r="CP126" s="29">
         <v>52.710384170248773</v>
       </c>
-      <c r="CQ126" s="12">
+      <c r="CQ126" s="29">
         <v>52.86263165377644</v>
       </c>
-      <c r="CR126" s="12">
+      <c r="CR126" s="29">
         <v>49.260501378708391</v>
       </c>
-      <c r="CS126" s="12">
+      <c r="CS126" s="29">
         <v>48.721534311599804</v>
       </c>
-      <c r="CT126" s="12">
+      <c r="CT126" s="29">
         <v>51.578122857408239</v>
       </c>
-      <c r="CU126" s="12">
-        <v>50.427155032771211</v>
-      </c>
-      <c r="CV126" s="11"/>
+      <c r="CU126" s="29">
+        <v>50.253903962719285</v>
+      </c>
+      <c r="CV126" s="29">
+        <v>47.75334519177791</v>
+      </c>
       <c r="CW126" s="11"/>
       <c r="CX126" s="11"/>
       <c r="CY126" s="11"/>
@@ -37079,13 +37168,13 @@
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
-      <c r="CP127" s="11"/>
-      <c r="CQ127" s="11"/>
-      <c r="CR127" s="11"/>
-      <c r="CS127" s="11"/>
-      <c r="CT127" s="11"/>
-      <c r="CU127" s="11"/>
-      <c r="CV127" s="11"/>
+      <c r="CP127" s="25"/>
+      <c r="CQ127" s="25"/>
+      <c r="CR127" s="25"/>
+      <c r="CS127" s="25"/>
+      <c r="CT127" s="25"/>
+      <c r="CU127" s="25"/>
+      <c r="CV127" s="25"/>
       <c r="CW127" s="11"/>
       <c r="CX127" s="11"/>
       <c r="CY127" s="11"/>
@@ -37418,25 +37507,27 @@
       <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="12">
+      <c r="CP128" s="29">
         <v>100</v>
       </c>
-      <c r="CQ128" s="12">
+      <c r="CQ128" s="29">
         <v>100</v>
       </c>
-      <c r="CR128" s="12">
+      <c r="CR128" s="29">
         <v>100</v>
       </c>
-      <c r="CS128" s="12">
+      <c r="CS128" s="29">
         <v>100</v>
       </c>
-      <c r="CT128" s="12">
+      <c r="CT128" s="29">
         <v>100</v>
       </c>
-      <c r="CU128" s="12">
+      <c r="CU128" s="29">
         <v>100</v>
       </c>
-      <c r="CV128" s="11"/>
+      <c r="CV128" s="29">
+        <v>100</v>
+      </c>
       <c r="CW128" s="11"/>
       <c r="CX128" s="11"/>
       <c r="CY128" s="11"/>
@@ -37583,12 +37674,13 @@
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
-      <c r="CP129" s="9"/>
-      <c r="CQ129" s="9"/>
-      <c r="CR129" s="9"/>
-      <c r="CS129" s="9"/>
-      <c r="CT129" s="9"/>
-      <c r="CU129" s="9"/>
+      <c r="CP129" s="27"/>
+      <c r="CQ129" s="27"/>
+      <c r="CR129" s="27"/>
+      <c r="CS129" s="27"/>
+      <c r="CT129" s="27"/>
+      <c r="CU129" s="27"/>
+      <c r="CV129" s="27"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37689,13 +37781,13 @@
       <c r="CM131" s="3"/>
       <c r="CN131" s="3"/>
       <c r="CO131" s="3"/>
-      <c r="CP131" s="3"/>
-      <c r="CQ131" s="3"/>
-      <c r="CR131" s="3"/>
-      <c r="CS131" s="3"/>
-      <c r="CT131" s="3"/>
-      <c r="CU131" s="3"/>
-      <c r="CV131" s="13"/>
+      <c r="CP131" s="21"/>
+      <c r="CQ131" s="21"/>
+      <c r="CR131" s="21"/>
+      <c r="CS131" s="21"/>
+      <c r="CT131" s="21"/>
+      <c r="CU131" s="21"/>
+      <c r="CV131" s="21"/>
       <c r="CW131" s="13"/>
       <c r="CX131" s="13"/>
       <c r="CY131" s="13"/>
@@ -37842,13 +37934,13 @@
       <c r="CM132" s="3"/>
       <c r="CN132" s="3"/>
       <c r="CO132" s="3"/>
-      <c r="CP132" s="3"/>
-      <c r="CQ132" s="3"/>
-      <c r="CR132" s="3"/>
-      <c r="CS132" s="3"/>
-      <c r="CT132" s="3"/>
-      <c r="CU132" s="3"/>
-      <c r="CV132" s="13"/>
+      <c r="CP132" s="21"/>
+      <c r="CQ132" s="21"/>
+      <c r="CR132" s="21"/>
+      <c r="CS132" s="21"/>
+      <c r="CT132" s="21"/>
+      <c r="CU132" s="21"/>
+      <c r="CV132" s="21"/>
       <c r="CW132" s="13"/>
       <c r="CX132" s="13"/>
       <c r="CY132" s="13"/>
@@ -38056,9 +38148,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="98" man="1"/>
-    <brk id="76" max="98" man="1"/>
-    <brk id="94" max="98" man="1"/>
+    <brk id="38" max="99" man="1"/>
+    <brk id="76" max="99" man="1"/>
+    <brk id="94" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA403EE-11AE-44C8-AAD2-62E201B81C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA041958-5757-474C-9CB0-10F5BBD2D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="12" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CV$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CW$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +765,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23634,18 +23643,18 @@
   </sheetPr>
   <dimension ref="A1:EU132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="A4" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="93" width="8.33203125" style="3" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="21" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="3"/>
+    <col min="94" max="101" width="10.109375" style="21" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23660,7 +23669,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23670,7 +23679,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23680,132 +23689,132 @@
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23829,6 +23838,7 @@
       </c>
       <c r="CU9" s="22"/>
       <c r="CV9" s="22"/>
+      <c r="CW9" s="22"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24130,6 +24140,9 @@
       </c>
       <c r="CV10" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24434,9 +24447,11 @@
         <v>189366.93090094713</v>
       </c>
       <c r="CV12" s="24">
-        <v>205067.56970061615</v>
-      </c>
-      <c r="CW12" s="11"/>
+        <v>204241.04381846116</v>
+      </c>
+      <c r="CW12" s="24">
+        <v>204226.756103097</v>
+      </c>
       <c r="CX12" s="11"/>
       <c r="CY12" s="11"/>
       <c r="CZ12" s="11"/>
@@ -24789,7 +24804,9 @@
       <c r="CV13" s="24">
         <v>179404.67657826995</v>
       </c>
-      <c r="CW13" s="11"/>
+      <c r="CW13" s="24">
+        <v>176220.5105211937</v>
+      </c>
       <c r="CX13" s="11"/>
       <c r="CY13" s="11"/>
       <c r="CZ13" s="11"/>
@@ -24941,7 +24958,7 @@
       <c r="CT14" s="25"/>
       <c r="CU14" s="25"/>
       <c r="CV14" s="25"/>
-      <c r="CW14" s="11"/>
+      <c r="CW14" s="25"/>
       <c r="CX14" s="11"/>
       <c r="CY14" s="11"/>
       <c r="CZ14" s="11"/>
@@ -25292,9 +25309,11 @@
         <v>366964.6576108415</v>
       </c>
       <c r="CV15" s="26">
-        <v>384472.2462788861</v>
-      </c>
-      <c r="CW15" s="11"/>
+        <v>383645.72039673111</v>
+      </c>
+      <c r="CW15" s="26">
+        <v>380447.26662429073</v>
+      </c>
       <c r="CX15" s="11"/>
       <c r="CY15" s="11"/>
       <c r="CZ15" s="11"/>
@@ -25447,6 +25466,7 @@
       <c r="CT16" s="27"/>
       <c r="CU16" s="27"/>
       <c r="CV16" s="27"/>
+      <c r="CW16" s="27"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25553,7 +25573,7 @@
       <c r="CT18" s="25"/>
       <c r="CU18" s="25"/>
       <c r="CV18" s="25"/>
-      <c r="CW18" s="11"/>
+      <c r="CW18" s="25"/>
       <c r="CX18" s="11"/>
       <c r="CY18" s="11"/>
       <c r="CZ18" s="11"/>
@@ -25705,7 +25725,7 @@
       <c r="CT19" s="25"/>
       <c r="CU19" s="25"/>
       <c r="CV19" s="25"/>
-      <c r="CW19" s="11"/>
+      <c r="CW19" s="25"/>
       <c r="CX19" s="11"/>
       <c r="CY19" s="11"/>
       <c r="CZ19" s="11"/>
@@ -25769,7 +25789,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25779,7 +25799,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25789,132 +25809,132 @@
     </row>
     <row r="28" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="30">
+      <c r="B28" s="33">
         <v>2000</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="33">
         <v>2001</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="30">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33">
         <v>2002</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="30">
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="33">
         <v>2003</v>
       </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="30">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="33">
         <v>2004</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="30">
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="33">
         <v>2005</v>
       </c>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="30">
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="33">
         <v>2006</v>
       </c>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="30">
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="33">
         <v>2007</v>
       </c>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="30">
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="33">
         <v>2008</v>
       </c>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="30">
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="33">
         <v>2009</v>
       </c>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="30">
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="30">
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="33">
         <v>2011</v>
       </c>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
-      <c r="AX28" s="30">
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="33">
         <v>2012</v>
       </c>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="30">
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="33">
         <v>2013</v>
       </c>
-      <c r="BC28" s="31"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="30">
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="33">
         <v>2014</v>
       </c>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="30">
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="34"/>
+      <c r="BJ28" s="33">
         <v>2015</v>
       </c>
-      <c r="BK28" s="31"/>
-      <c r="BL28" s="31"/>
-      <c r="BM28" s="31"/>
-      <c r="BN28" s="30">
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+      <c r="BN28" s="33">
         <v>2016</v>
       </c>
-      <c r="BO28" s="31"/>
-      <c r="BP28" s="31"/>
-      <c r="BQ28" s="31"/>
-      <c r="BR28" s="30">
+      <c r="BO28" s="34"/>
+      <c r="BP28" s="34"/>
+      <c r="BQ28" s="34"/>
+      <c r="BR28" s="33">
         <v>2017</v>
       </c>
-      <c r="BS28" s="31"/>
-      <c r="BT28" s="31"/>
-      <c r="BU28" s="31"/>
-      <c r="BV28" s="30">
+      <c r="BS28" s="34"/>
+      <c r="BT28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="33">
         <v>2018</v>
       </c>
-      <c r="BW28" s="31"/>
-      <c r="BX28" s="31"/>
-      <c r="BY28" s="31"/>
-      <c r="BZ28" s="30">
+      <c r="BW28" s="34"/>
+      <c r="BX28" s="34"/>
+      <c r="BY28" s="34"/>
+      <c r="BZ28" s="33">
         <v>2019</v>
       </c>
-      <c r="CA28" s="31"/>
-      <c r="CB28" s="31"/>
-      <c r="CC28" s="31"/>
-      <c r="CD28" s="30">
+      <c r="CA28" s="34"/>
+      <c r="CB28" s="34"/>
+      <c r="CC28" s="34"/>
+      <c r="CD28" s="33">
         <v>2020</v>
       </c>
-      <c r="CE28" s="30"/>
-      <c r="CF28" s="30"/>
-      <c r="CG28" s="30"/>
+      <c r="CE28" s="33"/>
+      <c r="CF28" s="33"/>
+      <c r="CG28" s="33"/>
       <c r="CH28" s="19">
         <v>2021</v>
       </c>
@@ -25938,6 +25958,7 @@
       </c>
       <c r="CU28" s="22"/>
       <c r="CV28" s="22"/>
+      <c r="CW28" s="22"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26239,6 +26260,9 @@
       </c>
       <c r="CV29" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW29" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26543,9 +26567,11 @@
         <v>149010.01855787332</v>
       </c>
       <c r="CV31" s="24">
-        <v>164895.18576407072</v>
-      </c>
-      <c r="CW31" s="11"/>
+        <v>164230.57487959135</v>
+      </c>
+      <c r="CW31" s="24">
+        <v>158629.17483924539</v>
+      </c>
       <c r="CX31" s="11"/>
       <c r="CY31" s="11"/>
       <c r="CZ31" s="11"/>
@@ -26898,7 +26924,9 @@
       <c r="CV32" s="24">
         <v>150713.89269145762</v>
       </c>
-      <c r="CW32" s="11"/>
+      <c r="CW32" s="24">
+        <v>148118.79817223788</v>
+      </c>
       <c r="CX32" s="11"/>
       <c r="CY32" s="11"/>
       <c r="CZ32" s="11"/>
@@ -27050,7 +27078,7 @@
       <c r="CT33" s="25"/>
       <c r="CU33" s="25"/>
       <c r="CV33" s="25"/>
-      <c r="CW33" s="11"/>
+      <c r="CW33" s="25"/>
       <c r="CX33" s="11"/>
       <c r="CY33" s="11"/>
       <c r="CZ33" s="11"/>
@@ -27401,9 +27429,11 @@
         <v>299541.13071747829</v>
       </c>
       <c r="CV34" s="26">
-        <v>315609.07845552836</v>
-      </c>
-      <c r="CW34" s="11"/>
+        <v>314944.467571049</v>
+      </c>
+      <c r="CW34" s="26">
+        <v>306747.97301148326</v>
+      </c>
       <c r="CX34" s="11"/>
       <c r="CY34" s="11"/>
       <c r="CZ34" s="11"/>
@@ -27556,6 +27586,7 @@
       <c r="CT35" s="27"/>
       <c r="CU35" s="27"/>
       <c r="CV35" s="27"/>
+      <c r="CW35" s="27"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27662,7 +27693,7 @@
       <c r="CT37" s="25"/>
       <c r="CU37" s="25"/>
       <c r="CV37" s="25"/>
-      <c r="CW37" s="11"/>
+      <c r="CW37" s="25"/>
       <c r="CX37" s="11"/>
       <c r="CY37" s="11"/>
       <c r="CZ37" s="11"/>
@@ -27814,7 +27845,7 @@
       <c r="CT38" s="25"/>
       <c r="CU38" s="25"/>
       <c r="CV38" s="25"/>
-      <c r="CW38" s="11"/>
+      <c r="CW38" s="25"/>
       <c r="CX38" s="11"/>
       <c r="CY38" s="11"/>
       <c r="CZ38" s="11"/>
@@ -27878,152 +27909,169 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="CS43" s="30"/>
+      <c r="CT43" s="30"/>
+      <c r="CU43" s="30"/>
+      <c r="CV43" s="30"/>
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CS44" s="30"/>
+      <c r="CT44" s="30"/>
+      <c r="CU44" s="30"/>
+      <c r="CV44" s="30"/>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="CS45" s="30"/>
+      <c r="CT45" s="30"/>
+      <c r="CU45" s="30"/>
+      <c r="CV45" s="30"/>
+    </row>
+    <row r="46" spans="1:151" x14ac:dyDescent="0.2">
+      <c r="CT46" s="30"/>
+      <c r="CU46" s="30"/>
+      <c r="CV46" s="30"/>
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30" t="s">
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30" t="s">
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30" t="s">
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30" t="s">
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30" t="s">
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30" t="s">
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30" t="s">
+      <c r="AE47" s="33"/>
+      <c r="AF47" s="33"/>
+      <c r="AG47" s="33"/>
+      <c r="AH47" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30" t="s">
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="33"/>
+      <c r="AL47" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30" t="s">
+      <c r="AM47" s="33"/>
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="30" t="s">
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="33"/>
+      <c r="AS47" s="33"/>
+      <c r="AT47" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="30"/>
-      <c r="AV47" s="30"/>
-      <c r="AW47" s="30"/>
-      <c r="AX47" s="30" t="s">
+      <c r="AU47" s="33"/>
+      <c r="AV47" s="33"/>
+      <c r="AW47" s="33"/>
+      <c r="AX47" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="30"/>
-      <c r="AZ47" s="30"/>
-      <c r="BA47" s="30"/>
-      <c r="BB47" s="30" t="s">
+      <c r="AY47" s="33"/>
+      <c r="AZ47" s="33"/>
+      <c r="BA47" s="33"/>
+      <c r="BB47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="30"/>
-      <c r="BD47" s="30"/>
-      <c r="BE47" s="30"/>
-      <c r="BF47" s="30" t="s">
+      <c r="BC47" s="33"/>
+      <c r="BD47" s="33"/>
+      <c r="BE47" s="33"/>
+      <c r="BF47" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="30"/>
-      <c r="BH47" s="30"/>
-      <c r="BI47" s="30"/>
-      <c r="BJ47" s="30" t="s">
+      <c r="BG47" s="33"/>
+      <c r="BH47" s="33"/>
+      <c r="BI47" s="33"/>
+      <c r="BJ47" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="30"/>
-      <c r="BL47" s="30"/>
-      <c r="BM47" s="30"/>
-      <c r="BN47" s="30" t="s">
+      <c r="BK47" s="33"/>
+      <c r="BL47" s="33"/>
+      <c r="BM47" s="33"/>
+      <c r="BN47" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="30"/>
-      <c r="BP47" s="30"/>
-      <c r="BQ47" s="30"/>
-      <c r="BR47" s="30" t="s">
+      <c r="BO47" s="33"/>
+      <c r="BP47" s="33"/>
+      <c r="BQ47" s="33"/>
+      <c r="BR47" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="30"/>
-      <c r="BT47" s="30"/>
-      <c r="BU47" s="30"/>
-      <c r="BV47" s="30" t="s">
+      <c r="BS47" s="33"/>
+      <c r="BT47" s="33"/>
+      <c r="BU47" s="33"/>
+      <c r="BV47" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="30"/>
-      <c r="BX47" s="30"/>
-      <c r="BY47" s="30"/>
-      <c r="BZ47" s="30" t="s">
+      <c r="BW47" s="33"/>
+      <c r="BX47" s="33"/>
+      <c r="BY47" s="33"/>
+      <c r="BZ47" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="30"/>
-      <c r="CB47" s="30"/>
-      <c r="CC47" s="30"/>
-      <c r="CD47" s="30" t="s">
+      <c r="CA47" s="33"/>
+      <c r="CB47" s="33"/>
+      <c r="CC47" s="33"/>
+      <c r="CD47" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="30"/>
-      <c r="CF47" s="30"/>
-      <c r="CG47" s="30"/>
+      <c r="CE47" s="33"/>
+      <c r="CF47" s="33"/>
+      <c r="CG47" s="33"/>
       <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
@@ -28041,10 +28089,11 @@
       </c>
       <c r="CQ47" s="22"/>
       <c r="CR47" s="22"/>
-      <c r="CS47" s="20"/>
-      <c r="CT47" s="22"/>
-      <c r="CU47" s="22"/>
+      <c r="CS47" s="22"/>
+      <c r="CT47" s="20"/>
+      <c r="CU47" s="20"/>
       <c r="CV47" s="20"/>
+      <c r="CW47" s="20"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28335,13 +28384,19 @@
       <c r="CR48" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CS48" s="28"/>
+      <c r="CS48" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="CT48" s="28"/>
       <c r="CU48" s="28"/>
       <c r="CV48" s="28"/>
+      <c r="CW48" s="28"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
+      <c r="CT49" s="30"/>
+      <c r="CU49" s="30"/>
+      <c r="CV49" s="30"/>
     </row>
     <row r="50" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
@@ -28630,13 +28685,15 @@
         <v>18.490204948634229</v>
       </c>
       <c r="CR50" s="29">
-        <v>12.448355483257529</v>
-      </c>
-      <c r="CS50" s="29"/>
-      <c r="CT50" s="29"/>
-      <c r="CU50" s="29"/>
-      <c r="CV50" s="29"/>
-      <c r="CW50" s="11"/>
+        <v>11.995131814842466</v>
+      </c>
+      <c r="CS50" s="29">
+        <v>6.8301537222869229</v>
+      </c>
+      <c r="CT50" s="31"/>
+      <c r="CU50" s="31"/>
+      <c r="CV50" s="31"/>
+      <c r="CW50" s="29"/>
       <c r="CX50" s="11"/>
       <c r="CY50" s="11"/>
       <c r="CZ50" s="11"/>
@@ -28973,11 +29030,13 @@
       <c r="CR51" s="29">
         <v>4.8344252997718939</v>
       </c>
-      <c r="CS51" s="29"/>
-      <c r="CT51" s="29"/>
-      <c r="CU51" s="29"/>
-      <c r="CV51" s="29"/>
-      <c r="CW51" s="11"/>
+      <c r="CS51" s="29">
+        <v>4.5212332360363519</v>
+      </c>
+      <c r="CT51" s="31"/>
+      <c r="CU51" s="31"/>
+      <c r="CV51" s="31"/>
+      <c r="CW51" s="29"/>
       <c r="CX51" s="11"/>
       <c r="CY51" s="11"/>
       <c r="CZ51" s="11"/>
@@ -29123,10 +29182,10 @@
       <c r="CQ52" s="25"/>
       <c r="CR52" s="25"/>
       <c r="CS52" s="25"/>
-      <c r="CT52" s="25"/>
-      <c r="CU52" s="25"/>
-      <c r="CV52" s="25"/>
-      <c r="CW52" s="11"/>
+      <c r="CT52" s="32"/>
+      <c r="CU52" s="32"/>
+      <c r="CV52" s="32"/>
+      <c r="CW52" s="25"/>
       <c r="CX52" s="11"/>
       <c r="CY52" s="11"/>
       <c r="CZ52" s="11"/>
@@ -29461,13 +29520,15 @@
         <v>11.642355497851071</v>
       </c>
       <c r="CR53" s="29">
-        <v>8.7623800299146097</v>
-      </c>
-      <c r="CS53" s="29"/>
-      <c r="CT53" s="29"/>
-      <c r="CU53" s="29"/>
-      <c r="CV53" s="29"/>
-      <c r="CW53" s="11"/>
+        <v>8.5285662163830693</v>
+      </c>
+      <c r="CS53" s="29">
+        <v>5.7481241979306219</v>
+      </c>
+      <c r="CT53" s="31"/>
+      <c r="CU53" s="31"/>
+      <c r="CV53" s="31"/>
+      <c r="CW53" s="29"/>
       <c r="CX53" s="11"/>
       <c r="CY53" s="11"/>
       <c r="CZ53" s="11"/>
@@ -29613,14 +29674,18 @@
       <c r="CQ54" s="27"/>
       <c r="CR54" s="27"/>
       <c r="CS54" s="27"/>
-      <c r="CT54" s="27"/>
-      <c r="CU54" s="27"/>
-      <c r="CV54" s="27"/>
+      <c r="CT54" s="23"/>
+      <c r="CU54" s="23"/>
+      <c r="CV54" s="23"/>
+      <c r="CW54" s="27"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="CT55" s="30"/>
+      <c r="CU55" s="30"/>
+      <c r="CV55" s="30"/>
     </row>
     <row r="56" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
@@ -29719,10 +29784,10 @@
       <c r="CQ56" s="25"/>
       <c r="CR56" s="25"/>
       <c r="CS56" s="25"/>
-      <c r="CT56" s="25"/>
-      <c r="CU56" s="25"/>
-      <c r="CV56" s="25"/>
-      <c r="CW56" s="11"/>
+      <c r="CT56" s="32"/>
+      <c r="CU56" s="32"/>
+      <c r="CV56" s="32"/>
+      <c r="CW56" s="25"/>
       <c r="CX56" s="11"/>
       <c r="CY56" s="11"/>
       <c r="CZ56" s="11"/>
@@ -29867,10 +29932,10 @@
       <c r="CQ57" s="25"/>
       <c r="CR57" s="25"/>
       <c r="CS57" s="25"/>
-      <c r="CT57" s="25"/>
-      <c r="CU57" s="25"/>
-      <c r="CV57" s="25"/>
-      <c r="CW57" s="11"/>
+      <c r="CT57" s="32"/>
+      <c r="CU57" s="32"/>
+      <c r="CV57" s="32"/>
+      <c r="CW57" s="25"/>
       <c r="CX57" s="11"/>
       <c r="CY57" s="11"/>
       <c r="CZ57" s="11"/>
@@ -29922,160 +29987,188 @@
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="CT58" s="30"/>
+      <c r="CU58" s="30"/>
+      <c r="CV58" s="30"/>
     </row>
     <row r="59" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="CT59" s="30"/>
+      <c r="CU59" s="30"/>
+      <c r="CV59" s="30"/>
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CT60" s="30"/>
+      <c r="CU60" s="30"/>
+      <c r="CV60" s="30"/>
+    </row>
+    <row r="61" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="CT61" s="30"/>
+      <c r="CU61" s="30"/>
+      <c r="CV61" s="30"/>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="CT62" s="30"/>
+      <c r="CU62" s="30"/>
+      <c r="CV62" s="30"/>
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CT63" s="30"/>
+      <c r="CU63" s="30"/>
+      <c r="CV63" s="30"/>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="CT64" s="30"/>
+      <c r="CU64" s="30"/>
+      <c r="CV64" s="30"/>
+    </row>
+    <row r="65" spans="1:151" x14ac:dyDescent="0.2">
+      <c r="CT65" s="30"/>
+      <c r="CU65" s="30"/>
+      <c r="CV65" s="30"/>
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="30" t="s">
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="30" t="s">
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="30" t="s">
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="30" t="s">
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="30" t="s">
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="30" t="s">
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="30" t="s">
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="30" t="s">
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+      <c r="AH66" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="32"/>
-      <c r="AJ66" s="32"/>
-      <c r="AK66" s="32"/>
-      <c r="AL66" s="30" t="s">
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="32"/>
-      <c r="AN66" s="32"/>
-      <c r="AO66" s="32"/>
-      <c r="AP66" s="30" t="s">
+      <c r="AM66" s="35"/>
+      <c r="AN66" s="35"/>
+      <c r="AO66" s="35"/>
+      <c r="AP66" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="32"/>
-      <c r="AR66" s="32"/>
-      <c r="AS66" s="32"/>
-      <c r="AT66" s="30" t="s">
+      <c r="AQ66" s="35"/>
+      <c r="AR66" s="35"/>
+      <c r="AS66" s="35"/>
+      <c r="AT66" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="32"/>
-      <c r="AV66" s="32"/>
-      <c r="AW66" s="32"/>
-      <c r="AX66" s="30" t="s">
+      <c r="AU66" s="35"/>
+      <c r="AV66" s="35"/>
+      <c r="AW66" s="35"/>
+      <c r="AX66" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="32"/>
-      <c r="AZ66" s="32"/>
-      <c r="BA66" s="32"/>
-      <c r="BB66" s="30" t="s">
+      <c r="AY66" s="35"/>
+      <c r="AZ66" s="35"/>
+      <c r="BA66" s="35"/>
+      <c r="BB66" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="32"/>
-      <c r="BD66" s="32"/>
-      <c r="BE66" s="32"/>
-      <c r="BF66" s="30" t="s">
+      <c r="BC66" s="35"/>
+      <c r="BD66" s="35"/>
+      <c r="BE66" s="35"/>
+      <c r="BF66" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="32"/>
-      <c r="BH66" s="32"/>
-      <c r="BI66" s="32"/>
-      <c r="BJ66" s="30" t="s">
+      <c r="BG66" s="35"/>
+      <c r="BH66" s="35"/>
+      <c r="BI66" s="35"/>
+      <c r="BJ66" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="32"/>
-      <c r="BL66" s="32"/>
-      <c r="BM66" s="32"/>
-      <c r="BN66" s="30" t="s">
+      <c r="BK66" s="35"/>
+      <c r="BL66" s="35"/>
+      <c r="BM66" s="35"/>
+      <c r="BN66" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="32"/>
-      <c r="BP66" s="32"/>
-      <c r="BQ66" s="32"/>
-      <c r="BR66" s="30" t="s">
+      <c r="BO66" s="35"/>
+      <c r="BP66" s="35"/>
+      <c r="BQ66" s="35"/>
+      <c r="BR66" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="32"/>
-      <c r="BT66" s="32"/>
-      <c r="BU66" s="32"/>
-      <c r="BV66" s="30" t="s">
+      <c r="BS66" s="35"/>
+      <c r="BT66" s="35"/>
+      <c r="BU66" s="35"/>
+      <c r="BV66" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="32"/>
-      <c r="BX66" s="32"/>
-      <c r="BY66" s="32"/>
-      <c r="BZ66" s="30" t="s">
+      <c r="BW66" s="35"/>
+      <c r="BX66" s="35"/>
+      <c r="BY66" s="35"/>
+      <c r="BZ66" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="32"/>
-      <c r="CB66" s="32"/>
-      <c r="CC66" s="32"/>
-      <c r="CD66" s="30" t="s">
+      <c r="CA66" s="35"/>
+      <c r="CB66" s="35"/>
+      <c r="CC66" s="35"/>
+      <c r="CD66" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="30"/>
-      <c r="CF66" s="30"/>
-      <c r="CG66" s="30"/>
+      <c r="CE66" s="33"/>
+      <c r="CF66" s="33"/>
+      <c r="CG66" s="33"/>
       <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
@@ -30093,10 +30186,11 @@
       </c>
       <c r="CQ66" s="22"/>
       <c r="CR66" s="22"/>
-      <c r="CS66" s="20"/>
-      <c r="CT66" s="22"/>
-      <c r="CU66" s="22"/>
+      <c r="CS66" s="22"/>
+      <c r="CT66" s="20"/>
+      <c r="CU66" s="20"/>
       <c r="CV66" s="20"/>
+      <c r="CW66" s="20"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30387,13 +30481,19 @@
       <c r="CR67" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CS67" s="28"/>
+      <c r="CS67" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="CT67" s="28"/>
       <c r="CU67" s="28"/>
       <c r="CV67" s="28"/>
+      <c r="CW67" s="28"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
+      <c r="CT68" s="30"/>
+      <c r="CU68" s="30"/>
+      <c r="CV68" s="30"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
@@ -30682,13 +30782,15 @@
         <v>13.505442633795965</v>
       </c>
       <c r="CR69" s="29">
-        <v>8.5470133824544945</v>
-      </c>
-      <c r="CS69" s="29"/>
-      <c r="CT69" s="29"/>
-      <c r="CU69" s="29"/>
-      <c r="CV69" s="29"/>
-      <c r="CW69" s="11"/>
+        <v>8.1095140932094836</v>
+      </c>
+      <c r="CS69" s="29">
+        <v>3.9147355647470476</v>
+      </c>
+      <c r="CT69" s="31"/>
+      <c r="CU69" s="31"/>
+      <c r="CV69" s="31"/>
+      <c r="CW69" s="29"/>
       <c r="CX69" s="11"/>
       <c r="CY69" s="11"/>
       <c r="CZ69" s="11"/>
@@ -31025,11 +31127,13 @@
       <c r="CR70" s="29">
         <v>2.1905020985510788</v>
       </c>
-      <c r="CS70" s="29"/>
-      <c r="CT70" s="29"/>
-      <c r="CU70" s="29"/>
-      <c r="CV70" s="29"/>
-      <c r="CW70" s="11"/>
+      <c r="CS70" s="29">
+        <v>2.1217661027893513</v>
+      </c>
+      <c r="CT70" s="31"/>
+      <c r="CU70" s="31"/>
+      <c r="CV70" s="31"/>
+      <c r="CW70" s="29"/>
       <c r="CX70" s="11"/>
       <c r="CY70" s="11"/>
       <c r="CZ70" s="11"/>
@@ -31174,10 +31278,10 @@
       <c r="CQ71" s="25"/>
       <c r="CR71" s="25"/>
       <c r="CS71" s="25"/>
-      <c r="CT71" s="25"/>
-      <c r="CU71" s="25"/>
-      <c r="CV71" s="25"/>
-      <c r="CW71" s="11"/>
+      <c r="CT71" s="32"/>
+      <c r="CU71" s="32"/>
+      <c r="CV71" s="32"/>
+      <c r="CW71" s="25"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="11"/>
       <c r="CZ71" s="11"/>
@@ -31512,13 +31616,15 @@
         <v>7.5531204442802959</v>
       </c>
       <c r="CR72" s="29">
-        <v>5.4157640538094967</v>
-      </c>
-      <c r="CS72" s="29"/>
-      <c r="CT72" s="29"/>
-      <c r="CU72" s="29"/>
-      <c r="CV72" s="29"/>
-      <c r="CW72" s="11"/>
+        <v>5.1937791079748763</v>
+      </c>
+      <c r="CS72" s="29">
+        <v>3.0411733331427939</v>
+      </c>
+      <c r="CT72" s="31"/>
+      <c r="CU72" s="31"/>
+      <c r="CV72" s="31"/>
+      <c r="CW72" s="29"/>
       <c r="CX72" s="11"/>
       <c r="CY72" s="11"/>
       <c r="CZ72" s="11"/>
@@ -31664,14 +31770,18 @@
       <c r="CQ73" s="27"/>
       <c r="CR73" s="27"/>
       <c r="CS73" s="27"/>
-      <c r="CT73" s="27"/>
-      <c r="CU73" s="27"/>
-      <c r="CV73" s="27"/>
+      <c r="CT73" s="23"/>
+      <c r="CU73" s="23"/>
+      <c r="CV73" s="23"/>
+      <c r="CW73" s="27"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="CT74" s="30"/>
+      <c r="CU74" s="30"/>
+      <c r="CV74" s="30"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
@@ -31773,7 +31883,7 @@
       <c r="CT75" s="25"/>
       <c r="CU75" s="25"/>
       <c r="CV75" s="25"/>
-      <c r="CW75" s="11"/>
+      <c r="CW75" s="25"/>
       <c r="CX75" s="11"/>
       <c r="CY75" s="11"/>
       <c r="CZ75" s="11"/>
@@ -31921,7 +32031,7 @@
       <c r="CT76" s="25"/>
       <c r="CU76" s="25"/>
       <c r="CV76" s="25"/>
-      <c r="CW76" s="11"/>
+      <c r="CW76" s="25"/>
       <c r="CX76" s="11"/>
       <c r="CY76" s="11"/>
       <c r="CZ76" s="11"/>
@@ -31980,7 +32090,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -31990,7 +32100,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -32000,132 +32110,132 @@
     </row>
     <row r="84" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="30">
+      <c r="B84" s="33">
         <v>2000</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="30">
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="33">
         <v>2001</v>
       </c>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="30">
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="33">
         <v>2002</v>
       </c>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="30">
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="33">
         <v>2003</v>
       </c>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="30">
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="33">
         <v>2004</v>
       </c>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="30">
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="33">
         <v>2005</v>
       </c>
-      <c r="W84" s="31"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="31"/>
-      <c r="Z84" s="30">
+      <c r="W84" s="34"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="33">
         <v>2006</v>
       </c>
-      <c r="AA84" s="31"/>
-      <c r="AB84" s="31"/>
-      <c r="AC84" s="31"/>
-      <c r="AD84" s="30">
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="34"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="33">
         <v>2007</v>
       </c>
-      <c r="AE84" s="31"/>
-      <c r="AF84" s="31"/>
-      <c r="AG84" s="31"/>
-      <c r="AH84" s="30">
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="34"/>
+      <c r="AG84" s="34"/>
+      <c r="AH84" s="33">
         <v>2008</v>
       </c>
-      <c r="AI84" s="31"/>
-      <c r="AJ84" s="31"/>
-      <c r="AK84" s="31"/>
-      <c r="AL84" s="30">
+      <c r="AI84" s="34"/>
+      <c r="AJ84" s="34"/>
+      <c r="AK84" s="34"/>
+      <c r="AL84" s="33">
         <v>2009</v>
       </c>
-      <c r="AM84" s="31"/>
-      <c r="AN84" s="31"/>
-      <c r="AO84" s="31"/>
-      <c r="AP84" s="30">
+      <c r="AM84" s="34"/>
+      <c r="AN84" s="34"/>
+      <c r="AO84" s="34"/>
+      <c r="AP84" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="31"/>
-      <c r="AR84" s="31"/>
-      <c r="AS84" s="31"/>
-      <c r="AT84" s="30">
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="34"/>
+      <c r="AS84" s="34"/>
+      <c r="AT84" s="33">
         <v>2011</v>
       </c>
-      <c r="AU84" s="31"/>
-      <c r="AV84" s="31"/>
-      <c r="AW84" s="31"/>
-      <c r="AX84" s="30">
+      <c r="AU84" s="34"/>
+      <c r="AV84" s="34"/>
+      <c r="AW84" s="34"/>
+      <c r="AX84" s="33">
         <v>2012</v>
       </c>
-      <c r="AY84" s="31"/>
-      <c r="AZ84" s="31"/>
-      <c r="BA84" s="31"/>
-      <c r="BB84" s="30">
+      <c r="AY84" s="34"/>
+      <c r="AZ84" s="34"/>
+      <c r="BA84" s="34"/>
+      <c r="BB84" s="33">
         <v>2013</v>
       </c>
-      <c r="BC84" s="31"/>
-      <c r="BD84" s="31"/>
-      <c r="BE84" s="31"/>
-      <c r="BF84" s="30">
+      <c r="BC84" s="34"/>
+      <c r="BD84" s="34"/>
+      <c r="BE84" s="34"/>
+      <c r="BF84" s="33">
         <v>2014</v>
       </c>
-      <c r="BG84" s="31"/>
-      <c r="BH84" s="31"/>
-      <c r="BI84" s="31"/>
-      <c r="BJ84" s="30">
+      <c r="BG84" s="34"/>
+      <c r="BH84" s="34"/>
+      <c r="BI84" s="34"/>
+      <c r="BJ84" s="33">
         <v>2015</v>
       </c>
-      <c r="BK84" s="31"/>
-      <c r="BL84" s="31"/>
-      <c r="BM84" s="31"/>
-      <c r="BN84" s="30">
+      <c r="BK84" s="34"/>
+      <c r="BL84" s="34"/>
+      <c r="BM84" s="34"/>
+      <c r="BN84" s="33">
         <v>2016</v>
       </c>
-      <c r="BO84" s="31"/>
-      <c r="BP84" s="31"/>
-      <c r="BQ84" s="31"/>
-      <c r="BR84" s="30">
+      <c r="BO84" s="34"/>
+      <c r="BP84" s="34"/>
+      <c r="BQ84" s="34"/>
+      <c r="BR84" s="33">
         <v>2017</v>
       </c>
-      <c r="BS84" s="31"/>
-      <c r="BT84" s="31"/>
-      <c r="BU84" s="31"/>
-      <c r="BV84" s="30">
+      <c r="BS84" s="34"/>
+      <c r="BT84" s="34"/>
+      <c r="BU84" s="34"/>
+      <c r="BV84" s="33">
         <v>2018</v>
       </c>
-      <c r="BW84" s="31"/>
-      <c r="BX84" s="31"/>
-      <c r="BY84" s="31"/>
-      <c r="BZ84" s="30">
+      <c r="BW84" s="34"/>
+      <c r="BX84" s="34"/>
+      <c r="BY84" s="34"/>
+      <c r="BZ84" s="33">
         <v>2019</v>
       </c>
-      <c r="CA84" s="31"/>
-      <c r="CB84" s="31"/>
-      <c r="CC84" s="31"/>
-      <c r="CD84" s="30">
+      <c r="CA84" s="34"/>
+      <c r="CB84" s="34"/>
+      <c r="CC84" s="34"/>
+      <c r="CD84" s="33">
         <v>2020</v>
       </c>
-      <c r="CE84" s="30"/>
-      <c r="CF84" s="30"/>
-      <c r="CG84" s="30"/>
+      <c r="CE84" s="33"/>
+      <c r="CF84" s="33"/>
+      <c r="CG84" s="33"/>
       <c r="CH84" s="19">
         <v>2021</v>
       </c>
@@ -32149,6 +32259,7 @@
       </c>
       <c r="CU84" s="22"/>
       <c r="CV84" s="22"/>
+      <c r="CW84" s="22"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32450,6 +32561,9 @@
       </c>
       <c r="CV85" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW85" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32756,7 +32870,9 @@
       <c r="CV87" s="29">
         <v>124.36237525698502</v>
       </c>
-      <c r="CW87" s="11"/>
+      <c r="CW87" s="29">
+        <v>128.74476357206052</v>
+      </c>
       <c r="CX87" s="11"/>
       <c r="CY87" s="11"/>
       <c r="CZ87" s="11"/>
@@ -33109,7 +33225,9 @@
       <c r="CV88" s="29">
         <v>119.03658871418594</v>
       </c>
-      <c r="CW88" s="11"/>
+      <c r="CW88" s="29">
+        <v>118.97241450492876</v>
+      </c>
       <c r="CX88" s="11"/>
       <c r="CY88" s="11"/>
       <c r="CZ88" s="11"/>
@@ -33261,7 +33379,7 @@
       <c r="CT89" s="25"/>
       <c r="CU89" s="25"/>
       <c r="CV89" s="25"/>
-      <c r="CW89" s="11"/>
+      <c r="CW89" s="25"/>
       <c r="CX89" s="11"/>
       <c r="CY89" s="11"/>
       <c r="CZ89" s="11"/>
@@ -33612,9 +33730,11 @@
         <v>122.5089378316315</v>
       </c>
       <c r="CV90" s="29">
-        <v>121.81913402502491</v>
-      </c>
-      <c r="CW90" s="11"/>
+        <v>121.81376715569188</v>
+      </c>
+      <c r="CW90" s="29">
+        <v>124.02600835117777</v>
+      </c>
       <c r="CX90" s="11"/>
       <c r="CY90" s="11"/>
       <c r="CZ90" s="11"/>
@@ -33767,6 +33887,7 @@
       <c r="CT91" s="27"/>
       <c r="CU91" s="27"/>
       <c r="CV91" s="27"/>
+      <c r="CW91" s="27"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33785,7 +33906,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33795,7 +33916,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -33805,132 +33926,132 @@
     </row>
     <row r="103" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="30">
+      <c r="B103" s="33">
         <v>2000</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="30">
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="33">
         <v>2001</v>
       </c>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="30">
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="33">
         <v>2002</v>
       </c>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="30">
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="33">
         <v>2003</v>
       </c>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="31"/>
-      <c r="R103" s="30">
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="33">
         <v>2004</v>
       </c>
-      <c r="S103" s="31"/>
-      <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
-      <c r="V103" s="30">
+      <c r="S103" s="34"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="34"/>
+      <c r="V103" s="33">
         <v>2005</v>
       </c>
-      <c r="W103" s="31"/>
-      <c r="X103" s="31"/>
-      <c r="Y103" s="31"/>
-      <c r="Z103" s="30">
+      <c r="W103" s="34"/>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="33">
         <v>2006</v>
       </c>
-      <c r="AA103" s="31"/>
-      <c r="AB103" s="31"/>
-      <c r="AC103" s="31"/>
-      <c r="AD103" s="30">
+      <c r="AA103" s="34"/>
+      <c r="AB103" s="34"/>
+      <c r="AC103" s="34"/>
+      <c r="AD103" s="33">
         <v>2007</v>
       </c>
-      <c r="AE103" s="31"/>
-      <c r="AF103" s="31"/>
-      <c r="AG103" s="31"/>
-      <c r="AH103" s="30">
+      <c r="AE103" s="34"/>
+      <c r="AF103" s="34"/>
+      <c r="AG103" s="34"/>
+      <c r="AH103" s="33">
         <v>2008</v>
       </c>
-      <c r="AI103" s="31"/>
-      <c r="AJ103" s="31"/>
-      <c r="AK103" s="31"/>
-      <c r="AL103" s="30">
+      <c r="AI103" s="34"/>
+      <c r="AJ103" s="34"/>
+      <c r="AK103" s="34"/>
+      <c r="AL103" s="33">
         <v>2009</v>
       </c>
-      <c r="AM103" s="31"/>
-      <c r="AN103" s="31"/>
-      <c r="AO103" s="31"/>
-      <c r="AP103" s="30">
+      <c r="AM103" s="34"/>
+      <c r="AN103" s="34"/>
+      <c r="AO103" s="34"/>
+      <c r="AP103" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="31"/>
-      <c r="AR103" s="31"/>
-      <c r="AS103" s="31"/>
-      <c r="AT103" s="30">
+      <c r="AQ103" s="34"/>
+      <c r="AR103" s="34"/>
+      <c r="AS103" s="34"/>
+      <c r="AT103" s="33">
         <v>2011</v>
       </c>
-      <c r="AU103" s="31"/>
-      <c r="AV103" s="31"/>
-      <c r="AW103" s="31"/>
-      <c r="AX103" s="30">
+      <c r="AU103" s="34"/>
+      <c r="AV103" s="34"/>
+      <c r="AW103" s="34"/>
+      <c r="AX103" s="33">
         <v>2012</v>
       </c>
-      <c r="AY103" s="31"/>
-      <c r="AZ103" s="31"/>
-      <c r="BA103" s="31"/>
-      <c r="BB103" s="30">
+      <c r="AY103" s="34"/>
+      <c r="AZ103" s="34"/>
+      <c r="BA103" s="34"/>
+      <c r="BB103" s="33">
         <v>2013</v>
       </c>
-      <c r="BC103" s="31"/>
-      <c r="BD103" s="31"/>
-      <c r="BE103" s="31"/>
-      <c r="BF103" s="30">
+      <c r="BC103" s="34"/>
+      <c r="BD103" s="34"/>
+      <c r="BE103" s="34"/>
+      <c r="BF103" s="33">
         <v>2014</v>
       </c>
-      <c r="BG103" s="31"/>
-      <c r="BH103" s="31"/>
-      <c r="BI103" s="31"/>
-      <c r="BJ103" s="30">
+      <c r="BG103" s="34"/>
+      <c r="BH103" s="34"/>
+      <c r="BI103" s="34"/>
+      <c r="BJ103" s="33">
         <v>2015</v>
       </c>
-      <c r="BK103" s="31"/>
-      <c r="BL103" s="31"/>
-      <c r="BM103" s="31"/>
-      <c r="BN103" s="30">
+      <c r="BK103" s="34"/>
+      <c r="BL103" s="34"/>
+      <c r="BM103" s="34"/>
+      <c r="BN103" s="33">
         <v>2016</v>
       </c>
-      <c r="BO103" s="31"/>
-      <c r="BP103" s="31"/>
-      <c r="BQ103" s="31"/>
-      <c r="BR103" s="30">
+      <c r="BO103" s="34"/>
+      <c r="BP103" s="34"/>
+      <c r="BQ103" s="34"/>
+      <c r="BR103" s="33">
         <v>2017</v>
       </c>
-      <c r="BS103" s="31"/>
-      <c r="BT103" s="31"/>
-      <c r="BU103" s="31"/>
-      <c r="BV103" s="30">
+      <c r="BS103" s="34"/>
+      <c r="BT103" s="34"/>
+      <c r="BU103" s="34"/>
+      <c r="BV103" s="33">
         <v>2018</v>
       </c>
-      <c r="BW103" s="31"/>
-      <c r="BX103" s="31"/>
-      <c r="BY103" s="31"/>
-      <c r="BZ103" s="30">
+      <c r="BW103" s="34"/>
+      <c r="BX103" s="34"/>
+      <c r="BY103" s="34"/>
+      <c r="BZ103" s="33">
         <v>2019</v>
       </c>
-      <c r="CA103" s="31"/>
-      <c r="CB103" s="31"/>
-      <c r="CC103" s="31"/>
-      <c r="CD103" s="30">
+      <c r="CA103" s="34"/>
+      <c r="CB103" s="34"/>
+      <c r="CC103" s="34"/>
+      <c r="CD103" s="33">
         <v>2020</v>
       </c>
-      <c r="CE103" s="30"/>
-      <c r="CF103" s="30"/>
-      <c r="CG103" s="30"/>
+      <c r="CE103" s="33"/>
+      <c r="CF103" s="33"/>
+      <c r="CG103" s="33"/>
       <c r="CH103" s="19">
         <v>2021</v>
       </c>
@@ -33954,6 +34075,7 @@
       </c>
       <c r="CU103" s="22"/>
       <c r="CV103" s="22"/>
+      <c r="CW103" s="22"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -34255,6 +34377,9 @@
       </c>
       <c r="CV104" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW104" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34559,9 +34684,11 @@
         <v>51.603588240305932</v>
       </c>
       <c r="CV106" s="29">
-        <v>53.337418158361814</v>
-      </c>
-      <c r="CW106" s="11"/>
+        <v>53.236888347732346</v>
+      </c>
+      <c r="CW106" s="29">
+        <v>53.680700065268269</v>
+      </c>
       <c r="CX106" s="11"/>
       <c r="CY106" s="11"/>
       <c r="CZ106" s="11"/>
@@ -34912,9 +35039,11 @@
         <v>48.396411759694068</v>
       </c>
       <c r="CV107" s="29">
-        <v>46.662581841638186</v>
-      </c>
-      <c r="CW107" s="11"/>
+        <v>46.763111652267654</v>
+      </c>
+      <c r="CW107" s="29">
+        <v>46.319299934731717</v>
+      </c>
       <c r="CX107" s="11"/>
       <c r="CY107" s="11"/>
       <c r="CZ107" s="11"/>
@@ -35066,7 +35195,7 @@
       <c r="CT108" s="25"/>
       <c r="CU108" s="25"/>
       <c r="CV108" s="25"/>
-      <c r="CW108" s="11"/>
+      <c r="CW108" s="25"/>
       <c r="CX108" s="11"/>
       <c r="CY108" s="11"/>
       <c r="CZ108" s="11"/>
@@ -35419,7 +35548,9 @@
       <c r="CV109" s="29">
         <v>100</v>
       </c>
-      <c r="CW109" s="11"/>
+      <c r="CW109" s="29">
+        <v>100</v>
+      </c>
       <c r="CX109" s="11"/>
       <c r="CY109" s="11"/>
       <c r="CZ109" s="11"/>
@@ -35572,6 +35703,7 @@
       <c r="CT110" s="27"/>
       <c r="CU110" s="27"/>
       <c r="CV110" s="27"/>
+      <c r="CW110" s="27"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35678,7 +35810,7 @@
       <c r="CT112" s="25"/>
       <c r="CU112" s="25"/>
       <c r="CV112" s="25"/>
-      <c r="CW112" s="11"/>
+      <c r="CW112" s="25"/>
       <c r="CX112" s="11"/>
       <c r="CY112" s="11"/>
       <c r="CZ112" s="11"/>
@@ -35830,7 +35962,7 @@
       <c r="CT113" s="25"/>
       <c r="CU113" s="25"/>
       <c r="CV113" s="25"/>
-      <c r="CW113" s="11"/>
+      <c r="CW113" s="25"/>
       <c r="CX113" s="11"/>
       <c r="CY113" s="11"/>
       <c r="CZ113" s="11"/>
@@ -35894,7 +36026,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -35904,7 +36036,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -35914,132 +36046,132 @@
     </row>
     <row r="122" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="30">
+      <c r="B122" s="33">
         <v>2000</v>
       </c>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="30">
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="33">
         <v>2001</v>
       </c>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="30">
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="33">
         <v>2002</v>
       </c>
-      <c r="K122" s="31"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="31"/>
-      <c r="N122" s="30">
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="33">
         <v>2003</v>
       </c>
-      <c r="O122" s="31"/>
-      <c r="P122" s="31"/>
-      <c r="Q122" s="31"/>
-      <c r="R122" s="30">
+      <c r="O122" s="34"/>
+      <c r="P122" s="34"/>
+      <c r="Q122" s="34"/>
+      <c r="R122" s="33">
         <v>2004</v>
       </c>
-      <c r="S122" s="31"/>
-      <c r="T122" s="31"/>
-      <c r="U122" s="31"/>
-      <c r="V122" s="30">
+      <c r="S122" s="34"/>
+      <c r="T122" s="34"/>
+      <c r="U122" s="34"/>
+      <c r="V122" s="33">
         <v>2005</v>
       </c>
-      <c r="W122" s="31"/>
-      <c r="X122" s="31"/>
-      <c r="Y122" s="31"/>
-      <c r="Z122" s="30">
+      <c r="W122" s="34"/>
+      <c r="X122" s="34"/>
+      <c r="Y122" s="34"/>
+      <c r="Z122" s="33">
         <v>2006</v>
       </c>
-      <c r="AA122" s="31"/>
-      <c r="AB122" s="31"/>
-      <c r="AC122" s="31"/>
-      <c r="AD122" s="30">
+      <c r="AA122" s="34"/>
+      <c r="AB122" s="34"/>
+      <c r="AC122" s="34"/>
+      <c r="AD122" s="33">
         <v>2007</v>
       </c>
-      <c r="AE122" s="31"/>
-      <c r="AF122" s="31"/>
-      <c r="AG122" s="31"/>
-      <c r="AH122" s="30">
+      <c r="AE122" s="34"/>
+      <c r="AF122" s="34"/>
+      <c r="AG122" s="34"/>
+      <c r="AH122" s="33">
         <v>2008</v>
       </c>
-      <c r="AI122" s="31"/>
-      <c r="AJ122" s="31"/>
-      <c r="AK122" s="31"/>
-      <c r="AL122" s="30">
+      <c r="AI122" s="34"/>
+      <c r="AJ122" s="34"/>
+      <c r="AK122" s="34"/>
+      <c r="AL122" s="33">
         <v>2009</v>
       </c>
-      <c r="AM122" s="31"/>
-      <c r="AN122" s="31"/>
-      <c r="AO122" s="31"/>
-      <c r="AP122" s="30">
+      <c r="AM122" s="34"/>
+      <c r="AN122" s="34"/>
+      <c r="AO122" s="34"/>
+      <c r="AP122" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="31"/>
-      <c r="AR122" s="31"/>
-      <c r="AS122" s="31"/>
-      <c r="AT122" s="30">
+      <c r="AQ122" s="34"/>
+      <c r="AR122" s="34"/>
+      <c r="AS122" s="34"/>
+      <c r="AT122" s="33">
         <v>2011</v>
       </c>
-      <c r="AU122" s="31"/>
-      <c r="AV122" s="31"/>
-      <c r="AW122" s="31"/>
-      <c r="AX122" s="30">
+      <c r="AU122" s="34"/>
+      <c r="AV122" s="34"/>
+      <c r="AW122" s="34"/>
+      <c r="AX122" s="33">
         <v>2012</v>
       </c>
-      <c r="AY122" s="31"/>
-      <c r="AZ122" s="31"/>
-      <c r="BA122" s="31"/>
-      <c r="BB122" s="30">
+      <c r="AY122" s="34"/>
+      <c r="AZ122" s="34"/>
+      <c r="BA122" s="34"/>
+      <c r="BB122" s="33">
         <v>2013</v>
       </c>
-      <c r="BC122" s="31"/>
-      <c r="BD122" s="31"/>
-      <c r="BE122" s="31"/>
-      <c r="BF122" s="30">
+      <c r="BC122" s="34"/>
+      <c r="BD122" s="34"/>
+      <c r="BE122" s="34"/>
+      <c r="BF122" s="33">
         <v>2014</v>
       </c>
-      <c r="BG122" s="31"/>
-      <c r="BH122" s="31"/>
-      <c r="BI122" s="31"/>
-      <c r="BJ122" s="30">
+      <c r="BG122" s="34"/>
+      <c r="BH122" s="34"/>
+      <c r="BI122" s="34"/>
+      <c r="BJ122" s="33">
         <v>2015</v>
       </c>
-      <c r="BK122" s="31"/>
-      <c r="BL122" s="31"/>
-      <c r="BM122" s="31"/>
-      <c r="BN122" s="30">
+      <c r="BK122" s="34"/>
+      <c r="BL122" s="34"/>
+      <c r="BM122" s="34"/>
+      <c r="BN122" s="33">
         <v>2016</v>
       </c>
-      <c r="BO122" s="31"/>
-      <c r="BP122" s="31"/>
-      <c r="BQ122" s="31"/>
-      <c r="BR122" s="30">
+      <c r="BO122" s="34"/>
+      <c r="BP122" s="34"/>
+      <c r="BQ122" s="34"/>
+      <c r="BR122" s="33">
         <v>2017</v>
       </c>
-      <c r="BS122" s="31"/>
-      <c r="BT122" s="31"/>
-      <c r="BU122" s="31"/>
-      <c r="BV122" s="30">
+      <c r="BS122" s="34"/>
+      <c r="BT122" s="34"/>
+      <c r="BU122" s="34"/>
+      <c r="BV122" s="33">
         <v>2018</v>
       </c>
-      <c r="BW122" s="31"/>
-      <c r="BX122" s="31"/>
-      <c r="BY122" s="31"/>
-      <c r="BZ122" s="30">
+      <c r="BW122" s="34"/>
+      <c r="BX122" s="34"/>
+      <c r="BY122" s="34"/>
+      <c r="BZ122" s="33">
         <v>2019</v>
       </c>
-      <c r="CA122" s="31"/>
-      <c r="CB122" s="31"/>
-      <c r="CC122" s="31"/>
-      <c r="CD122" s="30">
+      <c r="CA122" s="34"/>
+      <c r="CB122" s="34"/>
+      <c r="CC122" s="34"/>
+      <c r="CD122" s="33">
         <v>2020</v>
       </c>
-      <c r="CE122" s="30"/>
-      <c r="CF122" s="30"/>
-      <c r="CG122" s="30"/>
+      <c r="CE122" s="33"/>
+      <c r="CF122" s="33"/>
+      <c r="CG122" s="33"/>
       <c r="CH122" s="19">
         <v>2021</v>
       </c>
@@ -36063,6 +36195,7 @@
       </c>
       <c r="CU122" s="22"/>
       <c r="CV122" s="22"/>
+      <c r="CW122" s="22"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -36364,6 +36497,9 @@
       </c>
       <c r="CV123" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW123" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36668,9 +36804,11 @@
         <v>49.746096037280715</v>
       </c>
       <c r="CV125" s="29">
-        <v>52.246654808222083</v>
-      </c>
-      <c r="CW125" s="11"/>
+        <v>52.14588341436486</v>
+      </c>
+      <c r="CW125" s="29">
+        <v>51.713194151508546</v>
+      </c>
       <c r="CX125" s="11"/>
       <c r="CY125" s="11"/>
       <c r="CZ125" s="11"/>
@@ -37021,9 +37159,11 @@
         <v>50.253903962719285</v>
       </c>
       <c r="CV126" s="29">
-        <v>47.75334519177791</v>
-      </c>
-      <c r="CW126" s="11"/>
+        <v>47.854116585635133</v>
+      </c>
+      <c r="CW126" s="29">
+        <v>48.286805848491447</v>
+      </c>
       <c r="CX126" s="11"/>
       <c r="CY126" s="11"/>
       <c r="CZ126" s="11"/>
@@ -37175,7 +37315,7 @@
       <c r="CT127" s="25"/>
       <c r="CU127" s="25"/>
       <c r="CV127" s="25"/>
-      <c r="CW127" s="11"/>
+      <c r="CW127" s="25"/>
       <c r="CX127" s="11"/>
       <c r="CY127" s="11"/>
       <c r="CZ127" s="11"/>
@@ -37528,7 +37668,9 @@
       <c r="CV128" s="29">
         <v>100</v>
       </c>
-      <c r="CW128" s="11"/>
+      <c r="CW128" s="29">
+        <v>100</v>
+      </c>
       <c r="CX128" s="11"/>
       <c r="CY128" s="11"/>
       <c r="CZ128" s="11"/>
@@ -37681,6 +37823,7 @@
       <c r="CT129" s="27"/>
       <c r="CU129" s="27"/>
       <c r="CV129" s="27"/>
+      <c r="CW129" s="27"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37788,7 +37931,7 @@
       <c r="CT131" s="21"/>
       <c r="CU131" s="21"/>
       <c r="CV131" s="21"/>
-      <c r="CW131" s="13"/>
+      <c r="CW131" s="21"/>
       <c r="CX131" s="13"/>
       <c r="CY131" s="13"/>
       <c r="CZ131" s="13"/>
@@ -37941,7 +38084,7 @@
       <c r="CT132" s="21"/>
       <c r="CU132" s="21"/>
       <c r="CV132" s="21"/>
-      <c r="CW132" s="13"/>
+      <c r="CW132" s="21"/>
       <c r="CX132" s="13"/>
       <c r="CY132" s="13"/>
       <c r="CZ132" s="13"/>
@@ -37995,6 +38138,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="BV47:BY47"/>
     <mergeCell ref="BR47:BU47"/>
@@ -38019,138 +38285,15 @@
     <mergeCell ref="BV28:BY28"/>
     <mergeCell ref="BR66:BU66"/>
     <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="99" man="1"/>
-    <brk id="76" max="99" man="1"/>
-    <brk id="94" max="99" man="1"/>
+    <brk id="38" max="100" man="1"/>
+    <brk id="76" max="100" man="1"/>
+    <brk id="94" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA041958-5757-474C-9CB0-10F5BBD2D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95925B49-D2C4-49BD-BF2A-085763D9B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CW$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CX$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -23646,15 +23649,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="93" width="8.33203125" style="3" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="21" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="89" width="8.33203125" style="3" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="21" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23669,7 +23672,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23679,7 +23682,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23821,12 +23824,12 @@
       <c r="CI9" s="19"/>
       <c r="CJ9" s="19"/>
       <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
       <c r="CP9" s="22">
         <v>2023</v>
       </c>
@@ -23839,6 +23842,9 @@
       <c r="CU9" s="22"/>
       <c r="CV9" s="22"/>
       <c r="CW9" s="22"/>
+      <c r="CX9" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24108,16 +24114,16 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="23" t="s">
@@ -24143,6 +24149,9 @@
       </c>
       <c r="CW10" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24416,16 +24425,16 @@
       <c r="CK12" s="15">
         <v>138745.43860942539</v>
       </c>
-      <c r="CL12" s="15">
+      <c r="CL12" s="24">
         <v>143103.20121419372</v>
       </c>
-      <c r="CM12" s="15">
+      <c r="CM12" s="24">
         <v>143856.23723273393</v>
       </c>
-      <c r="CN12" s="15">
+      <c r="CN12" s="24">
         <v>163687.02775287611</v>
       </c>
-      <c r="CO12" s="15">
+      <c r="CO12" s="24">
         <v>167359.66211914457</v>
       </c>
       <c r="CP12" s="24">
@@ -24438,21 +24447,23 @@
         <v>182366.00154739365</v>
       </c>
       <c r="CS12" s="24">
-        <v>191169.57992403524</v>
+        <v>190479.02624662552</v>
       </c>
       <c r="CT12" s="24">
-        <v>180409.48814543907</v>
+        <v>180408.66146933433</v>
       </c>
       <c r="CU12" s="24">
-        <v>189366.93090094713</v>
+        <v>189886.8773609515</v>
       </c>
       <c r="CV12" s="24">
-        <v>204241.04381846116</v>
+        <v>204311.74026359257</v>
       </c>
       <c r="CW12" s="24">
-        <v>204226.756103097</v>
-      </c>
-      <c r="CX12" s="11"/>
+        <v>203440.80776692316</v>
+      </c>
+      <c r="CX12" s="24">
+        <v>192566.19000344613</v>
+      </c>
       <c r="CY12" s="11"/>
       <c r="CZ12" s="11"/>
       <c r="DA12" s="11"/>
@@ -24771,16 +24782,16 @@
       <c r="CK13" s="15">
         <v>149606.02567945013</v>
       </c>
-      <c r="CL13" s="15">
+      <c r="CL13" s="24">
         <v>154044.26758366541</v>
       </c>
-      <c r="CM13" s="15">
+      <c r="CM13" s="24">
         <v>156325.11835471363</v>
       </c>
-      <c r="CN13" s="15">
+      <c r="CN13" s="24">
         <v>160056.12459406475</v>
       </c>
-      <c r="CO13" s="15">
+      <c r="CO13" s="24">
         <v>158429.80059888729</v>
       </c>
       <c r="CP13" s="24">
@@ -24793,7 +24804,7 @@
         <v>171131.454257765</v>
       </c>
       <c r="CS13" s="24">
-        <v>168597.81028725675</v>
+        <v>168550.03113942698</v>
       </c>
       <c r="CT13" s="24">
         <v>174569.87378258348</v>
@@ -24805,9 +24816,11 @@
         <v>179404.67657826995</v>
       </c>
       <c r="CW13" s="24">
-        <v>176220.5105211937</v>
-      </c>
-      <c r="CX13" s="11"/>
+        <v>176256.8611823098</v>
+      </c>
+      <c r="CX13" s="24">
+        <v>182046.2432936118</v>
+      </c>
       <c r="CY13" s="11"/>
       <c r="CZ13" s="11"/>
       <c r="DA13" s="11"/>
@@ -24947,10 +24960,10 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="11"/>
-      <c r="CM14" s="11"/>
-      <c r="CN14" s="11"/>
-      <c r="CO14" s="11"/>
+      <c r="CL14" s="25"/>
+      <c r="CM14" s="25"/>
+      <c r="CN14" s="25"/>
+      <c r="CO14" s="25"/>
       <c r="CP14" s="25"/>
       <c r="CQ14" s="25"/>
       <c r="CR14" s="25"/>
@@ -24959,7 +24972,7 @@
       <c r="CU14" s="25"/>
       <c r="CV14" s="25"/>
       <c r="CW14" s="25"/>
-      <c r="CX14" s="11"/>
+      <c r="CX14" s="25"/>
       <c r="CY14" s="11"/>
       <c r="CZ14" s="11"/>
       <c r="DA14" s="11"/>
@@ -25278,16 +25291,16 @@
       <c r="CK15" s="16">
         <v>288351.46428887552</v>
       </c>
-      <c r="CL15" s="16">
+      <c r="CL15" s="26">
         <v>297147.46879785915</v>
       </c>
-      <c r="CM15" s="16">
+      <c r="CM15" s="26">
         <v>300181.35558744753</v>
       </c>
-      <c r="CN15" s="16">
+      <c r="CN15" s="26">
         <v>323743.15234694083</v>
       </c>
-      <c r="CO15" s="16">
+      <c r="CO15" s="26">
         <v>325789.46271803183</v>
       </c>
       <c r="CP15" s="26">
@@ -25300,21 +25313,23 @@
         <v>353497.45580515865</v>
       </c>
       <c r="CS15" s="26">
-        <v>359767.39021129196</v>
+        <v>359029.0573860525</v>
       </c>
       <c r="CT15" s="26">
-        <v>354979.36192802258</v>
+        <v>354978.53525191778</v>
       </c>
       <c r="CU15" s="26">
-        <v>366964.6576108415</v>
+        <v>367484.60407084587</v>
       </c>
       <c r="CV15" s="26">
-        <v>383645.72039673111</v>
+        <v>383716.41684186249</v>
       </c>
       <c r="CW15" s="26">
-        <v>380447.26662429073</v>
-      </c>
-      <c r="CX15" s="11"/>
+        <v>379697.66894923296</v>
+      </c>
+      <c r="CX15" s="26">
+        <v>374612.43329705793</v>
+      </c>
       <c r="CY15" s="11"/>
       <c r="CZ15" s="11"/>
       <c r="DA15" s="11"/>
@@ -25455,10 +25470,10 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="9"/>
-      <c r="CM16" s="9"/>
-      <c r="CN16" s="9"/>
-      <c r="CO16" s="9"/>
+      <c r="CL16" s="27"/>
+      <c r="CM16" s="27"/>
+      <c r="CN16" s="27"/>
+      <c r="CO16" s="27"/>
       <c r="CP16" s="27"/>
       <c r="CQ16" s="27"/>
       <c r="CR16" s="27"/>
@@ -25467,6 +25482,7 @@
       <c r="CU16" s="27"/>
       <c r="CV16" s="27"/>
       <c r="CW16" s="27"/>
+      <c r="CX16" s="27"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25562,10 +25578,10 @@
       <c r="CI18" s="11"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="11"/>
-      <c r="CL18" s="11"/>
-      <c r="CM18" s="11"/>
-      <c r="CN18" s="11"/>
-      <c r="CO18" s="11"/>
+      <c r="CL18" s="25"/>
+      <c r="CM18" s="25"/>
+      <c r="CN18" s="25"/>
+      <c r="CO18" s="25"/>
       <c r="CP18" s="25"/>
       <c r="CQ18" s="25"/>
       <c r="CR18" s="25"/>
@@ -25574,7 +25590,7 @@
       <c r="CU18" s="25"/>
       <c r="CV18" s="25"/>
       <c r="CW18" s="25"/>
-      <c r="CX18" s="11"/>
+      <c r="CX18" s="25"/>
       <c r="CY18" s="11"/>
       <c r="CZ18" s="11"/>
       <c r="DA18" s="11"/>
@@ -25714,10 +25730,10 @@
       <c r="CI19" s="11"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="11"/>
-      <c r="CL19" s="11"/>
-      <c r="CM19" s="11"/>
-      <c r="CN19" s="11"/>
-      <c r="CO19" s="11"/>
+      <c r="CL19" s="25"/>
+      <c r="CM19" s="25"/>
+      <c r="CN19" s="25"/>
+      <c r="CO19" s="25"/>
       <c r="CP19" s="25"/>
       <c r="CQ19" s="25"/>
       <c r="CR19" s="25"/>
@@ -25726,7 +25742,7 @@
       <c r="CU19" s="25"/>
       <c r="CV19" s="25"/>
       <c r="CW19" s="25"/>
-      <c r="CX19" s="11"/>
+      <c r="CX19" s="25"/>
       <c r="CY19" s="11"/>
       <c r="CZ19" s="11"/>
       <c r="DA19" s="11"/>
@@ -25789,7 +25805,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25799,7 +25815,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25941,12 +25957,12 @@
       <c r="CI28" s="19"/>
       <c r="CJ28" s="19"/>
       <c r="CK28" s="19"/>
-      <c r="CL28" s="19">
+      <c r="CL28" s="22">
         <v>2022</v>
       </c>
-      <c r="CM28" s="19"/>
-      <c r="CN28" s="19"/>
-      <c r="CO28" s="19"/>
+      <c r="CM28" s="22"/>
+      <c r="CN28" s="22"/>
+      <c r="CO28" s="22"/>
       <c r="CP28" s="22">
         <v>2023</v>
       </c>
@@ -25959,6 +25975,9 @@
       <c r="CU28" s="22"/>
       <c r="CV28" s="22"/>
       <c r="CW28" s="22"/>
+      <c r="CX28" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26228,16 +26247,16 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="6" t="s">
+      <c r="CL29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="6" t="s">
+      <c r="CM29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="6" t="s">
+      <c r="CN29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="6" t="s">
+      <c r="CO29" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP29" s="23" t="s">
@@ -26263,6 +26282,9 @@
       </c>
       <c r="CW29" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX29" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26536,16 +26558,16 @@
       <c r="CK31" s="15">
         <v>126067.45384426617</v>
       </c>
-      <c r="CL31" s="15">
+      <c r="CL31" s="24">
         <v>125673.01120732664</v>
       </c>
-      <c r="CM31" s="15">
+      <c r="CM31" s="24">
         <v>125960.73021103712</v>
       </c>
-      <c r="CN31" s="15">
+      <c r="CN31" s="24">
         <v>142822.11772316997</v>
       </c>
-      <c r="CO31" s="15">
+      <c r="CO31" s="24">
         <v>140268.70207229434</v>
       </c>
       <c r="CP31" s="24">
@@ -26558,21 +26580,23 @@
         <v>151911.30610206575</v>
       </c>
       <c r="CS31" s="24">
-        <v>152653.2055123279</v>
+        <v>152101.78288286558</v>
       </c>
       <c r="CT31" s="24">
-        <v>140083.26370114821</v>
+        <v>140082.6218087069</v>
       </c>
       <c r="CU31" s="24">
-        <v>149010.01855787332</v>
+        <v>149419.15668608685</v>
       </c>
       <c r="CV31" s="24">
-        <v>164230.57487959135</v>
+        <v>164287.42201280617</v>
       </c>
       <c r="CW31" s="24">
-        <v>158629.17483924539</v>
-      </c>
-      <c r="CX31" s="11"/>
+        <v>158054.03761687764</v>
+      </c>
+      <c r="CX31" s="24">
+        <v>146086.9345585212</v>
+      </c>
       <c r="CY31" s="11"/>
       <c r="CZ31" s="11"/>
       <c r="DA31" s="11"/>
@@ -26891,16 +26915,16 @@
       <c r="CK32" s="15">
         <v>139030.92364689126</v>
       </c>
-      <c r="CL32" s="15">
+      <c r="CL32" s="24">
         <v>142965.36018506213</v>
       </c>
-      <c r="CM32" s="15">
+      <c r="CM32" s="24">
         <v>144141.52897438855</v>
       </c>
-      <c r="CN32" s="15">
+      <c r="CN32" s="24">
         <v>144416.5673826391</v>
       </c>
-      <c r="CO32" s="15">
+      <c r="CO32" s="24">
         <v>141918.83422163335</v>
       </c>
       <c r="CP32" s="24">
@@ -26913,7 +26937,7 @@
         <v>147483.26859781085</v>
       </c>
       <c r="CS32" s="24">
-        <v>145041.3597657044</v>
+        <v>145000.25631033999</v>
       </c>
       <c r="CT32" s="24">
         <v>149214.20258384082</v>
@@ -26925,9 +26949,11 @@
         <v>150713.89269145762</v>
       </c>
       <c r="CW32" s="24">
-        <v>148118.79817223788</v>
-      </c>
-      <c r="CX32" s="11"/>
+        <v>148149.16581496713</v>
+      </c>
+      <c r="CX32" s="24">
+        <v>152760.41643883579</v>
+      </c>
       <c r="CY32" s="11"/>
       <c r="CZ32" s="11"/>
       <c r="DA32" s="11"/>
@@ -27067,10 +27093,10 @@
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
-      <c r="CL33" s="11"/>
-      <c r="CM33" s="11"/>
-      <c r="CN33" s="11"/>
-      <c r="CO33" s="11"/>
+      <c r="CL33" s="25"/>
+      <c r="CM33" s="25"/>
+      <c r="CN33" s="25"/>
+      <c r="CO33" s="25"/>
       <c r="CP33" s="25"/>
       <c r="CQ33" s="25"/>
       <c r="CR33" s="25"/>
@@ -27079,7 +27105,7 @@
       <c r="CU33" s="25"/>
       <c r="CV33" s="25"/>
       <c r="CW33" s="25"/>
-      <c r="CX33" s="11"/>
+      <c r="CX33" s="25"/>
       <c r="CY33" s="11"/>
       <c r="CZ33" s="11"/>
       <c r="DA33" s="11"/>
@@ -27398,16 +27424,16 @@
       <c r="CK34" s="16">
         <v>265098.37749115744</v>
       </c>
-      <c r="CL34" s="16">
+      <c r="CL34" s="26">
         <v>268638.37139238877</v>
       </c>
-      <c r="CM34" s="16">
+      <c r="CM34" s="26">
         <v>270102.2591854257</v>
       </c>
-      <c r="CN34" s="16">
+      <c r="CN34" s="26">
         <v>287238.68510580907</v>
       </c>
-      <c r="CO34" s="16">
+      <c r="CO34" s="26">
         <v>282187.5362939277</v>
       </c>
       <c r="CP34" s="26">
@@ -27420,21 +27446,23 @@
         <v>299394.5746998766</v>
       </c>
       <c r="CS34" s="26">
-        <v>297694.56527803233</v>
+        <v>297102.03919320554</v>
       </c>
       <c r="CT34" s="26">
-        <v>289297.46628498903</v>
+        <v>289296.82439254771</v>
       </c>
       <c r="CU34" s="26">
-        <v>299541.13071747829</v>
+        <v>299950.26884569181</v>
       </c>
       <c r="CV34" s="26">
-        <v>314944.467571049</v>
+        <v>315001.31470426382</v>
       </c>
       <c r="CW34" s="26">
-        <v>306747.97301148326</v>
-      </c>
-      <c r="CX34" s="11"/>
+        <v>306203.20343184477</v>
+      </c>
+      <c r="CX34" s="26">
+        <v>298847.35099735699</v>
+      </c>
       <c r="CY34" s="11"/>
       <c r="CZ34" s="11"/>
       <c r="DA34" s="11"/>
@@ -27575,10 +27603,10 @@
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
-      <c r="CL35" s="9"/>
-      <c r="CM35" s="9"/>
-      <c r="CN35" s="9"/>
-      <c r="CO35" s="9"/>
+      <c r="CL35" s="27"/>
+      <c r="CM35" s="27"/>
+      <c r="CN35" s="27"/>
+      <c r="CO35" s="27"/>
       <c r="CP35" s="27"/>
       <c r="CQ35" s="27"/>
       <c r="CR35" s="27"/>
@@ -27587,6 +27615,7 @@
       <c r="CU35" s="27"/>
       <c r="CV35" s="27"/>
       <c r="CW35" s="27"/>
+      <c r="CX35" s="27"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27682,10 +27711,10 @@
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
-      <c r="CL37" s="11"/>
-      <c r="CM37" s="11"/>
-      <c r="CN37" s="11"/>
-      <c r="CO37" s="11"/>
+      <c r="CL37" s="25"/>
+      <c r="CM37" s="25"/>
+      <c r="CN37" s="25"/>
+      <c r="CO37" s="25"/>
       <c r="CP37" s="25"/>
       <c r="CQ37" s="25"/>
       <c r="CR37" s="25"/>
@@ -27694,7 +27723,7 @@
       <c r="CU37" s="25"/>
       <c r="CV37" s="25"/>
       <c r="CW37" s="25"/>
-      <c r="CX37" s="11"/>
+      <c r="CX37" s="25"/>
       <c r="CY37" s="11"/>
       <c r="CZ37" s="11"/>
       <c r="DA37" s="11"/>
@@ -27834,10 +27863,10 @@
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
-      <c r="CL38" s="11"/>
-      <c r="CM38" s="11"/>
-      <c r="CN38" s="11"/>
-      <c r="CO38" s="11"/>
+      <c r="CL38" s="25"/>
+      <c r="CM38" s="25"/>
+      <c r="CN38" s="25"/>
+      <c r="CO38" s="25"/>
       <c r="CP38" s="25"/>
       <c r="CQ38" s="25"/>
       <c r="CR38" s="25"/>
@@ -27846,7 +27875,7 @@
       <c r="CU38" s="25"/>
       <c r="CV38" s="25"/>
       <c r="CW38" s="25"/>
-      <c r="CX38" s="11"/>
+      <c r="CX38" s="25"/>
       <c r="CY38" s="11"/>
       <c r="CZ38" s="11"/>
       <c r="DA38" s="11"/>
@@ -27909,7 +27938,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
@@ -27920,29 +27949,31 @@
       <c r="CT43" s="30"/>
       <c r="CU43" s="30"/>
       <c r="CV43" s="30"/>
+      <c r="CX43" s="30"/>
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CS44" s="30"/>
       <c r="CT44" s="30"/>
       <c r="CU44" s="30"/>
       <c r="CV44" s="30"/>
+      <c r="CX44" s="30"/>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="CS45" s="30"/>
-      <c r="CT45" s="30"/>
       <c r="CU45" s="30"/>
       <c r="CV45" s="30"/>
+      <c r="CX45" s="30"/>
     </row>
     <row r="46" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CT46" s="30"/>
       <c r="CU46" s="30"/>
       <c r="CV46" s="30"/>
+      <c r="CX46" s="30"/>
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -28078,22 +28109,25 @@
       <c r="CI47" s="19"/>
       <c r="CJ47" s="19"/>
       <c r="CK47" s="19"/>
-      <c r="CL47" s="19" t="s">
+      <c r="CL47" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="19"/>
-      <c r="CN47" s="19"/>
-      <c r="CO47" s="19"/>
+      <c r="CM47" s="22"/>
+      <c r="CN47" s="22"/>
+      <c r="CO47" s="22"/>
       <c r="CP47" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CQ47" s="22"/>
       <c r="CR47" s="22"/>
       <c r="CS47" s="22"/>
-      <c r="CT47" s="20"/>
+      <c r="CT47" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="CU47" s="20"/>
       <c r="CV47" s="20"/>
       <c r="CW47" s="20"/>
+      <c r="CX47" s="20"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28363,16 +28397,16 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5" t="s">
+      <c r="CL48" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5" t="s">
+      <c r="CM48" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="5" t="s">
+      <c r="CN48" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="5" t="s">
+      <c r="CO48" s="28" t="s">
         <v>9</v>
       </c>
       <c r="CP48" s="28" t="s">
@@ -28387,16 +28421,19 @@
       <c r="CS48" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CT48" s="28"/>
+      <c r="CT48" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="CU48" s="28"/>
       <c r="CV48" s="28"/>
       <c r="CW48" s="28"/>
+      <c r="CX48" s="28"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="CT49" s="30"/>
       <c r="CU49" s="30"/>
       <c r="CV49" s="30"/>
+      <c r="CX49" s="30"/>
     </row>
     <row r="50" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
@@ -28666,35 +28703,37 @@
       <c r="CK50" s="12">
         <v>20.623541787394899</v>
       </c>
-      <c r="CL50" s="12">
+      <c r="CL50" s="29">
         <v>13.717521346491964</v>
       </c>
-      <c r="CM50" s="12">
+      <c r="CM50" s="29">
         <v>11.094611196904935</v>
       </c>
-      <c r="CN50" s="12">
+      <c r="CN50" s="29">
         <v>11.411395301720432</v>
       </c>
-      <c r="CO50" s="12">
-        <v>14.226796053125511</v>
+      <c r="CO50" s="29">
+        <v>13.81417949506978</v>
       </c>
       <c r="CP50" s="29">
-        <v>10.861982422135895</v>
+        <v>10.861474428056809</v>
       </c>
       <c r="CQ50" s="29">
-        <v>18.490204948634229</v>
+        <v>18.815544554209083</v>
       </c>
       <c r="CR50" s="29">
-        <v>11.995131814842466</v>
+        <v>12.033898056648255</v>
       </c>
       <c r="CS50" s="29">
-        <v>6.8301537222869229</v>
-      </c>
-      <c r="CT50" s="31"/>
+        <v>6.8048339891842744</v>
+      </c>
+      <c r="CT50" s="29">
+        <v>6.7388829533433068</v>
+      </c>
       <c r="CU50" s="31"/>
       <c r="CV50" s="31"/>
       <c r="CW50" s="29"/>
-      <c r="CX50" s="11"/>
+      <c r="CX50" s="31"/>
       <c r="CY50" s="11"/>
       <c r="CZ50" s="11"/>
       <c r="DA50" s="11"/>
@@ -29009,17 +29048,17 @@
       <c r="CK51" s="12">
         <v>5.8980077034752583</v>
       </c>
-      <c r="CL51" s="12">
+      <c r="CL51" s="29">
         <v>7.4101364729456378</v>
       </c>
-      <c r="CM51" s="12">
+      <c r="CM51" s="29">
         <v>8.0313273038305226</v>
       </c>
-      <c r="CN51" s="12">
+      <c r="CN51" s="29">
         <v>6.9196537725685801</v>
       </c>
-      <c r="CO51" s="12">
-        <v>6.4179905863246205</v>
+      <c r="CO51" s="29">
+        <v>6.3878326566616721</v>
       </c>
       <c r="CP51" s="29">
         <v>5.5063230407568682</v>
@@ -29031,13 +29070,15 @@
         <v>4.8344252997718939</v>
       </c>
       <c r="CS51" s="29">
-        <v>4.5212332360363519</v>
-      </c>
-      <c r="CT51" s="31"/>
+        <v>4.5724287268197799</v>
+      </c>
+      <c r="CT51" s="29">
+        <v>4.2827375359964321</v>
+      </c>
       <c r="CU51" s="31"/>
       <c r="CV51" s="31"/>
       <c r="CW51" s="29"/>
-      <c r="CX51" s="11"/>
+      <c r="CX51" s="31"/>
       <c r="CY51" s="11"/>
       <c r="CZ51" s="11"/>
       <c r="DA51" s="11"/>
@@ -29174,19 +29215,19 @@
       <c r="CI52" s="11"/>
       <c r="CJ52" s="11"/>
       <c r="CK52" s="11"/>
-      <c r="CL52" s="11"/>
-      <c r="CM52" s="11"/>
-      <c r="CN52" s="11"/>
-      <c r="CO52" s="11"/>
+      <c r="CL52" s="25"/>
+      <c r="CM52" s="25"/>
+      <c r="CN52" s="25"/>
+      <c r="CO52" s="25"/>
       <c r="CP52" s="25"/>
       <c r="CQ52" s="25"/>
       <c r="CR52" s="25"/>
       <c r="CS52" s="25"/>
-      <c r="CT52" s="32"/>
+      <c r="CT52" s="25"/>
       <c r="CU52" s="32"/>
       <c r="CV52" s="32"/>
       <c r="CW52" s="25"/>
-      <c r="CX52" s="11"/>
+      <c r="CX52" s="32"/>
       <c r="CY52" s="11"/>
       <c r="CZ52" s="11"/>
       <c r="DA52" s="11"/>
@@ -29501,35 +29542,37 @@
       <c r="CK53" s="12">
         <v>12.983460486835014</v>
       </c>
-      <c r="CL53" s="12">
+      <c r="CL53" s="29">
         <v>10.447708929295501</v>
       </c>
-      <c r="CM53" s="12">
+      <c r="CM53" s="29">
         <v>9.4993481726514375</v>
       </c>
-      <c r="CN53" s="12">
+      <c r="CN53" s="29">
         <v>9.1907128359371342</v>
       </c>
-      <c r="CO53" s="12">
-        <v>10.429412667243867</v>
+      <c r="CO53" s="29">
+        <v>10.202783844113867</v>
       </c>
       <c r="CP53" s="29">
-        <v>8.161912496309867</v>
+        <v>8.1616606087972343</v>
       </c>
       <c r="CQ53" s="29">
-        <v>11.642355497851071</v>
+        <v>11.80053979795666</v>
       </c>
       <c r="CR53" s="29">
-        <v>8.5285662163830693</v>
+        <v>8.5485653546994627</v>
       </c>
       <c r="CS53" s="29">
-        <v>5.7481241979306219</v>
-      </c>
-      <c r="CT53" s="31"/>
+        <v>5.756807461117603</v>
+      </c>
+      <c r="CT53" s="29">
+        <v>5.5310099330954046</v>
+      </c>
       <c r="CU53" s="31"/>
       <c r="CV53" s="31"/>
       <c r="CW53" s="29"/>
-      <c r="CX53" s="11"/>
+      <c r="CX53" s="31"/>
       <c r="CY53" s="11"/>
       <c r="CZ53" s="11"/>
       <c r="DA53" s="11"/>
@@ -29666,26 +29709,27 @@
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
       <c r="CK54" s="9"/>
-      <c r="CL54" s="9"/>
-      <c r="CM54" s="9"/>
-      <c r="CN54" s="9"/>
-      <c r="CO54" s="9"/>
+      <c r="CL54" s="27"/>
+      <c r="CM54" s="27"/>
+      <c r="CN54" s="27"/>
+      <c r="CO54" s="27"/>
       <c r="CP54" s="27"/>
       <c r="CQ54" s="27"/>
       <c r="CR54" s="27"/>
       <c r="CS54" s="27"/>
-      <c r="CT54" s="23"/>
+      <c r="CT54" s="27"/>
       <c r="CU54" s="23"/>
       <c r="CV54" s="23"/>
       <c r="CW54" s="27"/>
+      <c r="CX54" s="23"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="CT55" s="30"/>
       <c r="CU55" s="30"/>
       <c r="CV55" s="30"/>
+      <c r="CX55" s="30"/>
     </row>
     <row r="56" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
@@ -29776,19 +29820,19 @@
       <c r="CI56" s="11"/>
       <c r="CJ56" s="11"/>
       <c r="CK56" s="11"/>
-      <c r="CL56" s="11"/>
-      <c r="CM56" s="11"/>
-      <c r="CN56" s="11"/>
-      <c r="CO56" s="11"/>
+      <c r="CL56" s="25"/>
+      <c r="CM56" s="25"/>
+      <c r="CN56" s="25"/>
+      <c r="CO56" s="25"/>
       <c r="CP56" s="25"/>
       <c r="CQ56" s="25"/>
       <c r="CR56" s="25"/>
       <c r="CS56" s="25"/>
-      <c r="CT56" s="32"/>
+      <c r="CT56" s="25"/>
       <c r="CU56" s="32"/>
       <c r="CV56" s="32"/>
       <c r="CW56" s="25"/>
-      <c r="CX56" s="11"/>
+      <c r="CX56" s="32"/>
       <c r="CY56" s="11"/>
       <c r="CZ56" s="11"/>
       <c r="DA56" s="11"/>
@@ -29924,19 +29968,19 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="11"/>
-      <c r="CM57" s="11"/>
-      <c r="CN57" s="11"/>
-      <c r="CO57" s="11"/>
+      <c r="CL57" s="25"/>
+      <c r="CM57" s="25"/>
+      <c r="CN57" s="25"/>
+      <c r="CO57" s="25"/>
       <c r="CP57" s="25"/>
       <c r="CQ57" s="25"/>
       <c r="CR57" s="25"/>
       <c r="CS57" s="25"/>
-      <c r="CT57" s="32"/>
+      <c r="CT57" s="25"/>
       <c r="CU57" s="32"/>
       <c r="CV57" s="32"/>
       <c r="CW57" s="25"/>
-      <c r="CX57" s="11"/>
+      <c r="CX57" s="32"/>
       <c r="CY57" s="11"/>
       <c r="CZ57" s="11"/>
       <c r="DA57" s="11"/>
@@ -29987,59 +30031,59 @@
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CT58" s="30"/>
       <c r="CU58" s="30"/>
       <c r="CV58" s="30"/>
+      <c r="CX58" s="30"/>
     </row>
     <row r="59" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="CT59" s="30"/>
       <c r="CU59" s="30"/>
       <c r="CV59" s="30"/>
+      <c r="CX59" s="30"/>
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="CT60" s="30"/>
+        <v>53</v>
+      </c>
       <c r="CU60" s="30"/>
       <c r="CV60" s="30"/>
+      <c r="CX60" s="30"/>
     </row>
     <row r="61" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CT61" s="30"/>
       <c r="CU61" s="30"/>
       <c r="CV61" s="30"/>
+      <c r="CX61" s="30"/>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CT62" s="30"/>
       <c r="CU62" s="30"/>
       <c r="CV62" s="30"/>
+      <c r="CX62" s="30"/>
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="CT63" s="30"/>
+        <v>52</v>
+      </c>
       <c r="CU63" s="30"/>
       <c r="CV63" s="30"/>
+      <c r="CX63" s="30"/>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="CT64" s="30"/>
       <c r="CU64" s="30"/>
       <c r="CV64" s="30"/>
+      <c r="CX64" s="30"/>
     </row>
     <row r="65" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CT65" s="30"/>
       <c r="CU65" s="30"/>
       <c r="CV65" s="30"/>
+      <c r="CX65" s="30"/>
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -30175,22 +30219,25 @@
       <c r="CI66" s="19"/>
       <c r="CJ66" s="19"/>
       <c r="CK66" s="19"/>
-      <c r="CL66" s="19" t="s">
+      <c r="CL66" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="19"/>
-      <c r="CN66" s="19"/>
-      <c r="CO66" s="19"/>
+      <c r="CM66" s="22"/>
+      <c r="CN66" s="22"/>
+      <c r="CO66" s="22"/>
       <c r="CP66" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CQ66" s="22"/>
       <c r="CR66" s="22"/>
       <c r="CS66" s="22"/>
-      <c r="CT66" s="20"/>
+      <c r="CT66" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="CU66" s="20"/>
       <c r="CV66" s="20"/>
       <c r="CW66" s="20"/>
+      <c r="CX66" s="20"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30460,16 +30507,16 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5" t="s">
+      <c r="CL67" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5" t="s">
+      <c r="CM67" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="5" t="s">
+      <c r="CN67" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="5" t="s">
+      <c r="CO67" s="28" t="s">
         <v>9</v>
       </c>
       <c r="CP67" s="28" t="s">
@@ -30484,16 +30531,19 @@
       <c r="CS67" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CT67" s="28"/>
+      <c r="CT67" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="CU67" s="28"/>
       <c r="CV67" s="28"/>
       <c r="CW67" s="28"/>
+      <c r="CX67" s="28"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
-      <c r="CT68" s="30"/>
       <c r="CU68" s="30"/>
       <c r="CV68" s="30"/>
+      <c r="CX68" s="30"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
@@ -30763,35 +30813,37 @@
       <c r="CK69" s="12">
         <v>11.264801338473347</v>
       </c>
-      <c r="CL69" s="12">
+      <c r="CL69" s="29">
         <v>4.1994595350243458</v>
       </c>
-      <c r="CM69" s="12">
+      <c r="CM69" s="29">
         <v>4.2230102244258632</v>
       </c>
-      <c r="CN69" s="12">
+      <c r="CN69" s="29">
         <v>6.3639921629738012</v>
       </c>
-      <c r="CO69" s="12">
-        <v>8.8291281355484301</v>
+      <c r="CO69" s="29">
+        <v>8.4360093418932962</v>
       </c>
       <c r="CP69" s="29">
-        <v>6.9741302057149852</v>
+        <v>6.9736400266330492</v>
       </c>
       <c r="CQ69" s="29">
-        <v>13.505442633795965</v>
+        <v>13.817095533316959</v>
       </c>
       <c r="CR69" s="29">
-        <v>8.1095140932094836</v>
+        <v>8.1469353587317386</v>
       </c>
       <c r="CS69" s="29">
-        <v>3.9147355647470476</v>
-      </c>
-      <c r="CT69" s="31"/>
+        <v>3.9133365968470741</v>
+      </c>
+      <c r="CT69" s="29">
+        <v>4.2862652570949393</v>
+      </c>
       <c r="CU69" s="31"/>
       <c r="CV69" s="31"/>
       <c r="CW69" s="29"/>
-      <c r="CX69" s="11"/>
+      <c r="CX69" s="31"/>
       <c r="CY69" s="11"/>
       <c r="CZ69" s="11"/>
       <c r="DA69" s="11"/>
@@ -31106,17 +31158,17 @@
       <c r="CK70" s="12">
         <v>2.0771713939531651</v>
       </c>
-      <c r="CL70" s="12">
+      <c r="CL70" s="29">
         <v>2.0956081356112719</v>
       </c>
-      <c r="CM70" s="12">
+      <c r="CM70" s="29">
         <v>2.1393535856452814</v>
       </c>
-      <c r="CN70" s="12">
+      <c r="CN70" s="29">
         <v>2.1235106683060536</v>
       </c>
-      <c r="CO70" s="12">
-        <v>2.2002192740638122</v>
+      <c r="CO70" s="29">
+        <v>2.1712566239759212</v>
       </c>
       <c r="CP70" s="29">
         <v>2.2285684481725241</v>
@@ -31128,13 +31180,15 @@
         <v>2.1905020985510788</v>
       </c>
       <c r="CS70" s="29">
-        <v>2.1217661027893513</v>
-      </c>
-      <c r="CT70" s="31"/>
+        <v>2.1716578885816631</v>
+      </c>
+      <c r="CT70" s="29">
+        <v>2.3765927060478163</v>
+      </c>
       <c r="CU70" s="31"/>
       <c r="CV70" s="31"/>
       <c r="CW70" s="29"/>
-      <c r="CX70" s="11"/>
+      <c r="CX70" s="31"/>
       <c r="CY70" s="11"/>
       <c r="CZ70" s="11"/>
       <c r="DA70" s="11"/>
@@ -31270,19 +31324,19 @@
       <c r="CI71" s="11"/>
       <c r="CJ71" s="11"/>
       <c r="CK71" s="11"/>
-      <c r="CL71" s="11"/>
-      <c r="CM71" s="11"/>
-      <c r="CN71" s="11"/>
-      <c r="CO71" s="11"/>
+      <c r="CL71" s="25"/>
+      <c r="CM71" s="25"/>
+      <c r="CN71" s="25"/>
+      <c r="CO71" s="25"/>
       <c r="CP71" s="25"/>
       <c r="CQ71" s="25"/>
       <c r="CR71" s="25"/>
       <c r="CS71" s="25"/>
-      <c r="CT71" s="32"/>
+      <c r="CT71" s="25"/>
       <c r="CU71" s="32"/>
       <c r="CV71" s="32"/>
       <c r="CW71" s="25"/>
-      <c r="CX71" s="11"/>
+      <c r="CX71" s="32"/>
       <c r="CY71" s="11"/>
       <c r="CZ71" s="11"/>
       <c r="DA71" s="11"/>
@@ -31597,35 +31651,37 @@
       <c r="CK72" s="12">
         <v>6.4463460563202659</v>
       </c>
-      <c r="CL72" s="12">
+      <c r="CL72" s="29">
         <v>3.079820998154247</v>
       </c>
-      <c r="CM72" s="12">
+      <c r="CM72" s="29">
         <v>3.111055608876768</v>
       </c>
-      <c r="CN72" s="12">
+      <c r="CN72" s="29">
         <v>4.2319820499072733</v>
       </c>
-      <c r="CO72" s="12">
-        <v>5.4952919564641718</v>
+      <c r="CO72" s="29">
+        <v>5.2853159622694363</v>
       </c>
       <c r="CP72" s="29">
-        <v>4.4727263722779327</v>
+        <v>4.4724945684732234</v>
       </c>
       <c r="CQ72" s="29">
-        <v>7.5531204442802959</v>
+        <v>7.7000254194891795</v>
       </c>
       <c r="CR72" s="29">
-        <v>5.1937791079748763</v>
+        <v>5.2127664704786127</v>
       </c>
       <c r="CS72" s="29">
-        <v>3.0411733331427939</v>
-      </c>
-      <c r="CT72" s="31"/>
+        <v>3.0633126125131582</v>
+      </c>
+      <c r="CT72" s="29">
+        <v>3.3012898170808</v>
+      </c>
       <c r="CU72" s="31"/>
       <c r="CV72" s="31"/>
       <c r="CW72" s="29"/>
-      <c r="CX72" s="11"/>
+      <c r="CX72" s="31"/>
       <c r="CY72" s="11"/>
       <c r="CZ72" s="11"/>
       <c r="DA72" s="11"/>
@@ -31762,26 +31818,27 @@
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
       <c r="CK73" s="9"/>
-      <c r="CL73" s="9"/>
-      <c r="CM73" s="9"/>
-      <c r="CN73" s="9"/>
-      <c r="CO73" s="9"/>
+      <c r="CL73" s="27"/>
+      <c r="CM73" s="27"/>
+      <c r="CN73" s="27"/>
+      <c r="CO73" s="27"/>
       <c r="CP73" s="27"/>
       <c r="CQ73" s="27"/>
       <c r="CR73" s="27"/>
       <c r="CS73" s="27"/>
-      <c r="CT73" s="23"/>
+      <c r="CT73" s="27"/>
       <c r="CU73" s="23"/>
       <c r="CV73" s="23"/>
       <c r="CW73" s="27"/>
+      <c r="CX73" s="23"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="CT74" s="30"/>
       <c r="CU74" s="30"/>
       <c r="CV74" s="30"/>
+      <c r="CX74" s="30"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
@@ -31872,10 +31929,10 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
-      <c r="CO75" s="11"/>
+      <c r="CL75" s="25"/>
+      <c r="CM75" s="25"/>
+      <c r="CN75" s="25"/>
+      <c r="CO75" s="25"/>
       <c r="CP75" s="25"/>
       <c r="CQ75" s="25"/>
       <c r="CR75" s="25"/>
@@ -31884,7 +31941,7 @@
       <c r="CU75" s="25"/>
       <c r="CV75" s="25"/>
       <c r="CW75" s="25"/>
-      <c r="CX75" s="11"/>
+      <c r="CX75" s="25"/>
       <c r="CY75" s="11"/>
       <c r="CZ75" s="11"/>
       <c r="DA75" s="11"/>
@@ -32020,10 +32077,10 @@
       <c r="CI76" s="11"/>
       <c r="CJ76" s="11"/>
       <c r="CK76" s="11"/>
-      <c r="CL76" s="11"/>
-      <c r="CM76" s="11"/>
-      <c r="CN76" s="11"/>
-      <c r="CO76" s="11"/>
+      <c r="CL76" s="25"/>
+      <c r="CM76" s="25"/>
+      <c r="CN76" s="25"/>
+      <c r="CO76" s="25"/>
       <c r="CP76" s="25"/>
       <c r="CQ76" s="25"/>
       <c r="CR76" s="25"/>
@@ -32032,7 +32089,7 @@
       <c r="CU76" s="25"/>
       <c r="CV76" s="25"/>
       <c r="CW76" s="25"/>
-      <c r="CX76" s="11"/>
+      <c r="CX76" s="25"/>
       <c r="CY76" s="11"/>
       <c r="CZ76" s="11"/>
       <c r="DA76" s="11"/>
@@ -32090,7 +32147,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -32100,7 +32157,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -32242,12 +32299,12 @@
       <c r="CI84" s="19"/>
       <c r="CJ84" s="19"/>
       <c r="CK84" s="19"/>
-      <c r="CL84" s="19">
+      <c r="CL84" s="22">
         <v>2022</v>
       </c>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
+      <c r="CM84" s="22"/>
+      <c r="CN84" s="22"/>
+      <c r="CO84" s="22"/>
       <c r="CP84" s="22">
         <v>2023</v>
       </c>
@@ -32260,6 +32317,9 @@
       <c r="CU84" s="22"/>
       <c r="CV84" s="22"/>
       <c r="CW84" s="22"/>
+      <c r="CX84" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32529,16 +32589,16 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="6" t="s">
+      <c r="CL85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="6" t="s">
+      <c r="CM85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="6" t="s">
+      <c r="CN85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="6" t="s">
+      <c r="CO85" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP85" s="23" t="s">
@@ -32564,6 +32624,9 @@
       </c>
       <c r="CW85" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX85" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32837,16 +32900,16 @@
       <c r="CK87" s="12">
         <v>110.05650893911177</v>
       </c>
-      <c r="CL87" s="12">
+      <c r="CL87" s="29">
         <v>113.86947749514171</v>
       </c>
-      <c r="CM87" s="12">
+      <c r="CM87" s="29">
         <v>114.20721124092748</v>
       </c>
-      <c r="CN87" s="12">
+      <c r="CN87" s="29">
         <v>114.60901880067924</v>
       </c>
-      <c r="CO87" s="12">
+      <c r="CO87" s="29">
         <v>119.31361711245292</v>
       </c>
       <c r="CP87" s="29">
@@ -32862,18 +32925,20 @@
         <v>125.2312909397745</v>
       </c>
       <c r="CT87" s="29">
-        <v>128.78732503714525</v>
+        <v>128.78732503714531</v>
       </c>
       <c r="CU87" s="29">
         <v>127.08335502112548</v>
       </c>
       <c r="CV87" s="29">
-        <v>124.36237525698502</v>
+        <v>124.36237525698499</v>
       </c>
       <c r="CW87" s="29">
-        <v>128.74476357206052</v>
-      </c>
-      <c r="CX87" s="11"/>
+        <v>128.71598273247716</v>
+      </c>
+      <c r="CX87" s="29">
+        <v>131.816161784342</v>
+      </c>
       <c r="CY87" s="11"/>
       <c r="CZ87" s="11"/>
       <c r="DA87" s="11"/>
@@ -33192,16 +33257,16 @@
       <c r="CK88" s="12">
         <v>107.60629488401973</v>
       </c>
-      <c r="CL88" s="12">
+      <c r="CL88" s="29">
         <v>107.74936487010709</v>
       </c>
-      <c r="CM88" s="12">
+      <c r="CM88" s="29">
         <v>108.45251848444725</v>
       </c>
-      <c r="CN88" s="12">
+      <c r="CN88" s="29">
         <v>110.82947579690621</v>
       </c>
-      <c r="CO88" s="12">
+      <c r="CO88" s="29">
         <v>111.63409104070634</v>
       </c>
       <c r="CP88" s="29">
@@ -33214,7 +33279,7 @@
         <v>116.03448708778154</v>
       </c>
       <c r="CS88" s="29">
-        <v>116.24119531118899</v>
+        <v>116.24119531118902</v>
       </c>
       <c r="CT88" s="29">
         <v>116.99280012202308</v>
@@ -33226,9 +33291,11 @@
         <v>119.03658871418594</v>
       </c>
       <c r="CW88" s="29">
-        <v>118.97241450492876</v>
-      </c>
-      <c r="CX88" s="11"/>
+        <v>118.97256404565123</v>
+      </c>
+      <c r="CX88" s="29">
+        <v>119.17108341119366</v>
+      </c>
       <c r="CY88" s="11"/>
       <c r="CZ88" s="11"/>
       <c r="DA88" s="11"/>
@@ -33368,10 +33435,10 @@
       <c r="CI89" s="11"/>
       <c r="CJ89" s="11"/>
       <c r="CK89" s="11"/>
-      <c r="CL89" s="11"/>
-      <c r="CM89" s="11"/>
-      <c r="CN89" s="11"/>
-      <c r="CO89" s="11"/>
+      <c r="CL89" s="25"/>
+      <c r="CM89" s="25"/>
+      <c r="CN89" s="25"/>
+      <c r="CO89" s="25"/>
       <c r="CP89" s="25"/>
       <c r="CQ89" s="25"/>
       <c r="CR89" s="25"/>
@@ -33380,7 +33447,7 @@
       <c r="CU89" s="25"/>
       <c r="CV89" s="25"/>
       <c r="CW89" s="25"/>
-      <c r="CX89" s="11"/>
+      <c r="CX89" s="25"/>
       <c r="CY89" s="11"/>
       <c r="CZ89" s="11"/>
       <c r="DA89" s="11"/>
@@ -33699,16 +33766,16 @@
       <c r="CK90" s="12">
         <v>108.77149344246504</v>
       </c>
-      <c r="CL90" s="12">
+      <c r="CL90" s="29">
         <v>110.61244425273422</v>
       </c>
-      <c r="CM90" s="12">
+      <c r="CM90" s="29">
         <v>111.136188380184</v>
       </c>
-      <c r="CN90" s="12">
+      <c r="CN90" s="29">
         <v>112.70875725798729</v>
       </c>
-      <c r="CO90" s="12">
+      <c r="CO90" s="29">
         <v>115.45140051071859</v>
       </c>
       <c r="CP90" s="29">
@@ -33721,21 +33788,23 @@
         <v>118.07076202349913</v>
       </c>
       <c r="CS90" s="29">
-        <v>120.85117841344757</v>
+        <v>120.84368668791797</v>
       </c>
       <c r="CT90" s="29">
-        <v>122.70393048597592</v>
+        <v>122.70391698812648</v>
       </c>
       <c r="CU90" s="29">
-        <v>122.5089378316315</v>
+        <v>122.51517742759445</v>
       </c>
       <c r="CV90" s="29">
-        <v>121.81376715569188</v>
+        <v>121.81422709365873</v>
       </c>
       <c r="CW90" s="29">
-        <v>124.02600835117777</v>
-      </c>
-      <c r="CX90" s="11"/>
+        <v>124.00186042917957</v>
+      </c>
+      <c r="CX90" s="29">
+        <v>125.35243563205316</v>
+      </c>
       <c r="CY90" s="11"/>
       <c r="CZ90" s="11"/>
       <c r="DA90" s="11"/>
@@ -33876,10 +33945,10 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
-      <c r="CL91" s="9"/>
-      <c r="CM91" s="9"/>
-      <c r="CN91" s="9"/>
-      <c r="CO91" s="9"/>
+      <c r="CL91" s="27"/>
+      <c r="CM91" s="27"/>
+      <c r="CN91" s="27"/>
+      <c r="CO91" s="27"/>
       <c r="CP91" s="27"/>
       <c r="CQ91" s="27"/>
       <c r="CR91" s="27"/>
@@ -33888,6 +33957,7 @@
       <c r="CU91" s="27"/>
       <c r="CV91" s="27"/>
       <c r="CW91" s="27"/>
+      <c r="CX91" s="27"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33906,7 +33976,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33916,7 +33986,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -34058,12 +34128,12 @@
       <c r="CI103" s="19"/>
       <c r="CJ103" s="19"/>
       <c r="CK103" s="19"/>
-      <c r="CL103" s="19">
+      <c r="CL103" s="22">
         <v>2022</v>
       </c>
-      <c r="CM103" s="19"/>
-      <c r="CN103" s="19"/>
-      <c r="CO103" s="19"/>
+      <c r="CM103" s="22"/>
+      <c r="CN103" s="22"/>
+      <c r="CO103" s="22"/>
       <c r="CP103" s="22">
         <v>2023</v>
       </c>
@@ -34076,6 +34146,9 @@
       <c r="CU103" s="22"/>
       <c r="CV103" s="22"/>
       <c r="CW103" s="22"/>
+      <c r="CX103" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -34345,16 +34418,16 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="6" t="s">
+      <c r="CL104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="6" t="s">
+      <c r="CM104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="6" t="s">
+      <c r="CN104" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="6" t="s">
+      <c r="CO104" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP104" s="23" t="s">
@@ -34380,6 +34453,9 @@
       </c>
       <c r="CW104" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX104" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34653,16 +34729,16 @@
       <c r="CK106" s="12">
         <v>48.116779622255635</v>
       </c>
-      <c r="CL106" s="12">
+      <c r="CL106" s="29">
         <v>48.158983750772819</v>
       </c>
-      <c r="CM106" s="12">
+      <c r="CM106" s="29">
         <v>47.923108665829965</v>
       </c>
-      <c r="CN106" s="12">
+      <c r="CN106" s="29">
         <v>50.560769105460537</v>
       </c>
-      <c r="CO106" s="12">
+      <c r="CO106" s="29">
         <v>51.370495756025427</v>
       </c>
       <c r="CP106" s="29">
@@ -34675,21 +34751,23 @@
         <v>51.589056314993812</v>
       </c>
       <c r="CS106" s="29">
-        <v>53.136994937690439</v>
+        <v>53.053930407033747</v>
       </c>
       <c r="CT106" s="29">
-        <v>50.822528714224177</v>
+        <v>50.822414189439272</v>
       </c>
       <c r="CU106" s="29">
-        <v>51.603588240305932</v>
+        <v>51.67206333475238</v>
       </c>
       <c r="CV106" s="29">
-        <v>53.236888347732346</v>
+        <v>53.24550404831745</v>
       </c>
       <c r="CW106" s="29">
-        <v>53.680700065268269</v>
-      </c>
-      <c r="CX106" s="11"/>
+        <v>53.579683101537292</v>
+      </c>
+      <c r="CX106" s="29">
+        <v>51.404110725483086</v>
+      </c>
       <c r="CY106" s="11"/>
       <c r="CZ106" s="11"/>
       <c r="DA106" s="11"/>
@@ -35008,16 +35086,16 @@
       <c r="CK107" s="12">
         <v>51.883220377744365</v>
       </c>
-      <c r="CL107" s="12">
+      <c r="CL107" s="29">
         <v>51.841016249227181</v>
       </c>
-      <c r="CM107" s="12">
+      <c r="CM107" s="29">
         <v>52.07689133417005</v>
       </c>
-      <c r="CN107" s="12">
+      <c r="CN107" s="29">
         <v>49.43923089453947</v>
       </c>
-      <c r="CO107" s="12">
+      <c r="CO107" s="29">
         <v>48.629504243974587</v>
       </c>
       <c r="CP107" s="29">
@@ -35030,21 +35108,23 @@
         <v>48.410943685006188</v>
       </c>
       <c r="CS107" s="29">
-        <v>46.863005062309568</v>
+        <v>46.946069592966261</v>
       </c>
       <c r="CT107" s="29">
-        <v>49.177471285775809</v>
+        <v>49.177585810560743</v>
       </c>
       <c r="CU107" s="29">
-        <v>48.396411759694068</v>
+        <v>48.32793666524762</v>
       </c>
       <c r="CV107" s="29">
-        <v>46.763111652267654</v>
+        <v>46.754495951682557</v>
       </c>
       <c r="CW107" s="29">
-        <v>46.319299934731717</v>
-      </c>
-      <c r="CX107" s="11"/>
+        <v>46.420316898462715</v>
+      </c>
+      <c r="CX107" s="29">
+        <v>48.595889274516914</v>
+      </c>
       <c r="CY107" s="11"/>
       <c r="CZ107" s="11"/>
       <c r="DA107" s="11"/>
@@ -35184,10 +35264,10 @@
       <c r="CI108" s="11"/>
       <c r="CJ108" s="11"/>
       <c r="CK108" s="11"/>
-      <c r="CL108" s="11"/>
-      <c r="CM108" s="11"/>
-      <c r="CN108" s="11"/>
-      <c r="CO108" s="11"/>
+      <c r="CL108" s="25"/>
+      <c r="CM108" s="25"/>
+      <c r="CN108" s="25"/>
+      <c r="CO108" s="25"/>
       <c r="CP108" s="25"/>
       <c r="CQ108" s="25"/>
       <c r="CR108" s="25"/>
@@ -35196,7 +35276,7 @@
       <c r="CU108" s="25"/>
       <c r="CV108" s="25"/>
       <c r="CW108" s="25"/>
-      <c r="CX108" s="11"/>
+      <c r="CX108" s="25"/>
       <c r="CY108" s="11"/>
       <c r="CZ108" s="11"/>
       <c r="DA108" s="11"/>
@@ -35515,16 +35595,16 @@
       <c r="CK109" s="12">
         <v>100</v>
       </c>
-      <c r="CL109" s="12">
+      <c r="CL109" s="29">
         <v>100</v>
       </c>
-      <c r="CM109" s="12">
+      <c r="CM109" s="29">
         <v>100</v>
       </c>
-      <c r="CN109" s="12">
+      <c r="CN109" s="29">
         <v>100</v>
       </c>
-      <c r="CO109" s="12">
+      <c r="CO109" s="29">
         <v>100</v>
       </c>
       <c r="CP109" s="29">
@@ -35551,7 +35631,9 @@
       <c r="CW109" s="29">
         <v>100</v>
       </c>
-      <c r="CX109" s="11"/>
+      <c r="CX109" s="29">
+        <v>100</v>
+      </c>
       <c r="CY109" s="11"/>
       <c r="CZ109" s="11"/>
       <c r="DA109" s="11"/>
@@ -35692,10 +35774,10 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="9"/>
-      <c r="CM110" s="9"/>
-      <c r="CN110" s="9"/>
-      <c r="CO110" s="9"/>
+      <c r="CL110" s="27"/>
+      <c r="CM110" s="27"/>
+      <c r="CN110" s="27"/>
+      <c r="CO110" s="27"/>
       <c r="CP110" s="27"/>
       <c r="CQ110" s="27"/>
       <c r="CR110" s="27"/>
@@ -35704,6 +35786,7 @@
       <c r="CU110" s="27"/>
       <c r="CV110" s="27"/>
       <c r="CW110" s="27"/>
+      <c r="CX110" s="27"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35799,10 +35882,10 @@
       <c r="CI112" s="11"/>
       <c r="CJ112" s="11"/>
       <c r="CK112" s="11"/>
-      <c r="CL112" s="11"/>
-      <c r="CM112" s="11"/>
-      <c r="CN112" s="11"/>
-      <c r="CO112" s="11"/>
+      <c r="CL112" s="25"/>
+      <c r="CM112" s="25"/>
+      <c r="CN112" s="25"/>
+      <c r="CO112" s="25"/>
       <c r="CP112" s="25"/>
       <c r="CQ112" s="25"/>
       <c r="CR112" s="25"/>
@@ -35811,7 +35894,7 @@
       <c r="CU112" s="25"/>
       <c r="CV112" s="25"/>
       <c r="CW112" s="25"/>
-      <c r="CX112" s="11"/>
+      <c r="CX112" s="25"/>
       <c r="CY112" s="11"/>
       <c r="CZ112" s="11"/>
       <c r="DA112" s="11"/>
@@ -35951,10 +36034,10 @@
       <c r="CI113" s="11"/>
       <c r="CJ113" s="11"/>
       <c r="CK113" s="11"/>
-      <c r="CL113" s="11"/>
-      <c r="CM113" s="11"/>
-      <c r="CN113" s="11"/>
-      <c r="CO113" s="11"/>
+      <c r="CL113" s="25"/>
+      <c r="CM113" s="25"/>
+      <c r="CN113" s="25"/>
+      <c r="CO113" s="25"/>
       <c r="CP113" s="25"/>
       <c r="CQ113" s="25"/>
       <c r="CR113" s="25"/>
@@ -35963,7 +36046,7 @@
       <c r="CU113" s="25"/>
       <c r="CV113" s="25"/>
       <c r="CW113" s="25"/>
-      <c r="CX113" s="11"/>
+      <c r="CX113" s="25"/>
       <c r="CY113" s="11"/>
       <c r="CZ113" s="11"/>
       <c r="DA113" s="11"/>
@@ -36026,7 +36109,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -36036,7 +36119,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -36178,12 +36261,12 @@
       <c r="CI122" s="19"/>
       <c r="CJ122" s="19"/>
       <c r="CK122" s="19"/>
-      <c r="CL122" s="19">
+      <c r="CL122" s="22">
         <v>2022</v>
       </c>
-      <c r="CM122" s="19"/>
-      <c r="CN122" s="19"/>
-      <c r="CO122" s="19"/>
+      <c r="CM122" s="22"/>
+      <c r="CN122" s="22"/>
+      <c r="CO122" s="22"/>
       <c r="CP122" s="22">
         <v>2023</v>
       </c>
@@ -36196,6 +36279,9 @@
       <c r="CU122" s="22"/>
       <c r="CV122" s="22"/>
       <c r="CW122" s="22"/>
+      <c r="CX122" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -36465,16 +36551,16 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="6" t="s">
+      <c r="CL123" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="6" t="s">
+      <c r="CM123" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="6" t="s">
+      <c r="CN123" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="6" t="s">
+      <c r="CO123" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP123" s="23" t="s">
@@ -36500,6 +36586,9 @@
       </c>
       <c r="CW123" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX123" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36773,16 +36862,16 @@
       <c r="CK125" s="12">
         <v>47.55496998410382</v>
       </c>
-      <c r="CL125" s="12">
+      <c r="CL125" s="29">
         <v>46.781481943903444</v>
       </c>
-      <c r="CM125" s="12">
+      <c r="CM125" s="29">
         <v>46.634460071126185</v>
       </c>
-      <c r="CN125" s="12">
+      <c r="CN125" s="29">
         <v>49.722452137865453</v>
       </c>
-      <c r="CO125" s="12">
+      <c r="CO125" s="29">
         <v>49.707617818453151</v>
       </c>
       <c r="CP125" s="29">
@@ -36795,21 +36884,23 @@
         <v>50.739498621291602</v>
       </c>
       <c r="CS125" s="29">
-        <v>51.278465688400189</v>
+        <v>51.19513258673858</v>
       </c>
       <c r="CT125" s="29">
-        <v>48.421877142591761</v>
+        <v>48.421762700937357</v>
       </c>
       <c r="CU125" s="29">
-        <v>49.746096037280715</v>
+        <v>49.814643361081608</v>
       </c>
       <c r="CV125" s="29">
-        <v>52.14588341436486</v>
+        <v>52.154519471465058</v>
       </c>
       <c r="CW125" s="29">
-        <v>51.713194151508546</v>
-      </c>
-      <c r="CX125" s="11"/>
+        <v>51.617369069118048</v>
+      </c>
+      <c r="CX125" s="29">
+        <v>48.883463102811035</v>
+      </c>
       <c r="CY125" s="11"/>
       <c r="CZ125" s="11"/>
       <c r="DA125" s="11"/>
@@ -37128,16 +37219,16 @@
       <c r="CK126" s="12">
         <v>52.445030015896165</v>
       </c>
-      <c r="CL126" s="12">
+      <c r="CL126" s="29">
         <v>53.218518056096556</v>
       </c>
-      <c r="CM126" s="12">
+      <c r="CM126" s="29">
         <v>53.365539928873794</v>
       </c>
-      <c r="CN126" s="12">
+      <c r="CN126" s="29">
         <v>50.277547862134554</v>
       </c>
-      <c r="CO126" s="12">
+      <c r="CO126" s="29">
         <v>50.292382181546856</v>
       </c>
       <c r="CP126" s="29">
@@ -37150,21 +37241,23 @@
         <v>49.260501378708391</v>
       </c>
       <c r="CS126" s="29">
-        <v>48.721534311599804</v>
+        <v>48.804867413261441</v>
       </c>
       <c r="CT126" s="29">
-        <v>51.578122857408239</v>
+        <v>51.578237299062643</v>
       </c>
       <c r="CU126" s="29">
-        <v>50.253903962719285</v>
+        <v>50.185356638918385</v>
       </c>
       <c r="CV126" s="29">
-        <v>47.854116585635133</v>
+        <v>47.845480528534942</v>
       </c>
       <c r="CW126" s="29">
-        <v>48.286805848491447</v>
-      </c>
-      <c r="CX126" s="11"/>
+        <v>48.382630930881959</v>
+      </c>
+      <c r="CX126" s="29">
+        <v>51.116536897188958</v>
+      </c>
       <c r="CY126" s="11"/>
       <c r="CZ126" s="11"/>
       <c r="DA126" s="11"/>
@@ -37304,10 +37397,10 @@
       <c r="CI127" s="11"/>
       <c r="CJ127" s="11"/>
       <c r="CK127" s="11"/>
-      <c r="CL127" s="11"/>
-      <c r="CM127" s="11"/>
-      <c r="CN127" s="11"/>
-      <c r="CO127" s="11"/>
+      <c r="CL127" s="25"/>
+      <c r="CM127" s="25"/>
+      <c r="CN127" s="25"/>
+      <c r="CO127" s="25"/>
       <c r="CP127" s="25"/>
       <c r="CQ127" s="25"/>
       <c r="CR127" s="25"/>
@@ -37316,7 +37409,7 @@
       <c r="CU127" s="25"/>
       <c r="CV127" s="25"/>
       <c r="CW127" s="25"/>
-      <c r="CX127" s="11"/>
+      <c r="CX127" s="25"/>
       <c r="CY127" s="11"/>
       <c r="CZ127" s="11"/>
       <c r="DA127" s="11"/>
@@ -37635,16 +37728,16 @@
       <c r="CK128" s="12">
         <v>100</v>
       </c>
-      <c r="CL128" s="12">
+      <c r="CL128" s="29">
         <v>100</v>
       </c>
-      <c r="CM128" s="12">
+      <c r="CM128" s="29">
         <v>100</v>
       </c>
-      <c r="CN128" s="12">
+      <c r="CN128" s="29">
         <v>100</v>
       </c>
-      <c r="CO128" s="12">
+      <c r="CO128" s="29">
         <v>100</v>
       </c>
       <c r="CP128" s="29">
@@ -37671,7 +37764,9 @@
       <c r="CW128" s="29">
         <v>100</v>
       </c>
-      <c r="CX128" s="11"/>
+      <c r="CX128" s="29">
+        <v>100</v>
+      </c>
       <c r="CY128" s="11"/>
       <c r="CZ128" s="11"/>
       <c r="DA128" s="11"/>
@@ -37812,10 +37907,10 @@
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
-      <c r="CL129" s="9"/>
-      <c r="CM129" s="9"/>
-      <c r="CN129" s="9"/>
-      <c r="CO129" s="9"/>
+      <c r="CL129" s="27"/>
+      <c r="CM129" s="27"/>
+      <c r="CN129" s="27"/>
+      <c r="CO129" s="27"/>
       <c r="CP129" s="27"/>
       <c r="CQ129" s="27"/>
       <c r="CR129" s="27"/>
@@ -37824,6 +37919,7 @@
       <c r="CU129" s="27"/>
       <c r="CV129" s="27"/>
       <c r="CW129" s="27"/>
+      <c r="CX129" s="27"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -37920,19 +38016,19 @@
       <c r="CI131" s="3"/>
       <c r="CJ131" s="3"/>
       <c r="CK131" s="3"/>
-      <c r="CL131" s="3"/>
-      <c r="CM131" s="3"/>
-      <c r="CN131" s="3"/>
-      <c r="CO131" s="3"/>
+      <c r="CL131" s="21"/>
+      <c r="CM131" s="21"/>
+      <c r="CN131" s="21"/>
+      <c r="CO131" s="21"/>
       <c r="CP131" s="21"/>
       <c r="CQ131" s="21"/>
       <c r="CR131" s="21"/>
       <c r="CS131" s="21"/>
-      <c r="CT131" s="21"/>
-      <c r="CU131" s="21"/>
-      <c r="CV131" s="21"/>
+      <c r="CT131" s="30"/>
+      <c r="CU131" s="30"/>
+      <c r="CV131" s="30"/>
       <c r="CW131" s="21"/>
-      <c r="CX131" s="13"/>
+      <c r="CX131" s="30"/>
       <c r="CY131" s="13"/>
       <c r="CZ131" s="13"/>
       <c r="DA131" s="13"/>
@@ -38073,10 +38169,10 @@
       <c r="CI132" s="3"/>
       <c r="CJ132" s="3"/>
       <c r="CK132" s="3"/>
-      <c r="CL132" s="3"/>
-      <c r="CM132" s="3"/>
-      <c r="CN132" s="3"/>
-      <c r="CO132" s="3"/>
+      <c r="CL132" s="21"/>
+      <c r="CM132" s="21"/>
+      <c r="CN132" s="21"/>
+      <c r="CO132" s="21"/>
       <c r="CP132" s="21"/>
       <c r="CQ132" s="21"/>
       <c r="CR132" s="21"/>
@@ -38085,7 +38181,7 @@
       <c r="CU132" s="21"/>
       <c r="CV132" s="21"/>
       <c r="CW132" s="21"/>
-      <c r="CX132" s="13"/>
+      <c r="CX132" s="21"/>
       <c r="CY132" s="13"/>
       <c r="CZ132" s="13"/>
       <c r="DA132" s="13"/>
@@ -38138,67 +38234,68 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
@@ -38223,77 +38320,76 @@
     <mergeCell ref="AP66:AS66"/>
     <mergeCell ref="V47:Y47"/>
     <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="100" man="1"/>
-    <brk id="76" max="100" man="1"/>
-    <brk id="94" max="100" man="1"/>
+    <brk id="38" max="101" man="1"/>
+    <brk id="76" max="101" man="1"/>
+    <brk id="94" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95925B49-D2C4-49BD-BF2A-085763D9B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE3C00A-866E-4630-A3E1-874D89138BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CX$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$CY$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -638,10 +638,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -715,9 +715,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -740,13 +740,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -760,18 +760,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -23647,17 +23647,17 @@
   <dimension ref="A1:EU132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CL1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="89" width="8.33203125" style="3" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="21" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="3"/>
+    <col min="90" max="103" width="10.109375" style="21" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.2">
@@ -23672,7 +23672,7 @@
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.2">
@@ -23682,7 +23682,7 @@
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.2">
@@ -23845,6 +23845,7 @@
       <c r="CX9" s="22">
         <v>2025</v>
       </c>
+      <c r="CY9" s="22"/>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24152,6 +24153,9 @@
       </c>
       <c r="CX10" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY10" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24462,9 +24466,11 @@
         <v>203440.80776692316</v>
       </c>
       <c r="CX12" s="24">
-        <v>192566.19000344613</v>
-      </c>
-      <c r="CY12" s="11"/>
+        <v>194286.06714217673</v>
+      </c>
+      <c r="CY12" s="24">
+        <v>212225.3387912694</v>
+      </c>
       <c r="CZ12" s="11"/>
       <c r="DA12" s="11"/>
       <c r="DB12" s="11"/>
@@ -24819,9 +24825,11 @@
         <v>176256.8611823098</v>
       </c>
       <c r="CX13" s="24">
-        <v>182046.2432936118</v>
-      </c>
-      <c r="CY13" s="11"/>
+        <v>181731.67968382614</v>
+      </c>
+      <c r="CY13" s="24">
+        <v>184354.85314662961</v>
+      </c>
       <c r="CZ13" s="11"/>
       <c r="DA13" s="11"/>
       <c r="DB13" s="11"/>
@@ -24973,7 +24981,7 @@
       <c r="CV14" s="25"/>
       <c r="CW14" s="25"/>
       <c r="CX14" s="25"/>
-      <c r="CY14" s="11"/>
+      <c r="CY14" s="25"/>
       <c r="CZ14" s="11"/>
       <c r="DA14" s="11"/>
       <c r="DB14" s="11"/>
@@ -25328,9 +25336,11 @@
         <v>379697.66894923296</v>
       </c>
       <c r="CX15" s="26">
-        <v>374612.43329705793</v>
-      </c>
-      <c r="CY15" s="11"/>
+        <v>376017.74682600284</v>
+      </c>
+      <c r="CY15" s="26">
+        <v>396580.19193789898</v>
+      </c>
       <c r="CZ15" s="11"/>
       <c r="DA15" s="11"/>
       <c r="DB15" s="11"/>
@@ -25483,6 +25493,7 @@
       <c r="CV16" s="27"/>
       <c r="CW16" s="27"/>
       <c r="CX16" s="27"/>
+      <c r="CY16" s="27"/>
     </row>
     <row r="17" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25591,7 +25602,7 @@
       <c r="CV18" s="25"/>
       <c r="CW18" s="25"/>
       <c r="CX18" s="25"/>
-      <c r="CY18" s="11"/>
+      <c r="CY18" s="25"/>
       <c r="CZ18" s="11"/>
       <c r="DA18" s="11"/>
       <c r="DB18" s="11"/>
@@ -25743,7 +25754,7 @@
       <c r="CV19" s="25"/>
       <c r="CW19" s="25"/>
       <c r="CX19" s="25"/>
-      <c r="CY19" s="11"/>
+      <c r="CY19" s="25"/>
       <c r="CZ19" s="11"/>
       <c r="DA19" s="11"/>
       <c r="DB19" s="11"/>
@@ -25805,7 +25816,7 @@
     </row>
     <row r="22" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:151" x14ac:dyDescent="0.2">
@@ -25815,7 +25826,7 @@
     </row>
     <row r="25" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:151" x14ac:dyDescent="0.2">
@@ -25978,6 +25989,7 @@
       <c r="CX28" s="22">
         <v>2025</v>
       </c>
+      <c r="CY28" s="22"/>
     </row>
     <row r="29" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26285,6 +26297,9 @@
       </c>
       <c r="CX29" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY29" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26595,9 +26610,11 @@
         <v>158054.03761687764</v>
       </c>
       <c r="CX31" s="24">
-        <v>146086.9345585212</v>
-      </c>
-      <c r="CY31" s="11"/>
+        <v>147448.8067469708</v>
+      </c>
+      <c r="CY31" s="24">
+        <v>164914.24877417239</v>
+      </c>
       <c r="CZ31" s="11"/>
       <c r="DA31" s="11"/>
       <c r="DB31" s="11"/>
@@ -26952,9 +26969,11 @@
         <v>148149.16581496713</v>
       </c>
       <c r="CX32" s="24">
-        <v>152760.41643883579</v>
-      </c>
-      <c r="CY32" s="11"/>
+        <v>152487.56608276133</v>
+      </c>
+      <c r="CY32" s="24">
+        <v>153478.54172360167</v>
+      </c>
       <c r="CZ32" s="11"/>
       <c r="DA32" s="11"/>
       <c r="DB32" s="11"/>
@@ -27106,7 +27125,7 @@
       <c r="CV33" s="25"/>
       <c r="CW33" s="25"/>
       <c r="CX33" s="25"/>
-      <c r="CY33" s="11"/>
+      <c r="CY33" s="25"/>
       <c r="CZ33" s="11"/>
       <c r="DA33" s="11"/>
       <c r="DB33" s="11"/>
@@ -27461,9 +27480,11 @@
         <v>306203.20343184477</v>
       </c>
       <c r="CX34" s="26">
-        <v>298847.35099735699</v>
-      </c>
-      <c r="CY34" s="11"/>
+        <v>299936.37282973214</v>
+      </c>
+      <c r="CY34" s="26">
+        <v>318392.79049777403</v>
+      </c>
       <c r="CZ34" s="11"/>
       <c r="DA34" s="11"/>
       <c r="DB34" s="11"/>
@@ -27616,6 +27637,7 @@
       <c r="CV35" s="27"/>
       <c r="CW35" s="27"/>
       <c r="CX35" s="27"/>
+      <c r="CY35" s="27"/>
     </row>
     <row r="36" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -27724,7 +27746,7 @@
       <c r="CV37" s="25"/>
       <c r="CW37" s="25"/>
       <c r="CX37" s="25"/>
-      <c r="CY37" s="11"/>
+      <c r="CY37" s="25"/>
       <c r="CZ37" s="11"/>
       <c r="DA37" s="11"/>
       <c r="DB37" s="11"/>
@@ -27876,7 +27898,7 @@
       <c r="CV38" s="25"/>
       <c r="CW38" s="25"/>
       <c r="CX38" s="25"/>
-      <c r="CY38" s="11"/>
+      <c r="CY38" s="25"/>
       <c r="CZ38" s="11"/>
       <c r="DA38" s="11"/>
       <c r="DB38" s="11"/>
@@ -27938,7 +27960,7 @@
     </row>
     <row r="41" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:151" x14ac:dyDescent="0.2">
@@ -27950,30 +27972,32 @@
       <c r="CU43" s="30"/>
       <c r="CV43" s="30"/>
       <c r="CX43" s="30"/>
+      <c r="CY43" s="30"/>
     </row>
     <row r="44" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CS44" s="30"/>
       <c r="CT44" s="30"/>
       <c r="CU44" s="30"/>
       <c r="CV44" s="30"/>
       <c r="CX44" s="30"/>
+      <c r="CY44" s="30"/>
     </row>
     <row r="45" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="CS45" s="30"/>
-      <c r="CU45" s="30"/>
       <c r="CV45" s="30"/>
       <c r="CX45" s="30"/>
+      <c r="CY45" s="30"/>
     </row>
     <row r="46" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CU46" s="30"/>
       <c r="CV46" s="30"/>
       <c r="CX46" s="30"/>
+      <c r="CY46" s="30"/>
     </row>
     <row r="47" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -28124,10 +28148,11 @@
       <c r="CT47" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CU47" s="20"/>
+      <c r="CU47" s="22"/>
       <c r="CV47" s="20"/>
       <c r="CW47" s="20"/>
       <c r="CX47" s="20"/>
+      <c r="CY47" s="20"/>
     </row>
     <row r="48" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28424,16 +28449,19 @@
       <c r="CT48" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CU48" s="28"/>
+      <c r="CU48" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="CV48" s="28"/>
       <c r="CW48" s="28"/>
       <c r="CX48" s="28"/>
+      <c r="CY48" s="28"/>
     </row>
     <row r="49" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="CU49" s="30"/>
       <c r="CV49" s="30"/>
       <c r="CX49" s="30"/>
+      <c r="CY49" s="30"/>
     </row>
     <row r="50" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
@@ -28728,13 +28756,15 @@
         <v>6.8048339891842744</v>
       </c>
       <c r="CT50" s="29">
-        <v>6.7388829533433068</v>
-      </c>
-      <c r="CU50" s="31"/>
+        <v>7.6922058840291641</v>
+      </c>
+      <c r="CU50" s="29">
+        <v>11.764089093874162</v>
+      </c>
       <c r="CV50" s="31"/>
       <c r="CW50" s="29"/>
       <c r="CX50" s="31"/>
-      <c r="CY50" s="11"/>
+      <c r="CY50" s="31"/>
       <c r="CZ50" s="11"/>
       <c r="DA50" s="11"/>
       <c r="DB50" s="11"/>
@@ -29073,13 +29103,15 @@
         <v>4.5724287268197799</v>
       </c>
       <c r="CT51" s="29">
-        <v>4.2827375359964321</v>
-      </c>
-      <c r="CU51" s="31"/>
+        <v>4.102544010636251</v>
+      </c>
+      <c r="CU51" s="29">
+        <v>3.8047370098227589</v>
+      </c>
       <c r="CV51" s="31"/>
       <c r="CW51" s="29"/>
       <c r="CX51" s="31"/>
-      <c r="CY51" s="11"/>
+      <c r="CY51" s="31"/>
       <c r="CZ51" s="11"/>
       <c r="DA51" s="11"/>
       <c r="DB51" s="11"/>
@@ -29224,11 +29256,11 @@
       <c r="CR52" s="25"/>
       <c r="CS52" s="25"/>
       <c r="CT52" s="25"/>
-      <c r="CU52" s="32"/>
+      <c r="CU52" s="25"/>
       <c r="CV52" s="32"/>
       <c r="CW52" s="25"/>
       <c r="CX52" s="32"/>
-      <c r="CY52" s="11"/>
+      <c r="CY52" s="32"/>
       <c r="CZ52" s="11"/>
       <c r="DA52" s="11"/>
       <c r="DB52" s="11"/>
@@ -29567,13 +29599,15 @@
         <v>5.756807461117603</v>
       </c>
       <c r="CT53" s="29">
-        <v>5.5310099330954046</v>
-      </c>
-      <c r="CU53" s="31"/>
+        <v>5.9268968359323964</v>
+      </c>
+      <c r="CU53" s="29">
+        <v>7.9174984597297282</v>
+      </c>
       <c r="CV53" s="31"/>
       <c r="CW53" s="29"/>
       <c r="CX53" s="31"/>
-      <c r="CY53" s="11"/>
+      <c r="CY53" s="31"/>
       <c r="CZ53" s="11"/>
       <c r="DA53" s="11"/>
       <c r="DB53" s="11"/>
@@ -29718,18 +29752,19 @@
       <c r="CR54" s="27"/>
       <c r="CS54" s="27"/>
       <c r="CT54" s="27"/>
-      <c r="CU54" s="23"/>
+      <c r="CU54" s="27"/>
       <c r="CV54" s="23"/>
       <c r="CW54" s="27"/>
       <c r="CX54" s="23"/>
+      <c r="CY54" s="23"/>
     </row>
     <row r="55" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="CU55" s="30"/>
       <c r="CV55" s="30"/>
       <c r="CX55" s="30"/>
+      <c r="CY55" s="30"/>
     </row>
     <row r="56" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
@@ -29829,11 +29864,11 @@
       <c r="CR56" s="25"/>
       <c r="CS56" s="25"/>
       <c r="CT56" s="25"/>
-      <c r="CU56" s="32"/>
+      <c r="CU56" s="25"/>
       <c r="CV56" s="32"/>
       <c r="CW56" s="25"/>
       <c r="CX56" s="32"/>
-      <c r="CY56" s="11"/>
+      <c r="CY56" s="32"/>
       <c r="CZ56" s="11"/>
       <c r="DA56" s="11"/>
       <c r="DB56" s="11"/>
@@ -29977,11 +30012,11 @@
       <c r="CR57" s="25"/>
       <c r="CS57" s="25"/>
       <c r="CT57" s="25"/>
-      <c r="CU57" s="32"/>
+      <c r="CU57" s="25"/>
       <c r="CV57" s="32"/>
       <c r="CW57" s="25"/>
       <c r="CX57" s="32"/>
-      <c r="CY57" s="11"/>
+      <c r="CY57" s="32"/>
       <c r="CZ57" s="11"/>
       <c r="DA57" s="11"/>
       <c r="DB57" s="11"/>
@@ -30031,59 +30066,59 @@
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CU58" s="30"/>
       <c r="CV58" s="30"/>
       <c r="CX58" s="30"/>
+      <c r="CY58" s="30"/>
     </row>
     <row r="59" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="CU59" s="30"/>
       <c r="CV59" s="30"/>
       <c r="CX59" s="30"/>
+      <c r="CY59" s="30"/>
     </row>
     <row r="60" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="CU60" s="30"/>
+        <v>51</v>
+      </c>
       <c r="CV60" s="30"/>
       <c r="CX60" s="30"/>
+      <c r="CY60" s="30"/>
     </row>
     <row r="61" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CU61" s="30"/>
       <c r="CV61" s="30"/>
       <c r="CX61" s="30"/>
+      <c r="CY61" s="30"/>
     </row>
     <row r="62" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CU62" s="30"/>
       <c r="CV62" s="30"/>
       <c r="CX62" s="30"/>
+      <c r="CY62" s="30"/>
     </row>
     <row r="63" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="CU63" s="30"/>
+        <v>53</v>
+      </c>
       <c r="CV63" s="30"/>
       <c r="CX63" s="30"/>
+      <c r="CY63" s="30"/>
     </row>
     <row r="64" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="CU64" s="30"/>
       <c r="CV64" s="30"/>
       <c r="CX64" s="30"/>
+      <c r="CY64" s="30"/>
     </row>
     <row r="65" spans="1:151" x14ac:dyDescent="0.2">
-      <c r="CU65" s="30"/>
       <c r="CV65" s="30"/>
       <c r="CX65" s="30"/>
+      <c r="CY65" s="30"/>
     </row>
     <row r="66" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -30234,10 +30269,11 @@
       <c r="CT66" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CU66" s="20"/>
+      <c r="CU66" s="22"/>
       <c r="CV66" s="20"/>
       <c r="CW66" s="20"/>
       <c r="CX66" s="20"/>
+      <c r="CY66" s="20"/>
     </row>
     <row r="67" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30534,16 +30570,19 @@
       <c r="CT67" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CU67" s="28"/>
+      <c r="CU67" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="CV67" s="28"/>
       <c r="CW67" s="28"/>
       <c r="CX67" s="28"/>
+      <c r="CY67" s="28"/>
     </row>
     <row r="68" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
-      <c r="CU68" s="30"/>
       <c r="CV68" s="30"/>
       <c r="CX68" s="30"/>
+      <c r="CY68" s="30"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
@@ -30838,13 +30877,15 @@
         <v>3.9133365968470741</v>
       </c>
       <c r="CT69" s="29">
-        <v>4.2862652570949393</v>
-      </c>
-      <c r="CU69" s="31"/>
+        <v>5.2584573612014367</v>
+      </c>
+      <c r="CU69" s="29">
+        <v>10.370217870148352</v>
+      </c>
       <c r="CV69" s="31"/>
       <c r="CW69" s="29"/>
       <c r="CX69" s="31"/>
-      <c r="CY69" s="11"/>
+      <c r="CY69" s="31"/>
       <c r="CZ69" s="11"/>
       <c r="DA69" s="11"/>
       <c r="DB69" s="11"/>
@@ -31183,13 +31224,15 @@
         <v>2.1716578885816631</v>
       </c>
       <c r="CT70" s="29">
-        <v>2.3765927060478163</v>
-      </c>
-      <c r="CU70" s="31"/>
+        <v>2.1937345388293608</v>
+      </c>
+      <c r="CU70" s="29">
+        <v>1.9580201871302307</v>
+      </c>
       <c r="CV70" s="31"/>
       <c r="CW70" s="29"/>
       <c r="CX70" s="31"/>
-      <c r="CY70" s="11"/>
+      <c r="CY70" s="31"/>
       <c r="CZ70" s="11"/>
       <c r="DA70" s="11"/>
       <c r="DB70" s="11"/>
@@ -31333,11 +31376,11 @@
       <c r="CR71" s="25"/>
       <c r="CS71" s="25"/>
       <c r="CT71" s="25"/>
-      <c r="CU71" s="32"/>
+      <c r="CU71" s="25"/>
       <c r="CV71" s="32"/>
       <c r="CW71" s="25"/>
       <c r="CX71" s="32"/>
-      <c r="CY71" s="11"/>
+      <c r="CY71" s="32"/>
       <c r="CZ71" s="11"/>
       <c r="DA71" s="11"/>
       <c r="DB71" s="11"/>
@@ -31676,13 +31719,15 @@
         <v>3.0633126125131582</v>
       </c>
       <c r="CT72" s="29">
-        <v>3.3012898170808</v>
-      </c>
-      <c r="CU72" s="31"/>
+        <v>3.677727351319831</v>
+      </c>
+      <c r="CU72" s="29">
+        <v>6.1485264617548552</v>
+      </c>
       <c r="CV72" s="31"/>
       <c r="CW72" s="29"/>
       <c r="CX72" s="31"/>
-      <c r="CY72" s="11"/>
+      <c r="CY72" s="31"/>
       <c r="CZ72" s="11"/>
       <c r="DA72" s="11"/>
       <c r="DB72" s="11"/>
@@ -31827,18 +31872,19 @@
       <c r="CR73" s="27"/>
       <c r="CS73" s="27"/>
       <c r="CT73" s="27"/>
-      <c r="CU73" s="23"/>
+      <c r="CU73" s="27"/>
       <c r="CV73" s="23"/>
       <c r="CW73" s="27"/>
       <c r="CX73" s="23"/>
+      <c r="CY73" s="23"/>
     </row>
     <row r="74" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="CU74" s="30"/>
       <c r="CV74" s="30"/>
       <c r="CX74" s="30"/>
+      <c r="CY74" s="30"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
@@ -31942,7 +31988,7 @@
       <c r="CV75" s="25"/>
       <c r="CW75" s="25"/>
       <c r="CX75" s="25"/>
-      <c r="CY75" s="11"/>
+      <c r="CY75" s="25"/>
       <c r="CZ75" s="11"/>
       <c r="DA75" s="11"/>
       <c r="DB75" s="11"/>
@@ -32090,7 +32136,7 @@
       <c r="CV76" s="25"/>
       <c r="CW76" s="25"/>
       <c r="CX76" s="25"/>
-      <c r="CY76" s="11"/>
+      <c r="CY76" s="25"/>
       <c r="CZ76" s="11"/>
       <c r="DA76" s="11"/>
       <c r="DB76" s="11"/>
@@ -32147,7 +32193,7 @@
     </row>
     <row r="78" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:151" x14ac:dyDescent="0.2">
@@ -32157,7 +32203,7 @@
     </row>
     <row r="81" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:151" x14ac:dyDescent="0.2">
@@ -32320,6 +32366,7 @@
       <c r="CX84" s="22">
         <v>2025</v>
       </c>
+      <c r="CY84" s="22"/>
     </row>
     <row r="85" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -32627,6 +32674,9 @@
       </c>
       <c r="CX85" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY85" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32937,9 +32987,11 @@
         <v>128.71598273247716</v>
       </c>
       <c r="CX87" s="29">
-        <v>131.816161784342</v>
-      </c>
-      <c r="CY87" s="11"/>
+        <v>131.76509964952169</v>
+      </c>
+      <c r="CY87" s="29">
+        <v>128.68829732346725</v>
+      </c>
       <c r="CZ87" s="11"/>
       <c r="DA87" s="11"/>
       <c r="DB87" s="11"/>
@@ -33294,9 +33346,11 @@
         <v>118.97256404565123</v>
       </c>
       <c r="CX88" s="29">
-        <v>119.17108341119366</v>
-      </c>
-      <c r="CY88" s="11"/>
+        <v>119.17803159451887</v>
+      </c>
+      <c r="CY88" s="29">
+        <v>120.11767317846483</v>
+      </c>
       <c r="CZ88" s="11"/>
       <c r="DA88" s="11"/>
       <c r="DB88" s="11"/>
@@ -33448,7 +33502,7 @@
       <c r="CV89" s="25"/>
       <c r="CW89" s="25"/>
       <c r="CX89" s="25"/>
-      <c r="CY89" s="11"/>
+      <c r="CY89" s="25"/>
       <c r="CZ89" s="11"/>
       <c r="DA89" s="11"/>
       <c r="DB89" s="11"/>
@@ -33803,9 +33857,11 @@
         <v>124.00186042917957</v>
       </c>
       <c r="CX90" s="29">
-        <v>125.35243563205316</v>
-      </c>
-      <c r="CY90" s="11"/>
+        <v>125.36583785370392</v>
+      </c>
+      <c r="CY90" s="29">
+        <v>124.55690071307428</v>
+      </c>
       <c r="CZ90" s="11"/>
       <c r="DA90" s="11"/>
       <c r="DB90" s="11"/>
@@ -33958,6 +34014,7 @@
       <c r="CV91" s="27"/>
       <c r="CW91" s="27"/>
       <c r="CX91" s="27"/>
+      <c r="CY91" s="27"/>
     </row>
     <row r="92" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -33976,7 +34033,7 @@
     </row>
     <row r="97" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:151" x14ac:dyDescent="0.2">
@@ -33986,7 +34043,7 @@
     </row>
     <row r="100" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:151" x14ac:dyDescent="0.2">
@@ -34149,6 +34206,7 @@
       <c r="CX103" s="22">
         <v>2025</v>
       </c>
+      <c r="CY103" s="22"/>
     </row>
     <row r="104" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -34456,6 +34514,9 @@
       </c>
       <c r="CX104" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY104" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34766,9 +34827,11 @@
         <v>53.579683101537292</v>
       </c>
       <c r="CX106" s="29">
-        <v>51.404110725483086</v>
-      </c>
-      <c r="CY106" s="11"/>
+        <v>51.669387623898508</v>
+      </c>
+      <c r="CY106" s="29">
+        <v>53.513852457992158</v>
+      </c>
       <c r="CZ106" s="11"/>
       <c r="DA106" s="11"/>
       <c r="DB106" s="11"/>
@@ -35123,9 +35186,11 @@
         <v>46.420316898462715</v>
       </c>
       <c r="CX107" s="29">
-        <v>48.595889274516914</v>
-      </c>
-      <c r="CY107" s="11"/>
+        <v>48.330612376101499</v>
+      </c>
+      <c r="CY107" s="29">
+        <v>46.486147542007842</v>
+      </c>
       <c r="CZ107" s="11"/>
       <c r="DA107" s="11"/>
       <c r="DB107" s="11"/>
@@ -35277,7 +35342,7 @@
       <c r="CV108" s="25"/>
       <c r="CW108" s="25"/>
       <c r="CX108" s="25"/>
-      <c r="CY108" s="11"/>
+      <c r="CY108" s="25"/>
       <c r="CZ108" s="11"/>
       <c r="DA108" s="11"/>
       <c r="DB108" s="11"/>
@@ -35634,7 +35699,9 @@
       <c r="CX109" s="29">
         <v>100</v>
       </c>
-      <c r="CY109" s="11"/>
+      <c r="CY109" s="29">
+        <v>100</v>
+      </c>
       <c r="CZ109" s="11"/>
       <c r="DA109" s="11"/>
       <c r="DB109" s="11"/>
@@ -35787,6 +35854,7 @@
       <c r="CV110" s="27"/>
       <c r="CW110" s="27"/>
       <c r="CX110" s="27"/>
+      <c r="CY110" s="27"/>
     </row>
     <row r="111" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -35895,7 +35963,7 @@
       <c r="CV112" s="25"/>
       <c r="CW112" s="25"/>
       <c r="CX112" s="25"/>
-      <c r="CY112" s="11"/>
+      <c r="CY112" s="25"/>
       <c r="CZ112" s="11"/>
       <c r="DA112" s="11"/>
       <c r="DB112" s="11"/>
@@ -36047,7 +36115,7 @@
       <c r="CV113" s="25"/>
       <c r="CW113" s="25"/>
       <c r="CX113" s="25"/>
-      <c r="CY113" s="11"/>
+      <c r="CY113" s="25"/>
       <c r="CZ113" s="11"/>
       <c r="DA113" s="11"/>
       <c r="DB113" s="11"/>
@@ -36109,7 +36177,7 @@
     </row>
     <row r="116" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:151" x14ac:dyDescent="0.2">
@@ -36119,7 +36187,7 @@
     </row>
     <row r="119" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:151" x14ac:dyDescent="0.2">
@@ -36282,6 +36350,7 @@
       <c r="CX122" s="22">
         <v>2025</v>
       </c>
+      <c r="CY122" s="22"/>
     </row>
     <row r="123" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -36589,6 +36658,9 @@
       </c>
       <c r="CX123" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY123" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:151" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36899,9 +36971,11 @@
         <v>51.617369069118048</v>
       </c>
       <c r="CX125" s="29">
-        <v>48.883463102811035</v>
-      </c>
-      <c r="CY125" s="11"/>
+        <v>49.16002862736309</v>
+      </c>
+      <c r="CY125" s="29">
+        <v>51.795848931235568</v>
+      </c>
       <c r="CZ125" s="11"/>
       <c r="DA125" s="11"/>
       <c r="DB125" s="11"/>
@@ -37256,9 +37330,11 @@
         <v>48.382630930881959</v>
       </c>
       <c r="CX126" s="29">
-        <v>51.116536897188958</v>
-      </c>
-      <c r="CY126" s="11"/>
+        <v>50.839971372636917</v>
+      </c>
+      <c r="CY126" s="29">
+        <v>48.204151068764439</v>
+      </c>
       <c r="CZ126" s="11"/>
       <c r="DA126" s="11"/>
       <c r="DB126" s="11"/>
@@ -37410,7 +37486,7 @@
       <c r="CV127" s="25"/>
       <c r="CW127" s="25"/>
       <c r="CX127" s="25"/>
-      <c r="CY127" s="11"/>
+      <c r="CY127" s="25"/>
       <c r="CZ127" s="11"/>
       <c r="DA127" s="11"/>
       <c r="DB127" s="11"/>
@@ -37767,7 +37843,9 @@
       <c r="CX128" s="29">
         <v>100</v>
       </c>
-      <c r="CY128" s="11"/>
+      <c r="CY128" s="29">
+        <v>100</v>
+      </c>
       <c r="CZ128" s="11"/>
       <c r="DA128" s="11"/>
       <c r="DB128" s="11"/>
@@ -37920,6 +37998,7 @@
       <c r="CV129" s="27"/>
       <c r="CW129" s="27"/>
       <c r="CX129" s="27"/>
+      <c r="CY129" s="27"/>
     </row>
     <row r="130" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
@@ -38024,12 +38103,12 @@
       <c r="CQ131" s="21"/>
       <c r="CR131" s="21"/>
       <c r="CS131" s="21"/>
-      <c r="CT131" s="30"/>
-      <c r="CU131" s="30"/>
-      <c r="CV131" s="30"/>
+      <c r="CT131" s="21"/>
+      <c r="CU131" s="21"/>
+      <c r="CV131" s="21"/>
       <c r="CW131" s="21"/>
-      <c r="CX131" s="30"/>
-      <c r="CY131" s="13"/>
+      <c r="CX131" s="21"/>
+      <c r="CY131" s="21"/>
       <c r="CZ131" s="13"/>
       <c r="DA131" s="13"/>
       <c r="DB131" s="13"/>
@@ -38182,7 +38261,7 @@
       <c r="CV132" s="21"/>
       <c r="CW132" s="21"/>
       <c r="CX132" s="21"/>
-      <c r="CY132" s="13"/>
+      <c r="CY132" s="21"/>
       <c r="CZ132" s="13"/>
       <c r="DA132" s="13"/>
       <c r="DB132" s="13"/>
@@ -38387,9 +38466,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="101" man="1"/>
-    <brk id="76" max="101" man="1"/>
-    <brk id="94" max="101" man="1"/>
+    <brk id="38" max="102" man="1"/>
+    <brk id="76" max="102" man="1"/>
+    <brk id="94" max="102" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>